--- a/data/DAN.MI.xlsx
+++ b/data/DAN.MI.xlsx
@@ -38,58 +38,58 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8921461105347</t>
+    <t xml:space="preserve">15.8921489715576</t>
   </si>
   <si>
     <t xml:space="preserve">DAN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">16.023021697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.518217086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8170928955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4899015426636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2094507217407</t>
+    <t xml:space="preserve">16.0230236053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5182151794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8170909881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4899005889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2094497680664</t>
   </si>
   <si>
     <t xml:space="preserve">14.5646858215332</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3122835159302</t>
+    <t xml:space="preserve">14.3122825622559</t>
   </si>
   <si>
     <t xml:space="preserve">14.1346635818481</t>
   </si>
   <si>
-    <t xml:space="preserve">13.35875415802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0409078598022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1343936920166</t>
+    <t xml:space="preserve">13.3587532043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0409107208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1343927383423</t>
   </si>
   <si>
     <t xml:space="preserve">12.5267515182495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1998329162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3867979049683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2006435394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3595676422119</t>
+    <t xml:space="preserve">13.1998310089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3867988586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2006416320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3595657348633</t>
   </si>
   <si>
     <t xml:space="preserve">16.6400146484375</t>
@@ -98,37 +98,37 @@
     <t xml:space="preserve">16.3969593048096</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6774044036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4439697265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9204635620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7706212997437</t>
+    <t xml:space="preserve">16.6774063110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4439678192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9204654693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.770622253418</t>
   </si>
   <si>
     <t xml:space="preserve">16.4156532287598</t>
   </si>
   <si>
-    <t xml:space="preserve">15.602352142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2284183502197</t>
+    <t xml:space="preserve">15.6023502349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.228419303894</t>
   </si>
   <si>
     <t xml:space="preserve">15.2377653121948</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6490936279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3966865539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2938547134399</t>
+    <t xml:space="preserve">15.6490917205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3966856002808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2938566207886</t>
   </si>
   <si>
     <t xml:space="preserve">16.2193412780762</t>
@@ -137,22 +137,22 @@
     <t xml:space="preserve">16.5465316772461</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0887317657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2476577758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3878784179688</t>
+    <t xml:space="preserve">17.0887336730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2476558685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3878803253174</t>
   </si>
   <si>
     <t xml:space="preserve">17.294397354126</t>
   </si>
   <si>
-    <t xml:space="preserve">17.032642364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.668062210083</t>
+    <t xml:space="preserve">17.0326442718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6680603027344</t>
   </si>
   <si>
     <t xml:space="preserve">16.6587104797363</t>
@@ -164,13 +164,13 @@
     <t xml:space="preserve">16.957857131958</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5094089508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.640287399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7057228088379</t>
+    <t xml:space="preserve">17.509407043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6402854919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7057247161865</t>
   </si>
   <si>
     <t xml:space="preserve">17.7711620330811</t>
@@ -179,10 +179,10 @@
     <t xml:space="preserve">16.8550262451172</t>
   </si>
   <si>
-    <t xml:space="preserve">17.55615234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8552951812744</t>
+    <t xml:space="preserve">17.5561504364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.855297088623</t>
   </si>
   <si>
     <t xml:space="preserve">17.2009124755859</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">17.5935440063477</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7992038726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3411388397217</t>
+    <t xml:space="preserve">17.7992076873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3411407470703</t>
   </si>
   <si>
     <t xml:space="preserve">16.5278339385986</t>
@@ -206,25 +206,25 @@
     <t xml:space="preserve">17.2663516998291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6215896606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8924179077148</t>
+    <t xml:space="preserve">17.6215877532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8924198150635</t>
   </si>
   <si>
     <t xml:space="preserve">16.8456783294678</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4533176422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9020385742188</t>
+    <t xml:space="preserve">17.4533195495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9020404815674</t>
   </si>
   <si>
     <t xml:space="preserve">17.9768238067627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7431144714355</t>
+    <t xml:space="preserve">17.7431163787842</t>
   </si>
   <si>
     <t xml:space="preserve">18.2105312347412</t>
@@ -236,19 +236,19 @@
     <t xml:space="preserve">18.3694534301758</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1357460021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9394302368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6966457366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7620849609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7901306152344</t>
+    <t xml:space="preserve">18.1357440948486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.939432144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6966438293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7620830535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7901287078857</t>
   </si>
   <si>
     <t xml:space="preserve">18.4442405700684</t>
@@ -260,34 +260,34 @@
     <t xml:space="preserve">18.3788032531738</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2385749816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8085536956787</t>
+    <t xml:space="preserve">18.2385768890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8085517883301</t>
   </si>
   <si>
     <t xml:space="preserve">17.4813632965088</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8272495269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5000591278076</t>
+    <t xml:space="preserve">17.8272533416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5000610351562</t>
   </si>
   <si>
     <t xml:space="preserve">17.4065761566162</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0980815887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1635227203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8830699920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6306705474854</t>
+    <t xml:space="preserve">17.0980854034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1635189056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8830718994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6306648254395</t>
   </si>
   <si>
     <t xml:space="preserve">16.4623966217041</t>
@@ -296,25 +296,25 @@
     <t xml:space="preserve">16.5652275085449</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0700397491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7708930969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7334957122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4810905456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6963748931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8363285064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8176288604736</t>
+    <t xml:space="preserve">17.0700378417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7708911895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7334976196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4810924530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6963729858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8363304138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8176307678223</t>
   </si>
   <si>
     <t xml:space="preserve">17.5748462677002</t>
@@ -323,46 +323,46 @@
     <t xml:space="preserve">17.3224411010742</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3691844940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1165065765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.153902053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2471132278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0508012771606</t>
+    <t xml:space="preserve">17.3691825866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1165084838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1539039611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2471122741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.050799369812</t>
   </si>
   <si>
     <t xml:space="preserve">15.3592929840088</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6303939819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2660846710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2751588821411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7329559326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1723260879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8077430725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9666652679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7051839828491</t>
+    <t xml:space="preserve">15.6303977966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2660789489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2751607894897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7329578399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1723279953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8077440261841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.96666431427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7051811218262</t>
   </si>
   <si>
     <t xml:space="preserve">15.3218984603882</t>
@@ -371,43 +371,43 @@
     <t xml:space="preserve">14.9105739593506</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2748889923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.536642074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9386186599731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6958341598511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.611701965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7986621856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5462598800659</t>
+    <t xml:space="preserve">14.2748899459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5366411209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9386196136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6958351135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6116971969604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7986640930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5462579727173</t>
   </si>
   <si>
     <t xml:space="preserve">15.6210460662842</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5930013656616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6771373748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4530487060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9201946258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.686484336853</t>
+    <t xml:space="preserve">15.5930042266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6771383285522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4530467987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9201917648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6864833831787</t>
   </si>
   <si>
     <t xml:space="preserve">16.4343509674072</t>
@@ -416,13 +416,13 @@
     <t xml:space="preserve">16.1352062225342</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3876075744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4904384613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3782596588135</t>
+    <t xml:space="preserve">16.3876094818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4904403686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3782615661621</t>
   </si>
   <si>
     <t xml:space="preserve">16.2941246032715</t>
@@ -431,19 +431,19 @@
     <t xml:space="preserve">17.4720153808594</t>
   </si>
   <si>
-    <t xml:space="preserve">17.13547706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9298152923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9672069549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9487819671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4907093048096</t>
+    <t xml:space="preserve">17.1354751586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9298133850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9672031402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9487800598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4907112121582</t>
   </si>
   <si>
     <t xml:space="preserve">17.3598346710205</t>
@@ -452,97 +452,97 @@
     <t xml:space="preserve">17.5281047821045</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6683311462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.406307220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0884628295898</t>
+    <t xml:space="preserve">17.6683292388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4063053131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0884609222412</t>
   </si>
   <si>
     <t xml:space="preserve">16.0604190826416</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1258544921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2567310333252</t>
+    <t xml:space="preserve">16.1258563995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2567329406738</t>
   </si>
   <si>
     <t xml:space="preserve">15.9388904571533</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9669370651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8641023635864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7893171310425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9108467102051</t>
+    <t xml:space="preserve">15.9669361114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8641014099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7893180847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9108486175537</t>
   </si>
   <si>
     <t xml:space="preserve">16.3408660888672</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0232963562012</t>
+    <t xml:space="preserve">17.0232944488525</t>
   </si>
   <si>
     <t xml:space="preserve">16.3689155578613</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8360605239868</t>
+    <t xml:space="preserve">15.8360576629639</t>
   </si>
   <si>
     <t xml:space="preserve">15.8454065322876</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0043296813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6584405899048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4527750015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.528018951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6032619476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8477964401245</t>
+    <t xml:space="preserve">16.0043315887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6584396362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4527797698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5280199050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6032638549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8478002548218</t>
   </si>
   <si>
     <t xml:space="preserve">15.9324445724487</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0923347473145</t>
+    <t xml:space="preserve">16.0923328399658</t>
   </si>
   <si>
     <t xml:space="preserve">15.8195810317993</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2646732330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6220712661743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.716121673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7067193984985</t>
+    <t xml:space="preserve">15.2646722793579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6220750808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7161226272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7067165374756</t>
   </si>
   <si>
     <t xml:space="preserve">15.3493194580078</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0641174316406</t>
+    <t xml:space="preserve">16.064115524292</t>
   </si>
   <si>
     <t xml:space="preserve">16.5343780517578</t>
@@ -551,52 +551,52 @@
     <t xml:space="preserve">16.129955291748</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6879091262817</t>
+    <t xml:space="preserve">15.6879072189331</t>
   </si>
   <si>
     <t xml:space="preserve">15.8007707595825</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5092086791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0829296112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2522239685059</t>
+    <t xml:space="preserve">15.5092096328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0829277038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2522220611572</t>
   </si>
   <si>
     <t xml:space="preserve">16.0359001159668</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7883186340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.399658203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4748973846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.352632522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4372825622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2397727966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1645259857178</t>
+    <t xml:space="preserve">16.7883205413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3996601104736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4748992919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3526344299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4372787475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2397689819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.164529800415</t>
   </si>
   <si>
     <t xml:space="preserve">16.6942672729492</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3056049346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.117504119873</t>
+    <t xml:space="preserve">17.305606842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1175022125244</t>
   </si>
   <si>
     <t xml:space="preserve">17.3808498382568</t>
@@ -605,7 +605,7 @@
     <t xml:space="preserve">17.9639720916748</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1238594055176</t>
+    <t xml:space="preserve">18.1238613128662</t>
   </si>
   <si>
     <t xml:space="preserve">18.1614818572998</t>
@@ -614,46 +614,46 @@
     <t xml:space="preserve">18.1050491333008</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6599597930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1396236419678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1866493225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7979869842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8732299804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3559474945068</t>
+    <t xml:space="preserve">18.6599559783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.139627456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1866512298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7979888916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8732318878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3559417724609</t>
   </si>
   <si>
     <t xml:space="preserve">19.1490306854248</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7039394378662</t>
+    <t xml:space="preserve">19.7039375305176</t>
   </si>
   <si>
     <t xml:space="preserve">19.5722618103027</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4217796325684</t>
+    <t xml:space="preserve">19.421781539917</t>
   </si>
   <si>
     <t xml:space="preserve">19.318323135376</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0925979614258</t>
+    <t xml:space="preserve">19.0925960540771</t>
   </si>
   <si>
     <t xml:space="preserve">19.2524871826172</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1772441864014</t>
+    <t xml:space="preserve">19.17724609375</t>
   </si>
   <si>
     <t xml:space="preserve">19.167839050293</t>
@@ -662,16 +662,16 @@
     <t xml:space="preserve">18.9891414642334</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8104400634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6317405700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3401832580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6881771087646</t>
+    <t xml:space="preserve">18.8104419708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.631742477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.340181350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.688175201416</t>
   </si>
   <si>
     <t xml:space="preserve">18.7634143829346</t>
@@ -683,13 +683,13 @@
     <t xml:space="preserve">18.6035270690918</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7163906097412</t>
+    <t xml:space="preserve">18.7163867950439</t>
   </si>
   <si>
     <t xml:space="preserve">18.5094738006592</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5564994812012</t>
+    <t xml:space="preserve">18.5565013885498</t>
   </si>
   <si>
     <t xml:space="preserve">18.7446041107178</t>
@@ -698,25 +698,25 @@
     <t xml:space="preserve">18.8480644226074</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8574676513672</t>
+    <t xml:space="preserve">18.8574695587158</t>
   </si>
   <si>
     <t xml:space="preserve">18.9609241485596</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2807025909424</t>
+    <t xml:space="preserve">19.280704498291</t>
   </si>
   <si>
     <t xml:space="preserve">19.6569118499756</t>
   </si>
   <si>
-    <t xml:space="preserve">19.327730178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3653469085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6098880767822</t>
+    <t xml:space="preserve">19.3277282714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.365348815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6098861694336</t>
   </si>
   <si>
     <t xml:space="preserve">19.6945304870605</t>
@@ -725,10 +725,10 @@
     <t xml:space="preserve">19.1960544586182</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4876136779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7509632110596</t>
+    <t xml:space="preserve">19.4876194000244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7509651184082</t>
   </si>
   <si>
     <t xml:space="preserve">19.3371334075928</t>
@@ -737,25 +737,25 @@
     <t xml:space="preserve">19.4594020843506</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5910739898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.271297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.468807220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.628698348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5252380371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1647968292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.258846282959</t>
+    <t xml:space="preserve">19.5910758972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2712955474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4688091278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6286964416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.525239944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1647930145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2588443756104</t>
   </si>
   <si>
     <t xml:space="preserve">20.6350555419922</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">20.8795909881592</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1147212982178</t>
+    <t xml:space="preserve">21.1147193908691</t>
   </si>
   <si>
     <t xml:space="preserve">21.2275829315186</t>
@@ -773,67 +773,67 @@
     <t xml:space="preserve">21.2087726593018</t>
   </si>
   <si>
-    <t xml:space="preserve">20.399923324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8701877593994</t>
+    <t xml:space="preserve">20.3999252319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8701839447021</t>
   </si>
   <si>
     <t xml:space="preserve">20.6444606781006</t>
   </si>
   <si>
-    <t xml:space="preserve">20.503381729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8325653076172</t>
+    <t xml:space="preserve">20.5033798217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8325634002686</t>
   </si>
   <si>
     <t xml:space="preserve">20.9078044891357</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8607807159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7573204040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7855377197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9172134399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7385120391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0770988464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1241264343262</t>
+    <t xml:space="preserve">20.8607769012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7573223114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7855396270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9172115325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7385082244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0771007537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1241245269775</t>
   </si>
   <si>
     <t xml:space="preserve">20.7102966308594</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0394821166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9141654968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7636814117432</t>
+    <t xml:space="preserve">21.0394802093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9141635894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7636795043945</t>
   </si>
   <si>
     <t xml:space="preserve">21.632007598877</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5849838256836</t>
+    <t xml:space="preserve">21.584981918335</t>
   </si>
   <si>
     <t xml:space="preserve">21.3968772888184</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3874702453613</t>
+    <t xml:space="preserve">21.3874740600586</t>
   </si>
   <si>
     <t xml:space="preserve">21.189962387085</t>
@@ -842,34 +842,34 @@
     <t xml:space="preserve">21.537956237793</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3686599731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6131973266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4909286499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.898401260376</t>
+    <t xml:space="preserve">21.3686618804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6131992340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.490930557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8983993530273</t>
   </si>
   <si>
     <t xml:space="preserve">21.4344997406006</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2181777954102</t>
+    <t xml:space="preserve">21.2181758880615</t>
   </si>
   <si>
     <t xml:space="preserve">21.3780670166016</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5191459655762</t>
+    <t xml:space="preserve">21.5191440582275</t>
   </si>
   <si>
     <t xml:space="preserve">21.5097389221191</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6037902832031</t>
+    <t xml:space="preserve">21.6037921905518</t>
   </si>
   <si>
     <t xml:space="preserve">21.5473613739014</t>
@@ -878,40 +878,40 @@
     <t xml:space="preserve">21.199369430542</t>
   </si>
   <si>
-    <t xml:space="preserve">21.443904876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.99245262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.569221496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6538619995117</t>
+    <t xml:space="preserve">21.4439010620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9924507141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5692195892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6538639068604</t>
   </si>
   <si>
     <t xml:space="preserve">20.6632709503174</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5786228179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8889961242676</t>
+    <t xml:space="preserve">20.5786247253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8889942169189</t>
   </si>
   <si>
     <t xml:space="preserve">20.5315971374512</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2964668273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4657592773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0425224304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.155387878418</t>
+    <t xml:space="preserve">20.2964649200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4657611846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0425243377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1553897857666</t>
   </si>
   <si>
     <t xml:space="preserve">20.5221900939941</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">20.550407409668</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8043479919434</t>
+    <t xml:space="preserve">20.804349899292</t>
   </si>
   <si>
     <t xml:space="preserve">20.6914882659912</t>
@@ -929,19 +929,19 @@
     <t xml:space="preserve">20.2024154663086</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0801467895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1365776062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9672832489014</t>
+    <t xml:space="preserve">20.0801486968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1365795135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.96728515625</t>
   </si>
   <si>
     <t xml:space="preserve">20.1741981506348</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3246803283691</t>
+    <t xml:space="preserve">20.324686050415</t>
   </si>
   <si>
     <t xml:space="preserve">20.2494411468506</t>
@@ -953,49 +953,49 @@
     <t xml:space="preserve">19.9202575683594</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9266147613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4939785003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2212257385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9766902923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6726722717285</t>
+    <t xml:space="preserve">20.9266166687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4939746856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2212238311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9766883850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6726760864258</t>
   </si>
   <si>
     <t xml:space="preserve">20.3811130523682</t>
   </si>
   <si>
-    <t xml:space="preserve">20.747917175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1053161621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5974349975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8231563568115</t>
+    <t xml:space="preserve">20.7479152679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1053142547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.59743309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8231601715088</t>
   </si>
   <si>
     <t xml:space="preserve">21.1523418426514</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4627151489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9830455780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7291069030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5880279541016</t>
+    <t xml:space="preserve">21.4627132415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9830474853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7291088104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5880260467529</t>
   </si>
   <si>
     <t xml:space="preserve">20.6256504058838</t>
@@ -1004,70 +1004,70 @@
     <t xml:space="preserve">20.1271724700928</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0895519256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0143127441406</t>
+    <t xml:space="preserve">20.0895557403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.014310836792</t>
   </si>
   <si>
     <t xml:space="preserve">20.2306289672852</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3434925079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7761325836182</t>
+    <t xml:space="preserve">20.3434944152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7761306762695</t>
   </si>
   <si>
     <t xml:space="preserve">20.2400341033936</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7791786193848</t>
+    <t xml:space="preserve">19.779182434082</t>
   </si>
   <si>
     <t xml:space="preserve">19.4970226287842</t>
   </si>
   <si>
-    <t xml:space="preserve">19.01735496521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.073787689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8668746948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.233678817749</t>
+    <t xml:space="preserve">19.0173568725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0737895965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.866870880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2336769104004</t>
   </si>
   <si>
     <t xml:space="preserve">18.9139003753662</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7916278839111</t>
+    <t xml:space="preserve">18.7916316986084</t>
   </si>
   <si>
     <t xml:space="preserve">18.8950901031494</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6693649291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0455703735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3747539520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2147769927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1864223480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7611045837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5342693328857</t>
+    <t xml:space="preserve">18.6693668365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0455722808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.374755859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2147731781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1864185333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7611064910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.534273147583</t>
   </si>
   <si>
     <t xml:space="preserve">18.1278591156006</t>
@@ -1076,19 +1076,19 @@
     <t xml:space="preserve">18.0711498260498</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8632183074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8915729522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1656627655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.118408203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.194019317627</t>
+    <t xml:space="preserve">17.8632164001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8915710449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1656646728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1184062957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1940174102783</t>
   </si>
   <si>
     <t xml:space="preserve">18.4964637756348</t>
@@ -1097,13 +1097,13 @@
     <t xml:space="preserve">18.6949443817139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8178119659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6382331848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3924980163574</t>
+    <t xml:space="preserve">18.8178100585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6382350921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3924999237061</t>
   </si>
   <si>
     <t xml:space="preserve">18.7232971191406</t>
@@ -1112,28 +1112,28 @@
     <t xml:space="preserve">18.5909786224365</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4492073059082</t>
+    <t xml:space="preserve">18.4492092132568</t>
   </si>
   <si>
     <t xml:space="preserve">18.9028759002686</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0068435668945</t>
+    <t xml:space="preserve">19.0068416595459</t>
   </si>
   <si>
     <t xml:space="preserve">18.9312305450439</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9217796325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8461666107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5815258026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6098804473877</t>
+    <t xml:space="preserve">18.9217777252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8461685180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5815296173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6098823547363</t>
   </si>
   <si>
     <t xml:space="preserve">18.6760406494141</t>
@@ -1154,28 +1154,28 @@
     <t xml:space="preserve">18.8272647857666</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6193351745605</t>
+    <t xml:space="preserve">18.6193332672119</t>
   </si>
   <si>
     <t xml:space="preserve">18.7327480316162</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1391620635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4227046966553</t>
+    <t xml:space="preserve">19.13916015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4227066040039</t>
   </si>
   <si>
     <t xml:space="preserve">19.7062492370605</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9897899627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7931632995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5492763519287</t>
+    <t xml:space="preserve">19.9897918701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7931652069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5492782592773</t>
   </si>
   <si>
     <t xml:space="preserve">21.8328227996826</t>
@@ -1190,55 +1190,55 @@
     <t xml:space="preserve">21.8800792694092</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7383060455322</t>
+    <t xml:space="preserve">21.7383079528809</t>
   </si>
   <si>
     <t xml:space="preserve">22.0218505859375</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0691070556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2657337188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6986503601074</t>
+    <t xml:space="preserve">22.0691089630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2657356262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6986484527588</t>
   </si>
   <si>
     <t xml:space="preserve">21.3129920959473</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8876781463623</t>
+    <t xml:space="preserve">20.8876762390137</t>
   </si>
   <si>
     <t xml:space="preserve">21.029447555542</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9821910858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3602485656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4547653198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4075050354004</t>
+    <t xml:space="preserve">20.9821929931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3602504730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4547672271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4075088500977</t>
   </si>
   <si>
     <t xml:space="preserve">21.1239643096924</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9349365234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9745941162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.494421005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1636219024658</t>
+    <t xml:space="preserve">20.9349346160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9745960235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4944229125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1636238098145</t>
   </si>
   <si>
     <t xml:space="preserve">22.3526496887207</t>
@@ -1247,10 +1247,10 @@
     <t xml:space="preserve">22.2581348419189</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0767059326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5020217895508</t>
+    <t xml:space="preserve">21.0767040252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5020198822021</t>
   </si>
   <si>
     <t xml:space="preserve">20.5568771362305</t>
@@ -1262,37 +1262,37 @@
     <t xml:space="preserve">21.1712188720703</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8404216766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2184791564941</t>
+    <t xml:space="preserve">20.8404178619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2184772491455</t>
   </si>
   <si>
     <t xml:space="preserve">21.5965366363525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6513900756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.745906829834</t>
+    <t xml:space="preserve">20.6513938903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7459087371826</t>
   </si>
   <si>
     <t xml:space="preserve">20.367847442627</t>
   </si>
   <si>
-    <t xml:space="preserve">19.280933380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3754482269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5644798278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0370464324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8480205535889</t>
+    <t xml:space="preserve">19.2809352874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3754501342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5644779205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0370502471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8480186462402</t>
   </si>
   <si>
     <t xml:space="preserve">20.604133605957</t>
@@ -1304,19 +1304,19 @@
     <t xml:space="preserve">20.2260761260986</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4151039123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2733325958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1315631866455</t>
+    <t xml:space="preserve">20.4151058197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2733345031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1315650939941</t>
   </si>
   <si>
     <t xml:space="preserve">20.1788196563721</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6589908599854</t>
+    <t xml:space="preserve">19.6589889526367</t>
   </si>
   <si>
     <t xml:space="preserve">19.8007640838623</t>
@@ -1325,10 +1325,10 @@
     <t xml:space="preserve">19.7535057067871</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8952732086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.942533493042</t>
+    <t xml:space="preserve">19.8952770233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9425373077393</t>
   </si>
   <si>
     <t xml:space="preserve">19.517219543457</t>
@@ -1337,70 +1337,70 @@
     <t xml:space="preserve">19.4699649810791</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6117362976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0843029022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6910514831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.320592880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9388294219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5003595352173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8973178863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9521760940552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6497287750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9899797439575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5948705673218</t>
+    <t xml:space="preserve">19.6117343902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0843067169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6910495758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3205909729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9388275146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.500358581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8973188400269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9521741867065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6497297286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9899806976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5948724746704</t>
   </si>
   <si>
     <t xml:space="preserve">15.8217077255249</t>
   </si>
   <si>
-    <t xml:space="preserve">16.199764251709</t>
+    <t xml:space="preserve">16.1997661590576</t>
   </si>
   <si>
     <t xml:space="preserve">15.7271919250488</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5192623138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6515808105469</t>
+    <t xml:space="preserve">15.5192613601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6515817642212</t>
   </si>
   <si>
     <t xml:space="preserve">16.0674457550049</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9918327331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8595123291016</t>
+    <t xml:space="preserve">15.9918336868286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8595113754272</t>
   </si>
   <si>
     <t xml:space="preserve">15.7839002609253</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5759696960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1979131698608</t>
+    <t xml:space="preserve">15.5759687423706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1979122161865</t>
   </si>
   <si>
     <t xml:space="preserve">15.0457429885864</t>
@@ -1409,7 +1409,7 @@
     <t xml:space="preserve">14.760425567627</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5892353057861</t>
+    <t xml:space="preserve">14.5892343521118</t>
   </si>
   <si>
     <t xml:space="preserve">14.6272773742676</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">15.1028060913086</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1218271255493</t>
+    <t xml:space="preserve">15.1218280792236</t>
   </si>
   <si>
     <t xml:space="preserve">14.8365106582642</t>
@@ -1430,25 +1430,25 @@
     <t xml:space="preserve">15.6353998184204</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4642095565796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2468538284302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0946855545044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7713241577148</t>
+    <t xml:space="preserve">15.4642086029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2468547821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0946836471558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7713232040405</t>
   </si>
   <si>
     <t xml:space="preserve">13.9044733047485</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5131502151489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3419589996338</t>
+    <t xml:space="preserve">14.5131511688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3419609069824</t>
   </si>
   <si>
     <t xml:space="preserve">14.3229389190674</t>
@@ -1463,10 +1463,10 @@
     <t xml:space="preserve">13.8093671798706</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7903461456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9615364074707</t>
+    <t xml:space="preserve">13.7903451919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9615354537964</t>
   </si>
   <si>
     <t xml:space="preserve">14.2278327941895</t>
@@ -1481,16 +1481,16 @@
     <t xml:space="preserve">14.9316158294678</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4071455001831</t>
+    <t xml:space="preserve">15.4071474075317</t>
   </si>
   <si>
     <t xml:space="preserve">15.3120393753052</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2169332504272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2549772262573</t>
+    <t xml:space="preserve">15.2169342041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.254976272583</t>
   </si>
   <si>
     <t xml:space="preserve">15.0837850570679</t>
@@ -1502,31 +1502,31 @@
     <t xml:space="preserve">15.3500804901123</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3881244659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.730504989624</t>
+    <t xml:space="preserve">15.3881235122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7305059432983</t>
   </si>
   <si>
     <t xml:space="preserve">16.1679916381836</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0239448547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1000289916992</t>
+    <t xml:space="preserve">17.023946762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1000308990479</t>
   </si>
   <si>
     <t xml:space="preserve">17.1190509796143</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7005844116211</t>
+    <t xml:space="preserve">16.7005825042725</t>
   </si>
   <si>
     <t xml:space="preserve">16.6244983673096</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4723300933838</t>
+    <t xml:space="preserve">16.4723339080811</t>
   </si>
   <si>
     <t xml:space="preserve">16.5674362182617</t>
@@ -1538,13 +1538,13 @@
     <t xml:space="preserve">16.0728855133057</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0158214569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3391819000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3582038879395</t>
+    <t xml:space="preserve">16.0158233642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.339183807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3582057952881</t>
   </si>
   <si>
     <t xml:space="preserve">16.4533081054688</t>
@@ -1553,13 +1553,13 @@
     <t xml:space="preserve">16.8337345123291</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7196044921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4913520812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6435241699219</t>
+    <t xml:space="preserve">16.7196063995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4913539886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6435222625732</t>
   </si>
   <si>
     <t xml:space="preserve">16.6625423431396</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">16.8147125244141</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9288387298584</t>
+    <t xml:space="preserve">16.9288368225098</t>
   </si>
   <si>
     <t xml:space="preserve">16.6815643310547</t>
@@ -1580,28 +1580,28 @@
     <t xml:space="preserve">16.5293922424316</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0538654327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1489696502686</t>
+    <t xml:space="preserve">16.0538635253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1489715576172</t>
   </si>
   <si>
     <t xml:space="preserve">16.1299495697021</t>
   </si>
   <si>
-    <t xml:space="preserve">16.320161819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2060375213623</t>
+    <t xml:space="preserve">16.3201599121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2060356140137</t>
   </si>
   <si>
     <t xml:space="preserve">16.5484142303467</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6054801940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7386283874512</t>
+    <t xml:space="preserve">16.6054782867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7386264801025</t>
   </si>
   <si>
     <t xml:space="preserve">16.9859027862549</t>
@@ -1610,19 +1610,19 @@
     <t xml:space="preserve">17.1570949554443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6896858215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5075969696045</t>
+    <t xml:space="preserve">17.6896839141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5075950622559</t>
   </si>
   <si>
     <t xml:space="preserve">18.4885749816895</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4695529937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3364086151123</t>
+    <t xml:space="preserve">18.469554901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.336404800415</t>
   </si>
   <si>
     <t xml:space="preserve">17.7467479705811</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">17.2141571044922</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1951351165771</t>
+    <t xml:space="preserve">17.1951332092285</t>
   </si>
   <si>
     <t xml:space="preserve">16.9478607177734</t>
@@ -1646,7 +1646,7 @@
     <t xml:space="preserve">17.1761131286621</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0429649353027</t>
+    <t xml:space="preserve">17.0429668426514</t>
   </si>
   <si>
     <t xml:space="preserve">17.27121925354</t>
@@ -1655,7 +1655,7 @@
     <t xml:space="preserve">17.366325378418</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4424114227295</t>
+    <t xml:space="preserve">17.4424095153809</t>
   </si>
   <si>
     <t xml:space="preserve">16.9668807983398</t>
@@ -1664,28 +1664,28 @@
     <t xml:space="preserve">16.4152679443359</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6924619674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7114849090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6544218063354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3691024780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8745536804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9886798858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2739963531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9506378173828</t>
+    <t xml:space="preserve">15.6924629211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7114839553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6544208526611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3691034317017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8745527267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9886808395386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2739973068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9506368637085</t>
   </si>
   <si>
     <t xml:space="preserve">15.1598701477051</t>
@@ -1694,7 +1694,7 @@
     <t xml:space="preserve">15.02672290802</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6843414306641</t>
+    <t xml:space="preserve">14.6843404769897</t>
   </si>
   <si>
     <t xml:space="preserve">14.8555316925049</t>
@@ -1703,46 +1703,46 @@
     <t xml:space="preserve">14.5511932373047</t>
   </si>
   <si>
-    <t xml:space="preserve">15.007700920105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7414035797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.646297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8174886703491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7685470581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.597357749939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5783348083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.863655090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4261665344238</t>
+    <t xml:space="preserve">15.0076999664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7414045333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6462984085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8174896240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7685451507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5973567962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5783357620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8636522293091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4261646270752</t>
   </si>
   <si>
     <t xml:space="preserve">15.7875690460205</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6163778305054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5212717056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.235954284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0647640228271</t>
+    <t xml:space="preserve">15.6163787841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5212707519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2359561920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0647649765015</t>
   </si>
   <si>
     <t xml:space="preserve">14.7223834991455</t>
@@ -1751,10 +1751,10 @@
     <t xml:space="preserve">14.9696578979492</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7984685897827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4751081466675</t>
+    <t xml:space="preserve">14.7984676361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4751091003418</t>
   </si>
   <si>
     <t xml:space="preserve">14.4560861587524</t>
@@ -1763,58 +1763,58 @@
     <t xml:space="preserve">14.2658748626709</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0756635665894</t>
+    <t xml:space="preserve">14.0756645202637</t>
   </si>
   <si>
     <t xml:space="preserve">13.94251537323</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6082553863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4370651245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9805564880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0186004638672</t>
+    <t xml:space="preserve">14.6082544326782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.437066078186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9805574417114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0185995101929</t>
   </si>
   <si>
     <t xml:space="preserve">14.2088117599487</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1137065887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4180450439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1897916793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.779447555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1707677841187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5593137741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3609819412231</t>
+    <t xml:space="preserve">14.1137056350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.418044090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.189790725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7794456481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1707696914673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5593147277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3609809875488</t>
   </si>
   <si>
     <t xml:space="preserve">14.2848968505859</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6653203964233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1788911819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4832324981689</t>
+    <t xml:space="preserve">14.665319442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1788921356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4832305908203</t>
   </si>
   <si>
     <t xml:space="preserve">15.2640380859375</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve">15.2448387145996</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0912389755249</t>
+    <t xml:space="preserve">15.0912380218506</t>
   </si>
   <si>
     <t xml:space="preserve">14.9952383041382</t>
@@ -1832,10 +1832,10 @@
     <t xml:space="preserve">15.0720376968384</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5712394714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8784399032593</t>
+    <t xml:space="preserve">15.5712385177612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8784418106079</t>
   </si>
   <si>
     <t xml:space="preserve">16.6656436920166</t>
@@ -1844,43 +1844,43 @@
     <t xml:space="preserve">16.5312423706055</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8976402282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8592414855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7248392105103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7440404891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6480398178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9552412033081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9936408996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3776416778564</t>
+    <t xml:space="preserve">15.8976392745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8592395782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7248401641846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7440395355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6480407714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9552421569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9936418533325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3776435852051</t>
   </si>
   <si>
     <t xml:space="preserve">15.9168405532837</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8016414642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8400392532349</t>
+    <t xml:space="preserve">15.8016405105591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8400402069092</t>
   </si>
   <si>
     <t xml:space="preserve">16.2432403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1856441497803</t>
+    <t xml:space="preserve">16.1856422424316</t>
   </si>
   <si>
     <t xml:space="preserve">15.60964012146</t>
@@ -1889,10 +1889,10 @@
     <t xml:space="preserve">16.0320415496826</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7632398605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6288423538208</t>
+    <t xml:space="preserve">15.7632417678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6288414001465</t>
   </si>
   <si>
     <t xml:space="preserve">15.7824411392212</t>
@@ -1907,37 +1907,37 @@
     <t xml:space="preserve">15.1680393218994</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3984403610229</t>
+    <t xml:space="preserve">15.3984413146973</t>
   </si>
   <si>
     <t xml:space="preserve">14.9376382827759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.129638671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6880378723145</t>
+    <t xml:space="preserve">15.1296377182007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6880388259888</t>
   </si>
   <si>
     <t xml:space="preserve">14.2080364227295</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1120347976685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4000358581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7840366363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9760389328003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7648372650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5728368759155</t>
+    <t xml:space="preserve">14.1120357513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4000368118286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7840375900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.976037979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.764838218689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5728378295898</t>
   </si>
   <si>
     <t xml:space="preserve">14.6112375259399</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">14.5152378082275</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4576368331909</t>
+    <t xml:space="preserve">14.4576377868652</t>
   </si>
   <si>
     <t xml:space="preserve">14.2272367477417</t>
@@ -1958,19 +1958,19 @@
     <t xml:space="preserve">13.8624353408813</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3056325912476</t>
+    <t xml:space="preserve">13.3056335449219</t>
   </si>
   <si>
     <t xml:space="preserve">13.1712341308594</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5360355377197</t>
+    <t xml:space="preserve">13.5360345840454</t>
   </si>
   <si>
     <t xml:space="preserve">13.2480344772339</t>
   </si>
   <si>
-    <t xml:space="preserve">12.960033416748</t>
+    <t xml:space="preserve">12.9600324630737</t>
   </si>
   <si>
     <t xml:space="preserve">12.5760326385498</t>
@@ -1979,16 +1979,16 @@
     <t xml:space="preserve">12.3264322280884</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0960311889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6160297393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1744298934937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2528266906738</t>
+    <t xml:space="preserve">12.0960321426392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6160306930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1744289398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2528257369995</t>
   </si>
   <si>
     <t xml:space="preserve">10.0800256729126</t>
@@ -1997,19 +1997,19 @@
     <t xml:space="preserve">9.71522426605225</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02402210235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5328254699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19842052459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65922355651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21602344512939</t>
+    <t xml:space="preserve">9.02402305603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53282451629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19842147827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65922260284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21602439880371</t>
   </si>
   <si>
     <t xml:space="preserve">10.2912263870239</t>
@@ -2027,16 +2027,16 @@
     <t xml:space="preserve">11.7504301071167</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0976276397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0592288970947</t>
+    <t xml:space="preserve">11.0976285934448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0592279434204</t>
   </si>
   <si>
     <t xml:space="preserve">10.7712278366089</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1952257156372</t>
+    <t xml:space="preserve">10.1952266693115</t>
   </si>
   <si>
     <t xml:space="preserve">10.4640264511108</t>
@@ -2045,25 +2045,25 @@
     <t xml:space="preserve">10.7520275115967</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8672275543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2512292861938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0400285720825</t>
+    <t xml:space="preserve">10.8672285079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2512283325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0400276184082</t>
   </si>
   <si>
     <t xml:space="preserve">10.7136268615723</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3296270370483</t>
+    <t xml:space="preserve">10.329626083374</t>
   </si>
   <si>
     <t xml:space="preserve">10.0032253265381</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3488264083862</t>
+    <t xml:space="preserve">10.3488254547119</t>
   </si>
   <si>
     <t xml:space="preserve">10.6368274688721</t>
@@ -2072,13 +2072,13 @@
     <t xml:space="preserve">10.5600271224976</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9056262969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8480281829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8288278579712</t>
+    <t xml:space="preserve">10.9056282043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8480291366577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8288269042969</t>
   </si>
   <si>
     <t xml:space="preserve">10.9440279006958</t>
@@ -2087,22 +2087,22 @@
     <t xml:space="preserve">10.963228225708</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6752271652222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1360292434692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0784282684326</t>
+    <t xml:space="preserve">10.6752281188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1360282897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0784273147583</t>
   </si>
   <si>
     <t xml:space="preserve">11.6352300643921</t>
   </si>
   <si>
-    <t xml:space="preserve">11.712028503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1936283111572</t>
+    <t xml:space="preserve">11.7120294570923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1936273574829</t>
   </si>
   <si>
     <t xml:space="preserve">11.5584297180176</t>
@@ -2117,7 +2117,7 @@
     <t xml:space="preserve">12.1536312103271</t>
   </si>
   <si>
-    <t xml:space="preserve">12.441632270813</t>
+    <t xml:space="preserve">12.4416313171387</t>
   </si>
   <si>
     <t xml:space="preserve">12.3648309707642</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">12.0000305175781</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3664302825928</t>
+    <t xml:space="preserve">11.3664293289185</t>
   </si>
   <si>
     <t xml:space="preserve">11.1552286148071</t>
@@ -2141,31 +2141,31 @@
     <t xml:space="preserve">11.2320280075073</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0208282470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9248275756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8096265792847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5408267974854</t>
+    <t xml:space="preserve">11.020827293396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9248285293579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.809627532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.540825843811</t>
   </si>
   <si>
     <t xml:space="preserve">10.5792274475098</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7904272079468</t>
+    <t xml:space="preserve">10.7904281616211</t>
   </si>
   <si>
     <t xml:space="preserve">11.3472290039062</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4816293716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4240293502808</t>
+    <t xml:space="preserve">11.4816284179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4240283966064</t>
   </si>
   <si>
     <t xml:space="preserve">11.2128286361694</t>
@@ -2177,16 +2177,16 @@
     <t xml:space="preserve">10.7328281402588</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5024261474609</t>
+    <t xml:space="preserve">10.5024271011353</t>
   </si>
   <si>
     <t xml:space="preserve">10.5984268188477</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7888298034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5776290893555</t>
+    <t xml:space="preserve">11.7888288497925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5776300430298</t>
   </si>
   <si>
     <t xml:space="preserve">11.8272304534912</t>
@@ -2198,13 +2198,13 @@
     <t xml:space="preserve">11.7696294784546</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6928291320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.808030128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8848295211792</t>
+    <t xml:space="preserve">11.6928300857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8080310821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8848304748535</t>
   </si>
   <si>
     <t xml:space="preserve">12.3840312957764</t>
@@ -2213,34 +2213,34 @@
     <t xml:space="preserve">12.288031578064</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2688312530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1152305603027</t>
+    <t xml:space="preserve">12.2688302993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1152315139771</t>
   </si>
   <si>
     <t xml:space="preserve">12.1344318389893</t>
   </si>
   <si>
-    <t xml:space="preserve">11.961630821228</t>
+    <t xml:space="preserve">11.9616298675537</t>
   </si>
   <si>
     <t xml:space="preserve">11.9040298461914</t>
   </si>
   <si>
-    <t xml:space="preserve">11.385627746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.806432723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8240356445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5552349090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0352363586426</t>
+    <t xml:space="preserve">11.3856287002563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8064336776733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8240346908569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5552339553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0352354049683</t>
   </si>
   <si>
     <t xml:space="preserve">13.7664356231689</t>
@@ -2249,7 +2249,7 @@
     <t xml:space="preserve">13.4016342163086</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5936346054077</t>
+    <t xml:space="preserve">13.5936336517334</t>
   </si>
   <si>
     <t xml:space="preserve">13.6320343017578</t>
@@ -2258,34 +2258,34 @@
     <t xml:space="preserve">13.2672338485718</t>
   </si>
   <si>
-    <t xml:space="preserve">13.497633934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3040351867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9008350372314</t>
+    <t xml:space="preserve">13.4976348876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3040361404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9008340835571</t>
   </si>
   <si>
     <t xml:space="preserve">13.5744352340698</t>
   </si>
   <si>
-    <t xml:space="preserve">13.286434173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6512355804443</t>
+    <t xml:space="preserve">13.2864351272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.65123462677</t>
   </si>
   <si>
     <t xml:space="preserve">13.3440341949463</t>
   </si>
   <si>
-    <t xml:space="preserve">12.172830581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2112312316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4800319671631</t>
+    <t xml:space="preserve">12.1728315353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2112321853638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4800310134888</t>
   </si>
   <si>
     <t xml:space="preserve">12.5952320098877</t>
@@ -2294,28 +2294,28 @@
     <t xml:space="preserve">13.0176334381104</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9792327880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2096328735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4784345626831</t>
+    <t xml:space="preserve">12.9792337417603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2096338272095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4784355163574</t>
   </si>
   <si>
     <t xml:space="preserve">13.6128339767456</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7280359268188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7879428863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8073348999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5746269226074</t>
+    <t xml:space="preserve">13.7280349731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7879419326782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.807333946228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5746259689331</t>
   </si>
   <si>
     <t xml:space="preserve">13.6134119033813</t>
@@ -2324,16 +2324,16 @@
     <t xml:space="preserve">13.4776649475098</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6715879440308</t>
+    <t xml:space="preserve">13.6715888977051</t>
   </si>
   <si>
     <t xml:space="preserve">14.0206499099731</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0594348907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9236869812012</t>
+    <t xml:space="preserve">14.0594339370728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9236879348755</t>
   </si>
   <si>
     <t xml:space="preserve">14.3503198623657</t>
@@ -2345,7 +2345,7 @@
     <t xml:space="preserve">14.3891048431396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1563959121704</t>
+    <t xml:space="preserve">14.1563968658447</t>
   </si>
   <si>
     <t xml:space="preserve">13.8655118942261</t>
@@ -2357,7 +2357,7 @@
     <t xml:space="preserve">13.9430809020996</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7685489654541</t>
+    <t xml:space="preserve">13.7685499191284</t>
   </si>
   <si>
     <t xml:space="preserve">13.710373878479</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">14.0400419235229</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3115348815918</t>
+    <t xml:space="preserve">14.3115339279175</t>
   </si>
   <si>
     <t xml:space="preserve">14.5248498916626</t>
@@ -2408,13 +2408,13 @@
     <t xml:space="preserve">15.9986667633057</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8047437667847</t>
+    <t xml:space="preserve">15.804744720459</t>
   </si>
   <si>
     <t xml:space="preserve">15.513858795166</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9404916763306</t>
+    <t xml:space="preserve">15.9404907226562</t>
   </si>
   <si>
     <t xml:space="preserve">15.5332527160645</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">15.6302127838135</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9210977554321</t>
+    <t xml:space="preserve">15.9210987091064</t>
   </si>
   <si>
     <t xml:space="preserve">16.0568428039551</t>
@@ -2432,13 +2432,13 @@
     <t xml:space="preserve">16.4640827178955</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8131446838379</t>
+    <t xml:space="preserve">16.8131427764893</t>
   </si>
   <si>
     <t xml:space="preserve">16.9876747131348</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8907127380371</t>
+    <t xml:space="preserve">16.8907146453857</t>
   </si>
   <si>
     <t xml:space="preserve">16.8519287109375</t>
@@ -2447,7 +2447,7 @@
     <t xml:space="preserve">16.9294986724854</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9101085662842</t>
+    <t xml:space="preserve">16.9101066589355</t>
   </si>
   <si>
     <t xml:space="preserve">17.3755207061768</t>
@@ -2456,16 +2456,16 @@
     <t xml:space="preserve">17.3561305999756</t>
   </si>
   <si>
-    <t xml:space="preserve">17.414306640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2009887695312</t>
+    <t xml:space="preserve">17.4143047332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2009906768799</t>
   </si>
   <si>
     <t xml:space="preserve">16.6580066680908</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6386127471924</t>
+    <t xml:space="preserve">16.638614654541</t>
   </si>
   <si>
     <t xml:space="preserve">17.1234226226807</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">17.1622066497803</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1428146362305</t>
+    <t xml:space="preserve">17.1428165435791</t>
   </si>
   <si>
     <t xml:space="preserve">17.0652446746826</t>
@@ -2498,7 +2498,7 @@
     <t xml:space="preserve">20.1680164337158</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5558624267578</t>
+    <t xml:space="preserve">20.5558643341064</t>
   </si>
   <si>
     <t xml:space="preserve">20.0225734710693</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">20.7497863769531</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3619403839111</t>
+    <t xml:space="preserve">20.3619384765625</t>
   </si>
   <si>
     <t xml:space="preserve">20.2164974212646</t>
@@ -2525,10 +2525,10 @@
     <t xml:space="preserve">20.6528244018555</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7982692718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.895227432251</t>
+    <t xml:space="preserve">20.798267364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8952293395996</t>
   </si>
   <si>
     <t xml:space="preserve">21.2345962524414</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">21.1376323699951</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6043434143066</t>
+    <t xml:space="preserve">20.6043453216553</t>
   </si>
   <si>
     <t xml:space="preserve">20.3134593963623</t>
@@ -2546,13 +2546,13 @@
     <t xml:space="preserve">21.1861133575439</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9740943908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7316913604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5862464904785</t>
+    <t xml:space="preserve">19.9740924835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.731689453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5862483978271</t>
   </si>
   <si>
     <t xml:space="preserve">19.7801704406738</t>
@@ -2567,7 +2567,7 @@
     <t xml:space="preserve">20.5073833465576</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7013072967529</t>
+    <t xml:space="preserve">20.7013053894043</t>
   </si>
   <si>
     <t xml:space="preserve">20.4589004516602</t>
@@ -2579,25 +2579,25 @@
     <t xml:space="preserve">21.9618053436279</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5739593505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0587673187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0102882385254</t>
+    <t xml:space="preserve">21.5739612579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0587692260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0102863311768</t>
   </si>
   <si>
     <t xml:space="preserve">22.1072483062744</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8163623809814</t>
+    <t xml:space="preserve">21.8163642883301</t>
   </si>
   <si>
     <t xml:space="preserve">22.1557292938232</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2526931762695</t>
+    <t xml:space="preserve">22.2526912689209</t>
   </si>
   <si>
     <t xml:space="preserve">21.4769992828369</t>
@@ -2630,28 +2630,28 @@
     <t xml:space="preserve">21.9133262634277</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6709232330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0891513824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0406723022461</t>
+    <t xml:space="preserve">21.6709213256836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0891532897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0406703948975</t>
   </si>
   <si>
     <t xml:space="preserve">22.2042121887207</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8221740722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.240406036377</t>
+    <t xml:space="preserve">24.8221759796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2404041290283</t>
   </si>
   <si>
     <t xml:space="preserve">23.7555961608887</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7071170806885</t>
+    <t xml:space="preserve">23.7071151733398</t>
   </si>
   <si>
     <t xml:space="preserve">23.4647121429443</t>
@@ -2672,10 +2672,10 @@
     <t xml:space="preserve">23.9010372161865</t>
   </si>
   <si>
-    <t xml:space="preserve">23.367748260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0949611663818</t>
+    <t xml:space="preserve">23.3677501678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0949630737305</t>
   </si>
   <si>
     <t xml:space="preserve">23.9980010986328</t>
@@ -2687,19 +2687,19 @@
     <t xml:space="preserve">23.3192672729492</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8525581359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1253452301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.882942199707</t>
+    <t xml:space="preserve">23.852560043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1253471374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8829441070557</t>
   </si>
   <si>
     <t xml:space="preserve">22.5435771942139</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8648433685303</t>
+    <t xml:space="preserve">21.8648452758789</t>
   </si>
   <si>
     <t xml:space="preserve">22.495096206665</t>
@@ -2708,13 +2708,13 @@
     <t xml:space="preserve">22.4466152191162</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5312900543213</t>
+    <t xml:space="preserve">24.5312881469727</t>
   </si>
   <si>
     <t xml:space="preserve">24.1919250488281</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7736949920654</t>
+    <t xml:space="preserve">24.7736930847168</t>
   </si>
   <si>
     <t xml:space="preserve">24.337366104126</t>
@@ -2723,7 +2723,7 @@
     <t xml:space="preserve">24.1434440612793</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7917900085449</t>
+    <t xml:space="preserve">25.7917919158936</t>
   </si>
   <si>
     <t xml:space="preserve">26.0826759338379</t>
@@ -2732,19 +2732,19 @@
     <t xml:space="preserve">26.4705219268799</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1796379089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1311569213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2765998840332</t>
+    <t xml:space="preserve">26.1796360015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1311588287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2765979766846</t>
   </si>
   <si>
     <t xml:space="preserve">25.9857139587402</t>
   </si>
   <si>
-    <t xml:space="preserve">26.809886932373</t>
+    <t xml:space="preserve">26.8098850250244</t>
   </si>
   <si>
     <t xml:space="preserve">26.9068489074707</t>
@@ -2759,25 +2759,25 @@
     <t xml:space="preserve">27.6825428009033</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2158317565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8460807800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3127918243408</t>
+    <t xml:space="preserve">28.2158298492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8460826873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3127937316895</t>
   </si>
   <si>
     <t xml:space="preserve">28.6521587371826</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1188697814941</t>
+    <t xml:space="preserve">28.1188678741455</t>
   </si>
   <si>
     <t xml:space="preserve">27.9734268188477</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0703887939453</t>
+    <t xml:space="preserve">28.0703907012939</t>
   </si>
   <si>
     <t xml:space="preserve">27.87646484375</t>
@@ -2786,10 +2786,10 @@
     <t xml:space="preserve">27.5855808258057</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2946949005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4886207580566</t>
+    <t xml:space="preserve">27.2946968078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.488618850708</t>
   </si>
   <si>
     <t xml:space="preserve">27.3916568756104</t>
@@ -2801,13 +2801,13 @@
     <t xml:space="preserve">27.2648448944092</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5820026397705</t>
+    <t xml:space="preserve">26.5820045471191</t>
   </si>
   <si>
     <t xml:space="preserve">26.1430339813232</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7528381347656</t>
+    <t xml:space="preserve">25.7528400421143</t>
   </si>
   <si>
     <t xml:space="preserve">24.8749027252197</t>
@@ -2816,7 +2816,7 @@
     <t xml:space="preserve">25.0212230682373</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4359321594238</t>
+    <t xml:space="preserve">24.4359340667725</t>
   </si>
   <si>
     <t xml:space="preserve">25.0699996948242</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">25.4114189147949</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7283248901367</t>
+    <t xml:space="preserve">26.7283267974854</t>
   </si>
   <si>
     <t xml:space="preserve">27.1672954559326</t>
@@ -2837,10 +2837,10 @@
     <t xml:space="preserve">26.7771015167236</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2405815124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1918106079102</t>
+    <t xml:space="preserve">26.2405834197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1918087005615</t>
   </si>
   <si>
     <t xml:space="preserve">25.8016147613525</t>
@@ -2864,37 +2864,37 @@
     <t xml:space="preserve">26.2893581390381</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4844532012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9479389190674</t>
+    <t xml:space="preserve">26.4844551086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9479370117188</t>
   </si>
   <si>
     <t xml:space="preserve">25.1675472259521</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9967098236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8503894805908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3626461029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7773513793945</t>
+    <t xml:space="preserve">25.996711730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8503875732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3626441955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7773532867432</t>
   </si>
   <si>
     <t xml:space="preserve">23.2653503417969</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0702533721924</t>
+    <t xml:space="preserve">23.0702514648438</t>
   </si>
   <si>
     <t xml:space="preserve">23.9481887817383</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3141250610352</t>
+    <t xml:space="preserve">23.3141231536865</t>
   </si>
   <si>
     <t xml:space="preserve">23.21657371521</t>
@@ -2909,25 +2909,25 @@
     <t xml:space="preserve">22.7288303375244</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2410869598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0947666168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8508949279785</t>
+    <t xml:space="preserve">22.2410888671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0947647094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8508930206299</t>
   </si>
   <si>
     <t xml:space="preserve">22.9239292144775</t>
   </si>
   <si>
-    <t xml:space="preserve">23.119026184082</t>
+    <t xml:space="preserve">23.1190280914307</t>
   </si>
   <si>
     <t xml:space="preserve">22.7776069641113</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3874130249023</t>
+    <t xml:space="preserve">22.3874111175537</t>
   </si>
   <si>
     <t xml:space="preserve">23.4604454040527</t>
@@ -2948,13 +2948,13 @@
     <t xml:space="preserve">20.7778587341309</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7535991668701</t>
+    <t xml:space="preserve">19.7535972595215</t>
   </si>
   <si>
     <t xml:space="preserve">20.4364395141602</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1925678253174</t>
+    <t xml:space="preserve">20.192569732666</t>
   </si>
   <si>
     <t xml:space="preserve">19.1975727081299</t>
@@ -2966,10 +2966,10 @@
     <t xml:space="preserve">18.3586521148682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1100330352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1685619354248</t>
+    <t xml:space="preserve">17.1100311279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1685600280762</t>
   </si>
   <si>
     <t xml:space="preserve">18.2415962219238</t>
@@ -2978,13 +2978,13 @@
     <t xml:space="preserve">18.3781623840332</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7733592987061</t>
+    <t xml:space="preserve">17.7733612060547</t>
   </si>
   <si>
     <t xml:space="preserve">18.5342407226562</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0660076141357</t>
+    <t xml:space="preserve">18.0660095214844</t>
   </si>
   <si>
     <t xml:space="preserve">17.7148303985596</t>
@@ -3008,13 +3008,13 @@
     <t xml:space="preserve">19.0024738311768</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3146305084229</t>
+    <t xml:space="preserve">19.3146286010742</t>
   </si>
   <si>
     <t xml:space="preserve">19.4316883087158</t>
   </si>
   <si>
-    <t xml:space="preserve">19.851146697998</t>
+    <t xml:space="preserve">19.8511486053467</t>
   </si>
   <si>
     <t xml:space="preserve">19.3536491394043</t>
@@ -3026,13 +3026,13 @@
     <t xml:space="preserve">18.8659057617188</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9879684448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8854179382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6317882537842</t>
+    <t xml:space="preserve">17.9879703521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8854160308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6317901611328</t>
   </si>
   <si>
     <t xml:space="preserve">18.9634552001953</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">19.6560497283936</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9974708557129</t>
+    <t xml:space="preserve">19.9974689483643</t>
   </si>
   <si>
     <t xml:space="preserve">19.3731594085693</t>
@@ -3050,10 +3050,10 @@
     <t xml:space="preserve">18.9829635620117</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1585521697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6072750091553</t>
+    <t xml:space="preserve">19.1585502624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6072769165039</t>
   </si>
   <si>
     <t xml:space="preserve">19.5097274780273</t>
@@ -3065,7 +3065,7 @@
     <t xml:space="preserve">17.9489479064941</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3196334838867</t>
+    <t xml:space="preserve">18.3196353912354</t>
   </si>
   <si>
     <t xml:space="preserve">20.0462436676025</t>
@@ -3098,13 +3098,13 @@
     <t xml:space="preserve">23.4116725921631</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6067695617676</t>
+    <t xml:space="preserve">23.6067714691162</t>
   </si>
   <si>
     <t xml:space="preserve">22.8263816833496</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4849586486816</t>
+    <t xml:space="preserve">22.4849605560303</t>
   </si>
   <si>
     <t xml:space="preserve">20.6803112030029</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">20.0950183868408</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4902153015137</t>
+    <t xml:space="preserve">19.4902172088623</t>
   </si>
   <si>
     <t xml:space="preserve">19.0219841003418</t>
@@ -3134,28 +3134,28 @@
     <t xml:space="preserve">18.8268871307373</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7928714752197</t>
+    <t xml:space="preserve">17.7928695678711</t>
   </si>
   <si>
     <t xml:space="preserve">19.0414943695068</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7293395996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4562034606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3001251220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7878684997559</t>
+    <t xml:space="preserve">18.7293376922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4562015533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3001232147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7878665924072</t>
   </si>
   <si>
     <t xml:space="preserve">18.9439449310303</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1780605316162</t>
+    <t xml:space="preserve">19.1780624389648</t>
   </si>
   <si>
     <t xml:space="preserve">18.7683582305908</t>
@@ -3164,34 +3164,34 @@
     <t xml:space="preserve">18.6708087921143</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5147323608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2025737762451</t>
+    <t xml:space="preserve">18.5147304534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2025756835938</t>
   </si>
   <si>
     <t xml:space="preserve">18.8073768615723</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5585021972656</t>
+    <t xml:space="preserve">19.558500289917</t>
   </si>
   <si>
     <t xml:space="preserve">19.0805130004883</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2170829772949</t>
+    <t xml:space="preserve">19.2170810699463</t>
   </si>
   <si>
     <t xml:space="preserve">19.7048263549805</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3976745605469</t>
+    <t xml:space="preserve">18.3976726531982</t>
   </si>
   <si>
     <t xml:space="preserve">17.9294376373291</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1440448760986</t>
+    <t xml:space="preserve">18.1440467834473</t>
   </si>
   <si>
     <t xml:space="preserve">17.8514003753662</t>
@@ -3203,10 +3203,10 @@
     <t xml:space="preserve">18.4757118225098</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8904190063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5587539672852</t>
+    <t xml:space="preserve">17.8904209136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5587558746338</t>
   </si>
   <si>
     <t xml:space="preserve">16.8368949890137</t>
@@ -3221,7 +3221,7 @@
     <t xml:space="preserve">16.4076805114746</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2516040802002</t>
+    <t xml:space="preserve">16.2516021728516</t>
   </si>
   <si>
     <t xml:space="preserve">16.4271907806396</t>
@@ -3233,16 +3233,16 @@
     <t xml:space="preserve">15.7443494796753</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5492515563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9344444274902</t>
+    <t xml:space="preserve">15.5492525100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9344425201416</t>
   </si>
   <si>
     <t xml:space="preserve">16.3296413421631</t>
   </si>
   <si>
-    <t xml:space="preserve">16.973461151123</t>
+    <t xml:space="preserve">16.9734630584717</t>
   </si>
   <si>
     <t xml:space="preserve">17.0905208587646</t>
@@ -3251,7 +3251,7 @@
     <t xml:space="preserve">17.3246383666992</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6563053131104</t>
+    <t xml:space="preserve">17.6563034057617</t>
   </si>
   <si>
     <t xml:space="preserve">17.4612045288086</t>
@@ -3260,16 +3260,16 @@
     <t xml:space="preserve">17.3831672668457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3441467285156</t>
+    <t xml:space="preserve">17.3441486358643</t>
   </si>
   <si>
     <t xml:space="preserve">18.1830654144287</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1195316314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0610027313232</t>
+    <t xml:space="preserve">19.1195335388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0610046386719</t>
   </si>
   <si>
     <t xml:space="preserve">19.8023719787598</t>
@@ -3281,7 +3281,7 @@
     <t xml:space="preserve">20.3876647949219</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9486961364746</t>
+    <t xml:space="preserve">19.9486980438232</t>
   </si>
   <si>
     <t xml:space="preserve">20.8266334533691</t>
@@ -59982,7 +59982,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6495486111</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>36379</v>
@@ -60003,6 +60003,32 @@
         <v>1287</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6496180556</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>22748</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>36.9500007629395</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>36.2999992370605</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>36.7000007629395</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAN.MI.xlsx
+++ b/data/DAN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="1297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="1298">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">DAN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0230255126953</t>
+    <t xml:space="preserve">16.0230236053467</t>
   </si>
   <si>
     <t xml:space="preserve">15.518217086792</t>
@@ -53,25 +53,25 @@
     <t xml:space="preserve">14.8170919418335</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4899005889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2094507217407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5646858215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3122835159302</t>
+    <t xml:space="preserve">14.4899015426636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2094497680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5646877288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3122825622559</t>
   </si>
   <si>
     <t xml:space="preserve">14.1346635818481</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3587532043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0409097671509</t>
+    <t xml:space="preserve">13.35875415802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0409088134766</t>
   </si>
   <si>
     <t xml:space="preserve">13.1343936920166</t>
@@ -83,28 +83,28 @@
     <t xml:space="preserve">13.1998310089111</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3867969512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2006435394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3595638275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6400108337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3969573974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6774044036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4439716339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9204635620117</t>
+    <t xml:space="preserve">13.3867979049683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2006416320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3595657348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6400127410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3969593048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6774063110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4439697265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9204616546631</t>
   </si>
   <si>
     <t xml:space="preserve">15.7706232070923</t>
@@ -116,46 +116,46 @@
     <t xml:space="preserve">15.6023511886597</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2284202575684</t>
+    <t xml:space="preserve">15.228419303894</t>
   </si>
   <si>
     <t xml:space="preserve">15.2377662658691</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6490955352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3966875076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2938556671143</t>
+    <t xml:space="preserve">15.6490917205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3966856002808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2938547134399</t>
   </si>
   <si>
     <t xml:space="preserve">16.2193393707275</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5465316772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0887336730957</t>
+    <t xml:space="preserve">16.5465354919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0887355804443</t>
   </si>
   <si>
     <t xml:space="preserve">17.2476558685303</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3878765106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2943954467773</t>
+    <t xml:space="preserve">17.3878784179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.294397354126</t>
   </si>
   <si>
     <t xml:space="preserve">17.032642364502</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6680583953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.658712387085</t>
+    <t xml:space="preserve">16.6680603027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6587104797363</t>
   </si>
   <si>
     <t xml:space="preserve">17.1541728973389</t>
@@ -164,16 +164,16 @@
     <t xml:space="preserve">16.9578590393066</t>
   </si>
   <si>
-    <t xml:space="preserve">17.509407043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6402854919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7057228088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7711639404297</t>
+    <t xml:space="preserve">17.5094089508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6402835845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7057266235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7711620330811</t>
   </si>
   <si>
     <t xml:space="preserve">16.8550281524658</t>
@@ -182,25 +182,25 @@
     <t xml:space="preserve">17.5561504364014</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8552989959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2009143829346</t>
+    <t xml:space="preserve">17.855297088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2009105682373</t>
   </si>
   <si>
     <t xml:space="preserve">17.593542098999</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7992076873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3411388397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.52783203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8737201690674</t>
+    <t xml:space="preserve">17.7992057800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.341136932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5278339385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.873722076416</t>
   </si>
   <si>
     <t xml:space="preserve">17.2663536071777</t>
@@ -218,13 +218,13 @@
     <t xml:space="preserve">17.4533195495605</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9020347595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9768238067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7431182861328</t>
+    <t xml:space="preserve">17.9020385742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9768257141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7431163787842</t>
   </si>
   <si>
     <t xml:space="preserve">18.2105312347412</t>
@@ -233,43 +233,43 @@
     <t xml:space="preserve">18.4629402160645</t>
   </si>
   <si>
-    <t xml:space="preserve">18.369457244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1357460021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9394340515137</t>
+    <t xml:space="preserve">18.3694553375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1357440948486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9394302368164</t>
   </si>
   <si>
     <t xml:space="preserve">18.6966438293457</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7620849609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7901306152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4442386627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6779518127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3788051605225</t>
+    <t xml:space="preserve">18.7620830535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.790132522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.444242477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6779479980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3788013458252</t>
   </si>
   <si>
     <t xml:space="preserve">18.2385768890381</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8085536956787</t>
+    <t xml:space="preserve">17.8085556030273</t>
   </si>
   <si>
     <t xml:space="preserve">17.4813652038574</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8272495269775</t>
+    <t xml:space="preserve">17.8272514343262</t>
   </si>
   <si>
     <t xml:space="preserve">17.5000591278076</t>
@@ -278,28 +278,28 @@
     <t xml:space="preserve">17.4065780639648</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0980796813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1635208129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8830699920654</t>
+    <t xml:space="preserve">17.0980834960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1635246276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8830718994141</t>
   </si>
   <si>
     <t xml:space="preserve">16.6306667327881</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4623966217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5652294158936</t>
+    <t xml:space="preserve">16.4623985290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5652275085449</t>
   </si>
   <si>
     <t xml:space="preserve">17.0700378417969</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7708892822266</t>
+    <t xml:space="preserve">16.7708930969238</t>
   </si>
   <si>
     <t xml:space="preserve">16.7334957122803</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">16.4810905456543</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6963729858398</t>
+    <t xml:space="preserve">17.6963748931885</t>
   </si>
   <si>
     <t xml:space="preserve">16.8363285064697</t>
@@ -317,7 +317,7 @@
     <t xml:space="preserve">16.8176307678223</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5748462677002</t>
+    <t xml:space="preserve">17.5748481750488</t>
   </si>
   <si>
     <t xml:space="preserve">17.3224430084229</t>
@@ -329,79 +329,79 @@
     <t xml:space="preserve">16.1165084838867</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1539039611816</t>
+    <t xml:space="preserve">16.153902053833</t>
   </si>
   <si>
     <t xml:space="preserve">15.2471132278442</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0507984161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3592948913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6303958892822</t>
+    <t xml:space="preserve">15.0508012771606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3592958450317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6303968429565</t>
   </si>
   <si>
     <t xml:space="preserve">16.2660846710205</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2751588821411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7329578399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.172327041626</t>
+    <t xml:space="preserve">15.2751579284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7329568862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1723260879517</t>
   </si>
   <si>
     <t xml:space="preserve">14.8077430725098</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9666652679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7051830291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3219003677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9105749130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2748889923096</t>
+    <t xml:space="preserve">14.96666431427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7051801681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3218994140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9105739593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2748899459839</t>
   </si>
   <si>
     <t xml:space="preserve">14.5366411209106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9386186599731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6958351135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6116981506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7986669540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5462598800659</t>
+    <t xml:space="preserve">14.9386196136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6958341598511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6116991043091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7986640930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5462589263916</t>
   </si>
   <si>
     <t xml:space="preserve">15.6210479736328</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5930042266846</t>
+    <t xml:space="preserve">15.5930013656616</t>
   </si>
   <si>
     <t xml:space="preserve">15.6771392822266</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4530487060547</t>
+    <t xml:space="preserve">16.4530467987061</t>
   </si>
   <si>
     <t xml:space="preserve">15.9201946258545</t>
@@ -413,22 +413,22 @@
     <t xml:space="preserve">16.4343490600586</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1352062225342</t>
+    <t xml:space="preserve">16.1352043151855</t>
   </si>
   <si>
     <t xml:space="preserve">16.3876094818115</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4904403686523</t>
+    <t xml:space="preserve">16.4904384613037</t>
   </si>
   <si>
     <t xml:space="preserve">16.3782577514648</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2941284179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4720191955566</t>
+    <t xml:space="preserve">16.2941265106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.472017288208</t>
   </si>
   <si>
     <t xml:space="preserve">17.1354751586914</t>
@@ -437,16 +437,16 @@
     <t xml:space="preserve">16.9298133850098</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9672050476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9487800598145</t>
+    <t xml:space="preserve">16.9672069549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9487819671631</t>
   </si>
   <si>
     <t xml:space="preserve">17.4907073974609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3598327636719</t>
+    <t xml:space="preserve">17.3598346710205</t>
   </si>
   <si>
     <t xml:space="preserve">17.5281047821045</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">17.6683311462402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4063034057617</t>
+    <t xml:space="preserve">16.4063053131104</t>
   </si>
   <si>
     <t xml:space="preserve">16.0884628295898</t>
@@ -464,25 +464,25 @@
     <t xml:space="preserve">16.0604209899902</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1258544921875</t>
+    <t xml:space="preserve">16.1258563995361</t>
   </si>
   <si>
     <t xml:space="preserve">16.2567329406738</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9388904571533</t>
+    <t xml:space="preserve">15.9388866424561</t>
   </si>
   <si>
     <t xml:space="preserve">15.9669351577759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8641023635864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7893161773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9108486175537</t>
+    <t xml:space="preserve">15.8641042709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7893152236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9108448028564</t>
   </si>
   <si>
     <t xml:space="preserve">16.3408679962158</t>
@@ -491,73 +491,73 @@
     <t xml:space="preserve">17.0232944488525</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3689136505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8360595703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8454084396362</t>
+    <t xml:space="preserve">16.3689155578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8360567092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8454065322876</t>
   </si>
   <si>
     <t xml:space="preserve">16.0043315887451</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6584415435791</t>
+    <t xml:space="preserve">15.6584386825562</t>
   </si>
   <si>
     <t xml:space="preserve">15.4527778625488</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5280208587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6032619476318</t>
+    <t xml:space="preserve">15.528018951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6032609939575</t>
   </si>
   <si>
     <t xml:space="preserve">15.8477983474731</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9324445724487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0923347473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8195819854736</t>
+    <t xml:space="preserve">15.9324426651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0923328399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8195829391479</t>
   </si>
   <si>
     <t xml:space="preserve">15.2646722793579</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6220731735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7161245346069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7067184448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3493213653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0641174316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5343780517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.129955291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6879119873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8007717132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5092096328735</t>
+    <t xml:space="preserve">15.6220722198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7161235809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7067193984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3493204116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0641136169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5343761444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1299533843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6879072189331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8007726669312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5092115402222</t>
   </si>
   <si>
     <t xml:space="preserve">16.0829277038574</t>
@@ -572,16 +572,16 @@
     <t xml:space="preserve">16.7883205413818</t>
   </si>
   <si>
-    <t xml:space="preserve">17.399658203125</t>
+    <t xml:space="preserve">17.3996562957764</t>
   </si>
   <si>
     <t xml:space="preserve">17.4748992919922</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3526306152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4372787475586</t>
+    <t xml:space="preserve">17.352632522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4372806549072</t>
   </si>
   <si>
     <t xml:space="preserve">17.2397708892822</t>
@@ -590,25 +590,25 @@
     <t xml:space="preserve">17.1645278930664</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6942672729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3056049346924</t>
+    <t xml:space="preserve">16.6942653656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.305606842041</t>
   </si>
   <si>
     <t xml:space="preserve">17.117504119873</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3808479309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9639739990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1238613128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1614799499512</t>
+    <t xml:space="preserve">17.3808498382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9639720916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1238632202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1614818572998</t>
   </si>
   <si>
     <t xml:space="preserve">18.1050491333008</t>
@@ -623,7 +623,7 @@
     <t xml:space="preserve">19.1866493225098</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7979869842529</t>
+    <t xml:space="preserve">19.7979907989502</t>
   </si>
   <si>
     <t xml:space="preserve">19.8732299804688</t>
@@ -632,46 +632,46 @@
     <t xml:space="preserve">19.3559436798096</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1490287780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7039375305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5722618103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4217796325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.318323135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0925960540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2524833679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1772422790527</t>
+    <t xml:space="preserve">19.1490306854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7039356231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5722637176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.421781539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3183250427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0925998687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2524890899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.17724609375</t>
   </si>
   <si>
     <t xml:space="preserve">19.167839050293</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9891376495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8104419708252</t>
+    <t xml:space="preserve">18.9891414642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8104400634766</t>
   </si>
   <si>
     <t xml:space="preserve">18.631742477417</t>
   </si>
   <si>
-    <t xml:space="preserve">18.340181350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6881771087646</t>
+    <t xml:space="preserve">18.3401794433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6881732940674</t>
   </si>
   <si>
     <t xml:space="preserve">18.7634143829346</t>
@@ -680,19 +680,19 @@
     <t xml:space="preserve">18.6975803375244</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6035289764404</t>
+    <t xml:space="preserve">18.6035270690918</t>
   </si>
   <si>
     <t xml:space="preserve">18.7163906097412</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5094776153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5564975738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.744607925415</t>
+    <t xml:space="preserve">18.5094757080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5565013885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7446041107178</t>
   </si>
   <si>
     <t xml:space="preserve">18.8480644226074</t>
@@ -701,19 +701,19 @@
     <t xml:space="preserve">18.8574676513672</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9609241485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2807006835938</t>
+    <t xml:space="preserve">18.9609222412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2807025909424</t>
   </si>
   <si>
     <t xml:space="preserve">19.6569118499756</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3277282714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.365348815918</t>
+    <t xml:space="preserve">19.327730178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3653469085693</t>
   </si>
   <si>
     <t xml:space="preserve">19.6098861694336</t>
@@ -722,22 +722,22 @@
     <t xml:space="preserve">19.6945323944092</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1960525512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4876136779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7509651184082</t>
+    <t xml:space="preserve">19.1960544586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4876155853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7509632110596</t>
   </si>
   <si>
     <t xml:space="preserve">19.3371315002441</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4594020843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5910720825195</t>
+    <t xml:space="preserve">19.4594039916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5910739898682</t>
   </si>
   <si>
     <t xml:space="preserve">19.271297454834</t>
@@ -746,25 +746,25 @@
     <t xml:space="preserve">19.468807220459</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6286964416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5252380371094</t>
+    <t xml:space="preserve">19.628698348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.525239944458</t>
   </si>
   <si>
     <t xml:space="preserve">20.164794921875</t>
   </si>
   <si>
-    <t xml:space="preserve">20.258846282959</t>
+    <t xml:space="preserve">20.2588481903076</t>
   </si>
   <si>
     <t xml:space="preserve">20.6350555419922</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8795928955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1147232055664</t>
+    <t xml:space="preserve">20.8795909881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1147212982178</t>
   </si>
   <si>
     <t xml:space="preserve">21.2275829315186</t>
@@ -773,7 +773,7 @@
     <t xml:space="preserve">21.2087726593018</t>
   </si>
   <si>
-    <t xml:space="preserve">20.399923324585</t>
+    <t xml:space="preserve">20.3999214172363</t>
   </si>
   <si>
     <t xml:space="preserve">20.8701858520508</t>
@@ -785,28 +785,28 @@
     <t xml:space="preserve">20.5033798217773</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8325614929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9078063964844</t>
+    <t xml:space="preserve">20.8325634002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9078044891357</t>
   </si>
   <si>
     <t xml:space="preserve">20.8607807159424</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7573223114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7855415344238</t>
+    <t xml:space="preserve">20.7573204040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7855396270752</t>
   </si>
   <si>
     <t xml:space="preserve">20.9172115325928</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7385139465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0771007537842</t>
+    <t xml:space="preserve">20.7385120391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0770969390869</t>
   </si>
   <si>
     <t xml:space="preserve">21.1241264343262</t>
@@ -815,43 +815,43 @@
     <t xml:space="preserve">20.7102966308594</t>
   </si>
   <si>
-    <t xml:space="preserve">21.039478302002</t>
+    <t xml:space="preserve">21.0394802093506</t>
   </si>
   <si>
     <t xml:space="preserve">21.9141635894775</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7636795043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6320056915283</t>
+    <t xml:space="preserve">21.7636814117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6320095062256</t>
   </si>
   <si>
     <t xml:space="preserve">21.584981918335</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3968811035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.38747215271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1899662017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.537956237793</t>
+    <t xml:space="preserve">21.396879196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3874702453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1899642944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5379524230957</t>
   </si>
   <si>
     <t xml:space="preserve">21.3686618804932</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6131935119629</t>
+    <t xml:space="preserve">21.6131954193115</t>
   </si>
   <si>
     <t xml:space="preserve">21.4909286499023</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8983974456787</t>
+    <t xml:space="preserve">20.8983993530273</t>
   </si>
   <si>
     <t xml:space="preserve">21.4344997406006</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">21.2181777954102</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3780670166016</t>
+    <t xml:space="preserve">21.3780651092529</t>
   </si>
   <si>
     <t xml:space="preserve">21.5191440582275</t>
@@ -878,10 +878,10 @@
     <t xml:space="preserve">21.199369430542</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4439029693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9924545288086</t>
+    <t xml:space="preserve">21.443904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9924507141113</t>
   </si>
   <si>
     <t xml:space="preserve">20.5692195892334</t>
@@ -893,19 +893,19 @@
     <t xml:space="preserve">20.6632709503174</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5786228179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8889961242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5315990447998</t>
+    <t xml:space="preserve">20.5786209106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8889980316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5315971374512</t>
   </si>
   <si>
     <t xml:space="preserve">20.2964649200439</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4657611846924</t>
+    <t xml:space="preserve">20.465763092041</t>
   </si>
   <si>
     <t xml:space="preserve">20.0425243377686</t>
@@ -914,16 +914,16 @@
     <t xml:space="preserve">20.1553897857666</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5221881866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.550407409668</t>
+    <t xml:space="preserve">20.5221900939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5504093170166</t>
   </si>
   <si>
     <t xml:space="preserve">20.804349899292</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6914844512939</t>
+    <t xml:space="preserve">20.6914863586426</t>
   </si>
   <si>
     <t xml:space="preserve">20.20241355896</t>
@@ -938,67 +938,67 @@
     <t xml:space="preserve">19.9672832489014</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1741981506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3246841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2494411468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3623027801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9202575683594</t>
+    <t xml:space="preserve">20.1742000579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3246822357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.249439239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3623046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.920259475708</t>
   </si>
   <si>
     <t xml:space="preserve">20.9266166687012</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4939765930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2212257385254</t>
+    <t xml:space="preserve">20.4939785003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2212219238281</t>
   </si>
   <si>
     <t xml:space="preserve">19.9766864776611</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6726760864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3811130523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7479152679443</t>
+    <t xml:space="preserve">20.6726722717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3811168670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.747917175293</t>
   </si>
   <si>
     <t xml:space="preserve">21.1053161621094</t>
   </si>
   <si>
-    <t xml:space="preserve">20.59743309021</t>
+    <t xml:space="preserve">20.5974311828613</t>
   </si>
   <si>
     <t xml:space="preserve">20.8231582641602</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1523418426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4627151489258</t>
+    <t xml:space="preserve">21.1523399353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4627132415771</t>
   </si>
   <si>
     <t xml:space="preserve">20.9830474853516</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7291069030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5880279541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6256465911865</t>
+    <t xml:space="preserve">20.7291088104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5880298614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6256484985352</t>
   </si>
   <si>
     <t xml:space="preserve">20.1271724700928</t>
@@ -1013,10 +1013,10 @@
     <t xml:space="preserve">20.2306289672852</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3434925079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7761325836182</t>
+    <t xml:space="preserve">20.3434944152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7761306762695</t>
   </si>
   <si>
     <t xml:space="preserve">20.2400360107422</t>
@@ -1028,43 +1028,43 @@
     <t xml:space="preserve">19.4970226287842</t>
   </si>
   <si>
-    <t xml:space="preserve">19.01735496521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0737857818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.866870880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.233678817749</t>
+    <t xml:space="preserve">19.0173568725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0737895965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8668727874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2336769104004</t>
   </si>
   <si>
     <t xml:space="preserve">18.9139003753662</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7916316986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.895092010498</t>
+    <t xml:space="preserve">18.7916297912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8950881958008</t>
   </si>
   <si>
     <t xml:space="preserve">18.6693649291992</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0455703735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3747539520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2147731781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1864185333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7611064910889</t>
+    <t xml:space="preserve">19.0455722808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.374755859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2147769927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1864223480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7611045837402</t>
   </si>
   <si>
     <t xml:space="preserve">18.5342712402344</t>
@@ -1079,7 +1079,7 @@
     <t xml:space="preserve">17.8632183074951</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8915710449219</t>
+    <t xml:space="preserve">17.8915748596191</t>
   </si>
   <si>
     <t xml:space="preserve">18.1656627655029</t>
@@ -1097,10 +1097,10 @@
     <t xml:space="preserve">18.6949462890625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.817813873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6382350921631</t>
+    <t xml:space="preserve">18.8178100585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6382331848145</t>
   </si>
   <si>
     <t xml:space="preserve">18.3924980163574</t>
@@ -1124,43 +1124,43 @@
     <t xml:space="preserve">18.9312324523926</t>
   </si>
   <si>
-    <t xml:space="preserve">18.921781539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8461685180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5815277099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6098823547363</t>
+    <t xml:space="preserve">18.9217796325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8461666107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5815258026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6098804473877</t>
   </si>
   <si>
     <t xml:space="preserve">18.6760425567627</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7138481140137</t>
+    <t xml:space="preserve">18.713846206665</t>
   </si>
   <si>
     <t xml:space="preserve">18.7043972015381</t>
   </si>
   <si>
-    <t xml:space="preserve">18.893424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9406833648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.827262878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6193332672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7327518463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.13916015625</t>
+    <t xml:space="preserve">18.8934230804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9406795501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8272666931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6193351745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7327480316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1391639709473</t>
   </si>
   <si>
     <t xml:space="preserve">19.4227046966553</t>
@@ -1169,22 +1169,22 @@
     <t xml:space="preserve">19.7062492370605</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9897918701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7931613922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5492782592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.832820892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7855625152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6437931060791</t>
+    <t xml:space="preserve">19.9897899627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7931652069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5492763519287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8328227996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7855644226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6437911987305</t>
   </si>
   <si>
     <t xml:space="preserve">21.8800792694092</t>
@@ -1202,34 +1202,34 @@
     <t xml:space="preserve">21.2657356262207</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6986484527588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3129920959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8876800537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0294494628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9821949005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3602523803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4547634124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.407506942749</t>
+    <t xml:space="preserve">20.6986465454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3129901885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8876781463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.029447555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9821910858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3602485656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4547653198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4075050354004</t>
   </si>
   <si>
     <t xml:space="preserve">21.1239643096924</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9349327087402</t>
+    <t xml:space="preserve">20.9349346160889</t>
   </si>
   <si>
     <t xml:space="preserve">21.9745922088623</t>
@@ -1250,16 +1250,16 @@
     <t xml:space="preserve">21.0767059326172</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5020236968994</t>
+    <t xml:space="preserve">21.5020217895508</t>
   </si>
   <si>
     <t xml:space="preserve">20.5568771362305</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4623622894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1712207794189</t>
+    <t xml:space="preserve">20.4623641967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1712226867676</t>
   </si>
   <si>
     <t xml:space="preserve">20.8404216766357</t>
@@ -1268,31 +1268,28 @@
     <t xml:space="preserve">21.2184791564941</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5965347290039</t>
+    <t xml:space="preserve">21.5965366363525</t>
   </si>
   <si>
     <t xml:space="preserve">20.6513919830322</t>
   </si>
   <si>
-    <t xml:space="preserve">20.745906829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3678493499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2336769104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.280933380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3754463195801</t>
+    <t xml:space="preserve">20.7459049224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.367847442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2809352874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3754482269287</t>
   </si>
   <si>
     <t xml:space="preserve">19.5644779205322</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0370483398438</t>
+    <t xml:space="preserve">20.0370464324951</t>
   </si>
   <si>
     <t xml:space="preserve">19.8480205535889</t>
@@ -1304,16 +1301,16 @@
     <t xml:space="preserve">20.5096206665039</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2260761260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4151039123535</t>
+    <t xml:space="preserve">20.2260780334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4151020050049</t>
   </si>
   <si>
     <t xml:space="preserve">20.2733345031738</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1315593719482</t>
+    <t xml:space="preserve">20.1315650939941</t>
   </si>
   <si>
     <t xml:space="preserve">20.1788196563721</t>
@@ -1322,40 +1319,40 @@
     <t xml:space="preserve">19.6589908599854</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8007621765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7535057067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8952732086182</t>
+    <t xml:space="preserve">19.8007640838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7535037994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8952770233154</t>
   </si>
   <si>
     <t xml:space="preserve">19.942533493042</t>
   </si>
   <si>
-    <t xml:space="preserve">19.517219543457</t>
+    <t xml:space="preserve">19.5172214508057</t>
   </si>
   <si>
     <t xml:space="preserve">19.4699630737305</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6117324829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0843048095703</t>
+    <t xml:space="preserve">19.6117343902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0843029022217</t>
   </si>
   <si>
     <t xml:space="preserve">21.6910495758057</t>
   </si>
   <si>
-    <t xml:space="preserve">20.320592880249</t>
+    <t xml:space="preserve">20.3205909729004</t>
   </si>
   <si>
     <t xml:space="preserve">17.9388294219971</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5003604888916</t>
+    <t xml:space="preserve">15.5003576278687</t>
   </si>
   <si>
     <t xml:space="preserve">15.8973197937012</t>
@@ -1367,28 +1364,28 @@
     <t xml:space="preserve">14.6497287750244</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9899806976318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5948724746704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8217086791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1997661590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7271909713745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5192604064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6515798568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0674457550049</t>
+    <t xml:space="preserve">14.9899797439575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5948715209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8217077255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.199764251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7271938323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5192613601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6515808105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0674438476562</t>
   </si>
   <si>
     <t xml:space="preserve">15.9918327331543</t>
@@ -1397,10 +1394,10 @@
     <t xml:space="preserve">15.8595142364502</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7839012145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5759677886963</t>
+    <t xml:space="preserve">15.7839021682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5759706497192</t>
   </si>
   <si>
     <t xml:space="preserve">15.1979131698608</t>
@@ -1415,7 +1412,7 @@
     <t xml:space="preserve">14.5892353057861</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6272783279419</t>
+    <t xml:space="preserve">14.6272773742676</t>
   </si>
   <si>
     <t xml:space="preserve">15.1028060913086</t>
@@ -1424,7 +1421,7 @@
     <t xml:space="preserve">15.1218271255493</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8365097045898</t>
+    <t xml:space="preserve">14.8365106582642</t>
   </si>
   <si>
     <t xml:space="preserve">15.3310623168945</t>
@@ -1433,25 +1430,25 @@
     <t xml:space="preserve">15.6353998184204</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4642086029053</t>
+    <t xml:space="preserve">15.4642105102539</t>
   </si>
   <si>
     <t xml:space="preserve">14.2468538284302</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0946846008301</t>
+    <t xml:space="preserve">14.0946855545044</t>
   </si>
   <si>
     <t xml:space="preserve">13.7713241577148</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9044723510742</t>
+    <t xml:space="preserve">13.9044733047485</t>
   </si>
   <si>
     <t xml:space="preserve">14.5131511688232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3419599533081</t>
+    <t xml:space="preserve">14.3419589996338</t>
   </si>
   <si>
     <t xml:space="preserve">14.3229398727417</t>
@@ -1463,28 +1460,28 @@
     <t xml:space="preserve">14.1327266693115</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8093681335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7903461456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9615364074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2278327941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3800029754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7033615112305</t>
+    <t xml:space="preserve">13.8093671798706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7903451919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.961537361145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2278337478638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3800020217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7033624649048</t>
   </si>
   <si>
     <t xml:space="preserve">14.9316158294678</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4071464538574</t>
+    <t xml:space="preserve">15.4071455001831</t>
   </si>
   <si>
     <t xml:space="preserve">15.3120403289795</t>
@@ -1496,19 +1493,19 @@
     <t xml:space="preserve">15.2549772262573</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0837850570679</t>
+    <t xml:space="preserve">15.0837841033936</t>
   </si>
   <si>
     <t xml:space="preserve">15.2930183410645</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3500804901123</t>
+    <t xml:space="preserve">15.3500823974609</t>
   </si>
   <si>
     <t xml:space="preserve">15.3881244659424</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7305088043213</t>
+    <t xml:space="preserve">15.7305068969727</t>
   </si>
   <si>
     <t xml:space="preserve">16.1679916381836</t>
@@ -1526,7 +1523,7 @@
     <t xml:space="preserve">16.7005844116211</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6244983673096</t>
+    <t xml:space="preserve">16.6245002746582</t>
   </si>
   <si>
     <t xml:space="preserve">16.4723320007324</t>
@@ -1541,16 +1538,16 @@
     <t xml:space="preserve">16.0728855133057</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0158233642578</t>
+    <t xml:space="preserve">16.0158214569092</t>
   </si>
   <si>
     <t xml:space="preserve">16.339183807373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3582057952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4533100128174</t>
+    <t xml:space="preserve">16.3582038879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4533061981201</t>
   </si>
   <si>
     <t xml:space="preserve">16.8337345123291</t>
@@ -1559,13 +1556,13 @@
     <t xml:space="preserve">16.7196044921875</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4913539886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6435203552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.662540435791</t>
+    <t xml:space="preserve">16.4913520812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6435222625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6625423431396</t>
   </si>
   <si>
     <t xml:space="preserve">16.4342880249023</t>
@@ -1574,10 +1571,10 @@
     <t xml:space="preserve">16.8147106170654</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9288368225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6815624237061</t>
+    <t xml:space="preserve">16.9288387298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6815662384033</t>
   </si>
   <si>
     <t xml:space="preserve">16.5293922424316</t>
@@ -1586,16 +1583,16 @@
     <t xml:space="preserve">16.0538654327393</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1489715576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1299514770508</t>
+    <t xml:space="preserve">16.1489696502686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1299495697021</t>
   </si>
   <si>
     <t xml:space="preserve">16.320161819458</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2060356140137</t>
+    <t xml:space="preserve">16.2060375213623</t>
   </si>
   <si>
     <t xml:space="preserve">16.5484142303467</t>
@@ -1604,13 +1601,13 @@
     <t xml:space="preserve">16.6054782867432</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7386264801025</t>
+    <t xml:space="preserve">16.7386283874512</t>
   </si>
   <si>
     <t xml:space="preserve">16.9859027862549</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1570930480957</t>
+    <t xml:space="preserve">17.1570949554443</t>
   </si>
   <si>
     <t xml:space="preserve">17.6896839141846</t>
@@ -1619,7 +1616,7 @@
     <t xml:space="preserve">18.5075969696045</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4885749816895</t>
+    <t xml:space="preserve">18.4885730743408</t>
   </si>
   <si>
     <t xml:space="preserve">18.4695529937744</t>
@@ -1628,25 +1625,25 @@
     <t xml:space="preserve">18.3364067077637</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7467498779297</t>
+    <t xml:space="preserve">17.7467479705811</t>
   </si>
   <si>
     <t xml:space="preserve">17.3473033905029</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2141551971436</t>
+    <t xml:space="preserve">17.2141571044922</t>
   </si>
   <si>
     <t xml:space="preserve">17.1951351165771</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9478588104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8527526855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1761150360107</t>
+    <t xml:space="preserve">16.9478607177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8527545928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1761131286621</t>
   </si>
   <si>
     <t xml:space="preserve">17.0429668426514</t>
@@ -1655,52 +1652,52 @@
     <t xml:space="preserve">17.27121925354</t>
   </si>
   <si>
-    <t xml:space="preserve">17.366325378418</t>
+    <t xml:space="preserve">17.3663272857666</t>
   </si>
   <si>
     <t xml:space="preserve">17.4424114227295</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9668807983398</t>
+    <t xml:space="preserve">16.9668788909912</t>
   </si>
   <si>
     <t xml:space="preserve">16.4152679443359</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6924629211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7114849090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6544208526611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3691034317017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8745527267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9886798858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2739963531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9506368637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1598701477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0267219543457</t>
+    <t xml:space="preserve">15.6924619674683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.711483001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6544198989868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.369101524353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8745536804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9886808395386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2739973068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9506378173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1598691940308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.02672290802</t>
   </si>
   <si>
     <t xml:space="preserve">14.6843404769897</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8555307388306</t>
+    <t xml:space="preserve">14.8555316925049</t>
   </si>
   <si>
     <t xml:space="preserve">14.5511932373047</t>
@@ -1709,61 +1706,64 @@
     <t xml:space="preserve">15.0076999664307</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7414045333862</t>
+    <t xml:space="preserve">14.7414035797119</t>
   </si>
   <si>
     <t xml:space="preserve">14.6462984085083</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8174877166748</t>
+    <t xml:space="preserve">14.8174886703491</t>
   </si>
   <si>
     <t xml:space="preserve">15.7685470581055</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5973587036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5783357620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.863655090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4261655807495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7875709533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6163778305054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5212736129761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.235954284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0647640228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7223815917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9696578979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7984685897827</t>
+    <t xml:space="preserve">15.5973567962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5783348083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8636531829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4261674880981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1979122161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7875690460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6163787841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5212726593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2359552383423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0647649765015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7223834991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9696569442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.798469543457</t>
   </si>
   <si>
     <t xml:space="preserve">14.4751081466675</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4560871124268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2658758163452</t>
+    <t xml:space="preserve">14.4560861587524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2658748626709</t>
   </si>
   <si>
     <t xml:space="preserve">14.0756635665894</t>
@@ -1772,22 +1772,22 @@
     <t xml:space="preserve">13.94251537323</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6082572937012</t>
+    <t xml:space="preserve">14.6082553863525</t>
   </si>
   <si>
     <t xml:space="preserve">14.437066078186</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9805583953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0185985565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2088117599487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1137065887451</t>
+    <t xml:space="preserve">13.9805574417114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0186004638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2088108062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1137056350708</t>
   </si>
   <si>
     <t xml:space="preserve">14.418044090271</t>
@@ -1802,13 +1802,13 @@
     <t xml:space="preserve">14.170768737793</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5593156814575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3609819412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2848968505859</t>
+    <t xml:space="preserve">15.5593147277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3609828948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2848958969116</t>
   </si>
   <si>
     <t xml:space="preserve">14.6653203964233</t>
@@ -1826,73 +1826,73 @@
     <t xml:space="preserve">15.2448387145996</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0912380218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9952373504639</t>
+    <t xml:space="preserve">15.0912389755249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9952383041382</t>
   </si>
   <si>
     <t xml:space="preserve">15.0720376968384</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5712385177612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8784437179565</t>
+    <t xml:space="preserve">15.5712404251099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8784418106079</t>
   </si>
   <si>
     <t xml:space="preserve">16.6656436920166</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5312423706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8976392745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8592414855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7248401641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7440414428711</t>
+    <t xml:space="preserve">16.5312404632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8976402282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8592395782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7248392105103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7440395355225</t>
   </si>
   <si>
     <t xml:space="preserve">15.6480398178101</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9552421569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9936418533325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3776416778564</t>
+    <t xml:space="preserve">15.9552412033081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9936408996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3776397705078</t>
   </si>
   <si>
     <t xml:space="preserve">15.9168405532837</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8016405105591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8400402069092</t>
+    <t xml:space="preserve">15.8016395568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8400392532349</t>
   </si>
   <si>
     <t xml:space="preserve">16.2432403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1856422424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6096391677856</t>
+    <t xml:space="preserve">16.1856441497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6096410751343</t>
   </si>
   <si>
     <t xml:space="preserve">16.0320415496826</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7632398605347</t>
+    <t xml:space="preserve">15.763240814209</t>
   </si>
   <si>
     <t xml:space="preserve">15.6288394927979</t>
@@ -1904,19 +1904,19 @@
     <t xml:space="preserve">15.4368391036987</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3024387359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1680383682251</t>
+    <t xml:space="preserve">15.3024377822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1680393218994</t>
   </si>
   <si>
     <t xml:space="preserve">15.3984403610229</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9376382827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.129638671875</t>
+    <t xml:space="preserve">14.9376392364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1296396255493</t>
   </si>
   <si>
     <t xml:space="preserve">14.6880378723145</t>
@@ -1925,19 +1925,19 @@
     <t xml:space="preserve">14.2080364227295</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1120367050171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4000368118286</t>
+    <t xml:space="preserve">14.1120357513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4000358581543</t>
   </si>
   <si>
     <t xml:space="preserve">14.7840375900269</t>
   </si>
   <si>
-    <t xml:space="preserve">14.976037979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.764838218689</t>
+    <t xml:space="preserve">14.9760389328003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7648372650146</t>
   </si>
   <si>
     <t xml:space="preserve">14.5728378295898</t>
@@ -1949,19 +1949,19 @@
     <t xml:space="preserve">14.8032379150391</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5152378082275</t>
+    <t xml:space="preserve">14.5152368545532</t>
   </si>
   <si>
     <t xml:space="preserve">14.4576377868652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2272357940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8624353408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3056344985962</t>
+    <t xml:space="preserve">14.2272367477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.862434387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3056325912476</t>
   </si>
   <si>
     <t xml:space="preserve">13.1712341308594</t>
@@ -1970,25 +1970,25 @@
     <t xml:space="preserve">13.5360345840454</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2480335235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9600324630737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5760316848755</t>
+    <t xml:space="preserve">13.2480344772339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.960033416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5760326385498</t>
   </si>
   <si>
     <t xml:space="preserve">12.3264322280884</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0960321426392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6160306930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.174427986145</t>
+    <t xml:space="preserve">12.0960311889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6160297393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1744289398193</t>
   </si>
   <si>
     <t xml:space="preserve">10.2528266906738</t>
@@ -1997,25 +1997,25 @@
     <t xml:space="preserve">10.0800266265869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71522426605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02402305603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53282451629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19842147827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65922260284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21602344512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2912263870239</t>
+    <t xml:space="preserve">9.71522521972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02402210235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5328254699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19842052459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65922355651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21602439880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2912254333496</t>
   </si>
   <si>
     <t xml:space="preserve">10.8864288330078</t>
@@ -2024,22 +2024,22 @@
     <t xml:space="preserve">12.0768308639526</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0560340881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7504301071167</t>
+    <t xml:space="preserve">13.0560331344604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7504291534424</t>
   </si>
   <si>
     <t xml:space="preserve">11.0976285934448</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0592288970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7712278366089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1952257156372</t>
+    <t xml:space="preserve">11.0592279434204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7712268829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1952266693115</t>
   </si>
   <si>
     <t xml:space="preserve">10.4640264511108</t>
@@ -2054,16 +2054,16 @@
     <t xml:space="preserve">11.2512283325195</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0400276184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7136268615723</t>
+    <t xml:space="preserve">11.0400285720825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7136278152466</t>
   </si>
   <si>
     <t xml:space="preserve">10.329626083374</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0032253265381</t>
+    <t xml:space="preserve">10.0032262802124</t>
   </si>
   <si>
     <t xml:space="preserve">10.3488264083862</t>
@@ -2072,19 +2072,19 @@
     <t xml:space="preserve">10.6368274688721</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5600271224976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9056282043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8480291366577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8288269042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9440279006958</t>
+    <t xml:space="preserve">10.5600280761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9056272506714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8480281829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8288278579712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9440269470215</t>
   </si>
   <si>
     <t xml:space="preserve">10.963228225708</t>
@@ -2093,7 +2093,7 @@
     <t xml:space="preserve">10.6752281188965</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1360273361206</t>
+    <t xml:space="preserve">11.1360282897949</t>
   </si>
   <si>
     <t xml:space="preserve">11.0784273147583</t>
@@ -2105,34 +2105,34 @@
     <t xml:space="preserve">11.7120294570923</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1936283111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5584297180176</t>
+    <t xml:space="preserve">11.1936292648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5584287643433</t>
   </si>
   <si>
     <t xml:space="preserve">11.6544303894043</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9424295425415</t>
+    <t xml:space="preserve">11.9424304962158</t>
   </si>
   <si>
     <t xml:space="preserve">12.1536312103271</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4416313171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3648309707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2496309280396</t>
+    <t xml:space="preserve">12.441632270813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3648319244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2496318817139</t>
   </si>
   <si>
     <t xml:space="preserve">12.0000314712524</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3664283752441</t>
+    <t xml:space="preserve">11.3664302825928</t>
   </si>
   <si>
     <t xml:space="preserve">11.1552286148071</t>
@@ -2141,28 +2141,28 @@
     <t xml:space="preserve">11.3280296325684</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2320280075073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.020827293396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9248285293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8096284866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.540825843811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5792274475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7904281616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3472280502319</t>
+    <t xml:space="preserve">11.2320289611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0208282470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9248275756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.809627532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5408267974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5792264938354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7904272079468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3472290039062</t>
   </si>
   <si>
     <t xml:space="preserve">11.4816293716431</t>
@@ -2177,10 +2177,10 @@
     <t xml:space="preserve">11.1168279647827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7328281402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5024271011353</t>
+    <t xml:space="preserve">10.7328271865845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5024261474609</t>
   </si>
   <si>
     <t xml:space="preserve">10.5984268188477</t>
@@ -2192,34 +2192,34 @@
     <t xml:space="preserve">11.5776300430298</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8272304534912</t>
+    <t xml:space="preserve">11.8272294998169</t>
   </si>
   <si>
     <t xml:space="preserve">11.6736297607422</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7696294784546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6928310394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.808030128479</t>
+    <t xml:space="preserve">11.7696304321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6928291320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8080310821533</t>
   </si>
   <si>
     <t xml:space="preserve">11.8848304748535</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3840312957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.288031578064</t>
+    <t xml:space="preserve">12.3840303421021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2880325317383</t>
   </si>
   <si>
     <t xml:space="preserve">12.2688312530518</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1152315139771</t>
+    <t xml:space="preserve">12.1152305603027</t>
   </si>
   <si>
     <t xml:space="preserve">12.1344318389893</t>
@@ -2234,16 +2234,16 @@
     <t xml:space="preserve">11.3856287002563</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8064336776733</t>
+    <t xml:space="preserve">12.806432723999</t>
   </si>
   <si>
     <t xml:space="preserve">13.8240346908569</t>
   </si>
   <si>
-    <t xml:space="preserve">13.555233001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0352354049683</t>
+    <t xml:space="preserve">13.5552349090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0352363586426</t>
   </si>
   <si>
     <t xml:space="preserve">13.7664346694946</t>
@@ -2252,7 +2252,7 @@
     <t xml:space="preserve">13.4016351699829</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5936336517334</t>
+    <t xml:space="preserve">13.593635559082</t>
   </si>
   <si>
     <t xml:space="preserve">13.6320343017578</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">13.2672338485718</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4976348876953</t>
+    <t xml:space="preserve">13.497633934021</t>
   </si>
   <si>
     <t xml:space="preserve">14.3040361404419</t>
@@ -2279,46 +2279,46 @@
     <t xml:space="preserve">13.65123462677</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3440341949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1728315353394</t>
+    <t xml:space="preserve">13.344033241272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.172830581665</t>
   </si>
   <si>
     <t xml:space="preserve">12.2112321853638</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4800310134888</t>
+    <t xml:space="preserve">12.4800329208374</t>
   </si>
   <si>
     <t xml:space="preserve">12.5952320098877</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0176334381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9792337417603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2096347808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4784355163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6128339767456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7280349731445</t>
+    <t xml:space="preserve">13.017632484436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9792327880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2096338272095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4784345626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6128349304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7280359268188</t>
   </si>
   <si>
     <t xml:space="preserve">13.7879419326782</t>
   </si>
   <si>
-    <t xml:space="preserve">13.807333946228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5746269226074</t>
+    <t xml:space="preserve">13.8073348999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5746259689331</t>
   </si>
   <si>
     <t xml:space="preserve">13.6134119033813</t>
@@ -2330,46 +2330,46 @@
     <t xml:space="preserve">13.6715888977051</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0206499099731</t>
+    <t xml:space="preserve">14.0206508636475</t>
   </si>
   <si>
     <t xml:space="preserve">14.0594339370728</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9236879348755</t>
+    <t xml:space="preserve">13.9236869812012</t>
   </si>
   <si>
     <t xml:space="preserve">14.3503198623657</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3309259414673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3891048431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1563959121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8655118942261</t>
+    <t xml:space="preserve">14.3309268951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3891038894653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1563968658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8655128479004</t>
   </si>
   <si>
     <t xml:space="preserve">13.6328039169312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9430809020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7685499191284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.710373878479</t>
+    <t xml:space="preserve">13.9430818557739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7685489654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7103729248047</t>
   </si>
   <si>
     <t xml:space="preserve">13.9624729156494</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8849029541016</t>
+    <t xml:space="preserve">13.8849039077759</t>
   </si>
   <si>
     <t xml:space="preserve">14.0400419235229</t>
@@ -2378,13 +2378,13 @@
     <t xml:space="preserve">14.3115348815918</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5248508453369</t>
+    <t xml:space="preserve">14.5248498916626</t>
   </si>
   <si>
     <t xml:space="preserve">14.8933048248291</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8157348632812</t>
+    <t xml:space="preserve">14.8157358169556</t>
   </si>
   <si>
     <t xml:space="preserve">15.1841888427734</t>
@@ -2393,7 +2393,7 @@
     <t xml:space="preserve">15.2229738235474</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6967906951904</t>
+    <t xml:space="preserve">16.6967887878418</t>
   </si>
   <si>
     <t xml:space="preserve">16.5416507720947</t>
@@ -2417,7 +2417,7 @@
     <t xml:space="preserve">15.513858795166</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9404907226562</t>
+    <t xml:space="preserve">15.9404916763306</t>
   </si>
   <si>
     <t xml:space="preserve">15.5332517623901</t>
@@ -2426,7 +2426,7 @@
     <t xml:space="preserve">15.6302137374878</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9210968017578</t>
+    <t xml:space="preserve">15.9210977554321</t>
   </si>
   <si>
     <t xml:space="preserve">16.0568428039551</t>
@@ -2438,16 +2438,16 @@
     <t xml:space="preserve">16.8131446838379</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9876747131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8907146453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8519268035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9294967651367</t>
+    <t xml:space="preserve">16.9876766204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8907127380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8519287109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9294986724854</t>
   </si>
   <si>
     <t xml:space="preserve">16.9101066589355</t>
@@ -2459,7 +2459,7 @@
     <t xml:space="preserve">17.356128692627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4143047332764</t>
+    <t xml:space="preserve">17.414306640625</t>
   </si>
   <si>
     <t xml:space="preserve">17.2009906768799</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">16.8713207244873</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1622085571289</t>
+    <t xml:space="preserve">17.1622066497803</t>
   </si>
   <si>
     <t xml:space="preserve">17.1428146362305</t>
@@ -2486,10 +2486,10 @@
     <t xml:space="preserve">17.0652446746826</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1900005340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3063526153564</t>
+    <t xml:space="preserve">18.1900024414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3063507080078</t>
   </si>
   <si>
     <t xml:space="preserve">18.5390625</t>
@@ -2501,31 +2501,31 @@
     <t xml:space="preserve">20.1680164337158</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5558643341064</t>
+    <t xml:space="preserve">20.5558624267578</t>
   </si>
   <si>
     <t xml:space="preserve">20.022575378418</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9921894073486</t>
+    <t xml:space="preserve">20.9921913146973</t>
   </si>
   <si>
     <t xml:space="preserve">20.7497863769531</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3619403839111</t>
+    <t xml:space="preserve">20.3619384765625</t>
   </si>
   <si>
     <t xml:space="preserve">20.2164974212646</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1195335388184</t>
+    <t xml:space="preserve">20.119535446167</t>
   </si>
   <si>
     <t xml:space="preserve">20.2649784088135</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6528224945068</t>
+    <t xml:space="preserve">20.6528244018555</t>
   </si>
   <si>
     <t xml:space="preserve">20.798267364502</t>
@@ -2540,16 +2540,16 @@
     <t xml:space="preserve">21.1376323699951</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6043453216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3134593963623</t>
+    <t xml:space="preserve">20.6043434143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3134574890137</t>
   </si>
   <si>
     <t xml:space="preserve">21.1861133575439</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9740924835205</t>
+    <t xml:space="preserve">19.9740943908691</t>
   </si>
   <si>
     <t xml:space="preserve">19.731689453125</t>
@@ -2561,7 +2561,7 @@
     <t xml:space="preserve">19.7801704406738</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0710563659668</t>
+    <t xml:space="preserve">20.0710544586182</t>
   </si>
   <si>
     <t xml:space="preserve">19.3923225402832</t>
@@ -2573,25 +2573,25 @@
     <t xml:space="preserve">20.7013053894043</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4589004516602</t>
+    <t xml:space="preserve">20.4589023590088</t>
   </si>
   <si>
     <t xml:space="preserve">21.3800373077393</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9618053436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5739612579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0587692260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0102863311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1072483062744</t>
+    <t xml:space="preserve">21.9618072509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5739593505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0587673187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0102882385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1072463989258</t>
   </si>
   <si>
     <t xml:space="preserve">21.8163642883301</t>
@@ -2600,10 +2600,10 @@
     <t xml:space="preserve">22.1557292938232</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2526912689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4769973754883</t>
+    <t xml:space="preserve">22.2526931762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4769992828369</t>
   </si>
   <si>
     <t xml:space="preserve">21.6224403381348</t>
@@ -2612,10 +2612,10 @@
     <t xml:space="preserve">21.7194023132324</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5920562744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0768642425537</t>
+    <t xml:space="preserve">22.5920543670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0768623352051</t>
   </si>
   <si>
     <t xml:space="preserve">23.6101551055908</t>
@@ -2624,7 +2624,7 @@
     <t xml:space="preserve">22.9314231872559</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6890182495117</t>
+    <t xml:space="preserve">22.6890201568604</t>
   </si>
   <si>
     <t xml:space="preserve">22.3011722564697</t>
@@ -2636,16 +2636,16 @@
     <t xml:space="preserve">21.6709213256836</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0891532897949</t>
+    <t xml:space="preserve">21.0891513824463</t>
   </si>
   <si>
     <t xml:space="preserve">21.0406723022461</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2042121887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8221759796143</t>
+    <t xml:space="preserve">22.2042102813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8221740722656</t>
   </si>
   <si>
     <t xml:space="preserve">24.240406036377</t>
@@ -2654,13 +2654,13 @@
     <t xml:space="preserve">23.7555980682373</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7071151733398</t>
+    <t xml:space="preserve">23.7071170806885</t>
   </si>
   <si>
     <t xml:space="preserve">23.4647121429443</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5616722106934</t>
+    <t xml:space="preserve">23.5616703033447</t>
   </si>
   <si>
     <t xml:space="preserve">23.8040752410889</t>
@@ -2672,7 +2672,7 @@
     <t xml:space="preserve">24.046480178833</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9010391235352</t>
+    <t xml:space="preserve">23.9010372161865</t>
   </si>
   <si>
     <t xml:space="preserve">23.3677501678467</t>
@@ -2684,7 +2684,7 @@
     <t xml:space="preserve">23.9980010986328</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9495220184326</t>
+    <t xml:space="preserve">23.949520111084</t>
   </si>
   <si>
     <t xml:space="preserve">23.3192672729492</t>
@@ -2696,22 +2696,22 @@
     <t xml:space="preserve">23.1253471374512</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8829441070557</t>
+    <t xml:space="preserve">22.882942199707</t>
   </si>
   <si>
     <t xml:space="preserve">22.5435771942139</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8648452758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4950942993164</t>
+    <t xml:space="preserve">21.8648433685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.495096206665</t>
   </si>
   <si>
     <t xml:space="preserve">22.4466152191162</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5312881469727</t>
+    <t xml:space="preserve">24.5312900543213</t>
   </si>
   <si>
     <t xml:space="preserve">24.1919250488281</t>
@@ -2726,7 +2726,7 @@
     <t xml:space="preserve">24.1434421539307</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7917919158936</t>
+    <t xml:space="preserve">25.7917900085449</t>
   </si>
   <si>
     <t xml:space="preserve">26.0826740264893</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">26.1796360015869</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1311588287354</t>
+    <t xml:space="preserve">26.1311569213867</t>
   </si>
   <si>
     <t xml:space="preserve">26.2765998840332</t>
@@ -2756,22 +2756,22 @@
     <t xml:space="preserve">27.8279857635498</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7310237884521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6825428009033</t>
+    <t xml:space="preserve">27.7310256958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6825408935547</t>
   </si>
   <si>
     <t xml:space="preserve">28.2158317565918</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8460826873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3127918243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.652156829834</t>
+    <t xml:space="preserve">28.8460807800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3127937316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6521587371826</t>
   </si>
   <si>
     <t xml:space="preserve">28.1188678741455</t>
@@ -2789,10 +2789,10 @@
     <t xml:space="preserve">27.5855808258057</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2946968078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.488618850708</t>
+    <t xml:space="preserve">27.2946949005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4886207580566</t>
   </si>
   <si>
     <t xml:space="preserve">27.3916568756104</t>
@@ -2804,13 +2804,13 @@
     <t xml:space="preserve">27.2648448944092</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5820045471191</t>
+    <t xml:space="preserve">26.5820026397705</t>
   </si>
   <si>
     <t xml:space="preserve">26.1430339813232</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7528400421143</t>
+    <t xml:space="preserve">25.7528381347656</t>
   </si>
   <si>
     <t xml:space="preserve">24.8749027252197</t>
@@ -2819,7 +2819,7 @@
     <t xml:space="preserve">25.0212230682373</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4359340667725</t>
+    <t xml:space="preserve">24.4359321594238</t>
   </si>
   <si>
     <t xml:space="preserve">25.0699996948242</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">25.4114189147949</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7283267974854</t>
+    <t xml:space="preserve">26.7283248901367</t>
   </si>
   <si>
     <t xml:space="preserve">27.1672954559326</t>
@@ -2840,10 +2840,10 @@
     <t xml:space="preserve">26.7771015167236</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2405834197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1918087005615</t>
+    <t xml:space="preserve">26.2405815124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1918106079102</t>
   </si>
   <si>
     <t xml:space="preserve">25.8016147613525</t>
@@ -2867,37 +2867,37 @@
     <t xml:space="preserve">26.2893581390381</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4844551086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9479370117188</t>
+    <t xml:space="preserve">26.4844532012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9479389190674</t>
   </si>
   <si>
     <t xml:space="preserve">25.1675472259521</t>
   </si>
   <si>
-    <t xml:space="preserve">25.996711730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8503875732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3626441955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7773532867432</t>
+    <t xml:space="preserve">25.9967098236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8503894805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3626461029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7773513793945</t>
   </si>
   <si>
     <t xml:space="preserve">23.2653503417969</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0702514648438</t>
+    <t xml:space="preserve">23.0702533721924</t>
   </si>
   <si>
     <t xml:space="preserve">23.9481887817383</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3141231536865</t>
+    <t xml:space="preserve">23.3141250610352</t>
   </si>
   <si>
     <t xml:space="preserve">23.21657371521</t>
@@ -2912,25 +2912,25 @@
     <t xml:space="preserve">22.7288303375244</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2410888671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0947647094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8508930206299</t>
+    <t xml:space="preserve">22.2410869598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0947666168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8508949279785</t>
   </si>
   <si>
     <t xml:space="preserve">22.9239292144775</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1190280914307</t>
+    <t xml:space="preserve">23.119026184082</t>
   </si>
   <si>
     <t xml:space="preserve">22.7776069641113</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3874111175537</t>
+    <t xml:space="preserve">22.3874130249023</t>
   </si>
   <si>
     <t xml:space="preserve">23.4604454040527</t>
@@ -2951,13 +2951,13 @@
     <t xml:space="preserve">20.7778587341309</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7535972595215</t>
+    <t xml:space="preserve">19.7535991668701</t>
   </si>
   <si>
     <t xml:space="preserve">20.4364395141602</t>
   </si>
   <si>
-    <t xml:space="preserve">20.192569732666</t>
+    <t xml:space="preserve">20.1925678253174</t>
   </si>
   <si>
     <t xml:space="preserve">19.1975727081299</t>
@@ -2969,10 +2969,10 @@
     <t xml:space="preserve">18.3586521148682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1100311279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1685600280762</t>
+    <t xml:space="preserve">17.1100330352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1685619354248</t>
   </si>
   <si>
     <t xml:space="preserve">18.2415962219238</t>
@@ -2981,13 +2981,13 @@
     <t xml:space="preserve">18.3781623840332</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7733612060547</t>
+    <t xml:space="preserve">17.7733592987061</t>
   </si>
   <si>
     <t xml:space="preserve">18.5342407226562</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0660095214844</t>
+    <t xml:space="preserve">18.0660076141357</t>
   </si>
   <si>
     <t xml:space="preserve">17.7148303985596</t>
@@ -3011,13 +3011,13 @@
     <t xml:space="preserve">19.0024738311768</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3146286010742</t>
+    <t xml:space="preserve">19.3146305084229</t>
   </si>
   <si>
     <t xml:space="preserve">19.4316883087158</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8511486053467</t>
+    <t xml:space="preserve">19.851146697998</t>
   </si>
   <si>
     <t xml:space="preserve">19.3536491394043</t>
@@ -3029,13 +3029,13 @@
     <t xml:space="preserve">18.8659057617188</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9879703521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8854160308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6317901611328</t>
+    <t xml:space="preserve">17.9879684448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8854179382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6317882537842</t>
   </si>
   <si>
     <t xml:space="preserve">18.9634552001953</t>
@@ -3044,7 +3044,7 @@
     <t xml:space="preserve">19.6560497283936</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9974689483643</t>
+    <t xml:space="preserve">19.9974708557129</t>
   </si>
   <si>
     <t xml:space="preserve">19.3731594085693</t>
@@ -3053,10 +3053,10 @@
     <t xml:space="preserve">18.9829635620117</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1585502624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6072769165039</t>
+    <t xml:space="preserve">19.1585521697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6072750091553</t>
   </si>
   <si>
     <t xml:space="preserve">19.5097274780273</t>
@@ -3068,7 +3068,7 @@
     <t xml:space="preserve">17.9489479064941</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3196353912354</t>
+    <t xml:space="preserve">18.3196334838867</t>
   </si>
   <si>
     <t xml:space="preserve">20.0462436676025</t>
@@ -3101,13 +3101,13 @@
     <t xml:space="preserve">23.4116725921631</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6067714691162</t>
+    <t xml:space="preserve">23.6067695617676</t>
   </si>
   <si>
     <t xml:space="preserve">22.8263816833496</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4849605560303</t>
+    <t xml:space="preserve">22.4849586486816</t>
   </si>
   <si>
     <t xml:space="preserve">20.6803112030029</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">20.0950183868408</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4902172088623</t>
+    <t xml:space="preserve">19.4902153015137</t>
   </si>
   <si>
     <t xml:space="preserve">19.0219841003418</t>
@@ -3137,28 +3137,28 @@
     <t xml:space="preserve">18.8268871307373</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7928695678711</t>
+    <t xml:space="preserve">17.7928714752197</t>
   </si>
   <si>
     <t xml:space="preserve">19.0414943695068</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7293376922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4562015533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3001232147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7878665924072</t>
+    <t xml:space="preserve">18.7293395996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4562034606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3001251220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7878684997559</t>
   </si>
   <si>
     <t xml:space="preserve">18.9439449310303</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1780624389648</t>
+    <t xml:space="preserve">19.1780605316162</t>
   </si>
   <si>
     <t xml:space="preserve">18.7683582305908</t>
@@ -3167,34 +3167,34 @@
     <t xml:space="preserve">18.6708087921143</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5147304534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2025756835938</t>
+    <t xml:space="preserve">18.5147323608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2025737762451</t>
   </si>
   <si>
     <t xml:space="preserve">18.8073768615723</t>
   </si>
   <si>
-    <t xml:space="preserve">19.558500289917</t>
+    <t xml:space="preserve">19.5585021972656</t>
   </si>
   <si>
     <t xml:space="preserve">19.0805130004883</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2170810699463</t>
+    <t xml:space="preserve">19.2170829772949</t>
   </si>
   <si>
     <t xml:space="preserve">19.7048263549805</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3976726531982</t>
+    <t xml:space="preserve">18.3976745605469</t>
   </si>
   <si>
     <t xml:space="preserve">17.9294376373291</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1440467834473</t>
+    <t xml:space="preserve">18.1440448760986</t>
   </si>
   <si>
     <t xml:space="preserve">17.8514003753662</t>
@@ -3206,10 +3206,10 @@
     <t xml:space="preserve">18.4757118225098</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8904209136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5587558746338</t>
+    <t xml:space="preserve">17.8904190063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5587539672852</t>
   </si>
   <si>
     <t xml:space="preserve">16.8368949890137</t>
@@ -3224,7 +3224,7 @@
     <t xml:space="preserve">16.4076805114746</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2516021728516</t>
+    <t xml:space="preserve">16.2516040802002</t>
   </si>
   <si>
     <t xml:space="preserve">16.4271907806396</t>
@@ -3236,16 +3236,16 @@
     <t xml:space="preserve">15.7443494796753</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5492525100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9344425201416</t>
+    <t xml:space="preserve">15.5492515563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9344444274902</t>
   </si>
   <si>
     <t xml:space="preserve">16.3296413421631</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9734630584717</t>
+    <t xml:space="preserve">16.973461151123</t>
   </si>
   <si>
     <t xml:space="preserve">17.0905208587646</t>
@@ -3254,7 +3254,7 @@
     <t xml:space="preserve">17.3246383666992</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6563034057617</t>
+    <t xml:space="preserve">17.6563053131104</t>
   </si>
   <si>
     <t xml:space="preserve">17.4612045288086</t>
@@ -3263,16 +3263,16 @@
     <t xml:space="preserve">17.3831672668457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3441486358643</t>
+    <t xml:space="preserve">17.3441467285156</t>
   </si>
   <si>
     <t xml:space="preserve">18.1830654144287</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1195335388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0610046386719</t>
+    <t xml:space="preserve">19.1195316314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0610027313232</t>
   </si>
   <si>
     <t xml:space="preserve">19.8023719787598</t>
@@ -3284,7 +3284,7 @@
     <t xml:space="preserve">20.3876647949219</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9486980438232</t>
+    <t xml:space="preserve">19.9486961364746</t>
   </si>
   <si>
     <t xml:space="preserve">20.8266334533691</t>
@@ -3903,6 +3903,9 @@
   </si>
   <si>
     <t xml:space="preserve">37.4500007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9500007629395</t>
   </si>
 </sst>
 </file>
@@ -20200,7 +20203,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G614" t="s">
-        <v>422</v>
+        <v>341</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20278,7 +20281,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G617" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20304,7 +20307,7 @@
         <v>20.5</v>
       </c>
       <c r="G618" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20330,7 +20333,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G619" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20356,7 +20359,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G620" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20382,7 +20385,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G621" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20408,7 +20411,7 @@
         <v>21</v>
       </c>
       <c r="G622" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20486,7 +20489,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G625" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20538,7 +20541,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G627" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20590,7 +20593,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G629" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20616,7 +20619,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G630" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20668,7 +20671,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G632" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20694,7 +20697,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G633" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -20720,7 +20723,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G634" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20772,7 +20775,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G636" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -20798,7 +20801,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G637" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -20824,7 +20827,7 @@
         <v>21</v>
       </c>
       <c r="G638" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20850,7 +20853,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G639" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20902,7 +20905,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G641" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -20928,7 +20931,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G642" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -20980,7 +20983,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G644" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21006,7 +21009,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G645" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21188,7 +21191,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G652" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21214,7 +21217,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G653" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21240,7 +21243,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G654" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21266,7 +21269,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G655" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21292,7 +21295,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G656" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21344,7 +21347,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G658" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21370,7 +21373,7 @@
         <v>21</v>
       </c>
       <c r="G659" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21422,7 +21425,7 @@
         <v>21</v>
       </c>
       <c r="G661" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21448,7 +21451,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G662" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21474,7 +21477,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G663" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21526,7 +21529,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G665" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21604,7 +21607,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G668" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21630,7 +21633,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G669" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -21656,7 +21659,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G670" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -21708,7 +21711,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G672" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -21734,7 +21737,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G673" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -21760,7 +21763,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G674" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -21786,7 +21789,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -21812,7 +21815,7 @@
         <v>20.75</v>
       </c>
       <c r="G676" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21838,7 +21841,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G677" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -21864,7 +21867,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G678" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21890,7 +21893,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G679" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -21916,7 +21919,7 @@
         <v>21.25</v>
       </c>
       <c r="G680" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -21942,7 +21945,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G681" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -21968,7 +21971,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G682" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -21994,7 +21997,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G683" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22462,7 +22465,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G701" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -22618,7 +22621,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G707" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -22644,7 +22647,7 @@
         <v>21.5</v>
       </c>
       <c r="G708" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -22670,7 +22673,7 @@
         <v>21.5</v>
       </c>
       <c r="G709" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -22696,7 +22699,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G710" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -22722,7 +22725,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G711" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -22748,7 +22751,7 @@
         <v>21</v>
       </c>
       <c r="G712" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -22774,7 +22777,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G713" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -22800,7 +22803,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G714" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -22826,7 +22829,7 @@
         <v>21</v>
       </c>
       <c r="G715" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -22852,7 +22855,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G716" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -22878,7 +22881,7 @@
         <v>20.75</v>
       </c>
       <c r="G717" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -22904,7 +22907,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G718" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -22930,7 +22933,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G719" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -22956,7 +22959,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G720" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -22982,7 +22985,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G721" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23008,7 +23011,7 @@
         <v>15.5</v>
       </c>
       <c r="G722" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23034,7 +23037,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G723" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23060,7 +23063,7 @@
         <v>16.5</v>
       </c>
       <c r="G724" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23086,7 +23089,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G725" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23112,7 +23115,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G726" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23138,7 +23141,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G727" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23164,7 +23167,7 @@
         <v>16.4200000762939</v>
       </c>
       <c r="G728" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23190,7 +23193,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G729" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23216,7 +23219,7 @@
         <v>17</v>
       </c>
       <c r="G730" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23242,7 +23245,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G731" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23268,7 +23271,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G732" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23294,7 +23297,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G733" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -23320,7 +23323,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G734" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -23346,7 +23349,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G735" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -23372,7 +23375,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G736" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -23398,7 +23401,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G737" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -23424,7 +23427,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G738" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -23450,7 +23453,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G739" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -23476,7 +23479,7 @@
         <v>15.3800001144409</v>
       </c>
       <c r="G740" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -23502,7 +23505,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G741" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23528,7 +23531,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G742" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23554,7 +23557,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G743" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23580,7 +23583,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G744" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -23606,7 +23609,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G745" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -23632,7 +23635,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G746" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -23658,7 +23661,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G747" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -23684,7 +23687,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G748" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -23710,7 +23713,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G749" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -23736,7 +23739,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G750" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -23762,7 +23765,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G751" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -23788,7 +23791,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G752" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -23814,7 +23817,7 @@
         <v>14.6199998855591</v>
       </c>
       <c r="G753" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -23840,7 +23843,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G754" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -23866,7 +23869,7 @@
         <v>15.0799999237061</v>
       </c>
       <c r="G755" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -23892,7 +23895,7 @@
         <v>15.0600004196167</v>
       </c>
       <c r="G756" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -23918,7 +23921,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G757" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -23944,7 +23947,7 @@
         <v>14.8599996566772</v>
       </c>
       <c r="G758" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -23970,7 +23973,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G759" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -23996,7 +23999,7 @@
         <v>14.5</v>
       </c>
       <c r="G760" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24022,7 +24025,7 @@
         <v>14.6800003051758</v>
       </c>
       <c r="G761" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24048,7 +24051,7 @@
         <v>14.960000038147</v>
       </c>
       <c r="G762" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24074,7 +24077,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G763" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24100,7 +24103,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G764" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24126,7 +24129,7 @@
         <v>15.460000038147</v>
       </c>
       <c r="G765" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24152,7 +24155,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G766" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24178,7 +24181,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G767" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24204,7 +24207,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G768" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24230,7 +24233,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G769" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24256,7 +24259,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G770" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24282,7 +24285,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G771" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24308,7 +24311,7 @@
         <v>16</v>
       </c>
       <c r="G772" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -24334,7 +24337,7 @@
         <v>16</v>
       </c>
       <c r="G773" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -24360,7 +24363,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G774" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -24386,7 +24389,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G775" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -24412,7 +24415,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G776" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -24438,7 +24441,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G777" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24464,7 +24467,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G778" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24490,7 +24493,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G779" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24516,7 +24519,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G780" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24542,7 +24545,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G781" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -24568,7 +24571,7 @@
         <v>17</v>
       </c>
       <c r="G782" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -24594,7 +24597,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G783" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -24620,7 +24623,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G784" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -24646,7 +24649,7 @@
         <v>18</v>
       </c>
       <c r="G785" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -24672,7 +24675,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G786" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -24698,7 +24701,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G787" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -24724,7 +24727,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G788" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -24750,7 +24753,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G789" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -24776,7 +24779,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G790" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -24802,7 +24805,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G791" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24828,7 +24831,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G792" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -24854,7 +24857,7 @@
         <v>17</v>
       </c>
       <c r="G793" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24880,7 +24883,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G794" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -24906,7 +24909,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G795" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -24932,7 +24935,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G796" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -24958,7 +24961,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G797" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -24984,7 +24987,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G798" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25010,7 +25013,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G799" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -25036,7 +25039,7 @@
         <v>17.5</v>
       </c>
       <c r="G800" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25062,7 +25065,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G801" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25088,7 +25091,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G802" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25114,7 +25117,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G803" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25140,7 +25143,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G804" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25166,7 +25169,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G805" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25192,7 +25195,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G806" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25218,7 +25221,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G807" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25244,7 +25247,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G808" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25270,7 +25273,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G809" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25296,7 +25299,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G810" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25322,7 +25325,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G811" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -25348,7 +25351,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G812" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -25374,7 +25377,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G813" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -25400,7 +25403,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G814" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -25426,7 +25429,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G815" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -25452,7 +25455,7 @@
         <v>17</v>
       </c>
       <c r="G816" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -25478,7 +25481,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G817" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -25504,7 +25507,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G818" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25530,7 +25533,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G819" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -25556,7 +25559,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G820" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -25582,7 +25585,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G821" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -25608,7 +25611,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G822" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -25634,7 +25637,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G823" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -25660,7 +25663,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G824" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -25686,7 +25689,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G825" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -25712,7 +25715,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G826" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -25738,7 +25741,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G827" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -25764,7 +25767,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G828" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -25790,7 +25793,7 @@
         <v>19.4599990844727</v>
       </c>
       <c r="G829" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -25816,7 +25819,7 @@
         <v>19.4400005340576</v>
       </c>
       <c r="G830" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -25842,7 +25845,7 @@
         <v>19.4200000762939</v>
       </c>
       <c r="G831" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -25868,7 +25871,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G832" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -25894,7 +25897,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G833" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -25920,7 +25923,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G834" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -25946,7 +25949,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G835" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -25972,7 +25975,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G836" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -25998,7 +26001,7 @@
         <v>18</v>
       </c>
       <c r="G837" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26024,7 +26027,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G838" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26050,7 +26053,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G839" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26076,7 +26079,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G840" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26102,7 +26105,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G841" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26128,7 +26131,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G842" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26154,7 +26157,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G843" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26180,7 +26183,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G844" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26206,7 +26209,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G845" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26232,7 +26235,7 @@
         <v>18.1599998474121</v>
       </c>
       <c r="G846" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26258,7 +26261,7 @@
         <v>18.2600002288818</v>
       </c>
       <c r="G847" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26284,7 +26287,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G848" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26310,7 +26313,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G849" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26336,7 +26339,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G850" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -26362,7 +26365,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G851" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -26388,7 +26391,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G852" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -26414,7 +26417,7 @@
         <v>17</v>
       </c>
       <c r="G853" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -26440,7 +26443,7 @@
         <v>16.5</v>
       </c>
       <c r="G854" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -26466,7 +26469,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G855" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -26492,7 +26495,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G856" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -26518,7 +26521,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G857" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -26544,7 +26547,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G858" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -26570,7 +26573,7 @@
         <v>15.6400003433228</v>
       </c>
       <c r="G859" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -26596,7 +26599,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G860" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -26622,7 +26625,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G861" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -26648,7 +26651,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G862" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -26674,7 +26677,7 @@
         <v>15.9399995803833</v>
       </c>
       <c r="G863" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -26700,7 +26703,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G864" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -26726,7 +26729,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G865" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -26752,7 +26755,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G866" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -26778,7 +26781,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G867" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -26804,7 +26807,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G868" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -26830,7 +26833,7 @@
         <v>15.3800001144409</v>
       </c>
       <c r="G869" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -26856,7 +26859,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G870" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -26882,7 +26885,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G871" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -26908,7 +26911,7 @@
         <v>15.5</v>
       </c>
       <c r="G872" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -26934,7 +26937,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G873" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -26960,7 +26963,7 @@
         <v>15.5799999237061</v>
       </c>
       <c r="G874" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -26986,7 +26989,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G875" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27012,7 +27015,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G876" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27038,7 +27041,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G877" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27064,7 +27067,7 @@
         <v>16.5</v>
       </c>
       <c r="G878" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27090,7 +27093,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G879" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27116,7 +27119,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G880" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27142,7 +27145,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G881" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27168,7 +27171,7 @@
         <v>16.3799991607666</v>
       </c>
       <c r="G882" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27194,7 +27197,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G883" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27220,7 +27223,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G884" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27246,7 +27249,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G885" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27272,7 +27275,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G886" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -27298,7 +27301,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G887" t="s">
-        <v>463</v>
+        <v>572</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27324,7 +27327,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G888" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -27376,7 +27379,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G890" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -27402,7 +27405,7 @@
         <v>16.5</v>
       </c>
       <c r="G891" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -27428,7 +27431,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G892" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -27532,7 +27535,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G896" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -27558,7 +27561,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G897" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -27584,7 +27587,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G898" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -27610,7 +27613,7 @@
         <v>15.9399995803833</v>
       </c>
       <c r="G899" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -27688,7 +27691,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G902" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -27740,7 +27743,7 @@
         <v>15.6400003433228</v>
       </c>
       <c r="G904" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -27766,7 +27769,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -27792,7 +27795,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G906" t="s">
-        <v>463</v>
+        <v>572</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -27818,7 +27821,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G907" t="s">
-        <v>463</v>
+        <v>572</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -27844,7 +27847,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G908" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -27896,7 +27899,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G910" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -27922,7 +27925,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G911" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -27974,7 +27977,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G913" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28000,7 +28003,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G914" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28052,7 +28055,7 @@
         <v>15.5</v>
       </c>
       <c r="G916" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28078,7 +28081,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G917" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28286,7 +28289,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G925" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -28338,7 +28341,7 @@
         <v>15.0799999237061</v>
       </c>
       <c r="G927" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -28390,7 +28393,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G929" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -28572,7 +28575,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G936" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -28598,7 +28601,7 @@
         <v>15.460000038147</v>
       </c>
       <c r="G937" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -28624,7 +28627,7 @@
         <v>15.460000038147</v>
       </c>
       <c r="G938" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -28650,7 +28653,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G939" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -28676,7 +28679,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G940" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -28702,7 +28705,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G941" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -28728,7 +28731,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G942" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -28754,7 +28757,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G943" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -28780,7 +28783,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G944" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -28832,7 +28835,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G946" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -28858,7 +28861,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G947" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -28884,7 +28887,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G948" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -28910,7 +28913,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G949" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -29014,7 +29017,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G953" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -29040,7 +29043,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G954" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -29144,7 +29147,7 @@
         <v>15.0799999237061</v>
       </c>
       <c r="G958" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -29274,7 +29277,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G963" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29352,7 +29355,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G966" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -29404,7 +29407,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G968" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -29430,7 +29433,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G969" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -29456,7 +29459,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G970" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -29482,7 +29485,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G971" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -29508,7 +29511,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G972" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -29534,7 +29537,7 @@
         <v>16</v>
       </c>
       <c r="G973" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -29638,7 +29641,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G977" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -29664,7 +29667,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G978" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -29742,7 +29745,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G981" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -29768,7 +29771,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G982" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -29794,7 +29797,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G983" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -29846,7 +29849,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G985" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -29872,7 +29875,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G986" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -29898,7 +29901,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G987" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -60040,13 +60043,13 @@
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n">
-        <v>45450.6494907407</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B2147" t="n">
         <v>42793</v>
       </c>
       <c r="C2147" t="n">
-        <v>37.3499984741211</v>
+        <v>37.4500007629395</v>
       </c>
       <c r="D2147" t="n">
         <v>36.5999984741211</v>
@@ -60061,6 +60064,32 @@
         <v>1296</v>
       </c>
       <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.6493634259</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>18585</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>37.0999984741211</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>37.2000007629395</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>37.9500007629395</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H2148" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAN.MI.xlsx
+++ b/data/DAN.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8921489715576</t>
+    <t xml:space="preserve">15.8921480178833</t>
   </si>
   <si>
     <t xml:space="preserve">DAN.MI</t>
@@ -50,19 +50,19 @@
     <t xml:space="preserve">15.518214225769</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8170919418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4898996353149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2094497680664</t>
+    <t xml:space="preserve">14.8170909881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4899005889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.209451675415</t>
   </si>
   <si>
     <t xml:space="preserve">14.5646867752075</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3122825622559</t>
+    <t xml:space="preserve">14.3122835159302</t>
   </si>
   <si>
     <t xml:space="preserve">14.1346635818481</t>
@@ -74,133 +74,133 @@
     <t xml:space="preserve">13.0409097671509</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1343946456909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5267534255981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1998319625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3867988586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2006454467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3595638275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6400127410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3969593048096</t>
+    <t xml:space="preserve">13.1343936920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5267524719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1998310089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3867979049683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2006435394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3595657348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6400165557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3969612121582</t>
   </si>
   <si>
     <t xml:space="preserve">16.6774063110352</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4439678192139</t>
+    <t xml:space="preserve">17.4439697265625</t>
   </si>
   <si>
     <t xml:space="preserve">16.9204635620117</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7706203460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.415657043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6023511886597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2284183502197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2377672195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490917205811</t>
+    <t xml:space="preserve">15.770619392395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4156532287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6023502349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.228419303894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2377662658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490898132324</t>
   </si>
   <si>
     <t xml:space="preserve">15.3966875076294</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2938575744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2193393707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5465316772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.088737487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2476577758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3878765106201</t>
+    <t xml:space="preserve">15.2938537597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2193431854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5465335845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0887317657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2476558685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3878784179688</t>
   </si>
   <si>
     <t xml:space="preserve">17.294397354126</t>
   </si>
   <si>
-    <t xml:space="preserve">17.032642364502</t>
+    <t xml:space="preserve">17.0326442718506</t>
   </si>
   <si>
     <t xml:space="preserve">16.6680603027344</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6587104797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1541690826416</t>
+    <t xml:space="preserve">16.658712387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1541748046875</t>
   </si>
   <si>
     <t xml:space="preserve">16.9578590393066</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5094051361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6402854919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7057247161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7711639404297</t>
+    <t xml:space="preserve">17.5094089508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6402835845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7057228088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7711601257324</t>
   </si>
   <si>
     <t xml:space="preserve">16.8550262451172</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5561504364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8552951812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2009143829346</t>
+    <t xml:space="preserve">17.55615234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.855297088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2009105682373</t>
   </si>
   <si>
     <t xml:space="preserve">17.5935440063477</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7992115020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3411350250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5278339385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.873722076416</t>
+    <t xml:space="preserve">17.7992057800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.341136932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5278358459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8737239837646</t>
   </si>
   <si>
     <t xml:space="preserve">17.2663536071777</t>
@@ -209,25 +209,25 @@
     <t xml:space="preserve">17.6215877532959</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8924198150635</t>
+    <t xml:space="preserve">16.8924179077148</t>
   </si>
   <si>
     <t xml:space="preserve">16.8456764221191</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4533176422119</t>
+    <t xml:space="preserve">17.4533195495605</t>
   </si>
   <si>
     <t xml:space="preserve">17.9020385742188</t>
   </si>
   <si>
-    <t xml:space="preserve">17.97682762146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7431182861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2105331420898</t>
+    <t xml:space="preserve">17.9768238067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7431144714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2105312347412</t>
   </si>
   <si>
     <t xml:space="preserve">18.4629383087158</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">18.3694534301758</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1357440948486</t>
+    <t xml:space="preserve">18.1357460021973</t>
   </si>
   <si>
     <t xml:space="preserve">17.939432144165</t>
@@ -245,103 +245,103 @@
     <t xml:space="preserve">18.6966457366943</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7620868682861</t>
+    <t xml:space="preserve">18.7620830535889</t>
   </si>
   <si>
     <t xml:space="preserve">18.7901306152344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4442405700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6779479980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3788032531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2385787963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8085556030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4813632965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8272514343262</t>
+    <t xml:space="preserve">18.444242477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6779499053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3788051605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2385768890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8085536956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4813652038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8272495269775</t>
   </si>
   <si>
     <t xml:space="preserve">17.500057220459</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4065742492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0980834960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1635227203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8830680847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6306686401367</t>
+    <t xml:space="preserve">17.4065761566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0980815887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1635208129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8830718994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6306705474854</t>
   </si>
   <si>
     <t xml:space="preserve">16.4623966217041</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5652236938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0700378417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7708911895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7334957122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4810886383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6963768005371</t>
+    <t xml:space="preserve">16.5652256011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0700397491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7708930969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7334976196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4810905456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6963748931885</t>
   </si>
   <si>
     <t xml:space="preserve">16.8363304138184</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8176307678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5748481750488</t>
+    <t xml:space="preserve">16.8176326751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5748462677002</t>
   </si>
   <si>
     <t xml:space="preserve">17.3224411010742</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3691806793213</t>
+    <t xml:space="preserve">17.3691844940186</t>
   </si>
   <si>
     <t xml:space="preserve">16.1165084838867</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1539001464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2471132278442</t>
+    <t xml:space="preserve">16.1539039611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2471141815186</t>
   </si>
   <si>
     <t xml:space="preserve">15.0508003234863</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3592958450317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6303958892822</t>
+    <t xml:space="preserve">15.3592939376831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6303949356079</t>
   </si>
   <si>
     <t xml:space="preserve">16.2660808563232</t>
@@ -350,16 +350,16 @@
     <t xml:space="preserve">15.2751588821411</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7329578399658</t>
+    <t xml:space="preserve">14.7329568862915</t>
   </si>
   <si>
     <t xml:space="preserve">15.1723260879517</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8077421188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9666662216187</t>
+    <t xml:space="preserve">14.8077449798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9666652679443</t>
   </si>
   <si>
     <t xml:space="preserve">15.7051820755005</t>
@@ -377,124 +377,124 @@
     <t xml:space="preserve">14.5366411209106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9386205673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6958351135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6116991043091</t>
+    <t xml:space="preserve">14.9386186599731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6958360671997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6117000579834</t>
   </si>
   <si>
     <t xml:space="preserve">15.7986660003662</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5462598800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6210451126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5930023193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6771383285522</t>
+    <t xml:space="preserve">15.5462579727173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6210460662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5930013656616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6771392822266</t>
   </si>
   <si>
     <t xml:space="preserve">16.4530487060547</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9201917648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6864833831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4343528747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1352062225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3876094818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.490442276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3782634735107</t>
+    <t xml:space="preserve">15.9201927185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6864862442017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4343490600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1352043151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3876113891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4904403686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3782596588135</t>
   </si>
   <si>
     <t xml:space="preserve">16.2941265106201</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4720134735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1354732513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9298114776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9672031402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9487838745117</t>
+    <t xml:space="preserve">17.472017288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1354751586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9298152923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9672069549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9487800598145</t>
   </si>
   <si>
     <t xml:space="preserve">17.4907093048096</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3598346710205</t>
+    <t xml:space="preserve">17.3598365783691</t>
   </si>
   <si>
     <t xml:space="preserve">17.5281047821045</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6683311462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4063053131104</t>
+    <t xml:space="preserve">17.6683330535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4063034057617</t>
   </si>
   <si>
     <t xml:space="preserve">16.0884628295898</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0604209899902</t>
+    <t xml:space="preserve">16.0604190826416</t>
   </si>
   <si>
     <t xml:space="preserve">16.1258544921875</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2567310333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9388875961304</t>
+    <t xml:space="preserve">16.2567329406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9388885498047</t>
   </si>
   <si>
     <t xml:space="preserve">15.9669351577759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8641014099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7893152236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9108457565308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3408699035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0232944488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3689136505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8360586166382</t>
+    <t xml:space="preserve">15.8641023635864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7893190383911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9108467102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3408718109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0232925415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3689155578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8360567092896</t>
   </si>
   <si>
     <t xml:space="preserve">15.8454084396362</t>
@@ -506,67 +506,67 @@
     <t xml:space="preserve">15.6584405899048</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4527778625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5280179977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6032600402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8477973937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9324436187744</t>
+    <t xml:space="preserve">15.4527797698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5280199050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6032619476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8477983474731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9324445724487</t>
   </si>
   <si>
     <t xml:space="preserve">16.0923328399658</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8195829391479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2646722793579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6220731735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7161226272583</t>
+    <t xml:space="preserve">15.8195810317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2646732330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6220693588257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7161235809326</t>
   </si>
   <si>
     <t xml:space="preserve">15.7067193984985</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3493213653564</t>
+    <t xml:space="preserve">15.3493185043335</t>
   </si>
   <si>
     <t xml:space="preserve">16.0641174316406</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5343780517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.129955291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6879091262817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8007717132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5092086791992</t>
+    <t xml:space="preserve">16.5343799591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1299533843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6879072189331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8007707595825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5092096328735</t>
   </si>
   <si>
     <t xml:space="preserve">16.0829277038574</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2522201538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0358982086182</t>
+    <t xml:space="preserve">16.2522239685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0359001159668</t>
   </si>
   <si>
     <t xml:space="preserve">16.7883186340332</t>
@@ -575,16 +575,16 @@
     <t xml:space="preserve">17.399658203125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4748992919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3526344299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4372787475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.239767074585</t>
+    <t xml:space="preserve">17.4748973846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.352632522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4372806549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2397708892822</t>
   </si>
   <si>
     <t xml:space="preserve">17.1645278930664</t>
@@ -593,13 +593,13 @@
     <t xml:space="preserve">16.6942653656006</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3056049346924</t>
+    <t xml:space="preserve">17.305606842041</t>
   </si>
   <si>
     <t xml:space="preserve">17.1175022125244</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3808479309082</t>
+    <t xml:space="preserve">17.3808498382568</t>
   </si>
   <si>
     <t xml:space="preserve">17.9639720916748</t>
@@ -608,43 +608,43 @@
     <t xml:space="preserve">18.1238632202148</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1614837646484</t>
+    <t xml:space="preserve">18.1614818572998</t>
   </si>
   <si>
     <t xml:space="preserve">18.1050510406494</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6599578857422</t>
+    <t xml:space="preserve">18.6599559783936</t>
   </si>
   <si>
     <t xml:space="preserve">19.1396255493164</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1866512298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7979869842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8732299804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3559436798096</t>
+    <t xml:space="preserve">19.1866493225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7979888916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8732280731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3559474945068</t>
   </si>
   <si>
     <t xml:space="preserve">19.1490306854248</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7039394378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5722637176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.421781539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3183269500732</t>
+    <t xml:space="preserve">19.7039375305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5722618103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4217796325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.318323135376</t>
   </si>
   <si>
     <t xml:space="preserve">19.0925998687744</t>
@@ -659,31 +659,31 @@
     <t xml:space="preserve">19.167839050293</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9891414642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8104419708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.631742477417</t>
+    <t xml:space="preserve">18.989143371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8104400634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6317405700684</t>
   </si>
   <si>
     <t xml:space="preserve">18.340181350708</t>
   </si>
   <si>
-    <t xml:space="preserve">18.688175201416</t>
+    <t xml:space="preserve">18.6881771087646</t>
   </si>
   <si>
     <t xml:space="preserve">18.7634162902832</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6975784301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6035289764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7163867950439</t>
+    <t xml:space="preserve">18.6975803375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6035251617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7163925170898</t>
   </si>
   <si>
     <t xml:space="preserve">18.5094738006592</t>
@@ -692,25 +692,25 @@
     <t xml:space="preserve">18.5565013885498</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7446060180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8480625152588</t>
+    <t xml:space="preserve">18.7446041107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8480644226074</t>
   </si>
   <si>
     <t xml:space="preserve">18.8574676513672</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9609260559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2807025909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6569118499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3277282714844</t>
+    <t xml:space="preserve">18.9609241485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.280704498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6569137573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3277263641357</t>
   </si>
   <si>
     <t xml:space="preserve">19.365348815918</t>
@@ -719,49 +719,49 @@
     <t xml:space="preserve">19.6098861694336</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6945323944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1960563659668</t>
+    <t xml:space="preserve">19.6945304870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1960544586182</t>
   </si>
   <si>
     <t xml:space="preserve">19.4876155853271</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7509613037109</t>
+    <t xml:space="preserve">19.7509651184082</t>
   </si>
   <si>
     <t xml:space="preserve">19.3371315002441</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4594020843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5910758972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2712993621826</t>
+    <t xml:space="preserve">19.4594039916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5910739898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.271297454834</t>
   </si>
   <si>
     <t xml:space="preserve">19.468807220459</t>
   </si>
   <si>
-    <t xml:space="preserve">19.628698348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5252418518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.164794921875</t>
+    <t xml:space="preserve">19.6286964416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5252380371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1647968292236</t>
   </si>
   <si>
     <t xml:space="preserve">20.258846282959</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6350517272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8795928955078</t>
+    <t xml:space="preserve">20.6350536346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8795909881592</t>
   </si>
   <si>
     <t xml:space="preserve">21.1147232055664</t>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">20.399923324585</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8701820373535</t>
+    <t xml:space="preserve">20.8701877593994</t>
   </si>
   <si>
     <t xml:space="preserve">20.6444606781006</t>
@@ -785,37 +785,37 @@
     <t xml:space="preserve">20.5033798217773</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8325614929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9078063964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8607807159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7573223114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7855396270752</t>
+    <t xml:space="preserve">20.8325653076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9078044891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8607788085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7573204040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7855358123779</t>
   </si>
   <si>
     <t xml:space="preserve">20.9172115325928</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7385120391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0770969390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1241226196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7102947235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.039478302002</t>
+    <t xml:space="preserve">20.7385139465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0770988464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1241245269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7102966308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0394821166992</t>
   </si>
   <si>
     <t xml:space="preserve">21.9141654968262</t>
@@ -827,31 +827,31 @@
     <t xml:space="preserve">21.6320095062256</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5849800109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3968753814697</t>
+    <t xml:space="preserve">21.584981918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.396879196167</t>
   </si>
   <si>
     <t xml:space="preserve">21.38747215271</t>
   </si>
   <si>
-    <t xml:space="preserve">21.189962387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5379543304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3686618804932</t>
+    <t xml:space="preserve">21.1899642944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.537956237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3686580657959</t>
   </si>
   <si>
     <t xml:space="preserve">21.6131992340088</t>
   </si>
   <si>
-    <t xml:space="preserve">21.490930557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8983974456787</t>
+    <t xml:space="preserve">21.4909286499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8983993530273</t>
   </si>
   <si>
     <t xml:space="preserve">21.4344997406006</t>
@@ -860,19 +860,19 @@
     <t xml:space="preserve">21.2181758880615</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3780670166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5191440582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5097389221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6037902832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5473575592041</t>
+    <t xml:space="preserve">21.3780651092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5191421508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5097408294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6037921905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5473613739014</t>
   </si>
   <si>
     <t xml:space="preserve">21.199369430542</t>
@@ -881,37 +881,37 @@
     <t xml:space="preserve">21.4439029693604</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9924545288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5692195892334</t>
+    <t xml:space="preserve">20.99245262146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.569221496582</t>
   </si>
   <si>
     <t xml:space="preserve">20.6538639068604</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6632690429688</t>
+    <t xml:space="preserve">20.6632709503174</t>
   </si>
   <si>
     <t xml:space="preserve">20.5786209106445</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8889923095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5315971374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2964649200439</t>
+    <t xml:space="preserve">20.8889961242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5315990447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2964668273926</t>
   </si>
   <si>
     <t xml:space="preserve">20.4657611846924</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0425243377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.155387878418</t>
+    <t xml:space="preserve">20.0425224304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1553897857666</t>
   </si>
   <si>
     <t xml:space="preserve">20.5221920013428</t>
@@ -923,31 +923,31 @@
     <t xml:space="preserve">20.8043479919434</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6914844512939</t>
+    <t xml:space="preserve">20.6914863586426</t>
   </si>
   <si>
     <t xml:space="preserve">20.2024154663086</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0801486968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1365756988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.96728515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1742000579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3246803283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.249439239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3623008728027</t>
+    <t xml:space="preserve">20.0801467895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1365776062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9672813415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.174201965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3246841430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2494411468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3623046875</t>
   </si>
   <si>
     <t xml:space="preserve">19.9202575683594</t>
@@ -959,55 +959,55 @@
     <t xml:space="preserve">20.4939785003662</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2212238311768</t>
+    <t xml:space="preserve">20.2212257385254</t>
   </si>
   <si>
     <t xml:space="preserve">19.9766883850098</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6726760864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3811130523682</t>
+    <t xml:space="preserve">20.6726741790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3811168670654</t>
   </si>
   <si>
     <t xml:space="preserve">20.747917175293</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1053142547607</t>
+    <t xml:space="preserve">21.1053161621094</t>
   </si>
   <si>
     <t xml:space="preserve">20.59743309021</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8231601715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1523399353027</t>
+    <t xml:space="preserve">20.8231563568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1523380279541</t>
   </si>
   <si>
     <t xml:space="preserve">21.4627132415771</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9830455780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7291069030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5880298614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6256484985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1271724700928</t>
+    <t xml:space="preserve">20.9830474853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7291088104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5880279541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6256504058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1271705627441</t>
   </si>
   <si>
     <t xml:space="preserve">20.0895519256592</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0143089294434</t>
+    <t xml:space="preserve">20.0143146514893</t>
   </si>
   <si>
     <t xml:space="preserve">20.2306308746338</t>
@@ -1019,22 +1019,22 @@
     <t xml:space="preserve">20.7761325836182</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2400360107422</t>
+    <t xml:space="preserve">20.2400341033936</t>
   </si>
   <si>
     <t xml:space="preserve">19.7791786193848</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4970207214355</t>
+    <t xml:space="preserve">19.4970226287842</t>
   </si>
   <si>
     <t xml:space="preserve">19.0173568725586</t>
   </si>
   <si>
-    <t xml:space="preserve">19.073787689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.866870880127</t>
+    <t xml:space="preserve">19.0737915039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8668746948242</t>
   </si>
   <si>
     <t xml:space="preserve">19.233678817749</t>
@@ -1043,64 +1043,64 @@
     <t xml:space="preserve">18.9139003753662</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7916297912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8950881958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6693668365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0455703735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3747577667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2147731781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1864166259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7611045837402</t>
+    <t xml:space="preserve">18.7916316986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8950901031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6693630218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0455722808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.374755859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2147750854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1864204406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7611026763916</t>
   </si>
   <si>
     <t xml:space="preserve">18.5342693328857</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1278591156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0711479187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8632183074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8915729522705</t>
+    <t xml:space="preserve">18.127857208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0711498260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8632202148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8915748596191</t>
   </si>
   <si>
     <t xml:space="preserve">18.1656627655029</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1184062957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1940155029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4964618682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6949443817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8178100585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6382350921631</t>
+    <t xml:space="preserve">18.118408203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.194019317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4964637756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6949462890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8178119659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6382331848145</t>
   </si>
   <si>
     <t xml:space="preserve">18.3924961090088</t>
@@ -1112,55 +1112,55 @@
     <t xml:space="preserve">18.5909786224365</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4492073059082</t>
+    <t xml:space="preserve">18.4492053985596</t>
   </si>
   <si>
     <t xml:space="preserve">18.9028759002686</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0068416595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9312286376953</t>
+    <t xml:space="preserve">19.0068435668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9312324523926</t>
   </si>
   <si>
     <t xml:space="preserve">18.9217796325684</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8461685180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5815258026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.609884262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6760406494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.713846206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7043972015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8934268951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9406833648682</t>
+    <t xml:space="preserve">18.8461666107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5815277099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6098804473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6760425567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7138481140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7043991088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.893424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9406814575195</t>
   </si>
   <si>
     <t xml:space="preserve">18.827262878418</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6193332672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7327499389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1391620635986</t>
+    <t xml:space="preserve">18.6193351745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7327480316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1391639709473</t>
   </si>
   <si>
     <t xml:space="preserve">19.4227027893066</t>
@@ -1169,19 +1169,19 @@
     <t xml:space="preserve">19.7062492370605</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9897899627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7931613922119</t>
+    <t xml:space="preserve">19.9897918701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7931632995605</t>
   </si>
   <si>
     <t xml:space="preserve">21.5492782592773</t>
   </si>
   <si>
-    <t xml:space="preserve">21.832820892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7855625152588</t>
+    <t xml:space="preserve">21.8328189849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7855644226074</t>
   </si>
   <si>
     <t xml:space="preserve">21.6437931060791</t>
@@ -1190,7 +1190,7 @@
     <t xml:space="preserve">21.8800792694092</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7383060455322</t>
+    <t xml:space="preserve">21.7383079528809</t>
   </si>
   <si>
     <t xml:space="preserve">22.0218486785889</t>
@@ -1199,22 +1199,22 @@
     <t xml:space="preserve">22.0691089630127</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2657356262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6986484527588</t>
+    <t xml:space="preserve">21.2657337188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6986503601074</t>
   </si>
   <si>
     <t xml:space="preserve">21.3129901885986</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8876781463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.029447555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9821929931641</t>
+    <t xml:space="preserve">20.8876762390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0294494628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9821910858154</t>
   </si>
   <si>
     <t xml:space="preserve">21.3602504730225</t>
@@ -1223,55 +1223,55 @@
     <t xml:space="preserve">21.4547653198242</t>
   </si>
   <si>
-    <t xml:space="preserve">21.407506942749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1239624023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9349327087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9745941162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4944190979004</t>
+    <t xml:space="preserve">21.4075050354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.123966217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9349346160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9745922088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4944229125977</t>
   </si>
   <si>
     <t xml:space="preserve">22.1636219024658</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3526496887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2581348419189</t>
+    <t xml:space="preserve">22.3526477813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2581367492676</t>
   </si>
   <si>
     <t xml:space="preserve">21.0767059326172</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5020217895508</t>
+    <t xml:space="preserve">21.5020198822021</t>
   </si>
   <si>
     <t xml:space="preserve">20.5568771362305</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4623622894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1712188720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8404178619385</t>
+    <t xml:space="preserve">20.4623603820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1712207794189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8404197692871</t>
   </si>
   <si>
     <t xml:space="preserve">21.2184791564941</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5965385437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6513919830322</t>
+    <t xml:space="preserve">21.5965347290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6513900756836</t>
   </si>
   <si>
     <t xml:space="preserve">20.745906829834</t>
@@ -1283,10 +1283,10 @@
     <t xml:space="preserve">19.280933380127</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3754463195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5644760131836</t>
+    <t xml:space="preserve">19.3754482269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5644779205322</t>
   </si>
   <si>
     <t xml:space="preserve">20.0370483398438</t>
@@ -1295,13 +1295,13 @@
     <t xml:space="preserve">19.8480205535889</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6041355133057</t>
+    <t xml:space="preserve">20.604133605957</t>
   </si>
   <si>
     <t xml:space="preserve">20.5096206665039</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2260780334473</t>
+    <t xml:space="preserve">20.2260761260986</t>
   </si>
   <si>
     <t xml:space="preserve">20.4151058197021</t>
@@ -1313,10 +1313,10 @@
     <t xml:space="preserve">20.1315612792969</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1788177490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6589908599854</t>
+    <t xml:space="preserve">20.1788215637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.658992767334</t>
   </si>
   <si>
     <t xml:space="preserve">19.8007621765137</t>
@@ -1328,13 +1328,13 @@
     <t xml:space="preserve">19.8952751159668</t>
   </si>
   <si>
-    <t xml:space="preserve">19.942533493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5172176361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4699611663818</t>
+    <t xml:space="preserve">19.9425315856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.517219543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4699649810791</t>
   </si>
   <si>
     <t xml:space="preserve">19.6117343902588</t>
@@ -1346,58 +1346,58 @@
     <t xml:space="preserve">21.6910514831543</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3205909729004</t>
+    <t xml:space="preserve">20.320592880249</t>
   </si>
   <si>
     <t xml:space="preserve">17.9388294219971</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5003576278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8973188400269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9521760940552</t>
+    <t xml:space="preserve">15.500358581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8973197937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9521751403809</t>
   </si>
   <si>
     <t xml:space="preserve">14.6497297286987</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9899806976318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5948734283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8217067718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1997623443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7271919250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5192632675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6515827178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0674457550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9918336868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8595142364502</t>
+    <t xml:space="preserve">14.9899797439575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5948724746704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8217058181763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.199764251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7271938323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5192613601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6515808105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0674438476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9918327331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8595123291016</t>
   </si>
   <si>
     <t xml:space="preserve">15.7839021682739</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5759706497192</t>
+    <t xml:space="preserve">15.5759716033936</t>
   </si>
   <si>
     <t xml:space="preserve">15.1979131698608</t>
@@ -1409,16 +1409,16 @@
     <t xml:space="preserve">14.760425567627</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5892362594604</t>
+    <t xml:space="preserve">14.5892353057861</t>
   </si>
   <si>
     <t xml:space="preserve">14.6272773742676</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1028051376343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1218271255493</t>
+    <t xml:space="preserve">15.1028060913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1218280792236</t>
   </si>
   <si>
     <t xml:space="preserve">14.8365106582642</t>
@@ -1430,37 +1430,37 @@
     <t xml:space="preserve">15.6354007720947</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4642095565796</t>
+    <t xml:space="preserve">15.4642105102539</t>
   </si>
   <si>
     <t xml:space="preserve">14.2468538284302</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0946846008301</t>
+    <t xml:space="preserve">14.0946855545044</t>
   </si>
   <si>
     <t xml:space="preserve">13.7713241577148</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9044733047485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5131511688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3419589996338</t>
+    <t xml:space="preserve">13.9044723510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5131502151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3419599533081</t>
   </si>
   <si>
     <t xml:space="preserve">14.3229389190674</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3990240097046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1327266693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8093681335449</t>
+    <t xml:space="preserve">14.3990249633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1327257156372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8093671798706</t>
   </si>
   <si>
     <t xml:space="preserve">13.7903461456299</t>
@@ -1469,13 +1469,13 @@
     <t xml:space="preserve">13.961537361145</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2278337478638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3800029754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7033624649048</t>
+    <t xml:space="preserve">14.2278327941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3800020217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7033615112305</t>
   </si>
   <si>
     <t xml:space="preserve">14.9316158294678</t>
@@ -1487,22 +1487,22 @@
     <t xml:space="preserve">15.3120393753052</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2169342041016</t>
+    <t xml:space="preserve">15.2169332504272</t>
   </si>
   <si>
     <t xml:space="preserve">15.2549772262573</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0837850570679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2930192947388</t>
+    <t xml:space="preserve">15.0837841033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2930183410645</t>
   </si>
   <si>
     <t xml:space="preserve">15.3500814437866</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3881235122681</t>
+    <t xml:space="preserve">15.3881244659424</t>
   </si>
   <si>
     <t xml:space="preserve">15.7305068969727</t>
@@ -1511,16 +1511,16 @@
     <t xml:space="preserve">16.1679916381836</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0239429473877</t>
+    <t xml:space="preserve">17.0239448547363</t>
   </si>
   <si>
     <t xml:space="preserve">17.1000289916992</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1190490722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7005844116211</t>
+    <t xml:space="preserve">17.1190509796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7005825042725</t>
   </si>
   <si>
     <t xml:space="preserve">16.6245002746582</t>
@@ -1535,7 +1535,7 @@
     <t xml:space="preserve">16.1870136260986</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0728855133057</t>
+    <t xml:space="preserve">16.0728874206543</t>
   </si>
   <si>
     <t xml:space="preserve">16.0158214569092</t>
@@ -1544,22 +1544,22 @@
     <t xml:space="preserve">16.339183807373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3582019805908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4533100128174</t>
+    <t xml:space="preserve">16.3582038879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4533081054688</t>
   </si>
   <si>
     <t xml:space="preserve">16.8337345123291</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7196044921875</t>
+    <t xml:space="preserve">16.7196025848389</t>
   </si>
   <si>
     <t xml:space="preserve">16.4913520812988</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6435203552246</t>
+    <t xml:space="preserve">16.6435241699219</t>
   </si>
   <si>
     <t xml:space="preserve">16.6625423431396</t>
@@ -1568,22 +1568,22 @@
     <t xml:space="preserve">16.434289932251</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8147106170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9288368225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6815643310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5293922424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0538635253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1489715576172</t>
+    <t xml:space="preserve">16.8147125244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9288387298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6815662384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5293941497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0538654327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1489696502686</t>
   </si>
   <si>
     <t xml:space="preserve">16.1299495697021</t>
@@ -1592,10 +1592,10 @@
     <t xml:space="preserve">16.3201599121094</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2060356140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5484161376953</t>
+    <t xml:space="preserve">16.2060375213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5484142303467</t>
   </si>
   <si>
     <t xml:space="preserve">16.6054782867432</t>
@@ -1604,34 +1604,34 @@
     <t xml:space="preserve">16.7386283874512</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9859027862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1570949554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6896839141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5075950622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4885711669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.469554901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.336404800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7467479705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3473052978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2141590118408</t>
+    <t xml:space="preserve">16.9859046936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1570930480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6896858215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5075969696045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4885749816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4695529937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3364086151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7467498779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3473033905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2141551971436</t>
   </si>
   <si>
     <t xml:space="preserve">17.1951351165771</t>
@@ -1643,70 +1643,70 @@
     <t xml:space="preserve">16.8527526855469</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1761131286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0429668426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2712173461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3663272857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4424076080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9668788909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4152679443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6924610137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7114839553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6544189453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3691024780273</t>
+    <t xml:space="preserve">17.1761150360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0429649353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.27121925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.366325378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4424114227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9668807983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4152660369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6924619674683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.711483001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6544198989868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.369101524353</t>
   </si>
   <si>
     <t xml:space="preserve">14.8745536804199</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9886808395386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2739973068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9506368637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1598691940308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0267219543457</t>
+    <t xml:space="preserve">14.9886798858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2739963531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9506378173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1598701477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.02672290802</t>
   </si>
   <si>
     <t xml:space="preserve">14.6843404769897</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8555326461792</t>
+    <t xml:space="preserve">14.8555316925049</t>
   </si>
   <si>
     <t xml:space="preserve">14.5511932373047</t>
   </si>
   <si>
-    <t xml:space="preserve">15.007700920105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7414045333862</t>
+    <t xml:space="preserve">15.0076999664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7414035797119</t>
   </si>
   <si>
     <t xml:space="preserve">14.6462984085083</t>
@@ -1721,10 +1721,10 @@
     <t xml:space="preserve">15.5973567962646</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5783367156982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8636522293091</t>
+    <t xml:space="preserve">15.5783357620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.863655090332</t>
   </si>
   <si>
     <t xml:space="preserve">15.4261665344238</t>
@@ -1733,10 +1733,10 @@
     <t xml:space="preserve">15.7875690460205</t>
   </si>
   <si>
-    <t xml:space="preserve">15.616379737854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5212726593018</t>
+    <t xml:space="preserve">15.6163778305054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5212707519531</t>
   </si>
   <si>
     <t xml:space="preserve">15.2359552383423</t>
@@ -1745,22 +1745,22 @@
     <t xml:space="preserve">15.0647649765015</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7223825454712</t>
+    <t xml:space="preserve">14.7223834991455</t>
   </si>
   <si>
     <t xml:space="preserve">14.9696578979492</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7984676361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4751071929932</t>
+    <t xml:space="preserve">14.7984685897827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4751081466675</t>
   </si>
   <si>
     <t xml:space="preserve">14.4560861587524</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2658748626709</t>
+    <t xml:space="preserve">14.2658758163452</t>
   </si>
   <si>
     <t xml:space="preserve">14.0756635665894</t>
@@ -1769,34 +1769,34 @@
     <t xml:space="preserve">13.94251537323</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6082563400269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4370670318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9805583953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0185995101929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2088117599487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1137056350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.418044090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.189790725708</t>
+    <t xml:space="preserve">14.6082544326782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4370651245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9805564880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0186004638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2088108062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1137065887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4180450439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1897916793823</t>
   </si>
   <si>
     <t xml:space="preserve">14.7794466018677</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1707696914673</t>
+    <t xml:space="preserve">14.170768737793</t>
   </si>
   <si>
     <t xml:space="preserve">15.5593147277832</t>
@@ -1805,34 +1805,34 @@
     <t xml:space="preserve">14.3609819412231</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2848968505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.665319442749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1788902282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.483229637146</t>
+    <t xml:space="preserve">14.2848958969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6653203964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1788911819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4832315444946</t>
   </si>
   <si>
     <t xml:space="preserve">15.2640390396118</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2448396682739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0912380218506</t>
+    <t xml:space="preserve">15.2448387145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0912389755249</t>
   </si>
   <si>
     <t xml:space="preserve">14.9952383041382</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0720386505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5712404251099</t>
+    <t xml:space="preserve">15.0720376968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5712394714355</t>
   </si>
   <si>
     <t xml:space="preserve">15.8784418106079</t>
@@ -1841,10 +1841,10 @@
     <t xml:space="preserve">16.6656436920166</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5312404632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8976392745972</t>
+    <t xml:space="preserve">16.5312442779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8976402282715</t>
   </si>
   <si>
     <t xml:space="preserve">15.8592395782471</t>
@@ -1856,31 +1856,31 @@
     <t xml:space="preserve">15.7440395355225</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6480388641357</t>
+    <t xml:space="preserve">15.6480407714844</t>
   </si>
   <si>
     <t xml:space="preserve">15.9552412033081</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9936418533325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3776416778564</t>
+    <t xml:space="preserve">15.9936408996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3776435852051</t>
   </si>
   <si>
     <t xml:space="preserve">15.9168405532837</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8016386032104</t>
+    <t xml:space="preserve">15.8016395568848</t>
   </si>
   <si>
     <t xml:space="preserve">15.8400392532349</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2432422637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1856422424316</t>
+    <t xml:space="preserve">16.2432403564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1856441497803</t>
   </si>
   <si>
     <t xml:space="preserve">15.6096410751343</t>
@@ -1889,55 +1889,55 @@
     <t xml:space="preserve">16.0320415496826</t>
   </si>
   <si>
-    <t xml:space="preserve">15.763240814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6288394927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7824411392212</t>
+    <t xml:space="preserve">15.7632398605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6288414001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7824420928955</t>
   </si>
   <si>
     <t xml:space="preserve">15.4368391036987</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3024377822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1680383682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3984413146973</t>
+    <t xml:space="preserve">15.3024387359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1680393218994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3984403610229</t>
   </si>
   <si>
     <t xml:space="preserve">14.9376382827759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1296396255493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6880369186401</t>
+    <t xml:space="preserve">15.129638671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6880378723145</t>
   </si>
   <si>
     <t xml:space="preserve">14.2080364227295</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1120357513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4000377655029</t>
+    <t xml:space="preserve">14.1120347976685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4000368118286</t>
   </si>
   <si>
     <t xml:space="preserve">14.7840375900269</t>
   </si>
   <si>
-    <t xml:space="preserve">14.976037979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.764838218689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5728378295898</t>
+    <t xml:space="preserve">14.9760389328003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7648372650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5728368759155</t>
   </si>
   <si>
     <t xml:space="preserve">14.6112375259399</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">14.2272367477417</t>
   </si>
   <si>
-    <t xml:space="preserve">13.862434387207</t>
+    <t xml:space="preserve">13.8624353408813</t>
   </si>
   <si>
     <t xml:space="preserve">13.3056325912476</t>
@@ -1964,19 +1964,19 @@
     <t xml:space="preserve">13.1712341308594</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5360355377197</t>
+    <t xml:space="preserve">13.5360345840454</t>
   </si>
   <si>
     <t xml:space="preserve">13.2480344772339</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9600324630737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5760326385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3264312744141</t>
+    <t xml:space="preserve">12.960033416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5760316848755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3264322280884</t>
   </si>
   <si>
     <t xml:space="preserve">12.0960311889648</t>
@@ -1985,13 +1985,13 @@
     <t xml:space="preserve">11.6160297393799</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1744289398193</t>
+    <t xml:space="preserve">11.1744298934937</t>
   </si>
   <si>
     <t xml:space="preserve">10.2528266906738</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0800256729126</t>
+    <t xml:space="preserve">10.0800266265869</t>
   </si>
   <si>
     <t xml:space="preserve">9.71522521972656</t>
@@ -2000,16 +2000,16 @@
     <t xml:space="preserve">9.02402305603027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53282451629639</t>
+    <t xml:space="preserve">9.5328254699707</t>
   </si>
   <si>
     <t xml:space="preserve">8.19842052459717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65922355651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21602439880371</t>
+    <t xml:space="preserve">8.65922260284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21602344512939</t>
   </si>
   <si>
     <t xml:space="preserve">10.2912263870239</t>
@@ -2018,10 +2018,10 @@
     <t xml:space="preserve">10.8864278793335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.076831817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0560340881348</t>
+    <t xml:space="preserve">12.0768308639526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0560331344604</t>
   </si>
   <si>
     <t xml:space="preserve">11.7504301071167</t>
@@ -2030,10 +2030,10 @@
     <t xml:space="preserve">11.0976285934448</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0592288970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7712268829346</t>
+    <t xml:space="preserve">11.0592279434204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7712278366089</t>
   </si>
   <si>
     <t xml:space="preserve">10.1952257156372</t>
@@ -2042,10 +2042,10 @@
     <t xml:space="preserve">10.4640264511108</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7520275115967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8672275543213</t>
+    <t xml:space="preserve">10.7520265579224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8672285079956</t>
   </si>
   <si>
     <t xml:space="preserve">11.2512292861938</t>
@@ -2057,22 +2057,22 @@
     <t xml:space="preserve">10.7136278152466</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3296270370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0032262802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3488264083862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6368265151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5600271224976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9056282043457</t>
+    <t xml:space="preserve">10.329626083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0032253265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3488254547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6368274688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5600280761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9056262969971</t>
   </si>
   <si>
     <t xml:space="preserve">10.8480281829834</t>
@@ -2081,25 +2081,25 @@
     <t xml:space="preserve">10.8288269042969</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9440269470215</t>
+    <t xml:space="preserve">10.9440279006958</t>
   </si>
   <si>
     <t xml:space="preserve">10.963228225708</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6752281188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1360292434692</t>
+    <t xml:space="preserve">10.6752271652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1360282897949</t>
   </si>
   <si>
     <t xml:space="preserve">11.0784282684326</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6352291107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7120304107666</t>
+    <t xml:space="preserve">11.6352300643921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7120294570923</t>
   </si>
   <si>
     <t xml:space="preserve">11.1936283111572</t>
@@ -2111,22 +2111,22 @@
     <t xml:space="preserve">11.6544303894043</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9424295425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1536302566528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.441632270813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3648319244385</t>
+    <t xml:space="preserve">11.9424304962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1536312103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4416313171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3648309707642</t>
   </si>
   <si>
     <t xml:space="preserve">12.2496309280396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0000305175781</t>
+    <t xml:space="preserve">12.0000314712524</t>
   </si>
   <si>
     <t xml:space="preserve">11.3664293289185</t>
@@ -2135,34 +2135,34 @@
     <t xml:space="preserve">11.1552286148071</t>
   </si>
   <si>
-    <t xml:space="preserve">11.328028678894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2320289611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0208292007446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9248285293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8096284866333</t>
+    <t xml:space="preserve">11.3280296325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2320280075073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0208282470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9248275756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8096265792847</t>
   </si>
   <si>
     <t xml:space="preserve">10.5408267974854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5792274475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7904272079468</t>
+    <t xml:space="preserve">10.5792264938354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7904281616211</t>
   </si>
   <si>
     <t xml:space="preserve">11.3472290039062</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4816284179688</t>
+    <t xml:space="preserve">11.4816293716431</t>
   </si>
   <si>
     <t xml:space="preserve">11.4240283966064</t>
@@ -2186,25 +2186,25 @@
     <t xml:space="preserve">11.7888298034668</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5776300430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8272285461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6736288070679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7696304321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6928300857544</t>
+    <t xml:space="preserve">11.5776290893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8272304534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6736297607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7696294784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6928291320801</t>
   </si>
   <si>
     <t xml:space="preserve">11.808030128479</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8848304748535</t>
+    <t xml:space="preserve">11.8848295211792</t>
   </si>
   <si>
     <t xml:space="preserve">12.3840312957764</t>
@@ -2213,7 +2213,7 @@
     <t xml:space="preserve">12.288031578064</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2688312530518</t>
+    <t xml:space="preserve">12.2688302993774</t>
   </si>
   <si>
     <t xml:space="preserve">12.1152305603027</t>
@@ -2222,19 +2222,19 @@
     <t xml:space="preserve">12.1344318389893</t>
   </si>
   <si>
-    <t xml:space="preserve">11.961630821228</t>
+    <t xml:space="preserve">11.9616298675537</t>
   </si>
   <si>
     <t xml:space="preserve">11.9040298461914</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3856296539307</t>
+    <t xml:space="preserve">11.385627746582</t>
   </si>
   <si>
     <t xml:space="preserve">12.806432723999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8240356445312</t>
+    <t xml:space="preserve">13.8240346908569</t>
   </si>
   <si>
     <t xml:space="preserve">13.5552349090576</t>
@@ -2246,10 +2246,10 @@
     <t xml:space="preserve">13.7664356231689</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4016351699829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.593635559082</t>
+    <t xml:space="preserve">13.4016342163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5936346054077</t>
   </si>
   <si>
     <t xml:space="preserve">13.6320343017578</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">13.2672338485718</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4976348876953</t>
+    <t xml:space="preserve">13.497633934021</t>
   </si>
   <si>
     <t xml:space="preserve">14.3040361404419</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">13.9008350372314</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5744342803955</t>
+    <t xml:space="preserve">13.5744352340698</t>
   </si>
   <si>
     <t xml:space="preserve">13.286434173584</t>
@@ -2282,10 +2282,10 @@
     <t xml:space="preserve">12.172830581665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2112321853638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4800319671631</t>
+    <t xml:space="preserve">12.2112312316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4800329208374</t>
   </si>
   <si>
     <t xml:space="preserve">12.5952320098877</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">13.0176334381104</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9792337417603</t>
+    <t xml:space="preserve">12.9792327880859</t>
   </si>
   <si>
     <t xml:space="preserve">13.2096338272095</t>
@@ -2303,28 +2303,28 @@
     <t xml:space="preserve">13.4784345626831</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6128358840942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7280359268188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7879419326782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.807333946228</t>
+    <t xml:space="preserve">13.6128349304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7280349731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7879428863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8073348999023</t>
   </si>
   <si>
     <t xml:space="preserve">13.5746269226074</t>
   </si>
   <si>
-    <t xml:space="preserve">13.613410949707</t>
+    <t xml:space="preserve">13.6134119033813</t>
   </si>
   <si>
     <t xml:space="preserve">13.4776649475098</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6715888977051</t>
+    <t xml:space="preserve">13.6715879440308</t>
   </si>
   <si>
     <t xml:space="preserve">14.0206499099731</t>
@@ -2333,19 +2333,19 @@
     <t xml:space="preserve">14.0594348907471</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9236879348755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3503189086914</t>
+    <t xml:space="preserve">13.9236869812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3503198623657</t>
   </si>
   <si>
     <t xml:space="preserve">14.3309268951416</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3891038894653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1563968658447</t>
+    <t xml:space="preserve">14.3891048431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1563959121704</t>
   </si>
   <si>
     <t xml:space="preserve">13.8655118942261</t>
@@ -2354,13 +2354,13 @@
     <t xml:space="preserve">13.6328039169312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9430818557739</t>
+    <t xml:space="preserve">13.9430809020996</t>
   </si>
   <si>
     <t xml:space="preserve">13.7685489654541</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7103729248047</t>
+    <t xml:space="preserve">13.710373878479</t>
   </si>
   <si>
     <t xml:space="preserve">13.9624729156494</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">14.8157348632812</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1841897964478</t>
+    <t xml:space="preserve">15.1841888427734</t>
   </si>
   <si>
     <t xml:space="preserve">15.2229738235474</t>
@@ -2393,10 +2393,10 @@
     <t xml:space="preserve">16.6967906951904</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5416507720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3865127563477</t>
+    <t xml:space="preserve">16.5416526794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3865146636963</t>
   </si>
   <si>
     <t xml:space="preserve">16.0180587768555</t>
@@ -2405,10 +2405,10 @@
     <t xml:space="preserve">16.1538066864014</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9986658096313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8047428131104</t>
+    <t xml:space="preserve">15.9986667633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8047437667847</t>
   </si>
   <si>
     <t xml:space="preserve">15.513858795166</t>
@@ -2417,13 +2417,13 @@
     <t xml:space="preserve">15.9404916763306</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5332517623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6302137374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9210987091064</t>
+    <t xml:space="preserve">15.5332527160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6302127838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9210977554321</t>
   </si>
   <si>
     <t xml:space="preserve">16.0568428039551</t>
@@ -2432,40 +2432,40 @@
     <t xml:space="preserve">16.4640827178955</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8131427764893</t>
+    <t xml:space="preserve">16.8131446838379</t>
   </si>
   <si>
     <t xml:space="preserve">16.9876747131348</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8907146453857</t>
+    <t xml:space="preserve">16.8907127380371</t>
   </si>
   <si>
     <t xml:space="preserve">16.8519287109375</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9294967651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9101066589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3755226135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.356128692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4143047332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2009906768799</t>
+    <t xml:space="preserve">16.9294986724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9101085662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3755207061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3561305999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.414306640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2009887695312</t>
   </si>
   <si>
     <t xml:space="preserve">16.6580066680908</t>
   </si>
   <si>
-    <t xml:space="preserve">16.638614654541</t>
+    <t xml:space="preserve">16.6386127471924</t>
   </si>
   <si>
     <t xml:space="preserve">17.1234226226807</t>
@@ -2480,7 +2480,7 @@
     <t xml:space="preserve">17.1428146362305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0652465820312</t>
+    <t xml:space="preserve">17.0652446746826</t>
   </si>
   <si>
     <t xml:space="preserve">18.1900005340576</t>
@@ -2492,19 +2492,19 @@
     <t xml:space="preserve">18.5390625</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8771324157715</t>
+    <t xml:space="preserve">19.8771305084229</t>
   </si>
   <si>
     <t xml:space="preserve">20.1680164337158</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5558643341064</t>
+    <t xml:space="preserve">20.5558624267578</t>
   </si>
   <si>
     <t xml:space="preserve">20.0225734710693</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9921913146973</t>
+    <t xml:space="preserve">20.9921894073486</t>
   </si>
   <si>
     <t xml:space="preserve">20.7497863769531</t>
@@ -2516,28 +2516,28 @@
     <t xml:space="preserve">20.2164974212646</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1195373535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2649784088135</t>
+    <t xml:space="preserve">20.119535446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2649803161621</t>
   </si>
   <si>
     <t xml:space="preserve">20.6528244018555</t>
   </si>
   <si>
-    <t xml:space="preserve">20.798267364502</t>
+    <t xml:space="preserve">20.7982692718506</t>
   </si>
   <si>
     <t xml:space="preserve">20.895227432251</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2345943450928</t>
+    <t xml:space="preserve">21.2345962524414</t>
   </si>
   <si>
     <t xml:space="preserve">21.1376323699951</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6043453216553</t>
+    <t xml:space="preserve">20.6043434143066</t>
   </si>
   <si>
     <t xml:space="preserve">20.3134593963623</t>
@@ -2546,13 +2546,13 @@
     <t xml:space="preserve">21.1861133575439</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9740924835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.731689453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5862483978271</t>
+    <t xml:space="preserve">19.9740943908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7316913604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5862464904785</t>
   </si>
   <si>
     <t xml:space="preserve">19.7801704406738</t>
@@ -2561,22 +2561,22 @@
     <t xml:space="preserve">20.0710544586182</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3923244476318</t>
+    <t xml:space="preserve">19.3923225402832</t>
   </si>
   <si>
     <t xml:space="preserve">20.5073833465576</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7013053894043</t>
+    <t xml:space="preserve">20.7013072967529</t>
   </si>
   <si>
     <t xml:space="preserve">20.4589004516602</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3800373077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9618072509766</t>
+    <t xml:space="preserve">21.3800354003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9618053436279</t>
   </si>
   <si>
     <t xml:space="preserve">21.5739593505859</t>
@@ -2588,10 +2588,10 @@
     <t xml:space="preserve">22.0102882385254</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1072463989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8163642883301</t>
+    <t xml:space="preserve">22.1072483062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8163623809814</t>
   </si>
   <si>
     <t xml:space="preserve">22.1557292938232</t>
@@ -2618,10 +2618,10 @@
     <t xml:space="preserve">23.6101551055908</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9314231872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6890201568604</t>
+    <t xml:space="preserve">22.9314212799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6890182495117</t>
   </si>
   <si>
     <t xml:space="preserve">22.3011722564697</t>
@@ -2630,10 +2630,10 @@
     <t xml:space="preserve">21.9133262634277</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6709213256836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0891532897949</t>
+    <t xml:space="preserve">21.6709232330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0891513824463</t>
   </si>
   <si>
     <t xml:space="preserve">21.0406723022461</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">22.2042121887207</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8221759796143</t>
+    <t xml:space="preserve">24.8221740722656</t>
   </si>
   <si>
     <t xml:space="preserve">24.240406036377</t>
@@ -2651,7 +2651,7 @@
     <t xml:space="preserve">23.7555961608887</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7071151733398</t>
+    <t xml:space="preserve">23.7071170806885</t>
   </si>
   <si>
     <t xml:space="preserve">23.4647121429443</t>
@@ -2660,7 +2660,7 @@
     <t xml:space="preserve">23.5616722106934</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8040752410889</t>
+    <t xml:space="preserve">23.8040771484375</t>
   </si>
   <si>
     <t xml:space="preserve">23.5131931304932</t>
@@ -2669,13 +2669,13 @@
     <t xml:space="preserve">24.046480178833</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9010391235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3677501678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0949630737305</t>
+    <t xml:space="preserve">23.9010372161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.367748260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0949611663818</t>
   </si>
   <si>
     <t xml:space="preserve">23.9980010986328</t>
@@ -2687,16 +2687,16 @@
     <t xml:space="preserve">23.3192672729492</t>
   </si>
   <si>
-    <t xml:space="preserve">23.852560043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1253471374512</t>
+    <t xml:space="preserve">23.8525581359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1253452301025</t>
   </si>
   <si>
     <t xml:space="preserve">22.882942199707</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5435752868652</t>
+    <t xml:space="preserve">22.5435771942139</t>
   </si>
   <si>
     <t xml:space="preserve">21.8648433685303</t>
@@ -2708,37 +2708,37 @@
     <t xml:space="preserve">22.4466152191162</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5312881469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1919231414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7736930847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3373680114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1434421539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7917919158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0826740264893</t>
+    <t xml:space="preserve">24.5312900543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1919250488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7736949920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.337366104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1434440612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7917900085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0826759338379</t>
   </si>
   <si>
     <t xml:space="preserve">26.4705219268799</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1796360015869</t>
+    <t xml:space="preserve">26.1796379089355</t>
   </si>
   <si>
     <t xml:space="preserve">26.1311569213867</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2765979766846</t>
+    <t xml:space="preserve">26.2765998840332</t>
   </si>
   <si>
     <t xml:space="preserve">25.9857139587402</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">26.9068489074707</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8279857635498</t>
+    <t xml:space="preserve">27.8279838562012</t>
   </si>
   <si>
     <t xml:space="preserve">27.7310237884521</t>
@@ -2759,16 +2759,16 @@
     <t xml:space="preserve">27.6825428009033</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2158298492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8460826873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3127937316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.652156829834</t>
+    <t xml:space="preserve">28.2158317565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8460807800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3127918243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6521587371826</t>
   </si>
   <si>
     <t xml:space="preserve">28.1188697814941</t>
@@ -2777,25 +2777,25 @@
     <t xml:space="preserve">27.9734268188477</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0703907012939</t>
+    <t xml:space="preserve">28.0703887939453</t>
   </si>
   <si>
     <t xml:space="preserve">27.87646484375</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5855827331543</t>
+    <t xml:space="preserve">27.5855808258057</t>
   </si>
   <si>
     <t xml:space="preserve">27.2946949005127</t>
   </si>
   <si>
-    <t xml:space="preserve">27.488618850708</t>
+    <t xml:space="preserve">27.4886207580566</t>
   </si>
   <si>
     <t xml:space="preserve">27.3916568756104</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0522899627686</t>
+    <t xml:space="preserve">27.0522918701172</t>
   </si>
   <si>
     <t xml:space="preserve">27.2648448944092</t>

--- a/data/DAN.MI.xlsx
+++ b/data/DAN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="1298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="1299">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8921480178833</t>
+    <t xml:space="preserve">15.8921499252319</t>
   </si>
   <si>
     <t xml:space="preserve">DAN.MI</t>
@@ -47,19 +47,19 @@
     <t xml:space="preserve">16.0230236053467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.518214225769</t>
+    <t xml:space="preserve">15.5182151794434</t>
   </si>
   <si>
     <t xml:space="preserve">14.8170909881592</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4899005889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.209451675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5646867752075</t>
+    <t xml:space="preserve">14.4898996353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2094507217407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5646858215332</t>
   </si>
   <si>
     <t xml:space="preserve">14.3122835159302</t>
@@ -68,10 +68,10 @@
     <t xml:space="preserve">14.1346635818481</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3587532043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0409097671509</t>
+    <t xml:space="preserve">13.3587522506714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0409116744995</t>
   </si>
   <si>
     <t xml:space="preserve">13.1343936920166</t>
@@ -86,16 +86,16 @@
     <t xml:space="preserve">13.3867979049683</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2006435394287</t>
+    <t xml:space="preserve">16.2006416320801</t>
   </si>
   <si>
     <t xml:space="preserve">16.3595657348633</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6400165557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3969612121582</t>
+    <t xml:space="preserve">16.6400127410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3969593048096</t>
   </si>
   <si>
     <t xml:space="preserve">16.6774063110352</t>
@@ -107,40 +107,40 @@
     <t xml:space="preserve">16.9204635620117</t>
   </si>
   <si>
-    <t xml:space="preserve">15.770619392395</t>
+    <t xml:space="preserve">15.770622253418</t>
   </si>
   <si>
     <t xml:space="preserve">16.4156532287598</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6023502349854</t>
+    <t xml:space="preserve">15.6023511886597</t>
   </si>
   <si>
     <t xml:space="preserve">15.228419303894</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2377662658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490898132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3966875076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2938537597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2193431854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5465335845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0887317657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2476558685303</t>
+    <t xml:space="preserve">15.2377672195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490917205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.396689414978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2938556671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2193393707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5465297698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.088737487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2476539611816</t>
   </si>
   <si>
     <t xml:space="preserve">17.3878784179688</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">17.0326442718506</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6680603027344</t>
+    <t xml:space="preserve">16.6680583953857</t>
   </si>
   <si>
     <t xml:space="preserve">16.658712387085</t>
@@ -161,37 +161,37 @@
     <t xml:space="preserve">17.1541748046875</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9578590393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5094089508057</t>
+    <t xml:space="preserve">16.957857131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.509407043457</t>
   </si>
   <si>
     <t xml:space="preserve">17.6402835845947</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7057228088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7711601257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8550262451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.55615234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.855297088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2009105682373</t>
+    <t xml:space="preserve">17.7057247161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7711620330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8550243377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5561504364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8552951812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2009124755859</t>
   </si>
   <si>
     <t xml:space="preserve">17.5935440063477</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7992057800293</t>
+    <t xml:space="preserve">17.7992076873779</t>
   </si>
   <si>
     <t xml:space="preserve">17.341136932373</t>
@@ -200,10 +200,10 @@
     <t xml:space="preserve">16.5278358459473</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8737239837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2663536071777</t>
+    <t xml:space="preserve">16.8737201690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2663516998291</t>
   </si>
   <si>
     <t xml:space="preserve">17.6215877532959</t>
@@ -215,22 +215,22 @@
     <t xml:space="preserve">16.8456764221191</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4533195495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9020385742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9768238067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7431144714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2105312347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4629383087158</t>
+    <t xml:space="preserve">17.4533176422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9020366668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9768218994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7431163787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2105331420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4629402160645</t>
   </si>
   <si>
     <t xml:space="preserve">18.3694534301758</t>
@@ -239,40 +239,40 @@
     <t xml:space="preserve">18.1357460021973</t>
   </si>
   <si>
-    <t xml:space="preserve">17.939432144165</t>
+    <t xml:space="preserve">17.9394302368164</t>
   </si>
   <si>
     <t xml:space="preserve">18.6966457366943</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7620830535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7901306152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.444242477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6779499053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3788051605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2385768890381</t>
+    <t xml:space="preserve">18.7620811462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7901287078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4442405700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6779479980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3788032531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2385787963867</t>
   </si>
   <si>
     <t xml:space="preserve">17.8085536956787</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4813652038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8272495269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.500057220459</t>
+    <t xml:space="preserve">17.4813632965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8272514343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5000591278076</t>
   </si>
   <si>
     <t xml:space="preserve">17.4065761566162</t>
@@ -281,91 +281,91 @@
     <t xml:space="preserve">17.0980815887451</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1635208129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8830718994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6306705474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4623966217041</t>
+    <t xml:space="preserve">17.1635227203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8830699920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6306667327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4623947143555</t>
   </si>
   <si>
     <t xml:space="preserve">16.5652256011963</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0700397491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7708930969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7334976196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4810905456543</t>
+    <t xml:space="preserve">17.0700378417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7708911895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7334995269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4810924530029</t>
   </si>
   <si>
     <t xml:space="preserve">17.6963748931885</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8363304138184</t>
+    <t xml:space="preserve">16.836332321167</t>
   </si>
   <si>
     <t xml:space="preserve">16.8176326751709</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5748462677002</t>
+    <t xml:space="preserve">17.5748443603516</t>
   </si>
   <si>
     <t xml:space="preserve">17.3224411010742</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3691844940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1165084838867</t>
+    <t xml:space="preserve">17.3691825866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1165065765381</t>
   </si>
   <si>
     <t xml:space="preserve">16.1539039611816</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2471141815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0508003234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3592939376831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6303949356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2660808563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2751588821411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7329568862915</t>
+    <t xml:space="preserve">15.2471122741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.050799369812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3592948913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6303939819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2660846710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2751579284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7329559326172</t>
   </si>
   <si>
     <t xml:space="preserve">15.1723260879517</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8077449798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9666652679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7051820755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3219003677368</t>
+    <t xml:space="preserve">14.8077430725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9666662216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7051839828491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3219022750854</t>
   </si>
   <si>
     <t xml:space="preserve">14.9105749130249</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">14.5366411209106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9386186599731</t>
+    <t xml:space="preserve">14.9386205673218</t>
   </si>
   <si>
     <t xml:space="preserve">15.6958360671997</t>
@@ -395,76 +395,76 @@
     <t xml:space="preserve">15.6210460662842</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5930013656616</t>
+    <t xml:space="preserve">15.5930051803589</t>
   </si>
   <si>
     <t xml:space="preserve">15.6771392822266</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4530487060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9201927185059</t>
+    <t xml:space="preserve">16.4530467987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9201936721802</t>
   </si>
   <si>
     <t xml:space="preserve">15.6864862442017</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4343490600586</t>
+    <t xml:space="preserve">16.4343528747559</t>
   </si>
   <si>
     <t xml:space="preserve">16.1352043151855</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3876113891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4904403686523</t>
+    <t xml:space="preserve">16.3876094818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4904384613037</t>
   </si>
   <si>
     <t xml:space="preserve">16.3782596588135</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2941265106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.472017288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1354751586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9298152923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9672069549561</t>
+    <t xml:space="preserve">16.2941284179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4720134735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.13547706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9298133850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9672050476074</t>
   </si>
   <si>
     <t xml:space="preserve">17.9487800598145</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4907093048096</t>
+    <t xml:space="preserve">17.4907131195068</t>
   </si>
   <si>
     <t xml:space="preserve">17.3598365783691</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5281047821045</t>
+    <t xml:space="preserve">17.5281066894531</t>
   </si>
   <si>
     <t xml:space="preserve">17.6683330535889</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4063034057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0884628295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0604190826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1258544921875</t>
+    <t xml:space="preserve">16.4063053131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0884609222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.060417175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1258583068848</t>
   </si>
   <si>
     <t xml:space="preserve">16.2567329406738</t>
@@ -473,85 +473,85 @@
     <t xml:space="preserve">15.9388885498047</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9669351577759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8641023635864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7893190383911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9108467102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3408718109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0232925415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3689155578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8360567092896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8454084396362</t>
+    <t xml:space="preserve">15.9669380187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8641033172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7893180847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9108448028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3408641815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0232944488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3689136505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8360586166382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8454055786133</t>
   </si>
   <si>
     <t xml:space="preserve">16.0043296813965</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6584405899048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4527797698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5280199050903</t>
+    <t xml:space="preserve">15.6584396362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4527769088745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.528021812439</t>
   </si>
   <si>
     <t xml:space="preserve">15.6032619476318</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8477983474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9324445724487</t>
+    <t xml:space="preserve">15.8477973937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9324436187744</t>
   </si>
   <si>
     <t xml:space="preserve">16.0923328399658</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8195810317993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2646732330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6220693588257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7161235809326</t>
+    <t xml:space="preserve">15.819580078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2646722793579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6220722198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7161254882812</t>
   </si>
   <si>
     <t xml:space="preserve">15.7067193984985</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3493185043335</t>
+    <t xml:space="preserve">15.3493194580078</t>
   </si>
   <si>
     <t xml:space="preserve">16.0641174316406</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5343799591064</t>
+    <t xml:space="preserve">16.5343780517578</t>
   </si>
   <si>
     <t xml:space="preserve">16.1299533843994</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6879072189331</t>
+    <t xml:space="preserve">15.6879081726074</t>
   </si>
   <si>
     <t xml:space="preserve">15.8007707595825</t>
@@ -566,16 +566,16 @@
     <t xml:space="preserve">16.2522239685059</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0359001159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7883186340332</t>
+    <t xml:space="preserve">16.0359020233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7883205413818</t>
   </si>
   <si>
     <t xml:space="preserve">17.399658203125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4748973846436</t>
+    <t xml:space="preserve">17.4749011993408</t>
   </si>
   <si>
     <t xml:space="preserve">17.352632522583</t>
@@ -584,37 +584,37 @@
     <t xml:space="preserve">17.4372806549072</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2397708892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1645278930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6942653656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.305606842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1175022125244</t>
+    <t xml:space="preserve">17.2397689819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1645259857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6942691802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3056049346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1175003051758</t>
   </si>
   <si>
     <t xml:space="preserve">17.3808498382568</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9639720916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1238632202148</t>
+    <t xml:space="preserve">17.9639682769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1238594055176</t>
   </si>
   <si>
     <t xml:space="preserve">18.1614818572998</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1050510406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6599559783936</t>
+    <t xml:space="preserve">18.1050491333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6599578857422</t>
   </si>
   <si>
     <t xml:space="preserve">19.1396255493164</t>
@@ -623,46 +623,46 @@
     <t xml:space="preserve">19.1866493225098</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7979888916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8732280731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3559474945068</t>
+    <t xml:space="preserve">19.7979907989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8732299804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3559436798096</t>
   </si>
   <si>
     <t xml:space="preserve">19.1490306854248</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7039375305176</t>
+    <t xml:space="preserve">19.7039394378662</t>
   </si>
   <si>
     <t xml:space="preserve">19.5722618103027</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4217796325684</t>
+    <t xml:space="preserve">19.421781539917</t>
   </si>
   <si>
     <t xml:space="preserve">19.318323135376</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0925998687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2524871826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1772441864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.167839050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.989143371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8104400634766</t>
+    <t xml:space="preserve">19.0925979614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2524852752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.17724609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1678371429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9891414642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8104438781738</t>
   </si>
   <si>
     <t xml:space="preserve">18.6317405700684</t>
@@ -671,106 +671,106 @@
     <t xml:space="preserve">18.340181350708</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6881771087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7634162902832</t>
+    <t xml:space="preserve">18.6881732940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7634201049805</t>
   </si>
   <si>
     <t xml:space="preserve">18.6975803375244</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6035251617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7163925170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5094738006592</t>
+    <t xml:space="preserve">18.6035289764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7163867950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5094757080078</t>
   </si>
   <si>
     <t xml:space="preserve">18.5565013885498</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7446041107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8480644226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8574676513672</t>
+    <t xml:space="preserve">18.744607925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8480625152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8574657440186</t>
   </si>
   <si>
     <t xml:space="preserve">18.9609241485596</t>
   </si>
   <si>
-    <t xml:space="preserve">19.280704498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6569137573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3277263641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.365348815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6098861694336</t>
+    <t xml:space="preserve">19.2807006835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6569118499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3277282714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3653507232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6098880767822</t>
   </si>
   <si>
     <t xml:space="preserve">19.6945304870605</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1960544586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4876155853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7509651184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3371315002441</t>
+    <t xml:space="preserve">19.1960563659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4876174926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7509632110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3371353149414</t>
   </si>
   <si>
     <t xml:space="preserve">19.4594039916992</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5910739898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.271297454834</t>
+    <t xml:space="preserve">19.5910758972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2712993621826</t>
   </si>
   <si>
     <t xml:space="preserve">19.468807220459</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6286964416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5252380371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1647968292236</t>
+    <t xml:space="preserve">19.628698348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.525239944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1647930145264</t>
   </si>
   <si>
     <t xml:space="preserve">20.258846282959</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6350536346436</t>
+    <t xml:space="preserve">20.6350555419922</t>
   </si>
   <si>
     <t xml:space="preserve">20.8795909881592</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1147232055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2275829315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2087707519531</t>
+    <t xml:space="preserve">21.1147212982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2275848388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2087726593018</t>
   </si>
   <si>
     <t xml:space="preserve">20.399923324585</t>
@@ -785,31 +785,31 @@
     <t xml:space="preserve">20.5033798217773</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8325653076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9078044891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8607788085938</t>
+    <t xml:space="preserve">20.8325614929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9078063964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8607807159424</t>
   </si>
   <si>
     <t xml:space="preserve">20.7573204040527</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7855358123779</t>
+    <t xml:space="preserve">20.7855377197266</t>
   </si>
   <si>
     <t xml:space="preserve">20.9172115325928</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7385139465332</t>
+    <t xml:space="preserve">20.7385101318359</t>
   </si>
   <si>
     <t xml:space="preserve">21.0770988464355</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1241245269775</t>
+    <t xml:space="preserve">21.1241264343262</t>
   </si>
   <si>
     <t xml:space="preserve">20.7102966308594</t>
@@ -821,16 +821,16 @@
     <t xml:space="preserve">21.9141654968262</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7636814117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6320095062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.584981918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.396879196167</t>
+    <t xml:space="preserve">21.7636775970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.632007598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5849838256836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3968772888184</t>
   </si>
   <si>
     <t xml:space="preserve">21.38747215271</t>
@@ -845,13 +845,13 @@
     <t xml:space="preserve">21.3686580657959</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6131992340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4909286499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8983993530273</t>
+    <t xml:space="preserve">21.6131973266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4909267425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8983974456787</t>
   </si>
   <si>
     <t xml:space="preserve">21.4344997406006</t>
@@ -860,31 +860,31 @@
     <t xml:space="preserve">21.2181758880615</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3780651092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5191421508789</t>
+    <t xml:space="preserve">21.3780670166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5191459655762</t>
   </si>
   <si>
     <t xml:space="preserve">21.5097408294678</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6037921905518</t>
+    <t xml:space="preserve">21.6037940979004</t>
   </si>
   <si>
     <t xml:space="preserve">21.5473613739014</t>
   </si>
   <si>
-    <t xml:space="preserve">21.199369430542</t>
+    <t xml:space="preserve">21.1993675231934</t>
   </si>
   <si>
     <t xml:space="preserve">21.4439029693604</t>
   </si>
   <si>
-    <t xml:space="preserve">20.99245262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.569221496582</t>
+    <t xml:space="preserve">20.9924545288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5692176818848</t>
   </si>
   <si>
     <t xml:space="preserve">20.6538639068604</t>
@@ -893,28 +893,28 @@
     <t xml:space="preserve">20.6632709503174</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5786209106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8889961242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5315990447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2964668273926</t>
+    <t xml:space="preserve">20.5786228179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8889942169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5315971374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2964649200439</t>
   </si>
   <si>
     <t xml:space="preserve">20.4657611846924</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0425224304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1553897857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5221920013428</t>
+    <t xml:space="preserve">20.0425243377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.155387878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5221900939941</t>
   </si>
   <si>
     <t xml:space="preserve">20.550407409668</t>
@@ -923,13 +923,13 @@
     <t xml:space="preserve">20.8043479919434</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6914863586426</t>
+    <t xml:space="preserve">20.6914844512939</t>
   </si>
   <si>
     <t xml:space="preserve">20.2024154663086</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0801467895508</t>
+    <t xml:space="preserve">20.0801448822021</t>
   </si>
   <si>
     <t xml:space="preserve">20.1365776062012</t>
@@ -938,52 +938,52 @@
     <t xml:space="preserve">19.9672813415527</t>
   </si>
   <si>
-    <t xml:space="preserve">20.174201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3246841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2494411468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3623046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9202575683594</t>
+    <t xml:space="preserve">20.1742000579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3246822357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2494430541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3623027801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.920259475708</t>
   </si>
   <si>
     <t xml:space="preserve">20.9266166687012</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4939785003662</t>
+    <t xml:space="preserve">20.4939804077148</t>
   </si>
   <si>
     <t xml:space="preserve">20.2212257385254</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9766883850098</t>
+    <t xml:space="preserve">19.9766864776611</t>
   </si>
   <si>
     <t xml:space="preserve">20.6726741790771</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3811168670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.747917175293</t>
+    <t xml:space="preserve">20.3811149597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7479190826416</t>
   </si>
   <si>
     <t xml:space="preserve">21.1053161621094</t>
   </si>
   <si>
-    <t xml:space="preserve">20.59743309021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8231563568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1523380279541</t>
+    <t xml:space="preserve">20.5974349975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8231582641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1523399353027</t>
   </si>
   <si>
     <t xml:space="preserve">21.4627132415771</t>
@@ -998,28 +998,28 @@
     <t xml:space="preserve">20.5880279541016</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6256504058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1271705627441</t>
+    <t xml:space="preserve">20.6256484985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1271724700928</t>
   </si>
   <si>
     <t xml:space="preserve">20.0895519256592</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0143146514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2306308746338</t>
+    <t xml:space="preserve">20.014310836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2306289672852</t>
   </si>
   <si>
     <t xml:space="preserve">20.3434925079346</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7761325836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2400341033936</t>
+    <t xml:space="preserve">20.7761344909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2400360107422</t>
   </si>
   <si>
     <t xml:space="preserve">19.7791786193848</t>
@@ -1028,31 +1028,31 @@
     <t xml:space="preserve">19.4970226287842</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0173568725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0737915039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8668746948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.233678817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9139003753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7916316986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8950901031494</t>
+    <t xml:space="preserve">19.0173587799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0737895965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8668727874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2336769104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9138984680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7916297912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8950881958008</t>
   </si>
   <si>
     <t xml:space="preserve">18.6693630218506</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0455722808838</t>
+    <t xml:space="preserve">19.0455703735352</t>
   </si>
   <si>
     <t xml:space="preserve">19.374755859375</t>
@@ -1061,52 +1061,52 @@
     <t xml:space="preserve">19.2147750854492</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1864204406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7611026763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5342693328857</t>
+    <t xml:space="preserve">19.1864185333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7611045837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5342712402344</t>
   </si>
   <si>
     <t xml:space="preserve">18.127857208252</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0711498260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8632202148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8915748596191</t>
+    <t xml:space="preserve">18.0711479187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8632183074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8915710449219</t>
   </si>
   <si>
     <t xml:space="preserve">18.1656627655029</t>
   </si>
   <si>
-    <t xml:space="preserve">18.118408203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.194019317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4964637756348</t>
+    <t xml:space="preserve">18.1184062957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1940174102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.496467590332</t>
   </si>
   <si>
     <t xml:space="preserve">18.6949462890625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8178119659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6382331848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3924961090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7232971191406</t>
+    <t xml:space="preserve">18.8178157806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6382350921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3924980163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7232990264893</t>
   </si>
   <si>
     <t xml:space="preserve">18.5909786224365</t>
@@ -1121,19 +1121,19 @@
     <t xml:space="preserve">19.0068435668945</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9312324523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9217796325684</t>
+    <t xml:space="preserve">18.9312305450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9217777252197</t>
   </si>
   <si>
     <t xml:space="preserve">18.8461666107178</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5815277099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6098804473877</t>
+    <t xml:space="preserve">18.5815296173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.609884262085</t>
   </si>
   <si>
     <t xml:space="preserve">18.6760425567627</t>
@@ -1142,25 +1142,25 @@
     <t xml:space="preserve">18.7138481140137</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7043991088867</t>
+    <t xml:space="preserve">18.7043972015381</t>
   </si>
   <si>
     <t xml:space="preserve">18.893424987793</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9406814575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.827262878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6193351745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7327480316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1391639709473</t>
+    <t xml:space="preserve">18.9406833648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8272647857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6193313598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7327499389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.13916015625</t>
   </si>
   <si>
     <t xml:space="preserve">19.4227027893066</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">19.7062492370605</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9897918701172</t>
+    <t xml:space="preserve">19.9897899627686</t>
   </si>
   <si>
     <t xml:space="preserve">20.7931632995605</t>
@@ -1178,7 +1178,7 @@
     <t xml:space="preserve">21.5492782592773</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8328189849854</t>
+    <t xml:space="preserve">21.832820892334</t>
   </si>
   <si>
     <t xml:space="preserve">21.7855644226074</t>
@@ -1187,7 +1187,7 @@
     <t xml:space="preserve">21.6437931060791</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8800792694092</t>
+    <t xml:space="preserve">21.8800811767578</t>
   </si>
   <si>
     <t xml:space="preserve">21.7383079528809</t>
@@ -1196,40 +1196,40 @@
     <t xml:space="preserve">22.0218486785889</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0691089630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2657337188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6986503601074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3129901885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8876762390137</t>
+    <t xml:space="preserve">22.0691070556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2657356262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6986522674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3129940032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8876781463623</t>
   </si>
   <si>
     <t xml:space="preserve">21.0294494628906</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9821910858154</t>
+    <t xml:space="preserve">20.9821929931641</t>
   </si>
   <si>
     <t xml:space="preserve">21.3602504730225</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4547653198242</t>
+    <t xml:space="preserve">21.4547634124756</t>
   </si>
   <si>
     <t xml:space="preserve">21.4075050354004</t>
   </si>
   <si>
-    <t xml:space="preserve">21.123966217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9349346160889</t>
+    <t xml:space="preserve">21.1239643096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9349327087402</t>
   </si>
   <si>
     <t xml:space="preserve">21.9745922088623</t>
@@ -1247,16 +1247,16 @@
     <t xml:space="preserve">22.2581367492676</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0767059326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5020198822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5568771362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4623603820801</t>
+    <t xml:space="preserve">21.0767078399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5020217895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5568790435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4623641967773</t>
   </si>
   <si>
     <t xml:space="preserve">21.1712207794189</t>
@@ -1265,16 +1265,16 @@
     <t xml:space="preserve">20.8404197692871</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2184791564941</t>
+    <t xml:space="preserve">21.2184772491455</t>
   </si>
   <si>
     <t xml:space="preserve">21.5965347290039</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6513900756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.745906829834</t>
+    <t xml:space="preserve">20.6513919830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7459087371826</t>
   </si>
   <si>
     <t xml:space="preserve">20.367847442627</t>
@@ -1283,13 +1283,13 @@
     <t xml:space="preserve">19.280933380127</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3754482269287</t>
+    <t xml:space="preserve">19.3754463195801</t>
   </si>
   <si>
     <t xml:space="preserve">19.5644779205322</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0370483398438</t>
+    <t xml:space="preserve">20.0370464324951</t>
   </si>
   <si>
     <t xml:space="preserve">19.8480205535889</t>
@@ -1304,148 +1304,148 @@
     <t xml:space="preserve">20.2260761260986</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4151058197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2733345031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1315612792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1788215637207</t>
+    <t xml:space="preserve">20.4151077270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2733364105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1315631866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1788196563721</t>
   </si>
   <si>
     <t xml:space="preserve">19.658992767334</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8007621765137</t>
+    <t xml:space="preserve">19.8007640838623</t>
   </si>
   <si>
     <t xml:space="preserve">19.7535057067871</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8952751159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9425315856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.517219543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4699649810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6117343902588</t>
+    <t xml:space="preserve">19.8952770233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.942533493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5172176361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4699630737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6117362976074</t>
   </si>
   <si>
     <t xml:space="preserve">20.0843048095703</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6910514831543</t>
+    <t xml:space="preserve">21.6910533905029</t>
   </si>
   <si>
     <t xml:space="preserve">20.320592880249</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9388294219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.500358581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8973197937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9521751403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6497297286987</t>
+    <t xml:space="preserve">17.9388256072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5003595352173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8973178863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9521760940552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6497278213501</t>
   </si>
   <si>
     <t xml:space="preserve">14.9899797439575</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5948724746704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8217058181763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.199764251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7271938323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5192613601685</t>
+    <t xml:space="preserve">15.5948705673218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8217077255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1997623443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7271919250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5192632675171</t>
   </si>
   <si>
     <t xml:space="preserve">15.6515808105469</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0674438476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9918327331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8595123291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7839021682739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5759716033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1979131698608</t>
+    <t xml:space="preserve">16.0674457550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.99183177948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8595151901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7839012145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5759696960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1979122161865</t>
   </si>
   <si>
     <t xml:space="preserve">15.0457439422607</t>
   </si>
   <si>
-    <t xml:space="preserve">14.760425567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5892353057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6272773742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1028060913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1218280792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8365106582642</t>
+    <t xml:space="preserve">14.7604274749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5892362594604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6272764205933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1028070449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1218271255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8365116119385</t>
   </si>
   <si>
     <t xml:space="preserve">15.3310613632202</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6354007720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4642105102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2468538284302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0946855545044</t>
+    <t xml:space="preserve">15.6353998184204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4642086029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2468528747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0946846008301</t>
   </si>
   <si>
     <t xml:space="preserve">13.7713241577148</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9044723510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5131502151489</t>
+    <t xml:space="preserve">13.9044733047485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5131492614746</t>
   </si>
   <si>
     <t xml:space="preserve">14.3419599533081</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">14.3990249633789</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1327257156372</t>
+    <t xml:space="preserve">14.1327266693115</t>
   </si>
   <si>
     <t xml:space="preserve">13.8093671798706</t>
@@ -1472,22 +1472,22 @@
     <t xml:space="preserve">14.2278327941895</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3800020217896</t>
+    <t xml:space="preserve">14.3800029754639</t>
   </si>
   <si>
     <t xml:space="preserve">14.7033615112305</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9316158294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4071455001831</t>
+    <t xml:space="preserve">14.9316167831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4071464538574</t>
   </si>
   <si>
     <t xml:space="preserve">15.3120393753052</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2169332504272</t>
+    <t xml:space="preserve">15.2169351577759</t>
   </si>
   <si>
     <t xml:space="preserve">15.2549772262573</t>
@@ -1499,43 +1499,43 @@
     <t xml:space="preserve">15.2930183410645</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3500814437866</t>
+    <t xml:space="preserve">15.3500804901123</t>
   </si>
   <si>
     <t xml:space="preserve">15.3881244659424</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7305068969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1679916381836</t>
+    <t xml:space="preserve">15.730504989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1679935455322</t>
   </si>
   <si>
     <t xml:space="preserve">17.0239448547363</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1000289916992</t>
+    <t xml:space="preserve">17.1000270843506</t>
   </si>
   <si>
     <t xml:space="preserve">17.1190509796143</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7005825042725</t>
+    <t xml:space="preserve">16.7005844116211</t>
   </si>
   <si>
     <t xml:space="preserve">16.6245002746582</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4723320007324</t>
+    <t xml:space="preserve">16.4723300933838</t>
   </si>
   <si>
     <t xml:space="preserve">16.5674362182617</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1870136260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0728874206543</t>
+    <t xml:space="preserve">16.18701171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0728855133057</t>
   </si>
   <si>
     <t xml:space="preserve">16.0158214569092</t>
@@ -1547,19 +1547,19 @@
     <t xml:space="preserve">16.3582038879395</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4533081054688</t>
+    <t xml:space="preserve">16.4533100128174</t>
   </si>
   <si>
     <t xml:space="preserve">16.8337345123291</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7196025848389</t>
+    <t xml:space="preserve">16.7196063995361</t>
   </si>
   <si>
     <t xml:space="preserve">16.4913520812988</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6435241699219</t>
+    <t xml:space="preserve">16.6435222625732</t>
   </si>
   <si>
     <t xml:space="preserve">16.6625423431396</t>
@@ -1571,28 +1571,28 @@
     <t xml:space="preserve">16.8147125244141</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9288387298584</t>
+    <t xml:space="preserve">16.9288368225098</t>
   </si>
   <si>
     <t xml:space="preserve">16.6815662384033</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5293941497803</t>
+    <t xml:space="preserve">16.5293922424316</t>
   </si>
   <si>
     <t xml:space="preserve">16.0538654327393</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1489696502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1299495697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3201599121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2060375213623</t>
+    <t xml:space="preserve">16.1489715576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1299476623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.320161819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2060356140137</t>
   </si>
   <si>
     <t xml:space="preserve">16.5484142303467</t>
@@ -1601,34 +1601,34 @@
     <t xml:space="preserve">16.6054782867432</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7386283874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9859046936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1570930480957</t>
+    <t xml:space="preserve">16.7386264801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9859027862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1570949554443</t>
   </si>
   <si>
     <t xml:space="preserve">17.6896858215332</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5075969696045</t>
+    <t xml:space="preserve">18.5075950622559</t>
   </si>
   <si>
     <t xml:space="preserve">18.4885749816895</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4695529937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3364086151123</t>
+    <t xml:space="preserve">18.469554901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3364067077637</t>
   </si>
   <si>
     <t xml:space="preserve">17.7467498779297</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3473033905029</t>
+    <t xml:space="preserve">17.3473052978516</t>
   </si>
   <si>
     <t xml:space="preserve">17.2141551971436</t>
@@ -1643,10 +1643,10 @@
     <t xml:space="preserve">16.8527526855469</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1761150360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0429649353027</t>
+    <t xml:space="preserve">17.1761131286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0429668426514</t>
   </si>
   <si>
     <t xml:space="preserve">17.27121925354</t>
@@ -1655,7 +1655,7 @@
     <t xml:space="preserve">17.366325378418</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4424114227295</t>
+    <t xml:space="preserve">17.4424095153809</t>
   </si>
   <si>
     <t xml:space="preserve">16.9668807983398</t>
@@ -1664,16 +1664,16 @@
     <t xml:space="preserve">16.4152660369873</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6924619674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.711483001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6544198989868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.369101524353</t>
+    <t xml:space="preserve">15.6924610137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7114839553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6544189453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3691024780273</t>
   </si>
   <si>
     <t xml:space="preserve">14.8745536804199</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">14.9886798858643</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2739963531494</t>
+    <t xml:space="preserve">15.2739973068237</t>
   </si>
   <si>
     <t xml:space="preserve">14.9506378173828</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">15.1598701477051</t>
   </si>
   <si>
-    <t xml:space="preserve">15.02672290802</t>
+    <t xml:space="preserve">15.0267219543457</t>
   </si>
   <si>
     <t xml:space="preserve">14.6843404769897</t>
@@ -1712,28 +1712,28 @@
     <t xml:space="preserve">14.6462984085083</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8174886703491</t>
+    <t xml:space="preserve">14.8174896240234</t>
   </si>
   <si>
     <t xml:space="preserve">15.7685470581055</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5973567962646</t>
+    <t xml:space="preserve">15.597357749939</t>
   </si>
   <si>
     <t xml:space="preserve">15.5783357620239</t>
   </si>
   <si>
-    <t xml:space="preserve">15.863655090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4261665344238</t>
+    <t xml:space="preserve">15.8636531829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4261655807495</t>
   </si>
   <si>
     <t xml:space="preserve">15.7875690460205</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6163778305054</t>
+    <t xml:space="preserve">15.616379737854</t>
   </si>
   <si>
     <t xml:space="preserve">15.5212707519531</t>
@@ -1742,25 +1742,25 @@
     <t xml:space="preserve">15.2359552383423</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0647649765015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7223834991455</t>
+    <t xml:space="preserve">15.0647640228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7223825454712</t>
   </si>
   <si>
     <t xml:space="preserve">14.9696578979492</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7984685897827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4751081466675</t>
+    <t xml:space="preserve">14.7984676361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4751091003418</t>
   </si>
   <si>
     <t xml:space="preserve">14.4560861587524</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2658758163452</t>
+    <t xml:space="preserve">14.2658748626709</t>
   </si>
   <si>
     <t xml:space="preserve">14.0756635665894</t>
@@ -1769,31 +1769,31 @@
     <t xml:space="preserve">13.94251537323</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6082544326782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4370651245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9805564880371</t>
+    <t xml:space="preserve">14.6082553863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.437066078186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9805574417114</t>
   </si>
   <si>
     <t xml:space="preserve">14.0186004638672</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2088108062744</t>
+    <t xml:space="preserve">14.2088117599487</t>
   </si>
   <si>
     <t xml:space="preserve">14.1137065887451</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4180450439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1897916793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7794466018677</t>
+    <t xml:space="preserve">14.418044090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.189790725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.779447555542</t>
   </si>
   <si>
     <t xml:space="preserve">14.170768737793</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">14.3609819412231</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2848958969116</t>
+    <t xml:space="preserve">14.2848968505859</t>
   </si>
   <si>
     <t xml:space="preserve">14.6653203964233</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">15.1788911819458</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4832315444946</t>
+    <t xml:space="preserve">15.4832305908203</t>
   </si>
   <si>
     <t xml:space="preserve">15.2640390396118</t>
@@ -3903,6 +3903,9 @@
   </si>
   <si>
     <t xml:space="preserve">37.9500007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2000007629395</t>
   </si>
   <si>
     <t xml:space="preserve">38</t>
@@ -60095,27 +60098,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6495138889</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
-        <v>24739</v>
+        <v>41932</v>
       </c>
       <c r="C2149" t="n">
-        <v>38.3499984741211</v>
+        <v>38.5999984741211</v>
       </c>
       <c r="D2149" t="n">
-        <v>37.1500015258789</v>
+        <v>37.2000007629395</v>
       </c>
       <c r="E2149" t="n">
-        <v>37.1500015258789</v>
+        <v>38.1500015258789</v>
       </c>
       <c r="F2149" t="n">
-        <v>38</v>
+        <v>37.2000007629395</v>
       </c>
       <c r="G2149" t="s">
         <v>1297</v>
       </c>
       <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
+        <v>24739</v>
+      </c>
+      <c r="C2150" t="n">
+        <v>38.3499984741211</v>
+      </c>
+      <c r="D2150" t="n">
+        <v>37.1500015258789</v>
+      </c>
+      <c r="E2150" t="n">
+        <v>37.1500015258789</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>38</v>
+      </c>
+      <c r="G2150" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.6494907407</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>28359</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>38.2999992370605</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>37.2000007629395</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>38.2000007629395</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>37.3499984741211</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAN.MI.xlsx
+++ b/data/DAN.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8921461105347</t>
+    <t xml:space="preserve">15.8921518325806</t>
   </si>
   <si>
     <t xml:space="preserve">DAN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0230255126953</t>
+    <t xml:space="preserve">16.0230236053467</t>
   </si>
   <si>
     <t xml:space="preserve">15.5182161331177</t>
@@ -53,13 +53,13 @@
     <t xml:space="preserve">14.8170909881592</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4898996353149</t>
+    <t xml:space="preserve">14.4898986816406</t>
   </si>
   <si>
     <t xml:space="preserve">14.2094497680664</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5646848678589</t>
+    <t xml:space="preserve">14.5646858215332</t>
   </si>
   <si>
     <t xml:space="preserve">14.3122825622559</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">13.3587532043457</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0409097671509</t>
+    <t xml:space="preserve">13.0409107208252</t>
   </si>
   <si>
     <t xml:space="preserve">13.1343927383423</t>
@@ -86,49 +86,49 @@
     <t xml:space="preserve">13.3867979049683</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2006435394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.359561920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6400127410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3969593048096</t>
+    <t xml:space="preserve">16.200647354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3595638275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6400146484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3969573974609</t>
   </si>
   <si>
     <t xml:space="preserve">16.6774082183838</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4439678192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9204654693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.770619392395</t>
+    <t xml:space="preserve">17.4439716339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9204635620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7706174850464</t>
   </si>
   <si>
     <t xml:space="preserve">16.4156551361084</t>
   </si>
   <si>
-    <t xml:space="preserve">15.602349281311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2284183502197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2377662658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490936279297</t>
+    <t xml:space="preserve">15.602352142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2284173965454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2377653121948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490917205811</t>
   </si>
   <si>
     <t xml:space="preserve">15.3966884613037</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2938547134399</t>
+    <t xml:space="preserve">15.2938566207886</t>
   </si>
   <si>
     <t xml:space="preserve">16.2193393707275</t>
@@ -137,16 +137,16 @@
     <t xml:space="preserve">16.5465316772461</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0887355804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2476577758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3878765106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2943935394287</t>
+    <t xml:space="preserve">17.0887317657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2476539611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3878784179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2943992614746</t>
   </si>
   <si>
     <t xml:space="preserve">17.032642364502</t>
@@ -155,22 +155,22 @@
     <t xml:space="preserve">16.6680583953857</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6587104797363</t>
+    <t xml:space="preserve">16.658712387085</t>
   </si>
   <si>
     <t xml:space="preserve">17.1541709899902</t>
   </si>
   <si>
-    <t xml:space="preserve">16.957857131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5094108581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.640287399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7057247161865</t>
+    <t xml:space="preserve">16.9578590393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.509407043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6402835845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7057209014893</t>
   </si>
   <si>
     <t xml:space="preserve">17.7711620330811</t>
@@ -179,28 +179,28 @@
     <t xml:space="preserve">16.8550262451172</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5561504364014</t>
+    <t xml:space="preserve">17.55615234375</t>
   </si>
   <si>
     <t xml:space="preserve">17.8552951812744</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2009143829346</t>
+    <t xml:space="preserve">17.2009162902832</t>
   </si>
   <si>
     <t xml:space="preserve">17.593542098999</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7992057800293</t>
+    <t xml:space="preserve">17.7992095947266</t>
   </si>
   <si>
     <t xml:space="preserve">17.3411388397217</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5278339385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8737239837646</t>
+    <t xml:space="preserve">16.5278358459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.873722076416</t>
   </si>
   <si>
     <t xml:space="preserve">17.2663516998291</t>
@@ -209,16 +209,16 @@
     <t xml:space="preserve">17.6215877532959</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8924198150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8456802368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4533195495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9020404815674</t>
+    <t xml:space="preserve">16.8924217224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8456783294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4533214569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9020385742188</t>
   </si>
   <si>
     <t xml:space="preserve">17.9768257141113</t>
@@ -227,13 +227,13 @@
     <t xml:space="preserve">17.7431182861328</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2105350494385</t>
+    <t xml:space="preserve">18.2105312347412</t>
   </si>
   <si>
     <t xml:space="preserve">18.4629364013672</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3694553375244</t>
+    <t xml:space="preserve">18.369457244873</t>
   </si>
   <si>
     <t xml:space="preserve">18.1357460021973</t>
@@ -242,19 +242,19 @@
     <t xml:space="preserve">17.9394302368164</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6966438293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7620830535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7901268005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.444242477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6779479980469</t>
+    <t xml:space="preserve">18.6966457366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7620849609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7901287078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4442405700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6779499053955</t>
   </si>
   <si>
     <t xml:space="preserve">18.3788032531738</t>
@@ -266,67 +266,67 @@
     <t xml:space="preserve">17.8085536956787</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4813671112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8272476196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5000610351562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4065780639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0980834960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1635189056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8830699920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6306648254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4623966217041</t>
+    <t xml:space="preserve">17.4813632965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8272514343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5000591278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4065761566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0980815887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1635208129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8830718994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6306686401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4623947143555</t>
   </si>
   <si>
     <t xml:space="preserve">16.5652275085449</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0700397491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7708892822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7334976196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4810924530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6963748931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.836332321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8176326751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5748500823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3224411010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3691844940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1165084838867</t>
+    <t xml:space="preserve">17.0700378417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7708930969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7334957122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4810905456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6963729858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8363304138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8176345825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5748462677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3224430084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3691825866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1165065765381</t>
   </si>
   <si>
     <t xml:space="preserve">16.153902053833</t>
@@ -335,91 +335,91 @@
     <t xml:space="preserve">15.2471132278442</t>
   </si>
   <si>
-    <t xml:space="preserve">15.050799369812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3592939376831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.630392074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2660808563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2751588821411</t>
+    <t xml:space="preserve">15.0508003234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3592929840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6303939819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2660827636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2751598358154</t>
   </si>
   <si>
     <t xml:space="preserve">14.7329578399658</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1723279953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8077440261841</t>
+    <t xml:space="preserve">15.172327041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8077430725098</t>
   </si>
   <si>
     <t xml:space="preserve">14.9666652679443</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7051839828491</t>
+    <t xml:space="preserve">15.7051801681519</t>
   </si>
   <si>
     <t xml:space="preserve">15.3218994140625</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9105749130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2748889923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5366411209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9386205673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6958341598511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6117010116577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7986640930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5462598800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6210470199585</t>
+    <t xml:space="preserve">14.9105739593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2748899459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.536642074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9386177062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6958351135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6116991043091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7986650466919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5462617874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6210460662842</t>
   </si>
   <si>
     <t xml:space="preserve">15.5930013656616</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6771383285522</t>
+    <t xml:space="preserve">15.6771364212036</t>
   </si>
   <si>
     <t xml:space="preserve">16.4530487060547</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9201936721802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.686484336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4343490600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1352043151855</t>
+    <t xml:space="preserve">15.9201927185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6864852905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4343509674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1352062225342</t>
   </si>
   <si>
     <t xml:space="preserve">16.3876094818115</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4904403686523</t>
+    <t xml:space="preserve">16.4904384613037</t>
   </si>
   <si>
     <t xml:space="preserve">16.3782634735107</t>
@@ -431,70 +431,70 @@
     <t xml:space="preserve">17.4720153808594</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1354732513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9298133850098</t>
+    <t xml:space="preserve">17.13547706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9298114776611</t>
   </si>
   <si>
     <t xml:space="preserve">16.9672050476074</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9487800598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4907131195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3598365783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5281028747559</t>
+    <t xml:space="preserve">17.9487781524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4907112121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3598346710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5281066894531</t>
   </si>
   <si>
     <t xml:space="preserve">17.6683311462402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4063091278076</t>
+    <t xml:space="preserve">16.4063034057617</t>
   </si>
   <si>
     <t xml:space="preserve">16.0884628295898</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0604190826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1258544921875</t>
+    <t xml:space="preserve">16.0604209899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1258563995361</t>
   </si>
   <si>
     <t xml:space="preserve">16.2567329406738</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9388914108276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9669322967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8641014099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7893161773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9108438491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3408699035645</t>
+    <t xml:space="preserve">15.9388904571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9669351577759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8641004562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7893152236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9108467102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3408641815186</t>
   </si>
   <si>
     <t xml:space="preserve">17.0232944488525</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3689117431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8360557556152</t>
+    <t xml:space="preserve">16.3689136505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8360586166382</t>
   </si>
   <si>
     <t xml:space="preserve">15.8454074859619</t>
@@ -503,28 +503,28 @@
     <t xml:space="preserve">16.0043296813965</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6584377288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4527788162231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5280179977417</t>
+    <t xml:space="preserve">15.6584405899048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4527769088745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5280208587646</t>
   </si>
   <si>
     <t xml:space="preserve">15.6032609939575</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8477964401245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9324426651001</t>
+    <t xml:space="preserve">15.8477993011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9324436187744</t>
   </si>
   <si>
     <t xml:space="preserve">16.0923328399658</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8195819854736</t>
+    <t xml:space="preserve">15.8195791244507</t>
   </si>
   <si>
     <t xml:space="preserve">15.2646732330322</t>
@@ -539,25 +539,25 @@
     <t xml:space="preserve">15.7067193984985</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3493204116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0641136169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5343761444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1299533843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6879081726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8007736206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5092096328735</t>
+    <t xml:space="preserve">15.3493213653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.064115524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5343780517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1299514770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6879072189331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8007688522339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5092086791992</t>
   </si>
   <si>
     <t xml:space="preserve">16.0829296112061</t>
@@ -569,109 +569,109 @@
     <t xml:space="preserve">16.0359020233154</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7883186340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3996562957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4749011993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3526344299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4372787475586</t>
+    <t xml:space="preserve">16.7883205413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3996601104736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4748992919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3526306152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4372806549072</t>
   </si>
   <si>
     <t xml:space="preserve">17.2397708892822</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1645259857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6942653656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3056087493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1175022125244</t>
+    <t xml:space="preserve">17.1645278930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6942672729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.305606842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.117504119873</t>
   </si>
   <si>
     <t xml:space="preserve">17.3808498382568</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9639701843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1238613128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1614799499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1050491333008</t>
+    <t xml:space="preserve">17.9639720916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1238594055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1614818572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1050510406494</t>
   </si>
   <si>
     <t xml:space="preserve">18.6599578857422</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1396236419678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1866493225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7979907989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8732299804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3559436798096</t>
+    <t xml:space="preserve">19.1396255493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1866512298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7979869842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.873233795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3559417724609</t>
   </si>
   <si>
     <t xml:space="preserve">19.1490306854248</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7039356231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5722637176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4217777252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.318323135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0925979614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2524852752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.17724609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1678371429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9891414642334</t>
+    <t xml:space="preserve">19.7039394378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.572265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.421781539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3183250427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0925960540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2524871826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1772441864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1678409576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.989143371582</t>
   </si>
   <si>
     <t xml:space="preserve">18.8104400634766</t>
   </si>
   <si>
-    <t xml:space="preserve">18.631742477417</t>
+    <t xml:space="preserve">18.6317405700684</t>
   </si>
   <si>
     <t xml:space="preserve">18.3401794433594</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6881771087646</t>
+    <t xml:space="preserve">18.688175201416</t>
   </si>
   <si>
     <t xml:space="preserve">18.7634162902832</t>
@@ -683,52 +683,52 @@
     <t xml:space="preserve">18.6035270690918</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7163906097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5094776153564</t>
+    <t xml:space="preserve">18.7163887023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5094738006592</t>
   </si>
   <si>
     <t xml:space="preserve">18.5565013885498</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7446060180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8480625152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8574695587158</t>
+    <t xml:space="preserve">18.7446041107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8480644226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8574676513672</t>
   </si>
   <si>
     <t xml:space="preserve">18.9609241485596</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2807025909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6569118499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.327730178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.365348815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.609884262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6945343017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1960525512695</t>
+    <t xml:space="preserve">19.2807006835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6569137573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3277282714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3653507232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6098861694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6945323944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1960563659668</t>
   </si>
   <si>
     <t xml:space="preserve">19.4876174926758</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7509651184082</t>
+    <t xml:space="preserve">19.7509670257568</t>
   </si>
   <si>
     <t xml:space="preserve">19.3371334075928</t>
@@ -740,7 +740,7 @@
     <t xml:space="preserve">19.5910758972168</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2712955474854</t>
+    <t xml:space="preserve">19.271297454834</t>
   </si>
   <si>
     <t xml:space="preserve">19.468807220459</t>
@@ -749,13 +749,13 @@
     <t xml:space="preserve">19.6286964416504</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5252361297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.164794921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2588481903076</t>
+    <t xml:space="preserve">19.5252380371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1647930145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2588500976562</t>
   </si>
   <si>
     <t xml:space="preserve">20.6350555419922</t>
@@ -764,37 +764,37 @@
     <t xml:space="preserve">20.8795890808105</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1147193908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2275829315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2087745666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.399923324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8701858520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.644458770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.503381729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8325634002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9078025817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8607807159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7573223114014</t>
+    <t xml:space="preserve">21.1147232055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2275848388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2087726593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3999252319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8701877593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6444606781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5033798217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8325614929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9078044891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8607788085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7573204040527</t>
   </si>
   <si>
     <t xml:space="preserve">20.7855396270752</t>
@@ -806,61 +806,61 @@
     <t xml:space="preserve">20.7385120391846</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0770969390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1241283416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7102947235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0394802093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9141616821289</t>
+    <t xml:space="preserve">21.0770988464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1241245269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7102966308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0394821166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9141635894775</t>
   </si>
   <si>
     <t xml:space="preserve">21.7636795043945</t>
   </si>
   <si>
-    <t xml:space="preserve">21.632007598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5849838256836</t>
+    <t xml:space="preserve">21.6320056915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5849857330322</t>
   </si>
   <si>
     <t xml:space="preserve">21.3968772888184</t>
   </si>
   <si>
-    <t xml:space="preserve">21.38747215271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1899642944336</t>
+    <t xml:space="preserve">21.3874702453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.189962387085</t>
   </si>
   <si>
     <t xml:space="preserve">21.537956237793</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3686618804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6131954193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.490930557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.898401260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4344997406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2181758880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3780670166016</t>
+    <t xml:space="preserve">21.3686580657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6131992340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4909324645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8984031677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.434497833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2181777954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3780651092529</t>
   </si>
   <si>
     <t xml:space="preserve">21.5191478729248</t>
@@ -872,10 +872,10 @@
     <t xml:space="preserve">21.6037921905518</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5473594665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.199369430542</t>
+    <t xml:space="preserve">21.5473613739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1993675231934</t>
   </si>
   <si>
     <t xml:space="preserve">21.4439029693604</t>
@@ -896,34 +896,34 @@
     <t xml:space="preserve">20.5786228179932</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8889980316162</t>
+    <t xml:space="preserve">20.8889942169189</t>
   </si>
   <si>
     <t xml:space="preserve">20.5315971374512</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2964668273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4657592773438</t>
+    <t xml:space="preserve">20.2964649200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4657611846924</t>
   </si>
   <si>
     <t xml:space="preserve">20.0425243377686</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1553897857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5221900939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5504093170166</t>
+    <t xml:space="preserve">20.155387878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5221920013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.550407409668</t>
   </si>
   <si>
     <t xml:space="preserve">20.804349899292</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6914863586426</t>
+    <t xml:space="preserve">20.6914844512939</t>
   </si>
   <si>
     <t xml:space="preserve">20.20241355896</t>
@@ -932,49 +932,49 @@
     <t xml:space="preserve">20.0801467895508</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1365756988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9672813415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1742000579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3246822357178</t>
+    <t xml:space="preserve">20.1365776062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.96728515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1741981506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3246841430664</t>
   </si>
   <si>
     <t xml:space="preserve">20.2494411468506</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3623027801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.920259475708</t>
+    <t xml:space="preserve">20.3623008728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9202575683594</t>
   </si>
   <si>
     <t xml:space="preserve">20.9266166687012</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4939765930176</t>
+    <t xml:space="preserve">20.4939785003662</t>
   </si>
   <si>
     <t xml:space="preserve">20.2212238311768</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9766883850098</t>
+    <t xml:space="preserve">19.9766864776611</t>
   </si>
   <si>
     <t xml:space="preserve">20.6726741790771</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3811149597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.747917175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.105318069458</t>
+    <t xml:space="preserve">20.3811130523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7479152679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1053161621094</t>
   </si>
   <si>
     <t xml:space="preserve">20.59743309021</t>
@@ -983,16 +983,16 @@
     <t xml:space="preserve">20.8231582641602</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1523418426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4627151489258</t>
+    <t xml:space="preserve">21.1523380279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4627113342285</t>
   </si>
   <si>
     <t xml:space="preserve">20.9830474853516</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7291069030762</t>
+    <t xml:space="preserve">20.7291107177734</t>
   </si>
   <si>
     <t xml:space="preserve">20.5880298614502</t>
@@ -1001,10 +1001,10 @@
     <t xml:space="preserve">20.6256484985352</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1271724700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0895557403564</t>
+    <t xml:space="preserve">20.1271743774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0895519256592</t>
   </si>
   <si>
     <t xml:space="preserve">20.014310836792</t>
@@ -1016,19 +1016,19 @@
     <t xml:space="preserve">20.3434925079346</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7761325836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2400379180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7791786193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4970226287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.01735496521</t>
+    <t xml:space="preserve">20.7761344909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2400341033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7791805267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4970245361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0173568725586</t>
   </si>
   <si>
     <t xml:space="preserve">19.0737895965576</t>
@@ -1037,10 +1037,10 @@
     <t xml:space="preserve">18.8668746948242</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2336750030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9139003753662</t>
+    <t xml:space="preserve">19.233678817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9138984680176</t>
   </si>
   <si>
     <t xml:space="preserve">18.7916316986084</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">18.8950881958008</t>
   </si>
   <si>
-    <t xml:space="preserve">18.669361114502</t>
+    <t xml:space="preserve">18.6693630218506</t>
   </si>
   <si>
     <t xml:space="preserve">19.0455722808838</t>
@@ -1058,19 +1058,19 @@
     <t xml:space="preserve">19.374755859375</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2147750854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1864204406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7611026763916</t>
+    <t xml:space="preserve">19.2147731781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1864185333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7611045837402</t>
   </si>
   <si>
     <t xml:space="preserve">18.5342712402344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.127857208252</t>
+    <t xml:space="preserve">18.1278591156006</t>
   </si>
   <si>
     <t xml:space="preserve">18.0711498260498</t>
@@ -1079,13 +1079,13 @@
     <t xml:space="preserve">17.8632183074951</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8915729522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1656608581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.118408203125</t>
+    <t xml:space="preserve">17.8915748596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1656646728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1184062957764</t>
   </si>
   <si>
     <t xml:space="preserve">18.194019317627</t>
@@ -1094,10 +1094,10 @@
     <t xml:space="preserve">18.4964637756348</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6949462890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8178119659424</t>
+    <t xml:space="preserve">18.6949443817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.817813873291</t>
   </si>
   <si>
     <t xml:space="preserve">18.6382350921631</t>
@@ -1109,25 +1109,25 @@
     <t xml:space="preserve">18.7232971191406</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5909786224365</t>
+    <t xml:space="preserve">18.5909767150879</t>
   </si>
   <si>
     <t xml:space="preserve">18.4492073059082</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9028778076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0068435668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9312324523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9217796325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8461666107178</t>
+    <t xml:space="preserve">18.9028759002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0068397521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9312305450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.921781539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8461685180664</t>
   </si>
   <si>
     <t xml:space="preserve">18.5815277099609</t>
@@ -1142,28 +1142,28 @@
     <t xml:space="preserve">18.713846206665</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7043972015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8934230804443</t>
+    <t xml:space="preserve">18.7043991088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8934268951416</t>
   </si>
   <si>
     <t xml:space="preserve">18.9406814575195</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8272666931152</t>
+    <t xml:space="preserve">18.8272647857666</t>
   </si>
   <si>
     <t xml:space="preserve">18.6193351745605</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7327499389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1391639709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4227046966553</t>
+    <t xml:space="preserve">18.7327518463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1391620635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4227066040039</t>
   </si>
   <si>
     <t xml:space="preserve">19.7062492370605</t>
@@ -1172,37 +1172,37 @@
     <t xml:space="preserve">19.9897899627686</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7931652069092</t>
+    <t xml:space="preserve">20.7931632995605</t>
   </si>
   <si>
     <t xml:space="preserve">21.5492782592773</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8328227996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7855625152588</t>
+    <t xml:space="preserve">21.832820892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7855644226074</t>
   </si>
   <si>
     <t xml:space="preserve">21.6437931060791</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8800792694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7383079528809</t>
+    <t xml:space="preserve">21.8800773620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7383060455322</t>
   </si>
   <si>
     <t xml:space="preserve">22.0218486785889</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0691070556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2657337188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6986484527588</t>
+    <t xml:space="preserve">22.0691089630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2657356262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6986465454102</t>
   </si>
   <si>
     <t xml:space="preserve">21.3129920959473</t>
@@ -1214,7 +1214,7 @@
     <t xml:space="preserve">21.0294494628906</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9821910858154</t>
+    <t xml:space="preserve">20.9821929931641</t>
   </si>
   <si>
     <t xml:space="preserve">21.3602504730225</t>
@@ -1223,16 +1223,16 @@
     <t xml:space="preserve">21.4547653198242</t>
   </si>
   <si>
-    <t xml:space="preserve">21.407506942749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.123966217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9349365234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9745922088623</t>
+    <t xml:space="preserve">21.4075088500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1239624023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9349346160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9745941162109</t>
   </si>
   <si>
     <t xml:space="preserve">22.4944190979004</t>
@@ -1244,25 +1244,25 @@
     <t xml:space="preserve">22.3526515960693</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2581348419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0767078399658</t>
+    <t xml:space="preserve">22.2581367492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0767059326172</t>
   </si>
   <si>
     <t xml:space="preserve">21.5020217895508</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5568771362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4623641967773</t>
+    <t xml:space="preserve">20.5568790435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4623622894287</t>
   </si>
   <si>
     <t xml:space="preserve">21.1712207794189</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8404216766357</t>
+    <t xml:space="preserve">20.8404197692871</t>
   </si>
   <si>
     <t xml:space="preserve">21.2184791564941</t>
@@ -1274,28 +1274,31 @@
     <t xml:space="preserve">20.6513919830322</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7459049224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3678493499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2809314727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3754463195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5644779205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0370464324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8480205535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6041355133057</t>
+    <t xml:space="preserve">20.745906829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.367847442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2336769104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.280933380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3754482269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5644760131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0370483398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8480224609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.604133605957</t>
   </si>
   <si>
     <t xml:space="preserve">20.5096206665039</t>
@@ -1310,28 +1313,28 @@
     <t xml:space="preserve">20.2733345031738</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1315650939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1788196563721</t>
+    <t xml:space="preserve">20.1315612792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1788215637207</t>
   </si>
   <si>
     <t xml:space="preserve">19.6589908599854</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8007640838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7535037994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8952770233154</t>
+    <t xml:space="preserve">19.8007659912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7535076141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8952732086182</t>
   </si>
   <si>
     <t xml:space="preserve">19.942533493042</t>
   </si>
   <si>
-    <t xml:space="preserve">19.517219543457</t>
+    <t xml:space="preserve">19.5172176361084</t>
   </si>
   <si>
     <t xml:space="preserve">19.4699611663818</t>
@@ -1343,94 +1346,94 @@
     <t xml:space="preserve">20.0843048095703</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6910495758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.320592880249</t>
+    <t xml:space="preserve">21.6910533905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3205890655518</t>
   </si>
   <si>
     <t xml:space="preserve">17.9388294219971</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5003566741943</t>
+    <t xml:space="preserve">15.5003576278687</t>
   </si>
   <si>
     <t xml:space="preserve">15.8973178863525</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9521741867065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6497287750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9899797439575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5948715209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8217077255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.199764251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7271938323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5192613601685</t>
+    <t xml:space="preserve">14.9521751403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6497278213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9899806976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5948724746704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8217058181763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1997623443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7271919250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5192623138428</t>
   </si>
   <si>
     <t xml:space="preserve">15.6515808105469</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0674438476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.99183177948</t>
+    <t xml:space="preserve">16.0674476623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9918327331543</t>
   </si>
   <si>
     <t xml:space="preserve">15.8595132827759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7839031219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5759706497192</t>
+    <t xml:space="preserve">15.7839012145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5759696960449</t>
   </si>
   <si>
     <t xml:space="preserve">15.1979122161865</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0457429885864</t>
+    <t xml:space="preserve">15.0457439422607</t>
   </si>
   <si>
     <t xml:space="preserve">14.760425567627</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5892362594604</t>
+    <t xml:space="preserve">14.5892343521118</t>
   </si>
   <si>
     <t xml:space="preserve">14.6272773742676</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1028070449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1218271255493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8365106582642</t>
+    <t xml:space="preserve">15.1028060913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1218280792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8365116119385</t>
   </si>
   <si>
     <t xml:space="preserve">15.3310623168945</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6353998184204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4642105102539</t>
+    <t xml:space="preserve">15.6354007720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4642095565796</t>
   </si>
   <si>
     <t xml:space="preserve">14.2468538284302</t>
@@ -1448,7 +1451,7 @@
     <t xml:space="preserve">14.5131511688232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3419589996338</t>
+    <t xml:space="preserve">14.3419599533081</t>
   </si>
   <si>
     <t xml:space="preserve">14.3229398727417</t>
@@ -1460,10 +1463,10 @@
     <t xml:space="preserve">14.1327266693115</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8093681335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7903461456299</t>
+    <t xml:space="preserve">13.8093671798706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7903451919556</t>
   </si>
   <si>
     <t xml:space="preserve">13.961537361145</t>
@@ -1478,22 +1481,22 @@
     <t xml:space="preserve">14.7033624649048</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9316158294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4071464538574</t>
+    <t xml:space="preserve">14.9316167831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4071474075317</t>
   </si>
   <si>
     <t xml:space="preserve">15.3120403289795</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2169342041016</t>
+    <t xml:space="preserve">15.2169332504272</t>
   </si>
   <si>
     <t xml:space="preserve">15.2549772262573</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0837841033936</t>
+    <t xml:space="preserve">15.0837850570679</t>
   </si>
   <si>
     <t xml:space="preserve">15.2930183410645</t>
@@ -1502,19 +1505,19 @@
     <t xml:space="preserve">15.3500823974609</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3881254196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7305059432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1679916381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0239448547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1000289916992</t>
+    <t xml:space="preserve">15.3881235122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.730507850647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.167989730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0239429473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1000308990479</t>
   </si>
   <si>
     <t xml:space="preserve">17.1190509796143</t>
@@ -1523,31 +1526,31 @@
     <t xml:space="preserve">16.7005844116211</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6245021820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4723300933838</t>
+    <t xml:space="preserve">16.6245002746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4723320007324</t>
   </si>
   <si>
     <t xml:space="preserve">16.5674381256104</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1870136260986</t>
+    <t xml:space="preserve">16.18701171875</t>
   </si>
   <si>
     <t xml:space="preserve">16.072883605957</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0158195495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.339183807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3582038879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4533081054688</t>
+    <t xml:space="preserve">16.0158233642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3391819000244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3582019805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4533100128174</t>
   </si>
   <si>
     <t xml:space="preserve">16.8337345123291</t>
@@ -1556,7 +1559,7 @@
     <t xml:space="preserve">16.7196063995361</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4913520812988</t>
+    <t xml:space="preserve">16.4913501739502</t>
   </si>
   <si>
     <t xml:space="preserve">16.6435203552246</t>
@@ -1568,7 +1571,7 @@
     <t xml:space="preserve">16.4342880249023</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8147106170654</t>
+    <t xml:space="preserve">16.8147125244141</t>
   </si>
   <si>
     <t xml:space="preserve">16.9288387298584</t>
@@ -1577,13 +1580,13 @@
     <t xml:space="preserve">16.6815662384033</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5293922424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0538654327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1489696502686</t>
+    <t xml:space="preserve">16.5293960571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0538635253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1489715576172</t>
   </si>
   <si>
     <t xml:space="preserve">16.1299476623535</t>
@@ -1604,13 +1607,13 @@
     <t xml:space="preserve">16.7386283874512</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9859027862549</t>
+    <t xml:space="preserve">16.9859046936035</t>
   </si>
   <si>
     <t xml:space="preserve">17.1570949554443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6896839141846</t>
+    <t xml:space="preserve">17.6896858215332</t>
   </si>
   <si>
     <t xml:space="preserve">18.5075950622559</t>
@@ -1628,19 +1631,19 @@
     <t xml:space="preserve">17.7467479705811</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3473052978516</t>
+    <t xml:space="preserve">17.3473033905029</t>
   </si>
   <si>
     <t xml:space="preserve">17.2141571044922</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1951351165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9478607177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8527545928955</t>
+    <t xml:space="preserve">17.1951332092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9478588104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8527526855469</t>
   </si>
   <si>
     <t xml:space="preserve">17.1761131286621</t>
@@ -1649,43 +1652,43 @@
     <t xml:space="preserve">17.0429668426514</t>
   </si>
   <si>
-    <t xml:space="preserve">17.27121925354</t>
+    <t xml:space="preserve">17.2712173461914</t>
   </si>
   <si>
     <t xml:space="preserve">17.3663272857666</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4424114227295</t>
+    <t xml:space="preserve">17.4424095153809</t>
   </si>
   <si>
     <t xml:space="preserve">16.9668807983398</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4152679443359</t>
+    <t xml:space="preserve">16.4152698516846</t>
   </si>
   <si>
     <t xml:space="preserve">15.6924619674683</t>
   </si>
   <si>
-    <t xml:space="preserve">15.711483001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6544189453125</t>
+    <t xml:space="preserve">15.7114839553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6544179916382</t>
   </si>
   <si>
     <t xml:space="preserve">15.3691024780273</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8745536804199</t>
+    <t xml:space="preserve">14.8745527267456</t>
   </si>
   <si>
     <t xml:space="preserve">14.9886808395386</t>
   </si>
   <si>
-    <t xml:space="preserve">15.273998260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9506378173828</t>
+    <t xml:space="preserve">15.2739973068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9506368637085</t>
   </si>
   <si>
     <t xml:space="preserve">15.1598691940308</t>
@@ -1694,10 +1697,10 @@
     <t xml:space="preserve">15.0267219543457</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6843395233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8555307388306</t>
+    <t xml:space="preserve">14.6843404769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8555316925049</t>
   </si>
   <si>
     <t xml:space="preserve">14.5511932373047</t>
@@ -1709,13 +1712,13 @@
     <t xml:space="preserve">14.7414035797119</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6462993621826</t>
+    <t xml:space="preserve">14.6462984085083</t>
   </si>
   <si>
     <t xml:space="preserve">14.8174886703491</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7685470581055</t>
+    <t xml:space="preserve">15.7685480117798</t>
   </si>
   <si>
     <t xml:space="preserve">15.5973558425903</t>
@@ -1727,31 +1730,28 @@
     <t xml:space="preserve">15.8636531829834</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4261674880981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1979112625122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7875690460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6163787841797</t>
+    <t xml:space="preserve">15.4261665344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7875699996948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6163778305054</t>
   </si>
   <si>
     <t xml:space="preserve">15.5212717056274</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2359561920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0647649765015</t>
+    <t xml:space="preserve">15.235954284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0647640228271</t>
   </si>
   <si>
     <t xml:space="preserve">14.7223825454712</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9696569442749</t>
+    <t xml:space="preserve">14.9696578979492</t>
   </si>
   <si>
     <t xml:space="preserve">14.7984685897827</t>
@@ -1760,28 +1760,28 @@
     <t xml:space="preserve">14.4751091003418</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4560861587524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2658748626709</t>
+    <t xml:space="preserve">14.4560871124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2658758163452</t>
   </si>
   <si>
     <t xml:space="preserve">14.0756635665894</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9425144195557</t>
+    <t xml:space="preserve">13.94251537323</t>
   </si>
   <si>
     <t xml:space="preserve">14.6082563400269</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4370670318604</t>
+    <t xml:space="preserve">14.437066078186</t>
   </si>
   <si>
     <t xml:space="preserve">13.9805574417114</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0186004638672</t>
+    <t xml:space="preserve">14.0185995101929</t>
   </si>
   <si>
     <t xml:space="preserve">14.2088108062744</t>
@@ -1790,19 +1790,19 @@
     <t xml:space="preserve">14.1137056350708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.418044090271</t>
+    <t xml:space="preserve">14.4180450439453</t>
   </si>
   <si>
     <t xml:space="preserve">14.189790725708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7794466018677</t>
+    <t xml:space="preserve">14.779447555542</t>
   </si>
   <si>
     <t xml:space="preserve">14.170768737793</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5593147277832</t>
+    <t xml:space="preserve">15.5593156814575</t>
   </si>
   <si>
     <t xml:space="preserve">14.3609828948975</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">14.665319442749</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1788911819458</t>
+    <t xml:space="preserve">15.1788902282715</t>
   </si>
   <si>
     <t xml:space="preserve">15.483229637146</t>
@@ -1823,10 +1823,10 @@
     <t xml:space="preserve">15.2640380859375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2448387145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0912389755249</t>
+    <t xml:space="preserve">15.2448396682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0912380218506</t>
   </si>
   <si>
     <t xml:space="preserve">14.9952383041382</t>
@@ -1835,55 +1835,55 @@
     <t xml:space="preserve">15.0720376968384</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5712404251099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8784418106079</t>
+    <t xml:space="preserve">15.5712394714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8784437179565</t>
   </si>
   <si>
     <t xml:space="preserve">16.6656436920166</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5312404632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8976402282715</t>
+    <t xml:space="preserve">16.5312423706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8976392745972</t>
   </si>
   <si>
     <t xml:space="preserve">15.8592395782471</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7248392105103</t>
+    <t xml:space="preserve">15.7248401641846</t>
   </si>
   <si>
     <t xml:space="preserve">15.7440395355225</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6480398178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9552412033081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9936408996582</t>
+    <t xml:space="preserve">15.6480388641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9552402496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9936418533325</t>
   </si>
   <si>
     <t xml:space="preserve">16.3776397705078</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9168405532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8016395568848</t>
+    <t xml:space="preserve">15.9168386459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8016376495361</t>
   </si>
   <si>
     <t xml:space="preserve">15.8400392532349</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2432403564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1856441497803</t>
+    <t xml:space="preserve">16.2432422637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1856422424316</t>
   </si>
   <si>
     <t xml:space="preserve">15.6096410751343</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">15.6288394927979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7824411392212</t>
+    <t xml:space="preserve">15.7824420928955</t>
   </si>
   <si>
     <t xml:space="preserve">15.4368391036987</t>
@@ -1907,13 +1907,13 @@
     <t xml:space="preserve">15.3024377822876</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1680393218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3984403610229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9376392364502</t>
+    <t xml:space="preserve">15.1680383682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3984413146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9376382827759</t>
   </si>
   <si>
     <t xml:space="preserve">15.1296396255493</t>
@@ -1922,13 +1922,13 @@
     <t xml:space="preserve">14.6880378723145</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2080364227295</t>
+    <t xml:space="preserve">14.2080354690552</t>
   </si>
   <si>
     <t xml:space="preserve">14.1120357513428</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4000358581543</t>
+    <t xml:space="preserve">14.4000368118286</t>
   </si>
   <si>
     <t xml:space="preserve">14.7840375900269</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">14.7648372650146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5728378295898</t>
+    <t xml:space="preserve">14.5728368759155</t>
   </si>
   <si>
     <t xml:space="preserve">14.6112375259399</t>
@@ -1952,10 +1952,10 @@
     <t xml:space="preserve">14.5152368545532</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4576377868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2272367477417</t>
+    <t xml:space="preserve">14.4576368331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2272357940674</t>
   </si>
   <si>
     <t xml:space="preserve">13.862434387207</t>
@@ -1967,19 +1967,19 @@
     <t xml:space="preserve">13.1712341308594</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5360345840454</t>
+    <t xml:space="preserve">13.5360355377197</t>
   </si>
   <si>
     <t xml:space="preserve">13.2480344772339</t>
   </si>
   <si>
-    <t xml:space="preserve">12.960033416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5760326385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3264322280884</t>
+    <t xml:space="preserve">12.9600324630737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5760316848755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3264312744141</t>
   </si>
   <si>
     <t xml:space="preserve">12.0960311889648</t>
@@ -1994,19 +1994,19 @@
     <t xml:space="preserve">10.2528266906738</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0800266265869</t>
+    <t xml:space="preserve">10.0800256729126</t>
   </si>
   <si>
     <t xml:space="preserve">9.71522521972656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02402210235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5328254699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19842052459717</t>
+    <t xml:space="preserve">9.02402305603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53282451629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19842147827148</t>
   </si>
   <si>
     <t xml:space="preserve">8.65922355651855</t>
@@ -2015,25 +2015,25 @@
     <t xml:space="preserve">9.21602439880371</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2912254333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8864288330078</t>
+    <t xml:space="preserve">10.2912273406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8864278793335</t>
   </si>
   <si>
     <t xml:space="preserve">12.0768308639526</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0560331344604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7504291534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0976285934448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0592279434204</t>
+    <t xml:space="preserve">13.0560340881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7504301071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0976295471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0592288970947</t>
   </si>
   <si>
     <t xml:space="preserve">10.7712268829346</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">10.8672275543213</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2512283325195</t>
+    <t xml:space="preserve">11.2512292861938</t>
   </si>
   <si>
     <t xml:space="preserve">11.0400285720825</t>
@@ -2060,7 +2060,7 @@
     <t xml:space="preserve">10.7136278152466</t>
   </si>
   <si>
-    <t xml:space="preserve">10.329626083374</t>
+    <t xml:space="preserve">10.3296270370483</t>
   </si>
   <si>
     <t xml:space="preserve">10.0032262802124</t>
@@ -2069,19 +2069,19 @@
     <t xml:space="preserve">10.3488264083862</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6368274688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5600280761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9056272506714</t>
+    <t xml:space="preserve">10.6368265151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5600261688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9056282043457</t>
   </si>
   <si>
     <t xml:space="preserve">10.8480281829834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8288278579712</t>
+    <t xml:space="preserve">10.8288269042969</t>
   </si>
   <si>
     <t xml:space="preserve">10.9440269470215</t>
@@ -2090,25 +2090,25 @@
     <t xml:space="preserve">10.963228225708</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6752281188965</t>
+    <t xml:space="preserve">10.6752271652222</t>
   </si>
   <si>
     <t xml:space="preserve">11.1360282897949</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0784273147583</t>
+    <t xml:space="preserve">11.0784282684326</t>
   </si>
   <si>
     <t xml:space="preserve">11.6352291107178</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7120294570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1936292648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5584287643433</t>
+    <t xml:space="preserve">11.7120304107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1936283111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5584297180176</t>
   </si>
   <si>
     <t xml:space="preserve">11.6544303894043</t>
@@ -2123,22 +2123,22 @@
     <t xml:space="preserve">12.441632270813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3648319244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2496318817139</t>
+    <t xml:space="preserve">12.3648309707642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2496309280396</t>
   </si>
   <si>
     <t xml:space="preserve">12.0000314712524</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3664302825928</t>
+    <t xml:space="preserve">11.3664293289185</t>
   </si>
   <si>
     <t xml:space="preserve">11.1552286148071</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3280296325684</t>
+    <t xml:space="preserve">11.328028678894</t>
   </si>
   <si>
     <t xml:space="preserve">11.2320289611816</t>
@@ -2150,10 +2150,10 @@
     <t xml:space="preserve">10.9248275756836</t>
   </si>
   <si>
-    <t xml:space="preserve">10.809627532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5408267974854</t>
+    <t xml:space="preserve">10.8096284866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5408277511597</t>
   </si>
   <si>
     <t xml:space="preserve">10.5792264938354</t>
@@ -2165,7 +2165,7 @@
     <t xml:space="preserve">11.3472290039062</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4816293716431</t>
+    <t xml:space="preserve">11.4816284179688</t>
   </si>
   <si>
     <t xml:space="preserve">11.4240283966064</t>
@@ -2180,37 +2180,37 @@
     <t xml:space="preserve">10.7328271865845</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5024261474609</t>
+    <t xml:space="preserve">10.5024271011353</t>
   </si>
   <si>
     <t xml:space="preserve">10.5984268188477</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7888298034668</t>
+    <t xml:space="preserve">11.7888307571411</t>
   </si>
   <si>
     <t xml:space="preserve">11.5776300430298</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8272294998169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6736297607422</t>
+    <t xml:space="preserve">11.8272285461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6736288070679</t>
   </si>
   <si>
     <t xml:space="preserve">11.7696304321289</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6928291320801</t>
+    <t xml:space="preserve">11.6928300857544</t>
   </si>
   <si>
     <t xml:space="preserve">11.8080310821533</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8848304748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3840303421021</t>
+    <t xml:space="preserve">11.8848295211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3840312957764</t>
   </si>
   <si>
     <t xml:space="preserve">12.2880325317383</t>
@@ -2243,10 +2243,10 @@
     <t xml:space="preserve">13.5552349090576</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0352363586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7664346694946</t>
+    <t xml:space="preserve">14.0352354049683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7664356231689</t>
   </si>
   <si>
     <t xml:space="preserve">13.4016351699829</t>
@@ -2258,10 +2258,10 @@
     <t xml:space="preserve">13.6320343017578</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2672338485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.497633934021</t>
+    <t xml:space="preserve">13.2672328948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4976348876953</t>
   </si>
   <si>
     <t xml:space="preserve">14.3040361404419</t>
@@ -2270,7 +2270,7 @@
     <t xml:space="preserve">13.9008350372314</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5744352340698</t>
+    <t xml:space="preserve">13.5744342803955</t>
   </si>
   <si>
     <t xml:space="preserve">13.286434173584</t>
@@ -2279,49 +2279,49 @@
     <t xml:space="preserve">13.65123462677</t>
   </si>
   <si>
-    <t xml:space="preserve">13.344033241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.172830581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2112321853638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4800329208374</t>
+    <t xml:space="preserve">13.3440341949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1728315353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2112312316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4800319671631</t>
   </si>
   <si>
     <t xml:space="preserve">12.5952320098877</t>
   </si>
   <si>
-    <t xml:space="preserve">13.017632484436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9792327880859</t>
+    <t xml:space="preserve">13.0176334381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9792337417603</t>
   </si>
   <si>
     <t xml:space="preserve">13.2096338272095</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4784345626831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6128349304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7280359268188</t>
+    <t xml:space="preserve">13.4784336090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6128358840942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7280349731445</t>
   </si>
   <si>
     <t xml:space="preserve">13.7879419326782</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8073348999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5746259689331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6134119033813</t>
+    <t xml:space="preserve">13.807333946228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5746269226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.613410949707</t>
   </si>
   <si>
     <t xml:space="preserve">13.4776649475098</t>
@@ -2330,16 +2330,16 @@
     <t xml:space="preserve">13.6715888977051</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0206508636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0594339370728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9236869812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3503198623657</t>
+    <t xml:space="preserve">14.0206499099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0594348907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9236879348755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3503189086914</t>
   </si>
   <si>
     <t xml:space="preserve">14.3309268951416</t>
@@ -2351,7 +2351,7 @@
     <t xml:space="preserve">14.1563968658447</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8655128479004</t>
+    <t xml:space="preserve">13.8655118942261</t>
   </si>
   <si>
     <t xml:space="preserve">13.6328039169312</t>
@@ -2381,19 +2381,19 @@
     <t xml:space="preserve">14.5248498916626</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8933048248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8157358169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1841888427734</t>
+    <t xml:space="preserve">14.8933038711548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8157348632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1841897964478</t>
   </si>
   <si>
     <t xml:space="preserve">15.2229738235474</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6967887878418</t>
+    <t xml:space="preserve">16.6967906951904</t>
   </si>
   <si>
     <t xml:space="preserve">16.5416507720947</t>
@@ -2402,16 +2402,16 @@
     <t xml:space="preserve">16.3865127563477</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0180606842041</t>
+    <t xml:space="preserve">16.0180587768555</t>
   </si>
   <si>
     <t xml:space="preserve">16.1538066864014</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9986667633057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8047437667847</t>
+    <t xml:space="preserve">15.9986658096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8047428131104</t>
   </si>
   <si>
     <t xml:space="preserve">15.513858795166</t>
@@ -2426,7 +2426,7 @@
     <t xml:space="preserve">15.6302137374878</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9210977554321</t>
+    <t xml:space="preserve">15.9210987091064</t>
   </si>
   <si>
     <t xml:space="preserve">16.0568428039551</t>
@@ -2435,19 +2435,19 @@
     <t xml:space="preserve">16.4640827178955</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8131446838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9876766204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8907127380371</t>
+    <t xml:space="preserve">16.8131427764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9876747131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8907146453857</t>
   </si>
   <si>
     <t xml:space="preserve">16.8519287109375</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9294986724854</t>
+    <t xml:space="preserve">16.9294967651367</t>
   </si>
   <si>
     <t xml:space="preserve">16.9101066589355</t>
@@ -2459,7 +2459,7 @@
     <t xml:space="preserve">17.356128692627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.414306640625</t>
+    <t xml:space="preserve">17.4143047332764</t>
   </si>
   <si>
     <t xml:space="preserve">17.2009906768799</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">16.638614654541</t>
   </si>
   <si>
-    <t xml:space="preserve">17.123420715332</t>
+    <t xml:space="preserve">17.1234226226807</t>
   </si>
   <si>
     <t xml:space="preserve">16.8713207244873</t>
@@ -2483,28 +2483,28 @@
     <t xml:space="preserve">17.1428146362305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0652446746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1900024414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3063507080078</t>
+    <t xml:space="preserve">17.0652465820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1900005340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3063526153564</t>
   </si>
   <si>
     <t xml:space="preserve">18.5390625</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8771305084229</t>
+    <t xml:space="preserve">19.8771324157715</t>
   </si>
   <si>
     <t xml:space="preserve">20.1680164337158</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5558624267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.022575378418</t>
+    <t xml:space="preserve">20.5558643341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0225734710693</t>
   </si>
   <si>
     <t xml:space="preserve">20.9921913146973</t>
@@ -2513,13 +2513,13 @@
     <t xml:space="preserve">20.7497863769531</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3619384765625</t>
+    <t xml:space="preserve">20.3619403839111</t>
   </si>
   <si>
     <t xml:space="preserve">20.2164974212646</t>
   </si>
   <si>
-    <t xml:space="preserve">20.119535446167</t>
+    <t xml:space="preserve">20.1195373535156</t>
   </si>
   <si>
     <t xml:space="preserve">20.2649784088135</t>
@@ -2531,7 +2531,7 @@
     <t xml:space="preserve">20.798267364502</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8952293395996</t>
+    <t xml:space="preserve">20.895227432251</t>
   </si>
   <si>
     <t xml:space="preserve">21.2345943450928</t>
@@ -2540,16 +2540,16 @@
     <t xml:space="preserve">21.1376323699951</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6043434143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3134574890137</t>
+    <t xml:space="preserve">20.6043453216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3134593963623</t>
   </si>
   <si>
     <t xml:space="preserve">21.1861133575439</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9740943908691</t>
+    <t xml:space="preserve">19.9740924835205</t>
   </si>
   <si>
     <t xml:space="preserve">19.731689453125</t>
@@ -2564,7 +2564,7 @@
     <t xml:space="preserve">20.0710544586182</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3923225402832</t>
+    <t xml:space="preserve">19.3923244476318</t>
   </si>
   <si>
     <t xml:space="preserve">20.5073833465576</t>
@@ -2573,7 +2573,7 @@
     <t xml:space="preserve">20.7013053894043</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4589023590088</t>
+    <t xml:space="preserve">20.4589004516602</t>
   </si>
   <si>
     <t xml:space="preserve">21.3800373077393</t>
@@ -2612,10 +2612,10 @@
     <t xml:space="preserve">21.7194023132324</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5920543670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0768623352051</t>
+    <t xml:space="preserve">22.5920562744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0768642425537</t>
   </si>
   <si>
     <t xml:space="preserve">23.6101551055908</t>
@@ -2636,31 +2636,31 @@
     <t xml:space="preserve">21.6709213256836</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0891513824463</t>
+    <t xml:space="preserve">21.0891532897949</t>
   </si>
   <si>
     <t xml:space="preserve">21.0406723022461</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2042102813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8221740722656</t>
+    <t xml:space="preserve">22.2042121887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8221759796143</t>
   </si>
   <si>
     <t xml:space="preserve">24.240406036377</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7555980682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7071170806885</t>
+    <t xml:space="preserve">23.7555961608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7071151733398</t>
   </si>
   <si>
     <t xml:space="preserve">23.4647121429443</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5616703033447</t>
+    <t xml:space="preserve">23.5616722106934</t>
   </si>
   <si>
     <t xml:space="preserve">23.8040752410889</t>
@@ -2672,7 +2672,7 @@
     <t xml:space="preserve">24.046480178833</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9010372161865</t>
+    <t xml:space="preserve">23.9010391235352</t>
   </si>
   <si>
     <t xml:space="preserve">23.3677501678467</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">23.3192672729492</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8525581359863</t>
+    <t xml:space="preserve">23.852560043335</t>
   </si>
   <si>
     <t xml:space="preserve">23.1253471374512</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">22.882942199707</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5435771942139</t>
+    <t xml:space="preserve">22.5435752868652</t>
   </si>
   <si>
     <t xml:space="preserve">21.8648433685303</t>
@@ -2711,22 +2711,22 @@
     <t xml:space="preserve">22.4466152191162</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5312900543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1919250488281</t>
+    <t xml:space="preserve">24.5312881469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1919231414795</t>
   </si>
   <si>
     <t xml:space="preserve">24.7736930847168</t>
   </si>
   <si>
-    <t xml:space="preserve">24.337366104126</t>
+    <t xml:space="preserve">24.3373680114746</t>
   </si>
   <si>
     <t xml:space="preserve">24.1434421539307</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7917900085449</t>
+    <t xml:space="preserve">25.7917919158936</t>
   </si>
   <si>
     <t xml:space="preserve">26.0826740264893</t>
@@ -2741,7 +2741,7 @@
     <t xml:space="preserve">26.1311569213867</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2765998840332</t>
+    <t xml:space="preserve">26.2765979766846</t>
   </si>
   <si>
     <t xml:space="preserve">25.9857139587402</t>
@@ -2756,43 +2756,43 @@
     <t xml:space="preserve">27.8279857635498</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7310256958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6825408935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2158317565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8460807800293</t>
+    <t xml:space="preserve">27.7310237884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6825428009033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2158298492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8460826873779</t>
   </si>
   <si>
     <t xml:space="preserve">28.3127937316895</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6521587371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1188678741455</t>
+    <t xml:space="preserve">28.652156829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1188697814941</t>
   </si>
   <si>
     <t xml:space="preserve">27.9734268188477</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0703887939453</t>
+    <t xml:space="preserve">28.0703907012939</t>
   </si>
   <si>
     <t xml:space="preserve">27.87646484375</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5855808258057</t>
+    <t xml:space="preserve">27.5855827331543</t>
   </si>
   <si>
     <t xml:space="preserve">27.2946949005127</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4886207580566</t>
+    <t xml:space="preserve">27.488618850708</t>
   </si>
   <si>
     <t xml:space="preserve">27.3916568756104</t>
@@ -20212,7 +20212,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G614" t="s">
-        <v>341</v>
+        <v>422</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20290,7 +20290,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G617" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20316,7 +20316,7 @@
         <v>20.5</v>
       </c>
       <c r="G618" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20342,7 +20342,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G619" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20368,7 +20368,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G620" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20394,7 +20394,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G621" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20420,7 +20420,7 @@
         <v>21</v>
       </c>
       <c r="G622" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20498,7 +20498,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G625" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20550,7 +20550,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G627" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20602,7 +20602,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G629" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20628,7 +20628,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G630" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20680,7 +20680,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G632" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20706,7 +20706,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G633" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -20732,7 +20732,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G634" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20784,7 +20784,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G636" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -20810,7 +20810,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G637" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -20836,7 +20836,7 @@
         <v>21</v>
       </c>
       <c r="G638" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20862,7 +20862,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G639" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20914,7 +20914,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G641" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -20940,7 +20940,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G642" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -20992,7 +20992,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G644" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21018,7 +21018,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G645" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21200,7 +21200,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G652" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21226,7 +21226,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G653" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21252,7 +21252,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G654" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21278,7 +21278,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G655" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21304,7 +21304,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G656" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21356,7 +21356,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G658" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21382,7 +21382,7 @@
         <v>21</v>
       </c>
       <c r="G659" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21434,7 +21434,7 @@
         <v>21</v>
       </c>
       <c r="G661" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21460,7 +21460,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G662" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21486,7 +21486,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G663" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21538,7 +21538,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G665" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21616,7 +21616,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G668" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21642,7 +21642,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G669" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -21668,7 +21668,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G670" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -21720,7 +21720,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G672" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -21746,7 +21746,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G673" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -21772,7 +21772,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G674" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -21798,7 +21798,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -21824,7 +21824,7 @@
         <v>20.75</v>
       </c>
       <c r="G676" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21850,7 +21850,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G677" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -21876,7 +21876,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G678" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21902,7 +21902,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G679" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -21928,7 +21928,7 @@
         <v>21.25</v>
       </c>
       <c r="G680" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -21954,7 +21954,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G681" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -21980,7 +21980,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G682" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22006,7 +22006,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G683" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22474,7 +22474,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G701" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -22630,7 +22630,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G707" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -22656,7 +22656,7 @@
         <v>21.5</v>
       </c>
       <c r="G708" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -22682,7 +22682,7 @@
         <v>21.5</v>
       </c>
       <c r="G709" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -22708,7 +22708,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G710" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -22734,7 +22734,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G711" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -22760,7 +22760,7 @@
         <v>21</v>
       </c>
       <c r="G712" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -22786,7 +22786,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G713" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -22812,7 +22812,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G714" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -22838,7 +22838,7 @@
         <v>21</v>
       </c>
       <c r="G715" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -22864,7 +22864,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G716" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -22890,7 +22890,7 @@
         <v>20.75</v>
       </c>
       <c r="G717" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -22916,7 +22916,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G718" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -22942,7 +22942,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G719" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -22968,7 +22968,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G720" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -22994,7 +22994,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G721" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23020,7 +23020,7 @@
         <v>15.5</v>
       </c>
       <c r="G722" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23046,7 +23046,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G723" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23072,7 +23072,7 @@
         <v>16.5</v>
       </c>
       <c r="G724" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23098,7 +23098,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G725" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23124,7 +23124,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G726" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23150,7 +23150,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G727" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23176,7 +23176,7 @@
         <v>16.4200000762939</v>
       </c>
       <c r="G728" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23202,7 +23202,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G729" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23228,7 +23228,7 @@
         <v>17</v>
       </c>
       <c r="G730" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23254,7 +23254,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G731" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23280,7 +23280,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G732" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23306,7 +23306,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G733" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -23332,7 +23332,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G734" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -23358,7 +23358,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G735" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -23384,7 +23384,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G736" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -23410,7 +23410,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G737" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -23436,7 +23436,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G738" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -23462,7 +23462,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G739" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -23488,7 +23488,7 @@
         <v>15.3800001144409</v>
       </c>
       <c r="G740" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -23514,7 +23514,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G741" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23540,7 +23540,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G742" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23566,7 +23566,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G743" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23592,7 +23592,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G744" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -23618,7 +23618,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G745" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -23644,7 +23644,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G746" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -23670,7 +23670,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G747" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -23696,7 +23696,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G748" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -23722,7 +23722,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G749" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -23748,7 +23748,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G750" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -23774,7 +23774,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G751" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -23800,7 +23800,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G752" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -23826,7 +23826,7 @@
         <v>14.6199998855591</v>
       </c>
       <c r="G753" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -23852,7 +23852,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G754" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -23878,7 +23878,7 @@
         <v>15.0799999237061</v>
       </c>
       <c r="G755" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -23904,7 +23904,7 @@
         <v>15.0600004196167</v>
       </c>
       <c r="G756" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -23930,7 +23930,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G757" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -23956,7 +23956,7 @@
         <v>14.8599996566772</v>
       </c>
       <c r="G758" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -23982,7 +23982,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G759" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24008,7 +24008,7 @@
         <v>14.5</v>
       </c>
       <c r="G760" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24034,7 +24034,7 @@
         <v>14.6800003051758</v>
       </c>
       <c r="G761" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24060,7 +24060,7 @@
         <v>14.960000038147</v>
       </c>
       <c r="G762" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24086,7 +24086,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G763" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24112,7 +24112,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G764" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24138,7 +24138,7 @@
         <v>15.460000038147</v>
       </c>
       <c r="G765" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24164,7 +24164,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G766" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24190,7 +24190,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G767" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24216,7 +24216,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G768" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24242,7 +24242,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G769" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24268,7 +24268,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G770" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24294,7 +24294,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G771" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24320,7 +24320,7 @@
         <v>16</v>
       </c>
       <c r="G772" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -24346,7 +24346,7 @@
         <v>16</v>
       </c>
       <c r="G773" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -24372,7 +24372,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G774" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -24398,7 +24398,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G775" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -24424,7 +24424,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G776" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -24450,7 +24450,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G777" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24476,7 +24476,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G778" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24502,7 +24502,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G779" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24528,7 +24528,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G780" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24554,7 +24554,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G781" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -24580,7 +24580,7 @@
         <v>17</v>
       </c>
       <c r="G782" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -24606,7 +24606,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G783" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -24632,7 +24632,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G784" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -24658,7 +24658,7 @@
         <v>18</v>
       </c>
       <c r="G785" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -24684,7 +24684,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G786" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -24710,7 +24710,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G787" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -24736,7 +24736,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G788" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -24762,7 +24762,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G789" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -24788,7 +24788,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G790" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -24814,7 +24814,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G791" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24840,7 +24840,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G792" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -24866,7 +24866,7 @@
         <v>17</v>
       </c>
       <c r="G793" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24892,7 +24892,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G794" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -24918,7 +24918,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G795" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -24944,7 +24944,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G796" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -24970,7 +24970,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G797" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -24996,7 +24996,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G798" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25022,7 +25022,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G799" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -25048,7 +25048,7 @@
         <v>17.5</v>
       </c>
       <c r="G800" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25074,7 +25074,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G801" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25100,7 +25100,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G802" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25126,7 +25126,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G803" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25152,7 +25152,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G804" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25178,7 +25178,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G805" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25204,7 +25204,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G806" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25230,7 +25230,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G807" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25256,7 +25256,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G808" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25282,7 +25282,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G809" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25308,7 +25308,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G810" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25334,7 +25334,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G811" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -25360,7 +25360,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G812" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -25386,7 +25386,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G813" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -25412,7 +25412,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G814" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -25438,7 +25438,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G815" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -25464,7 +25464,7 @@
         <v>17</v>
       </c>
       <c r="G816" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -25490,7 +25490,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G817" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -25516,7 +25516,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G818" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25542,7 +25542,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G819" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -25568,7 +25568,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G820" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -25594,7 +25594,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G821" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -25620,7 +25620,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G822" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -25646,7 +25646,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G823" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -25672,7 +25672,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G824" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -25698,7 +25698,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G825" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -25724,7 +25724,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G826" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -25750,7 +25750,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G827" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -25776,7 +25776,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G828" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -25802,7 +25802,7 @@
         <v>19.4599990844727</v>
       </c>
       <c r="G829" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -25828,7 +25828,7 @@
         <v>19.4400005340576</v>
       </c>
       <c r="G830" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -25854,7 +25854,7 @@
         <v>19.4200000762939</v>
       </c>
       <c r="G831" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -25880,7 +25880,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G832" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -25906,7 +25906,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G833" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -25932,7 +25932,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G834" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -25958,7 +25958,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G835" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -25984,7 +25984,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G836" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -26010,7 +26010,7 @@
         <v>18</v>
       </c>
       <c r="G837" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26036,7 +26036,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G838" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26062,7 +26062,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G839" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26088,7 +26088,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G840" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26114,7 +26114,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G841" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26140,7 +26140,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G842" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26166,7 +26166,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G843" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26192,7 +26192,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G844" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26218,7 +26218,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G845" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26244,7 +26244,7 @@
         <v>18.1599998474121</v>
       </c>
       <c r="G846" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26270,7 +26270,7 @@
         <v>18.2600002288818</v>
       </c>
       <c r="G847" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26296,7 +26296,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G848" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26322,7 +26322,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G849" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26348,7 +26348,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G850" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -26374,7 +26374,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G851" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -26400,7 +26400,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G852" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -26426,7 +26426,7 @@
         <v>17</v>
       </c>
       <c r="G853" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -26452,7 +26452,7 @@
         <v>16.5</v>
       </c>
       <c r="G854" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -26478,7 +26478,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G855" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -26504,7 +26504,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G856" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -26530,7 +26530,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G857" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -26556,7 +26556,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G858" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -26582,7 +26582,7 @@
         <v>15.6400003433228</v>
       </c>
       <c r="G859" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -26608,7 +26608,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G860" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -26634,7 +26634,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G861" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -26660,7 +26660,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G862" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -26686,7 +26686,7 @@
         <v>15.9399995803833</v>
       </c>
       <c r="G863" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -26712,7 +26712,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G864" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -26738,7 +26738,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G865" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -26764,7 +26764,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G866" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -26790,7 +26790,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G867" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -26816,7 +26816,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G868" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -26842,7 +26842,7 @@
         <v>15.3800001144409</v>
       </c>
       <c r="G869" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -26868,7 +26868,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G870" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -26894,7 +26894,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G871" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -26920,7 +26920,7 @@
         <v>15.5</v>
       </c>
       <c r="G872" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -26946,7 +26946,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G873" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -26972,7 +26972,7 @@
         <v>15.5799999237061</v>
       </c>
       <c r="G874" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -26998,7 +26998,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G875" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27024,7 +27024,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G876" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27050,7 +27050,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G877" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27076,7 +27076,7 @@
         <v>16.5</v>
       </c>
       <c r="G878" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27102,7 +27102,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G879" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27128,7 +27128,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G880" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27154,7 +27154,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G881" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27180,7 +27180,7 @@
         <v>16.3799991607666</v>
       </c>
       <c r="G882" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27206,7 +27206,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G883" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27232,7 +27232,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G884" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27258,7 +27258,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G885" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27284,7 +27284,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G886" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -27310,7 +27310,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G887" t="s">
-        <v>572</v>
+        <v>463</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27336,7 +27336,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G888" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -27388,7 +27388,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G890" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -27414,7 +27414,7 @@
         <v>16.5</v>
       </c>
       <c r="G891" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -27440,7 +27440,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G892" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -27544,7 +27544,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G896" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -27570,7 +27570,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G897" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -27596,7 +27596,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G898" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -27622,7 +27622,7 @@
         <v>15.9399995803833</v>
       </c>
       <c r="G899" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -27700,7 +27700,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G902" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -27752,7 +27752,7 @@
         <v>15.6400003433228</v>
       </c>
       <c r="G904" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -27778,7 +27778,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -27804,7 +27804,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G906" t="s">
-        <v>572</v>
+        <v>463</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -27830,7 +27830,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G907" t="s">
-        <v>572</v>
+        <v>463</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -27856,7 +27856,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G908" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -27908,7 +27908,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G910" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -27934,7 +27934,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G911" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -27986,7 +27986,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G913" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28012,7 +28012,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G914" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28064,7 +28064,7 @@
         <v>15.5</v>
       </c>
       <c r="G916" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28090,7 +28090,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G917" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28298,7 +28298,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G925" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -28350,7 +28350,7 @@
         <v>15.0799999237061</v>
       </c>
       <c r="G927" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -28402,7 +28402,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G929" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -28584,7 +28584,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G936" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -28610,7 +28610,7 @@
         <v>15.460000038147</v>
       </c>
       <c r="G937" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -28636,7 +28636,7 @@
         <v>15.460000038147</v>
       </c>
       <c r="G938" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -28662,7 +28662,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G939" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -28688,7 +28688,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G940" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -28714,7 +28714,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G941" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -28740,7 +28740,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G942" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -28766,7 +28766,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G943" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -28792,7 +28792,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G944" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -28844,7 +28844,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G946" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -28870,7 +28870,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G947" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -28896,7 +28896,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G948" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -28922,7 +28922,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G949" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -29026,7 +29026,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G953" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -29052,7 +29052,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G954" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -29156,7 +29156,7 @@
         <v>15.0799999237061</v>
       </c>
       <c r="G958" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -29286,7 +29286,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G963" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29364,7 +29364,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G966" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -29416,7 +29416,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G968" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -29442,7 +29442,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G969" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -29468,7 +29468,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G970" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -29494,7 +29494,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G971" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -29520,7 +29520,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G972" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -29546,7 +29546,7 @@
         <v>16</v>
       </c>
       <c r="G973" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -29650,7 +29650,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G977" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -29676,7 +29676,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G978" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -29754,7 +29754,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G981" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -29780,7 +29780,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G982" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -29806,7 +29806,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G983" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -29858,7 +29858,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G985" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -29884,7 +29884,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G986" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -29910,7 +29910,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G987" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -60182,7 +60182,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6503819444</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>58318</v>
@@ -60203,6 +60203,32 @@
         <v>1300</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6493518519</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>46748</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>38.25</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>37.1500015258789</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>37.4000015258789</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>37.4500007629395</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAN.MI.xlsx
+++ b/data/DAN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="1301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1302">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,34 +38,34 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8921518325806</t>
+    <t xml:space="preserve">15.8921499252319</t>
   </si>
   <si>
     <t xml:space="preserve">DAN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0230236053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5182161331177</t>
+    <t xml:space="preserve">16.0230255126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.518217086792</t>
   </si>
   <si>
     <t xml:space="preserve">14.8170909881592</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4898986816406</t>
+    <t xml:space="preserve">14.4899015426636</t>
   </si>
   <si>
     <t xml:space="preserve">14.2094497680664</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5646858215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3122825622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346635818481</t>
+    <t xml:space="preserve">14.5646867752075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3122844696045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346654891968</t>
   </si>
   <si>
     <t xml:space="preserve">13.3587532043457</t>
@@ -83,184 +83,184 @@
     <t xml:space="preserve">13.1998310089111</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3867979049683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.200647354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3595638275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6400146484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3969573974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6774082183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4439716339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9204635620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7706174850464</t>
+    <t xml:space="preserve">13.3867969512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2006435394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3595657348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6400127410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3969593048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6774063110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4439678192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9204654693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.770619392395</t>
   </si>
   <si>
     <t xml:space="preserve">16.4156551361084</t>
   </si>
   <si>
-    <t xml:space="preserve">15.602352142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2284173965454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2377653121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490917205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3966884613037</t>
+    <t xml:space="preserve">15.6023511886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.228419303894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2377643585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490926742554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3966856002808</t>
   </si>
   <si>
     <t xml:space="preserve">15.2938566207886</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2193393707275</t>
+    <t xml:space="preserve">16.2193431854248</t>
   </si>
   <si>
     <t xml:space="preserve">16.5465316772461</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0887317657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2476539611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3878784179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2943992614746</t>
+    <t xml:space="preserve">17.0887336730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2476558685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3878765106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.294397354126</t>
   </si>
   <si>
     <t xml:space="preserve">17.032642364502</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6680583953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.658712387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1541709899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9578590393066</t>
+    <t xml:space="preserve">16.668062210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6587085723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1541728973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9578552246094</t>
   </si>
   <si>
     <t xml:space="preserve">17.509407043457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6402835845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7057209014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7711620330811</t>
+    <t xml:space="preserve">17.640287399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7057228088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7711639404297</t>
   </si>
   <si>
     <t xml:space="preserve">16.8550262451172</t>
   </si>
   <si>
-    <t xml:space="preserve">17.55615234375</t>
+    <t xml:space="preserve">17.5561485290527</t>
   </si>
   <si>
     <t xml:space="preserve">17.8552951812744</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2009162902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.593542098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7992095947266</t>
+    <t xml:space="preserve">17.2009105682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5935401916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7992076873779</t>
   </si>
   <si>
     <t xml:space="preserve">17.3411388397217</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5278358459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.873722076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2663516998291</t>
+    <t xml:space="preserve">16.5278339385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8737201690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2663497924805</t>
   </si>
   <si>
     <t xml:space="preserve">17.6215877532959</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8924217224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8456783294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4533214569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9020385742188</t>
+    <t xml:space="preserve">16.8924198150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8456745147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4533176422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9020366668701</t>
   </si>
   <si>
     <t xml:space="preserve">17.9768257141113</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7431182861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2105312347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4629364013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.369457244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1357460021973</t>
+    <t xml:space="preserve">17.7431144714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2105331420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4629383087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3694553375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1357440948486</t>
   </si>
   <si>
     <t xml:space="preserve">17.9394302368164</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6966457366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7620849609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7901287078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4442405700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6779499053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3788032531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2385787963867</t>
+    <t xml:space="preserve">18.6966438293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7620830535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7901268005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.444242477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6779460906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3788013458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2385768890381</t>
   </si>
   <si>
     <t xml:space="preserve">17.8085536956787</t>
@@ -275,58 +275,58 @@
     <t xml:space="preserve">17.5000591278076</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4065761566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0980815887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1635208129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8830718994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6306686401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4623947143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5652275085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0700378417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7708930969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7334957122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4810905456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6963729858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8363304138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8176345825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5748462677002</t>
+    <t xml:space="preserve">17.4065799713135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0980854034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1635189056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8830680847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6306667327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4623966217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5652256011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0700359344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7708892822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7334976196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4810924530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6963748931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8363285064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8176326751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5748443603516</t>
   </si>
   <si>
     <t xml:space="preserve">17.3224430084229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3691825866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1165065765381</t>
+    <t xml:space="preserve">17.3691806793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1165103912354</t>
   </si>
   <si>
     <t xml:space="preserve">16.153902053833</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">15.3592929840088</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6303939819336</t>
+    <t xml:space="preserve">15.6303949356079</t>
   </si>
   <si>
     <t xml:space="preserve">16.2660827636719</t>
@@ -359,16 +359,16 @@
     <t xml:space="preserve">14.8077430725098</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9666652679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7051801681519</t>
+    <t xml:space="preserve">14.96666431427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7051839828491</t>
   </si>
   <si>
     <t xml:space="preserve">15.3218994140625</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9105739593506</t>
+    <t xml:space="preserve">14.9105749130249</t>
   </si>
   <si>
     <t xml:space="preserve">14.2748899459839</t>
@@ -377,169 +377,169 @@
     <t xml:space="preserve">14.536642074585</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9386177062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6958351135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6116991043091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7986650466919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5462617874146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6210460662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5930013656616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6771364212036</t>
+    <t xml:space="preserve">14.9386196136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6958332061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6116981506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7986640930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5462598800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6210451126099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5930023193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6771373748779</t>
   </si>
   <si>
     <t xml:space="preserve">16.4530487060547</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9201927185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6864852905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4343509674072</t>
+    <t xml:space="preserve">15.9201936721802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.686484336853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4343490600586</t>
   </si>
   <si>
     <t xml:space="preserve">16.1352062225342</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3876094818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4904384613037</t>
+    <t xml:space="preserve">16.3876132965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4904403686523</t>
   </si>
   <si>
     <t xml:space="preserve">16.3782634735107</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2941265106201</t>
+    <t xml:space="preserve">16.2941284179688</t>
   </si>
   <si>
     <t xml:space="preserve">17.4720153808594</t>
   </si>
   <si>
-    <t xml:space="preserve">17.13547706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9298114776611</t>
+    <t xml:space="preserve">17.1354732513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9298133850098</t>
   </si>
   <si>
     <t xml:space="preserve">16.9672050476074</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9487781524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4907112121582</t>
+    <t xml:space="preserve">17.9487819671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4907093048096</t>
   </si>
   <si>
     <t xml:space="preserve">17.3598346710205</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5281066894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6683311462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4063034057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0884628295898</t>
+    <t xml:space="preserve">17.5281047821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6683292388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4063053131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0884647369385</t>
   </si>
   <si>
     <t xml:space="preserve">16.0604209899902</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1258563995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2567329406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9388904571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9669351577759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8641004562378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7893152236938</t>
+    <t xml:space="preserve">16.1258583068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2567348480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.938892364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9669342041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8641042709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7893161773682</t>
   </si>
   <si>
     <t xml:space="preserve">15.9108467102051</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3408641815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0232944488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3689136505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8360586166382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8454074859619</t>
+    <t xml:space="preserve">16.3408679962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0232963562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3689155578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8360614776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8454084396362</t>
   </si>
   <si>
     <t xml:space="preserve">16.0043296813965</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6584405899048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4527769088745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5280208587646</t>
+    <t xml:space="preserve">15.6584386825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4527778625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.528018951416</t>
   </si>
   <si>
     <t xml:space="preserve">15.6032609939575</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8477993011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9324436187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0923328399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8195791244507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2646732330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6220712661743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7161235809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7067193984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3493213653564</t>
+    <t xml:space="preserve">15.8477973937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.932445526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0923347473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.819580078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2646741867065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6220703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.716121673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7067203521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3493204116821</t>
   </si>
   <si>
     <t xml:space="preserve">16.064115524292</t>
@@ -548,43 +548,43 @@
     <t xml:space="preserve">16.5343780517578</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1299514770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6879072189331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8007688522339</t>
+    <t xml:space="preserve">16.129955291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6879091262817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8007707595825</t>
   </si>
   <si>
     <t xml:space="preserve">15.5092086791992</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0829296112061</t>
+    <t xml:space="preserve">16.0829257965088</t>
   </si>
   <si>
     <t xml:space="preserve">16.2522220611572</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0359020233154</t>
+    <t xml:space="preserve">16.0359001159668</t>
   </si>
   <si>
     <t xml:space="preserve">16.7883205413818</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3996601104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4748992919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3526306152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4372806549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2397708892822</t>
+    <t xml:space="preserve">17.399658203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4749011993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3526344299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4372787475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.239767074585</t>
   </si>
   <si>
     <t xml:space="preserve">17.1645278930664</t>
@@ -596,13 +596,13 @@
     <t xml:space="preserve">17.305606842041</t>
   </si>
   <si>
-    <t xml:space="preserve">17.117504119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3808498382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9639720916748</t>
+    <t xml:space="preserve">17.1175022125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3808479309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9639701843262</t>
   </si>
   <si>
     <t xml:space="preserve">18.1238594055176</t>
@@ -611,64 +611,64 @@
     <t xml:space="preserve">18.1614818572998</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1050510406494</t>
+    <t xml:space="preserve">18.1050491333008</t>
   </si>
   <si>
     <t xml:space="preserve">18.6599578857422</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1396255493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1866512298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7979869842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.873233795166</t>
+    <t xml:space="preserve">19.1396236419678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1866493225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7979888916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8732299804688</t>
   </si>
   <si>
     <t xml:space="preserve">19.3559417724609</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1490306854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7039394378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.572265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.421781539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3183250427246</t>
+    <t xml:space="preserve">19.1490287780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7039375305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5722637176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4217834472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.318323135376</t>
   </si>
   <si>
     <t xml:space="preserve">19.0925960540771</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2524871826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1772441864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1678409576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.989143371582</t>
+    <t xml:space="preserve">19.2524833679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.17724609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1678371429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9891414642334</t>
   </si>
   <si>
     <t xml:space="preserve">18.8104400634766</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6317405700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3401794433594</t>
+    <t xml:space="preserve">18.6317443847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.340181350708</t>
   </si>
   <si>
     <t xml:space="preserve">18.688175201416</t>
@@ -677,7 +677,7 @@
     <t xml:space="preserve">18.7634162902832</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6975784301758</t>
+    <t xml:space="preserve">18.6975765228271</t>
   </si>
   <si>
     <t xml:space="preserve">18.6035270690918</t>
@@ -689,28 +689,28 @@
     <t xml:space="preserve">18.5094738006592</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5565013885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7446041107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8480644226074</t>
+    <t xml:space="preserve">18.5565032958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7446060180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8480625152588</t>
   </si>
   <si>
     <t xml:space="preserve">18.8574676513672</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9609241485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2807006835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6569137573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3277282714844</t>
+    <t xml:space="preserve">18.9609222412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2807025909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6569118499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3277263641357</t>
   </si>
   <si>
     <t xml:space="preserve">19.3653507232666</t>
@@ -728,7 +728,7 @@
     <t xml:space="preserve">19.4876174926758</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7509670257568</t>
+    <t xml:space="preserve">19.7509613037109</t>
   </si>
   <si>
     <t xml:space="preserve">19.3371334075928</t>
@@ -737,37 +737,37 @@
     <t xml:space="preserve">19.4594020843506</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5910758972168</t>
+    <t xml:space="preserve">19.5910778045654</t>
   </si>
   <si>
     <t xml:space="preserve">19.271297454834</t>
   </si>
   <si>
-    <t xml:space="preserve">19.468807220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6286964416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5252380371094</t>
+    <t xml:space="preserve">19.4688091278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.628698348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.525239944458</t>
   </si>
   <si>
     <t xml:space="preserve">20.1647930145264</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2588500976562</t>
+    <t xml:space="preserve">20.2588481903076</t>
   </si>
   <si>
     <t xml:space="preserve">20.6350555419922</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8795890808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1147232055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2275848388672</t>
+    <t xml:space="preserve">20.8795928955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1147212982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2275810241699</t>
   </si>
   <si>
     <t xml:space="preserve">21.2087726593018</t>
@@ -776,94 +776,94 @@
     <t xml:space="preserve">20.3999252319336</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8701877593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6444606781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5033798217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8325614929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9078044891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8607788085938</t>
+    <t xml:space="preserve">20.8701839447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6444625854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.503381729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8325634002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9078063964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8607807159424</t>
   </si>
   <si>
     <t xml:space="preserve">20.7573204040527</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7855396270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9172115325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7385120391846</t>
+    <t xml:space="preserve">20.7855377197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9172134399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7385101318359</t>
   </si>
   <si>
     <t xml:space="preserve">21.0770988464355</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1241245269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7102966308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0394821166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9141635894775</t>
+    <t xml:space="preserve">21.1241264343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.710298538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.039478302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9141654968262</t>
   </si>
   <si>
     <t xml:space="preserve">21.7636795043945</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6320056915283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5849857330322</t>
+    <t xml:space="preserve">21.6320095062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5849838256836</t>
   </si>
   <si>
     <t xml:space="preserve">21.3968772888184</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3874702453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.189962387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.537956237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3686580657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6131992340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4909324645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8984031677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.434497833252</t>
+    <t xml:space="preserve">21.38747215271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1899662017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5379543304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3686599731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6131973266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4909286499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.898401260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4344997406006</t>
   </si>
   <si>
     <t xml:space="preserve">21.2181777954102</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3780651092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5191478729248</t>
+    <t xml:space="preserve">21.3780689239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5191459655762</t>
   </si>
   <si>
     <t xml:space="preserve">21.5097408294678</t>
@@ -884,16 +884,16 @@
     <t xml:space="preserve">20.99245262146</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5692176818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.653865814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6632709503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5786228179932</t>
+    <t xml:space="preserve">20.5692195892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6538639068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6632690429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5786247253418</t>
   </si>
   <si>
     <t xml:space="preserve">20.8889942169189</t>
@@ -902,7 +902,7 @@
     <t xml:space="preserve">20.5315971374512</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2964649200439</t>
+    <t xml:space="preserve">20.2964668273926</t>
   </si>
   <si>
     <t xml:space="preserve">20.4657611846924</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">20.155387878418</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5221920013428</t>
+    <t xml:space="preserve">20.5221939086914</t>
   </si>
   <si>
     <t xml:space="preserve">20.550407409668</t>
@@ -923,22 +923,22 @@
     <t xml:space="preserve">20.804349899292</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6914844512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.20241355896</t>
+    <t xml:space="preserve">20.6914882659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2024173736572</t>
   </si>
   <si>
     <t xml:space="preserve">20.0801467895508</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1365776062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.96728515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1741981506348</t>
+    <t xml:space="preserve">20.1365795135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9672832489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1742000579834</t>
   </si>
   <si>
     <t xml:space="preserve">20.3246841430664</t>
@@ -950,28 +950,28 @@
     <t xml:space="preserve">20.3623008728027</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9202575683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9266166687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4939785003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2212238311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9766864776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6726741790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3811130523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7479152679443</t>
+    <t xml:space="preserve">19.920259475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9266147613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4939746856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2212257385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9766883850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6726779937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3811149597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.747917175293</t>
   </si>
   <si>
     <t xml:space="preserve">21.1053161621094</t>
@@ -980,19 +980,19 @@
     <t xml:space="preserve">20.59743309021</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8231582641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1523380279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4627113342285</t>
+    <t xml:space="preserve">20.8231601715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1523399353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4627151489258</t>
   </si>
   <si>
     <t xml:space="preserve">20.9830474853516</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7291107177734</t>
+    <t xml:space="preserve">20.7291069030762</t>
   </si>
   <si>
     <t xml:space="preserve">20.5880298614502</t>
@@ -1001,10 +1001,10 @@
     <t xml:space="preserve">20.6256484985352</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1271743774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0895519256592</t>
+    <t xml:space="preserve">20.1271724700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0895538330078</t>
   </si>
   <si>
     <t xml:space="preserve">20.014310836792</t>
@@ -1025,25 +1025,25 @@
     <t xml:space="preserve">19.7791805267334</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4970245361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0173568725586</t>
+    <t xml:space="preserve">19.4970226287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.01735496521</t>
   </si>
   <si>
     <t xml:space="preserve">19.0737895965576</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8668746948242</t>
+    <t xml:space="preserve">18.8668727874756</t>
   </si>
   <si>
     <t xml:space="preserve">19.233678817749</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9138984680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7916316986084</t>
+    <t xml:space="preserve">18.9139003753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7916297912598</t>
   </si>
   <si>
     <t xml:space="preserve">18.8950881958008</t>
@@ -1055,13 +1055,13 @@
     <t xml:space="preserve">19.0455722808838</t>
   </si>
   <si>
-    <t xml:space="preserve">19.374755859375</t>
+    <t xml:space="preserve">19.3747539520264</t>
   </si>
   <si>
     <t xml:space="preserve">19.2147731781006</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1864185333252</t>
+    <t xml:space="preserve">19.1864166259766</t>
   </si>
   <si>
     <t xml:space="preserve">18.7611045837402</t>
@@ -1070,25 +1070,25 @@
     <t xml:space="preserve">18.5342712402344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1278591156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0711498260498</t>
+    <t xml:space="preserve">18.127857208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0711479187012</t>
   </si>
   <si>
     <t xml:space="preserve">17.8632183074951</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8915748596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1656646728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1184062957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.194019317627</t>
+    <t xml:space="preserve">17.8915729522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1656627655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.118408203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1940174102783</t>
   </si>
   <si>
     <t xml:space="preserve">18.4964637756348</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">18.6949443817139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.817813873291</t>
+    <t xml:space="preserve">18.8178119659424</t>
   </si>
   <si>
     <t xml:space="preserve">18.6382350921631</t>
@@ -1106,28 +1106,28 @@
     <t xml:space="preserve">18.3924980163574</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7232971191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5909767150879</t>
+    <t xml:space="preserve">18.7233009338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5909805297852</t>
   </si>
   <si>
     <t xml:space="preserve">18.4492073059082</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9028759002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0068397521973</t>
+    <t xml:space="preserve">18.9028739929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0068435668945</t>
   </si>
   <si>
     <t xml:space="preserve">18.9312305450439</t>
   </si>
   <si>
-    <t xml:space="preserve">18.921781539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8461685180664</t>
+    <t xml:space="preserve">18.9217777252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8461666107178</t>
   </si>
   <si>
     <t xml:space="preserve">18.5815277099609</t>
@@ -1145,25 +1145,25 @@
     <t xml:space="preserve">18.7043991088867</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8934268951416</t>
+    <t xml:space="preserve">18.893424987793</t>
   </si>
   <si>
     <t xml:space="preserve">18.9406814575195</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8272647857666</t>
+    <t xml:space="preserve">18.8272666931152</t>
   </si>
   <si>
     <t xml:space="preserve">18.6193351745605</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7327518463135</t>
+    <t xml:space="preserve">18.7327480316162</t>
   </si>
   <si>
     <t xml:space="preserve">19.1391620635986</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4227066040039</t>
+    <t xml:space="preserve">19.4227027893066</t>
   </si>
   <si>
     <t xml:space="preserve">19.7062492370605</t>
@@ -1172,13 +1172,13 @@
     <t xml:space="preserve">19.9897899627686</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7931632995605</t>
+    <t xml:space="preserve">20.7931671142578</t>
   </si>
   <si>
     <t xml:space="preserve">21.5492782592773</t>
   </si>
   <si>
-    <t xml:space="preserve">21.832820892334</t>
+    <t xml:space="preserve">21.8328227996826</t>
   </si>
   <si>
     <t xml:space="preserve">21.7855644226074</t>
@@ -1190,19 +1190,19 @@
     <t xml:space="preserve">21.8800773620605</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7383060455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0218486785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0691089630127</t>
+    <t xml:space="preserve">21.7383098602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0218505859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0691070556641</t>
   </si>
   <si>
     <t xml:space="preserve">21.2657356262207</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6986465454102</t>
+    <t xml:space="preserve">20.6986484527588</t>
   </si>
   <si>
     <t xml:space="preserve">21.3129920959473</t>
@@ -1211,10 +1211,10 @@
     <t xml:space="preserve">20.8876781463623</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0294494628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9821929931641</t>
+    <t xml:space="preserve">21.029447555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9821949005127</t>
   </si>
   <si>
     <t xml:space="preserve">21.3602504730225</t>
@@ -1223,28 +1223,28 @@
     <t xml:space="preserve">21.4547653198242</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4075088500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1239624023438</t>
+    <t xml:space="preserve">21.407506942749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1239643096924</t>
   </si>
   <si>
     <t xml:space="preserve">20.9349346160889</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9745941162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4944190979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1636238098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3526515960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2581367492676</t>
+    <t xml:space="preserve">21.9745922088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.494421005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1636219024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3526496887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2581348419189</t>
   </si>
   <si>
     <t xml:space="preserve">21.0767059326172</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">21.5020217895508</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5568790435791</t>
+    <t xml:space="preserve">20.5568771362305</t>
   </si>
   <si>
     <t xml:space="preserve">20.4623622894287</t>
@@ -1265,22 +1265,22 @@
     <t xml:space="preserve">20.8404197692871</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2184791564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5965385437012</t>
+    <t xml:space="preserve">21.2184772491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5965366363525</t>
   </si>
   <si>
     <t xml:space="preserve">20.6513919830322</t>
   </si>
   <si>
-    <t xml:space="preserve">20.745906829834</t>
+    <t xml:space="preserve">20.7459087371826</t>
   </si>
   <si>
     <t xml:space="preserve">20.367847442627</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2336769104004</t>
+    <t xml:space="preserve">19.2336750030518</t>
   </si>
   <si>
     <t xml:space="preserve">19.280933380127</t>
@@ -1289,52 +1289,52 @@
     <t xml:space="preserve">19.3754482269287</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5644760131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0370483398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8480224609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.604133605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5096206665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2260780334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4151058197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2733345031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1315612792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1788215637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6589908599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8007659912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7535076141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8952732086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.942533493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5172176361084</t>
+    <t xml:space="preserve">19.5644779205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0370502471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8480186462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6041355133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5096225738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2260761260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4151077270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2733364105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1315631866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1788196563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6589889526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8007640838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7535057067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8952770233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9425354003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5172214508057</t>
   </si>
   <si>
     <t xml:space="preserve">19.4699611663818</t>
@@ -1343,19 +1343,19 @@
     <t xml:space="preserve">19.6117343902588</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0843048095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6910533905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3205890655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9388294219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5003576278687</t>
+    <t xml:space="preserve">20.0843067169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6910514831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.320592880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9388275146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.500358581543</t>
   </si>
   <si>
     <t xml:space="preserve">15.8973178863525</t>
@@ -1364,22 +1364,22 @@
     <t xml:space="preserve">14.9521751403809</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6497278213501</t>
+    <t xml:space="preserve">14.6497297286987</t>
   </si>
   <si>
     <t xml:space="preserve">14.9899806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5948724746704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8217058181763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1997623443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7271919250488</t>
+    <t xml:space="preserve">15.5948715209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8217067718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.199764251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7271909713745</t>
   </si>
   <si>
     <t xml:space="preserve">15.5192623138428</t>
@@ -1388,16 +1388,16 @@
     <t xml:space="preserve">15.6515808105469</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0674476623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9918327331543</t>
+    <t xml:space="preserve">16.0674438476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9918355941772</t>
   </si>
   <si>
     <t xml:space="preserve">15.8595132827759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7839012145996</t>
+    <t xml:space="preserve">15.7839021682739</t>
   </si>
   <si>
     <t xml:space="preserve">15.5759696960449</t>
@@ -1406,19 +1406,19 @@
     <t xml:space="preserve">15.1979122161865</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0457439422607</t>
+    <t xml:space="preserve">15.0457429885864</t>
   </si>
   <si>
     <t xml:space="preserve">14.760425567627</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5892343521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6272773742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1028060913086</t>
+    <t xml:space="preserve">14.5892362594604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6272783279419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1028070449829</t>
   </si>
   <si>
     <t xml:space="preserve">15.1218280792236</t>
@@ -1430,10 +1430,10 @@
     <t xml:space="preserve">15.3310623168945</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6354007720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4642095565796</t>
+    <t xml:space="preserve">15.6353998184204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4642086029053</t>
   </si>
   <si>
     <t xml:space="preserve">14.2468538284302</t>
@@ -1460,25 +1460,25 @@
     <t xml:space="preserve">14.3990240097046</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1327266693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8093671798706</t>
+    <t xml:space="preserve">14.1327276229858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8093681335449</t>
   </si>
   <si>
     <t xml:space="preserve">13.7903451919556</t>
   </si>
   <si>
-    <t xml:space="preserve">13.961537361145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2278327941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3800020217896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7033624649048</t>
+    <t xml:space="preserve">13.9615354537964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2278337478638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3800029754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7033615112305</t>
   </si>
   <si>
     <t xml:space="preserve">14.9316167831421</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">15.2169332504272</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2549772262573</t>
+    <t xml:space="preserve">15.254976272583</t>
   </si>
   <si>
     <t xml:space="preserve">15.0837850570679</t>
@@ -1502,22 +1502,22 @@
     <t xml:space="preserve">15.2930183410645</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3500823974609</t>
+    <t xml:space="preserve">15.3500814437866</t>
   </si>
   <si>
     <t xml:space="preserve">15.3881235122681</t>
   </si>
   <si>
-    <t xml:space="preserve">15.730507850647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.167989730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0239429473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1000308990479</t>
+    <t xml:space="preserve">15.7305068969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1679916381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0239448547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1000289916992</t>
   </si>
   <si>
     <t xml:space="preserve">17.1190509796143</t>
@@ -1532,25 +1532,25 @@
     <t xml:space="preserve">16.4723320007324</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5674381256104</t>
+    <t xml:space="preserve">16.5674362182617</t>
   </si>
   <si>
     <t xml:space="preserve">16.18701171875</t>
   </si>
   <si>
-    <t xml:space="preserve">16.072883605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0158233642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3391819000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3582019805908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4533100128174</t>
+    <t xml:space="preserve">16.0728855133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0158214569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.339183807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3582038879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4533081054688</t>
   </si>
   <si>
     <t xml:space="preserve">16.8337345123291</t>
@@ -1559,10 +1559,10 @@
     <t xml:space="preserve">16.7196063995361</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4913501739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6435203552246</t>
+    <t xml:space="preserve">16.4913520812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6435222625732</t>
   </si>
   <si>
     <t xml:space="preserve">16.6625423431396</t>
@@ -1574,13 +1574,13 @@
     <t xml:space="preserve">16.8147125244141</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9288387298584</t>
+    <t xml:space="preserve">16.9288368225098</t>
   </si>
   <si>
     <t xml:space="preserve">16.6815662384033</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5293960571289</t>
+    <t xml:space="preserve">16.5293922424316</t>
   </si>
   <si>
     <t xml:space="preserve">16.0538635253906</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">16.1299476623535</t>
   </si>
   <si>
-    <t xml:space="preserve">16.320161819458</t>
+    <t xml:space="preserve">16.3201599121094</t>
   </si>
   <si>
     <t xml:space="preserve">16.2060356140137</t>
@@ -1604,37 +1604,37 @@
     <t xml:space="preserve">16.6054782867432</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7386283874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9859046936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1570949554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6896858215332</t>
+    <t xml:space="preserve">16.7386245727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9859027862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1570930480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6896839141846</t>
   </si>
   <si>
     <t xml:space="preserve">18.5075950622559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4885749816895</t>
+    <t xml:space="preserve">18.4885730743408</t>
   </si>
   <si>
     <t xml:space="preserve">18.4695529937744</t>
   </si>
   <si>
-    <t xml:space="preserve">18.336404800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7467479705811</t>
+    <t xml:space="preserve">18.3364067077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7467460632324</t>
   </si>
   <si>
     <t xml:space="preserve">17.3473033905029</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2141571044922</t>
+    <t xml:space="preserve">17.2141551971436</t>
   </si>
   <si>
     <t xml:space="preserve">17.1951332092285</t>
@@ -1652,10 +1652,10 @@
     <t xml:space="preserve">17.0429668426514</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2712173461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3663272857666</t>
+    <t xml:space="preserve">17.27121925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.366325378418</t>
   </si>
   <si>
     <t xml:space="preserve">17.4424095153809</t>
@@ -1664,7 +1664,7 @@
     <t xml:space="preserve">16.9668807983398</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4152698516846</t>
+    <t xml:space="preserve">16.4152679443359</t>
   </si>
   <si>
     <t xml:space="preserve">15.6924619674683</t>
@@ -1673,10 +1673,10 @@
     <t xml:space="preserve">15.7114839553833</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6544179916382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3691024780273</t>
+    <t xml:space="preserve">15.6544208526611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3691034317017</t>
   </si>
   <si>
     <t xml:space="preserve">14.8745527267456</t>
@@ -1685,19 +1685,19 @@
     <t xml:space="preserve">14.9886808395386</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2739973068237</t>
+    <t xml:space="preserve">15.2739963531494</t>
   </si>
   <si>
     <t xml:space="preserve">14.9506368637085</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1598691940308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0267219543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6843404769897</t>
+    <t xml:space="preserve">15.1598701477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.02672290802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6843414306641</t>
   </si>
   <si>
     <t xml:space="preserve">14.8555316925049</t>
@@ -1706,49 +1706,49 @@
     <t xml:space="preserve">14.5511932373047</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0076999664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7414035797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6462984085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8174886703491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7685480117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5973558425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5783348083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8636531829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4261665344238</t>
+    <t xml:space="preserve">15.007700920105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7414054870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6462993621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8174896240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7685461044312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5973567962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5783338546753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8636541366577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4261655807495</t>
   </si>
   <si>
     <t xml:space="preserve">15.7875699996948</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6163778305054</t>
+    <t xml:space="preserve">15.6163787841797</t>
   </si>
   <si>
     <t xml:space="preserve">15.5212717056274</t>
   </si>
   <si>
-    <t xml:space="preserve">15.235954284668</t>
+    <t xml:space="preserve">15.2359561920166</t>
   </si>
   <si>
     <t xml:space="preserve">15.0647640228271</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7223825454712</t>
+    <t xml:space="preserve">14.7223834991455</t>
   </si>
   <si>
     <t xml:space="preserve">14.9696578979492</t>
@@ -1760,34 +1760,34 @@
     <t xml:space="preserve">14.4751091003418</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4560871124268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2658758163452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0756635665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.94251537323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6082563400269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.437066078186</t>
+    <t xml:space="preserve">14.4560861587524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2658748626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0756645202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9425144195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6082553863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4370670318604</t>
   </si>
   <si>
     <t xml:space="preserve">13.9805574417114</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0185995101929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2088108062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1137056350708</t>
+    <t xml:space="preserve">14.0186004638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2088117599487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1137065887451</t>
   </si>
   <si>
     <t xml:space="preserve">14.4180450439453</t>
@@ -1796,28 +1796,28 @@
     <t xml:space="preserve">14.189790725708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.779447555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.170768737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5593156814575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3609828948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2848958969116</t>
+    <t xml:space="preserve">14.7794466018677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1707696914673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5593147277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3609809875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2848978042603</t>
   </si>
   <si>
     <t xml:space="preserve">14.665319442749</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1788902282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.483229637146</t>
+    <t xml:space="preserve">15.1788911819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4832305908203</t>
   </si>
   <si>
     <t xml:space="preserve">15.2640380859375</t>
@@ -1832,13 +1832,13 @@
     <t xml:space="preserve">14.9952383041382</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0720376968384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5712394714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8784437179565</t>
+    <t xml:space="preserve">15.0720386505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5712385177612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8784418106079</t>
   </si>
   <si>
     <t xml:space="preserve">16.6656436920166</t>
@@ -1847,37 +1847,37 @@
     <t xml:space="preserve">16.5312423706055</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8976392745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8592395782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7248401641846</t>
+    <t xml:space="preserve">15.8976411819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8592414855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7248392105103</t>
   </si>
   <si>
     <t xml:space="preserve">15.7440395355225</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6480388641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9552402496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9936418533325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3776397705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9168386459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8016376495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8400392532349</t>
+    <t xml:space="preserve">15.6480407714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9552421569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9936399459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3776435852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9168405532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8016405105591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8400421142578</t>
   </si>
   <si>
     <t xml:space="preserve">16.2432422637939</t>
@@ -1886,43 +1886,43 @@
     <t xml:space="preserve">16.1856422424316</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6096410751343</t>
+    <t xml:space="preserve">15.6096391677856</t>
   </si>
   <si>
     <t xml:space="preserve">16.0320415496826</t>
   </si>
   <si>
-    <t xml:space="preserve">15.763240814209</t>
+    <t xml:space="preserve">15.7632398605347</t>
   </si>
   <si>
     <t xml:space="preserve">15.6288394927979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7824420928955</t>
+    <t xml:space="preserve">15.7824401855469</t>
   </si>
   <si>
     <t xml:space="preserve">15.4368391036987</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3024377822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1680383682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3984413146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9376382827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1296396255493</t>
+    <t xml:space="preserve">15.3024396896362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1680393218994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3984403610229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9376392364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.129638671875</t>
   </si>
   <si>
     <t xml:space="preserve">14.6880378723145</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2080354690552</t>
+    <t xml:space="preserve">14.2080364227295</t>
   </si>
   <si>
     <t xml:space="preserve">14.1120357513428</t>
@@ -1934,10 +1934,10 @@
     <t xml:space="preserve">14.7840375900269</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9760389328003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7648372650146</t>
+    <t xml:space="preserve">14.976037979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.764838218689</t>
   </si>
   <si>
     <t xml:space="preserve">14.5728368759155</t>
@@ -1946,22 +1946,22 @@
     <t xml:space="preserve">14.6112375259399</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8032379150391</t>
+    <t xml:space="preserve">14.8032369613647</t>
   </si>
   <si>
     <t xml:space="preserve">14.5152368545532</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4576368331909</t>
+    <t xml:space="preserve">14.4576377868652</t>
   </si>
   <si>
     <t xml:space="preserve">14.2272357940674</t>
   </si>
   <si>
-    <t xml:space="preserve">13.862434387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3056325912476</t>
+    <t xml:space="preserve">13.8624353408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3056344985962</t>
   </si>
   <si>
     <t xml:space="preserve">13.1712341308594</t>
@@ -1973,31 +1973,31 @@
     <t xml:space="preserve">13.2480344772339</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9600324630737</t>
+    <t xml:space="preserve">12.960033416748</t>
   </si>
   <si>
     <t xml:space="preserve">12.5760316848755</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3264312744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0960311889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6160297393799</t>
+    <t xml:space="preserve">12.3264322280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0960321426392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6160306930542</t>
   </si>
   <si>
     <t xml:space="preserve">11.1744289398193</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2528266906738</t>
+    <t xml:space="preserve">10.2528257369995</t>
   </si>
   <si>
     <t xml:space="preserve">10.0800256729126</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71522521972656</t>
+    <t xml:space="preserve">9.71522426605225</t>
   </si>
   <si>
     <t xml:space="preserve">9.02402305603027</t>
@@ -2009,19 +2009,19 @@
     <t xml:space="preserve">8.19842147827148</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65922355651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21602439880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2912273406982</t>
+    <t xml:space="preserve">8.65922260284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21602344512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2912254333496</t>
   </si>
   <si>
     <t xml:space="preserve">10.8864278793335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0768308639526</t>
+    <t xml:space="preserve">12.0768299102783</t>
   </si>
   <si>
     <t xml:space="preserve">13.0560340881348</t>
@@ -2030,13 +2030,13 @@
     <t xml:space="preserve">11.7504301071167</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0976295471191</t>
+    <t xml:space="preserve">11.0976285934448</t>
   </si>
   <si>
     <t xml:space="preserve">11.0592288970947</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7712268829346</t>
+    <t xml:space="preserve">10.7712278366089</t>
   </si>
   <si>
     <t xml:space="preserve">10.1952266693115</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">10.7520275115967</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8672275543213</t>
+    <t xml:space="preserve">10.867226600647</t>
   </si>
   <si>
     <t xml:space="preserve">11.2512292861938</t>
@@ -2057,22 +2057,22 @@
     <t xml:space="preserve">11.0400285720825</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7136278152466</t>
+    <t xml:space="preserve">10.7136268615723</t>
   </si>
   <si>
     <t xml:space="preserve">10.3296270370483</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0032262802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3488264083862</t>
+    <t xml:space="preserve">10.0032253265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3488254547119</t>
   </si>
   <si>
     <t xml:space="preserve">10.6368265151978</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5600261688232</t>
+    <t xml:space="preserve">10.5600271224976</t>
   </si>
   <si>
     <t xml:space="preserve">10.9056282043457</t>
@@ -2087,10 +2087,10 @@
     <t xml:space="preserve">10.9440269470215</t>
   </si>
   <si>
-    <t xml:space="preserve">10.963228225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6752271652222</t>
+    <t xml:space="preserve">10.9632291793823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6752281188965</t>
   </si>
   <si>
     <t xml:space="preserve">11.1360282897949</t>
@@ -2099,10 +2099,10 @@
     <t xml:space="preserve">11.0784282684326</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6352291107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7120304107666</t>
+    <t xml:space="preserve">11.6352300643921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7120294570923</t>
   </si>
   <si>
     <t xml:space="preserve">11.1936283111572</t>
@@ -2129,43 +2129,43 @@
     <t xml:space="preserve">12.2496309280396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0000314712524</t>
+    <t xml:space="preserve">12.0000305175781</t>
   </si>
   <si>
     <t xml:space="preserve">11.3664293289185</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1552286148071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.328028678894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2320289611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0208282470703</t>
+    <t xml:space="preserve">11.1552276611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3280296325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2320280075073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.020827293396</t>
   </si>
   <si>
     <t xml:space="preserve">10.9248275756836</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8096284866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5408277511597</t>
+    <t xml:space="preserve">10.809627532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.540825843811</t>
   </si>
   <si>
     <t xml:space="preserve">10.5792264938354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7904272079468</t>
+    <t xml:space="preserve">10.7904281616211</t>
   </si>
   <si>
     <t xml:space="preserve">11.3472290039062</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4816284179688</t>
+    <t xml:space="preserve">11.4816293716431</t>
   </si>
   <si>
     <t xml:space="preserve">11.4240283966064</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">11.1168279647827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7328271865845</t>
+    <t xml:space="preserve">10.7328281402588</t>
   </si>
   <si>
     <t xml:space="preserve">10.5024271011353</t>
@@ -2186,16 +2186,16 @@
     <t xml:space="preserve">10.5984268188477</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7888307571411</t>
+    <t xml:space="preserve">11.7888288497925</t>
   </si>
   <si>
     <t xml:space="preserve">11.5776300430298</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8272285461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6736288070679</t>
+    <t xml:space="preserve">11.8272304534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6736297607422</t>
   </si>
   <si>
     <t xml:space="preserve">11.7696304321289</t>
@@ -2207,13 +2207,13 @@
     <t xml:space="preserve">11.8080310821533</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8848295211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3840312957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2880325317383</t>
+    <t xml:space="preserve">11.8848314285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3840322494507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2880306243896</t>
   </si>
   <si>
     <t xml:space="preserve">12.2688312530518</t>
@@ -2222,10 +2222,10 @@
     <t xml:space="preserve">12.1152305603027</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1344318389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.961630821228</t>
+    <t xml:space="preserve">12.1344308853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9616298675537</t>
   </si>
   <si>
     <t xml:space="preserve">11.9040298461914</t>
@@ -2237,10 +2237,10 @@
     <t xml:space="preserve">12.806432723999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8240346908569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5552349090576</t>
+    <t xml:space="preserve">13.8240356445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5552339553833</t>
   </si>
   <si>
     <t xml:space="preserve">14.0352354049683</t>
@@ -2249,19 +2249,19 @@
     <t xml:space="preserve">13.7664356231689</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4016351699829</t>
+    <t xml:space="preserve">13.4016342163086</t>
   </si>
   <si>
     <t xml:space="preserve">13.593635559082</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6320343017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2672328948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4976348876953</t>
+    <t xml:space="preserve">13.6320352554321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2672338485718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.497633934021</t>
   </si>
   <si>
     <t xml:space="preserve">14.3040361404419</t>
@@ -2270,13 +2270,13 @@
     <t xml:space="preserve">13.9008350372314</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5744342803955</t>
+    <t xml:space="preserve">13.5744352340698</t>
   </si>
   <si>
     <t xml:space="preserve">13.286434173584</t>
   </si>
   <si>
-    <t xml:space="preserve">13.65123462677</t>
+    <t xml:space="preserve">13.6512355804443</t>
   </si>
   <si>
     <t xml:space="preserve">13.3440341949463</t>
@@ -2285,7 +2285,7 @@
     <t xml:space="preserve">12.1728315353394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2112312316895</t>
+    <t xml:space="preserve">12.2112321853638</t>
   </si>
   <si>
     <t xml:space="preserve">12.4800319671631</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">12.5952320098877</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0176334381104</t>
+    <t xml:space="preserve">13.0176343917847</t>
   </si>
   <si>
     <t xml:space="preserve">12.9792337417603</t>
@@ -2303,10 +2303,10 @@
     <t xml:space="preserve">13.2096338272095</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4784336090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6128358840942</t>
+    <t xml:space="preserve">13.4784345626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6128349304199</t>
   </si>
   <si>
     <t xml:space="preserve">13.7280349731445</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">13.5746269226074</t>
   </si>
   <si>
-    <t xml:space="preserve">13.613410949707</t>
+    <t xml:space="preserve">13.6134119033813</t>
   </si>
   <si>
     <t xml:space="preserve">13.4776649475098</t>
@@ -2333,22 +2333,22 @@
     <t xml:space="preserve">14.0206499099731</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0594348907471</t>
+    <t xml:space="preserve">14.0594339370728</t>
   </si>
   <si>
     <t xml:space="preserve">13.9236879348755</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3503189086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3309268951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3891038894653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1563968658447</t>
+    <t xml:space="preserve">14.3503198623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3309259414673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3891048431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1563959121704</t>
   </si>
   <si>
     <t xml:space="preserve">13.8655118942261</t>
@@ -2357,19 +2357,19 @@
     <t xml:space="preserve">13.6328039169312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9430818557739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7685489654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7103729248047</t>
+    <t xml:space="preserve">13.9430809020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7685499191284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.710373878479</t>
   </si>
   <si>
     <t xml:space="preserve">13.9624729156494</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8849039077759</t>
+    <t xml:space="preserve">13.8849029541016</t>
   </si>
   <si>
     <t xml:space="preserve">14.0400419235229</t>
@@ -2378,16 +2378,16 @@
     <t xml:space="preserve">14.3115348815918</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5248498916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8933038711548</t>
+    <t xml:space="preserve">14.5248508453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8933048248291</t>
   </si>
   <si>
     <t xml:space="preserve">14.8157348632812</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1841897964478</t>
+    <t xml:space="preserve">15.1841888427734</t>
   </si>
   <si>
     <t xml:space="preserve">15.2229738235474</t>
@@ -2402,22 +2402,22 @@
     <t xml:space="preserve">16.3865127563477</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0180587768555</t>
+    <t xml:space="preserve">16.0180606842041</t>
   </si>
   <si>
     <t xml:space="preserve">16.1538066864014</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9986658096313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8047428131104</t>
+    <t xml:space="preserve">15.9986667633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8047437667847</t>
   </si>
   <si>
     <t xml:space="preserve">15.513858795166</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9404916763306</t>
+    <t xml:space="preserve">15.9404907226562</t>
   </si>
   <si>
     <t xml:space="preserve">15.5332517623901</t>
@@ -2426,7 +2426,7 @@
     <t xml:space="preserve">15.6302137374878</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9210987091064</t>
+    <t xml:space="preserve">15.9210968017578</t>
   </si>
   <si>
     <t xml:space="preserve">16.0568428039551</t>
@@ -2435,7 +2435,7 @@
     <t xml:space="preserve">16.4640827178955</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8131427764893</t>
+    <t xml:space="preserve">16.8131446838379</t>
   </si>
   <si>
     <t xml:space="preserve">16.9876747131348</t>
@@ -2444,7 +2444,7 @@
     <t xml:space="preserve">16.8907146453857</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8519287109375</t>
+    <t xml:space="preserve">16.8519268035889</t>
   </si>
   <si>
     <t xml:space="preserve">16.9294967651367</t>
@@ -2471,19 +2471,19 @@
     <t xml:space="preserve">16.638614654541</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1234226226807</t>
+    <t xml:space="preserve">17.123420715332</t>
   </si>
   <si>
     <t xml:space="preserve">16.8713207244873</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1622066497803</t>
+    <t xml:space="preserve">17.1622085571289</t>
   </si>
   <si>
     <t xml:space="preserve">17.1428146362305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0652465820312</t>
+    <t xml:space="preserve">17.0652446746826</t>
   </si>
   <si>
     <t xml:space="preserve">18.1900005340576</t>
@@ -2495,7 +2495,7 @@
     <t xml:space="preserve">18.5390625</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8771324157715</t>
+    <t xml:space="preserve">19.8771305084229</t>
   </si>
   <si>
     <t xml:space="preserve">20.1680164337158</t>
@@ -2504,10 +2504,10 @@
     <t xml:space="preserve">20.5558643341064</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0225734710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9921913146973</t>
+    <t xml:space="preserve">20.022575378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9921894073486</t>
   </si>
   <si>
     <t xml:space="preserve">20.7497863769531</t>
@@ -2519,19 +2519,19 @@
     <t xml:space="preserve">20.2164974212646</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1195373535156</t>
+    <t xml:space="preserve">20.1195335388184</t>
   </si>
   <si>
     <t xml:space="preserve">20.2649784088135</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6528244018555</t>
+    <t xml:space="preserve">20.6528224945068</t>
   </si>
   <si>
     <t xml:space="preserve">20.798267364502</t>
   </si>
   <si>
-    <t xml:space="preserve">20.895227432251</t>
+    <t xml:space="preserve">20.8952293395996</t>
   </si>
   <si>
     <t xml:space="preserve">21.2345943450928</t>
@@ -2561,10 +2561,10 @@
     <t xml:space="preserve">19.7801704406738</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0710544586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3923244476318</t>
+    <t xml:space="preserve">20.0710563659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3923225402832</t>
   </si>
   <si>
     <t xml:space="preserve">20.5073833465576</t>
@@ -2579,19 +2579,19 @@
     <t xml:space="preserve">21.3800373077393</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9618072509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5739593505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0587673187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0102882385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1072463989258</t>
+    <t xml:space="preserve">21.9618053436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5739612579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0587692260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0102863311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1072483062744</t>
   </si>
   <si>
     <t xml:space="preserve">21.8163642883301</t>
@@ -2600,10 +2600,10 @@
     <t xml:space="preserve">22.1557292938232</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2526931762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4769992828369</t>
+    <t xml:space="preserve">22.2526912689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4769973754883</t>
   </si>
   <si>
     <t xml:space="preserve">21.6224403381348</t>
@@ -2624,7 +2624,7 @@
     <t xml:space="preserve">22.9314231872559</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6890201568604</t>
+    <t xml:space="preserve">22.6890182495117</t>
   </si>
   <si>
     <t xml:space="preserve">22.3011722564697</t>
@@ -2651,7 +2651,7 @@
     <t xml:space="preserve">24.240406036377</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7555961608887</t>
+    <t xml:space="preserve">23.7555980682373</t>
   </si>
   <si>
     <t xml:space="preserve">23.7071151733398</t>
@@ -2684,28 +2684,28 @@
     <t xml:space="preserve">23.9980010986328</t>
   </si>
   <si>
-    <t xml:space="preserve">23.949520111084</t>
+    <t xml:space="preserve">23.9495220184326</t>
   </si>
   <si>
     <t xml:space="preserve">23.3192672729492</t>
   </si>
   <si>
-    <t xml:space="preserve">23.852560043335</t>
+    <t xml:space="preserve">23.8525581359863</t>
   </si>
   <si>
     <t xml:space="preserve">23.1253471374512</t>
   </si>
   <si>
-    <t xml:space="preserve">22.882942199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5435752868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8648433685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.495096206665</t>
+    <t xml:space="preserve">22.8829441070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5435771942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8648452758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4950942993164</t>
   </si>
   <si>
     <t xml:space="preserve">22.4466152191162</t>
@@ -2714,13 +2714,13 @@
     <t xml:space="preserve">24.5312881469727</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1919231414795</t>
+    <t xml:space="preserve">24.1919250488281</t>
   </si>
   <si>
     <t xml:space="preserve">24.7736930847168</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3373680114746</t>
+    <t xml:space="preserve">24.337366104126</t>
   </si>
   <si>
     <t xml:space="preserve">24.1434421539307</t>
@@ -2738,10 +2738,10 @@
     <t xml:space="preserve">26.1796360015869</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1311569213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2765979766846</t>
+    <t xml:space="preserve">26.1311588287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2765998840332</t>
   </si>
   <si>
     <t xml:space="preserve">25.9857139587402</t>
@@ -2762,34 +2762,34 @@
     <t xml:space="preserve">27.6825428009033</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2158298492432</t>
+    <t xml:space="preserve">28.2158317565918</t>
   </si>
   <si>
     <t xml:space="preserve">28.8460826873779</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3127937316895</t>
+    <t xml:space="preserve">28.3127918243408</t>
   </si>
   <si>
     <t xml:space="preserve">28.652156829834</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1188697814941</t>
+    <t xml:space="preserve">28.1188678741455</t>
   </si>
   <si>
     <t xml:space="preserve">27.9734268188477</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0703907012939</t>
+    <t xml:space="preserve">28.0703887939453</t>
   </si>
   <si>
     <t xml:space="preserve">27.87646484375</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5855827331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2946949005127</t>
+    <t xml:space="preserve">27.5855808258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2946968078613</t>
   </si>
   <si>
     <t xml:space="preserve">27.488618850708</t>
@@ -2804,13 +2804,13 @@
     <t xml:space="preserve">27.2648448944092</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5820026397705</t>
+    <t xml:space="preserve">26.5820045471191</t>
   </si>
   <si>
     <t xml:space="preserve">26.1430339813232</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7528381347656</t>
+    <t xml:space="preserve">25.7528400421143</t>
   </si>
   <si>
     <t xml:space="preserve">24.8749027252197</t>
@@ -2819,7 +2819,7 @@
     <t xml:space="preserve">25.0212230682373</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4359321594238</t>
+    <t xml:space="preserve">24.4359340667725</t>
   </si>
   <si>
     <t xml:space="preserve">25.0699996948242</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">25.4114189147949</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7283248901367</t>
+    <t xml:space="preserve">26.7283267974854</t>
   </si>
   <si>
     <t xml:space="preserve">27.1672954559326</t>
@@ -2840,10 +2840,10 @@
     <t xml:space="preserve">26.7771015167236</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2405815124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1918106079102</t>
+    <t xml:space="preserve">26.2405834197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1918087005615</t>
   </si>
   <si>
     <t xml:space="preserve">25.8016147613525</t>
@@ -2867,37 +2867,37 @@
     <t xml:space="preserve">26.2893581390381</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4844532012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9479389190674</t>
+    <t xml:space="preserve">26.4844551086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9479370117188</t>
   </si>
   <si>
     <t xml:space="preserve">25.1675472259521</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9967098236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8503894805908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3626461029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7773513793945</t>
+    <t xml:space="preserve">25.996711730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8503875732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3626441955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7773532867432</t>
   </si>
   <si>
     <t xml:space="preserve">23.2653503417969</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0702533721924</t>
+    <t xml:space="preserve">23.0702514648438</t>
   </si>
   <si>
     <t xml:space="preserve">23.9481887817383</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3141250610352</t>
+    <t xml:space="preserve">23.3141231536865</t>
   </si>
   <si>
     <t xml:space="preserve">23.21657371521</t>
@@ -2912,25 +2912,25 @@
     <t xml:space="preserve">22.7288303375244</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2410869598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0947666168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8508949279785</t>
+    <t xml:space="preserve">22.2410888671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0947647094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8508930206299</t>
   </si>
   <si>
     <t xml:space="preserve">22.9239292144775</t>
   </si>
   <si>
-    <t xml:space="preserve">23.119026184082</t>
+    <t xml:space="preserve">23.1190280914307</t>
   </si>
   <si>
     <t xml:space="preserve">22.7776069641113</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3874130249023</t>
+    <t xml:space="preserve">22.3874111175537</t>
   </si>
   <si>
     <t xml:space="preserve">23.4604454040527</t>
@@ -2951,13 +2951,13 @@
     <t xml:space="preserve">20.7778587341309</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7535991668701</t>
+    <t xml:space="preserve">19.7535972595215</t>
   </si>
   <si>
     <t xml:space="preserve">20.4364395141602</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1925678253174</t>
+    <t xml:space="preserve">20.192569732666</t>
   </si>
   <si>
     <t xml:space="preserve">19.1975727081299</t>
@@ -2969,10 +2969,10 @@
     <t xml:space="preserve">18.3586521148682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1100330352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1685619354248</t>
+    <t xml:space="preserve">17.1100311279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1685600280762</t>
   </si>
   <si>
     <t xml:space="preserve">18.2415962219238</t>
@@ -2981,13 +2981,13 @@
     <t xml:space="preserve">18.3781623840332</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7733592987061</t>
+    <t xml:space="preserve">17.7733612060547</t>
   </si>
   <si>
     <t xml:space="preserve">18.5342407226562</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0660076141357</t>
+    <t xml:space="preserve">18.0660095214844</t>
   </si>
   <si>
     <t xml:space="preserve">17.7148303985596</t>
@@ -3011,13 +3011,13 @@
     <t xml:space="preserve">19.0024738311768</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3146305084229</t>
+    <t xml:space="preserve">19.3146286010742</t>
   </si>
   <si>
     <t xml:space="preserve">19.4316883087158</t>
   </si>
   <si>
-    <t xml:space="preserve">19.851146697998</t>
+    <t xml:space="preserve">19.8511486053467</t>
   </si>
   <si>
     <t xml:space="preserve">19.3536491394043</t>
@@ -3029,13 +3029,13 @@
     <t xml:space="preserve">18.8659057617188</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9879684448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8854179382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6317882537842</t>
+    <t xml:space="preserve">17.9879703521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8854160308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6317901611328</t>
   </si>
   <si>
     <t xml:space="preserve">18.9634552001953</t>
@@ -3044,7 +3044,7 @@
     <t xml:space="preserve">19.6560497283936</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9974708557129</t>
+    <t xml:space="preserve">19.9974689483643</t>
   </si>
   <si>
     <t xml:space="preserve">19.3731594085693</t>
@@ -3053,10 +3053,10 @@
     <t xml:space="preserve">18.9829635620117</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1585521697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6072750091553</t>
+    <t xml:space="preserve">19.1585502624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6072769165039</t>
   </si>
   <si>
     <t xml:space="preserve">19.5097274780273</t>
@@ -3068,7 +3068,7 @@
     <t xml:space="preserve">17.9489479064941</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3196334838867</t>
+    <t xml:space="preserve">18.3196353912354</t>
   </si>
   <si>
     <t xml:space="preserve">20.0462436676025</t>
@@ -3101,13 +3101,13 @@
     <t xml:space="preserve">23.4116725921631</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6067695617676</t>
+    <t xml:space="preserve">23.6067714691162</t>
   </si>
   <si>
     <t xml:space="preserve">22.8263816833496</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4849586486816</t>
+    <t xml:space="preserve">22.4849605560303</t>
   </si>
   <si>
     <t xml:space="preserve">20.6803112030029</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">20.0950183868408</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4902153015137</t>
+    <t xml:space="preserve">19.4902172088623</t>
   </si>
   <si>
     <t xml:space="preserve">19.0219841003418</t>
@@ -3137,28 +3137,28 @@
     <t xml:space="preserve">18.8268871307373</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7928714752197</t>
+    <t xml:space="preserve">17.7928695678711</t>
   </si>
   <si>
     <t xml:space="preserve">19.0414943695068</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7293395996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4562034606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3001251220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7878684997559</t>
+    <t xml:space="preserve">18.7293376922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4562015533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3001232147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7878665924072</t>
   </si>
   <si>
     <t xml:space="preserve">18.9439449310303</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1780605316162</t>
+    <t xml:space="preserve">19.1780624389648</t>
   </si>
   <si>
     <t xml:space="preserve">18.7683582305908</t>
@@ -3167,34 +3167,34 @@
     <t xml:space="preserve">18.6708087921143</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5147323608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2025737762451</t>
+    <t xml:space="preserve">18.5147304534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2025756835938</t>
   </si>
   <si>
     <t xml:space="preserve">18.8073768615723</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5585021972656</t>
+    <t xml:space="preserve">19.558500289917</t>
   </si>
   <si>
     <t xml:space="preserve">19.0805130004883</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2170829772949</t>
+    <t xml:space="preserve">19.2170810699463</t>
   </si>
   <si>
     <t xml:space="preserve">19.7048263549805</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3976745605469</t>
+    <t xml:space="preserve">18.3976726531982</t>
   </si>
   <si>
     <t xml:space="preserve">17.9294376373291</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1440448760986</t>
+    <t xml:space="preserve">18.1440467834473</t>
   </si>
   <si>
     <t xml:space="preserve">17.8514003753662</t>
@@ -3206,10 +3206,10 @@
     <t xml:space="preserve">18.4757118225098</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8904190063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5587539672852</t>
+    <t xml:space="preserve">17.8904209136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5587558746338</t>
   </si>
   <si>
     <t xml:space="preserve">16.8368949890137</t>
@@ -3224,7 +3224,7 @@
     <t xml:space="preserve">16.4076805114746</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2516040802002</t>
+    <t xml:space="preserve">16.2516021728516</t>
   </si>
   <si>
     <t xml:space="preserve">16.4271907806396</t>
@@ -3236,16 +3236,16 @@
     <t xml:space="preserve">15.7443494796753</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5492515563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9344444274902</t>
+    <t xml:space="preserve">15.5492525100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9344425201416</t>
   </si>
   <si>
     <t xml:space="preserve">16.3296413421631</t>
   </si>
   <si>
-    <t xml:space="preserve">16.973461151123</t>
+    <t xml:space="preserve">16.9734630584717</t>
   </si>
   <si>
     <t xml:space="preserve">17.0905208587646</t>
@@ -3254,7 +3254,7 @@
     <t xml:space="preserve">17.3246383666992</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6563053131104</t>
+    <t xml:space="preserve">17.6563034057617</t>
   </si>
   <si>
     <t xml:space="preserve">17.4612045288086</t>
@@ -3263,16 +3263,16 @@
     <t xml:space="preserve">17.3831672668457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3441467285156</t>
+    <t xml:space="preserve">17.3441486358643</t>
   </si>
   <si>
     <t xml:space="preserve">18.1830654144287</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1195316314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0610027313232</t>
+    <t xml:space="preserve">19.1195335388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0610046386719</t>
   </si>
   <si>
     <t xml:space="preserve">19.8023719787598</t>
@@ -3284,7 +3284,7 @@
     <t xml:space="preserve">20.3876647949219</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9486961364746</t>
+    <t xml:space="preserve">19.9486980438232</t>
   </si>
   <si>
     <t xml:space="preserve">20.8266334533691</t>
@@ -3915,6 +3915,9 @@
   </si>
   <si>
     <t xml:space="preserve">37.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.25</t>
   </si>
 </sst>
 </file>
@@ -60208,7 +60211,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.6493518519</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>46748</v>
@@ -60229,6 +60232,32 @@
         <v>1296</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.6493518519</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>33506</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>38.4500007629395</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>37.5999984741211</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>38.25</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAN.MI.xlsx
+++ b/data/DAN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="1305">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,97 +38,97 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">15.892147064209</t>
+    <t xml:space="preserve">15.8921489715576</t>
   </si>
   <si>
     <t xml:space="preserve">DAN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0230255126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5182151794434</t>
+    <t xml:space="preserve">16.0230236053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.518217086792</t>
   </si>
   <si>
     <t xml:space="preserve">14.8170919418335</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4898996353149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2094497680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5646858215332</t>
+    <t xml:space="preserve">14.4899005889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2094507217407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5646848678589</t>
   </si>
   <si>
     <t xml:space="preserve">14.3122825622559</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1346626281738</t>
+    <t xml:space="preserve">14.1346635818481</t>
   </si>
   <si>
     <t xml:space="preserve">13.3587532043457</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0409097671509</t>
+    <t xml:space="preserve">13.0409116744995</t>
   </si>
   <si>
     <t xml:space="preserve">13.1343927383423</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5267505645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1998310089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3867988586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2006416320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3595638275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6400146484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3969593048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6774082183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4439697265625</t>
+    <t xml:space="preserve">12.5267534255981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1998300552368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3867979049683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2006435394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.359561920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6400127410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3969573974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6774063110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4439716339111</t>
   </si>
   <si>
     <t xml:space="preserve">16.9204654693604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7706212997437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4156551361084</t>
+    <t xml:space="preserve">15.770622253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.415657043457</t>
   </si>
   <si>
     <t xml:space="preserve">15.602349281311</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2284173965454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2377662658691</t>
+    <t xml:space="preserve">15.228419303894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2377672195435</t>
   </si>
   <si>
     <t xml:space="preserve">15.6490917205811</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3966884613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2938566207886</t>
+    <t xml:space="preserve">15.3966865539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2938575744629</t>
   </si>
   <si>
     <t xml:space="preserve">16.2193412780762</t>
@@ -137,46 +137,46 @@
     <t xml:space="preserve">16.5465335845947</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0887336730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2476539611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3878803253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.294397354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0326404571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6680564880371</t>
+    <t xml:space="preserve">17.0887355804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2476577758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3878784179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2943992614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0326442718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6680583953857</t>
   </si>
   <si>
     <t xml:space="preserve">16.6587104797363</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1541748046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9578552246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5094089508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6402854919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7057247161865</t>
+    <t xml:space="preserve">17.1541728973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.957857131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.509407043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6402835845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7057228088379</t>
   </si>
   <si>
     <t xml:space="preserve">17.7711639404297</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8550262451172</t>
+    <t xml:space="preserve">16.8550281524658</t>
   </si>
   <si>
     <t xml:space="preserve">17.5561504364014</t>
@@ -188,109 +188,109 @@
     <t xml:space="preserve">17.2009143829346</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5935459136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7992095947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.341136932373</t>
+    <t xml:space="preserve">17.5935440063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7992076873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3411388397217</t>
   </si>
   <si>
     <t xml:space="preserve">16.5278358459473</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8737182617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2663516998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6215915679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8924179077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8456745147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4533195495605</t>
+    <t xml:space="preserve">16.873722076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2663536071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6215877532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8924217224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8456783294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4533157348633</t>
   </si>
   <si>
     <t xml:space="preserve">17.9020385742188</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9768218994141</t>
+    <t xml:space="preserve">17.9768238067627</t>
   </si>
   <si>
     <t xml:space="preserve">17.7431163787842</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2105331420898</t>
+    <t xml:space="preserve">18.2105293273926</t>
   </si>
   <si>
     <t xml:space="preserve">18.4629364013672</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3694534301758</t>
+    <t xml:space="preserve">18.3694553375244</t>
   </si>
   <si>
     <t xml:space="preserve">18.1357440948486</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9394340515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6966438293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7620849609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7901306152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4442405700684</t>
+    <t xml:space="preserve">17.9394302368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6966457366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7620830535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7901268005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4442386627197</t>
   </si>
   <si>
     <t xml:space="preserve">18.6779479980469</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3787994384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2385768890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8085536956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4813652038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8272533416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5000591278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4065761566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0980854034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1635189056396</t>
+    <t xml:space="preserve">18.3788032531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2385749816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.808557510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4813613891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8272514343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5000610351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4065780639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0980834960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1635208129883</t>
   </si>
   <si>
     <t xml:space="preserve">16.8830699920654</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6306686401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4623966217041</t>
+    <t xml:space="preserve">16.6306667327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4623947143555</t>
   </si>
   <si>
     <t xml:space="preserve">16.5652275085449</t>
@@ -299,43 +299,43 @@
     <t xml:space="preserve">17.0700397491455</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7708930969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7334957122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4810924530029</t>
+    <t xml:space="preserve">16.7708911895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7334938049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4810886383057</t>
   </si>
   <si>
     <t xml:space="preserve">17.6963748931885</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8363285064697</t>
+    <t xml:space="preserve">16.8363304138184</t>
   </si>
   <si>
     <t xml:space="preserve">16.8176326751709</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5748443603516</t>
+    <t xml:space="preserve">17.5748462677002</t>
   </si>
   <si>
     <t xml:space="preserve">17.3224449157715</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3691825866699</t>
+    <t xml:space="preserve">17.3691844940186</t>
   </si>
   <si>
     <t xml:space="preserve">16.1165084838867</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1539001464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2471151351929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.050799369812</t>
+    <t xml:space="preserve">16.153902053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2471132278442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0507984161377</t>
   </si>
   <si>
     <t xml:space="preserve">15.3592939376831</t>
@@ -344,22 +344,22 @@
     <t xml:space="preserve">15.6303930282593</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2660808563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2751607894897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7329559326172</t>
+    <t xml:space="preserve">16.2660827636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2751588821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7329578399658</t>
   </si>
   <si>
     <t xml:space="preserve">15.172327041626</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8077430725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.96666431427</t>
+    <t xml:space="preserve">14.8077421188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9666652679443</t>
   </si>
   <si>
     <t xml:space="preserve">15.7051811218262</t>
@@ -368,13 +368,13 @@
     <t xml:space="preserve">15.3219003677368</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9105758666992</t>
+    <t xml:space="preserve">14.9105749130249</t>
   </si>
   <si>
     <t xml:space="preserve">14.2748889923096</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5366411209106</t>
+    <t xml:space="preserve">14.536642074585</t>
   </si>
   <si>
     <t xml:space="preserve">14.9386205673218</t>
@@ -383,13 +383,13 @@
     <t xml:space="preserve">15.6958351135254</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6117000579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7986669540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5462579727173</t>
+    <t xml:space="preserve">15.6116981506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7986660003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5462589263916</t>
   </si>
   <si>
     <t xml:space="preserve">15.6210460662842</t>
@@ -398,16 +398,16 @@
     <t xml:space="preserve">15.5930023193359</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6771373748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4530487060547</t>
+    <t xml:space="preserve">15.6771364212036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4530467987061</t>
   </si>
   <si>
     <t xml:space="preserve">15.9201936721802</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6864852905273</t>
+    <t xml:space="preserve">15.686484336853</t>
   </si>
   <si>
     <t xml:space="preserve">16.4343509674072</t>
@@ -416,37 +416,37 @@
     <t xml:space="preserve">16.1352062225342</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3876094818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4904403686523</t>
+    <t xml:space="preserve">16.3876113891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.490442276001</t>
   </si>
   <si>
     <t xml:space="preserve">16.3782615661621</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2941265106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.472017288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.13547706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9298114776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9672088623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9487781524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4907112121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3598346710205</t>
+    <t xml:space="preserve">16.2941284179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4720153808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1354751586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9298133850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9672050476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9487819671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4907093048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3598327636719</t>
   </si>
   <si>
     <t xml:space="preserve">17.5281047821045</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">17.6683292388916</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4063053131104</t>
+    <t xml:space="preserve">16.406307220459</t>
   </si>
   <si>
     <t xml:space="preserve">16.0884628295898</t>
@@ -464,97 +464,97 @@
     <t xml:space="preserve">16.0604209899902</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1258544921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2567329406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.938892364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9669380187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8641014099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7893180847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9108448028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3408660888672</t>
+    <t xml:space="preserve">16.1258563995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2567310333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.938889503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9669370651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8641052246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7893161773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9108457565308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3408679962158</t>
   </si>
   <si>
     <t xml:space="preserve">17.0232944488525</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3689136505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8360576629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8454084396362</t>
+    <t xml:space="preserve">16.3689155578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8360586166382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8454074859619</t>
   </si>
   <si>
     <t xml:space="preserve">16.0043315887451</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6584386825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4527797698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5280199050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6032609939575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8477964401245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9324426651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0923347473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8195810317993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2646732330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6220722198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.716121673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7067193984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3493213653564</t>
+    <t xml:space="preserve">15.6584405899048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4527769088745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.528021812439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6032590866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8477983474731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9324436187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0923328399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.819580078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2646741867065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6220731735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7161226272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7067174911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3493204116821</t>
   </si>
   <si>
     <t xml:space="preserve">16.0641174316406</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5343780517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.129955291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6879081726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8007707595825</t>
+    <t xml:space="preserve">16.5343799591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1299533843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6879072189331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8007698059082</t>
   </si>
   <si>
     <t xml:space="preserve">15.5092105865479</t>
@@ -563,19 +563,19 @@
     <t xml:space="preserve">16.0829296112061</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2522220611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0359039306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7883167266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3996601104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4748992919922</t>
+    <t xml:space="preserve">16.2522201538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0359001159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7883205413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.399658203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4749011993408</t>
   </si>
   <si>
     <t xml:space="preserve">17.352632522583</t>
@@ -584,13 +584,13 @@
     <t xml:space="preserve">17.4372787475586</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2397708892822</t>
+    <t xml:space="preserve">17.2397689819336</t>
   </si>
   <si>
     <t xml:space="preserve">17.164529800415</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6942653656006</t>
+    <t xml:space="preserve">16.6942691802979</t>
   </si>
   <si>
     <t xml:space="preserve">17.305606842041</t>
@@ -599,46 +599,46 @@
     <t xml:space="preserve">17.1175022125244</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3808479309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9639701843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1238613128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1614818572998</t>
+    <t xml:space="preserve">17.3808441162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9639739990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1238632202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1614799499512</t>
   </si>
   <si>
     <t xml:space="preserve">18.1050510406494</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6599559783936</t>
+    <t xml:space="preserve">18.6599578857422</t>
   </si>
   <si>
     <t xml:space="preserve">19.1396255493164</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1866493225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7979869842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8732318878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3559455871582</t>
+    <t xml:space="preserve">19.1866512298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7979888916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8732280731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3559436798096</t>
   </si>
   <si>
     <t xml:space="preserve">19.1490306854248</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7039356231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5722637176514</t>
+    <t xml:space="preserve">19.7039394378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.572265625</t>
   </si>
   <si>
     <t xml:space="preserve">19.421781539917</t>
@@ -650,13 +650,13 @@
     <t xml:space="preserve">19.0925979614258</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2524871826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.17724609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1678371429443</t>
+    <t xml:space="preserve">19.2524890899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1772422790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.167839050293</t>
   </si>
   <si>
     <t xml:space="preserve">18.9891414642334</t>
@@ -668,13 +668,13 @@
     <t xml:space="preserve">18.631742477417</t>
   </si>
   <si>
-    <t xml:space="preserve">18.340181350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6881732940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7634181976318</t>
+    <t xml:space="preserve">18.3401775360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6881771087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7634143829346</t>
   </si>
   <si>
     <t xml:space="preserve">18.6975784301758</t>
@@ -683,67 +683,67 @@
     <t xml:space="preserve">18.6035289764404</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7163887023926</t>
+    <t xml:space="preserve">18.7163906097412</t>
   </si>
   <si>
     <t xml:space="preserve">18.5094738006592</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5565013885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7446060180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8480644226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8574695587158</t>
+    <t xml:space="preserve">18.5564994812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.744607925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8480625152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8574676513672</t>
   </si>
   <si>
     <t xml:space="preserve">18.9609222412109</t>
   </si>
   <si>
-    <t xml:space="preserve">19.280704498291</t>
+    <t xml:space="preserve">19.2807006835938</t>
   </si>
   <si>
     <t xml:space="preserve">19.6569118499756</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3277282714844</t>
+    <t xml:space="preserve">19.3277263641357</t>
   </si>
   <si>
     <t xml:space="preserve">19.3653507232666</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6098861694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6945323944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1960525512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4876174926758</t>
+    <t xml:space="preserve">19.609884262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6945343017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1960563659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4876155853271</t>
   </si>
   <si>
     <t xml:space="preserve">19.7509651184082</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3371334075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4594020843506</t>
+    <t xml:space="preserve">19.3371353149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4594039916992</t>
   </si>
   <si>
     <t xml:space="preserve">19.5910739898682</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2712993621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4688053131104</t>
+    <t xml:space="preserve">19.271297454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.468807220459</t>
   </si>
   <si>
     <t xml:space="preserve">19.6286964416504</t>
@@ -752,91 +752,91 @@
     <t xml:space="preserve">19.5252380371094</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1647930145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2588481903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6350555419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8795928955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.114725112915</t>
+    <t xml:space="preserve">20.1647968292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.258846282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6350536346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8795909881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1147193908691</t>
   </si>
   <si>
     <t xml:space="preserve">21.2275829315186</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2087707519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3999252319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8701839447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6444606781006</t>
+    <t xml:space="preserve">21.2087726593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3999271392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8701877593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.644458770752</t>
   </si>
   <si>
     <t xml:space="preserve">20.503381729126</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8325614929199</t>
+    <t xml:space="preserve">20.8325634002686</t>
   </si>
   <si>
     <t xml:space="preserve">20.9078063964844</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8607807159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7573223114014</t>
+    <t xml:space="preserve">20.8607788085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7573204040527</t>
   </si>
   <si>
     <t xml:space="preserve">20.7855415344238</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9172134399414</t>
+    <t xml:space="preserve">20.9172115325928</t>
   </si>
   <si>
     <t xml:space="preserve">20.7385101318359</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0771007537842</t>
+    <t xml:space="preserve">21.0770988464355</t>
   </si>
   <si>
     <t xml:space="preserve">21.1241264343262</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7102947235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0394802093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9141654968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7636814117432</t>
+    <t xml:space="preserve">20.710298538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0394840240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9141597747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7636795043945</t>
   </si>
   <si>
     <t xml:space="preserve">21.6320095062256</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5849838256836</t>
+    <t xml:space="preserve">21.584981918335</t>
   </si>
   <si>
     <t xml:space="preserve">21.3968772888184</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3874740600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.189962387085</t>
+    <t xml:space="preserve">21.38747215271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1899642944336</t>
   </si>
   <si>
     <t xml:space="preserve">21.5379543304443</t>
@@ -848,13 +848,13 @@
     <t xml:space="preserve">21.6131973266602</t>
   </si>
   <si>
-    <t xml:space="preserve">21.490930557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8983993530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.434497833252</t>
+    <t xml:space="preserve">21.4909343719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8983974456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4345016479492</t>
   </si>
   <si>
     <t xml:space="preserve">21.2181758880615</t>
@@ -863,112 +863,112 @@
     <t xml:space="preserve">21.3780670166016</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5191440582275</t>
+    <t xml:space="preserve">21.5191459655762</t>
   </si>
   <si>
     <t xml:space="preserve">21.5097408294678</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6037921905518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5473613739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.199369430542</t>
+    <t xml:space="preserve">21.6037902832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.54736328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1993675231934</t>
   </si>
   <si>
     <t xml:space="preserve">21.4439029693604</t>
   </si>
   <si>
-    <t xml:space="preserve">20.99245262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5692195892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6538619995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6632709503174</t>
+    <t xml:space="preserve">20.9924507141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5692176818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6538639068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6632690429688</t>
   </si>
   <si>
     <t xml:space="preserve">20.5786228179932</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8889942169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5315990447998</t>
+    <t xml:space="preserve">20.8889961242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5316009521484</t>
   </si>
   <si>
     <t xml:space="preserve">20.2964649200439</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4657573699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0425262451172</t>
+    <t xml:space="preserve">20.4657611846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0425243377686</t>
   </si>
   <si>
     <t xml:space="preserve">20.155387878418</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5221920013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5504093170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8043479919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6914844512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2024116516113</t>
+    <t xml:space="preserve">20.5221900939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.550407409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.804349899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6914863586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2024154663086</t>
   </si>
   <si>
     <t xml:space="preserve">20.0801467895508</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1365776062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9672832489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1741981506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3246803283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2494430541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3623027801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.920259475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9266166687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4939785003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2212257385254</t>
+    <t xml:space="preserve">20.1365756988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.96728515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1742000579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3246822357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2494411468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3623046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9202575683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9266185760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4939765930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.221227645874</t>
   </si>
   <si>
     <t xml:space="preserve">19.9766864776611</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6726741790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3811149597168</t>
+    <t xml:space="preserve">20.6726760864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3811130523682</t>
   </si>
   <si>
     <t xml:space="preserve">20.7479152679443</t>
@@ -989,40 +989,40 @@
     <t xml:space="preserve">21.4627132415771</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9830455780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7291069030762</t>
+    <t xml:space="preserve">20.9830493927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7291088104248</t>
   </si>
   <si>
     <t xml:space="preserve">20.5880279541016</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6256523132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1271724700928</t>
+    <t xml:space="preserve">20.6256484985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1271705627441</t>
   </si>
   <si>
     <t xml:space="preserve">20.0895519256592</t>
   </si>
   <si>
-    <t xml:space="preserve">20.014310836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2306308746338</t>
+    <t xml:space="preserve">20.0143127441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2306289672852</t>
   </si>
   <si>
     <t xml:space="preserve">20.3434925079346</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7761325836182</t>
+    <t xml:space="preserve">20.7761306762695</t>
   </si>
   <si>
     <t xml:space="preserve">20.2400360107422</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7791805267334</t>
+    <t xml:space="preserve">19.7791786193848</t>
   </si>
   <si>
     <t xml:space="preserve">19.4970226287842</t>
@@ -1034,7 +1034,7 @@
     <t xml:space="preserve">19.073787689209</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8668746948242</t>
+    <t xml:space="preserve">18.866870880127</t>
   </si>
   <si>
     <t xml:space="preserve">19.233678817749</t>
@@ -1046,31 +1046,31 @@
     <t xml:space="preserve">18.7916316986084</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8950901031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6693630218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0455722808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3747577667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2147750854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1864204406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7611026763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5342693328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1278591156006</t>
+    <t xml:space="preserve">18.895092010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6693649291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0455703735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.374755859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.214771270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1864185333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7611045837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5342712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.127857208252</t>
   </si>
   <si>
     <t xml:space="preserve">18.0711498260498</t>
@@ -1079,13 +1079,13 @@
     <t xml:space="preserve">17.8632164001465</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8915729522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1656646728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.118408203125</t>
+    <t xml:space="preserve">17.8915710449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1656627655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1184062957764</t>
   </si>
   <si>
     <t xml:space="preserve">18.1940174102783</t>
@@ -1103,34 +1103,34 @@
     <t xml:space="preserve">18.6382350921631</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3924980163574</t>
+    <t xml:space="preserve">18.3924961090088</t>
   </si>
   <si>
     <t xml:space="preserve">18.7232971191406</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5909767150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4492092132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9028759002686</t>
+    <t xml:space="preserve">18.5909748077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4492073059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9028739929199</t>
   </si>
   <si>
     <t xml:space="preserve">19.0068416595459</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9312324523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.921781539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8461685180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5815258026123</t>
+    <t xml:space="preserve">18.9312305450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9217777252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8461666107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5815277099609</t>
   </si>
   <si>
     <t xml:space="preserve">18.6098804473877</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">18.6760425567627</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7138442993164</t>
+    <t xml:space="preserve">18.713846206665</t>
   </si>
   <si>
     <t xml:space="preserve">18.7043952941895</t>
@@ -1148,13 +1148,13 @@
     <t xml:space="preserve">18.8934230804443</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9406814575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.827262878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6193332672119</t>
+    <t xml:space="preserve">18.9406833648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8272647857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6193313598633</t>
   </si>
   <si>
     <t xml:space="preserve">18.7327499389648</t>
@@ -1163,13 +1163,13 @@
     <t xml:space="preserve">19.13916015625</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4227046966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7062492370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9897918701172</t>
+    <t xml:space="preserve">19.4227027893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7062473297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9897899627686</t>
   </si>
   <si>
     <t xml:space="preserve">20.7931632995605</t>
@@ -1181,19 +1181,19 @@
     <t xml:space="preserve">21.8328227996826</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7855644226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6437950134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8800792694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7383079528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0218505859375</t>
+    <t xml:space="preserve">21.7855625152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6437931060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8800773620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7383060455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0218467712402</t>
   </si>
   <si>
     <t xml:space="preserve">22.0691070556641</t>
@@ -1208,22 +1208,22 @@
     <t xml:space="preserve">21.3129901885986</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8876781463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0294494628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9821929931641</t>
+    <t xml:space="preserve">20.8876800537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0294513702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9821910858154</t>
   </si>
   <si>
     <t xml:space="preserve">21.3602504730225</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4547653198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4075088500977</t>
+    <t xml:space="preserve">21.454761505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4075050354004</t>
   </si>
   <si>
     <t xml:space="preserve">21.1239643096924</t>
@@ -1232,13 +1232,13 @@
     <t xml:space="preserve">20.9349346160889</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9745903015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4944229125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1636238098145</t>
+    <t xml:space="preserve">21.9745922088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.494421005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1636257171631</t>
   </si>
   <si>
     <t xml:space="preserve">22.3526496887207</t>
@@ -1253,19 +1253,19 @@
     <t xml:space="preserve">21.5020217895508</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5568790435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4623641967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1712207794189</t>
+    <t xml:space="preserve">20.5568771362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4623622894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1712188720703</t>
   </si>
   <si>
     <t xml:space="preserve">20.8404197692871</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2184791564941</t>
+    <t xml:space="preserve">21.2184772491455</t>
   </si>
   <si>
     <t xml:space="preserve">21.5965385437012</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">20.6513919830322</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7459087371826</t>
+    <t xml:space="preserve">20.7459049224854</t>
   </si>
   <si>
     <t xml:space="preserve">20.3678493499756</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">19.280933380127</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3754482269287</t>
+    <t xml:space="preserve">19.3754463195801</t>
   </si>
   <si>
     <t xml:space="preserve">19.5644779205322</t>
@@ -1295,19 +1295,19 @@
     <t xml:space="preserve">20.0370483398438</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8480186462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6041355133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5096225738525</t>
+    <t xml:space="preserve">19.8480205535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.604133605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5096206665039</t>
   </si>
   <si>
     <t xml:space="preserve">20.2260761260986</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4151058197021</t>
+    <t xml:space="preserve">20.4151039123535</t>
   </si>
   <si>
     <t xml:space="preserve">20.2733345031738</t>
@@ -1316,46 +1316,46 @@
     <t xml:space="preserve">20.1315612792969</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1788196563721</t>
+    <t xml:space="preserve">20.1788177490234</t>
   </si>
   <si>
     <t xml:space="preserve">19.6589908599854</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8007621765137</t>
+    <t xml:space="preserve">19.8007640838623</t>
   </si>
   <si>
     <t xml:space="preserve">19.7535057067871</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8952770233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9425354003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.517219543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4699668884277</t>
+    <t xml:space="preserve">19.8952751159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.942533493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5172176361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4699611663818</t>
   </si>
   <si>
     <t xml:space="preserve">19.6117324829102</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0843067169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6910514831543</t>
+    <t xml:space="preserve">20.0843048095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6910495758057</t>
   </si>
   <si>
     <t xml:space="preserve">20.320592880249</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9388294219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5003576278687</t>
+    <t xml:space="preserve">17.9388275146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5003604888916</t>
   </si>
   <si>
     <t xml:space="preserve">15.8973188400269</t>
@@ -1364,40 +1364,40 @@
     <t xml:space="preserve">14.9521751403809</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6497287750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9899806976318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5948734283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8217077255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1997661590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7271919250488</t>
+    <t xml:space="preserve">14.6497297286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9899816513062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.594874382019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8217067718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.199764251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7271928787231</t>
   </si>
   <si>
     <t xml:space="preserve">15.5192604064941</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6515817642212</t>
+    <t xml:space="preserve">15.6515808105469</t>
   </si>
   <si>
     <t xml:space="preserve">16.0674457550049</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9918336868286</t>
+    <t xml:space="preserve">15.99183177948</t>
   </si>
   <si>
     <t xml:space="preserve">15.8595132827759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7839012145996</t>
+    <t xml:space="preserve">15.7839002609253</t>
   </si>
   <si>
     <t xml:space="preserve">15.5759696960449</t>
@@ -1409,13 +1409,13 @@
     <t xml:space="preserve">15.0457429885864</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7604265213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5892362594604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6272783279419</t>
+    <t xml:space="preserve">14.760425567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5892353057861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6272773742676</t>
   </si>
   <si>
     <t xml:space="preserve">15.1028070449829</t>
@@ -1424,25 +1424,25 @@
     <t xml:space="preserve">15.1218280792236</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8365106582642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3310623168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6353998184204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4642086029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2468547821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0946836471558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7713251113892</t>
+    <t xml:space="preserve">14.8365116119385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3310613632202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6353988647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.464207649231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2468538284302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0946846008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7713241577148</t>
   </si>
   <si>
     <t xml:space="preserve">13.9044733047485</t>
@@ -1451,49 +1451,49 @@
     <t xml:space="preserve">14.5131511688232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3419609069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3229389190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3990230560303</t>
+    <t xml:space="preserve">14.3419589996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3229398727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3990240097046</t>
   </si>
   <si>
     <t xml:space="preserve">14.1327266693115</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8093671798706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7903461456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.961537361145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2278318405151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3800020217896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7033615112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9316167831421</t>
+    <t xml:space="preserve">13.8093681335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7903451919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9615364074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2278327941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3800029754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7033624649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9316158294678</t>
   </si>
   <si>
     <t xml:space="preserve">15.4071455001831</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3120403289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2169342041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.254976272583</t>
+    <t xml:space="preserve">15.3120393753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2169332504272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2549772262573</t>
   </si>
   <si>
     <t xml:space="preserve">15.0837850570679</t>
@@ -1505,25 +1505,25 @@
     <t xml:space="preserve">15.3500804901123</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3881235122681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7305059432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1679916381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0239448547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1000289916992</t>
+    <t xml:space="preserve">15.3881244659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.730507850647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.167989730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0239429473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1000308990479</t>
   </si>
   <si>
     <t xml:space="preserve">17.1190490722656</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7005844116211</t>
+    <t xml:space="preserve">16.7005863189697</t>
   </si>
   <si>
     <t xml:space="preserve">16.6245002746582</t>
@@ -1535,22 +1535,22 @@
     <t xml:space="preserve">16.5674362182617</t>
   </si>
   <si>
-    <t xml:space="preserve">16.18701171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0728874206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0158214569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.339183807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3582038879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4533081054688</t>
+    <t xml:space="preserve">16.1870155334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0728855133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0158252716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3391819000244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3582057952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4533100128174</t>
   </si>
   <si>
     <t xml:space="preserve">16.8337345123291</t>
@@ -1559,34 +1559,34 @@
     <t xml:space="preserve">16.7196044921875</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4913520812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6435222625732</t>
+    <t xml:space="preserve">16.4913539886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6435203552246</t>
   </si>
   <si>
     <t xml:space="preserve">16.6625423431396</t>
   </si>
   <si>
-    <t xml:space="preserve">16.434289932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8147144317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9288368225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6815662384033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5293922424316</t>
+    <t xml:space="preserve">16.4342880249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8147106170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9288387298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6815624237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5293941497803</t>
   </si>
   <si>
     <t xml:space="preserve">16.0538635253906</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1489715576172</t>
+    <t xml:space="preserve">16.1489734649658</t>
   </si>
   <si>
     <t xml:space="preserve">16.1299495697021</t>
@@ -1595,22 +1595,22 @@
     <t xml:space="preserve">16.320161819458</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2060356140137</t>
+    <t xml:space="preserve">16.206033706665</t>
   </si>
   <si>
     <t xml:space="preserve">16.5484142303467</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6054763793945</t>
+    <t xml:space="preserve">16.6054782867432</t>
   </si>
   <si>
     <t xml:space="preserve">16.7386264801025</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9859008789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1570930480957</t>
+    <t xml:space="preserve">16.9859027862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1570949554443</t>
   </si>
   <si>
     <t xml:space="preserve">17.6896839141846</t>
@@ -1625,10 +1625,10 @@
     <t xml:space="preserve">18.469554901123</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3364067077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7467460632324</t>
+    <t xml:space="preserve">18.336404800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7467498779297</t>
   </si>
   <si>
     <t xml:space="preserve">17.3473033905029</t>
@@ -1643,19 +1643,19 @@
     <t xml:space="preserve">16.9478588104248</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8527545928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1761112213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0429649353027</t>
+    <t xml:space="preserve">16.8527526855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1761131286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0429668426514</t>
   </si>
   <si>
     <t xml:space="preserve">17.27121925354</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3663272857666</t>
+    <t xml:space="preserve">17.366325378418</t>
   </si>
   <si>
     <t xml:space="preserve">17.4424114227295</t>
@@ -1667,10 +1667,10 @@
     <t xml:space="preserve">16.4152660369873</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6924638748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7114858627319</t>
+    <t xml:space="preserve">15.6924619674683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.711483001709</t>
   </si>
   <si>
     <t xml:space="preserve">15.6544208526611</t>
@@ -1679,112 +1679,112 @@
     <t xml:space="preserve">15.3691034317017</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8745536804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9886798858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2739963531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9506368637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1598711013794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.02672290802</t>
+    <t xml:space="preserve">14.8745527267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9886808395386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2739973068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9506387710571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1598701477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0267210006714</t>
   </si>
   <si>
     <t xml:space="preserve">14.6843404769897</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8555316925049</t>
+    <t xml:space="preserve">14.8555307388306</t>
   </si>
   <si>
     <t xml:space="preserve">14.5511932373047</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0076999664307</t>
+    <t xml:space="preserve">15.007700920105</t>
   </si>
   <si>
     <t xml:space="preserve">14.7414045333862</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6462993621826</t>
+    <t xml:space="preserve">14.646297454834</t>
   </si>
   <si>
     <t xml:space="preserve">14.8174896240234</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7685470581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5973567962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5783348083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8636541366577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4261646270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7875680923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6163778305054</t>
+    <t xml:space="preserve">15.7685480117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.597357749939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5783367156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8636531829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4261665344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7875699996948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6163787841797</t>
   </si>
   <si>
     <t xml:space="preserve">15.5212726593018</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2359552383423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0647640228271</t>
+    <t xml:space="preserve">15.235954284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0647630691528</t>
   </si>
   <si>
     <t xml:space="preserve">14.7223825454712</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9696578979492</t>
+    <t xml:space="preserve">14.9696588516235</t>
   </si>
   <si>
     <t xml:space="preserve">14.7984685897827</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4751091003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4560871124268</t>
+    <t xml:space="preserve">14.4751081466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4560861587524</t>
   </si>
   <si>
     <t xml:space="preserve">14.2658748626709</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0756645202637</t>
+    <t xml:space="preserve">14.0756635665894</t>
   </si>
   <si>
     <t xml:space="preserve">13.9425144195557</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6082553863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4370651245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9805574417114</t>
+    <t xml:space="preserve">14.6082563400269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.437066078186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9805583953857</t>
   </si>
   <si>
     <t xml:space="preserve">14.0185995101929</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2088108062744</t>
+    <t xml:space="preserve">14.2088117599487</t>
   </si>
   <si>
     <t xml:space="preserve">14.1137056350708</t>
@@ -1796,10 +1796,10 @@
     <t xml:space="preserve">14.189790725708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7794456481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1707696914673</t>
+    <t xml:space="preserve">14.779447555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.170768737793</t>
   </si>
   <si>
     <t xml:space="preserve">15.5593147277832</t>
@@ -1811,64 +1811,64 @@
     <t xml:space="preserve">14.2848968505859</t>
   </si>
   <si>
-    <t xml:space="preserve">14.665319442749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1788911819458</t>
+    <t xml:space="preserve">14.6653213500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1788902282715</t>
   </si>
   <si>
     <t xml:space="preserve">15.483229637146</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2640380859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2448396682739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0912380218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9952383041382</t>
+    <t xml:space="preserve">15.2640390396118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2448387145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0912389755249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9952373504639</t>
   </si>
   <si>
     <t xml:space="preserve">15.0720386505127</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5712385177612</t>
+    <t xml:space="preserve">15.5712394714355</t>
   </si>
   <si>
     <t xml:space="preserve">15.8784418106079</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6656436920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5312423706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8976411819458</t>
+    <t xml:space="preserve">16.665641784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5312404632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8976392745972</t>
   </si>
   <si>
     <t xml:space="preserve">15.8592414855957</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7248392105103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7440395355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6480407714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9552421569824</t>
+    <t xml:space="preserve">15.7248401641846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7440404891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6480388641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9552431106567</t>
   </si>
   <si>
     <t xml:space="preserve">15.9936399459839</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3776435852051</t>
+    <t xml:space="preserve">16.3776416778564</t>
   </si>
   <si>
     <t xml:space="preserve">15.9168405532837</t>
@@ -1877,13 +1877,13 @@
     <t xml:space="preserve">15.8016405105591</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8400421142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2432422637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1856422424316</t>
+    <t xml:space="preserve">15.8400392532349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2432403564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.185640335083</t>
   </si>
   <si>
     <t xml:space="preserve">15.6096391677856</t>
@@ -1901,40 +1901,40 @@
     <t xml:space="preserve">15.7824401855469</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4368391036987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3024396896362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1680393218994</t>
+    <t xml:space="preserve">15.436840057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3024387359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1680374145508</t>
   </si>
   <si>
     <t xml:space="preserve">15.3984403610229</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9376392364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.129638671875</t>
+    <t xml:space="preserve">14.9376382827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1296396255493</t>
   </si>
   <si>
     <t xml:space="preserve">14.6880378723145</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2080364227295</t>
+    <t xml:space="preserve">14.2080373764038</t>
   </si>
   <si>
     <t xml:space="preserve">14.1120357513428</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4000368118286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7840375900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.976037979126</t>
+    <t xml:space="preserve">14.4000358581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7840366363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9760389328003</t>
   </si>
   <si>
     <t xml:space="preserve">14.764838218689</t>
@@ -1946,7 +1946,7 @@
     <t xml:space="preserve">14.6112375259399</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8032369613647</t>
+    <t xml:space="preserve">14.8032379150391</t>
   </si>
   <si>
     <t xml:space="preserve">14.5152368545532</t>
@@ -1955,46 +1955,46 @@
     <t xml:space="preserve">14.4576377868652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2272357940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8624353408813</t>
+    <t xml:space="preserve">14.2272367477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.862434387207</t>
   </si>
   <si>
     <t xml:space="preserve">13.3056344985962</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1712341308594</t>
+    <t xml:space="preserve">13.1712322235107</t>
   </si>
   <si>
     <t xml:space="preserve">13.5360355377197</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2480344772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.960033416748</t>
+    <t xml:space="preserve">13.2480335235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9600324630737</t>
   </si>
   <si>
     <t xml:space="preserve">12.5760316848755</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3264322280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0960321426392</t>
+    <t xml:space="preserve">12.3264312744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0960311889648</t>
   </si>
   <si>
     <t xml:space="preserve">11.6160306930542</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1744289398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2528257369995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0800256729126</t>
+    <t xml:space="preserve">11.174427986145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2528266906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0800266265869</t>
   </si>
   <si>
     <t xml:space="preserve">9.71522426605225</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">9.53282451629639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19842147827148</t>
+    <t xml:space="preserve">8.19842052459717</t>
   </si>
   <si>
     <t xml:space="preserve">8.65922260284424</t>
@@ -2015,13 +2015,13 @@
     <t xml:space="preserve">9.21602344512939</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2912254333496</t>
+    <t xml:space="preserve">10.2912263870239</t>
   </si>
   <si>
     <t xml:space="preserve">10.8864278793335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0768299102783</t>
+    <t xml:space="preserve">12.076831817627</t>
   </si>
   <si>
     <t xml:space="preserve">13.0560340881348</t>
@@ -2039,34 +2039,34 @@
     <t xml:space="preserve">10.7712278366089</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1952266693115</t>
+    <t xml:space="preserve">10.1952257156372</t>
   </si>
   <si>
     <t xml:space="preserve">10.4640264511108</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7520275115967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.867226600647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2512292861938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0400285720825</t>
+    <t xml:space="preserve">10.7520265579224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8672275543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2512283325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0400276184082</t>
   </si>
   <si>
     <t xml:space="preserve">10.7136268615723</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3296270370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0032253265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3488254547119</t>
+    <t xml:space="preserve">10.3296251296997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0032262802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3488264083862</t>
   </si>
   <si>
     <t xml:space="preserve">10.6368265151978</t>
@@ -2075,10 +2075,10 @@
     <t xml:space="preserve">10.5600271224976</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9056282043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8480281829834</t>
+    <t xml:space="preserve">10.9056272506714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8480291366577</t>
   </si>
   <si>
     <t xml:space="preserve">10.8288269042969</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">10.9440269470215</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9632291793823</t>
+    <t xml:space="preserve">10.9632272720337</t>
   </si>
   <si>
     <t xml:space="preserve">10.6752281188965</t>
@@ -2099,7 +2099,7 @@
     <t xml:space="preserve">11.0784282684326</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6352300643921</t>
+    <t xml:space="preserve">11.6352291107178</t>
   </si>
   <si>
     <t xml:space="preserve">11.7120294570923</t>
@@ -2108,25 +2108,25 @@
     <t xml:space="preserve">11.1936283111572</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5584297180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6544303894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9424304962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1536312103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.441632270813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3648309707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2496309280396</t>
+    <t xml:space="preserve">11.5584287643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.65442943573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9424295425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1536302566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4416313171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3648319244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2496318817139</t>
   </si>
   <si>
     <t xml:space="preserve">12.0000305175781</t>
@@ -2135,16 +2135,16 @@
     <t xml:space="preserve">11.3664293289185</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1552276611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3280296325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2320280075073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.020827293396</t>
+    <t xml:space="preserve">11.1552286148071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.328028678894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2320289611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0208282470703</t>
   </si>
   <si>
     <t xml:space="preserve">10.9248275756836</t>
@@ -2153,16 +2153,16 @@
     <t xml:space="preserve">10.809627532959</t>
   </si>
   <si>
-    <t xml:space="preserve">10.540825843811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5792264938354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7904281616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3472290039062</t>
+    <t xml:space="preserve">10.5408267974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5792274475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7904262542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3472280502319</t>
   </si>
   <si>
     <t xml:space="preserve">11.4816293716431</t>
@@ -2177,46 +2177,46 @@
     <t xml:space="preserve">11.1168279647827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7328281402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5024271011353</t>
+    <t xml:space="preserve">10.7328271865845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5024261474609</t>
   </si>
   <si>
     <t xml:space="preserve">10.5984268188477</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7888288497925</t>
+    <t xml:space="preserve">11.7888298034668</t>
   </si>
   <si>
     <t xml:space="preserve">11.5776300430298</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8272304534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6736297607422</t>
+    <t xml:space="preserve">11.8272294998169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6736288070679</t>
   </si>
   <si>
     <t xml:space="preserve">11.7696304321289</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6928300857544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8080310821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8848314285278</t>
+    <t xml:space="preserve">11.6928310394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8080291748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8848304748535</t>
   </si>
   <si>
     <t xml:space="preserve">12.3840322494507</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2880306243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2688312530518</t>
+    <t xml:space="preserve">12.288031578064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2688302993774</t>
   </si>
   <si>
     <t xml:space="preserve">12.1152305603027</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">11.9616298675537</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9040298461914</t>
+    <t xml:space="preserve">11.9040307998657</t>
   </si>
   <si>
     <t xml:space="preserve">11.3856287002563</t>
@@ -2237,7 +2237,7 @@
     <t xml:space="preserve">12.806432723999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8240356445312</t>
+    <t xml:space="preserve">13.8240346908569</t>
   </si>
   <si>
     <t xml:space="preserve">13.5552339553833</t>
@@ -2252,10 +2252,10 @@
     <t xml:space="preserve">13.4016342163086</t>
   </si>
   <si>
-    <t xml:space="preserve">13.593635559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6320352554321</t>
+    <t xml:space="preserve">13.5936346054077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6320333480835</t>
   </si>
   <si>
     <t xml:space="preserve">13.2672338485718</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">14.3040361404419</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9008350372314</t>
+    <t xml:space="preserve">13.9008359909058</t>
   </si>
   <si>
     <t xml:space="preserve">13.5744352340698</t>
@@ -2276,25 +2276,25 @@
     <t xml:space="preserve">13.286434173584</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6512355804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3440341949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1728315353394</t>
+    <t xml:space="preserve">13.65123462677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3440322875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.172830581665</t>
   </si>
   <si>
     <t xml:space="preserve">12.2112321853638</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4800319671631</t>
+    <t xml:space="preserve">12.4800310134888</t>
   </si>
   <si>
     <t xml:space="preserve">12.5952320098877</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0176343917847</t>
+    <t xml:space="preserve">13.017632484436</t>
   </si>
   <si>
     <t xml:space="preserve">12.9792337417603</t>
@@ -2303,13 +2303,13 @@
     <t xml:space="preserve">13.2096338272095</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4784345626831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6128349304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7280349731445</t>
+    <t xml:space="preserve">13.4784336090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6128358840942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7280359268188</t>
   </si>
   <si>
     <t xml:space="preserve">13.7879419326782</t>
@@ -2321,10 +2321,10 @@
     <t xml:space="preserve">13.5746269226074</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6134119033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4776649475098</t>
+    <t xml:space="preserve">13.613410949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4776639938354</t>
   </si>
   <si>
     <t xml:space="preserve">13.6715888977051</t>
@@ -2333,10 +2333,10 @@
     <t xml:space="preserve">14.0206499099731</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0594339370728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9236879348755</t>
+    <t xml:space="preserve">14.0594348907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9236888885498</t>
   </si>
   <si>
     <t xml:space="preserve">14.3503198623657</t>
@@ -2360,7 +2360,7 @@
     <t xml:space="preserve">13.9430809020996</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7685499191284</t>
+    <t xml:space="preserve">13.7685489654541</t>
   </si>
   <si>
     <t xml:space="preserve">13.710373878479</t>
@@ -2369,7 +2369,7 @@
     <t xml:space="preserve">13.9624729156494</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8849029541016</t>
+    <t xml:space="preserve">13.8849039077759</t>
   </si>
   <si>
     <t xml:space="preserve">14.0400419235229</t>
@@ -2378,19 +2378,19 @@
     <t xml:space="preserve">14.3115348815918</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5248508453369</t>
+    <t xml:space="preserve">14.5248498916626</t>
   </si>
   <si>
     <t xml:space="preserve">14.8933048248291</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8157348632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1841888427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2229738235474</t>
+    <t xml:space="preserve">14.8157358169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1841897964478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.222972869873</t>
   </si>
   <si>
     <t xml:space="preserve">16.6967906951904</t>
@@ -2399,25 +2399,25 @@
     <t xml:space="preserve">16.5416507720947</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3865127563477</t>
+    <t xml:space="preserve">16.3865146636963</t>
   </si>
   <si>
     <t xml:space="preserve">16.0180606842041</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1538066864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9986667633057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8047437667847</t>
+    <t xml:space="preserve">16.1538047790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9986658096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8047428131104</t>
   </si>
   <si>
     <t xml:space="preserve">15.513858795166</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9404907226562</t>
+    <t xml:space="preserve">15.9404916763306</t>
   </si>
   <si>
     <t xml:space="preserve">15.5332517623901</t>
@@ -2444,7 +2444,7 @@
     <t xml:space="preserve">16.8907146453857</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8519268035889</t>
+    <t xml:space="preserve">16.8519287109375</t>
   </si>
   <si>
     <t xml:space="preserve">16.9294967651367</t>
@@ -2468,16 +2468,16 @@
     <t xml:space="preserve">16.6580066680908</t>
   </si>
   <si>
-    <t xml:space="preserve">16.638614654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.123420715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8713207244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1622085571289</t>
+    <t xml:space="preserve">16.6386127471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1234226226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8713226318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1622066497803</t>
   </si>
   <si>
     <t xml:space="preserve">17.1428146362305</t>
@@ -2486,13 +2486,13 @@
     <t xml:space="preserve">17.0652446746826</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1900005340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3063526153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5390625</t>
+    <t xml:space="preserve">18.189998626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3063545227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5390605926514</t>
   </si>
   <si>
     <t xml:space="preserve">19.8771305084229</t>
@@ -2504,10 +2504,10 @@
     <t xml:space="preserve">20.5558643341064</t>
   </si>
   <si>
-    <t xml:space="preserve">20.022575378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9921894073486</t>
+    <t xml:space="preserve">20.0225734710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9921913146973</t>
   </si>
   <si>
     <t xml:space="preserve">20.7497863769531</t>
@@ -2519,22 +2519,22 @@
     <t xml:space="preserve">20.2164974212646</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1195335388184</t>
+    <t xml:space="preserve">20.119535446167</t>
   </si>
   <si>
     <t xml:space="preserve">20.2649784088135</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6528224945068</t>
+    <t xml:space="preserve">20.6528244018555</t>
   </si>
   <si>
     <t xml:space="preserve">20.798267364502</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8952293395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2345943450928</t>
+    <t xml:space="preserve">20.895227432251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2345924377441</t>
   </si>
   <si>
     <t xml:space="preserve">21.1376323699951</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">19.9740924835205</t>
   </si>
   <si>
-    <t xml:space="preserve">19.731689453125</t>
+    <t xml:space="preserve">19.7316913604736</t>
   </si>
   <si>
     <t xml:space="preserve">19.5862483978271</t>
@@ -2564,7 +2564,7 @@
     <t xml:space="preserve">20.0710563659668</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3923225402832</t>
+    <t xml:space="preserve">19.3923244476318</t>
   </si>
   <si>
     <t xml:space="preserve">20.5073833465576</t>
@@ -2582,13 +2582,13 @@
     <t xml:space="preserve">21.9618053436279</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5739612579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0587692260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0102863311768</t>
+    <t xml:space="preserve">21.5739593505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0587673187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0102882385254</t>
   </si>
   <si>
     <t xml:space="preserve">22.1072483062744</t>
@@ -2609,7 +2609,7 @@
     <t xml:space="preserve">21.6224403381348</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7194023132324</t>
+    <t xml:space="preserve">21.7194004058838</t>
   </si>
   <si>
     <t xml:space="preserve">22.5920562744141</t>
@@ -2621,10 +2621,10 @@
     <t xml:space="preserve">23.6101551055908</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9314231872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6890182495117</t>
+    <t xml:space="preserve">22.9314212799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6890201568604</t>
   </si>
   <si>
     <t xml:space="preserve">22.3011722564697</t>
@@ -2633,7 +2633,7 @@
     <t xml:space="preserve">21.9133262634277</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6709213256836</t>
+    <t xml:space="preserve">21.6709232330322</t>
   </si>
   <si>
     <t xml:space="preserve">21.0891532897949</t>
@@ -2651,13 +2651,13 @@
     <t xml:space="preserve">24.240406036377</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7555980682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7071151733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4647121429443</t>
+    <t xml:space="preserve">23.7555961608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7071170806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.464714050293</t>
   </si>
   <si>
     <t xml:space="preserve">23.5616722106934</t>
@@ -2669,7 +2669,7 @@
     <t xml:space="preserve">23.5131931304932</t>
   </si>
   <si>
-    <t xml:space="preserve">24.046480178833</t>
+    <t xml:space="preserve">24.0464820861816</t>
   </si>
   <si>
     <t xml:space="preserve">23.9010391235352</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">23.3677501678467</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0949630737305</t>
+    <t xml:space="preserve">24.0949611663818</t>
   </si>
   <si>
     <t xml:space="preserve">23.9980010986328</t>
@@ -2696,10 +2696,10 @@
     <t xml:space="preserve">23.1253471374512</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8829441070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5435771942139</t>
+    <t xml:space="preserve">22.882942199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5435752868652</t>
   </si>
   <si>
     <t xml:space="preserve">21.8648452758789</t>
@@ -2714,7 +2714,7 @@
     <t xml:space="preserve">24.5312881469727</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1919250488281</t>
+    <t xml:space="preserve">24.1919231414795</t>
   </si>
   <si>
     <t xml:space="preserve">24.7736930847168</t>
@@ -2726,22 +2726,22 @@
     <t xml:space="preserve">24.1434421539307</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7917919158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0826740264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4705219268799</t>
+    <t xml:space="preserve">25.7917900085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0826759338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4705200195312</t>
   </si>
   <si>
     <t xml:space="preserve">26.1796360015869</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1311588287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2765998840332</t>
+    <t xml:space="preserve">26.1311569213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2765979766846</t>
   </si>
   <si>
     <t xml:space="preserve">25.9857139587402</t>
@@ -2750,10 +2750,10 @@
     <t xml:space="preserve">26.809886932373</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9068489074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8279857635498</t>
+    <t xml:space="preserve">26.9068508148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8279838562012</t>
   </si>
   <si>
     <t xml:space="preserve">27.7310237884521</t>
@@ -2774,10 +2774,10 @@
     <t xml:space="preserve">28.652156829834</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1188678741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9734268188477</t>
+    <t xml:space="preserve">28.1188697814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9734287261963</t>
   </si>
   <si>
     <t xml:space="preserve">28.0703887939453</t>
@@ -2786,13 +2786,13 @@
     <t xml:space="preserve">27.87646484375</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5855808258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2946968078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.488618850708</t>
+    <t xml:space="preserve">27.5855827331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2946949005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4886169433594</t>
   </si>
   <si>
     <t xml:space="preserve">27.3916568756104</t>
@@ -3924,6 +3924,9 @@
   </si>
   <si>
     <t xml:space="preserve">36.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5</t>
   </si>
 </sst>
 </file>
@@ -60347,7 +60350,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.6494444444</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>71457</v>
@@ -60359,7 +60362,7 @@
         <v>36</v>
       </c>
       <c r="E2158" t="n">
-        <v>37</v>
+        <v>36.4000015258789</v>
       </c>
       <c r="F2158" t="n">
         <v>37</v>
@@ -60368,6 +60371,32 @@
         <v>1290</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.6525578704</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>95592</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>37.0499992370605</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>35.7000007629395</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>36.7999992370605</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAN.MI.xlsx
+++ b/data/DAN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="1306">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,19 +47,19 @@
     <t xml:space="preserve">16.0230236053467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.518217086792</t>
+    <t xml:space="preserve">15.5182151794434</t>
   </si>
   <si>
     <t xml:space="preserve">14.8170919418335</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4899005889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2094507217407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5646848678589</t>
+    <t xml:space="preserve">14.4898996353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2094497680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5646867752075</t>
   </si>
   <si>
     <t xml:space="preserve">14.3122825622559</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">13.3587532043457</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0409116744995</t>
+    <t xml:space="preserve">13.0409097671509</t>
   </si>
   <si>
     <t xml:space="preserve">13.1343927383423</t>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">12.5267534255981</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1998300552368</t>
+    <t xml:space="preserve">13.1998319625854</t>
   </si>
   <si>
     <t xml:space="preserve">13.3867979049683</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">16.2006435394287</t>
   </si>
   <si>
-    <t xml:space="preserve">16.359561920166</t>
+    <t xml:space="preserve">16.3595657348633</t>
   </si>
   <si>
     <t xml:space="preserve">16.6400127410889</t>
@@ -98,10 +98,10 @@
     <t xml:space="preserve">16.3969573974609</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6774063110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4439716339111</t>
+    <t xml:space="preserve">16.6774082183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4439697265625</t>
   </si>
   <si>
     <t xml:space="preserve">16.9204654693604</t>
@@ -110,70 +110,70 @@
     <t xml:space="preserve">15.770622253418</t>
   </si>
   <si>
-    <t xml:space="preserve">16.415657043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.602349281311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.228419303894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2377672195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490917205811</t>
+    <t xml:space="preserve">16.4156532287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6023530960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2284183502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2377662658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490926742554</t>
   </si>
   <si>
     <t xml:space="preserve">15.3966865539551</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2938575744629</t>
+    <t xml:space="preserve">15.2938556671143</t>
   </si>
   <si>
     <t xml:space="preserve">16.2193412780762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5465335845947</t>
+    <t xml:space="preserve">16.5465297698975</t>
   </si>
   <si>
     <t xml:space="preserve">17.0887355804443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2476577758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3878784179688</t>
+    <t xml:space="preserve">17.2476558685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3878765106201</t>
   </si>
   <si>
     <t xml:space="preserve">17.2943992614746</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0326442718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6680583953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6587104797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1541728973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.957857131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.509407043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6402835845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7057228088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7711639404297</t>
+    <t xml:space="preserve">17.032642364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6680603027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6587085723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1541748046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9578552246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5094108581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6402854919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7057209014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7711601257324</t>
   </si>
   <si>
     <t xml:space="preserve">16.8550281524658</t>
@@ -182,13 +182,13 @@
     <t xml:space="preserve">17.5561504364014</t>
   </si>
   <si>
-    <t xml:space="preserve">17.855297088623</t>
+    <t xml:space="preserve">17.8552951812744</t>
   </si>
   <si>
     <t xml:space="preserve">17.2009143829346</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5935440063477</t>
+    <t xml:space="preserve">17.593542098999</t>
   </si>
   <si>
     <t xml:space="preserve">17.7992076873779</t>
@@ -203,55 +203,55 @@
     <t xml:space="preserve">16.873722076416</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2663536071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6215877532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8924217224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8456783294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4533157348633</t>
+    <t xml:space="preserve">17.2663497924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6215858459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8924179077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8456764221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4533176422119</t>
   </si>
   <si>
     <t xml:space="preserve">17.9020385742188</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9768238067627</t>
+    <t xml:space="preserve">17.9768218994141</t>
   </si>
   <si>
     <t xml:space="preserve">17.7431163787842</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2105293273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4629364013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3694553375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1357440948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9394302368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6966457366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7620830535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7901268005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4442386627197</t>
+    <t xml:space="preserve">18.2105312347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4629402160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3694534301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1357460021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9394359588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6966438293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7620849609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7901287078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.444242477417</t>
   </si>
   <si>
     <t xml:space="preserve">18.6779479980469</t>
@@ -260,19 +260,19 @@
     <t xml:space="preserve">18.3788032531738</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2385749816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.808557510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4813613891602</t>
+    <t xml:space="preserve">18.2385807037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8085536956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4813632965088</t>
   </si>
   <si>
     <t xml:space="preserve">17.8272514343262</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5000610351562</t>
+    <t xml:space="preserve">17.5000591278076</t>
   </si>
   <si>
     <t xml:space="preserve">17.4065780639648</t>
@@ -281,61 +281,61 @@
     <t xml:space="preserve">17.0980834960938</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1635208129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8830699920654</t>
+    <t xml:space="preserve">17.1635189056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8830718994141</t>
   </si>
   <si>
     <t xml:space="preserve">16.6306667327881</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4623947143555</t>
+    <t xml:space="preserve">16.4623966217041</t>
   </si>
   <si>
     <t xml:space="preserve">16.5652275085449</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0700397491455</t>
+    <t xml:space="preserve">17.0700359344482</t>
   </si>
   <si>
     <t xml:space="preserve">16.7708911895752</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7334938049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4810886383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6963748931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8363304138184</t>
+    <t xml:space="preserve">16.7334957122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4810924530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6963768005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8363285064697</t>
   </si>
   <si>
     <t xml:space="preserve">16.8176326751709</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5748462677002</t>
+    <t xml:space="preserve">17.5748443603516</t>
   </si>
   <si>
     <t xml:space="preserve">17.3224449157715</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3691844940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1165084838867</t>
+    <t xml:space="preserve">17.3691825866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1165065765381</t>
   </si>
   <si>
     <t xml:space="preserve">16.153902053833</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2471132278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0507984161377</t>
+    <t xml:space="preserve">15.2471151351929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.050799369812</t>
   </si>
   <si>
     <t xml:space="preserve">15.3592939376831</t>
@@ -344,25 +344,25 @@
     <t xml:space="preserve">15.6303930282593</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2660827636719</t>
+    <t xml:space="preserve">16.2660808563232</t>
   </si>
   <si>
     <t xml:space="preserve">15.2751588821411</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7329578399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.172327041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8077421188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9666652679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7051811218262</t>
+    <t xml:space="preserve">14.7329568862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1723260879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8077430725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.96666431427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7051820755005</t>
   </si>
   <si>
     <t xml:space="preserve">15.3219003677368</t>
@@ -371,34 +371,34 @@
     <t xml:space="preserve">14.9105749130249</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2748889923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.536642074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9386205673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6958351135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6116981506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7986660003662</t>
+    <t xml:space="preserve">14.2748880386353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5366401672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9386186599731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6958341598511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6116971969604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7986640930176</t>
   </si>
   <si>
     <t xml:space="preserve">15.5462589263916</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6210460662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5930023193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6771364212036</t>
+    <t xml:space="preserve">15.6210479736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5930013656616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6771383285522</t>
   </si>
   <si>
     <t xml:space="preserve">16.4530467987061</t>
@@ -410,169 +410,169 @@
     <t xml:space="preserve">15.686484336853</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4343509674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1352062225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3876113891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.490442276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3782615661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2941284179688</t>
+    <t xml:space="preserve">16.4343490600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1352024078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3876094818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4904403686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3782634735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2941265106201</t>
   </si>
   <si>
     <t xml:space="preserve">17.4720153808594</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1354751586914</t>
+    <t xml:space="preserve">17.13547706604</t>
   </si>
   <si>
     <t xml:space="preserve">16.9298133850098</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9672050476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9487819671631</t>
+    <t xml:space="preserve">16.9672069549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9487781524658</t>
   </si>
   <si>
     <t xml:space="preserve">17.4907093048096</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3598327636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5281047821045</t>
+    <t xml:space="preserve">17.3598365783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5281066894531</t>
   </si>
   <si>
     <t xml:space="preserve">17.6683292388916</t>
   </si>
   <si>
-    <t xml:space="preserve">16.406307220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0884628295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0604209899902</t>
+    <t xml:space="preserve">16.4063053131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0884609222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0604190826416</t>
   </si>
   <si>
     <t xml:space="preserve">16.1258563995361</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2567310333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.938889503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9669370651245</t>
+    <t xml:space="preserve">16.2567348480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9388904571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9669342041016</t>
   </si>
   <si>
     <t xml:space="preserve">15.8641052246094</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7893161773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9108457565308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3408679962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0232944488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3689155578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8360586166382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8454074859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0043315887451</t>
+    <t xml:space="preserve">15.7893171310425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9108428955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3408660888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0232963562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3689136505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8360595703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8454084396362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0043277740479</t>
   </si>
   <si>
     <t xml:space="preserve">15.6584405899048</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4527769088745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.528021812439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6032590866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8477983474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9324436187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0923328399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.819580078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2646741867065</t>
+    <t xml:space="preserve">15.4527788162231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5280208587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6032629013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8477964401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9324464797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0923309326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8195810317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2646713256836</t>
   </si>
   <si>
     <t xml:space="preserve">15.6220731735229</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7161226272583</t>
+    <t xml:space="preserve">15.7161264419556</t>
   </si>
   <si>
     <t xml:space="preserve">15.7067174911499</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3493204116821</t>
+    <t xml:space="preserve">15.3493194580078</t>
   </si>
   <si>
     <t xml:space="preserve">16.0641174316406</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5343799591064</t>
+    <t xml:space="preserve">16.5343761444092</t>
   </si>
   <si>
     <t xml:space="preserve">16.1299533843994</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6879072189331</t>
+    <t xml:space="preserve">15.6879091262817</t>
   </si>
   <si>
     <t xml:space="preserve">15.8007698059082</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5092105865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0829296112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2522201538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0359001159668</t>
+    <t xml:space="preserve">15.5092096328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0829277038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2522220611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0359020233154</t>
   </si>
   <si>
     <t xml:space="preserve">16.7883205413818</t>
   </si>
   <si>
-    <t xml:space="preserve">17.399658203125</t>
+    <t xml:space="preserve">17.3996620178223</t>
   </si>
   <si>
     <t xml:space="preserve">17.4749011993408</t>
@@ -581,40 +581,40 @@
     <t xml:space="preserve">17.352632522583</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4372787475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2397689819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.164529800415</t>
+    <t xml:space="preserve">17.4372806549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2397708892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1645278930664</t>
   </si>
   <si>
     <t xml:space="preserve">16.6942691802979</t>
   </si>
   <si>
-    <t xml:space="preserve">17.305606842041</t>
+    <t xml:space="preserve">17.3056087493896</t>
   </si>
   <si>
     <t xml:space="preserve">17.1175022125244</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3808441162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9639739990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1238632202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1614799499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1050510406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6599578857422</t>
+    <t xml:space="preserve">17.3808498382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9639701843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1238613128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1614818572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1050491333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6599597930908</t>
   </si>
   <si>
     <t xml:space="preserve">19.1396255493164</t>
@@ -626,19 +626,19 @@
     <t xml:space="preserve">19.7979888916016</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8732280731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3559436798096</t>
+    <t xml:space="preserve">19.8732299804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3559455871582</t>
   </si>
   <si>
     <t xml:space="preserve">19.1490306854248</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7039394378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.572265625</t>
+    <t xml:space="preserve">19.7039375305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5722637176514</t>
   </si>
   <si>
     <t xml:space="preserve">19.421781539917</t>
@@ -650,37 +650,37 @@
     <t xml:space="preserve">19.0925979614258</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2524890899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1772422790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.167839050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9891414642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8104400634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.631742477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3401775360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6881771087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7634143829346</t>
+    <t xml:space="preserve">19.2524852752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.17724609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1678371429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.989143371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8104419708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6317405700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3401794433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.688175201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7634162902832</t>
   </si>
   <si>
     <t xml:space="preserve">18.6975784301758</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6035289764404</t>
+    <t xml:space="preserve">18.6035270690918</t>
   </si>
   <si>
     <t xml:space="preserve">18.7163906097412</t>
@@ -692,58 +692,58 @@
     <t xml:space="preserve">18.5564994812012</t>
   </si>
   <si>
-    <t xml:space="preserve">18.744607925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8480625152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8574676513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9609222412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2807006835938</t>
+    <t xml:space="preserve">18.7446060180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8480663299561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8574657440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9609260559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2807025909424</t>
   </si>
   <si>
     <t xml:space="preserve">19.6569118499756</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3277263641357</t>
+    <t xml:space="preserve">19.327730178833</t>
   </si>
   <si>
     <t xml:space="preserve">19.3653507232666</t>
   </si>
   <si>
-    <t xml:space="preserve">19.609884262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6945343017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1960563659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4876155853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7509651184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3371353149414</t>
+    <t xml:space="preserve">19.6098861694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6945323944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1960544586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4876174926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7509632110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3371334075928</t>
   </si>
   <si>
     <t xml:space="preserve">19.4594039916992</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5910739898682</t>
+    <t xml:space="preserve">19.5910758972168</t>
   </si>
   <si>
     <t xml:space="preserve">19.271297454834</t>
   </si>
   <si>
-    <t xml:space="preserve">19.468807220459</t>
+    <t xml:space="preserve">19.4688053131104</t>
   </si>
   <si>
     <t xml:space="preserve">19.6286964416504</t>
@@ -752,82 +752,82 @@
     <t xml:space="preserve">19.5252380371094</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1647968292236</t>
+    <t xml:space="preserve">20.164794921875</t>
   </si>
   <si>
     <t xml:space="preserve">20.258846282959</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6350536346436</t>
+    <t xml:space="preserve">20.6350555419922</t>
   </si>
   <si>
     <t xml:space="preserve">20.8795909881592</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1147193908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2275829315186</t>
+    <t xml:space="preserve">21.1147212982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2275848388672</t>
   </si>
   <si>
     <t xml:space="preserve">21.2087726593018</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3999271392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8701877593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.644458770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.503381729126</t>
+    <t xml:space="preserve">20.399923324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8701858520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6444606781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5033798217773</t>
   </si>
   <si>
     <t xml:space="preserve">20.8325634002686</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9078063964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8607788085938</t>
+    <t xml:space="preserve">20.9078044891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8607807159424</t>
   </si>
   <si>
     <t xml:space="preserve">20.7573204040527</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7855415344238</t>
+    <t xml:space="preserve">20.7855377197266</t>
   </si>
   <si>
     <t xml:space="preserve">20.9172115325928</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7385101318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0770988464355</t>
+    <t xml:space="preserve">20.7385082244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0771026611328</t>
   </si>
   <si>
     <t xml:space="preserve">21.1241264343262</t>
   </si>
   <si>
-    <t xml:space="preserve">20.710298538208</t>
+    <t xml:space="preserve">20.7102966308594</t>
   </si>
   <si>
     <t xml:space="preserve">21.0394840240479</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9141597747803</t>
+    <t xml:space="preserve">21.9141635894775</t>
   </si>
   <si>
     <t xml:space="preserve">21.7636795043945</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6320095062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.584981918335</t>
+    <t xml:space="preserve">21.632007598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5849838256836</t>
   </si>
   <si>
     <t xml:space="preserve">21.3968772888184</t>
@@ -836,28 +836,28 @@
     <t xml:space="preserve">21.38747215271</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1899642944336</t>
+    <t xml:space="preserve">21.1899604797363</t>
   </si>
   <si>
     <t xml:space="preserve">21.5379543304443</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3686618804932</t>
+    <t xml:space="preserve">21.3686580657959</t>
   </si>
   <si>
     <t xml:space="preserve">21.6131973266602</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4909343719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8983974456787</t>
+    <t xml:space="preserve">21.4909286499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8983993530273</t>
   </si>
   <si>
     <t xml:space="preserve">21.4345016479492</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2181758880615</t>
+    <t xml:space="preserve">21.2181777954102</t>
   </si>
   <si>
     <t xml:space="preserve">21.3780670166016</t>
@@ -869,25 +869,25 @@
     <t xml:space="preserve">21.5097408294678</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6037902832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.54736328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1993675231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4439029693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9924507141113</t>
+    <t xml:space="preserve">21.6037921905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5473613739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.199369430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4439010620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.99245262146</t>
   </si>
   <si>
     <t xml:space="preserve">20.5692176818848</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6538639068604</t>
+    <t xml:space="preserve">20.6538619995117</t>
   </si>
   <si>
     <t xml:space="preserve">20.6632690429688</t>
@@ -899,10 +899,10 @@
     <t xml:space="preserve">20.8889961242676</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5316009521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2964649200439</t>
+    <t xml:space="preserve">20.5315990447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2964668273926</t>
   </si>
   <si>
     <t xml:space="preserve">20.4657611846924</t>
@@ -911,13 +911,13 @@
     <t xml:space="preserve">20.0425243377686</t>
   </si>
   <si>
-    <t xml:space="preserve">20.155387878418</t>
+    <t xml:space="preserve">20.1553916931152</t>
   </si>
   <si>
     <t xml:space="preserve">20.5221900939941</t>
   </si>
   <si>
-    <t xml:space="preserve">20.550407409668</t>
+    <t xml:space="preserve">20.5504093170166</t>
   </si>
   <si>
     <t xml:space="preserve">20.804349899292</t>
@@ -932,37 +932,37 @@
     <t xml:space="preserve">20.0801467895508</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1365756988525</t>
+    <t xml:space="preserve">20.1365776062012</t>
   </si>
   <si>
     <t xml:space="preserve">19.96728515625</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1742000579834</t>
+    <t xml:space="preserve">20.1741962432861</t>
   </si>
   <si>
     <t xml:space="preserve">20.3246822357178</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2494411468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3623046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9202575683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9266185760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4939765930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.221227645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9766864776611</t>
+    <t xml:space="preserve">20.2494430541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3623008728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.920259475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9266147613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4939785003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2212257385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9766883850098</t>
   </si>
   <si>
     <t xml:space="preserve">20.6726760864258</t>
@@ -971,19 +971,19 @@
     <t xml:space="preserve">20.3811130523682</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7479152679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1053161621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.59743309021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8231582641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1523418426514</t>
+    <t xml:space="preserve">20.747917175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.105318069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5974349975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8231601715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1523399353027</t>
   </si>
   <si>
     <t xml:space="preserve">21.4627132415771</t>
@@ -998,16 +998,16 @@
     <t xml:space="preserve">20.5880279541016</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6256484985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1271705627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0895519256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0143127441406</t>
+    <t xml:space="preserve">20.6256523132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1271724700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0895538330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.014310836792</t>
   </si>
   <si>
     <t xml:space="preserve">20.2306289672852</t>
@@ -1016,10 +1016,10 @@
     <t xml:space="preserve">20.3434925079346</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7761306762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2400360107422</t>
+    <t xml:space="preserve">20.7761325836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2400341033936</t>
   </si>
   <si>
     <t xml:space="preserve">19.7791786193848</t>
@@ -1028,40 +1028,40 @@
     <t xml:space="preserve">19.4970226287842</t>
   </si>
   <si>
-    <t xml:space="preserve">19.01735496521</t>
+    <t xml:space="preserve">19.0173568725586</t>
   </si>
   <si>
     <t xml:space="preserve">19.073787689209</t>
   </si>
   <si>
-    <t xml:space="preserve">18.866870880127</t>
+    <t xml:space="preserve">18.8668727874756</t>
   </si>
   <si>
     <t xml:space="preserve">19.233678817749</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9139003753662</t>
+    <t xml:space="preserve">18.9138984680176</t>
   </si>
   <si>
     <t xml:space="preserve">18.7916316986084</t>
   </si>
   <si>
-    <t xml:space="preserve">18.895092010498</t>
+    <t xml:space="preserve">18.8950881958008</t>
   </si>
   <si>
     <t xml:space="preserve">18.6693649291992</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0455703735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.374755859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.214771270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1864185333252</t>
+    <t xml:space="preserve">19.0455722808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3747577667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2147750854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1864204406738</t>
   </si>
   <si>
     <t xml:space="preserve">18.7611045837402</t>
@@ -1070,28 +1070,28 @@
     <t xml:space="preserve">18.5342712402344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.127857208252</t>
+    <t xml:space="preserve">18.1278591156006</t>
   </si>
   <si>
     <t xml:space="preserve">18.0711498260498</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8632164001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8915710449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1656627655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1184062957764</t>
+    <t xml:space="preserve">17.8632183074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8915729522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1656646728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.118408203125</t>
   </si>
   <si>
     <t xml:space="preserve">18.1940174102783</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4964637756348</t>
+    <t xml:space="preserve">18.4964656829834</t>
   </si>
   <si>
     <t xml:space="preserve">18.6949443817139</t>
@@ -1100,22 +1100,22 @@
     <t xml:space="preserve">18.8178119659424</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6382350921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3924961090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7232971191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5909748077393</t>
+    <t xml:space="preserve">18.6382331848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3924999237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.723295211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5909786224365</t>
   </si>
   <si>
     <t xml:space="preserve">18.4492073059082</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9028739929199</t>
+    <t xml:space="preserve">18.9028759002686</t>
   </si>
   <si>
     <t xml:space="preserve">19.0068416595459</t>
@@ -1124,34 +1124,34 @@
     <t xml:space="preserve">18.9312305450439</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9217777252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8461666107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5815277099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6098804473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6760425567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.713846206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7043952941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8934230804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9406833648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8272647857666</t>
+    <t xml:space="preserve">18.9217796325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8461685180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5815296173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6098823547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6760406494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7138481140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7043972015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.893424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9406852722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.827262878418</t>
   </si>
   <si>
     <t xml:space="preserve">18.6193313598633</t>
@@ -1163,22 +1163,22 @@
     <t xml:space="preserve">19.13916015625</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4227027893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7062473297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9897899627686</t>
+    <t xml:space="preserve">19.4227066040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7062492370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9897918701172</t>
   </si>
   <si>
     <t xml:space="preserve">20.7931632995605</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5492763519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8328227996826</t>
+    <t xml:space="preserve">21.5492782592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.832820892334</t>
   </si>
   <si>
     <t xml:space="preserve">21.7855625152588</t>
@@ -1187,31 +1187,31 @@
     <t xml:space="preserve">21.6437931060791</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8800773620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7383060455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0218467712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0691070556641</t>
+    <t xml:space="preserve">21.8800811767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7383079528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0218505859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0691108703613</t>
   </si>
   <si>
     <t xml:space="preserve">21.2657356262207</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6986484527588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3129901885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8876800537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0294513702393</t>
+    <t xml:space="preserve">20.6986503601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3129920959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8876762390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.029447555542</t>
   </si>
   <si>
     <t xml:space="preserve">20.9821910858154</t>
@@ -1220,10 +1220,10 @@
     <t xml:space="preserve">21.3602504730225</t>
   </si>
   <si>
-    <t xml:space="preserve">21.454761505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4075050354004</t>
+    <t xml:space="preserve">21.4547672271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.407506942749</t>
   </si>
   <si>
     <t xml:space="preserve">21.1239643096924</t>
@@ -1232,19 +1232,19 @@
     <t xml:space="preserve">20.9349346160889</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9745922088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.494421005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1636257171631</t>
+    <t xml:space="preserve">21.9745941162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4944229125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1636219024658</t>
   </si>
   <si>
     <t xml:space="preserve">22.3526496887207</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2581348419189</t>
+    <t xml:space="preserve">22.2581367492676</t>
   </si>
   <si>
     <t xml:space="preserve">21.0767059326172</t>
@@ -1262,40 +1262,40 @@
     <t xml:space="preserve">21.1712188720703</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8404197692871</t>
+    <t xml:space="preserve">20.8404178619385</t>
   </si>
   <si>
     <t xml:space="preserve">21.2184772491455</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5965385437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6513919830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7459049224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3678493499756</t>
+    <t xml:space="preserve">21.5965347290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6513938903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7459087371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.367847442627</t>
   </si>
   <si>
     <t xml:space="preserve">19.2336769104004</t>
   </si>
   <si>
-    <t xml:space="preserve">19.280933380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3754463195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5644779205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0370483398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8480205535889</t>
+    <t xml:space="preserve">19.2809352874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3754482269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5644760131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0370502471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8480186462402</t>
   </si>
   <si>
     <t xml:space="preserve">20.604133605957</t>
@@ -1307,16 +1307,16 @@
     <t xml:space="preserve">20.2260761260986</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4151039123535</t>
+    <t xml:space="preserve">20.4151058197021</t>
   </si>
   <si>
     <t xml:space="preserve">20.2733345031738</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1315612792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1788177490234</t>
+    <t xml:space="preserve">20.1315650939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1788196563721</t>
   </si>
   <si>
     <t xml:space="preserve">19.6589908599854</t>
@@ -1328,25 +1328,25 @@
     <t xml:space="preserve">19.7535057067871</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8952751159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.942533493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5172176361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4699611663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6117324829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0843048095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6910495758057</t>
+    <t xml:space="preserve">19.8952770233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9425354003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.517219543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4699649810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6117343902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0843067169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6910514831543</t>
   </si>
   <si>
     <t xml:space="preserve">20.320592880249</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">17.9388275146484</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5003604888916</t>
+    <t xml:space="preserve">15.500358581543</t>
   </si>
   <si>
     <t xml:space="preserve">15.8973188400269</t>
@@ -1367,25 +1367,25 @@
     <t xml:space="preserve">14.6497297286987</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9899816513062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.594874382019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8217067718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.199764251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7271928787231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5192604064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6515808105469</t>
+    <t xml:space="preserve">14.9899797439575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5948705673218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8217077255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1997661590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7271919250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5192613601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6515817642212</t>
   </si>
   <si>
     <t xml:space="preserve">16.0674457550049</t>
@@ -1400,16 +1400,16 @@
     <t xml:space="preserve">15.7839002609253</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5759696960449</t>
+    <t xml:space="preserve">15.5759687423706</t>
   </si>
   <si>
     <t xml:space="preserve">15.1979122161865</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0457429885864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.760425567627</t>
+    <t xml:space="preserve">15.0457439422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7604265213013</t>
   </si>
   <si>
     <t xml:space="preserve">14.5892353057861</t>
@@ -1418,28 +1418,28 @@
     <t xml:space="preserve">14.6272773742676</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1028070449829</t>
+    <t xml:space="preserve">15.1028060913086</t>
   </si>
   <si>
     <t xml:space="preserve">15.1218280792236</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8365116119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3310613632202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6353988647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.464207649231</t>
+    <t xml:space="preserve">14.8365106582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3310604095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6353998184204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4642086029053</t>
   </si>
   <si>
     <t xml:space="preserve">14.2468538284302</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0946846008301</t>
+    <t xml:space="preserve">14.0946836471558</t>
   </si>
   <si>
     <t xml:space="preserve">13.7713241577148</t>
@@ -1448,22 +1448,22 @@
     <t xml:space="preserve">13.9044733047485</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5131511688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3419589996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3229398727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3990240097046</t>
+    <t xml:space="preserve">14.5131502151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3419599533081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3229389190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3990249633789</t>
   </si>
   <si>
     <t xml:space="preserve">14.1327266693115</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8093681335449</t>
+    <t xml:space="preserve">13.8093671798706</t>
   </si>
   <si>
     <t xml:space="preserve">13.7903451919556</t>
@@ -1478,25 +1478,25 @@
     <t xml:space="preserve">14.3800029754639</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7033624649048</t>
+    <t xml:space="preserve">14.7033615112305</t>
   </si>
   <si>
     <t xml:space="preserve">14.9316158294678</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4071455001831</t>
+    <t xml:space="preserve">15.4071474075317</t>
   </si>
   <si>
     <t xml:space="preserve">15.3120393753052</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2169332504272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2549772262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0837850570679</t>
+    <t xml:space="preserve">15.2169342041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.254976272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0837841033936</t>
   </si>
   <si>
     <t xml:space="preserve">15.2930183410645</t>
@@ -1508,52 +1508,52 @@
     <t xml:space="preserve">15.3881244659424</t>
   </si>
   <si>
-    <t xml:space="preserve">15.730507850647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.167989730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0239429473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1000308990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1190490722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7005863189697</t>
+    <t xml:space="preserve">15.7305059432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1679916381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.023946762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1000289916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1190509796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7005844116211</t>
   </si>
   <si>
     <t xml:space="preserve">16.6245002746582</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4723300933838</t>
+    <t xml:space="preserve">16.4723320007324</t>
   </si>
   <si>
     <t xml:space="preserve">16.5674362182617</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1870155334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0728855133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0158252716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3391819000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3582057952881</t>
+    <t xml:space="preserve">16.18701171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0728874206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0158233642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.339183807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3582038879395</t>
   </si>
   <si>
     <t xml:space="preserve">16.4533100128174</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8337345123291</t>
+    <t xml:space="preserve">16.8337326049805</t>
   </si>
   <si>
     <t xml:space="preserve">16.7196044921875</t>
@@ -1562,40 +1562,40 @@
     <t xml:space="preserve">16.4913539886475</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6435203552246</t>
+    <t xml:space="preserve">16.6435222625732</t>
   </si>
   <si>
     <t xml:space="preserve">16.6625423431396</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4342880249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8147106170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9288387298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6815624237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5293941497803</t>
+    <t xml:space="preserve">16.434289932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8147144317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9288368225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6815643310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5293922424316</t>
   </si>
   <si>
     <t xml:space="preserve">16.0538635253906</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1489734649658</t>
+    <t xml:space="preserve">16.1489715576172</t>
   </si>
   <si>
     <t xml:space="preserve">16.1299495697021</t>
   </si>
   <si>
-    <t xml:space="preserve">16.320161819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.206033706665</t>
+    <t xml:space="preserve">16.3201599121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2060356140137</t>
   </si>
   <si>
     <t xml:space="preserve">16.5484142303467</t>
@@ -1619,13 +1619,13 @@
     <t xml:space="preserve">18.5075950622559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4885749816895</t>
+    <t xml:space="preserve">18.4885768890381</t>
   </si>
   <si>
     <t xml:space="preserve">18.469554901123</t>
   </si>
   <si>
-    <t xml:space="preserve">18.336404800415</t>
+    <t xml:space="preserve">18.3364067077637</t>
   </si>
   <si>
     <t xml:space="preserve">17.7467498779297</t>
@@ -1634,13 +1634,13 @@
     <t xml:space="preserve">17.3473033905029</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2141571044922</t>
+    <t xml:space="preserve">17.2141551971436</t>
   </si>
   <si>
     <t xml:space="preserve">17.1951351165771</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9478588104248</t>
+    <t xml:space="preserve">16.9478607177734</t>
   </si>
   <si>
     <t xml:space="preserve">16.8527526855469</t>
@@ -1652,28 +1652,28 @@
     <t xml:space="preserve">17.0429668426514</t>
   </si>
   <si>
-    <t xml:space="preserve">17.27121925354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.366325378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4424114227295</t>
+    <t xml:space="preserve">17.2712173461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3663272857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4424095153809</t>
   </si>
   <si>
     <t xml:space="preserve">16.9668807983398</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4152660369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6924619674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.711483001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6544208526611</t>
+    <t xml:space="preserve">16.4152679443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6924610137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7114839553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6544189453125</t>
   </si>
   <si>
     <t xml:space="preserve">15.3691034317017</t>
@@ -1682,82 +1682,82 @@
     <t xml:space="preserve">14.8745527267456</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9886808395386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2739973068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9506387710571</t>
+    <t xml:space="preserve">14.9886798858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2739963531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9506378173828</t>
   </si>
   <si>
     <t xml:space="preserve">15.1598701477051</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0267210006714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6843404769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8555307388306</t>
+    <t xml:space="preserve">15.02672290802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6843414306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8555326461792</t>
   </si>
   <si>
     <t xml:space="preserve">14.5511932373047</t>
   </si>
   <si>
-    <t xml:space="preserve">15.007700920105</t>
+    <t xml:space="preserve">15.0076999664307</t>
   </si>
   <si>
     <t xml:space="preserve">14.7414045333862</t>
   </si>
   <si>
-    <t xml:space="preserve">14.646297454834</t>
+    <t xml:space="preserve">14.6462984085083</t>
   </si>
   <si>
     <t xml:space="preserve">14.8174896240234</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7685480117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.597357749939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5783367156982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8636531829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4261665344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7875699996948</t>
+    <t xml:space="preserve">15.7685461044312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5973567962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5783357620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8636522293091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4261646270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7875690460205</t>
   </si>
   <si>
     <t xml:space="preserve">15.6163787841797</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5212726593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.235954284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0647630691528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7223825454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9696588516235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7984685897827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4751081466675</t>
+    <t xml:space="preserve">15.5212707519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2359552383423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0647649765015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7223834991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9696578979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7984676361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4751091003418</t>
   </si>
   <si>
     <t xml:space="preserve">14.4560861587524</t>
@@ -1766,109 +1766,109 @@
     <t xml:space="preserve">14.2658748626709</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0756635665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9425144195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6082563400269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.437066078186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9805583953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0185995101929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2088117599487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1137056350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.418044090271</t>
+    <t xml:space="preserve">14.0756645202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.94251537323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6082544326782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4370651245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9805574417114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0186004638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.208812713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1137065887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4180431365967</t>
   </si>
   <si>
     <t xml:space="preserve">14.189790725708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.779447555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.170768737793</t>
+    <t xml:space="preserve">14.7794456481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1707696914673</t>
   </si>
   <si>
     <t xml:space="preserve">15.5593147277832</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3609819412231</t>
+    <t xml:space="preserve">14.3609809875488</t>
   </si>
   <si>
     <t xml:space="preserve">14.2848968505859</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6653213500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1788902282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.483229637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2640390396118</t>
+    <t xml:space="preserve">14.6653203964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1788911819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4832305908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2640380859375</t>
   </si>
   <si>
     <t xml:space="preserve">15.2448387145996</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0912389755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9952373504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0720386505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5712394714355</t>
+    <t xml:space="preserve">15.0912380218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9952383041382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0720376968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5712385177612</t>
   </si>
   <si>
     <t xml:space="preserve">15.8784418106079</t>
   </si>
   <si>
-    <t xml:space="preserve">16.665641784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5312404632568</t>
+    <t xml:space="preserve">16.6656436920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5312423706055</t>
   </si>
   <si>
     <t xml:space="preserve">15.8976392745972</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8592414855957</t>
+    <t xml:space="preserve">15.8592395782471</t>
   </si>
   <si>
     <t xml:space="preserve">15.7248401641846</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7440404891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6480388641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9552431106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9936399459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3776416778564</t>
+    <t xml:space="preserve">15.7440395355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6480407714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9552421569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9936418533325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3776435852051</t>
   </si>
   <si>
     <t xml:space="preserve">15.9168405532837</t>
@@ -1877,70 +1877,70 @@
     <t xml:space="preserve">15.8016405105591</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8400392532349</t>
+    <t xml:space="preserve">15.8400402069092</t>
   </si>
   <si>
     <t xml:space="preserve">16.2432403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">16.185640335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6096391677856</t>
+    <t xml:space="preserve">16.1856422424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.60964012146</t>
   </si>
   <si>
     <t xml:space="preserve">16.0320415496826</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7632398605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6288394927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7824401855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.436840057373</t>
+    <t xml:space="preserve">15.7632417678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6288414001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7824411392212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4368391036987</t>
   </si>
   <si>
     <t xml:space="preserve">15.3024387359619</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1680374145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3984403610229</t>
+    <t xml:space="preserve">15.1680393218994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3984413146973</t>
   </si>
   <si>
     <t xml:space="preserve">14.9376382827759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1296396255493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6880378723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2080373764038</t>
+    <t xml:space="preserve">15.1296377182007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6880388259888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2080364227295</t>
   </si>
   <si>
     <t xml:space="preserve">14.1120357513428</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4000358581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7840366363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9760389328003</t>
+    <t xml:space="preserve">14.4000368118286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7840375900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.976037979126</t>
   </si>
   <si>
     <t xml:space="preserve">14.764838218689</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5728368759155</t>
+    <t xml:space="preserve">14.5728378295898</t>
   </si>
   <si>
     <t xml:space="preserve">14.6112375259399</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">14.8032379150391</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5152368545532</t>
+    <t xml:space="preserve">14.5152378082275</t>
   </si>
   <si>
     <t xml:space="preserve">14.4576377868652</t>
@@ -1958,43 +1958,43 @@
     <t xml:space="preserve">14.2272367477417</t>
   </si>
   <si>
-    <t xml:space="preserve">13.862434387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3056344985962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1712322235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5360355377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2480335235596</t>
+    <t xml:space="preserve">13.8624353408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3056335449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1712341308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5360345840454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2480344772339</t>
   </si>
   <si>
     <t xml:space="preserve">12.9600324630737</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5760316848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3264312744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0960311889648</t>
+    <t xml:space="preserve">12.5760326385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3264322280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0960321426392</t>
   </si>
   <si>
     <t xml:space="preserve">11.6160306930542</t>
   </si>
   <si>
-    <t xml:space="preserve">11.174427986145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2528266906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0800266265869</t>
+    <t xml:space="preserve">11.1744289398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2528257369995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0800256729126</t>
   </si>
   <si>
     <t xml:space="preserve">9.71522426605225</t>
@@ -2006,22 +2006,22 @@
     <t xml:space="preserve">9.53282451629639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19842052459717</t>
+    <t xml:space="preserve">8.19842147827148</t>
   </si>
   <si>
     <t xml:space="preserve">8.65922260284424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21602344512939</t>
+    <t xml:space="preserve">9.21602439880371</t>
   </si>
   <si>
     <t xml:space="preserve">10.2912263870239</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8864278793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.076831817627</t>
+    <t xml:space="preserve">10.8864288330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0768308639526</t>
   </si>
   <si>
     <t xml:space="preserve">13.0560340881348</t>
@@ -2033,22 +2033,22 @@
     <t xml:space="preserve">11.0976285934448</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0592288970947</t>
+    <t xml:space="preserve">11.0592279434204</t>
   </si>
   <si>
     <t xml:space="preserve">10.7712278366089</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1952257156372</t>
+    <t xml:space="preserve">10.1952266693115</t>
   </si>
   <si>
     <t xml:space="preserve">10.4640264511108</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7520265579224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8672275543213</t>
+    <t xml:space="preserve">10.7520275115967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8672285079956</t>
   </si>
   <si>
     <t xml:space="preserve">11.2512283325195</t>
@@ -2060,22 +2060,22 @@
     <t xml:space="preserve">10.7136268615723</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3296251296997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0032262802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3488264083862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6368265151978</t>
+    <t xml:space="preserve">10.329626083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0032253265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3488254547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6368274688721</t>
   </si>
   <si>
     <t xml:space="preserve">10.5600271224976</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9056272506714</t>
+    <t xml:space="preserve">10.9056282043457</t>
   </si>
   <si>
     <t xml:space="preserve">10.8480291366577</t>
@@ -2084,10 +2084,10 @@
     <t xml:space="preserve">10.8288269042969</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9440269470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9632272720337</t>
+    <t xml:space="preserve">10.9440279006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.963228225708</t>
   </si>
   <si>
     <t xml:space="preserve">10.6752281188965</t>
@@ -2096,37 +2096,37 @@
     <t xml:space="preserve">11.1360282897949</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0784282684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6352291107178</t>
+    <t xml:space="preserve">11.0784273147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6352300643921</t>
   </si>
   <si>
     <t xml:space="preserve">11.7120294570923</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1936283111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5584287643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.65442943573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9424295425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1536302566528</t>
+    <t xml:space="preserve">11.1936273574829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5584297180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6544303894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9424304962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1536312103271</t>
   </si>
   <si>
     <t xml:space="preserve">12.4416313171387</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3648319244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2496318817139</t>
+    <t xml:space="preserve">12.3648309707642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2496309280396</t>
   </si>
   <si>
     <t xml:space="preserve">12.0000305175781</t>
@@ -2138,34 +2138,34 @@
     <t xml:space="preserve">11.1552286148071</t>
   </si>
   <si>
-    <t xml:space="preserve">11.328028678894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2320289611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0208282470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9248275756836</t>
+    <t xml:space="preserve">11.3280296325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2320280075073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.020827293396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9248285293579</t>
   </si>
   <si>
     <t xml:space="preserve">10.809627532959</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5408267974854</t>
+    <t xml:space="preserve">10.540825843811</t>
   </si>
   <si>
     <t xml:space="preserve">10.5792274475098</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7904262542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3472280502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4816293716431</t>
+    <t xml:space="preserve">10.7904281616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3472290039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4816284179688</t>
   </si>
   <si>
     <t xml:space="preserve">11.4240283966064</t>
@@ -2177,40 +2177,40 @@
     <t xml:space="preserve">11.1168279647827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7328271865845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5024261474609</t>
+    <t xml:space="preserve">10.7328281402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5024271011353</t>
   </si>
   <si>
     <t xml:space="preserve">10.5984268188477</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7888298034668</t>
+    <t xml:space="preserve">11.7888288497925</t>
   </si>
   <si>
     <t xml:space="preserve">11.5776300430298</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8272294998169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6736288070679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7696304321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6928310394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8080291748047</t>
+    <t xml:space="preserve">11.8272304534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6736297607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7696294784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6928300857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8080310821533</t>
   </si>
   <si>
     <t xml:space="preserve">11.8848304748535</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3840322494507</t>
+    <t xml:space="preserve">12.3840312957764</t>
   </si>
   <si>
     <t xml:space="preserve">12.288031578064</t>
@@ -2219,22 +2219,22 @@
     <t xml:space="preserve">12.2688302993774</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1152305603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1344308853149</t>
+    <t xml:space="preserve">12.1152315139771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1344318389893</t>
   </si>
   <si>
     <t xml:space="preserve">11.9616298675537</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9040307998657</t>
+    <t xml:space="preserve">11.9040298461914</t>
   </si>
   <si>
     <t xml:space="preserve">11.3856287002563</t>
   </si>
   <si>
-    <t xml:space="preserve">12.806432723999</t>
+    <t xml:space="preserve">12.8064336776733</t>
   </si>
   <si>
     <t xml:space="preserve">13.8240346908569</t>
@@ -2252,37 +2252,37 @@
     <t xml:space="preserve">13.4016342163086</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5936346054077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6320333480835</t>
+    <t xml:space="preserve">13.5936336517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6320343017578</t>
   </si>
   <si>
     <t xml:space="preserve">13.2672338485718</t>
   </si>
   <si>
-    <t xml:space="preserve">13.497633934021</t>
+    <t xml:space="preserve">13.4976348876953</t>
   </si>
   <si>
     <t xml:space="preserve">14.3040361404419</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9008359909058</t>
+    <t xml:space="preserve">13.9008340835571</t>
   </si>
   <si>
     <t xml:space="preserve">13.5744352340698</t>
   </si>
   <si>
-    <t xml:space="preserve">13.286434173584</t>
+    <t xml:space="preserve">13.2864351272583</t>
   </si>
   <si>
     <t xml:space="preserve">13.65123462677</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3440322875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.172830581665</t>
+    <t xml:space="preserve">13.3440341949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1728315353394</t>
   </si>
   <si>
     <t xml:space="preserve">12.2112321853638</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">12.5952320098877</t>
   </si>
   <si>
-    <t xml:space="preserve">13.017632484436</t>
+    <t xml:space="preserve">13.0176334381104</t>
   </si>
   <si>
     <t xml:space="preserve">12.9792337417603</t>
@@ -2303,13 +2303,13 @@
     <t xml:space="preserve">13.2096338272095</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4784336090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6128358840942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7280359268188</t>
+    <t xml:space="preserve">13.4784355163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6128339767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7280349731445</t>
   </si>
   <si>
     <t xml:space="preserve">13.7879419326782</t>
@@ -2318,13 +2318,13 @@
     <t xml:space="preserve">13.807333946228</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5746269226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.613410949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4776639938354</t>
+    <t xml:space="preserve">13.5746259689331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6134119033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4776649475098</t>
   </si>
   <si>
     <t xml:space="preserve">13.6715888977051</t>
@@ -2333,22 +2333,22 @@
     <t xml:space="preserve">14.0206499099731</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0594348907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9236888885498</t>
+    <t xml:space="preserve">14.0594339370728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9236879348755</t>
   </si>
   <si>
     <t xml:space="preserve">14.3503198623657</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3309259414673</t>
+    <t xml:space="preserve">14.3309268951416</t>
   </si>
   <si>
     <t xml:space="preserve">14.3891048431396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1563959121704</t>
+    <t xml:space="preserve">14.1563968658447</t>
   </si>
   <si>
     <t xml:space="preserve">13.8655118942261</t>
@@ -2360,7 +2360,7 @@
     <t xml:space="preserve">13.9430809020996</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7685489654541</t>
+    <t xml:space="preserve">13.7685499191284</t>
   </si>
   <si>
     <t xml:space="preserve">13.710373878479</t>
@@ -2375,58 +2375,58 @@
     <t xml:space="preserve">14.0400419235229</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3115348815918</t>
+    <t xml:space="preserve">14.3115339279175</t>
   </si>
   <si>
     <t xml:space="preserve">14.5248498916626</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8933048248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8157358169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1841897964478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.222972869873</t>
+    <t xml:space="preserve">14.8933038711548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8157348632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1841888427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2229738235474</t>
   </si>
   <si>
     <t xml:space="preserve">16.6967906951904</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5416507720947</t>
+    <t xml:space="preserve">16.5416526794434</t>
   </si>
   <si>
     <t xml:space="preserve">16.3865146636963</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0180606842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1538047790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9986658096313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8047428131104</t>
+    <t xml:space="preserve">16.0180587768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1538066864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9986667633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.804744720459</t>
   </si>
   <si>
     <t xml:space="preserve">15.513858795166</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9404916763306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5332517623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6302137374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9210968017578</t>
+    <t xml:space="preserve">15.9404907226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5332527160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6302127838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9210987091064</t>
   </si>
   <si>
     <t xml:space="preserve">16.0568428039551</t>
@@ -2435,7 +2435,7 @@
     <t xml:space="preserve">16.4640827178955</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8131446838379</t>
+    <t xml:space="preserve">16.8131427764893</t>
   </si>
   <si>
     <t xml:space="preserve">16.9876747131348</t>
@@ -2447,16 +2447,16 @@
     <t xml:space="preserve">16.8519287109375</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9294967651367</t>
+    <t xml:space="preserve">16.9294986724854</t>
   </si>
   <si>
     <t xml:space="preserve">16.9101066589355</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3755226135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.356128692627</t>
+    <t xml:space="preserve">17.3755207061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3561305999756</t>
   </si>
   <si>
     <t xml:space="preserve">17.4143047332764</t>
@@ -2468,31 +2468,31 @@
     <t xml:space="preserve">16.6580066680908</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6386127471924</t>
+    <t xml:space="preserve">16.638614654541</t>
   </si>
   <si>
     <t xml:space="preserve">17.1234226226807</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8713226318359</t>
+    <t xml:space="preserve">16.8713207244873</t>
   </si>
   <si>
     <t xml:space="preserve">17.1622066497803</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1428146362305</t>
+    <t xml:space="preserve">17.1428165435791</t>
   </si>
   <si>
     <t xml:space="preserve">17.0652446746826</t>
   </si>
   <si>
-    <t xml:space="preserve">18.189998626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3063545227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5390605926514</t>
+    <t xml:space="preserve">18.1900005340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3063526153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5390625</t>
   </si>
   <si>
     <t xml:space="preserve">19.8771305084229</t>
@@ -2507,13 +2507,13 @@
     <t xml:space="preserve">20.0225734710693</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9921913146973</t>
+    <t xml:space="preserve">20.9921894073486</t>
   </si>
   <si>
     <t xml:space="preserve">20.7497863769531</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3619403839111</t>
+    <t xml:space="preserve">20.3619384765625</t>
   </si>
   <si>
     <t xml:space="preserve">20.2164974212646</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">20.119535446167</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2649784088135</t>
+    <t xml:space="preserve">20.2649803161621</t>
   </si>
   <si>
     <t xml:space="preserve">20.6528244018555</t>
@@ -2531,10 +2531,10 @@
     <t xml:space="preserve">20.798267364502</t>
   </si>
   <si>
-    <t xml:space="preserve">20.895227432251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2345924377441</t>
+    <t xml:space="preserve">20.8952293395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2345962524414</t>
   </si>
   <si>
     <t xml:space="preserve">21.1376323699951</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">19.9740924835205</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7316913604736</t>
+    <t xml:space="preserve">19.731689453125</t>
   </si>
   <si>
     <t xml:space="preserve">19.5862483978271</t>
@@ -2561,10 +2561,10 @@
     <t xml:space="preserve">19.7801704406738</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0710563659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3923244476318</t>
+    <t xml:space="preserve">20.0710544586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3923225402832</t>
   </si>
   <si>
     <t xml:space="preserve">20.5073833465576</t>
@@ -2576,19 +2576,19 @@
     <t xml:space="preserve">20.4589004516602</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3800373077393</t>
+    <t xml:space="preserve">21.3800354003906</t>
   </si>
   <si>
     <t xml:space="preserve">21.9618053436279</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5739593505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0587673187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0102882385254</t>
+    <t xml:space="preserve">21.5739612579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0587692260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0102863311768</t>
   </si>
   <si>
     <t xml:space="preserve">22.1072483062744</t>
@@ -2603,13 +2603,13 @@
     <t xml:space="preserve">22.2526912689209</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4769973754883</t>
+    <t xml:space="preserve">21.4769992828369</t>
   </si>
   <si>
     <t xml:space="preserve">21.6224403381348</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7194004058838</t>
+    <t xml:space="preserve">21.7194023132324</t>
   </si>
   <si>
     <t xml:space="preserve">22.5920562744141</t>
@@ -2624,7 +2624,7 @@
     <t xml:space="preserve">22.9314212799072</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6890201568604</t>
+    <t xml:space="preserve">22.6890182495117</t>
   </si>
   <si>
     <t xml:space="preserve">22.3011722564697</t>
@@ -2633,13 +2633,13 @@
     <t xml:space="preserve">21.9133262634277</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6709232330322</t>
+    <t xml:space="preserve">21.6709213256836</t>
   </si>
   <si>
     <t xml:space="preserve">21.0891532897949</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0406723022461</t>
+    <t xml:space="preserve">21.0406703948975</t>
   </si>
   <si>
     <t xml:space="preserve">22.2042121887207</t>
@@ -2648,64 +2648,64 @@
     <t xml:space="preserve">24.8221759796143</t>
   </si>
   <si>
-    <t xml:space="preserve">24.240406036377</t>
+    <t xml:space="preserve">24.2404041290283</t>
   </si>
   <si>
     <t xml:space="preserve">23.7555961608887</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7071170806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.464714050293</t>
+    <t xml:space="preserve">23.7071151733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4647121429443</t>
   </si>
   <si>
     <t xml:space="preserve">23.5616722106934</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8040752410889</t>
+    <t xml:space="preserve">23.8040771484375</t>
   </si>
   <si>
     <t xml:space="preserve">23.5131931304932</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0464820861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9010391235352</t>
+    <t xml:space="preserve">24.046480178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9010372161865</t>
   </si>
   <si>
     <t xml:space="preserve">23.3677501678467</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0949611663818</t>
+    <t xml:space="preserve">24.0949630737305</t>
   </si>
   <si>
     <t xml:space="preserve">23.9980010986328</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9495220184326</t>
+    <t xml:space="preserve">23.949520111084</t>
   </si>
   <si>
     <t xml:space="preserve">23.3192672729492</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8525581359863</t>
+    <t xml:space="preserve">23.852560043335</t>
   </si>
   <si>
     <t xml:space="preserve">23.1253471374512</t>
   </si>
   <si>
-    <t xml:space="preserve">22.882942199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5435752868652</t>
+    <t xml:space="preserve">22.8829441070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5435771942139</t>
   </si>
   <si>
     <t xml:space="preserve">21.8648452758789</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4950942993164</t>
+    <t xml:space="preserve">22.495096206665</t>
   </si>
   <si>
     <t xml:space="preserve">22.4466152191162</t>
@@ -2714,7 +2714,7 @@
     <t xml:space="preserve">24.5312881469727</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1919231414795</t>
+    <t xml:space="preserve">24.1919250488281</t>
   </si>
   <si>
     <t xml:space="preserve">24.7736930847168</t>
@@ -2723,22 +2723,22 @@
     <t xml:space="preserve">24.337366104126</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1434421539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7917900085449</t>
+    <t xml:space="preserve">24.1434440612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7917919158936</t>
   </si>
   <si>
     <t xml:space="preserve">26.0826759338379</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4705200195312</t>
+    <t xml:space="preserve">26.4705219268799</t>
   </si>
   <si>
     <t xml:space="preserve">26.1796360015869</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1311569213867</t>
+    <t xml:space="preserve">26.1311588287354</t>
   </si>
   <si>
     <t xml:space="preserve">26.2765979766846</t>
@@ -2747,10 +2747,10 @@
     <t xml:space="preserve">25.9857139587402</t>
   </si>
   <si>
-    <t xml:space="preserve">26.809886932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9068508148193</t>
+    <t xml:space="preserve">26.8098850250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9068489074707</t>
   </si>
   <si>
     <t xml:space="preserve">27.8279838562012</t>
@@ -2762,43 +2762,43 @@
     <t xml:space="preserve">27.6825428009033</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2158317565918</t>
+    <t xml:space="preserve">28.2158298492432</t>
   </si>
   <si>
     <t xml:space="preserve">28.8460826873779</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3127918243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.652156829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1188697814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9734287261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0703887939453</t>
+    <t xml:space="preserve">28.3127937316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6521587371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1188678741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9734268188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0703907012939</t>
   </si>
   <si>
     <t xml:space="preserve">27.87646484375</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5855827331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2946949005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4886169433594</t>
+    <t xml:space="preserve">27.5855808258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2946968078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.488618850708</t>
   </si>
   <si>
     <t xml:space="preserve">27.3916568756104</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0522899627686</t>
+    <t xml:space="preserve">27.0522918701172</t>
   </si>
   <si>
     <t xml:space="preserve">27.2648448944092</t>
@@ -3927,6 +3927,9 @@
   </si>
   <si>
     <t xml:space="preserve">36.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4500007629395</t>
   </si>
 </sst>
 </file>
@@ -60376,7 +60379,7 @@
     </row>
     <row r="2159">
       <c r="A2159" s="1" t="n">
-        <v>45468.6525578704</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B2159" t="n">
         <v>95592</v>
@@ -60397,6 +60400,32 @@
         <v>1304</v>
       </c>
       <c r="H2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>45469.6509606481</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>48460</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>36.7000007629395</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>36.7000007629395</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>35.4500007629395</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H2160" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAN.MI.xlsx
+++ b/data/DAN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="1308">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,85 +47,85 @@
     <t xml:space="preserve">16.0230255126953</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5182161331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8170928955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4898977279663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2094497680664</t>
+    <t xml:space="preserve">15.518214225769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8170900344849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4898996353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2094507217407</t>
   </si>
   <si>
     <t xml:space="preserve">14.5646858215332</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3122816085815</t>
+    <t xml:space="preserve">14.3122835159302</t>
   </si>
   <si>
     <t xml:space="preserve">14.1346635818481</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3587532043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0409097671509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1343946456909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5267515182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1998319625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3867988586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2006454467773</t>
+    <t xml:space="preserve">13.3587522506714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0409107208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1343936920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5267524719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1998310089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3867969512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2006435394287</t>
   </si>
   <si>
     <t xml:space="preserve">16.3595638275146</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6400127410889</t>
+    <t xml:space="preserve">16.6400165557861</t>
   </si>
   <si>
     <t xml:space="preserve">16.3969593048096</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6774063110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4439697265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9204635620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7706212997437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.415657043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6023502349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2284164428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2377653121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490936279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3966884613037</t>
+    <t xml:space="preserve">16.6774082183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4439678192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9204654693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.770619392395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4156532287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6023511886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.228419303894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2377662658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490926742554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3966875076294</t>
   </si>
   <si>
     <t xml:space="preserve">15.2938566207886</t>
@@ -140,10 +140,10 @@
     <t xml:space="preserve">17.0887355804443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2476539611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3878803253174</t>
+    <t xml:space="preserve">17.2476558685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3878784179688</t>
   </si>
   <si>
     <t xml:space="preserve">17.294397354126</t>
@@ -155,25 +155,25 @@
     <t xml:space="preserve">16.6680603027344</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6587104797363</t>
+    <t xml:space="preserve">16.6587085723877</t>
   </si>
   <si>
     <t xml:space="preserve">17.1541728973389</t>
   </si>
   <si>
-    <t xml:space="preserve">16.957857131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.509407043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6402854919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7057247161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7711639404297</t>
+    <t xml:space="preserve">16.9578590393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5094089508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.640287399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7057228088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7711620330811</t>
   </si>
   <si>
     <t xml:space="preserve">16.8550243377686</t>
@@ -182,46 +182,46 @@
     <t xml:space="preserve">17.5561504364014</t>
   </si>
   <si>
-    <t xml:space="preserve">17.855297088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2009143829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.593542098999</t>
+    <t xml:space="preserve">17.8552951812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2009124755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5935440063477</t>
   </si>
   <si>
     <t xml:space="preserve">17.7992076873779</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3411388397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5278358459473</t>
+    <t xml:space="preserve">17.341136932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5278339385986</t>
   </si>
   <si>
     <t xml:space="preserve">16.873722076416</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2663516998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6215896606445</t>
+    <t xml:space="preserve">17.2663497924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6215877532959</t>
   </si>
   <si>
     <t xml:space="preserve">16.8924198150635</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8456783294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4533176422119</t>
+    <t xml:space="preserve">16.8456764221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4533195495605</t>
   </si>
   <si>
     <t xml:space="preserve">17.9020385742188</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9768257141113</t>
+    <t xml:space="preserve">17.9768238067627</t>
   </si>
   <si>
     <t xml:space="preserve">17.7431163787842</t>
@@ -233,34 +233,34 @@
     <t xml:space="preserve">18.4629383087158</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3694534301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1357460021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9394340515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6966457366943</t>
+    <t xml:space="preserve">18.3694553375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1357440948486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9394283294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6966438293457</t>
   </si>
   <si>
     <t xml:space="preserve">18.7620830535889</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7901306152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4442405700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6779479980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3788051605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2385787963867</t>
+    <t xml:space="preserve">18.7901268005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4442386627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6779460906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3788032531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2385749816895</t>
   </si>
   <si>
     <t xml:space="preserve">17.8085536956787</t>
@@ -275,43 +275,43 @@
     <t xml:space="preserve">17.500057220459</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4065742492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0980815887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1635189056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8830718994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6306686401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4623966217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5652256011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0700359344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7708930969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7334957122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4810905456543</t>
+    <t xml:space="preserve">17.4065799713135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0980854034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1635208129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8830680847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6306667327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4623985290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5652275085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0700397491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7708892822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7334976196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4810943603516</t>
   </si>
   <si>
     <t xml:space="preserve">17.6963748931885</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8363285064697</t>
+    <t xml:space="preserve">16.8363304138184</t>
   </si>
   <si>
     <t xml:space="preserve">16.8176326751709</t>
@@ -320,34 +320,34 @@
     <t xml:space="preserve">17.5748481750488</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3224430084229</t>
+    <t xml:space="preserve">17.3224449157715</t>
   </si>
   <si>
     <t xml:space="preserve">17.3691825866699</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1165046691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1539039611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2471132278442</t>
+    <t xml:space="preserve">16.1165084838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.153902053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2471122741699</t>
   </si>
   <si>
     <t xml:space="preserve">15.050799369812</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3592958450317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6303949356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2660789489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2751588821411</t>
+    <t xml:space="preserve">15.3592939376831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.630392074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2660827636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2751579284668</t>
   </si>
   <si>
     <t xml:space="preserve">14.7329568862915</t>
@@ -362,61 +362,61 @@
     <t xml:space="preserve">14.9666652679443</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7051811218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3218984603882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9105749130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2748880386353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5366411209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9386186599731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6958351135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6117010116577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7986660003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5462608337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6210441589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5930051803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6771354675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4530467987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9201946258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6864881515503</t>
+    <t xml:space="preserve">15.7051830291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3219003677368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9105758666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2748889923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.536642074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9386196136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.695837020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6116991043091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7986631393433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5462589263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6210479736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5930032730103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6771392822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4530487060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9201936721802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.686484336853</t>
   </si>
   <si>
     <t xml:space="preserve">16.4343528747559</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1352062225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3876075744629</t>
+    <t xml:space="preserve">16.1352043151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3876094818115</t>
   </si>
   <si>
     <t xml:space="preserve">16.490442276001</t>
@@ -431,10 +431,10 @@
     <t xml:space="preserve">17.4720134735107</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1354713439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9298114776611</t>
+    <t xml:space="preserve">17.1354751586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9298152923584</t>
   </si>
   <si>
     <t xml:space="preserve">16.9672050476074</t>
@@ -443,7 +443,7 @@
     <t xml:space="preserve">17.9487800598145</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4907093048096</t>
+    <t xml:space="preserve">17.4907131195068</t>
   </si>
   <si>
     <t xml:space="preserve">17.3598346710205</t>
@@ -452,34 +452,34 @@
     <t xml:space="preserve">17.5281047821045</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6683330535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4063053131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0884647369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0604209899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1258544921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2567348480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9388885498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9669370651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8641042709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7893161773682</t>
+    <t xml:space="preserve">17.6683311462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.406307220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0884628295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.060417175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1258563995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2567329406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9388904571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9669361114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8641023635864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7893171310425</t>
   </si>
   <si>
     <t xml:space="preserve">15.9108448028564</t>
@@ -488,55 +488,55 @@
     <t xml:space="preserve">16.3408660888672</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0232925415039</t>
+    <t xml:space="preserve">17.0232944488525</t>
   </si>
   <si>
     <t xml:space="preserve">16.3689136505127</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8360586166382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8454084396362</t>
+    <t xml:space="preserve">15.8360567092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8454065322876</t>
   </si>
   <si>
     <t xml:space="preserve">16.0043296813965</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6584396362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4527778625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5280199050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6032600402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8477973937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9324436187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0923328399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.819580078125</t>
+    <t xml:space="preserve">15.6584386825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4527788162231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.528018951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6032609939575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8477983474731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9324417114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0923347473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8195829391479</t>
   </si>
   <si>
     <t xml:space="preserve">15.2646732330322</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6220741271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.716121673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7067213058472</t>
+    <t xml:space="preserve">15.6220712661743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7161245346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7067193984985</t>
   </si>
   <si>
     <t xml:space="preserve">15.3493223190308</t>
@@ -545,28 +545,28 @@
     <t xml:space="preserve">16.0641174316406</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5343761444092</t>
+    <t xml:space="preserve">16.5343799591064</t>
   </si>
   <si>
     <t xml:space="preserve">16.1299533843994</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6879100799561</t>
+    <t xml:space="preserve">15.6879091262817</t>
   </si>
   <si>
     <t xml:space="preserve">15.8007707595825</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5092096328735</t>
+    <t xml:space="preserve">15.5092086791992</t>
   </si>
   <si>
     <t xml:space="preserve">16.0829296112061</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2522239685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0359001159668</t>
+    <t xml:space="preserve">16.2522220611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0359020233154</t>
   </si>
   <si>
     <t xml:space="preserve">16.7883186340332</t>
@@ -575,28 +575,28 @@
     <t xml:space="preserve">17.399658203125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4748992919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.352632522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4372806549072</t>
+    <t xml:space="preserve">17.4749011993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3526344299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4372825622559</t>
   </si>
   <si>
     <t xml:space="preserve">17.2397689819336</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1645278930664</t>
+    <t xml:space="preserve">17.164529800415</t>
   </si>
   <si>
     <t xml:space="preserve">16.6942672729492</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3056049346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1175022125244</t>
+    <t xml:space="preserve">17.305606842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.117504119873</t>
   </si>
   <si>
     <t xml:space="preserve">17.3808479309082</t>
@@ -608,22 +608,22 @@
     <t xml:space="preserve">18.1238613128662</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1614818572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1050510406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6599597930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1396255493164</t>
+    <t xml:space="preserve">18.1614799499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1050491333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6599578857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1396236419678</t>
   </si>
   <si>
     <t xml:space="preserve">19.1866512298584</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7979888916016</t>
+    <t xml:space="preserve">19.7979907989502</t>
   </si>
   <si>
     <t xml:space="preserve">19.8732299804688</t>
@@ -632,10 +632,10 @@
     <t xml:space="preserve">19.3559436798096</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1490306854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7039394378662</t>
+    <t xml:space="preserve">19.1490325927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7039375305176</t>
   </si>
   <si>
     <t xml:space="preserve">19.5722637176514</t>
@@ -644,40 +644,40 @@
     <t xml:space="preserve">19.421781539917</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3183250427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0925998687744</t>
+    <t xml:space="preserve">19.3183212280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0925979614258</t>
   </si>
   <si>
     <t xml:space="preserve">19.2524852752686</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1772441864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1678409576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.989143371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8104419708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6317405700684</t>
+    <t xml:space="preserve">19.17724609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1678371429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9891414642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8104400634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.631742477417</t>
   </si>
   <si>
     <t xml:space="preserve">18.340181350708</t>
   </si>
   <si>
-    <t xml:space="preserve">18.688175201416</t>
+    <t xml:space="preserve">18.6881771087646</t>
   </si>
   <si>
     <t xml:space="preserve">18.7634162902832</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6975803375244</t>
+    <t xml:space="preserve">18.6975784301758</t>
   </si>
   <si>
     <t xml:space="preserve">18.6035289764404</t>
@@ -686,34 +686,34 @@
     <t xml:space="preserve">18.7163906097412</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5094738006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5565013885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7446041107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8480644226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8574657440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9609241485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.280704498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6569118499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.327730178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3653507232666</t>
+    <t xml:space="preserve">18.5094718933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5564994812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7446060180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8480625152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8574676513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9609260559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2807025909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6569137573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3277282714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.365348815918</t>
   </si>
   <si>
     <t xml:space="preserve">19.6098861694336</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">19.6945323944092</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1960563659668</t>
+    <t xml:space="preserve">19.1960544586182</t>
   </si>
   <si>
     <t xml:space="preserve">19.4876155853271</t>
@@ -737,10 +737,10 @@
     <t xml:space="preserve">19.4594020843506</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5910758972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2712955474854</t>
+    <t xml:space="preserve">19.5910739898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2712993621826</t>
   </si>
   <si>
     <t xml:space="preserve">19.4688091278076</t>
@@ -761,13 +761,13 @@
     <t xml:space="preserve">20.6350536346436</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8795909881592</t>
+    <t xml:space="preserve">20.8795871734619</t>
   </si>
   <si>
     <t xml:space="preserve">21.1147212982178</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2275829315186</t>
+    <t xml:space="preserve">21.2275810241699</t>
   </si>
   <si>
     <t xml:space="preserve">21.2087726593018</t>
@@ -776,79 +776,79 @@
     <t xml:space="preserve">20.399923324585</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8701877593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6444625854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5033798217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8325634002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9078025817871</t>
+    <t xml:space="preserve">20.8701858520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.644458770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.503381729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8325653076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9078044891357</t>
   </si>
   <si>
     <t xml:space="preserve">20.8607788085938</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7573223114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7855358123779</t>
+    <t xml:space="preserve">20.75732421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7855415344238</t>
   </si>
   <si>
     <t xml:space="preserve">20.9172115325928</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7385101318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0770988464355</t>
+    <t xml:space="preserve">20.7385120391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0771007537842</t>
   </si>
   <si>
     <t xml:space="preserve">21.1241245269775</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7102947235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0394821166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9141654968262</t>
+    <t xml:space="preserve">20.710298538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0394802093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9141616821289</t>
   </si>
   <si>
     <t xml:space="preserve">21.7636814117432</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6320056915283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5849838256836</t>
+    <t xml:space="preserve">21.632007598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.584981918335</t>
   </si>
   <si>
     <t xml:space="preserve">21.3968772888184</t>
   </si>
   <si>
-    <t xml:space="preserve">21.38747215271</t>
+    <t xml:space="preserve">21.3874702453613</t>
   </si>
   <si>
     <t xml:space="preserve">21.189962387085</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5379543304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3686599731445</t>
+    <t xml:space="preserve">21.5379581451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3686618804932</t>
   </si>
   <si>
     <t xml:space="preserve">21.6131973266602</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4909324645996</t>
+    <t xml:space="preserve">21.490930557251</t>
   </si>
   <si>
     <t xml:space="preserve">20.8983993530273</t>
@@ -857,25 +857,25 @@
     <t xml:space="preserve">21.434497833252</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2181758880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3780651092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5191440582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5097389221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6037940979004</t>
+    <t xml:space="preserve">21.2181777954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3780689239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5191459655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5097427368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6037921905518</t>
   </si>
   <si>
     <t xml:space="preserve">21.5473594665527</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1993637084961</t>
+    <t xml:space="preserve">21.1993675231934</t>
   </si>
   <si>
     <t xml:space="preserve">21.4439029693604</t>
@@ -890,49 +890,49 @@
     <t xml:space="preserve">20.6538639068604</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6632709503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5786228179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8889923095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5315971374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2964649200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4657611846924</t>
+    <t xml:space="preserve">20.6632690429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5786247253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8889942169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5315990447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2964668273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4657592773438</t>
   </si>
   <si>
     <t xml:space="preserve">20.0425243377686</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1553897857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5221920013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.550407409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8043479919434</t>
+    <t xml:space="preserve">20.155387878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5221939086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5504093170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.804349899292</t>
   </si>
   <si>
     <t xml:space="preserve">20.6914844512939</t>
   </si>
   <si>
-    <t xml:space="preserve">20.20241355896</t>
+    <t xml:space="preserve">20.2024154663086</t>
   </si>
   <si>
     <t xml:space="preserve">20.0801467895508</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1365795135498</t>
+    <t xml:space="preserve">20.1365776062012</t>
   </si>
   <si>
     <t xml:space="preserve">19.9672832489014</t>
@@ -944,13 +944,13 @@
     <t xml:space="preserve">20.3246841430664</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2494411468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3623027801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9202575683594</t>
+    <t xml:space="preserve">20.2494430541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3623046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.920259475708</t>
   </si>
   <si>
     <t xml:space="preserve">20.9266166687012</t>
@@ -968,43 +968,43 @@
     <t xml:space="preserve">20.6726741790771</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3811130523682</t>
+    <t xml:space="preserve">20.3811111450195</t>
   </si>
   <si>
     <t xml:space="preserve">20.747917175293</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1053142547607</t>
+    <t xml:space="preserve">21.1053161621094</t>
   </si>
   <si>
     <t xml:space="preserve">20.59743309021</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8231601715088</t>
+    <t xml:space="preserve">20.8231582641602</t>
   </si>
   <si>
     <t xml:space="preserve">21.1523399353027</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4627113342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9830455780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7291088104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5880279541016</t>
+    <t xml:space="preserve">21.4627132415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9830493927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7291069030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5880298614502</t>
   </si>
   <si>
     <t xml:space="preserve">20.6256484985352</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1271724700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0895519256592</t>
+    <t xml:space="preserve">20.1271743774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0895538330078</t>
   </si>
   <si>
     <t xml:space="preserve">20.014310836792</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">19.7791805267334</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4970207214355</t>
+    <t xml:space="preserve">19.4970226287842</t>
   </si>
   <si>
     <t xml:space="preserve">19.0173568725586</t>
@@ -1040,37 +1040,37 @@
     <t xml:space="preserve">19.2336769104004</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9139003753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7916316986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.895092010498</t>
+    <t xml:space="preserve">18.9139022827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7916278839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8950881958008</t>
   </si>
   <si>
     <t xml:space="preserve">18.6693649291992</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0455722808838</t>
+    <t xml:space="preserve">19.0455703735352</t>
   </si>
   <si>
     <t xml:space="preserve">19.3747539520264</t>
   </si>
   <si>
-    <t xml:space="preserve">19.214771270752</t>
+    <t xml:space="preserve">19.2147750854492</t>
   </si>
   <si>
     <t xml:space="preserve">19.1864166259766</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7611045837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.534273147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1278591156006</t>
+    <t xml:space="preserve">18.7611064910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5342712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1278553009033</t>
   </si>
   <si>
     <t xml:space="preserve">18.0711498260498</t>
@@ -1079,16 +1079,16 @@
     <t xml:space="preserve">17.8632183074951</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8915748596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1656646728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.118408203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.194019317627</t>
+    <t xml:space="preserve">17.8915710449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1656627655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1184062957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1940174102783</t>
   </si>
   <si>
     <t xml:space="preserve">18.4964637756348</t>
@@ -1106,31 +1106,31 @@
     <t xml:space="preserve">18.3924980163574</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7232990264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5909767150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4492092132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9028759002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0068397521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9312305450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.921781539917</t>
+    <t xml:space="preserve">18.7232971191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5909805297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4492073059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9028739929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0068416595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9312286376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9217796325684</t>
   </si>
   <si>
     <t xml:space="preserve">18.8461685180664</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5815277099609</t>
+    <t xml:space="preserve">18.5815238952637</t>
   </si>
   <si>
     <t xml:space="preserve">18.609884262085</t>
@@ -1139,13 +1139,13 @@
     <t xml:space="preserve">18.6760425567627</t>
   </si>
   <si>
-    <t xml:space="preserve">18.713846206665</t>
+    <t xml:space="preserve">18.7138500213623</t>
   </si>
   <si>
     <t xml:space="preserve">18.7043972015381</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8934268951416</t>
+    <t xml:space="preserve">18.8934230804443</t>
   </si>
   <si>
     <t xml:space="preserve">18.9406814575195</t>
@@ -1154,13 +1154,13 @@
     <t xml:space="preserve">18.8272647857666</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6193332672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7327499389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1391639709473</t>
+    <t xml:space="preserve">18.6193351745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7327480316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.13916015625</t>
   </si>
   <si>
     <t xml:space="preserve">19.4227046966553</t>
@@ -1172,28 +1172,28 @@
     <t xml:space="preserve">19.9897899627686</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7931632995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5492782592773</t>
+    <t xml:space="preserve">20.7931652069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5492763519287</t>
   </si>
   <si>
     <t xml:space="preserve">21.8328227996826</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7855663299561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6437950134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8800773620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7383079528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0218486785889</t>
+    <t xml:space="preserve">21.7855644226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6437931060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8800811767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7383098602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0218467712402</t>
   </si>
   <si>
     <t xml:space="preserve">22.0691070556641</t>
@@ -1202,10 +1202,10 @@
     <t xml:space="preserve">21.2657356262207</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6986484527588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3129920959473</t>
+    <t xml:space="preserve">20.6986503601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3129901885986</t>
   </si>
   <si>
     <t xml:space="preserve">20.8876800537109</t>
@@ -1220,10 +1220,10 @@
     <t xml:space="preserve">21.3602504730225</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4547672271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4075088500977</t>
+    <t xml:space="preserve">21.4547653198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4075050354004</t>
   </si>
   <si>
     <t xml:space="preserve">21.1239624023438</t>
@@ -1232,31 +1232,31 @@
     <t xml:space="preserve">20.9349346160889</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9745922088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.494421005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1636219024658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3526515960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2581367492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0767059326172</t>
+    <t xml:space="preserve">21.9745941162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4944229125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1636199951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3526496887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2581348419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0767078399658</t>
   </si>
   <si>
     <t xml:space="preserve">21.5020217895508</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5568771362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4623622894287</t>
+    <t xml:space="preserve">20.5568790435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4623641967773</t>
   </si>
   <si>
     <t xml:space="preserve">21.1712207794189</t>
@@ -1271,46 +1271,46 @@
     <t xml:space="preserve">21.5965366363525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6513938903809</t>
+    <t xml:space="preserve">20.6513919830322</t>
   </si>
   <si>
     <t xml:space="preserve">20.745906829834</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3678455352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.280933380127</t>
+    <t xml:space="preserve">20.3678493499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2809314727783</t>
   </si>
   <si>
     <t xml:space="preserve">19.3754482269287</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5644760131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0370502471924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8480243682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6041355133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5096225738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2260761260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4151077270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2733345031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1315612792969</t>
+    <t xml:space="preserve">19.5644779205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0370483398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8480205535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.604133605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5096206665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2260780334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4151058197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2733364105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1315631866455</t>
   </si>
   <si>
     <t xml:space="preserve">20.1788196563721</t>
@@ -1319,28 +1319,28 @@
     <t xml:space="preserve">19.6589908599854</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8007659912109</t>
+    <t xml:space="preserve">19.8007621765137</t>
   </si>
   <si>
     <t xml:space="preserve">19.7535076141357</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8952751159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9425354003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.517219543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4699611663818</t>
+    <t xml:space="preserve">19.8952770233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9425315856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5172214508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4699649810791</t>
   </si>
   <si>
     <t xml:space="preserve">19.6117343902588</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0843048095703</t>
+    <t xml:space="preserve">20.0843029022217</t>
   </si>
   <si>
     <t xml:space="preserve">21.6910533905029</t>
@@ -1349,55 +1349,55 @@
     <t xml:space="preserve">20.3205909729004</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9388313293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.500358581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8973159790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9521751403809</t>
+    <t xml:space="preserve">17.9388294219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5003576278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8973197937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9521760940552</t>
   </si>
   <si>
     <t xml:space="preserve">14.6497287750244</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9899806976318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5948724746704</t>
+    <t xml:space="preserve">14.9899816513062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5948705673218</t>
   </si>
   <si>
     <t xml:space="preserve">15.8217058181763</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1997623443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7271909713745</t>
+    <t xml:space="preserve">16.199764251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7271928787231</t>
   </si>
   <si>
     <t xml:space="preserve">15.5192632675171</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6515817642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0674476623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9918327331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8595132827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7839012145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5759706497192</t>
+    <t xml:space="preserve">15.6515798568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0674438476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9918336868286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8595142364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7839031219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5759696960449</t>
   </si>
   <si>
     <t xml:space="preserve">15.1979122161865</t>
@@ -1406,10 +1406,10 @@
     <t xml:space="preserve">15.0457439422607</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7604265213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5892343521118</t>
+    <t xml:space="preserve">14.760425567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5892353057861</t>
   </si>
   <si>
     <t xml:space="preserve">14.6272773742676</t>
@@ -1418,19 +1418,19 @@
     <t xml:space="preserve">15.1028060913086</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1218280792236</t>
+    <t xml:space="preserve">15.1218271255493</t>
   </si>
   <si>
     <t xml:space="preserve">14.8365106582642</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3310623168945</t>
+    <t xml:space="preserve">15.3310613632202</t>
   </si>
   <si>
     <t xml:space="preserve">15.6354007720947</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4642086029053</t>
+    <t xml:space="preserve">15.4642095565796</t>
   </si>
   <si>
     <t xml:space="preserve">14.2468538284302</t>
@@ -1448,7 +1448,7 @@
     <t xml:space="preserve">14.5131511688232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3419599533081</t>
+    <t xml:space="preserve">14.3419589996338</t>
   </si>
   <si>
     <t xml:space="preserve">14.3229389190674</t>
@@ -1460,25 +1460,25 @@
     <t xml:space="preserve">14.1327266693115</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8093681335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7903451919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9615383148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2278337478638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3800020217896</t>
+    <t xml:space="preserve">13.8093671798706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7903461456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9615364074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2278327941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3800029754639</t>
   </si>
   <si>
     <t xml:space="preserve">14.7033624649048</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9316148757935</t>
+    <t xml:space="preserve">14.9316158294678</t>
   </si>
   <si>
     <t xml:space="preserve">15.4071464538574</t>
@@ -1487,13 +1487,13 @@
     <t xml:space="preserve">15.3120393753052</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2169332504272</t>
+    <t xml:space="preserve">15.2169342041016</t>
   </si>
   <si>
     <t xml:space="preserve">15.2549772262573</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0837850570679</t>
+    <t xml:space="preserve">15.0837860107422</t>
   </si>
   <si>
     <t xml:space="preserve">15.2930183410645</t>
@@ -1505,7 +1505,7 @@
     <t xml:space="preserve">15.3881235122681</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7305068969727</t>
+    <t xml:space="preserve">15.7305059432983</t>
   </si>
   <si>
     <t xml:space="preserve">16.1679916381836</t>
@@ -1517,19 +1517,19 @@
     <t xml:space="preserve">17.1000289916992</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1190490722656</t>
+    <t xml:space="preserve">17.1190509796143</t>
   </si>
   <si>
     <t xml:space="preserve">16.7005844116211</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6244983673096</t>
+    <t xml:space="preserve">16.6245002746582</t>
   </si>
   <si>
     <t xml:space="preserve">16.4723300933838</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5674362182617</t>
+    <t xml:space="preserve">16.5674343109131</t>
   </si>
   <si>
     <t xml:space="preserve">16.1870136260986</t>
@@ -1541,7 +1541,7 @@
     <t xml:space="preserve">16.0158214569092</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3391819000244</t>
+    <t xml:space="preserve">16.339183807373</t>
   </si>
   <si>
     <t xml:space="preserve">16.3582038879395</t>
@@ -1553,22 +1553,22 @@
     <t xml:space="preserve">16.8337345123291</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7196083068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4913501739502</t>
+    <t xml:space="preserve">16.7196044921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4913539886475</t>
   </si>
   <si>
     <t xml:space="preserve">16.6435203552246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6625423431396</t>
+    <t xml:space="preserve">16.6625442504883</t>
   </si>
   <si>
     <t xml:space="preserve">16.4342880249023</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8147125244141</t>
+    <t xml:space="preserve">16.8147106170654</t>
   </si>
   <si>
     <t xml:space="preserve">16.9288387298584</t>
@@ -1580,7 +1580,7 @@
     <t xml:space="preserve">16.5293941497803</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0538635253906</t>
+    <t xml:space="preserve">16.0538654327393</t>
   </si>
   <si>
     <t xml:space="preserve">16.1489715576172</t>
@@ -1598,22 +1598,22 @@
     <t xml:space="preserve">16.5484142303467</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6054763793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7386283874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9859046936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1570949554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6896858215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5075931549072</t>
+    <t xml:space="preserve">16.6054782867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7386264801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9859027862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1570930480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6896839141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5075950622559</t>
   </si>
   <si>
     <t xml:space="preserve">18.4885730743408</t>
@@ -1625,34 +1625,34 @@
     <t xml:space="preserve">18.336404800415</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7467479705811</t>
+    <t xml:space="preserve">17.7467498779297</t>
   </si>
   <si>
     <t xml:space="preserve">17.3473033905029</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2141571044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1951370239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9478588104248</t>
+    <t xml:space="preserve">17.2141590118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1951351165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9478607177734</t>
   </si>
   <si>
     <t xml:space="preserve">16.8527526855469</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1761131286621</t>
+    <t xml:space="preserve">17.1761112213135</t>
   </si>
   <si>
     <t xml:space="preserve">17.0429668426514</t>
   </si>
   <si>
-    <t xml:space="preserve">17.27121925354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.366325378418</t>
+    <t xml:space="preserve">17.2712173461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3663272857666</t>
   </si>
   <si>
     <t xml:space="preserve">17.4424095153809</t>
@@ -1664,28 +1664,28 @@
     <t xml:space="preserve">16.4152679443359</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6924629211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7114858627319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6544208526611</t>
+    <t xml:space="preserve">15.6924610137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7114849090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6544179916382</t>
   </si>
   <si>
     <t xml:space="preserve">15.3691024780273</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8745527267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9886808395386</t>
+    <t xml:space="preserve">14.8745536804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9886798858643</t>
   </si>
   <si>
     <t xml:space="preserve">15.2739973068237</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9506368637085</t>
+    <t xml:space="preserve">14.9506378173828</t>
   </si>
   <si>
     <t xml:space="preserve">15.1598691940308</t>
@@ -1712,16 +1712,16 @@
     <t xml:space="preserve">14.6462984085083</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8174886703491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7685489654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5973567962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5783357620239</t>
+    <t xml:space="preserve">14.8174896240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7685480117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5973558425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5783367156982</t>
   </si>
   <si>
     <t xml:space="preserve">15.8636531829834</t>
@@ -1730,10 +1730,10 @@
     <t xml:space="preserve">15.4261665344238</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7875699996948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6163768768311</t>
+    <t xml:space="preserve">15.7875709533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.616379737854</t>
   </si>
   <si>
     <t xml:space="preserve">15.5212726593018</t>
@@ -1742,25 +1742,25 @@
     <t xml:space="preserve">15.2359552383423</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0647640228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7223834991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9696588516235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7984676361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4751091003418</t>
+    <t xml:space="preserve">15.0647649765015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7223825454712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9696578979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7984685897827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4751081466675</t>
   </si>
   <si>
     <t xml:space="preserve">14.4560861587524</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2658758163452</t>
+    <t xml:space="preserve">14.2658739089966</t>
   </si>
   <si>
     <t xml:space="preserve">14.0756635665894</t>
@@ -1772,10 +1772,10 @@
     <t xml:space="preserve">14.6082563400269</t>
   </si>
   <si>
-    <t xml:space="preserve">14.437066078186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9805574417114</t>
+    <t xml:space="preserve">14.4370670318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9805583953857</t>
   </si>
   <si>
     <t xml:space="preserve">14.0186004638672</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">14.779447555542</t>
   </si>
   <si>
-    <t xml:space="preserve">14.170768737793</t>
+    <t xml:space="preserve">14.1707696914673</t>
   </si>
   <si>
     <t xml:space="preserve">15.5593147277832</t>
@@ -1811,13 +1811,13 @@
     <t xml:space="preserve">14.665319442749</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1788902282715</t>
+    <t xml:space="preserve">15.1788911819458</t>
   </si>
   <si>
     <t xml:space="preserve">15.4832305908203</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2640380859375</t>
+    <t xml:space="preserve">15.2640390396118</t>
   </si>
   <si>
     <t xml:space="preserve">15.2448387145996</t>
@@ -1829,13 +1829,13 @@
     <t xml:space="preserve">14.9952383041382</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0720376968384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5712394714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8784418106079</t>
+    <t xml:space="preserve">15.0720386505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5712404251099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8784408569336</t>
   </si>
   <si>
     <t xml:space="preserve">16.6656436920166</t>
@@ -1844,37 +1844,37 @@
     <t xml:space="preserve">16.5312404632568</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8976392745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8592414855957</t>
+    <t xml:space="preserve">15.8976402282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8592405319214</t>
   </si>
   <si>
     <t xml:space="preserve">15.7248401641846</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7440395355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6480398178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9552421569824</t>
+    <t xml:space="preserve">15.7440404891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6480388641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9552392959595</t>
   </si>
   <si>
     <t xml:space="preserve">15.9936418533325</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3776397705078</t>
+    <t xml:space="preserve">16.3776416778564</t>
   </si>
   <si>
     <t xml:space="preserve">15.9168405532837</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8016395568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8400402069092</t>
+    <t xml:space="preserve">15.8016386032104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8400392532349</t>
   </si>
   <si>
     <t xml:space="preserve">16.2432403564453</t>
@@ -1883,40 +1883,40 @@
     <t xml:space="preserve">16.1856422424316</t>
   </si>
   <si>
-    <t xml:space="preserve">15.60964012146</t>
+    <t xml:space="preserve">15.6096410751343</t>
   </si>
   <si>
     <t xml:space="preserve">16.0320415496826</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7632398605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6288404464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7824420928955</t>
+    <t xml:space="preserve">15.763240814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6288394927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7824411392212</t>
   </si>
   <si>
     <t xml:space="preserve">15.4368391036987</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3024387359619</t>
+    <t xml:space="preserve">15.3024377822876</t>
   </si>
   <si>
     <t xml:space="preserve">15.1680383682251</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3984403610229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9376382827759</t>
+    <t xml:space="preserve">15.3984413146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9376392364502</t>
   </si>
   <si>
     <t xml:space="preserve">15.1296396255493</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6880378723145</t>
+    <t xml:space="preserve">14.6880369186401</t>
   </si>
   <si>
     <t xml:space="preserve">14.2080364227295</t>
@@ -1931,13 +1931,13 @@
     <t xml:space="preserve">14.7840375900269</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9760389328003</t>
+    <t xml:space="preserve">14.976037979126</t>
   </si>
   <si>
     <t xml:space="preserve">14.7648372650146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5728368759155</t>
+    <t xml:space="preserve">14.5728378295898</t>
   </si>
   <si>
     <t xml:space="preserve">14.6112375259399</t>
@@ -1946,13 +1946,13 @@
     <t xml:space="preserve">14.8032379150391</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5152368545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4576368331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2272357940674</t>
+    <t xml:space="preserve">14.5152359008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4576377868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2272367477417</t>
   </si>
   <si>
     <t xml:space="preserve">13.862434387207</t>
@@ -1961,7 +1961,7 @@
     <t xml:space="preserve">13.3056325912476</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1712341308594</t>
+    <t xml:space="preserve">13.1712331771851</t>
   </si>
   <si>
     <t xml:space="preserve">13.5360355377197</t>
@@ -1973,7 +1973,7 @@
     <t xml:space="preserve">12.9600324630737</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5760316848755</t>
+    <t xml:space="preserve">12.5760335922241</t>
   </si>
   <si>
     <t xml:space="preserve">12.3264312744141</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">10.2528266906738</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0800247192383</t>
+    <t xml:space="preserve">10.0800256729126</t>
   </si>
   <si>
     <t xml:space="preserve">9.71522521972656</t>
@@ -2000,19 +2000,19 @@
     <t xml:space="preserve">9.02402305603027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53282451629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19842147827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65922260284424</t>
+    <t xml:space="preserve">9.5328254699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19842052459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65922355651855</t>
   </si>
   <si>
     <t xml:space="preserve">9.21602439880371</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2912273406982</t>
+    <t xml:space="preserve">10.2912254333496</t>
   </si>
   <si>
     <t xml:space="preserve">10.8864278793335</t>
@@ -2024,10 +2024,10 @@
     <t xml:space="preserve">13.0560340881348</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7504301071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0976295471191</t>
+    <t xml:space="preserve">11.7504291534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0976285934448</t>
   </si>
   <si>
     <t xml:space="preserve">11.0592288970947</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve">10.7520275115967</t>
   </si>
   <si>
-    <t xml:space="preserve">10.867226600647</t>
+    <t xml:space="preserve">10.8672275543213</t>
   </si>
   <si>
     <t xml:space="preserve">11.2512292861938</t>
@@ -2054,19 +2054,19 @@
     <t xml:space="preserve">11.0400285720825</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7136268615723</t>
+    <t xml:space="preserve">10.7136278152466</t>
   </si>
   <si>
     <t xml:space="preserve">10.329626083374</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0032253265381</t>
+    <t xml:space="preserve">10.0032262802124</t>
   </si>
   <si>
     <t xml:space="preserve">10.3488264083862</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6368265151978</t>
+    <t xml:space="preserve">10.6368274688721</t>
   </si>
   <si>
     <t xml:space="preserve">10.5600271224976</t>
@@ -2078,16 +2078,16 @@
     <t xml:space="preserve">10.8480281829834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8288278579712</t>
+    <t xml:space="preserve">10.8288269042969</t>
   </si>
   <si>
     <t xml:space="preserve">10.9440269470215</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9632291793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6752271652222</t>
+    <t xml:space="preserve">10.9632272720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6752281188965</t>
   </si>
   <si>
     <t xml:space="preserve">11.1360282897949</t>
@@ -2102,7 +2102,7 @@
     <t xml:space="preserve">11.7120304107666</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1936283111572</t>
+    <t xml:space="preserve">11.1936292648315</t>
   </si>
   <si>
     <t xml:space="preserve">11.5584287643433</t>
@@ -2114,25 +2114,25 @@
     <t xml:space="preserve">11.9424304962158</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1536312103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4416313171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3648309707642</t>
+    <t xml:space="preserve">12.1536302566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.441632270813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3648319244385</t>
   </si>
   <si>
     <t xml:space="preserve">12.2496318817139</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0000314712524</t>
+    <t xml:space="preserve">12.0000305175781</t>
   </si>
   <si>
     <t xml:space="preserve">11.3664302825928</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1552286148071</t>
+    <t xml:space="preserve">11.1552276611328</t>
   </si>
   <si>
     <t xml:space="preserve">11.328028678894</t>
@@ -2141,13 +2141,13 @@
     <t xml:space="preserve">11.2320289611816</t>
   </si>
   <si>
-    <t xml:space="preserve">11.020827293396</t>
+    <t xml:space="preserve">11.0208282470703</t>
   </si>
   <si>
     <t xml:space="preserve">10.9248275756836</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8096284866333</t>
+    <t xml:space="preserve">10.809627532959</t>
   </si>
   <si>
     <t xml:space="preserve">10.5408267974854</t>
@@ -2159,13 +2159,13 @@
     <t xml:space="preserve">10.7904272079468</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3472280502319</t>
+    <t xml:space="preserve">11.3472290039062</t>
   </si>
   <si>
     <t xml:space="preserve">11.4816284179688</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4240274429321</t>
+    <t xml:space="preserve">11.4240283966064</t>
   </si>
   <si>
     <t xml:space="preserve">11.2128286361694</t>
@@ -2177,22 +2177,22 @@
     <t xml:space="preserve">10.7328271865845</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5024271011353</t>
+    <t xml:space="preserve">10.5024261474609</t>
   </si>
   <si>
     <t xml:space="preserve">10.5984268188477</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7888307571411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5776300430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8272294998169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6736297607422</t>
+    <t xml:space="preserve">11.7888298034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5776309967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8272285461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6736288070679</t>
   </si>
   <si>
     <t xml:space="preserve">11.7696304321289</t>
@@ -2204,10 +2204,10 @@
     <t xml:space="preserve">11.808030128479</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8848295211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3840322494507</t>
+    <t xml:space="preserve">11.8848304748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3840312957764</t>
   </si>
   <si>
     <t xml:space="preserve">12.288031578064</t>
@@ -2219,16 +2219,16 @@
     <t xml:space="preserve">12.1152305603027</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1344308853149</t>
+    <t xml:space="preserve">12.1344318389893</t>
   </si>
   <si>
     <t xml:space="preserve">11.9616298675537</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9040298461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3856287002563</t>
+    <t xml:space="preserve">11.9040307998657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3856296539307</t>
   </si>
   <si>
     <t xml:space="preserve">12.806432723999</t>
@@ -2237,10 +2237,10 @@
     <t xml:space="preserve">13.8240346908569</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5552339553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0352363586426</t>
+    <t xml:space="preserve">13.5552349090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0352354049683</t>
   </si>
   <si>
     <t xml:space="preserve">13.7664346694946</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">13.2672338485718</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4976348876953</t>
+    <t xml:space="preserve">13.497633934021</t>
   </si>
   <si>
     <t xml:space="preserve">14.3040361404419</t>
@@ -2276,13 +2276,13 @@
     <t xml:space="preserve">13.65123462677</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3440341949463</t>
+    <t xml:space="preserve">13.344033241272</t>
   </si>
   <si>
     <t xml:space="preserve">12.1728315353394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2112312316895</t>
+    <t xml:space="preserve">12.2112321853638</t>
   </si>
   <si>
     <t xml:space="preserve">12.4800319671631</t>
@@ -2291,10 +2291,10 @@
     <t xml:space="preserve">12.5952320098877</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0176334381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9792327880859</t>
+    <t xml:space="preserve">13.017632484436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9792337417603</t>
   </si>
   <si>
     <t xml:space="preserve">13.2096338272095</t>
@@ -2312,13 +2312,13 @@
     <t xml:space="preserve">13.7879419326782</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8073348999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5746259689331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6134119033813</t>
+    <t xml:space="preserve">13.807333946228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5746269226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.613410949707</t>
   </si>
   <si>
     <t xml:space="preserve">13.4776649475098</t>
@@ -2327,16 +2327,16 @@
     <t xml:space="preserve">13.6715888977051</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0206508636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0594339370728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9236869812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3503198623657</t>
+    <t xml:space="preserve">14.0206499099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0594348907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9236879348755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3503189086914</t>
   </si>
   <si>
     <t xml:space="preserve">14.3309268951416</t>
@@ -2348,7 +2348,7 @@
     <t xml:space="preserve">14.1563968658447</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8655128479004</t>
+    <t xml:space="preserve">13.8655118942261</t>
   </si>
   <si>
     <t xml:space="preserve">13.6328039169312</t>
@@ -2378,19 +2378,19 @@
     <t xml:space="preserve">14.5248498916626</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8933048248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8157358169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1841888427734</t>
+    <t xml:space="preserve">14.8933038711548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8157348632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1841897964478</t>
   </si>
   <si>
     <t xml:space="preserve">15.2229738235474</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6967887878418</t>
+    <t xml:space="preserve">16.6967906951904</t>
   </si>
   <si>
     <t xml:space="preserve">16.5416507720947</t>
@@ -2399,16 +2399,16 @@
     <t xml:space="preserve">16.3865127563477</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0180606842041</t>
+    <t xml:space="preserve">16.0180587768555</t>
   </si>
   <si>
     <t xml:space="preserve">16.1538066864014</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9986667633057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8047437667847</t>
+    <t xml:space="preserve">15.9986658096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8047428131104</t>
   </si>
   <si>
     <t xml:space="preserve">15.513858795166</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">15.6302137374878</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9210977554321</t>
+    <t xml:space="preserve">15.9210987091064</t>
   </si>
   <si>
     <t xml:space="preserve">16.0568428039551</t>
@@ -2432,19 +2432,19 @@
     <t xml:space="preserve">16.4640827178955</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8131446838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9876766204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8907127380371</t>
+    <t xml:space="preserve">16.8131427764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9876747131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8907146453857</t>
   </si>
   <si>
     <t xml:space="preserve">16.8519287109375</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9294986724854</t>
+    <t xml:space="preserve">16.9294967651367</t>
   </si>
   <si>
     <t xml:space="preserve">16.9101066589355</t>
@@ -2456,7 +2456,7 @@
     <t xml:space="preserve">17.356128692627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.414306640625</t>
+    <t xml:space="preserve">17.4143047332764</t>
   </si>
   <si>
     <t xml:space="preserve">17.2009906768799</t>
@@ -2468,7 +2468,7 @@
     <t xml:space="preserve">16.638614654541</t>
   </si>
   <si>
-    <t xml:space="preserve">17.123420715332</t>
+    <t xml:space="preserve">17.1234226226807</t>
   </si>
   <si>
     <t xml:space="preserve">16.8713207244873</t>
@@ -2480,28 +2480,28 @@
     <t xml:space="preserve">17.1428146362305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0652446746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1900024414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3063507080078</t>
+    <t xml:space="preserve">17.0652465820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1900005340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3063526153564</t>
   </si>
   <si>
     <t xml:space="preserve">18.5390625</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8771305084229</t>
+    <t xml:space="preserve">19.8771324157715</t>
   </si>
   <si>
     <t xml:space="preserve">20.1680164337158</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5558624267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.022575378418</t>
+    <t xml:space="preserve">20.5558643341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0225734710693</t>
   </si>
   <si>
     <t xml:space="preserve">20.9921913146973</t>
@@ -2510,13 +2510,13 @@
     <t xml:space="preserve">20.7497863769531</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3619384765625</t>
+    <t xml:space="preserve">20.3619403839111</t>
   </si>
   <si>
     <t xml:space="preserve">20.2164974212646</t>
   </si>
   <si>
-    <t xml:space="preserve">20.119535446167</t>
+    <t xml:space="preserve">20.1195373535156</t>
   </si>
   <si>
     <t xml:space="preserve">20.2649784088135</t>
@@ -2528,7 +2528,7 @@
     <t xml:space="preserve">20.798267364502</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8952293395996</t>
+    <t xml:space="preserve">20.895227432251</t>
   </si>
   <si>
     <t xml:space="preserve">21.2345943450928</t>
@@ -2537,16 +2537,16 @@
     <t xml:space="preserve">21.1376323699951</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6043434143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3134574890137</t>
+    <t xml:space="preserve">20.6043453216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3134593963623</t>
   </si>
   <si>
     <t xml:space="preserve">21.1861133575439</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9740943908691</t>
+    <t xml:space="preserve">19.9740924835205</t>
   </si>
   <si>
     <t xml:space="preserve">19.731689453125</t>
@@ -2561,7 +2561,7 @@
     <t xml:space="preserve">20.0710544586182</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3923225402832</t>
+    <t xml:space="preserve">19.3923244476318</t>
   </si>
   <si>
     <t xml:space="preserve">20.5073833465576</t>
@@ -2570,7 +2570,7 @@
     <t xml:space="preserve">20.7013053894043</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4589023590088</t>
+    <t xml:space="preserve">20.4589004516602</t>
   </si>
   <si>
     <t xml:space="preserve">21.3800373077393</t>
@@ -2609,10 +2609,10 @@
     <t xml:space="preserve">21.7194023132324</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5920543670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0768623352051</t>
+    <t xml:space="preserve">22.5920562744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0768642425537</t>
   </si>
   <si>
     <t xml:space="preserve">23.6101551055908</t>
@@ -2633,31 +2633,31 @@
     <t xml:space="preserve">21.6709213256836</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0891513824463</t>
+    <t xml:space="preserve">21.0891532897949</t>
   </si>
   <si>
     <t xml:space="preserve">21.0406723022461</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2042102813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8221740722656</t>
+    <t xml:space="preserve">22.2042121887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8221759796143</t>
   </si>
   <si>
     <t xml:space="preserve">24.240406036377</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7555980682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7071170806885</t>
+    <t xml:space="preserve">23.7555961608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7071151733398</t>
   </si>
   <si>
     <t xml:space="preserve">23.4647121429443</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5616703033447</t>
+    <t xml:space="preserve">23.5616722106934</t>
   </si>
   <si>
     <t xml:space="preserve">23.8040752410889</t>
@@ -2669,7 +2669,7 @@
     <t xml:space="preserve">24.046480178833</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9010372161865</t>
+    <t xml:space="preserve">23.9010391235352</t>
   </si>
   <si>
     <t xml:space="preserve">23.3677501678467</t>
@@ -2687,7 +2687,7 @@
     <t xml:space="preserve">23.3192672729492</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8525581359863</t>
+    <t xml:space="preserve">23.852560043335</t>
   </si>
   <si>
     <t xml:space="preserve">23.1253471374512</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">22.882942199707</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5435771942139</t>
+    <t xml:space="preserve">22.5435752868652</t>
   </si>
   <si>
     <t xml:space="preserve">21.8648433685303</t>
@@ -2708,22 +2708,22 @@
     <t xml:space="preserve">22.4466152191162</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5312900543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1919250488281</t>
+    <t xml:space="preserve">24.5312881469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1919231414795</t>
   </si>
   <si>
     <t xml:space="preserve">24.7736930847168</t>
   </si>
   <si>
-    <t xml:space="preserve">24.337366104126</t>
+    <t xml:space="preserve">24.3373680114746</t>
   </si>
   <si>
     <t xml:space="preserve">24.1434421539307</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7917900085449</t>
+    <t xml:space="preserve">25.7917919158936</t>
   </si>
   <si>
     <t xml:space="preserve">26.0826740264893</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">26.1311569213867</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2765998840332</t>
+    <t xml:space="preserve">26.2765979766846</t>
   </si>
   <si>
     <t xml:space="preserve">25.9857139587402</t>
@@ -2753,43 +2753,43 @@
     <t xml:space="preserve">27.8279857635498</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7310256958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6825408935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2158317565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8460807800293</t>
+    <t xml:space="preserve">27.7310237884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6825428009033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2158298492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8460826873779</t>
   </si>
   <si>
     <t xml:space="preserve">28.3127937316895</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6521587371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1188678741455</t>
+    <t xml:space="preserve">28.652156829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1188697814941</t>
   </si>
   <si>
     <t xml:space="preserve">27.9734268188477</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0703887939453</t>
+    <t xml:space="preserve">28.0703907012939</t>
   </si>
   <si>
     <t xml:space="preserve">27.87646484375</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5855808258057</t>
+    <t xml:space="preserve">27.5855827331543</t>
   </si>
   <si>
     <t xml:space="preserve">27.2946949005127</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4886207580566</t>
+    <t xml:space="preserve">27.488618850708</t>
   </si>
   <si>
     <t xml:space="preserve">27.3916568756104</t>
@@ -3933,6 +3933,9 @@
   </si>
   <si>
     <t xml:space="preserve">35.5999984741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7000007629395</t>
   </si>
 </sst>
 </file>
@@ -60486,7 +60489,7 @@
     </row>
     <row r="2163">
       <c r="A2163" s="1" t="n">
-        <v>45474.6493981481</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B2163" t="n">
         <v>63384</v>
@@ -60507,6 +60510,32 @@
         <v>1286</v>
       </c>
       <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45475.6496412037</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>20729</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>35.9500007629395</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>35.0499992370605</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>35.4000015258789</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>35.7000007629395</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H2164" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAN.MI.xlsx
+++ b/data/DAN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="1310">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8921461105347</t>
+    <t xml:space="preserve">15.892147064209</t>
   </si>
   <si>
     <t xml:space="preserve">DAN.MI</t>
@@ -47,67 +47,67 @@
     <t xml:space="preserve">16.0230236053467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5182161331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8170919418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4898996353149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2094507217407</t>
+    <t xml:space="preserve">15.518217086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8170909881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4899005889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2094497680664</t>
   </si>
   <si>
     <t xml:space="preserve">14.5646867752075</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3122816085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346626281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3587522506714</t>
+    <t xml:space="preserve">14.3122825622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346635818481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3587532043457</t>
   </si>
   <si>
     <t xml:space="preserve">13.0409097671509</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1343927383423</t>
+    <t xml:space="preserve">13.1343936920166</t>
   </si>
   <si>
     <t xml:space="preserve">12.5267524719238</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1998319625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3867979049683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.200647354126</t>
+    <t xml:space="preserve">13.1998310089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3867969512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2006454467773</t>
   </si>
   <si>
     <t xml:space="preserve">16.3595638275146</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6400165557861</t>
+    <t xml:space="preserve">16.6400146484375</t>
   </si>
   <si>
     <t xml:space="preserve">16.3969593048096</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6774082183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4439697265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9204635620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7706203460693</t>
+    <t xml:space="preserve">16.6774063110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4439716339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9204654693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7706212997437</t>
   </si>
   <si>
     <t xml:space="preserve">16.4156551361084</t>
@@ -116,19 +116,19 @@
     <t xml:space="preserve">15.602352142334</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2284183502197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2377653121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490917205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3966856002808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2938566207886</t>
+    <t xml:space="preserve">15.2284173965454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2377643585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490907669067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3966846466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2938575744629</t>
   </si>
   <si>
     <t xml:space="preserve">16.2193393707275</t>
@@ -140,43 +140,43 @@
     <t xml:space="preserve">17.0887355804443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2476539611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3878803253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.294397354126</t>
+    <t xml:space="preserve">17.2476558685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.387882232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2943992614746</t>
   </si>
   <si>
     <t xml:space="preserve">17.0326442718506</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6680603027344</t>
+    <t xml:space="preserve">16.668062210083</t>
   </si>
   <si>
     <t xml:space="preserve">16.6587085723877</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1541748046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.957857131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5094089508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6402854919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7057228088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7711620330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8550243377686</t>
+    <t xml:space="preserve">17.1541709899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9578552246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.509407043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6402893066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7057209014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7711639404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8550224304199</t>
   </si>
   <si>
     <t xml:space="preserve">17.5561504364014</t>
@@ -188,10 +188,10 @@
     <t xml:space="preserve">17.2009143829346</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5935440063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7992076873779</t>
+    <t xml:space="preserve">17.593542098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7992095947266</t>
   </si>
   <si>
     <t xml:space="preserve">17.341136932373</t>
@@ -200,34 +200,34 @@
     <t xml:space="preserve">16.5278339385986</t>
   </si>
   <si>
-    <t xml:space="preserve">16.873722076416</t>
+    <t xml:space="preserve">16.8737201690674</t>
   </si>
   <si>
     <t xml:space="preserve">17.2663536071777</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6215896606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8924179077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8456764221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4533157348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9020366668701</t>
+    <t xml:space="preserve">17.6215877532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8924198150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8456783294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4533176422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9020385742188</t>
   </si>
   <si>
     <t xml:space="preserve">17.9768238067627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7431144714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2105331420898</t>
+    <t xml:space="preserve">17.7431163787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2105312347412</t>
   </si>
   <si>
     <t xml:space="preserve">18.4629383087158</t>
@@ -239,22 +239,22 @@
     <t xml:space="preserve">18.1357460021973</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9394302368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6966438293457</t>
+    <t xml:space="preserve">17.939432144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6966457366943</t>
   </si>
   <si>
     <t xml:space="preserve">18.7620830535889</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7901287078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4442367553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6779479980469</t>
+    <t xml:space="preserve">18.7901268005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4442386627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6779460906982</t>
   </si>
   <si>
     <t xml:space="preserve">18.3788013458252</t>
@@ -263,7 +263,7 @@
     <t xml:space="preserve">18.2385787963867</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8085556030273</t>
+    <t xml:space="preserve">17.8085536956787</t>
   </si>
   <si>
     <t xml:space="preserve">17.4813613891602</t>
@@ -275,43 +275,43 @@
     <t xml:space="preserve">17.5000591278076</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4065780639648</t>
+    <t xml:space="preserve">17.4065761566162</t>
   </si>
   <si>
     <t xml:space="preserve">17.0980834960938</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1635189056396</t>
+    <t xml:space="preserve">17.1635227203369</t>
   </si>
   <si>
     <t xml:space="preserve">16.8830680847168</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6306705474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4623928070068</t>
+    <t xml:space="preserve">16.6306686401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4623947143555</t>
   </si>
   <si>
     <t xml:space="preserve">16.5652275085449</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0700378417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7708930969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7334938049316</t>
+    <t xml:space="preserve">17.0700397491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7708911895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7334976196289</t>
   </si>
   <si>
     <t xml:space="preserve">16.4810924530029</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6963768005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8363304138184</t>
+    <t xml:space="preserve">17.6963748931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8363285064697</t>
   </si>
   <si>
     <t xml:space="preserve">16.8176326751709</t>
@@ -323,34 +323,34 @@
     <t xml:space="preserve">17.3224411010742</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3691825866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1165084838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1539001464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2471132278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0508003234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3592948913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6303930282593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2660827636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2751598358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7329559326172</t>
+    <t xml:space="preserve">17.3691844940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1165065765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.153902053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2471151351929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.050799369812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3592939376831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6303939819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2660808563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2751607894897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7329568862915</t>
   </si>
   <si>
     <t xml:space="preserve">15.1723260879517</t>
@@ -359,16 +359,16 @@
     <t xml:space="preserve">14.8077430725098</t>
   </si>
   <si>
-    <t xml:space="preserve">14.96666431427</t>
+    <t xml:space="preserve">14.9666652679443</t>
   </si>
   <si>
     <t xml:space="preserve">15.7051830291748</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3218994140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9105749130249</t>
+    <t xml:space="preserve">15.3219003677368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9105739593506</t>
   </si>
   <si>
     <t xml:space="preserve">14.2748899459839</t>
@@ -377,13 +377,13 @@
     <t xml:space="preserve">14.536642074585</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9386205673218</t>
+    <t xml:space="preserve">14.9386186599731</t>
   </si>
   <si>
     <t xml:space="preserve">15.6958351135254</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6116981506348</t>
+    <t xml:space="preserve">15.6117000579834</t>
   </si>
   <si>
     <t xml:space="preserve">15.7986660003662</t>
@@ -392,19 +392,19 @@
     <t xml:space="preserve">15.5462598800659</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6210451126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5930013656616</t>
+    <t xml:space="preserve">15.6210460662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5930032730103</t>
   </si>
   <si>
     <t xml:space="preserve">15.6771383285522</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4530487060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9201955795288</t>
+    <t xml:space="preserve">16.4530467987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9201936721802</t>
   </si>
   <si>
     <t xml:space="preserve">15.686487197876</t>
@@ -413,31 +413,31 @@
     <t xml:space="preserve">16.4343528747559</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1352043151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3876094818115</t>
+    <t xml:space="preserve">16.1352024078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3876075744629</t>
   </si>
   <si>
     <t xml:space="preserve">16.4904403686523</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3782634735107</t>
+    <t xml:space="preserve">16.3782615661621</t>
   </si>
   <si>
     <t xml:space="preserve">16.2941265106201</t>
   </si>
   <si>
-    <t xml:space="preserve">17.472017288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1354732513428</t>
+    <t xml:space="preserve">17.4720153808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1354751586914</t>
   </si>
   <si>
     <t xml:space="preserve">16.9298133850098</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9672050476074</t>
+    <t xml:space="preserve">16.9672031402588</t>
   </si>
   <si>
     <t xml:space="preserve">17.9487800598145</t>
@@ -452,61 +452,61 @@
     <t xml:space="preserve">17.5281047821045</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6683311462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4063034057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0884609222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.060417175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1258583068848</t>
+    <t xml:space="preserve">17.6683292388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4063053131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0884647369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0604190826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1258563995361</t>
   </si>
   <si>
     <t xml:space="preserve">16.2567310333252</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9388914108276</t>
+    <t xml:space="preserve">15.938889503479</t>
   </si>
   <si>
     <t xml:space="preserve">15.9669351577759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8641004562378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7893142700195</t>
+    <t xml:space="preserve">15.8641014099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7893161773682</t>
   </si>
   <si>
     <t xml:space="preserve">15.9108457565308</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3408660888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0232944488525</t>
+    <t xml:space="preserve">16.3408679962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0232925415039</t>
   </si>
   <si>
     <t xml:space="preserve">16.3689136505127</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8360595703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8454084396362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0043315887451</t>
+    <t xml:space="preserve">15.8360605239868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8454074859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0043296813965</t>
   </si>
   <si>
     <t xml:space="preserve">15.6584386825562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4527797698975</t>
+    <t xml:space="preserve">15.4527788162231</t>
   </si>
   <si>
     <t xml:space="preserve">15.528018951416</t>
@@ -515,7 +515,7 @@
     <t xml:space="preserve">15.6032609939575</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8477983474731</t>
+    <t xml:space="preserve">15.8477964401245</t>
   </si>
   <si>
     <t xml:space="preserve">15.9324436187744</t>
@@ -524,19 +524,19 @@
     <t xml:space="preserve">16.0923328399658</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8195819854736</t>
+    <t xml:space="preserve">15.8195810317993</t>
   </si>
   <si>
     <t xml:space="preserve">15.2646722793579</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6220722198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7161245346069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7067184448242</t>
+    <t xml:space="preserve">15.6220731735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.716121673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7067193984985</t>
   </si>
   <si>
     <t xml:space="preserve">15.3493194580078</t>
@@ -548,19 +548,19 @@
     <t xml:space="preserve">16.5343780517578</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1299533843994</t>
+    <t xml:space="preserve">16.129955291748</t>
   </si>
   <si>
     <t xml:space="preserve">15.6879081726074</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8007698059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5092105865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0829315185547</t>
+    <t xml:space="preserve">15.8007717132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5092077255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0829296112061</t>
   </si>
   <si>
     <t xml:space="preserve">16.2522220611572</t>
@@ -575,25 +575,25 @@
     <t xml:space="preserve">17.3996601104736</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4749031066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3526306152344</t>
+    <t xml:space="preserve">17.4749011993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.352632522583</t>
   </si>
   <si>
     <t xml:space="preserve">17.4372806549072</t>
   </si>
   <si>
-    <t xml:space="preserve">17.239767074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1645278930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6942672729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.305606842041</t>
+    <t xml:space="preserve">17.2397689819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.164529800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6942691802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3056049346924</t>
   </si>
   <si>
     <t xml:space="preserve">17.1175022125244</t>
@@ -602,13 +602,13 @@
     <t xml:space="preserve">17.3808460235596</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9639720916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1238632202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1614799499512</t>
+    <t xml:space="preserve">17.9639701843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1238613128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1614818572998</t>
   </si>
   <si>
     <t xml:space="preserve">18.1050491333008</t>
@@ -617,10 +617,10 @@
     <t xml:space="preserve">18.6599578857422</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1396255493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.186653137207</t>
+    <t xml:space="preserve">19.139627456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1866493225098</t>
   </si>
   <si>
     <t xml:space="preserve">19.7979888916016</t>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">19.3559436798096</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1490287780762</t>
+    <t xml:space="preserve">19.1490325927734</t>
   </si>
   <si>
     <t xml:space="preserve">19.7039394378662</t>
@@ -644,37 +644,37 @@
     <t xml:space="preserve">19.4217796325684</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3183269500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0925960540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2524852752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1772441864014</t>
+    <t xml:space="preserve">19.3183250427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0925998687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2524871826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1772422790527</t>
   </si>
   <si>
     <t xml:space="preserve">19.1678371429443</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9891414642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8104400634766</t>
+    <t xml:space="preserve">18.989143371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8104419708252</t>
   </si>
   <si>
     <t xml:space="preserve">18.631742477417</t>
   </si>
   <si>
-    <t xml:space="preserve">18.340181350708</t>
+    <t xml:space="preserve">18.3401794433594</t>
   </si>
   <si>
     <t xml:space="preserve">18.688175201416</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7634162902832</t>
+    <t xml:space="preserve">18.7634143829346</t>
   </si>
   <si>
     <t xml:space="preserve">18.6975784301758</t>
@@ -686,37 +686,37 @@
     <t xml:space="preserve">18.7163867950439</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5094738006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5565013885498</t>
+    <t xml:space="preserve">18.5094757080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5564994812012</t>
   </si>
   <si>
     <t xml:space="preserve">18.7446041107178</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8480625152588</t>
+    <t xml:space="preserve">18.8480644226074</t>
   </si>
   <si>
     <t xml:space="preserve">18.8574676513672</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9609241485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2807006835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6569137573242</t>
+    <t xml:space="preserve">18.9609260559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2807025909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6569118499756</t>
   </si>
   <si>
     <t xml:space="preserve">19.3277282714844</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3653469085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6098861694336</t>
+    <t xml:space="preserve">19.365348815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6098880767822</t>
   </si>
   <si>
     <t xml:space="preserve">19.6945343017578</t>
@@ -731,28 +731,28 @@
     <t xml:space="preserve">19.7509632110596</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3371315002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4594020843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5910758972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.271297454834</t>
+    <t xml:space="preserve">19.3371334075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4594039916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5910739898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2712993621826</t>
   </si>
   <si>
     <t xml:space="preserve">19.468807220459</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6287002563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.525239944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1647930145264</t>
+    <t xml:space="preserve">19.628698348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5252380371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.164794921875</t>
   </si>
   <si>
     <t xml:space="preserve">20.258846282959</t>
@@ -761,34 +761,34 @@
     <t xml:space="preserve">20.6350536346436</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8795909881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.114725112915</t>
+    <t xml:space="preserve">20.8795890808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1147232055664</t>
   </si>
   <si>
     <t xml:space="preserve">21.2275848388672</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2087707519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.399923324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8701877593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6444606781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5033798217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8325614929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9078063964844</t>
+    <t xml:space="preserve">21.2087726593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3999252319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8701839447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.644458770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.503381729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8325653076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9078044891357</t>
   </si>
   <si>
     <t xml:space="preserve">20.8607788085938</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">20.7573204040527</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7855396270752</t>
+    <t xml:space="preserve">20.7855377197266</t>
   </si>
   <si>
     <t xml:space="preserve">20.9172096252441</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">20.7385101318359</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0770969390869</t>
+    <t xml:space="preserve">21.0770988464355</t>
   </si>
   <si>
     <t xml:space="preserve">21.1241245269775</t>
@@ -815,10 +815,10 @@
     <t xml:space="preserve">20.7102947235107</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0394802093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9141654968262</t>
+    <t xml:space="preserve">21.0394821166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9141635894775</t>
   </si>
   <si>
     <t xml:space="preserve">21.7636814117432</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">21.396879196167</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3874702453613</t>
+    <t xml:space="preserve">21.38747215271</t>
   </si>
   <si>
     <t xml:space="preserve">21.1899642944336</t>
@@ -842,7 +842,7 @@
     <t xml:space="preserve">21.5379543304443</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3686637878418</t>
+    <t xml:space="preserve">21.3686618804932</t>
   </si>
   <si>
     <t xml:space="preserve">21.6131973266602</t>
@@ -851,22 +851,22 @@
     <t xml:space="preserve">21.4909267425537</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8983993530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.434497833252</t>
+    <t xml:space="preserve">20.8983974456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4344997406006</t>
   </si>
   <si>
     <t xml:space="preserve">21.2181777954102</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3780651092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5191421508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5097408294678</t>
+    <t xml:space="preserve">21.3780670166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5191440582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5097389221191</t>
   </si>
   <si>
     <t xml:space="preserve">21.6037921905518</t>
@@ -881,16 +881,16 @@
     <t xml:space="preserve">21.443904876709</t>
   </si>
   <si>
-    <t xml:space="preserve">20.99245262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5692195892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6538639068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6632709503174</t>
+    <t xml:space="preserve">20.9924545288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5692176818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.653865814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6632690429688</t>
   </si>
   <si>
     <t xml:space="preserve">20.5786209106445</t>
@@ -902,19 +902,19 @@
     <t xml:space="preserve">20.5315990447998</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2964668273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.465763092041</t>
+    <t xml:space="preserve">20.2964649200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4657611846924</t>
   </si>
   <si>
     <t xml:space="preserve">20.0425243377686</t>
   </si>
   <si>
-    <t xml:space="preserve">20.155387878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5221900939941</t>
+    <t xml:space="preserve">20.1553897857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5221920013428</t>
   </si>
   <si>
     <t xml:space="preserve">20.550407409668</t>
@@ -926,25 +926,25 @@
     <t xml:space="preserve">20.6914863586426</t>
   </si>
   <si>
-    <t xml:space="preserve">20.20241355896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0801486968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1365756988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9672832489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1741981506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3246841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2494430541992</t>
+    <t xml:space="preserve">20.2024154663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0801467895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1365776062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.96728515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1742000579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3246822357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.249439239502</t>
   </si>
   <si>
     <t xml:space="preserve">20.3623046875</t>
@@ -953,13 +953,13 @@
     <t xml:space="preserve">19.920259475708</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9266185760498</t>
+    <t xml:space="preserve">20.9266166687012</t>
   </si>
   <si>
     <t xml:space="preserve">20.4939785003662</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2212257385254</t>
+    <t xml:space="preserve">20.2212238311768</t>
   </si>
   <si>
     <t xml:space="preserve">19.9766902923584</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">20.6726760864258</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3811149597168</t>
+    <t xml:space="preserve">20.3811168670654</t>
   </si>
   <si>
     <t xml:space="preserve">20.747917175293</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">20.5974349975586</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8231582641602</t>
+    <t xml:space="preserve">20.8231601715088</t>
   </si>
   <si>
     <t xml:space="preserve">21.1523399353027</t>
@@ -989,7 +989,7 @@
     <t xml:space="preserve">21.4627113342285</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9830513000488</t>
+    <t xml:space="preserve">20.9830493927002</t>
   </si>
   <si>
     <t xml:space="preserve">20.7291069030762</t>
@@ -998,22 +998,22 @@
     <t xml:space="preserve">20.5880298614502</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6256484985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1271705627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0895519256592</t>
+    <t xml:space="preserve">20.6256504058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1271724700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0895500183105</t>
   </si>
   <si>
     <t xml:space="preserve">20.014310836792</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2306289672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3434906005859</t>
+    <t xml:space="preserve">20.2306308746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3434944152832</t>
   </si>
   <si>
     <t xml:space="preserve">20.7761325836182</t>
@@ -1025,16 +1025,16 @@
     <t xml:space="preserve">19.7791805267334</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4970207214355</t>
+    <t xml:space="preserve">19.4970188140869</t>
   </si>
   <si>
     <t xml:space="preserve">19.01735496521</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0737915039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8668746948242</t>
+    <t xml:space="preserve">19.073787689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8668727874756</t>
   </si>
   <si>
     <t xml:space="preserve">19.2336750030518</t>
@@ -1043,25 +1043,25 @@
     <t xml:space="preserve">18.9139003753662</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7916297912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8950901031494</t>
+    <t xml:space="preserve">18.7916278839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8950881958008</t>
   </si>
   <si>
     <t xml:space="preserve">18.6693649291992</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0455722808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.374755859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2147731781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1864185333252</t>
+    <t xml:space="preserve">19.0455703735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3747539520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2147750854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1864166259766</t>
   </si>
   <si>
     <t xml:space="preserve">18.7611045837402</t>
@@ -1073,19 +1073,19 @@
     <t xml:space="preserve">18.127857208252</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0711498260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8632183074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8915729522705</t>
+    <t xml:space="preserve">18.0711479187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8632164001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8915691375732</t>
   </si>
   <si>
     <t xml:space="preserve">18.1656608581543</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1184062957764</t>
+    <t xml:space="preserve">18.1184043884277</t>
   </si>
   <si>
     <t xml:space="preserve">18.1940174102783</t>
@@ -1094,13 +1094,13 @@
     <t xml:space="preserve">18.4964618682861</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6949443817139</t>
+    <t xml:space="preserve">18.6949424743652</t>
   </si>
   <si>
     <t xml:space="preserve">18.8178119659424</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6382350921631</t>
+    <t xml:space="preserve">18.6382369995117</t>
   </si>
   <si>
     <t xml:space="preserve">18.3924980163574</t>
@@ -1112,28 +1112,28 @@
     <t xml:space="preserve">18.5909767150879</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4492073059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9028739929199</t>
+    <t xml:space="preserve">18.4492053985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9028759002686</t>
   </si>
   <si>
     <t xml:space="preserve">19.0068435668945</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9312324523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9217796325684</t>
+    <t xml:space="preserve">18.9312286376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9217777252197</t>
   </si>
   <si>
     <t xml:space="preserve">18.8461685180664</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5815258026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6098804473877</t>
+    <t xml:space="preserve">18.5815296173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6098823547363</t>
   </si>
   <si>
     <t xml:space="preserve">18.6760425567627</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">18.6193313598633</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7327480316162</t>
+    <t xml:space="preserve">18.7327518463135</t>
   </si>
   <si>
     <t xml:space="preserve">19.13916015625</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">19.7062473297119</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9897918701172</t>
+    <t xml:space="preserve">19.9897899627686</t>
   </si>
   <si>
     <t xml:space="preserve">20.7931632995605</t>
@@ -1187,7 +1187,7 @@
     <t xml:space="preserve">21.6437911987305</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8800773620605</t>
+    <t xml:space="preserve">21.8800792694092</t>
   </si>
   <si>
     <t xml:space="preserve">21.7383060455322</t>
@@ -1199,13 +1199,13 @@
     <t xml:space="preserve">22.0691070556641</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2657375335693</t>
+    <t xml:space="preserve">21.2657356262207</t>
   </si>
   <si>
     <t xml:space="preserve">20.6986484527588</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3129901885986</t>
+    <t xml:space="preserve">21.3129920959473</t>
   </si>
   <si>
     <t xml:space="preserve">20.8876781463623</t>
@@ -1214,28 +1214,28 @@
     <t xml:space="preserve">21.0294513702393</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9821910858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3602504730225</t>
+    <t xml:space="preserve">20.9821929931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3602523803711</t>
   </si>
   <si>
     <t xml:space="preserve">21.4547653198242</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4075031280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1239643096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9349327087402</t>
+    <t xml:space="preserve">21.4075050354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.123966217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9349346160889</t>
   </si>
   <si>
     <t xml:space="preserve">21.9745903015137</t>
   </si>
   <si>
-    <t xml:space="preserve">22.494421005249</t>
+    <t xml:space="preserve">22.4944190979004</t>
   </si>
   <si>
     <t xml:space="preserve">22.1636238098145</t>
@@ -1247,76 +1247,76 @@
     <t xml:space="preserve">22.2581348419189</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0767040252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5020198822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5568771362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4623622894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1712207794189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8404178619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2184791564941</t>
+    <t xml:space="preserve">21.0767059326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5020217895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5568790435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4623603820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1712188720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8404197692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2184772491455</t>
   </si>
   <si>
     <t xml:space="preserve">21.5965366363525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6513938903809</t>
+    <t xml:space="preserve">20.6513919830322</t>
   </si>
   <si>
     <t xml:space="preserve">20.745906829834</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3678455352783</t>
+    <t xml:space="preserve">20.367847442627</t>
   </si>
   <si>
     <t xml:space="preserve">19.280933380127</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3754482269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5644779205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0370483398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8480186462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.604133605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5096206665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2260780334473</t>
+    <t xml:space="preserve">19.3754463195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5644760131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0370464324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8480205535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6041355133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5096225738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2260761260986</t>
   </si>
   <si>
     <t xml:space="preserve">20.4151058197021</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2733325958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1315612792969</t>
+    <t xml:space="preserve">20.2733345031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1315593719482</t>
   </si>
   <si>
     <t xml:space="preserve">20.1788196563721</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6589889526367</t>
+    <t xml:space="preserve">19.6589870452881</t>
   </si>
   <si>
     <t xml:space="preserve">19.8007621765137</t>
@@ -1325,7 +1325,7 @@
     <t xml:space="preserve">19.7535057067871</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8952770233154</t>
+    <t xml:space="preserve">19.8952732086182</t>
   </si>
   <si>
     <t xml:space="preserve">19.942533493042</t>
@@ -1334,46 +1334,46 @@
     <t xml:space="preserve">19.517219543457</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4699630737305</t>
+    <t xml:space="preserve">19.4699611663818</t>
   </si>
   <si>
     <t xml:space="preserve">19.6117324829102</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0843067169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6910514831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.320592880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9388275146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5003595352173</t>
+    <t xml:space="preserve">20.0843048095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6910495758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3205909729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9388294219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.500358581543</t>
   </si>
   <si>
     <t xml:space="preserve">15.8973178863525</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9521741867065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6497297286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9899816513062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.594874382019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8217067718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1997623443604</t>
+    <t xml:space="preserve">14.9521751403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6497287750244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9899806976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5948724746704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8217077255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1997604370117</t>
   </si>
   <si>
     <t xml:space="preserve">15.7271928787231</t>
@@ -1382,22 +1382,22 @@
     <t xml:space="preserve">15.5192613601685</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6515817642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0674419403076</t>
+    <t xml:space="preserve">15.6515808105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0674438476562</t>
   </si>
   <si>
     <t xml:space="preserve">15.9918336868286</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8595151901245</t>
+    <t xml:space="preserve">15.8595142364502</t>
   </si>
   <si>
     <t xml:space="preserve">15.7839021682739</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5759716033936</t>
+    <t xml:space="preserve">15.5759696960449</t>
   </si>
   <si>
     <t xml:space="preserve">15.1979131698608</t>
@@ -1409,13 +1409,13 @@
     <t xml:space="preserve">14.760425567627</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5892362594604</t>
+    <t xml:space="preserve">14.5892353057861</t>
   </si>
   <si>
     <t xml:space="preserve">14.6272773742676</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1028070449829</t>
+    <t xml:space="preserve">15.1028060913086</t>
   </si>
   <si>
     <t xml:space="preserve">15.1218280792236</t>
@@ -1445,16 +1445,16 @@
     <t xml:space="preserve">13.9044733047485</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5131521224976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3419599533081</t>
+    <t xml:space="preserve">14.5131511688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3419589996338</t>
   </si>
   <si>
     <t xml:space="preserve">14.3229398727417</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3990240097046</t>
+    <t xml:space="preserve">14.3990249633789</t>
   </si>
   <si>
     <t xml:space="preserve">14.1327266693115</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">13.7903470993042</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9615364074707</t>
+    <t xml:space="preserve">13.9615354537964</t>
   </si>
   <si>
     <t xml:space="preserve">14.2278327941895</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">14.9316158294678</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4071445465088</t>
+    <t xml:space="preserve">15.4071455001831</t>
   </si>
   <si>
     <t xml:space="preserve">15.3120393753052</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">15.3500814437866</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3881235122681</t>
+    <t xml:space="preserve">15.3881244659424</t>
   </si>
   <si>
     <t xml:space="preserve">15.7305068969727</t>
@@ -1511,7 +1511,7 @@
     <t xml:space="preserve">16.1679916381836</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0239429473877</t>
+    <t xml:space="preserve">17.0239448547363</t>
   </si>
   <si>
     <t xml:space="preserve">17.1000289916992</t>
@@ -1523,13 +1523,13 @@
     <t xml:space="preserve">16.7005863189697</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6244983673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4723281860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5674362182617</t>
+    <t xml:space="preserve">16.6245002746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4723300933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5674381256104</t>
   </si>
   <si>
     <t xml:space="preserve">16.1870136260986</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">16.0728855133057</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0158214569092</t>
+    <t xml:space="preserve">16.0158233642578</t>
   </si>
   <si>
     <t xml:space="preserve">16.3391819000244</t>
@@ -1559,16 +1559,16 @@
     <t xml:space="preserve">16.4913539886475</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6435222625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6625423431396</t>
+    <t xml:space="preserve">16.6435203552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.662540435791</t>
   </si>
   <si>
     <t xml:space="preserve">16.434289932251</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8147125244141</t>
+    <t xml:space="preserve">16.8147106170654</t>
   </si>
   <si>
     <t xml:space="preserve">16.9288368225098</t>
@@ -1604,7 +1604,7 @@
     <t xml:space="preserve">16.7386283874512</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9859008789062</t>
+    <t xml:space="preserve">16.9859027862549</t>
   </si>
   <si>
     <t xml:space="preserve">17.1570930480957</t>
@@ -1616,22 +1616,22 @@
     <t xml:space="preserve">18.5075950622559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4885749816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.469554901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.336404800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7467479705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3473052978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2141571044922</t>
+    <t xml:space="preserve">18.4885730743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4695529937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3364028930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7467498779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3473033905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2141551971436</t>
   </si>
   <si>
     <t xml:space="preserve">17.1951351165771</t>
@@ -1640,19 +1640,19 @@
     <t xml:space="preserve">16.9478588104248</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8527545928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1761131286621</t>
+    <t xml:space="preserve">16.8527526855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1761150360107</t>
   </si>
   <si>
     <t xml:space="preserve">17.0429649353027</t>
   </si>
   <si>
-    <t xml:space="preserve">17.27121925354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3663272857666</t>
+    <t xml:space="preserve">17.2712173461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.366325378418</t>
   </si>
   <si>
     <t xml:space="preserve">17.4424114227295</t>
@@ -1661,10 +1661,10 @@
     <t xml:space="preserve">16.9668807983398</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4152660369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6924638748169</t>
+    <t xml:space="preserve">16.4152679443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6924619674683</t>
   </si>
   <si>
     <t xml:space="preserve">15.7114849090576</t>
@@ -1676,10 +1676,10 @@
     <t xml:space="preserve">15.3691034317017</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8745527267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9886798858643</t>
+    <t xml:space="preserve">14.8745517730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9886808395386</t>
   </si>
   <si>
     <t xml:space="preserve">15.2739963531494</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">15.1598701477051</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0267219543457</t>
+    <t xml:space="preserve">15.0267210006714</t>
   </si>
   <si>
     <t xml:space="preserve">14.6843404769897</t>
@@ -1709,10 +1709,10 @@
     <t xml:space="preserve">14.7414045333862</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6462984085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8174896240234</t>
+    <t xml:space="preserve">14.646297454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8174886703491</t>
   </si>
   <si>
     <t xml:space="preserve">15.7685470581055</t>
@@ -1724,10 +1724,10 @@
     <t xml:space="preserve">15.5783357620239</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8636512756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4261655807495</t>
+    <t xml:space="preserve">15.8636531829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4261665344238</t>
   </si>
   <si>
     <t xml:space="preserve">15.1979122161865</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">14.9696588516235</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7984685897827</t>
+    <t xml:space="preserve">14.7984676361084</t>
   </si>
   <si>
     <t xml:space="preserve">14.4751081466675</t>
@@ -1763,13 +1763,13 @@
     <t xml:space="preserve">14.4560871124268</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2658748626709</t>
+    <t xml:space="preserve">14.2658739089966</t>
   </si>
   <si>
     <t xml:space="preserve">14.0756645202637</t>
   </si>
   <si>
-    <t xml:space="preserve">13.94251537323</t>
+    <t xml:space="preserve">13.9425163269043</t>
   </si>
   <si>
     <t xml:space="preserve">14.6082563400269</t>
@@ -1796,13 +1796,13 @@
     <t xml:space="preserve">14.189790725708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7794466018677</t>
+    <t xml:space="preserve">14.779447555542</t>
   </si>
   <si>
     <t xml:space="preserve">14.170768737793</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5593156814575</t>
+    <t xml:space="preserve">15.5593147277832</t>
   </si>
   <si>
     <t xml:space="preserve">14.3609819412231</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">14.6653203964233</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1788911819458</t>
+    <t xml:space="preserve">15.1788902282715</t>
   </si>
   <si>
     <t xml:space="preserve">15.483229637146</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve">15.2640390396118</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2448396682739</t>
+    <t xml:space="preserve">15.2448387145996</t>
   </si>
   <si>
     <t xml:space="preserve">15.0912389755249</t>
@@ -1835,19 +1835,19 @@
     <t xml:space="preserve">15.0720386505127</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5712385177612</t>
+    <t xml:space="preserve">15.5712394714355</t>
   </si>
   <si>
     <t xml:space="preserve">15.8784418106079</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6656436920166</t>
+    <t xml:space="preserve">16.665641784668</t>
   </si>
   <si>
     <t xml:space="preserve">16.5312404632568</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8976411819458</t>
+    <t xml:space="preserve">15.8976392745972</t>
   </si>
   <si>
     <t xml:space="preserve">15.8592414855957</t>
@@ -1859,16 +1859,16 @@
     <t xml:space="preserve">15.7440404891968</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6480398178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9552412033081</t>
+    <t xml:space="preserve">15.6480388641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9552431106567</t>
   </si>
   <si>
     <t xml:space="preserve">15.9936399459839</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3776435852051</t>
+    <t xml:space="preserve">16.3776416778564</t>
   </si>
   <si>
     <t xml:space="preserve">15.9168405532837</t>
@@ -1877,10 +1877,10 @@
     <t xml:space="preserve">15.8016405105591</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8400411605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2432422637939</t>
+    <t xml:space="preserve">15.8400392532349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2432403564453</t>
   </si>
   <si>
     <t xml:space="preserve">16.185640335083</t>
@@ -1907,16 +1907,16 @@
     <t xml:space="preserve">15.3024387359619</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1680383682251</t>
+    <t xml:space="preserve">15.1680374145508</t>
   </si>
   <si>
     <t xml:space="preserve">15.3984403610229</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9376392364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.129638671875</t>
+    <t xml:space="preserve">14.9376382827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1296396255493</t>
   </si>
   <si>
     <t xml:space="preserve">14.6880378723145</t>
@@ -1928,10 +1928,10 @@
     <t xml:space="preserve">14.1120357513428</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4000368118286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7840375900269</t>
+    <t xml:space="preserve">14.4000358581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7840366363525</t>
   </si>
   <si>
     <t xml:space="preserve">14.9760389328003</t>
@@ -1964,16 +1964,16 @@
     <t xml:space="preserve">13.3056344985962</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1712331771851</t>
+    <t xml:space="preserve">13.1712322235107</t>
   </si>
   <si>
     <t xml:space="preserve">13.5360355377197</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2480344772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.960033416748</t>
+    <t xml:space="preserve">13.2480335235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9600324630737</t>
   </si>
   <si>
     <t xml:space="preserve">12.5760316848755</t>
@@ -1982,19 +1982,19 @@
     <t xml:space="preserve">12.3264312744141</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0960321426392</t>
+    <t xml:space="preserve">12.0960311889648</t>
   </si>
   <si>
     <t xml:space="preserve">11.6160306930542</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1744289398193</t>
+    <t xml:space="preserve">11.174427986145</t>
   </si>
   <si>
     <t xml:space="preserve">10.2528266906738</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0800256729126</t>
+    <t xml:space="preserve">10.0800266265869</t>
   </si>
   <si>
     <t xml:space="preserve">9.71522426605225</t>
@@ -2003,10 +2003,10 @@
     <t xml:space="preserve">9.02402305603027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5328254699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19842147827148</t>
+    <t xml:space="preserve">9.53282451629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19842052459717</t>
   </si>
   <si>
     <t xml:space="preserve">8.65922260284424</t>
@@ -2015,13 +2015,13 @@
     <t xml:space="preserve">9.21602344512939</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2912254333496</t>
+    <t xml:space="preserve">10.2912263870239</t>
   </si>
   <si>
     <t xml:space="preserve">10.8864278793335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0768308639526</t>
+    <t xml:space="preserve">12.076831817627</t>
   </si>
   <si>
     <t xml:space="preserve">13.0560340881348</t>
@@ -2039,31 +2039,31 @@
     <t xml:space="preserve">10.7712278366089</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1952266693115</t>
+    <t xml:space="preserve">10.1952257156372</t>
   </si>
   <si>
     <t xml:space="preserve">10.4640264511108</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7520275115967</t>
+    <t xml:space="preserve">10.7520265579224</t>
   </si>
   <si>
     <t xml:space="preserve">10.8672275543213</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2512292861938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0400285720825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7136278152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.329626083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0032253265381</t>
+    <t xml:space="preserve">11.2512283325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0400276184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7136268615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3296251296997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0032262802124</t>
   </si>
   <si>
     <t xml:space="preserve">10.3488264083862</t>
@@ -2078,7 +2078,7 @@
     <t xml:space="preserve">10.9056272506714</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8480281829834</t>
+    <t xml:space="preserve">10.8480291366577</t>
   </si>
   <si>
     <t xml:space="preserve">10.8288269042969</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">10.9440269470215</t>
   </si>
   <si>
-    <t xml:space="preserve">10.963228225708</t>
+    <t xml:space="preserve">10.9632272720337</t>
   </si>
   <si>
     <t xml:space="preserve">10.6752281188965</t>
@@ -2099,7 +2099,7 @@
     <t xml:space="preserve">11.0784282684326</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6352300643921</t>
+    <t xml:space="preserve">11.6352291107178</t>
   </si>
   <si>
     <t xml:space="preserve">11.7120294570923</t>
@@ -2108,13 +2108,13 @@
     <t xml:space="preserve">11.1936283111572</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5584297180176</t>
+    <t xml:space="preserve">11.5584287643433</t>
   </si>
   <si>
     <t xml:space="preserve">11.65442943573</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9424304962158</t>
+    <t xml:space="preserve">11.9424295425415</t>
   </si>
   <si>
     <t xml:space="preserve">12.1536302566528</t>
@@ -2129,19 +2129,19 @@
     <t xml:space="preserve">12.2496318817139</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0000295639038</t>
+    <t xml:space="preserve">12.0000305175781</t>
   </si>
   <si>
     <t xml:space="preserve">11.3664293289185</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1552276611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3280296325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2320280075073</t>
+    <t xml:space="preserve">11.1552286148071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.328028678894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2320289611816</t>
   </si>
   <si>
     <t xml:space="preserve">11.0208282470703</t>
@@ -2159,10 +2159,10 @@
     <t xml:space="preserve">10.5792274475098</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7904272079468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3472290039062</t>
+    <t xml:space="preserve">10.7904262542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3472280502319</t>
   </si>
   <si>
     <t xml:space="preserve">11.4816293716431</t>
@@ -2201,19 +2201,19 @@
     <t xml:space="preserve">11.7696304321289</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6928300857544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.808030128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8848314285278</t>
+    <t xml:space="preserve">11.6928310394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8080291748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8848304748535</t>
   </si>
   <si>
     <t xml:space="preserve">12.3840322494507</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2880306243896</t>
+    <t xml:space="preserve">12.288031578064</t>
   </si>
   <si>
     <t xml:space="preserve">12.2688302993774</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">13.8240346908569</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5552349090576</t>
+    <t xml:space="preserve">13.5552339553833</t>
   </si>
   <si>
     <t xml:space="preserve">14.0352354049683</t>
@@ -2252,10 +2252,10 @@
     <t xml:space="preserve">13.4016342163086</t>
   </si>
   <si>
-    <t xml:space="preserve">13.593635559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6320343017578</t>
+    <t xml:space="preserve">13.5936346054077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6320333480835</t>
   </si>
   <si>
     <t xml:space="preserve">13.2672338485718</t>
@@ -2279,22 +2279,22 @@
     <t xml:space="preserve">13.65123462677</t>
   </si>
   <si>
-    <t xml:space="preserve">13.344033241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1728315353394</t>
+    <t xml:space="preserve">13.3440322875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.172830581665</t>
   </si>
   <si>
     <t xml:space="preserve">12.2112321853638</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4800319671631</t>
+    <t xml:space="preserve">12.4800310134888</t>
   </si>
   <si>
     <t xml:space="preserve">12.5952320098877</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0176334381104</t>
+    <t xml:space="preserve">13.017632484436</t>
   </si>
   <si>
     <t xml:space="preserve">12.9792337417603</t>
@@ -3939,6 +3939,9 @@
   </si>
   <si>
     <t xml:space="preserve">35.7000007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8499984741211</t>
   </si>
 </sst>
 </file>
@@ -60544,7 +60547,7 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n">
-        <v>45476.6493634259</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B2165" t="n">
         <v>22596</v>
@@ -60565,6 +60568,32 @@
         <v>1308</v>
       </c>
       <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.6496064815</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>26986</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>36.5499992370605</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>35.9500007629395</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>35.8499984741211</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H2166" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAN.MI.xlsx
+++ b/data/DAN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="1311">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,43 +38,43 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8921499252319</t>
+    <t xml:space="preserve">15.8921489715576</t>
   </si>
   <si>
     <t xml:space="preserve">DAN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0230255126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5182151794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8170909881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4898996353149</t>
+    <t xml:space="preserve">16.0230236053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5182161331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8170919418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4899005889893</t>
   </si>
   <si>
     <t xml:space="preserve">14.2094497680664</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5646858215332</t>
+    <t xml:space="preserve">14.5646867752075</t>
   </si>
   <si>
     <t xml:space="preserve">14.3122825622559</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1346654891968</t>
+    <t xml:space="preserve">14.1346635818481</t>
   </si>
   <si>
     <t xml:space="preserve">13.3587532043457</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0409107208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1343927383423</t>
+    <t xml:space="preserve">13.0409097671509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1343936920166</t>
   </si>
   <si>
     <t xml:space="preserve">12.5267515182495</t>
@@ -83,64 +83,64 @@
     <t xml:space="preserve">13.1998300552368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3867969512939</t>
+    <t xml:space="preserve">13.3867979049683</t>
   </si>
   <si>
     <t xml:space="preserve">16.2006416320801</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3595657348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6400146484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3969612121582</t>
+    <t xml:space="preserve">16.3595638275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6400127410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3969573974609</t>
   </si>
   <si>
     <t xml:space="preserve">16.6774082183838</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4439697265625</t>
+    <t xml:space="preserve">17.4439678192139</t>
   </si>
   <si>
     <t xml:space="preserve">16.9204654693604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7706203460693</t>
+    <t xml:space="preserve">15.7706232070923</t>
   </si>
   <si>
     <t xml:space="preserve">16.4156551361084</t>
   </si>
   <si>
-    <t xml:space="preserve">15.602352142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.228419303894</t>
+    <t xml:space="preserve">15.6023511886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2284202575684</t>
   </si>
   <si>
     <t xml:space="preserve">15.2377653121948</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6490936279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3966884613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2938556671143</t>
+    <t xml:space="preserve">15.6490955352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3966875076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2938566207886</t>
   </si>
   <si>
     <t xml:space="preserve">16.2193412780762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5465335845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0887355804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2476558685303</t>
+    <t xml:space="preserve">16.5465316772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.088737487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2476539611816</t>
   </si>
   <si>
     <t xml:space="preserve">17.3878803253174</t>
@@ -149,52 +149,52 @@
     <t xml:space="preserve">17.2943954467773</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0326442718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6680603027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6587085723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1541709899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.957857131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5094051361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.640287399292</t>
+    <t xml:space="preserve">17.032642364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6680583953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6587104797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1541728973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9578590393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5094089508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6402854919434</t>
   </si>
   <si>
     <t xml:space="preserve">17.7057247161865</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7711639404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8550262451172</t>
+    <t xml:space="preserve">17.7711620330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8550281524658</t>
   </si>
   <si>
     <t xml:space="preserve">17.5561485290527</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8552951812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2009124755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5935459136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7992076873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3411388397217</t>
+    <t xml:space="preserve">17.855297088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2009143829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.593542098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7992095947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.341136932373</t>
   </si>
   <si>
     <t xml:space="preserve">16.5278339385986</t>
@@ -206,115 +206,115 @@
     <t xml:space="preserve">17.2663516998291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6215896606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8924179077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8456783294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4533176422119</t>
+    <t xml:space="preserve">17.6215877532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8924198150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8456764221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4533195495605</t>
   </si>
   <si>
     <t xml:space="preserve">17.9020385742188</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9768257141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7431163787842</t>
+    <t xml:space="preserve">17.9768238067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7431182861328</t>
   </si>
   <si>
     <t xml:space="preserve">18.2105312347412</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4629364013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3694534301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1357440948486</t>
+    <t xml:space="preserve">18.4629402160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3694553375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1357460021973</t>
   </si>
   <si>
     <t xml:space="preserve">17.939432144165</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6966438293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7620830535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7901287078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.444242477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6779479980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3788032531738</t>
+    <t xml:space="preserve">18.6966457366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7620849609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7901306152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4442386627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6779499053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3788013458252</t>
   </si>
   <si>
     <t xml:space="preserve">18.2385787963867</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8085517883301</t>
+    <t xml:space="preserve">17.8085556030273</t>
   </si>
   <si>
     <t xml:space="preserve">17.4813652038574</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8272514343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5000591278076</t>
+    <t xml:space="preserve">17.8272495269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.500057220459</t>
   </si>
   <si>
     <t xml:space="preserve">17.4065780639648</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0980834960938</t>
+    <t xml:space="preserve">17.0980796813965</t>
   </si>
   <si>
     <t xml:space="preserve">17.1635208129883</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8830699920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6306667327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4623966217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5652256011963</t>
+    <t xml:space="preserve">16.8830718994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6306705474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4623947143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5652275085449</t>
   </si>
   <si>
     <t xml:space="preserve">17.0700378417969</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7708911895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7334995269775</t>
+    <t xml:space="preserve">16.7708892822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7334957122803</t>
   </si>
   <si>
     <t xml:space="preserve">16.4810924530029</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6963748931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8363285064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8176326751709</t>
+    <t xml:space="preserve">17.6963729858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8363265991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8176345825195</t>
   </si>
   <si>
     <t xml:space="preserve">17.5748462677002</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">17.3691825866699</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1165065765381</t>
+    <t xml:space="preserve">16.1165046691895</t>
   </si>
   <si>
     <t xml:space="preserve">16.153902053833</t>
@@ -335,19 +335,19 @@
     <t xml:space="preserve">15.2471132278442</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0507984161377</t>
+    <t xml:space="preserve">15.0508003234863</t>
   </si>
   <si>
     <t xml:space="preserve">15.3592939376831</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6303949356079</t>
+    <t xml:space="preserve">15.6303958892822</t>
   </si>
   <si>
     <t xml:space="preserve">16.2660789489746</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2751598358154</t>
+    <t xml:space="preserve">15.2751569747925</t>
   </si>
   <si>
     <t xml:space="preserve">14.7329568862915</t>
@@ -356,175 +356,175 @@
     <t xml:space="preserve">15.1723279953003</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8077430725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.96666431427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7051801681519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3218984603882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9105739593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2748899459839</t>
+    <t xml:space="preserve">14.8077421188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9666652679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7051820755005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3218994140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9105749130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2748889923096</t>
   </si>
   <si>
     <t xml:space="preserve">14.536642074585</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9386186599731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6958351135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6116991043091</t>
+    <t xml:space="preserve">14.9386205673218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6958360671997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6116981506348</t>
   </si>
   <si>
     <t xml:space="preserve">15.7986640930176</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5462608337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6210460662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5930032730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6771383285522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4530448913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9201936721802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6864852905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4343509674072</t>
+    <t xml:space="preserve">15.5462589263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6210479736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5930042266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6771373748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4530467987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9201927185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.686487197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4343490600586</t>
   </si>
   <si>
     <t xml:space="preserve">16.1352062225342</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3876094818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4904441833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3782653808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2941246032715</t>
+    <t xml:space="preserve">16.3876075744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4904403686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3782596588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2941284179688</t>
   </si>
   <si>
     <t xml:space="preserve">17.4720153808594</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1354751586914</t>
+    <t xml:space="preserve">17.13547706604</t>
   </si>
   <si>
     <t xml:space="preserve">16.9298133850098</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9672012329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9487800598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4907112121582</t>
+    <t xml:space="preserve">16.9672050476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9487781524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4907073974609</t>
   </si>
   <si>
     <t xml:space="preserve">17.3598327636719</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5281066894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.668327331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4063034057617</t>
+    <t xml:space="preserve">17.5281047821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6683311462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.406307220459</t>
   </si>
   <si>
     <t xml:space="preserve">16.0884628295898</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0604209899902</t>
+    <t xml:space="preserve">16.0604190826416</t>
   </si>
   <si>
     <t xml:space="preserve">16.1258563995361</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2567329406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.938889503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9669342041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8641014099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7893180847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9108438491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3408660888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0232944488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3689155578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8360614776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8454074859619</t>
+    <t xml:space="preserve">16.2567310333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9388904571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9669351577759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8641004562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7893161773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9108476638794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3408679962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0232963562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3689136505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8360624313354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8454093933105</t>
   </si>
   <si>
     <t xml:space="preserve">16.0043296813965</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6584386825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4527778625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5280179977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6032619476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8477983474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9324445724487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0923347473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8195819854736</t>
+    <t xml:space="preserve">15.6584415435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4527788162231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5280208587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6032590866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8477973937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9324474334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0923328399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8195829391479</t>
   </si>
   <si>
     <t xml:space="preserve">15.2646732330322</t>
@@ -533,58 +533,58 @@
     <t xml:space="preserve">15.6220722198486</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7161226272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7067174911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3493194580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.064115524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5343780517578</t>
+    <t xml:space="preserve">15.7161245346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7067184448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3493213653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0641174316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5343761444092</t>
   </si>
   <si>
     <t xml:space="preserve">16.129955291748</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6879081726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8007717132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5092086791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0829257965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2522201538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0359039306641</t>
+    <t xml:space="preserve">15.6879100799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8007707595825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5092077255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0829277038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2522220611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0359020233154</t>
   </si>
   <si>
     <t xml:space="preserve">16.7883205413818</t>
   </si>
   <si>
-    <t xml:space="preserve">17.399658203125</t>
+    <t xml:space="preserve">17.3996562957764</t>
   </si>
   <si>
     <t xml:space="preserve">17.4748992919922</t>
   </si>
   <si>
-    <t xml:space="preserve">17.352632522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.43727684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2397727966309</t>
+    <t xml:space="preserve">17.3526306152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4372806549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2397708892822</t>
   </si>
   <si>
     <t xml:space="preserve">17.1645278930664</t>
@@ -593,22 +593,22 @@
     <t xml:space="preserve">16.6942672729492</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3056049346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1175003051758</t>
+    <t xml:space="preserve">17.305606842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.117504119873</t>
   </si>
   <si>
     <t xml:space="preserve">17.3808479309082</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9639701843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1238632202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1614799499512</t>
+    <t xml:space="preserve">17.9639720916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1238613128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1614818572998</t>
   </si>
   <si>
     <t xml:space="preserve">18.1050510406494</t>
@@ -620,19 +620,19 @@
     <t xml:space="preserve">19.1396236419678</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1866474151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7979907989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8732299804688</t>
+    <t xml:space="preserve">19.1866493225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7979888916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8732318878174</t>
   </si>
   <si>
     <t xml:space="preserve">19.3559436798096</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1490287780762</t>
+    <t xml:space="preserve">19.1490306854248</t>
   </si>
   <si>
     <t xml:space="preserve">19.7039375305176</t>
@@ -641,67 +641,67 @@
     <t xml:space="preserve">19.5722637176514</t>
   </si>
   <si>
-    <t xml:space="preserve">19.421781539917</t>
+    <t xml:space="preserve">19.4217796325684</t>
   </si>
   <si>
     <t xml:space="preserve">19.318323135376</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0925941467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2524871826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.17724609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.167839050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.989143371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8104400634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6317443847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.340181350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.688175201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7634162902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6975784301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6035251617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7163887023926</t>
+    <t xml:space="preserve">19.0925979614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2524833679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1772441864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1678409576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9891414642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8104419708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6317386627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3401775360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6881732940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7634181976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6975803375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6035270690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7163906097412</t>
   </si>
   <si>
     <t xml:space="preserve">18.5094757080078</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5565013885498</t>
+    <t xml:space="preserve">18.5564994812012</t>
   </si>
   <si>
     <t xml:space="preserve">18.7446060180664</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8480606079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8574695587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9609241485596</t>
+    <t xml:space="preserve">18.8480644226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8574657440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9609260559082</t>
   </si>
   <si>
     <t xml:space="preserve">19.2807025909424</t>
@@ -710,40 +710,40 @@
     <t xml:space="preserve">19.656909942627</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3277282714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3653507232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6098861694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6945304870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1960563659668</t>
+    <t xml:space="preserve">19.3277263641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3653526306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.609884262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6945323944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1960544586182</t>
   </si>
   <si>
     <t xml:space="preserve">19.4876155853271</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7509632110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3371315002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4594039916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5910758972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.271297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.468807220459</t>
+    <t xml:space="preserve">19.7509670257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3371353149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4594020843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5910739898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2712993621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4688091278076</t>
   </si>
   <si>
     <t xml:space="preserve">19.628698348999</t>
@@ -752,49 +752,49 @@
     <t xml:space="preserve">19.5252380371094</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1647930145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.258846282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6350555419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8795928955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1147193908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2275829315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2087726593018</t>
+    <t xml:space="preserve">20.164794921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2588481903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6350536346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8795909881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1147212982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2275810241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2087745666504</t>
   </si>
   <si>
     <t xml:space="preserve">20.3999252319336</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8701839447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6444625854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.503381729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8325672149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9078063964844</t>
+    <t xml:space="preserve">20.8701877593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.644458770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5033798217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8325614929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9078044891357</t>
   </si>
   <si>
     <t xml:space="preserve">20.8607807159424</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7573223114014</t>
+    <t xml:space="preserve">20.7573204040527</t>
   </si>
   <si>
     <t xml:space="preserve">20.7855396270752</t>
@@ -803,31 +803,31 @@
     <t xml:space="preserve">20.9172115325928</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7385120391846</t>
+    <t xml:space="preserve">20.7385139465332</t>
   </si>
   <si>
     <t xml:space="preserve">21.0771007537842</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1241283416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7102966308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0394802093506</t>
+    <t xml:space="preserve">21.1241264343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7102947235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.039478302002</t>
   </si>
   <si>
     <t xml:space="preserve">21.9141654968262</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7636795043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6320095062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5849838256836</t>
+    <t xml:space="preserve">21.7636814117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6320056915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5849800109863</t>
   </si>
   <si>
     <t xml:space="preserve">21.3968772888184</t>
@@ -836,64 +836,64 @@
     <t xml:space="preserve">21.38747215271</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1899662017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.537956237793</t>
+    <t xml:space="preserve">21.1899642944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5379581451416</t>
   </si>
   <si>
     <t xml:space="preserve">21.3686618804932</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6131973266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.490930557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8983993530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4345016479492</t>
+    <t xml:space="preserve">21.6131954193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4909286499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.898401260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4344997406006</t>
   </si>
   <si>
     <t xml:space="preserve">21.2181777954102</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3780670166016</t>
+    <t xml:space="preserve">21.3780651092529</t>
   </si>
   <si>
     <t xml:space="preserve">21.5191440582275</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5097408294678</t>
+    <t xml:space="preserve">21.5097389221191</t>
   </si>
   <si>
     <t xml:space="preserve">21.6037921905518</t>
   </si>
   <si>
-    <t xml:space="preserve">21.54736328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.199369430542</t>
+    <t xml:space="preserve">21.5473594665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1993675231934</t>
   </si>
   <si>
     <t xml:space="preserve">21.4439029693604</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9924507141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5692195892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6538639068604</t>
+    <t xml:space="preserve">20.99245262146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5692157745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6538619995117</t>
   </si>
   <si>
     <t xml:space="preserve">20.6632690429688</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5786247253418</t>
+    <t xml:space="preserve">20.5786228179932</t>
   </si>
   <si>
     <t xml:space="preserve">20.8889961242676</t>
@@ -905,28 +905,28 @@
     <t xml:space="preserve">20.2964668273926</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4657611846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0425262451172</t>
+    <t xml:space="preserve">20.4657592773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0425243377686</t>
   </si>
   <si>
     <t xml:space="preserve">20.1553897857666</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5221939086914</t>
+    <t xml:space="preserve">20.5221900939941</t>
   </si>
   <si>
     <t xml:space="preserve">20.5504093170166</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8043479919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6914882659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.20241355896</t>
+    <t xml:space="preserve">20.804349899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6914844512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2024154663086</t>
   </si>
   <si>
     <t xml:space="preserve">20.0801467895508</t>
@@ -935,34 +935,34 @@
     <t xml:space="preserve">20.1365776062012</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9672832489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1742000579834</t>
+    <t xml:space="preserve">19.96728515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1741981506348</t>
   </si>
   <si>
     <t xml:space="preserve">20.3246841430664</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2494411468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3623046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.920259475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9266166687012</t>
+    <t xml:space="preserve">20.249439239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3623008728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9202575683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9266185760498</t>
   </si>
   <si>
     <t xml:space="preserve">20.4939765930176</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2212238311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9766902923584</t>
+    <t xml:space="preserve">20.221227645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9766883850098</t>
   </si>
   <si>
     <t xml:space="preserve">20.6726760864258</t>
@@ -971,13 +971,13 @@
     <t xml:space="preserve">20.3811149597168</t>
   </si>
   <si>
-    <t xml:space="preserve">20.747917175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.105318069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5974349975586</t>
+    <t xml:space="preserve">20.7479190826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1053142547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5974311828613</t>
   </si>
   <si>
     <t xml:space="preserve">20.8231582641602</t>
@@ -992,13 +992,13 @@
     <t xml:space="preserve">20.9830474853516</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7291069030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5880279541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6256504058838</t>
+    <t xml:space="preserve">20.7291107177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5880260467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6256484985352</t>
   </si>
   <si>
     <t xml:space="preserve">20.1271724700928</t>
@@ -1013,13 +1013,13 @@
     <t xml:space="preserve">20.2306308746338</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3434925079346</t>
+    <t xml:space="preserve">20.3434906005859</t>
   </si>
   <si>
     <t xml:space="preserve">20.7761325836182</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2400379180908</t>
+    <t xml:space="preserve">20.2400321960449</t>
   </si>
   <si>
     <t xml:space="preserve">19.7791805267334</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">19.4970226287842</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0173530578613</t>
+    <t xml:space="preserve">19.0173568725586</t>
   </si>
   <si>
     <t xml:space="preserve">19.073787689209</t>
@@ -1040,49 +1040,49 @@
     <t xml:space="preserve">19.233678817749</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9139003753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7916297912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8950881958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6693668365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0455722808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.374755859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2147750854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1864147186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7611064910889</t>
+    <t xml:space="preserve">18.9138984680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7916316986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.895092010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6693630218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0455741882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3747539520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.214771270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1864185333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7611026763916</t>
   </si>
   <si>
     <t xml:space="preserve">18.5342712402344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1278553009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0711498260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8632164001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8915710449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1656627655029</t>
+    <t xml:space="preserve">18.1278591156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0711517333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8632183074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8915729522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1656646728516</t>
   </si>
   <si>
     <t xml:space="preserve">18.118408203125</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">18.194019317627</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4964656829834</t>
+    <t xml:space="preserve">18.4964637756348</t>
   </si>
   <si>
     <t xml:space="preserve">18.6949443817139</t>
@@ -1100,43 +1100,43 @@
     <t xml:space="preserve">18.817813873291</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6382350921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3924961090088</t>
+    <t xml:space="preserve">18.6382331848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3924999237061</t>
   </si>
   <si>
     <t xml:space="preserve">18.7232990264893</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5909805297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4492073059082</t>
+    <t xml:space="preserve">18.5909767150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4492092132568</t>
   </si>
   <si>
     <t xml:space="preserve">18.9028759002686</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0068435668945</t>
+    <t xml:space="preserve">19.0068416595459</t>
   </si>
   <si>
     <t xml:space="preserve">18.9312324523926</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9217758178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8461666107178</t>
+    <t xml:space="preserve">18.921781539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.846170425415</t>
   </si>
   <si>
     <t xml:space="preserve">18.5815277099609</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6098823547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6760406494141</t>
+    <t xml:space="preserve">18.6098804473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6760425567627</t>
   </si>
   <si>
     <t xml:space="preserve">18.713846206665</t>
@@ -1145,19 +1145,19 @@
     <t xml:space="preserve">18.7043972015381</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8934268951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9406814575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.827262878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6193332672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7327480316162</t>
+    <t xml:space="preserve">18.893424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9406833648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8272647857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6193313598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7327499389648</t>
   </si>
   <si>
     <t xml:space="preserve">19.1391620635986</t>
@@ -1166,16 +1166,16 @@
     <t xml:space="preserve">19.4227046966553</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7062492370605</t>
+    <t xml:space="preserve">19.7062473297119</t>
   </si>
   <si>
     <t xml:space="preserve">19.9897918701172</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7931652069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5492782592773</t>
+    <t xml:space="preserve">20.7931632995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5492763519287</t>
   </si>
   <si>
     <t xml:space="preserve">21.8328227996826</t>
@@ -1184,13 +1184,13 @@
     <t xml:space="preserve">21.7855644226074</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6437931060791</t>
+    <t xml:space="preserve">21.6437950134277</t>
   </si>
   <si>
     <t xml:space="preserve">21.8800792694092</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7383079528809</t>
+    <t xml:space="preserve">21.7383060455322</t>
   </si>
   <si>
     <t xml:space="preserve">22.0218505859375</t>
@@ -1202,34 +1202,34 @@
     <t xml:space="preserve">21.2657337188721</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6986503601074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3129920959473</t>
+    <t xml:space="preserve">20.6986465454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3129940032959</t>
   </si>
   <si>
     <t xml:space="preserve">20.8876800537109</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0294494628906</t>
+    <t xml:space="preserve">21.0294513702393</t>
   </si>
   <si>
     <t xml:space="preserve">20.9821949005127</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3602504730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4547634124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.407506942749</t>
+    <t xml:space="preserve">21.3602523803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4547653198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4075050354004</t>
   </si>
   <si>
     <t xml:space="preserve">21.1239643096924</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9349365234375</t>
+    <t xml:space="preserve">20.9349346160889</t>
   </si>
   <si>
     <t xml:space="preserve">21.9745941162109</t>
@@ -1238,25 +1238,25 @@
     <t xml:space="preserve">22.494421005249</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1636238098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3526515960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2581348419189</t>
+    <t xml:space="preserve">22.1636257171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3526496887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2581367492676</t>
   </si>
   <si>
     <t xml:space="preserve">21.0767059326172</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5020198822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5568809509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4623641967773</t>
+    <t xml:space="preserve">21.5020217895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5568771362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4623622894287</t>
   </si>
   <si>
     <t xml:space="preserve">21.1712207794189</t>
@@ -1265,61 +1265,61 @@
     <t xml:space="preserve">20.8404216766357</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2184772491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5965385437012</t>
+    <t xml:space="preserve">21.2184791564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5965347290039</t>
   </si>
   <si>
     <t xml:space="preserve">20.6513938903809</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7459087371826</t>
+    <t xml:space="preserve">20.7459049224854</t>
   </si>
   <si>
     <t xml:space="preserve">20.3678493499756</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2336750030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2809314727783</t>
+    <t xml:space="preserve">19.2336769104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.280933380127</t>
   </si>
   <si>
     <t xml:space="preserve">19.3754482269287</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5644779205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0370483398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8480186462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6041355133057</t>
+    <t xml:space="preserve">19.5644760131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0370502471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8480224609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.604133605957</t>
   </si>
   <si>
     <t xml:space="preserve">20.5096225738525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2260761260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4151077270508</t>
+    <t xml:space="preserve">20.2260780334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4151039123535</t>
   </si>
   <si>
     <t xml:space="preserve">20.2733345031738</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1315631866455</t>
+    <t xml:space="preserve">20.1315612792969</t>
   </si>
   <si>
     <t xml:space="preserve">20.1788215637207</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6589889526367</t>
+    <t xml:space="preserve">19.6589908599854</t>
   </si>
   <si>
     <t xml:space="preserve">19.8007640838623</t>
@@ -1328,10 +1328,10 @@
     <t xml:space="preserve">19.7535037994385</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8952770233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9425354003906</t>
+    <t xml:space="preserve">19.8952751159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.942533493042</t>
   </si>
   <si>
     <t xml:space="preserve">19.517219543457</t>
@@ -1340,70 +1340,70 @@
     <t xml:space="preserve">19.4699611663818</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6117343902588</t>
+    <t xml:space="preserve">19.6117305755615</t>
   </si>
   <si>
     <t xml:space="preserve">20.0843067169189</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6910514831543</t>
+    <t xml:space="preserve">21.6910495758057</t>
   </si>
   <si>
     <t xml:space="preserve">20.320592880249</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9388275146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5003595352173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8973178863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9521751403809</t>
+    <t xml:space="preserve">17.9388313293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5003604888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8973197937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9521741867065</t>
   </si>
   <si>
     <t xml:space="preserve">14.6497297286987</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9899816513062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5948724746704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8217077255249</t>
+    <t xml:space="preserve">14.9899806976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5948715209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8217096328735</t>
   </si>
   <si>
     <t xml:space="preserve">16.199764251709</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7271919250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5192613601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6515798568726</t>
+    <t xml:space="preserve">15.7271909713745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5192594528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6515789031982</t>
   </si>
   <si>
     <t xml:space="preserve">16.0674457550049</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9918336868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8595113754272</t>
+    <t xml:space="preserve">15.9918327331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8595132827759</t>
   </si>
   <si>
     <t xml:space="preserve">15.7839012145996</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5759696960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1979122161865</t>
+    <t xml:space="preserve">15.575966835022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1979131698608</t>
   </si>
   <si>
     <t xml:space="preserve">15.0457429885864</t>
@@ -1412,19 +1412,19 @@
     <t xml:space="preserve">14.7604265213013</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5892362594604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6272783279419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1028070449829</t>
+    <t xml:space="preserve">14.5892343521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6272773742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1028060913086</t>
   </si>
   <si>
     <t xml:space="preserve">15.1218280792236</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8365116119385</t>
+    <t xml:space="preserve">14.8365106582642</t>
   </si>
   <si>
     <t xml:space="preserve">15.3310623168945</t>
@@ -1433,127 +1433,127 @@
     <t xml:space="preserve">15.6353998184204</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4642086029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2468547821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0946855545044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7713232040405</t>
+    <t xml:space="preserve">15.464207649231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2468538284302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0946836471558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7713241577148</t>
   </si>
   <si>
     <t xml:space="preserve">13.9044733047485</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5131502151489</t>
+    <t xml:space="preserve">14.5131511688232</t>
   </si>
   <si>
     <t xml:space="preserve">14.3419599533081</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3229398727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3990240097046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1327276229858</t>
+    <t xml:space="preserve">14.3229389190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3990249633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1327266693115</t>
   </si>
   <si>
     <t xml:space="preserve">13.8093681335449</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7903461456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9615364074707</t>
+    <t xml:space="preserve">13.7903451919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.961537361145</t>
   </si>
   <si>
     <t xml:space="preserve">14.2278327941895</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3800029754639</t>
+    <t xml:space="preserve">14.3800020217896</t>
   </si>
   <si>
     <t xml:space="preserve">14.7033624649048</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9316167831421</t>
+    <t xml:space="preserve">14.9316158294678</t>
   </si>
   <si>
     <t xml:space="preserve">15.4071474075317</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3120403289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2169342041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2549772262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0837860107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2930183410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3500814437866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3881244659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7305059432983</t>
+    <t xml:space="preserve">15.3120393753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2169332504272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.254976272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0837841033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2930173873901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3500804901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3881235122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.730507850647</t>
   </si>
   <si>
     <t xml:space="preserve">16.1679916381836</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0239448547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1000270843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1190490722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7005825042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6245002746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4723300933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5674362182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.18701171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.072883605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0158214569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.339183807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3582038879395</t>
+    <t xml:space="preserve">17.0239429473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1000289916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1190528869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7005863189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6244983673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4723281860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5674381256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1870136260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0728855133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0158233642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3391819000244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3582057952881</t>
   </si>
   <si>
     <t xml:space="preserve">16.4533081054688</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8337345123291</t>
+    <t xml:space="preserve">16.8337364196777</t>
   </si>
   <si>
     <t xml:space="preserve">16.7196063995361</t>
@@ -1565,13 +1565,13 @@
     <t xml:space="preserve">16.6435203552246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6625423431396</t>
+    <t xml:space="preserve">16.662540435791</t>
   </si>
   <si>
     <t xml:space="preserve">16.4342880249023</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8147106170654</t>
+    <t xml:space="preserve">16.8147125244141</t>
   </si>
   <si>
     <t xml:space="preserve">16.9288368225098</t>
@@ -1589,10 +1589,10 @@
     <t xml:space="preserve">16.1489715576172</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1299476623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3201599121094</t>
+    <t xml:space="preserve">16.1299495697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.320161819458</t>
   </si>
   <si>
     <t xml:space="preserve">16.206033706665</t>
@@ -1601,34 +1601,34 @@
     <t xml:space="preserve">16.5484142303467</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6054782867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7386283874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9859008789062</t>
+    <t xml:space="preserve">16.6054763793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7386264801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9859046936035</t>
   </si>
   <si>
     <t xml:space="preserve">17.1570930480957</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6896839141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5075931549072</t>
+    <t xml:space="preserve">17.6896858215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5075950622559</t>
   </si>
   <si>
     <t xml:space="preserve">18.4885730743408</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4695529937744</t>
+    <t xml:space="preserve">18.4695510864258</t>
   </si>
   <si>
     <t xml:space="preserve">18.336404800415</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7467479705811</t>
+    <t xml:space="preserve">17.7467498779297</t>
   </si>
   <si>
     <t xml:space="preserve">17.3473033905029</t>
@@ -1637,10 +1637,10 @@
     <t xml:space="preserve">17.2141551971436</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1951332092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9478588104248</t>
+    <t xml:space="preserve">17.1951351165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9478569030762</t>
   </si>
   <si>
     <t xml:space="preserve">16.8527545928955</t>
@@ -1649,28 +1649,28 @@
     <t xml:space="preserve">17.1761131286621</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0429649353027</t>
+    <t xml:space="preserve">17.0429668426514</t>
   </si>
   <si>
     <t xml:space="preserve">17.27121925354</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3663234710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4424076080322</t>
+    <t xml:space="preserve">17.366325378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4424095153809</t>
   </si>
   <si>
     <t xml:space="preserve">16.9668807983398</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4152660369873</t>
+    <t xml:space="preserve">16.4152679443359</t>
   </si>
   <si>
     <t xml:space="preserve">15.6924629211426</t>
   </si>
   <si>
-    <t xml:space="preserve">15.711483001709</t>
+    <t xml:space="preserve">15.7114858627319</t>
   </si>
   <si>
     <t xml:space="preserve">15.6544208526611</t>
@@ -1679,7 +1679,7 @@
     <t xml:space="preserve">15.3691034317017</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8745536804199</t>
+    <t xml:space="preserve">14.8745527267456</t>
   </si>
   <si>
     <t xml:space="preserve">14.9886808395386</t>
@@ -1694,67 +1694,67 @@
     <t xml:space="preserve">15.1598701477051</t>
   </si>
   <si>
-    <t xml:space="preserve">15.02672290802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6843414306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8555316925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.551194190979</t>
+    <t xml:space="preserve">15.0267219543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6843404769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8555307388306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5511922836304</t>
   </si>
   <si>
     <t xml:space="preserve">15.007700920105</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7414054870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6462993621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8174896240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7685461044312</t>
+    <t xml:space="preserve">14.7414045333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6462984085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8174877166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7685480117798</t>
   </si>
   <si>
     <t xml:space="preserve">15.597357749939</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5783348083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8636531829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4261665344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7875690460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6163787841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5212717056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2359561920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0647649765015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7223834991455</t>
+    <t xml:space="preserve">15.5783357620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.863655090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4261655807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7875709533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6163768768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5212736129761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2359552383423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0647640228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7223825454712</t>
   </si>
   <si>
     <t xml:space="preserve">14.9696588516235</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7984685897827</t>
+    <t xml:space="preserve">14.7984676361084</t>
   </si>
   <si>
     <t xml:space="preserve">14.4751091003418</t>
@@ -1766,31 +1766,31 @@
     <t xml:space="preserve">14.2658758163452</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0756645202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9425144195557</t>
+    <t xml:space="preserve">14.0756635665894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.94251537323</t>
   </si>
   <si>
     <t xml:space="preserve">14.6082563400269</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4370670318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9805574417114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0186004638672</t>
+    <t xml:space="preserve">14.437066078186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9805583953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0185995101929</t>
   </si>
   <si>
     <t xml:space="preserve">14.2088117599487</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1137056350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4180450439453</t>
+    <t xml:space="preserve">14.1137065887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.418044090271</t>
   </si>
   <si>
     <t xml:space="preserve">14.1897916793823</t>
@@ -1802,34 +1802,34 @@
     <t xml:space="preserve">14.170768737793</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5593156814575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3609819412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2848968505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6653203964233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1788921356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4832315444946</t>
+    <t xml:space="preserve">15.5593147277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3609809875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2848958969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.665319442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1788911819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4832305908203</t>
   </si>
   <si>
     <t xml:space="preserve">15.2640380859375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2448396682739</t>
+    <t xml:space="preserve">15.2448387145996</t>
   </si>
   <si>
     <t xml:space="preserve">15.0912389755249</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9952383041382</t>
+    <t xml:space="preserve">14.9952373504639</t>
   </si>
   <si>
     <t xml:space="preserve">15.0720376968384</t>
@@ -1838,52 +1838,52 @@
     <t xml:space="preserve">15.5712385177612</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8784418106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6656436920166</t>
+    <t xml:space="preserve">15.8784437179565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.665641784668</t>
   </si>
   <si>
     <t xml:space="preserve">16.5312423706055</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8976402282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8592395782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7248392105103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7440395355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6480407714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9552431106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9936389923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3776416778564</t>
+    <t xml:space="preserve">15.8976392745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8592414855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7248401641846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7440414428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6480398178101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9552421569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9936418533325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3776397705078</t>
   </si>
   <si>
     <t xml:space="preserve">15.9168405532837</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8016395568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8400411605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2432422637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1856422424316</t>
+    <t xml:space="preserve">15.8016405105591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8400402069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2432403564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.185640335083</t>
   </si>
   <si>
     <t xml:space="preserve">15.6096391677856</t>
@@ -1892,10 +1892,10 @@
     <t xml:space="preserve">16.0320415496826</t>
   </si>
   <si>
-    <t xml:space="preserve">15.763240814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6288394927979</t>
+    <t xml:space="preserve">15.7632389068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6288404464722</t>
   </si>
   <si>
     <t xml:space="preserve">15.7824411392212</t>
@@ -1907,37 +1907,37 @@
     <t xml:space="preserve">15.3024387359619</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1680393218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3984394073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9376392364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.129638671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6880388259888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2080373764038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1120357513428</t>
+    <t xml:space="preserve">15.1680383682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3984403610229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9376382827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1296396255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6880369186401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2080364227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1120367050171</t>
   </si>
   <si>
     <t xml:space="preserve">14.4000368118286</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7840366363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9760398864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.764838218689</t>
+    <t xml:space="preserve">14.7840375900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9760389328003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7648372650146</t>
   </si>
   <si>
     <t xml:space="preserve">14.5728368759155</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">14.5152368545532</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4576377868652</t>
+    <t xml:space="preserve">14.4576368331909</t>
   </si>
   <si>
     <t xml:space="preserve">14.2272357940674</t>
@@ -1961,19 +1961,19 @@
     <t xml:space="preserve">13.8624353408813</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3056335449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1712341308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5360345840454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2480354309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9600343704224</t>
+    <t xml:space="preserve">13.3056344985962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1712331771851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5360355377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2480335235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9600324630737</t>
   </si>
   <si>
     <t xml:space="preserve">12.5760316848755</t>
@@ -1982,16 +1982,16 @@
     <t xml:space="preserve">12.3264322280884</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0960311889648</t>
+    <t xml:space="preserve">12.0960321426392</t>
   </si>
   <si>
     <t xml:space="preserve">11.6160297393799</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1744289398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2528266906738</t>
+    <t xml:space="preserve">11.174427986145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2528276443481</t>
   </si>
   <si>
     <t xml:space="preserve">10.0800256729126</t>
@@ -2003,7 +2003,7 @@
     <t xml:space="preserve">9.02402305603027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5328254699707</t>
+    <t xml:space="preserve">9.53282451629639</t>
   </si>
   <si>
     <t xml:space="preserve">8.19842147827148</t>
@@ -2015,31 +2015,31 @@
     <t xml:space="preserve">9.21602344512939</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2912254333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8864288330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0768299102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0560331344604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7504291534424</t>
+    <t xml:space="preserve">10.2912273406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8864278793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0768308639526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0560340881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7504301071167</t>
   </si>
   <si>
     <t xml:space="preserve">11.0976285934448</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0592279434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7712268829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1952266693115</t>
+    <t xml:space="preserve">11.059229850769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7712278366089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1952257156372</t>
   </si>
   <si>
     <t xml:space="preserve">10.4640264511108</t>
@@ -2048,25 +2048,25 @@
     <t xml:space="preserve">10.7520275115967</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8672275543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2512283325195</t>
+    <t xml:space="preserve">10.867226600647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2512292861938</t>
   </si>
   <si>
     <t xml:space="preserve">11.0400285720825</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7136278152466</t>
+    <t xml:space="preserve">10.7136268615723</t>
   </si>
   <si>
     <t xml:space="preserve">10.329626083374</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0032253265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3488254547119</t>
+    <t xml:space="preserve">10.0032262802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3488264083862</t>
   </si>
   <si>
     <t xml:space="preserve">10.6368265151978</t>
@@ -2075,37 +2075,37 @@
     <t xml:space="preserve">10.5600271224976</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9056262969971</t>
+    <t xml:space="preserve">10.9056272506714</t>
   </si>
   <si>
     <t xml:space="preserve">10.8480281829834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8288278579712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9440269470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9632291793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6752281188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1360282897949</t>
+    <t xml:space="preserve">10.8288269042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9440279006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9632272720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6752271652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1360273361206</t>
   </si>
   <si>
     <t xml:space="preserve">11.0784282684326</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6352300643921</t>
+    <t xml:space="preserve">11.6352281570435</t>
   </si>
   <si>
     <t xml:space="preserve">11.7120294570923</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1936283111572</t>
+    <t xml:space="preserve">11.1936292648315</t>
   </si>
   <si>
     <t xml:space="preserve">11.5584297180176</t>
@@ -2117,13 +2117,13 @@
     <t xml:space="preserve">11.9424295425415</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1536312103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.441632270813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3648309707642</t>
+    <t xml:space="preserve">12.1536302566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4416313171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3648319244385</t>
   </si>
   <si>
     <t xml:space="preserve">12.2496318817139</t>
@@ -2132,7 +2132,7 @@
     <t xml:space="preserve">12.0000314712524</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3664302825928</t>
+    <t xml:space="preserve">11.3664283752441</t>
   </si>
   <si>
     <t xml:space="preserve">11.1552286148071</t>
@@ -2150,16 +2150,16 @@
     <t xml:space="preserve">10.9248275756836</t>
   </si>
   <si>
-    <t xml:space="preserve">10.809627532959</t>
+    <t xml:space="preserve">10.8096284866333</t>
   </si>
   <si>
     <t xml:space="preserve">10.5408267974854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5792264938354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7904272079468</t>
+    <t xml:space="preserve">10.5792274475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7904281616211</t>
   </si>
   <si>
     <t xml:space="preserve">11.3472290039062</t>
@@ -2177,16 +2177,16 @@
     <t xml:space="preserve">11.1168279647827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7328281402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5024261474609</t>
+    <t xml:space="preserve">10.7328271865845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5024271011353</t>
   </si>
   <si>
     <t xml:space="preserve">10.5984268188477</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7888298034668</t>
+    <t xml:space="preserve">11.7888307571411</t>
   </si>
   <si>
     <t xml:space="preserve">11.5776300430298</t>
@@ -2195,34 +2195,34 @@
     <t xml:space="preserve">11.8272304534912</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6736297607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7696304321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6928291320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8080310821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8848304748535</t>
+    <t xml:space="preserve">11.6736288070679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7696294784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6928310394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.808030128479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8848295211792</t>
   </si>
   <si>
     <t xml:space="preserve">12.3840312957764</t>
   </si>
   <si>
-    <t xml:space="preserve">12.288031578064</t>
+    <t xml:space="preserve">12.2880325317383</t>
   </si>
   <si>
     <t xml:space="preserve">12.2688312530518</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1152315139771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1344318389893</t>
+    <t xml:space="preserve">12.1152305603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1344308853149</t>
   </si>
   <si>
     <t xml:space="preserve">11.961630821228</t>
@@ -2234,16 +2234,16 @@
     <t xml:space="preserve">11.385627746582</t>
   </si>
   <si>
-    <t xml:space="preserve">12.806432723999</t>
+    <t xml:space="preserve">12.8064336776733</t>
   </si>
   <si>
     <t xml:space="preserve">13.8240346908569</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5552349090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0352354049683</t>
+    <t xml:space="preserve">13.5552339553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0352363586426</t>
   </si>
   <si>
     <t xml:space="preserve">13.7664346694946</t>
@@ -2252,46 +2252,46 @@
     <t xml:space="preserve">13.4016342163086</t>
   </si>
   <si>
-    <t xml:space="preserve">13.593635559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6320343017578</t>
+    <t xml:space="preserve">13.5936346054077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6320352554321</t>
   </si>
   <si>
     <t xml:space="preserve">13.2672338485718</t>
   </si>
   <si>
-    <t xml:space="preserve">13.497633934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3040351867676</t>
+    <t xml:space="preserve">13.4976348876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3040361404419</t>
   </si>
   <si>
     <t xml:space="preserve">13.9008350372314</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5744361877441</t>
+    <t xml:space="preserve">13.5744352340698</t>
   </si>
   <si>
     <t xml:space="preserve">13.286434173584</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6512355804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.344033241272</t>
+    <t xml:space="preserve">13.65123462677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3440341949463</t>
   </si>
   <si>
     <t xml:space="preserve">12.172830581665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2112321853638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4800329208374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5952320098877</t>
+    <t xml:space="preserve">12.2112312316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4800310134888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.595232963562</t>
   </si>
   <si>
     <t xml:space="preserve">13.0176334381104</t>
@@ -2303,22 +2303,22 @@
     <t xml:space="preserve">13.2096338272095</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4784336090088</t>
+    <t xml:space="preserve">13.4784345626831</t>
   </si>
   <si>
     <t xml:space="preserve">13.6128349304199</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7280359268188</t>
+    <t xml:space="preserve">13.7280349731445</t>
   </si>
   <si>
     <t xml:space="preserve">13.7879419326782</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8073348999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5746259689331</t>
+    <t xml:space="preserve">13.807333946228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5746269226074</t>
   </si>
   <si>
     <t xml:space="preserve">13.6134119033813</t>
@@ -2330,46 +2330,46 @@
     <t xml:space="preserve">13.6715888977051</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0206508636475</t>
+    <t xml:space="preserve">14.0206499099731</t>
   </si>
   <si>
     <t xml:space="preserve">14.0594339370728</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9236869812012</t>
+    <t xml:space="preserve">13.9236879348755</t>
   </si>
   <si>
     <t xml:space="preserve">14.3503198623657</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3309268951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3891038894653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1563968658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8655128479004</t>
+    <t xml:space="preserve">14.3309259414673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3891048431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1563959121704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8655118942261</t>
   </si>
   <si>
     <t xml:space="preserve">13.6328039169312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9430818557739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7685489654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7103729248047</t>
+    <t xml:space="preserve">13.9430809020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7685499191284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.710373878479</t>
   </si>
   <si>
     <t xml:space="preserve">13.9624729156494</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8849039077759</t>
+    <t xml:space="preserve">13.8849029541016</t>
   </si>
   <si>
     <t xml:space="preserve">14.0400419235229</t>
@@ -2378,13 +2378,13 @@
     <t xml:space="preserve">14.3115348815918</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5248498916626</t>
+    <t xml:space="preserve">14.5248508453369</t>
   </si>
   <si>
     <t xml:space="preserve">14.8933048248291</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8157358169556</t>
+    <t xml:space="preserve">14.8157348632812</t>
   </si>
   <si>
     <t xml:space="preserve">15.1841888427734</t>
@@ -2393,7 +2393,7 @@
     <t xml:space="preserve">15.2229738235474</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6967887878418</t>
+    <t xml:space="preserve">16.6967906951904</t>
   </si>
   <si>
     <t xml:space="preserve">16.5416507720947</t>
@@ -2417,7 +2417,7 @@
     <t xml:space="preserve">15.513858795166</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9404916763306</t>
+    <t xml:space="preserve">15.9404907226562</t>
   </si>
   <si>
     <t xml:space="preserve">15.5332517623901</t>
@@ -2426,7 +2426,7 @@
     <t xml:space="preserve">15.6302137374878</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9210977554321</t>
+    <t xml:space="preserve">15.9210968017578</t>
   </si>
   <si>
     <t xml:space="preserve">16.0568428039551</t>
@@ -2438,16 +2438,16 @@
     <t xml:space="preserve">16.8131446838379</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9876766204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8907127380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8519287109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9294986724854</t>
+    <t xml:space="preserve">16.9876747131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8907146453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8519268035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9294967651367</t>
   </si>
   <si>
     <t xml:space="preserve">16.9101066589355</t>
@@ -2459,7 +2459,7 @@
     <t xml:space="preserve">17.356128692627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.414306640625</t>
+    <t xml:space="preserve">17.4143047332764</t>
   </si>
   <si>
     <t xml:space="preserve">17.2009906768799</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">16.8713207244873</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1622066497803</t>
+    <t xml:space="preserve">17.1622085571289</t>
   </si>
   <si>
     <t xml:space="preserve">17.1428146362305</t>
@@ -2486,10 +2486,10 @@
     <t xml:space="preserve">17.0652446746826</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1900024414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3063507080078</t>
+    <t xml:space="preserve">18.1900005340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3063526153564</t>
   </si>
   <si>
     <t xml:space="preserve">18.5390625</t>
@@ -2501,31 +2501,31 @@
     <t xml:space="preserve">20.1680164337158</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5558624267578</t>
+    <t xml:space="preserve">20.5558643341064</t>
   </si>
   <si>
     <t xml:space="preserve">20.022575378418</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9921913146973</t>
+    <t xml:space="preserve">20.9921894073486</t>
   </si>
   <si>
     <t xml:space="preserve">20.7497863769531</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3619384765625</t>
+    <t xml:space="preserve">20.3619403839111</t>
   </si>
   <si>
     <t xml:space="preserve">20.2164974212646</t>
   </si>
   <si>
-    <t xml:space="preserve">20.119535446167</t>
+    <t xml:space="preserve">20.1195335388184</t>
   </si>
   <si>
     <t xml:space="preserve">20.2649784088135</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6528244018555</t>
+    <t xml:space="preserve">20.6528224945068</t>
   </si>
   <si>
     <t xml:space="preserve">20.798267364502</t>
@@ -2540,16 +2540,16 @@
     <t xml:space="preserve">21.1376323699951</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6043434143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3134574890137</t>
+    <t xml:space="preserve">20.6043453216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3134593963623</t>
   </si>
   <si>
     <t xml:space="preserve">21.1861133575439</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9740943908691</t>
+    <t xml:space="preserve">19.9740924835205</t>
   </si>
   <si>
     <t xml:space="preserve">19.731689453125</t>
@@ -2561,7 +2561,7 @@
     <t xml:space="preserve">19.7801704406738</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0710544586182</t>
+    <t xml:space="preserve">20.0710563659668</t>
   </si>
   <si>
     <t xml:space="preserve">19.3923225402832</t>
@@ -2573,25 +2573,25 @@
     <t xml:space="preserve">20.7013053894043</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4589023590088</t>
+    <t xml:space="preserve">20.4589004516602</t>
   </si>
   <si>
     <t xml:space="preserve">21.3800373077393</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9618072509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5739593505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0587673187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0102882385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1072463989258</t>
+    <t xml:space="preserve">21.9618053436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5739612579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0587692260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0102863311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1072483062744</t>
   </si>
   <si>
     <t xml:space="preserve">21.8163642883301</t>
@@ -2600,10 +2600,10 @@
     <t xml:space="preserve">22.1557292938232</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2526931762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4769992828369</t>
+    <t xml:space="preserve">22.2526912689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4769973754883</t>
   </si>
   <si>
     <t xml:space="preserve">21.6224403381348</t>
@@ -2612,10 +2612,10 @@
     <t xml:space="preserve">21.7194023132324</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5920543670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0768623352051</t>
+    <t xml:space="preserve">22.5920562744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0768642425537</t>
   </si>
   <si>
     <t xml:space="preserve">23.6101551055908</t>
@@ -2624,7 +2624,7 @@
     <t xml:space="preserve">22.9314231872559</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6890201568604</t>
+    <t xml:space="preserve">22.6890182495117</t>
   </si>
   <si>
     <t xml:space="preserve">22.3011722564697</t>
@@ -2636,16 +2636,16 @@
     <t xml:space="preserve">21.6709213256836</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0891513824463</t>
+    <t xml:space="preserve">21.0891532897949</t>
   </si>
   <si>
     <t xml:space="preserve">21.0406723022461</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2042102813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8221740722656</t>
+    <t xml:space="preserve">22.2042121887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8221759796143</t>
   </si>
   <si>
     <t xml:space="preserve">24.240406036377</t>
@@ -2654,13 +2654,13 @@
     <t xml:space="preserve">23.7555980682373</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7071170806885</t>
+    <t xml:space="preserve">23.7071151733398</t>
   </si>
   <si>
     <t xml:space="preserve">23.4647121429443</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5616703033447</t>
+    <t xml:space="preserve">23.5616722106934</t>
   </si>
   <si>
     <t xml:space="preserve">23.8040752410889</t>
@@ -2672,7 +2672,7 @@
     <t xml:space="preserve">24.046480178833</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9010372161865</t>
+    <t xml:space="preserve">23.9010391235352</t>
   </si>
   <si>
     <t xml:space="preserve">23.3677501678467</t>
@@ -2684,7 +2684,7 @@
     <t xml:space="preserve">23.9980010986328</t>
   </si>
   <si>
-    <t xml:space="preserve">23.949520111084</t>
+    <t xml:space="preserve">23.9495220184326</t>
   </si>
   <si>
     <t xml:space="preserve">23.3192672729492</t>
@@ -2696,22 +2696,22 @@
     <t xml:space="preserve">23.1253471374512</t>
   </si>
   <si>
-    <t xml:space="preserve">22.882942199707</t>
+    <t xml:space="preserve">22.8829441070557</t>
   </si>
   <si>
     <t xml:space="preserve">22.5435771942139</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8648433685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.495096206665</t>
+    <t xml:space="preserve">21.8648452758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4950942993164</t>
   </si>
   <si>
     <t xml:space="preserve">22.4466152191162</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5312900543213</t>
+    <t xml:space="preserve">24.5312881469727</t>
   </si>
   <si>
     <t xml:space="preserve">24.1919250488281</t>
@@ -2726,7 +2726,7 @@
     <t xml:space="preserve">24.1434421539307</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7917900085449</t>
+    <t xml:space="preserve">25.7917919158936</t>
   </si>
   <si>
     <t xml:space="preserve">26.0826740264893</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">26.1796360015869</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1311569213867</t>
+    <t xml:space="preserve">26.1311588287354</t>
   </si>
   <si>
     <t xml:space="preserve">26.2765998840332</t>
@@ -2756,22 +2756,22 @@
     <t xml:space="preserve">27.8279857635498</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7310256958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6825408935547</t>
+    <t xml:space="preserve">27.7310237884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6825428009033</t>
   </si>
   <si>
     <t xml:space="preserve">28.2158317565918</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8460807800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3127937316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6521587371826</t>
+    <t xml:space="preserve">28.8460826873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3127918243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.652156829834</t>
   </si>
   <si>
     <t xml:space="preserve">28.1188678741455</t>
@@ -2789,10 +2789,10 @@
     <t xml:space="preserve">27.5855808258057</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2946949005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4886207580566</t>
+    <t xml:space="preserve">27.2946968078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.488618850708</t>
   </si>
   <si>
     <t xml:space="preserve">27.3916568756104</t>
@@ -2804,13 +2804,13 @@
     <t xml:space="preserve">27.2648448944092</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5820026397705</t>
+    <t xml:space="preserve">26.5820045471191</t>
   </si>
   <si>
     <t xml:space="preserve">26.1430339813232</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7528381347656</t>
+    <t xml:space="preserve">25.7528400421143</t>
   </si>
   <si>
     <t xml:space="preserve">24.8749027252197</t>
@@ -2819,7 +2819,7 @@
     <t xml:space="preserve">25.0212230682373</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4359321594238</t>
+    <t xml:space="preserve">24.4359340667725</t>
   </si>
   <si>
     <t xml:space="preserve">25.0699996948242</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">25.4114189147949</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7283248901367</t>
+    <t xml:space="preserve">26.7283267974854</t>
   </si>
   <si>
     <t xml:space="preserve">27.1672954559326</t>
@@ -2840,10 +2840,10 @@
     <t xml:space="preserve">26.7771015167236</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2405815124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1918106079102</t>
+    <t xml:space="preserve">26.2405834197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1918087005615</t>
   </si>
   <si>
     <t xml:space="preserve">25.8016147613525</t>
@@ -2867,37 +2867,37 @@
     <t xml:space="preserve">26.2893581390381</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4844532012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9479389190674</t>
+    <t xml:space="preserve">26.4844551086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9479370117188</t>
   </si>
   <si>
     <t xml:space="preserve">25.1675472259521</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9967098236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8503894805908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3626461029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7773513793945</t>
+    <t xml:space="preserve">25.996711730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8503875732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3626441955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7773532867432</t>
   </si>
   <si>
     <t xml:space="preserve">23.2653503417969</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0702533721924</t>
+    <t xml:space="preserve">23.0702514648438</t>
   </si>
   <si>
     <t xml:space="preserve">23.9481887817383</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3141250610352</t>
+    <t xml:space="preserve">23.3141231536865</t>
   </si>
   <si>
     <t xml:space="preserve">23.21657371521</t>
@@ -2912,25 +2912,25 @@
     <t xml:space="preserve">22.7288303375244</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2410869598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0947666168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8508949279785</t>
+    <t xml:space="preserve">22.2410888671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0947647094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8508930206299</t>
   </si>
   <si>
     <t xml:space="preserve">22.9239292144775</t>
   </si>
   <si>
-    <t xml:space="preserve">23.119026184082</t>
+    <t xml:space="preserve">23.1190280914307</t>
   </si>
   <si>
     <t xml:space="preserve">22.7776069641113</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3874130249023</t>
+    <t xml:space="preserve">22.3874111175537</t>
   </si>
   <si>
     <t xml:space="preserve">23.4604454040527</t>
@@ -2951,13 +2951,13 @@
     <t xml:space="preserve">20.7778587341309</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7535991668701</t>
+    <t xml:space="preserve">19.7535972595215</t>
   </si>
   <si>
     <t xml:space="preserve">20.4364395141602</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1925678253174</t>
+    <t xml:space="preserve">20.192569732666</t>
   </si>
   <si>
     <t xml:space="preserve">19.1975727081299</t>
@@ -2969,10 +2969,10 @@
     <t xml:space="preserve">18.3586521148682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1100330352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1685619354248</t>
+    <t xml:space="preserve">17.1100311279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1685600280762</t>
   </si>
   <si>
     <t xml:space="preserve">18.2415962219238</t>
@@ -2981,13 +2981,13 @@
     <t xml:space="preserve">18.3781623840332</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7733592987061</t>
+    <t xml:space="preserve">17.7733612060547</t>
   </si>
   <si>
     <t xml:space="preserve">18.5342407226562</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0660076141357</t>
+    <t xml:space="preserve">18.0660095214844</t>
   </si>
   <si>
     <t xml:space="preserve">17.7148303985596</t>
@@ -3011,13 +3011,13 @@
     <t xml:space="preserve">19.0024738311768</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3146305084229</t>
+    <t xml:space="preserve">19.3146286010742</t>
   </si>
   <si>
     <t xml:space="preserve">19.4316883087158</t>
   </si>
   <si>
-    <t xml:space="preserve">19.851146697998</t>
+    <t xml:space="preserve">19.8511486053467</t>
   </si>
   <si>
     <t xml:space="preserve">19.3536491394043</t>
@@ -3029,13 +3029,13 @@
     <t xml:space="preserve">18.8659057617188</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9879684448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8854179382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6317882537842</t>
+    <t xml:space="preserve">17.9879703521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8854160308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6317901611328</t>
   </si>
   <si>
     <t xml:space="preserve">18.9634552001953</t>
@@ -3044,7 +3044,7 @@
     <t xml:space="preserve">19.6560497283936</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9974708557129</t>
+    <t xml:space="preserve">19.9974689483643</t>
   </si>
   <si>
     <t xml:space="preserve">19.3731594085693</t>
@@ -3053,10 +3053,10 @@
     <t xml:space="preserve">18.9829635620117</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1585521697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6072750091553</t>
+    <t xml:space="preserve">19.1585502624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6072769165039</t>
   </si>
   <si>
     <t xml:space="preserve">19.5097274780273</t>
@@ -3068,7 +3068,7 @@
     <t xml:space="preserve">17.9489479064941</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3196334838867</t>
+    <t xml:space="preserve">18.3196353912354</t>
   </si>
   <si>
     <t xml:space="preserve">20.0462436676025</t>
@@ -3101,13 +3101,13 @@
     <t xml:space="preserve">23.4116725921631</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6067695617676</t>
+    <t xml:space="preserve">23.6067714691162</t>
   </si>
   <si>
     <t xml:space="preserve">22.8263816833496</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4849586486816</t>
+    <t xml:space="preserve">22.4849605560303</t>
   </si>
   <si>
     <t xml:space="preserve">20.6803112030029</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">20.0950183868408</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4902153015137</t>
+    <t xml:space="preserve">19.4902172088623</t>
   </si>
   <si>
     <t xml:space="preserve">19.0219841003418</t>
@@ -3137,28 +3137,28 @@
     <t xml:space="preserve">18.8268871307373</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7928714752197</t>
+    <t xml:space="preserve">17.7928695678711</t>
   </si>
   <si>
     <t xml:space="preserve">19.0414943695068</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7293395996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4562034606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3001251220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7878684997559</t>
+    <t xml:space="preserve">18.7293376922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4562015533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3001232147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7878665924072</t>
   </si>
   <si>
     <t xml:space="preserve">18.9439449310303</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1780605316162</t>
+    <t xml:space="preserve">19.1780624389648</t>
   </si>
   <si>
     <t xml:space="preserve">18.7683582305908</t>
@@ -3167,34 +3167,34 @@
     <t xml:space="preserve">18.6708087921143</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5147323608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2025737762451</t>
+    <t xml:space="preserve">18.5147304534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2025756835938</t>
   </si>
   <si>
     <t xml:space="preserve">18.8073768615723</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5585021972656</t>
+    <t xml:space="preserve">19.558500289917</t>
   </si>
   <si>
     <t xml:space="preserve">19.0805130004883</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2170829772949</t>
+    <t xml:space="preserve">19.2170810699463</t>
   </si>
   <si>
     <t xml:space="preserve">19.7048263549805</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3976745605469</t>
+    <t xml:space="preserve">18.3976726531982</t>
   </si>
   <si>
     <t xml:space="preserve">17.9294376373291</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1440448760986</t>
+    <t xml:space="preserve">18.1440467834473</t>
   </si>
   <si>
     <t xml:space="preserve">17.8514003753662</t>
@@ -3206,10 +3206,10 @@
     <t xml:space="preserve">18.4757118225098</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8904190063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5587539672852</t>
+    <t xml:space="preserve">17.8904209136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5587558746338</t>
   </si>
   <si>
     <t xml:space="preserve">16.8368949890137</t>
@@ -3224,7 +3224,7 @@
     <t xml:space="preserve">16.4076805114746</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2516040802002</t>
+    <t xml:space="preserve">16.2516021728516</t>
   </si>
   <si>
     <t xml:space="preserve">16.4271907806396</t>
@@ -3236,16 +3236,16 @@
     <t xml:space="preserve">15.7443494796753</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5492515563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9344444274902</t>
+    <t xml:space="preserve">15.5492525100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9344425201416</t>
   </si>
   <si>
     <t xml:space="preserve">16.3296413421631</t>
   </si>
   <si>
-    <t xml:space="preserve">16.973461151123</t>
+    <t xml:space="preserve">16.9734630584717</t>
   </si>
   <si>
     <t xml:space="preserve">17.0905208587646</t>
@@ -3254,7 +3254,7 @@
     <t xml:space="preserve">17.3246383666992</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6563053131104</t>
+    <t xml:space="preserve">17.6563034057617</t>
   </si>
   <si>
     <t xml:space="preserve">17.4612045288086</t>
@@ -3263,16 +3263,16 @@
     <t xml:space="preserve">17.3831672668457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3441467285156</t>
+    <t xml:space="preserve">17.3441486358643</t>
   </si>
   <si>
     <t xml:space="preserve">18.1830654144287</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1195316314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0610027313232</t>
+    <t xml:space="preserve">19.1195335388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0610046386719</t>
   </si>
   <si>
     <t xml:space="preserve">19.8023719787598</t>
@@ -3284,7 +3284,7 @@
     <t xml:space="preserve">20.3876647949219</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9486961364746</t>
+    <t xml:space="preserve">19.9486980438232</t>
   </si>
   <si>
     <t xml:space="preserve">20.8266334533691</t>
@@ -3942,6 +3942,9 @@
   </si>
   <si>
     <t xml:space="preserve">35.8499984741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3499984741211</t>
   </si>
 </sst>
 </file>
@@ -60625,7 +60628,7 @@
     </row>
     <row r="2168">
       <c r="A2168" s="1" t="n">
-        <v>45481.6493634259</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B2168" t="n">
         <v>24121</v>
@@ -60646,6 +60649,32 @@
         <v>1309</v>
       </c>
       <c r="H2168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="1" t="n">
+        <v>45482.6494675926</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>25422</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>35.9500007629395</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>35.3499984741211</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>35.9500007629395</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>35.3499984741211</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H2169" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAN.MI.xlsx
+++ b/data/DAN.MI.xlsx
@@ -44,43 +44,43 @@
     <t xml:space="preserve">DAN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">16.023021697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5182161331177</t>
+    <t xml:space="preserve">16.0230255126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5182151794434</t>
   </si>
   <si>
     <t xml:space="preserve">14.8170919418335</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4899005889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2094507217407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5646877288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3122816085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346645355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3587532043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0409107208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1343936920166</t>
+    <t xml:space="preserve">14.4898996353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2094488143921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5646867752075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3122835159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346654891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3587522506714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0409097671509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1343946456909</t>
   </si>
   <si>
     <t xml:space="preserve">12.5267524719238</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1998310089111</t>
+    <t xml:space="preserve">13.1998319625854</t>
   </si>
   <si>
     <t xml:space="preserve">13.3867979049683</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">16.2006416320801</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3595657348633</t>
+    <t xml:space="preserve">16.3595676422119</t>
   </si>
   <si>
     <t xml:space="preserve">16.6400165557861</t>
@@ -98,106 +98,106 @@
     <t xml:space="preserve">16.3969593048096</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6774082183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4439697265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9204654693604</t>
+    <t xml:space="preserve">16.6774063110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4439678192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.920467376709</t>
   </si>
   <si>
     <t xml:space="preserve">15.770619392395</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4156532287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6023502349854</t>
+    <t xml:space="preserve">16.415657043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6023511886597</t>
   </si>
   <si>
     <t xml:space="preserve">15.2284173965454</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2377672195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490888595581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3966884613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2938547134399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2193393707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5465316772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.088737487793</t>
+    <t xml:space="preserve">15.2377662658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490926742554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3966865539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2938566207886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2193374633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5465335845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0887355804443</t>
   </si>
   <si>
     <t xml:space="preserve">17.2476558685303</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3878803253174</t>
+    <t xml:space="preserve">17.387882232666</t>
   </si>
   <si>
     <t xml:space="preserve">17.294397354126</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0326404571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6680583953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.658712387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1541709899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.957857131958</t>
+    <t xml:space="preserve">17.0326461791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6680603027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6587085723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1541728973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9578590393066</t>
   </si>
   <si>
     <t xml:space="preserve">17.5094089508057</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6402854919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7057247161865</t>
+    <t xml:space="preserve">17.640287399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7057228088379</t>
   </si>
   <si>
     <t xml:space="preserve">17.7711620330811</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8550262451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5561504364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.855297088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2009143829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5935459136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7992057800293</t>
+    <t xml:space="preserve">16.8550243377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5561542510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8552951812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2009124755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5935440063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7992095947266</t>
   </si>
   <si>
     <t xml:space="preserve">17.341136932373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5278358459473</t>
+    <t xml:space="preserve">16.5278377532959</t>
   </si>
   <si>
     <t xml:space="preserve">16.8737201690674</t>
@@ -212,10 +212,10 @@
     <t xml:space="preserve">16.8924179077148</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8456783294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4533157348633</t>
+    <t xml:space="preserve">16.8456764221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4533176422119</t>
   </si>
   <si>
     <t xml:space="preserve">17.9020366668701</t>
@@ -224,13 +224,13 @@
     <t xml:space="preserve">17.9768238067627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7431182861328</t>
+    <t xml:space="preserve">17.7431163787842</t>
   </si>
   <si>
     <t xml:space="preserve">18.2105331420898</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4629364013672</t>
+    <t xml:space="preserve">18.4629383087158</t>
   </si>
   <si>
     <t xml:space="preserve">18.3694534301758</t>
@@ -239,19 +239,19 @@
     <t xml:space="preserve">18.1357460021973</t>
   </si>
   <si>
-    <t xml:space="preserve">17.939432144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6966438293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7620849609375</t>
+    <t xml:space="preserve">17.9394302368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.696647644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7620830535889</t>
   </si>
   <si>
     <t xml:space="preserve">18.7901268005371</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4442405700684</t>
+    <t xml:space="preserve">18.4442386627197</t>
   </si>
   <si>
     <t xml:space="preserve">18.6779479980469</t>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">18.3788032531738</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2385787963867</t>
+    <t xml:space="preserve">18.2385768890381</t>
   </si>
   <si>
     <t xml:space="preserve">17.8085536956787</t>
@@ -269,19 +269,19 @@
     <t xml:space="preserve">17.4813613891602</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8272514343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.500057220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4065799713135</t>
+    <t xml:space="preserve">17.8272533416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5000610351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4065761566162</t>
   </si>
   <si>
     <t xml:space="preserve">17.0980834960938</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1635208129883</t>
+    <t xml:space="preserve">17.1635227203369</t>
   </si>
   <si>
     <t xml:space="preserve">16.8830699920654</t>
@@ -290,139 +290,139 @@
     <t xml:space="preserve">16.6306667327881</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4623985290527</t>
+    <t xml:space="preserve">16.4623966217041</t>
   </si>
   <si>
     <t xml:space="preserve">16.5652275085449</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0700397491455</t>
+    <t xml:space="preserve">17.0700359344482</t>
   </si>
   <si>
     <t xml:space="preserve">16.7708892822266</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7334995269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4810905456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6963768005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8363285064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8176326751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5748481750488</t>
+    <t xml:space="preserve">16.7334938049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4810943603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6963748931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8363304138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8176288604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5748462677002</t>
   </si>
   <si>
     <t xml:space="preserve">17.3224430084229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3691844940186</t>
+    <t xml:space="preserve">17.3691806793213</t>
   </si>
   <si>
     <t xml:space="preserve">16.1165084838867</t>
   </si>
   <si>
-    <t xml:space="preserve">16.153902053833</t>
+    <t xml:space="preserve">16.1539001464844</t>
   </si>
   <si>
     <t xml:space="preserve">15.2471132278442</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0507984161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3592939376831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.630392074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2660789489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2751579284668</t>
+    <t xml:space="preserve">15.050799369812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3592948913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6303930282593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2660808563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2751588821411</t>
   </si>
   <si>
     <t xml:space="preserve">14.7329568862915</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1723260879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8077449798584</t>
+    <t xml:space="preserve">15.172327041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8077421188354</t>
   </si>
   <si>
     <t xml:space="preserve">14.9666652679443</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7051811218262</t>
+    <t xml:space="preserve">15.7051830291748</t>
   </si>
   <si>
     <t xml:space="preserve">15.3219013214111</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9105739593506</t>
+    <t xml:space="preserve">14.9105749130249</t>
   </si>
   <si>
     <t xml:space="preserve">14.2748899459839</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5366411209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9386186599731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.695837020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6117010116577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7986640930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5462589263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6210470199585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5930042266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6771411895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4530467987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9201917648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6864862442017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4343490600586</t>
+    <t xml:space="preserve">14.5366401672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9386196136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6958351135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6117000579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7986650466919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5462598800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6210460662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5930023193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6771392822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4530506134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9201955795288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6864852905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4343509674072</t>
   </si>
   <si>
     <t xml:space="preserve">16.1352062225342</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3876094818115</t>
+    <t xml:space="preserve">16.3876113891602</t>
   </si>
   <si>
     <t xml:space="preserve">16.490442276001</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3782596588135</t>
+    <t xml:space="preserve">16.3782615661621</t>
   </si>
   <si>
     <t xml:space="preserve">16.2941265106201</t>
@@ -434,58 +434,58 @@
     <t xml:space="preserve">17.1354751586914</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9298114776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9672050476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9487781524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4907112121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3598365783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5281085968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6683311462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4063091278076</t>
+    <t xml:space="preserve">16.9298133850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9672069549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9487800598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4907131195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3598346710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5281047821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6683292388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.406307220459</t>
   </si>
   <si>
     <t xml:space="preserve">16.0884628295898</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0604209899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1258563995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2567329406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9388875961304</t>
+    <t xml:space="preserve">16.0604190826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1258544921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2567310333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9388904571533</t>
   </si>
   <si>
     <t xml:space="preserve">15.9669361114502</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8641033172607</t>
+    <t xml:space="preserve">15.8641042709351</t>
   </si>
   <si>
     <t xml:space="preserve">15.7893171310425</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9108476638794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3408699035645</t>
+    <t xml:space="preserve">15.9108448028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3408641815186</t>
   </si>
   <si>
     <t xml:space="preserve">17.0232944488525</t>
@@ -494,52 +494,52 @@
     <t xml:space="preserve">16.3689136505127</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8360595703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8454093933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0043296813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6584405899048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4527778625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5280208587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6032600402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8477983474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9324426651001</t>
+    <t xml:space="preserve">15.8360586166382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8454084396362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0043277740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6584396362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4527797698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.528018951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6032619476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8477954864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9324436187744</t>
   </si>
   <si>
     <t xml:space="preserve">16.0923347473145</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8195819854736</t>
+    <t xml:space="preserve">15.8195810317993</t>
   </si>
   <si>
     <t xml:space="preserve">15.2646722793579</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6220703125</t>
+    <t xml:space="preserve">15.6220722198486</t>
   </si>
   <si>
     <t xml:space="preserve">15.7161226272583</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7067193984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3493175506592</t>
+    <t xml:space="preserve">15.7067203521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3493204116821</t>
   </si>
   <si>
     <t xml:space="preserve">16.0641174316406</t>
@@ -548,52 +548,52 @@
     <t xml:space="preserve">16.5343780517578</t>
   </si>
   <si>
-    <t xml:space="preserve">16.129955291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6879091262817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8007736206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5092086791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0829238891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2522220611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0359001159668</t>
+    <t xml:space="preserve">16.1299514770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6879081726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8007707595825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5092105865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0829257965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2522201538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0359020233154</t>
   </si>
   <si>
     <t xml:space="preserve">16.7883186340332</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3996562957764</t>
+    <t xml:space="preserve">17.399658203125</t>
   </si>
   <si>
     <t xml:space="preserve">17.4748992919922</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3526306152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4372787475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2397727966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.164529800415</t>
+    <t xml:space="preserve">17.3526344299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4372806549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2397689819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1645278930664</t>
   </si>
   <si>
     <t xml:space="preserve">16.6942672729492</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3056049346924</t>
+    <t xml:space="preserve">17.305606842041</t>
   </si>
   <si>
     <t xml:space="preserve">17.1175022125244</t>
@@ -602,28 +602,28 @@
     <t xml:space="preserve">17.3808479309082</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9639682769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1238632202148</t>
+    <t xml:space="preserve">17.9639720916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1238613128662</t>
   </si>
   <si>
     <t xml:space="preserve">18.1614818572998</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1050510406494</t>
+    <t xml:space="preserve">18.1050491333008</t>
   </si>
   <si>
     <t xml:space="preserve">18.6599559783936</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1396255493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1866493225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7979888916016</t>
+    <t xml:space="preserve">19.1396236419678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1866455078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7979927062988</t>
   </si>
   <si>
     <t xml:space="preserve">19.8732318878174</t>
@@ -632,19 +632,19 @@
     <t xml:space="preserve">19.3559436798096</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1490287780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7039375305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5722637176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4217796325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.318323135376</t>
+    <t xml:space="preserve">19.1490306854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7039394378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5722599029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.421781539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3183250427246</t>
   </si>
   <si>
     <t xml:space="preserve">19.0925979614258</t>
@@ -653,28 +653,28 @@
     <t xml:space="preserve">19.2524852752686</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1772441864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.167839050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.989143371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8104400634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6317405700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3401832580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.688175201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7634162902832</t>
+    <t xml:space="preserve">19.1772422790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1678409576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9891395568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8104438781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.631742477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3401794433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6881771087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7634181976318</t>
   </si>
   <si>
     <t xml:space="preserve">18.6975784301758</t>
@@ -683,16 +683,16 @@
     <t xml:space="preserve">18.6035289764404</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7163906097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5094776153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5565013885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7446041107178</t>
+    <t xml:space="preserve">18.7163887023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5094738006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5564994812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7446060180664</t>
   </si>
   <si>
     <t xml:space="preserve">18.8480625152588</t>
@@ -701,25 +701,25 @@
     <t xml:space="preserve">18.8574676513672</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9609260559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2807025909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6569118499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3277263641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.365348815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.609884262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6945285797119</t>
+    <t xml:space="preserve">18.9609241485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.280704498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.656909942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.327730178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3653526306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6098861694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6945304870605</t>
   </si>
   <si>
     <t xml:space="preserve">19.1960563659668</t>
@@ -731,34 +731,34 @@
     <t xml:space="preserve">19.7509651184082</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3371315002441</t>
+    <t xml:space="preserve">19.3371353149414</t>
   </si>
   <si>
     <t xml:space="preserve">19.4594039916992</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5910739898682</t>
+    <t xml:space="preserve">19.5910758972168</t>
   </si>
   <si>
     <t xml:space="preserve">19.271297454834</t>
   </si>
   <si>
-    <t xml:space="preserve">19.468807220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.628698348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5252380371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.164794921875</t>
+    <t xml:space="preserve">19.4688091278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6286964416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.525239944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1647911071777</t>
   </si>
   <si>
     <t xml:space="preserve">20.2588481903076</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6350555419922</t>
+    <t xml:space="preserve">20.6350536346436</t>
   </si>
   <si>
     <t xml:space="preserve">20.8795890808105</t>
@@ -767,40 +767,40 @@
     <t xml:space="preserve">21.1147212982178</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2275867462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2087707519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.399923324585</t>
+    <t xml:space="preserve">21.2275829315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2087726593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3999271392822</t>
   </si>
   <si>
     <t xml:space="preserve">20.8701877593994</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6444606781006</t>
+    <t xml:space="preserve">20.6444625854492</t>
   </si>
   <si>
     <t xml:space="preserve">20.503381729126</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8325653076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9078044891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8607807159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7573204040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7855377197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9172115325928</t>
+    <t xml:space="preserve">20.8325614929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9078063964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8607788085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7573223114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7855396270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9172134399414</t>
   </si>
   <si>
     <t xml:space="preserve">20.7385101318359</t>
@@ -809,10 +809,10 @@
     <t xml:space="preserve">21.0770988464355</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1241245269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7102947235107</t>
+    <t xml:space="preserve">21.1241264343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7102966308594</t>
   </si>
   <si>
     <t xml:space="preserve">21.0394802093506</t>
@@ -821,19 +821,19 @@
     <t xml:space="preserve">21.9141635894775</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7636775970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6320095062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5849838256836</t>
+    <t xml:space="preserve">21.7636814117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.632007598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.584981918335</t>
   </si>
   <si>
     <t xml:space="preserve">21.3968772888184</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3874702453613</t>
+    <t xml:space="preserve">21.38747215271</t>
   </si>
   <si>
     <t xml:space="preserve">21.1899642944336</t>
@@ -842,73 +842,73 @@
     <t xml:space="preserve">21.537956237793</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3686599731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6131973266602</t>
+    <t xml:space="preserve">21.3686580657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6131954193115</t>
   </si>
   <si>
     <t xml:space="preserve">21.4909286499023</t>
   </si>
   <si>
-    <t xml:space="preserve">20.898401260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.434497833252</t>
+    <t xml:space="preserve">20.8983974456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4344959259033</t>
   </si>
   <si>
     <t xml:space="preserve">21.2181777954102</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3780670166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5191440582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5097389221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6037902832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5473613739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1993675231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.443904876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.99245262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5692195892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6538639068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6632709503174</t>
+    <t xml:space="preserve">21.3780689239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5191459655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.509744644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6037921905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.54736328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1993656158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4439029693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9924545288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5692176818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.653865814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6632690429688</t>
   </si>
   <si>
     <t xml:space="preserve">20.5786228179932</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8889961242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5315971374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2964687347412</t>
+    <t xml:space="preserve">20.8889923095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5315990447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2964630126953</t>
   </si>
   <si>
     <t xml:space="preserve">20.4657611846924</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0425262451172</t>
+    <t xml:space="preserve">20.0425243377686</t>
   </si>
   <si>
     <t xml:space="preserve">20.155387878418</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">20.550407409668</t>
   </si>
   <si>
-    <t xml:space="preserve">20.804349899292</t>
+    <t xml:space="preserve">20.8043460845947</t>
   </si>
   <si>
     <t xml:space="preserve">20.6914844512939</t>
@@ -929,43 +929,43 @@
     <t xml:space="preserve">20.20241355896</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0801486968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1365756988525</t>
+    <t xml:space="preserve">20.0801448822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1365776062012</t>
   </si>
   <si>
     <t xml:space="preserve">19.9672832489014</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1742000579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3246841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2494411468506</t>
+    <t xml:space="preserve">20.1741981506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3246803283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.249439239502</t>
   </si>
   <si>
     <t xml:space="preserve">20.3623008728027</t>
   </si>
   <si>
-    <t xml:space="preserve">19.920259475708</t>
+    <t xml:space="preserve">19.9202613830566</t>
   </si>
   <si>
     <t xml:space="preserve">20.9266166687012</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4939785003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2212257385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9766902923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6726741790771</t>
+    <t xml:space="preserve">20.4939765930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2212238311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9766883850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6726760864258</t>
   </si>
   <si>
     <t xml:space="preserve">20.3811149597168</t>
@@ -974,10 +974,10 @@
     <t xml:space="preserve">20.747917175293</t>
   </si>
   <si>
-    <t xml:space="preserve">21.105318069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5974369049072</t>
+    <t xml:space="preserve">21.1053161621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5974349975586</t>
   </si>
   <si>
     <t xml:space="preserve">20.8231582641602</t>
@@ -986,31 +986,31 @@
     <t xml:space="preserve">21.1523399353027</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4627132415771</t>
+    <t xml:space="preserve">21.4627151489258</t>
   </si>
   <si>
     <t xml:space="preserve">20.9830474853516</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7291049957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5880279541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6256484985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1271724700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0895519256592</t>
+    <t xml:space="preserve">20.7291069030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5880298614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6256504058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1271705627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0895538330078</t>
   </si>
   <si>
     <t xml:space="preserve">20.014310836792</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2306308746338</t>
+    <t xml:space="preserve">20.2306289672852</t>
   </si>
   <si>
     <t xml:space="preserve">20.3434925079346</t>
@@ -1019,28 +1019,28 @@
     <t xml:space="preserve">20.7761344909668</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2400341033936</t>
+    <t xml:space="preserve">20.2400360107422</t>
   </si>
   <si>
     <t xml:space="preserve">19.7791786193848</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4970245361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0173568725586</t>
+    <t xml:space="preserve">19.4970226287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0173530578613</t>
   </si>
   <si>
     <t xml:space="preserve">19.0737895965576</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8668746948242</t>
+    <t xml:space="preserve">18.8668727874756</t>
   </si>
   <si>
     <t xml:space="preserve">19.233678817749</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9138984680176</t>
+    <t xml:space="preserve">18.9139003753662</t>
   </si>
   <si>
     <t xml:space="preserve">18.7916297912598</t>
@@ -1049,70 +1049,70 @@
     <t xml:space="preserve">18.8950901031494</t>
   </si>
   <si>
-    <t xml:space="preserve">18.669361114502</t>
+    <t xml:space="preserve">18.6693630218506</t>
   </si>
   <si>
     <t xml:space="preserve">19.0455722808838</t>
   </si>
   <si>
-    <t xml:space="preserve">19.374755859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2147750854492</t>
+    <t xml:space="preserve">19.3747539520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2147731781006</t>
   </si>
   <si>
     <t xml:space="preserve">19.1864185333252</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7611026763916</t>
+    <t xml:space="preserve">18.7611045837402</t>
   </si>
   <si>
     <t xml:space="preserve">18.5342712402344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.127857208252</t>
+    <t xml:space="preserve">18.1278591156006</t>
   </si>
   <si>
     <t xml:space="preserve">18.0711498260498</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8632202148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8915729522705</t>
+    <t xml:space="preserve">17.8632183074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8915710449219</t>
   </si>
   <si>
     <t xml:space="preserve">18.1656627655029</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1184062957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1940174102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4964656829834</t>
+    <t xml:space="preserve">18.1184043884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1940155029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4964637756348</t>
   </si>
   <si>
     <t xml:space="preserve">18.6949462890625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8178119659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6382331848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3924961090088</t>
+    <t xml:space="preserve">18.8178157806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6382350921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3924980163574</t>
   </si>
   <si>
     <t xml:space="preserve">18.7232971191406</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5909786224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4492053985596</t>
+    <t xml:space="preserve">18.5909767150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4492073059082</t>
   </si>
   <si>
     <t xml:space="preserve">18.9028759002686</t>
@@ -1121,40 +1121,40 @@
     <t xml:space="preserve">19.0068435668945</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9312324523926</t>
+    <t xml:space="preserve">18.9312305450439</t>
   </si>
   <si>
     <t xml:space="preserve">18.9217796325684</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8461666107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5815296173096</t>
+    <t xml:space="preserve">18.8461685180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5815277099609</t>
   </si>
   <si>
     <t xml:space="preserve">18.6098823547363</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6760425567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7138481140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7043991088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8934268951416</t>
+    <t xml:space="preserve">18.6760406494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7138442993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7043972015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8934230804443</t>
   </si>
   <si>
     <t xml:space="preserve">18.9406833648682</t>
   </si>
   <si>
-    <t xml:space="preserve">18.827262878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6193351745605</t>
+    <t xml:space="preserve">18.8272666931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6193332672119</t>
   </si>
   <si>
     <t xml:space="preserve">18.7327499389648</t>
@@ -1163,61 +1163,61 @@
     <t xml:space="preserve">19.1391620635986</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4227027893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7062492370605</t>
+    <t xml:space="preserve">19.4227066040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7062473297119</t>
   </si>
   <si>
     <t xml:space="preserve">19.9897918701172</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7931613922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.549280166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8328189849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7855625152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6437950134277</t>
+    <t xml:space="preserve">20.7931652069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5492763519287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8328247070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7855644226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6437931060791</t>
   </si>
   <si>
     <t xml:space="preserve">21.8800792694092</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7383079528809</t>
+    <t xml:space="preserve">21.7383098602295</t>
   </si>
   <si>
     <t xml:space="preserve">22.0218486785889</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0691108703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2657337188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6986522674561</t>
+    <t xml:space="preserve">22.0691051483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2657356262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6986503601074</t>
   </si>
   <si>
     <t xml:space="preserve">21.3129920959473</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8876762390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0294494628906</t>
+    <t xml:space="preserve">20.8876800537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.029447555542</t>
   </si>
   <si>
     <t xml:space="preserve">20.9821910858154</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3602523803711</t>
+    <t xml:space="preserve">21.3602504730225</t>
   </si>
   <si>
     <t xml:space="preserve">21.4547653198242</t>
@@ -1226,10 +1226,10 @@
     <t xml:space="preserve">21.407506942749</t>
   </si>
   <si>
-    <t xml:space="preserve">21.123966217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9349346160889</t>
+    <t xml:space="preserve">21.1239643096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9349327087402</t>
   </si>
   <si>
     <t xml:space="preserve">21.9745922088623</t>
@@ -1244,19 +1244,19 @@
     <t xml:space="preserve">22.3526496887207</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2581367492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0767078399658</t>
+    <t xml:space="preserve">22.2581348419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0767059326172</t>
   </si>
   <si>
     <t xml:space="preserve">21.5020198822021</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5568790435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4623603820801</t>
+    <t xml:space="preserve">20.5568771362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4623622894287</t>
   </si>
   <si>
     <t xml:space="preserve">21.1712207794189</t>
@@ -1274,19 +1274,19 @@
     <t xml:space="preserve">20.6513919830322</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7459087371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3678493499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2336769104004</t>
+    <t xml:space="preserve">20.745906829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.367847442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2336750030518</t>
   </si>
   <si>
     <t xml:space="preserve">19.2809314727783</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3754482269287</t>
+    <t xml:space="preserve">19.3754501342773</t>
   </si>
   <si>
     <t xml:space="preserve">19.5644779205322</t>
@@ -1301,10 +1301,10 @@
     <t xml:space="preserve">20.6041355133057</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5096206665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2260761260986</t>
+    <t xml:space="preserve">20.5096225738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.22607421875</t>
   </si>
   <si>
     <t xml:space="preserve">20.4151077270508</t>
@@ -1316,25 +1316,25 @@
     <t xml:space="preserve">20.1315612792969</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1788215637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.658992767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8007640838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7535057067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8952751159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9425315856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5172176361084</t>
+    <t xml:space="preserve">20.1788196563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6589908599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8007659912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7535037994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8952808380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9425354003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.517219543457</t>
   </si>
   <si>
     <t xml:space="preserve">19.4699630737305</t>
@@ -1349,13 +1349,13 @@
     <t xml:space="preserve">21.6910514831543</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3205947875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9388294219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5003576278687</t>
+    <t xml:space="preserve">20.3205909729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9388275146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5003595352173</t>
   </si>
   <si>
     <t xml:space="preserve">15.8973178863525</t>
@@ -1364,25 +1364,25 @@
     <t xml:space="preserve">14.9521751403809</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6497297286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9899797439575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5948724746704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8217058181763</t>
+    <t xml:space="preserve">14.6497278213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9899816513062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5948734283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8217067718506</t>
   </si>
   <si>
     <t xml:space="preserve">16.199764251709</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7271938323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5192613601685</t>
+    <t xml:space="preserve">15.7271919250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5192632675171</t>
   </si>
   <si>
     <t xml:space="preserve">15.6515808105469</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">16.0674457550049</t>
   </si>
   <si>
-    <t xml:space="preserve">15.99183177948</t>
+    <t xml:space="preserve">15.9918336868286</t>
   </si>
   <si>
     <t xml:space="preserve">15.8595132827759</t>
@@ -1400,19 +1400,19 @@
     <t xml:space="preserve">15.7839021682739</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5759716033936</t>
+    <t xml:space="preserve">15.5759687423706</t>
   </si>
   <si>
     <t xml:space="preserve">15.1979122161865</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0457439422607</t>
+    <t xml:space="preserve">15.0457429885864</t>
   </si>
   <si>
     <t xml:space="preserve">14.760425567627</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5892362594604</t>
+    <t xml:space="preserve">14.5892353057861</t>
   </si>
   <si>
     <t xml:space="preserve">14.6272773742676</t>
@@ -1430,16 +1430,16 @@
     <t xml:space="preserve">15.3310613632202</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6354007720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4642105102539</t>
+    <t xml:space="preserve">15.6353998184204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4642086029053</t>
   </si>
   <si>
     <t xml:space="preserve">14.2468538284302</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0946846008301</t>
+    <t xml:space="preserve">14.0946855545044</t>
   </si>
   <si>
     <t xml:space="preserve">13.7713241577148</t>
@@ -1448,73 +1448,73 @@
     <t xml:space="preserve">13.9044723510742</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5131502151489</t>
+    <t xml:space="preserve">14.5131511688232</t>
   </si>
   <si>
     <t xml:space="preserve">14.3419599533081</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3229389190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3990240097046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1327257156372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8093681335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7903470993042</t>
+    <t xml:space="preserve">14.3229398727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3990249633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1327266693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8093671798706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7903461456299</t>
   </si>
   <si>
     <t xml:space="preserve">13.961537361145</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2278318405151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3800020217896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7033615112305</t>
+    <t xml:space="preserve">14.2278327941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3800029754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7033624649048</t>
   </si>
   <si>
     <t xml:space="preserve">14.9316158294678</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4071464538574</t>
+    <t xml:space="preserve">15.4071455001831</t>
   </si>
   <si>
     <t xml:space="preserve">15.3120393753052</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2169342041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2549772262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0837841033936</t>
+    <t xml:space="preserve">15.2169332504272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.254976272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0837860107422</t>
   </si>
   <si>
     <t xml:space="preserve">15.2930183410645</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3500814437866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3881254196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7305059432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1679916381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0239448547363</t>
+    <t xml:space="preserve">15.3500804901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3881235122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7305068969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1679935455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0239429473877</t>
   </si>
   <si>
     <t xml:space="preserve">17.1000289916992</t>
@@ -1523,10 +1523,10 @@
     <t xml:space="preserve">17.1190509796143</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7005825042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6245021820068</t>
+    <t xml:space="preserve">16.7005863189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6244964599609</t>
   </si>
   <si>
     <t xml:space="preserve">16.4723300933838</t>
@@ -1535,10 +1535,10 @@
     <t xml:space="preserve">16.5674362182617</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1870136260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0728874206543</t>
+    <t xml:space="preserve">16.18701171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0728855133057</t>
   </si>
   <si>
     <t xml:space="preserve">16.0158214569092</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">16.3582038879395</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4533100128174</t>
+    <t xml:space="preserve">16.4533081054688</t>
   </si>
   <si>
     <t xml:space="preserve">16.8337345123291</t>
@@ -1562,13 +1562,13 @@
     <t xml:space="preserve">16.4913520812988</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6435222625732</t>
+    <t xml:space="preserve">16.6435241699219</t>
   </si>
   <si>
     <t xml:space="preserve">16.6625423431396</t>
   </si>
   <si>
-    <t xml:space="preserve">16.434289932251</t>
+    <t xml:space="preserve">16.4342880249023</t>
   </si>
   <si>
     <t xml:space="preserve">16.8147125244141</t>
@@ -1580,22 +1580,19 @@
     <t xml:space="preserve">16.6815662384033</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5293941497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0538654327393</t>
+    <t xml:space="preserve">16.5293922424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0538635253906</t>
   </si>
   <si>
     <t xml:space="preserve">16.1489696502686</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1299476623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3201599121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2060356140137</t>
+    <t xml:space="preserve">16.320161819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2060375213623</t>
   </si>
   <si>
     <t xml:space="preserve">16.5484142303467</t>
@@ -1604,10 +1601,10 @@
     <t xml:space="preserve">16.6054782867432</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7386283874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9859046936035</t>
+    <t xml:space="preserve">16.7386302947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9859008789062</t>
   </si>
   <si>
     <t xml:space="preserve">17.1570930480957</t>
@@ -1619,34 +1616,34 @@
     <t xml:space="preserve">18.5075950622559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4885768890381</t>
+    <t xml:space="preserve">18.4885749816895</t>
   </si>
   <si>
     <t xml:space="preserve">18.4695529937744</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3364067077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7467498779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3473052978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2141551971436</t>
+    <t xml:space="preserve">18.3364086151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7467460632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3473033905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2141590118408</t>
   </si>
   <si>
     <t xml:space="preserve">17.1951351165771</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9478607177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8527526855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1761150360107</t>
+    <t xml:space="preserve">16.9478588104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8527545928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1761131286621</t>
   </si>
   <si>
     <t xml:space="preserve">17.0429649353027</t>
@@ -1664,16 +1661,16 @@
     <t xml:space="preserve">16.9668807983398</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4152660369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6924619674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.711483001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6544189453125</t>
+    <t xml:space="preserve">16.4152679443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6924638748169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7114849090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6544218063354</t>
   </si>
   <si>
     <t xml:space="preserve">15.3691024780273</t>
@@ -1685,22 +1682,22 @@
     <t xml:space="preserve">14.9886798858643</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2739973068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9506378173828</t>
+    <t xml:space="preserve">15.2739963531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9506368637085</t>
   </si>
   <si>
     <t xml:space="preserve">15.1598701477051</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0267219543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6843395233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8555307388306</t>
+    <t xml:space="preserve">15.02672290802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6843414306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8555316925049</t>
   </si>
   <si>
     <t xml:space="preserve">14.5511932373047</t>
@@ -1712,73 +1709,76 @@
     <t xml:space="preserve">14.7414035797119</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6462993621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8174886703491</t>
+    <t xml:space="preserve">14.646297454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8174896240234</t>
   </si>
   <si>
     <t xml:space="preserve">15.7685470581055</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5973558425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5783357620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.863655090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4261665344238</t>
+    <t xml:space="preserve">15.597357749939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5783348083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8636531829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4261655807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1979131698608</t>
   </si>
   <si>
     <t xml:space="preserve">15.7875690460205</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6163778305054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5212697982788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2359561920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0647649765015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7223825454712</t>
+    <t xml:space="preserve">15.616379737854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5212726593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.235954284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0647640228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7223834991455</t>
   </si>
   <si>
     <t xml:space="preserve">14.9696578979492</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7984676361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4751091003418</t>
+    <t xml:space="preserve">14.798469543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4751071929932</t>
   </si>
   <si>
     <t xml:space="preserve">14.4560861587524</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2658758163452</t>
+    <t xml:space="preserve">14.2658748626709</t>
   </si>
   <si>
     <t xml:space="preserve">14.0756635665894</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9425144195557</t>
+    <t xml:space="preserve">13.94251537323</t>
   </si>
   <si>
     <t xml:space="preserve">14.6082553863525</t>
   </si>
   <si>
-    <t xml:space="preserve">14.437066078186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9805564880371</t>
+    <t xml:space="preserve">14.4370651245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9805574417114</t>
   </si>
   <si>
     <t xml:space="preserve">14.0186004638672</t>
@@ -1787,46 +1787,46 @@
     <t xml:space="preserve">14.2088108062744</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1137065887451</t>
+    <t xml:space="preserve">14.1137056350708</t>
   </si>
   <si>
     <t xml:space="preserve">14.4180450439453</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1897916793823</t>
+    <t xml:space="preserve">14.189790725708</t>
   </si>
   <si>
     <t xml:space="preserve">14.7794466018677</t>
   </si>
   <si>
-    <t xml:space="preserve">14.170768737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5593147277832</t>
+    <t xml:space="preserve">14.1707677841187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5593156814575</t>
   </si>
   <si>
     <t xml:space="preserve">14.3609819412231</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2848958969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.665319442749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1788911819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4832315444946</t>
+    <t xml:space="preserve">14.2848978042603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6653203964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1788921356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4832305908203</t>
   </si>
   <si>
     <t xml:space="preserve">15.2640390396118</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2448387145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0912389755249</t>
+    <t xml:space="preserve">15.2448396682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0912380218506</t>
   </si>
   <si>
     <t xml:space="preserve">14.9952383041382</t>
@@ -1835,7 +1835,7 @@
     <t xml:space="preserve">15.0720376968384</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5712394714355</t>
+    <t xml:space="preserve">15.5712385177612</t>
   </si>
   <si>
     <t xml:space="preserve">15.8784418106079</t>
@@ -1844,22 +1844,22 @@
     <t xml:space="preserve">16.6656436920166</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5312442779541</t>
+    <t xml:space="preserve">16.5312423706055</t>
   </si>
   <si>
     <t xml:space="preserve">15.8976402282715</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8592395782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7248401641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7440395355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6480407714844</t>
+    <t xml:space="preserve">15.8592414855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7248392105103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7440404891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6480398178101</t>
   </si>
   <si>
     <t xml:space="preserve">15.9552412033081</t>
@@ -1868,37 +1868,37 @@
     <t xml:space="preserve">15.9936408996582</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3776435852051</t>
+    <t xml:space="preserve">16.3776416778564</t>
   </si>
   <si>
     <t xml:space="preserve">15.9168405532837</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8016395568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8400392532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2432403564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1856441497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6096410751343</t>
+    <t xml:space="preserve">15.8016414642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8400411605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2432422637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1856422424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6096391677856</t>
   </si>
   <si>
     <t xml:space="preserve">16.0320415496826</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7632398605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6288414001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7824420928955</t>
+    <t xml:space="preserve">15.7632417678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6288404464722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7824411392212</t>
   </si>
   <si>
     <t xml:space="preserve">15.4368391036987</t>
@@ -1910,10 +1910,10 @@
     <t xml:space="preserve">15.1680393218994</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3984403610229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9376382827759</t>
+    <t xml:space="preserve">15.3984394073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9376392364502</t>
   </si>
   <si>
     <t xml:space="preserve">15.129638671875</t>
@@ -1925,13 +1925,13 @@
     <t xml:space="preserve">14.2080364227295</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1120347976685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4000368118286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7840375900269</t>
+    <t xml:space="preserve">14.1120357513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4000358581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7840366363525</t>
   </si>
   <si>
     <t xml:space="preserve">14.9760389328003</t>
@@ -1943,16 +1943,16 @@
     <t xml:space="preserve">14.5728368759155</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6112375259399</t>
+    <t xml:space="preserve">14.6112365722656</t>
   </si>
   <si>
     <t xml:space="preserve">14.8032379150391</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5152368545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4576368331909</t>
+    <t xml:space="preserve">14.5152378082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4576377868652</t>
   </si>
   <si>
     <t xml:space="preserve">14.2272367477417</t>
@@ -1961,22 +1961,22 @@
     <t xml:space="preserve">13.8624353408813</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3056325912476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1712341308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5360345840454</t>
+    <t xml:space="preserve">13.3056335449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1712331771851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5360355377197</t>
   </si>
   <si>
     <t xml:space="preserve">13.2480344772339</t>
   </si>
   <si>
-    <t xml:space="preserve">12.960033416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5760316848755</t>
+    <t xml:space="preserve">12.9600343704224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5760326385498</t>
   </si>
   <si>
     <t xml:space="preserve">12.3264322280884</t>
@@ -1988,19 +1988,19 @@
     <t xml:space="preserve">11.6160297393799</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1744298934937</t>
+    <t xml:space="preserve">11.1744289398193</t>
   </si>
   <si>
     <t xml:space="preserve">10.2528266906738</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0800266265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71522521972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02402305603027</t>
+    <t xml:space="preserve">10.0800256729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71522426605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02402210235596</t>
   </si>
   <si>
     <t xml:space="preserve">9.5328254699707</t>
@@ -2015,25 +2015,25 @@
     <t xml:space="preserve">9.21602344512939</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2912263870239</t>
+    <t xml:space="preserve">10.2912254333496</t>
   </si>
   <si>
     <t xml:space="preserve">10.8864278793335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0768308639526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0560331344604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7504301071167</t>
+    <t xml:space="preserve">12.0768299102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0560340881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7504291534424</t>
   </si>
   <si>
     <t xml:space="preserve">11.0976285934448</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0592279434204</t>
+    <t xml:space="preserve">11.0592288970947</t>
   </si>
   <si>
     <t xml:space="preserve">10.7712278366089</t>
@@ -2045,10 +2045,10 @@
     <t xml:space="preserve">10.4640264511108</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7520265579224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8672285079956</t>
+    <t xml:space="preserve">10.7520275115967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8672275543213</t>
   </si>
   <si>
     <t xml:space="preserve">11.2512292861938</t>
@@ -2060,19 +2060,19 @@
     <t xml:space="preserve">10.7136278152466</t>
   </si>
   <si>
-    <t xml:space="preserve">10.329626083374</t>
+    <t xml:space="preserve">10.3296270370483</t>
   </si>
   <si>
     <t xml:space="preserve">10.0032253265381</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3488254547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6368274688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5600280761719</t>
+    <t xml:space="preserve">10.3488264083862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6368265151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5600271224976</t>
   </si>
   <si>
     <t xml:space="preserve">10.9056262969971</t>
@@ -2081,19 +2081,19 @@
     <t xml:space="preserve">10.8480281829834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8288269042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9440279006958</t>
+    <t xml:space="preserve">10.8288278579712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9440269470215</t>
   </si>
   <si>
     <t xml:space="preserve">10.963228225708</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6752271652222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1360282897949</t>
+    <t xml:space="preserve">10.6752281188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1360292434692</t>
   </si>
   <si>
     <t xml:space="preserve">11.0784282684326</t>
@@ -2102,7 +2102,7 @@
     <t xml:space="preserve">11.6352300643921</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7120294570923</t>
+    <t xml:space="preserve">11.712028503418</t>
   </si>
   <si>
     <t xml:space="preserve">11.1936283111572</t>
@@ -2120,16 +2120,16 @@
     <t xml:space="preserve">12.1536312103271</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4416313171387</t>
+    <t xml:space="preserve">12.441632270813</t>
   </si>
   <si>
     <t xml:space="preserve">12.3648309707642</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2496309280396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0000314712524</t>
+    <t xml:space="preserve">12.2496318817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0000305175781</t>
   </si>
   <si>
     <t xml:space="preserve">11.3664293289185</t>
@@ -2150,7 +2150,7 @@
     <t xml:space="preserve">10.9248275756836</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8096265792847</t>
+    <t xml:space="preserve">10.809627532959</t>
   </si>
   <si>
     <t xml:space="preserve">10.5408267974854</t>
@@ -2159,7 +2159,7 @@
     <t xml:space="preserve">10.5792264938354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7904281616211</t>
+    <t xml:space="preserve">10.7904272079468</t>
   </si>
   <si>
     <t xml:space="preserve">11.3472290039062</t>
@@ -2168,7 +2168,7 @@
     <t xml:space="preserve">11.4816293716431</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4240283966064</t>
+    <t xml:space="preserve">11.4240293502808</t>
   </si>
   <si>
     <t xml:space="preserve">11.2128286361694</t>
@@ -2177,22 +2177,22 @@
     <t xml:space="preserve">11.1168279647827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7328271865845</t>
+    <t xml:space="preserve">10.7328290939331</t>
   </si>
   <si>
     <t xml:space="preserve">10.5024261474609</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5984268188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7888298034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5776290893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8272304534912</t>
+    <t xml:space="preserve">10.5984258651733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7888288497925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5776300430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8272314071655</t>
   </si>
   <si>
     <t xml:space="preserve">11.6736297607422</t>
@@ -2204,10 +2204,10 @@
     <t xml:space="preserve">11.6928291320801</t>
   </si>
   <si>
-    <t xml:space="preserve">11.808030128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8848295211792</t>
+    <t xml:space="preserve">11.8080310821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8848304748535</t>
   </si>
   <si>
     <t xml:space="preserve">12.3840312957764</t>
@@ -2216,7 +2216,7 @@
     <t xml:space="preserve">12.288031578064</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2688302993774</t>
+    <t xml:space="preserve">12.2688312530518</t>
   </si>
   <si>
     <t xml:space="preserve">12.1152305603027</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">12.1344318389893</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9616298675537</t>
+    <t xml:space="preserve">11.961630821228</t>
   </si>
   <si>
     <t xml:space="preserve">11.9040298461914</t>
@@ -2234,10 +2234,10 @@
     <t xml:space="preserve">11.385627746582</t>
   </si>
   <si>
-    <t xml:space="preserve">12.806432723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8240346908569</t>
+    <t xml:space="preserve">12.8064317703247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8240356445312</t>
   </si>
   <si>
     <t xml:space="preserve">13.5552349090576</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">14.0352354049683</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7664356231689</t>
+    <t xml:space="preserve">13.7664346694946</t>
   </si>
   <si>
     <t xml:space="preserve">13.4016342163086</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">13.497633934021</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3040361404419</t>
+    <t xml:space="preserve">14.3040351867676</t>
   </si>
   <si>
     <t xml:space="preserve">13.9008350372314</t>
@@ -2273,43 +2273,43 @@
     <t xml:space="preserve">13.5744352340698</t>
   </si>
   <si>
-    <t xml:space="preserve">13.286434173584</t>
+    <t xml:space="preserve">13.2864332199097</t>
   </si>
   <si>
     <t xml:space="preserve">13.65123462677</t>
   </si>
   <si>
-    <t xml:space="preserve">13.344033241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.172830581665</t>
+    <t xml:space="preserve">13.3440341949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1728315353394</t>
   </si>
   <si>
     <t xml:space="preserve">12.2112312316895</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4800329208374</t>
+    <t xml:space="preserve">12.4800319671631</t>
   </si>
   <si>
     <t xml:space="preserve">12.5952320098877</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0176334381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9792327880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2096338272095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4784345626831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6128349304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7280349731445</t>
+    <t xml:space="preserve">13.0176343917847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9792337417603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2096328735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4784336090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6128339767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7280359268188</t>
   </si>
   <si>
     <t xml:space="preserve">13.7879428863525</t>
@@ -25523,7 +25523,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G817" t="s">
-        <v>525</v>
+        <v>178</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -25549,7 +25549,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G818" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25601,7 +25601,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G820" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -25627,7 +25627,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G821" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -25653,7 +25653,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G822" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -25679,7 +25679,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G823" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -25705,7 +25705,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G824" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -25757,7 +25757,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G826" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -25783,7 +25783,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G827" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -25809,7 +25809,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G828" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -25835,7 +25835,7 @@
         <v>19.4599990844727</v>
       </c>
       <c r="G829" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -25861,7 +25861,7 @@
         <v>19.4400005340576</v>
       </c>
       <c r="G830" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -25887,7 +25887,7 @@
         <v>19.4200000762939</v>
       </c>
       <c r="G831" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -25913,7 +25913,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G832" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -25939,7 +25939,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G833" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -25965,7 +25965,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G834" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -25991,7 +25991,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G835" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -26017,7 +26017,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G836" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -26069,7 +26069,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G838" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26147,7 +26147,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G841" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26173,7 +26173,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G842" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26199,7 +26199,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G843" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26225,7 +26225,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G844" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26251,7 +26251,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G845" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26277,7 +26277,7 @@
         <v>18.1599998474121</v>
       </c>
       <c r="G846" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26303,7 +26303,7 @@
         <v>18.2600002288818</v>
       </c>
       <c r="G847" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26329,7 +26329,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G848" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26355,7 +26355,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G849" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26407,7 +26407,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G851" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -26433,7 +26433,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G852" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -26485,7 +26485,7 @@
         <v>16.5</v>
       </c>
       <c r="G854" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -26511,7 +26511,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G855" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -26537,7 +26537,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G856" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -26589,7 +26589,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G858" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -26615,7 +26615,7 @@
         <v>15.6400003433228</v>
       </c>
       <c r="G859" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -26641,7 +26641,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G860" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -26667,7 +26667,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G861" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -26693,7 +26693,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G862" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -26719,7 +26719,7 @@
         <v>15.9399995803833</v>
       </c>
       <c r="G863" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -26771,7 +26771,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G865" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -26797,7 +26797,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G866" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -26823,7 +26823,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G867" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -26849,7 +26849,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G868" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -26901,7 +26901,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G870" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -26953,7 +26953,7 @@
         <v>15.5</v>
       </c>
       <c r="G872" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -26979,7 +26979,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G873" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27005,7 +27005,7 @@
         <v>15.5799999237061</v>
       </c>
       <c r="G874" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27057,7 +27057,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G876" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27083,7 +27083,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G877" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27109,7 +27109,7 @@
         <v>16.5</v>
       </c>
       <c r="G878" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27161,7 +27161,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G880" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27187,7 +27187,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G881" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27213,7 +27213,7 @@
         <v>16.3799991607666</v>
       </c>
       <c r="G882" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27239,7 +27239,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G883" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27291,7 +27291,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G885" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27343,7 +27343,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G887" t="s">
-        <v>463</v>
+        <v>572</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27447,7 +27447,7 @@
         <v>16.5</v>
       </c>
       <c r="G891" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -27473,7 +27473,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G892" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -27655,7 +27655,7 @@
         <v>15.9399995803833</v>
       </c>
       <c r="G899" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -27733,7 +27733,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G902" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -27785,7 +27785,7 @@
         <v>15.6400003433228</v>
       </c>
       <c r="G904" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -27837,7 +27837,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G906" t="s">
-        <v>463</v>
+        <v>572</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -27863,7 +27863,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G907" t="s">
-        <v>463</v>
+        <v>572</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -27967,7 +27967,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G911" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -28019,7 +28019,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G913" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28097,7 +28097,7 @@
         <v>15.5</v>
       </c>
       <c r="G916" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28331,7 +28331,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G925" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -28695,7 +28695,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G939" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -28721,7 +28721,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G940" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -28747,7 +28747,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G941" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -28877,7 +28877,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G946" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -28903,7 +28903,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G947" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -28929,7 +28929,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G948" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -28955,7 +28955,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G949" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -29059,7 +29059,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G953" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -29319,7 +29319,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G963" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29397,7 +29397,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G966" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -29475,7 +29475,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G969" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -29501,7 +29501,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G970" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -60709,7 +60709,7 @@
     </row>
     <row r="2171">
       <c r="A2171" s="1" t="n">
-        <v>45484.6495833333</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B2171" t="n">
         <v>45171</v>
@@ -60730,6 +60730,32 @@
         <v>1311</v>
       </c>
       <c r="H2171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="1" t="n">
+        <v>45485.6495601852</v>
+      </c>
+      <c r="B2172" t="n">
+        <v>29341</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>35.2999992370605</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>34.7000007629395</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>34.7999992370605</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>35.0999984741211</v>
+      </c>
+      <c r="G2172" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H2172" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAN.MI.xlsx
+++ b/data/DAN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="1312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="1313">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8921499252319</t>
+    <t xml:space="preserve">15.8921489715576</t>
   </si>
   <si>
     <t xml:space="preserve">DAN.MI</t>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">16.0230236053467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5182161331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8170928955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4898996353149</t>
+    <t xml:space="preserve">15.5182180404663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8170909881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4899005889893</t>
   </si>
   <si>
     <t xml:space="preserve">14.2094507217407</t>
@@ -62,16 +62,16 @@
     <t xml:space="preserve">14.5646858215332</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3122816085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346626281738</t>
+    <t xml:space="preserve">14.3122844696045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346635818481</t>
   </si>
   <si>
     <t xml:space="preserve">13.3587532043457</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0409088134766</t>
+    <t xml:space="preserve">13.0409107208252</t>
   </si>
   <si>
     <t xml:space="preserve">13.1343936920166</t>
@@ -80,91 +80,91 @@
     <t xml:space="preserve">12.5267524719238</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1998300552368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3867988586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2006416320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3595638275146</t>
+    <t xml:space="preserve">13.1998319625854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3867979049683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2006454467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3595657348633</t>
   </si>
   <si>
     <t xml:space="preserve">16.6400146484375</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3969593048096</t>
+    <t xml:space="preserve">16.3969612121582</t>
   </si>
   <si>
     <t xml:space="preserve">16.6774063110352</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4439678192139</t>
+    <t xml:space="preserve">17.4439716339111</t>
   </si>
   <si>
     <t xml:space="preserve">16.9204654693604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7706203460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.415657043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6023502349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2284202575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2377662658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490926742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3966865539551</t>
+    <t xml:space="preserve">15.770622253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4156532287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.602352142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.228419303894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2377653121948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490907669067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3966875076294</t>
   </si>
   <si>
     <t xml:space="preserve">15.2938566207886</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2193374633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5465354919434</t>
+    <t xml:space="preserve">16.2193412780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5465316772461</t>
   </si>
   <si>
     <t xml:space="preserve">17.0887355804443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2476539611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3878784179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.294397354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0326442718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6680583953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6587085723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1541709899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9578590393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.509407043457</t>
+    <t xml:space="preserve">17.2476558685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3878803253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2943992614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.032642364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6680603027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.658712387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1541728973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9578552246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5094108581543</t>
   </si>
   <si>
     <t xml:space="preserve">17.6402854919434</t>
@@ -176,25 +176,25 @@
     <t xml:space="preserve">17.7711639404297</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8550300598145</t>
+    <t xml:space="preserve">16.8550262451172</t>
   </si>
   <si>
     <t xml:space="preserve">17.5561485290527</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8552989959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2009143829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.593542098999</t>
+    <t xml:space="preserve">17.8552951812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2009124755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5935401916504</t>
   </si>
   <si>
     <t xml:space="preserve">17.7992076873779</t>
   </si>
   <si>
-    <t xml:space="preserve">17.341136932373</t>
+    <t xml:space="preserve">17.3411407470703</t>
   </si>
   <si>
     <t xml:space="preserve">16.5278339385986</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">16.8737201690674</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2663516998291</t>
+    <t xml:space="preserve">17.2663536071777</t>
   </si>
   <si>
     <t xml:space="preserve">17.6215877532959</t>
@@ -212,16 +212,16 @@
     <t xml:space="preserve">16.8924179077148</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8456764221191</t>
+    <t xml:space="preserve">16.8456783294678</t>
   </si>
   <si>
     <t xml:space="preserve">17.4533195495605</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9020404815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9768218994141</t>
+    <t xml:space="preserve">17.9020366668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9768257141113</t>
   </si>
   <si>
     <t xml:space="preserve">17.7431163787842</t>
@@ -230,46 +230,46 @@
     <t xml:space="preserve">18.2105331420898</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4629383087158</t>
+    <t xml:space="preserve">18.4629364013672</t>
   </si>
   <si>
     <t xml:space="preserve">18.3694553375244</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1357440948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.939432144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6966438293457</t>
+    <t xml:space="preserve">18.1357460021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9394302368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6966419219971</t>
   </si>
   <si>
     <t xml:space="preserve">18.7620830535889</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7901287078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4442386627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6779499053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3788032531738</t>
+    <t xml:space="preserve">18.7901268005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4442405700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6779479980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3788013458252</t>
   </si>
   <si>
     <t xml:space="preserve">18.2385787963867</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8085556030273</t>
+    <t xml:space="preserve">17.8085536956787</t>
   </si>
   <si>
     <t xml:space="preserve">17.4813632965088</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8272495269775</t>
+    <t xml:space="preserve">17.8272533416748</t>
   </si>
   <si>
     <t xml:space="preserve">17.5000591278076</t>
@@ -278,25 +278,25 @@
     <t xml:space="preserve">17.4065780639648</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0980834960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.163516998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8830718994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6306705474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4623985290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5652256011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0700378417969</t>
+    <t xml:space="preserve">17.0980854034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1635208129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8830680847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6306648254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4623966217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5652275085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0700359344482</t>
   </si>
   <si>
     <t xml:space="preserve">16.7708911895752</t>
@@ -308,37 +308,37 @@
     <t xml:space="preserve">16.4810924530029</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6963710784912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8363285064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8176307678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5748462677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3224430084229</t>
+    <t xml:space="preserve">17.6963748931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8363304138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8176326751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5748443603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3224411010742</t>
   </si>
   <si>
     <t xml:space="preserve">17.3691844940186</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1165065765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1539001464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2471141815186</t>
+    <t xml:space="preserve">16.1165103912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.153902053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2471122741699</t>
   </si>
   <si>
     <t xml:space="preserve">15.050799369812</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3592948913574</t>
+    <t xml:space="preserve">15.3592939376831</t>
   </si>
   <si>
     <t xml:space="preserve">15.6303949356079</t>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">15.2751598358154</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7329578399658</t>
+    <t xml:space="preserve">14.7329568862915</t>
   </si>
   <si>
     <t xml:space="preserve">15.172327041626</t>
@@ -359,55 +359,55 @@
     <t xml:space="preserve">14.8077421188354</t>
   </si>
   <si>
-    <t xml:space="preserve">14.96666431427</t>
+    <t xml:space="preserve">14.9666652679443</t>
   </si>
   <si>
     <t xml:space="preserve">15.7051801681519</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3219003677368</t>
+    <t xml:space="preserve">15.3218994140625</t>
   </si>
   <si>
     <t xml:space="preserve">14.9105749130249</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2748889923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5366430282593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9386205673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6958341598511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6116991043091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7986650466919</t>
+    <t xml:space="preserve">14.2748899459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5366411209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9386186599731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.695837020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6117000579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7986621856689</t>
   </si>
   <si>
     <t xml:space="preserve">15.5462589263916</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6210460662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5930023193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6771392822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4530487060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9201927185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6864852905273</t>
+    <t xml:space="preserve">15.6210441589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5930042266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6771373748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4530467987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9201936721802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6864862442017</t>
   </si>
   <si>
     <t xml:space="preserve">16.4343509674072</t>
@@ -422,70 +422,70 @@
     <t xml:space="preserve">16.490442276001</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3782634735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.294132232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4720134735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.13547706604</t>
+    <t xml:space="preserve">16.3782653808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2941303253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4720153808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1354732513428</t>
   </si>
   <si>
     <t xml:space="preserve">16.9298133850098</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9672069549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9487781524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4907093048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3598346710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5281028747559</t>
+    <t xml:space="preserve">16.9672031402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9487819671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4907112121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3598365783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5281085968018</t>
   </si>
   <si>
     <t xml:space="preserve">17.6683292388916</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4063053131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0884609222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.060417175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1258563995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2567291259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9388885498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9669332504272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8641014099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7893171310425</t>
+    <t xml:space="preserve">16.406307220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0884628295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0604190826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1258602142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2567310333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9388914108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9669351577759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8641042709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7893180847168</t>
   </si>
   <si>
     <t xml:space="preserve">15.9108457565308</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3408679962158</t>
+    <t xml:space="preserve">16.3408660888672</t>
   </si>
   <si>
     <t xml:space="preserve">17.0232944488525</t>
@@ -497,52 +497,52 @@
     <t xml:space="preserve">15.8360595703125</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8454074859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0043277740479</t>
+    <t xml:space="preserve">15.8454065322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0043315887451</t>
   </si>
   <si>
     <t xml:space="preserve">15.6584396362305</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4527778625488</t>
+    <t xml:space="preserve">15.4527788162231</t>
   </si>
   <si>
     <t xml:space="preserve">15.5280208587646</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6032600402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8477964401245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9324445724487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0923328399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8195791244507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2646722793579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6220722198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7161226272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7067193984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3493213653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.064115524292</t>
+    <t xml:space="preserve">15.6032629013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8477973937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9324436187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0923347473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.819580078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2646741867065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6220731735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.716121673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7067203521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3493185043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0641174316406</t>
   </si>
   <si>
     <t xml:space="preserve">16.5343780517578</t>
@@ -551,94 +551,94 @@
     <t xml:space="preserve">16.1299533843994</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6879081726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8007688522339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5092096328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0829277038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2522201538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0359001159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7883205413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.399658203125</t>
+    <t xml:space="preserve">15.6879110336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8007707595825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5092086791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0829257965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2522220611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0359020233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7883186340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3996601104736</t>
   </si>
   <si>
     <t xml:space="preserve">17.4749011993408</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3526306152344</t>
+    <t xml:space="preserve">17.3526344299316</t>
   </si>
   <si>
     <t xml:space="preserve">17.4372787475586</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2397708892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1645278930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6942672729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.305606842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.117504119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3808460235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9639739990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1238613128662</t>
+    <t xml:space="preserve">17.239767074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1645259857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6942653656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3056049346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1175003051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3808498382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9639720916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1238594055176</t>
   </si>
   <si>
     <t xml:space="preserve">18.1614818572998</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1050510406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6599559783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.139627456665</t>
+    <t xml:space="preserve">18.1050491333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6599540710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1396255493164</t>
   </si>
   <si>
     <t xml:space="preserve">19.1866493225098</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7979888916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8732280731201</t>
+    <t xml:space="preserve">19.7979869842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8732299804688</t>
   </si>
   <si>
     <t xml:space="preserve">19.3559436798096</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1490287780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7039375305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5722637176514</t>
+    <t xml:space="preserve">19.1490306854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7039356231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.572265625</t>
   </si>
   <si>
     <t xml:space="preserve">19.421781539917</t>
@@ -647,16 +647,16 @@
     <t xml:space="preserve">19.3183250427246</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0925979614258</t>
+    <t xml:space="preserve">19.0925941467285</t>
   </si>
   <si>
     <t xml:space="preserve">19.2524871826172</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1772441864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1678371429443</t>
+    <t xml:space="preserve">19.1772422790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.167839050293</t>
   </si>
   <si>
     <t xml:space="preserve">18.9891414642334</t>
@@ -668,16 +668,16 @@
     <t xml:space="preserve">18.631742477417</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3401775360107</t>
+    <t xml:space="preserve">18.3401794433594</t>
   </si>
   <si>
     <t xml:space="preserve">18.6881771087646</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7634143829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6975765228271</t>
+    <t xml:space="preserve">18.7634162902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6975784301758</t>
   </si>
   <si>
     <t xml:space="preserve">18.6035289764404</t>
@@ -686,13 +686,13 @@
     <t xml:space="preserve">18.7163887023926</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5094757080078</t>
+    <t xml:space="preserve">18.5094738006592</t>
   </si>
   <si>
     <t xml:space="preserve">18.5564994812012</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7446060180664</t>
+    <t xml:space="preserve">18.7446041107178</t>
   </si>
   <si>
     <t xml:space="preserve">18.8480625152588</t>
@@ -704,49 +704,49 @@
     <t xml:space="preserve">18.9609241485596</t>
   </si>
   <si>
-    <t xml:space="preserve">19.280704498291</t>
+    <t xml:space="preserve">19.2807006835938</t>
   </si>
   <si>
     <t xml:space="preserve">19.6569118499756</t>
   </si>
   <si>
-    <t xml:space="preserve">19.327730178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3653526306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6098861694336</t>
+    <t xml:space="preserve">19.3277282714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3653469085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.609884262085</t>
   </si>
   <si>
     <t xml:space="preserve">19.6945323944092</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1960544586182</t>
+    <t xml:space="preserve">19.1960563659668</t>
   </si>
   <si>
     <t xml:space="preserve">19.4876174926758</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7509651184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3371353149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4594058990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5910739898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.271297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.468807220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.628698348999</t>
+    <t xml:space="preserve">19.7509632110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3371334075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4594020843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5910778045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2712955474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4688091278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6286945343018</t>
   </si>
   <si>
     <t xml:space="preserve">19.525239944458</t>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">20.258846282959</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6350536346436</t>
+    <t xml:space="preserve">20.6350555419922</t>
   </si>
   <si>
     <t xml:space="preserve">20.8795928955078</t>
@@ -767,37 +767,37 @@
     <t xml:space="preserve">21.1147212982178</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2275848388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2087745666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.399923324585</t>
+    <t xml:space="preserve">21.2275829315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2087707519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3999252319336</t>
   </si>
   <si>
     <t xml:space="preserve">20.8701858520508</t>
   </si>
   <si>
-    <t xml:space="preserve">20.644458770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.503381729126</t>
+    <t xml:space="preserve">20.6444625854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5033779144287</t>
   </si>
   <si>
     <t xml:space="preserve">20.8325634002686</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9078044891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8607807159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.75732421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7855415344238</t>
+    <t xml:space="preserve">20.9078063964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8607788085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7573204040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7855396270752</t>
   </si>
   <si>
     <t xml:space="preserve">20.9172115325928</t>
@@ -806,52 +806,52 @@
     <t xml:space="preserve">20.7385120391846</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0771026611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1241264343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.710298538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0394821166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9141597747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7636775970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.632007598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.584981918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.396879196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3874740600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.189962387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.537956237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3686599731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6131973266602</t>
+    <t xml:space="preserve">21.0771007537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1241245269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7102966308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.039478302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9141635894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7636814117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6320095062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5849838256836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3968772888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3874702453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1899642944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5379543304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3686618804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6131992340088</t>
   </si>
   <si>
     <t xml:space="preserve">21.4909324645996</t>
   </si>
   <si>
-    <t xml:space="preserve">20.898401260376</t>
+    <t xml:space="preserve">20.8983993530273</t>
   </si>
   <si>
     <t xml:space="preserve">21.4345016479492</t>
@@ -860,13 +860,13 @@
     <t xml:space="preserve">21.2181777954102</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3780670166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5191459655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5097370147705</t>
+    <t xml:space="preserve">21.3780651092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5191440582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5097408294678</t>
   </si>
   <si>
     <t xml:space="preserve">21.6037902832031</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">21.1993675231934</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4439029693604</t>
+    <t xml:space="preserve">21.443904876709</t>
   </si>
   <si>
     <t xml:space="preserve">20.99245262146</t>
@@ -893,49 +893,49 @@
     <t xml:space="preserve">20.6632709503174</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5786228179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8889980316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5315990447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2964649200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4657573699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0425243377686</t>
+    <t xml:space="preserve">20.5786209106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8889942169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5315971374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2964687347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4657611846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0425262451172</t>
   </si>
   <si>
     <t xml:space="preserve">20.155387878418</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5221900939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5504035949707</t>
+    <t xml:space="preserve">20.5221920013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.550407409668</t>
   </si>
   <si>
     <t xml:space="preserve">20.8043479919434</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6914863586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.20241355896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0801448822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1365776062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.96728515625</t>
+    <t xml:space="preserve">20.6914882659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2024154663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0801467895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1365756988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9672832489014</t>
   </si>
   <si>
     <t xml:space="preserve">20.1742000579834</t>
@@ -944,49 +944,49 @@
     <t xml:space="preserve">20.3246822357178</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2494430541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3623027801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9202556610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9266185760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4939746856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.221227645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9766864776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6726779937744</t>
+    <t xml:space="preserve">20.249439239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3623046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.920259475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9266166687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4939765930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2212257385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9766902923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6726741790771</t>
   </si>
   <si>
     <t xml:space="preserve">20.3811111450195</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7479152679443</t>
+    <t xml:space="preserve">20.747917175293</t>
   </si>
   <si>
     <t xml:space="preserve">21.1053161621094</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5974311828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8231601715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1523418426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4627151489258</t>
+    <t xml:space="preserve">20.5974349975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8231582641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1523399353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4627113342285</t>
   </si>
   <si>
     <t xml:space="preserve">20.9830493927002</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">20.5880279541016</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6256504058838</t>
+    <t xml:space="preserve">20.6256484985352</t>
   </si>
   <si>
     <t xml:space="preserve">20.1271705627441</t>
@@ -1007,70 +1007,70 @@
     <t xml:space="preserve">20.0895538330078</t>
   </si>
   <si>
-    <t xml:space="preserve">20.014310836792</t>
+    <t xml:space="preserve">20.0143127441406</t>
   </si>
   <si>
     <t xml:space="preserve">20.2306270599365</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3434906005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7761325836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2400321960449</t>
+    <t xml:space="preserve">20.3434944152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7761306762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2400341033936</t>
   </si>
   <si>
     <t xml:space="preserve">19.7791805267334</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4970245361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0173530578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.073787689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.866870880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.233678817749</t>
+    <t xml:space="preserve">19.4970226287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.01735496521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0737895965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8668746948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2336769104004</t>
   </si>
   <si>
     <t xml:space="preserve">18.9138984680176</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7916316986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8950901031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6693649291992</t>
+    <t xml:space="preserve">18.7916297912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8950881958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6693668365479</t>
   </si>
   <si>
     <t xml:space="preserve">19.0455722808838</t>
   </si>
   <si>
-    <t xml:space="preserve">19.374755859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2147731781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1864185333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7611045837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5342693328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.127857208252</t>
+    <t xml:space="preserve">19.3747577667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2147750854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1864147186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7611064910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5342712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1278553009033</t>
   </si>
   <si>
     <t xml:space="preserve">18.0711498260498</t>
@@ -1079,28 +1079,28 @@
     <t xml:space="preserve">17.8632164001465</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8915691375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1656665802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1184101104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.194019317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4964637756348</t>
+    <t xml:space="preserve">17.8915710449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1656627655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1184043884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1940155029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4964618682861</t>
   </si>
   <si>
     <t xml:space="preserve">18.6949443817139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8178119659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6382331848145</t>
+    <t xml:space="preserve">18.8178100585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6382350921631</t>
   </si>
   <si>
     <t xml:space="preserve">18.3924980163574</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">18.7232971191406</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5909786224365</t>
+    <t xml:space="preserve">18.5909805297852</t>
   </si>
   <si>
     <t xml:space="preserve">18.4492073059082</t>
@@ -1118,10 +1118,10 @@
     <t xml:space="preserve">18.9028739929199</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0068397521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9312305450439</t>
+    <t xml:space="preserve">19.0068416595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9312286376953</t>
   </si>
   <si>
     <t xml:space="preserve">18.9217777252197</t>
@@ -1130,25 +1130,25 @@
     <t xml:space="preserve">18.8461666107178</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5815277099609</t>
+    <t xml:space="preserve">18.5815258026123</t>
   </si>
   <si>
     <t xml:space="preserve">18.6098823547363</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6760444641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.713846206665</t>
+    <t xml:space="preserve">18.6760425567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7138481140137</t>
   </si>
   <si>
     <t xml:space="preserve">18.7043972015381</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8934230804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9406833648682</t>
+    <t xml:space="preserve">18.893424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9406814575195</t>
   </si>
   <si>
     <t xml:space="preserve">18.8272647857666</t>
@@ -1157,16 +1157,16 @@
     <t xml:space="preserve">18.6193332672119</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7327518463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.13916015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4227046966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7062511444092</t>
+    <t xml:space="preserve">18.7327480316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1391620635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4227027893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7062473297119</t>
   </si>
   <si>
     <t xml:space="preserve">19.9897899627686</t>
@@ -1181,19 +1181,19 @@
     <t xml:space="preserve">21.832820892334</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7855625152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6437950134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8800792694092</t>
+    <t xml:space="preserve">21.7855644226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6437911987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8800773620605</t>
   </si>
   <si>
     <t xml:space="preserve">21.7383079528809</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0218467712402</t>
+    <t xml:space="preserve">22.0218486785889</t>
   </si>
   <si>
     <t xml:space="preserve">22.0691070556641</t>
@@ -1202,16 +1202,16 @@
     <t xml:space="preserve">21.2657356262207</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6986465454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3129920959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8876800537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0294513702393</t>
+    <t xml:space="preserve">20.6986484527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3129901885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8876781463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0294494628906</t>
   </si>
   <si>
     <t xml:space="preserve">20.9821949005127</t>
@@ -1226,64 +1226,64 @@
     <t xml:space="preserve">21.4075050354004</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1239643096924</t>
+    <t xml:space="preserve">21.1239624023438</t>
   </si>
   <si>
     <t xml:space="preserve">20.9349346160889</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9745922088623</t>
+    <t xml:space="preserve">21.9745941162109</t>
   </si>
   <si>
     <t xml:space="preserve">22.494421005249</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1636238098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3526515960693</t>
+    <t xml:space="preserve">22.1636219024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3526496887207</t>
   </si>
   <si>
     <t xml:space="preserve">22.2581348419189</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0767078399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5020236968994</t>
+    <t xml:space="preserve">21.0767059326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5020217895508</t>
   </si>
   <si>
     <t xml:space="preserve">20.5568790435791</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4623622894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1712188720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8404216766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2184791564941</t>
+    <t xml:space="preserve">20.4623641967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1712207794189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8404197692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2184772491455</t>
   </si>
   <si>
     <t xml:space="preserve">21.5965366363525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6513900756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7459049224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3678512573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.280933380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3754482269287</t>
+    <t xml:space="preserve">20.6513919830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7459087371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.367847442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2809314727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3754463195801</t>
   </si>
   <si>
     <t xml:space="preserve">19.5644779205322</t>
@@ -1292,61 +1292,61 @@
     <t xml:space="preserve">20.0370483398438</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8480205535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6041355133057</t>
+    <t xml:space="preserve">19.8480186462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6041316986084</t>
   </si>
   <si>
     <t xml:space="preserve">20.5096206665039</t>
   </si>
   <si>
-    <t xml:space="preserve">20.22607421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4151058197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2733364105225</t>
+    <t xml:space="preserve">20.2260761260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4151039123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2733345031738</t>
   </si>
   <si>
     <t xml:space="preserve">20.1315612792969</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1788177490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.658992767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8007640838623</t>
+    <t xml:space="preserve">20.1788196563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6589889526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.800760269165</t>
   </si>
   <si>
     <t xml:space="preserve">19.7535057067871</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8952770233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9425354003906</t>
+    <t xml:space="preserve">19.8952732086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.942533493042</t>
   </si>
   <si>
     <t xml:space="preserve">19.517219543457</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4699649810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6117324829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0843048095703</t>
+    <t xml:space="preserve">19.4699630737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6117305755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0843029022217</t>
   </si>
   <si>
     <t xml:space="preserve">21.6910514831543</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3205947875977</t>
+    <t xml:space="preserve">20.3205909729004</t>
   </si>
   <si>
     <t xml:space="preserve">17.9388275146484</t>
@@ -1355,19 +1355,19 @@
     <t xml:space="preserve">15.5003595352173</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8973188400269</t>
+    <t xml:space="preserve">15.8973178863525</t>
   </si>
   <si>
     <t xml:space="preserve">14.9521751403809</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6497278213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9899806976318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5948724746704</t>
+    <t xml:space="preserve">14.6497297286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9899816513062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5948734283447</t>
   </si>
   <si>
     <t xml:space="preserve">15.8217058181763</t>
@@ -1379,28 +1379,28 @@
     <t xml:space="preserve">15.7271909713745</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5192604064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6515817642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0674457550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.99183177948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8595132827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7839021682739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5759677886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1979122161865</t>
+    <t xml:space="preserve">15.5192632675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6515808105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0674438476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9918336868286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8595142364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7839031219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5759706497192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1979112625122</t>
   </si>
   <si>
     <t xml:space="preserve">15.0457429885864</t>
@@ -1412,34 +1412,34 @@
     <t xml:space="preserve">14.5892353057861</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6272783279419</t>
+    <t xml:space="preserve">14.6272773742676</t>
   </si>
   <si>
     <t xml:space="preserve">15.1028060913086</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1218280792236</t>
+    <t xml:space="preserve">15.1218271255493</t>
   </si>
   <si>
     <t xml:space="preserve">14.8365106582642</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3310623168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6353998184204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4642086029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2468538284302</t>
+    <t xml:space="preserve">15.3310613632202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6353988647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.464207649231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2468547821045</t>
   </si>
   <si>
     <t xml:space="preserve">14.0946846008301</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7713251113892</t>
+    <t xml:space="preserve">13.7713241577148</t>
   </si>
   <si>
     <t xml:space="preserve">13.9044733047485</t>
@@ -1451,16 +1451,16 @@
     <t xml:space="preserve">14.3419589996338</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3229398727417</t>
+    <t xml:space="preserve">14.3229389190674</t>
   </si>
   <si>
     <t xml:space="preserve">14.3990240097046</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1327276229858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8093681335449</t>
+    <t xml:space="preserve">14.1327266693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8093671798706</t>
   </si>
   <si>
     <t xml:space="preserve">13.7903461456299</t>
@@ -1472,40 +1472,40 @@
     <t xml:space="preserve">14.2278327941895</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3800020217896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7033624649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9316167831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4071464538574</t>
+    <t xml:space="preserve">14.3800029754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7033615112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9316158294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4071474075317</t>
   </si>
   <si>
     <t xml:space="preserve">15.3120403289795</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2169332504272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2549753189087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0837850570679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2930183410645</t>
+    <t xml:space="preserve">15.2169342041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.254976272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0837860107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2930173873901</t>
   </si>
   <si>
     <t xml:space="preserve">15.3500814437866</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3881244659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7305068969727</t>
+    <t xml:space="preserve">15.3881235122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7305059432983</t>
   </si>
   <si>
     <t xml:space="preserve">16.1679916381836</t>
@@ -1520,25 +1520,25 @@
     <t xml:space="preserve">17.1190509796143</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7005844116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6245002746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4723320007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5674381256104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.18701171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0728874206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0158252716064</t>
+    <t xml:space="preserve">16.7005825042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6244983673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4723300933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5674343109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1870136260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.072883605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0158214569092</t>
   </si>
   <si>
     <t xml:space="preserve">16.339183807373</t>
@@ -1553,46 +1553,46 @@
     <t xml:space="preserve">16.8337345123291</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7196063995361</t>
+    <t xml:space="preserve">16.7196044921875</t>
   </si>
   <si>
     <t xml:space="preserve">16.4913539886475</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6435203552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.662540435791</t>
+    <t xml:space="preserve">16.6435222625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6625442504883</t>
   </si>
   <si>
     <t xml:space="preserve">16.4342880249023</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8147125244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9288368225098</t>
+    <t xml:space="preserve">16.8147106170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9288387298584</t>
   </si>
   <si>
     <t xml:space="preserve">16.6815662384033</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5293922424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0538635253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1489696502686</t>
+    <t xml:space="preserve">16.5293941497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0538654327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1489734649658</t>
   </si>
   <si>
     <t xml:space="preserve">16.1299495697021</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3201599121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2060356140137</t>
+    <t xml:space="preserve">16.320161819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.206033706665</t>
   </si>
   <si>
     <t xml:space="preserve">16.5484142303467</t>
@@ -1610,133 +1610,133 @@
     <t xml:space="preserve">17.1570930480957</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6896858215332</t>
+    <t xml:space="preserve">17.6896839141846</t>
   </si>
   <si>
     <t xml:space="preserve">18.5075950622559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4885749816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4695529937744</t>
+    <t xml:space="preserve">18.4885730743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.469554901123</t>
   </si>
   <si>
     <t xml:space="preserve">18.336404800415</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7467479705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3473014831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2141551971436</t>
+    <t xml:space="preserve">17.7467498779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3473033905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2141590118408</t>
   </si>
   <si>
     <t xml:space="preserve">17.1951351165771</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9478588104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8527526855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1761150360107</t>
+    <t xml:space="preserve">16.9478607177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8527545928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1761112213135</t>
   </si>
   <si>
     <t xml:space="preserve">17.0429668426514</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2712173461914</t>
+    <t xml:space="preserve">17.27121925354</t>
   </si>
   <si>
     <t xml:space="preserve">17.366325378418</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4424114227295</t>
+    <t xml:space="preserve">17.4424095153809</t>
   </si>
   <si>
     <t xml:space="preserve">16.9668807983398</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4152698516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6924610137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7114858627319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6544208526611</t>
+    <t xml:space="preserve">16.4152679443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6924629211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.711483001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6544198989868</t>
   </si>
   <si>
     <t xml:space="preserve">15.3691034317017</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8745517730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9886808395386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2739953994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9506368637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1598701477051</t>
+    <t xml:space="preserve">14.8745536804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9886798858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2739973068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9506378173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1598691940308</t>
   </si>
   <si>
     <t xml:space="preserve">15.0267219543457</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6843404769897</t>
+    <t xml:space="preserve">14.6843414306641</t>
   </si>
   <si>
     <t xml:space="preserve">14.8555307388306</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5511932373047</t>
+    <t xml:space="preserve">14.551194190979</t>
   </si>
   <si>
     <t xml:space="preserve">15.007700920105</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7414045333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.646297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8174886703491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7685470581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5973558425903</t>
+    <t xml:space="preserve">14.7414054870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6462984085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8174896240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7685480117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.597357749939</t>
   </si>
   <si>
     <t xml:space="preserve">15.5783348083496</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8636541366577</t>
+    <t xml:space="preserve">15.863655090332</t>
   </si>
   <si>
     <t xml:space="preserve">15.4261655807495</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7875680923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6163778305054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5212726593018</t>
+    <t xml:space="preserve">15.7875709533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.616379737854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5212707519531</t>
   </si>
   <si>
     <t xml:space="preserve">15.2359552383423</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">14.7984676361084</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4751081466675</t>
+    <t xml:space="preserve">14.4751091003418</t>
   </si>
   <si>
     <t xml:space="preserve">14.4560861587524</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">14.2658739089966</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0756645202637</t>
+    <t xml:space="preserve">14.0756635665894</t>
   </si>
   <si>
     <t xml:space="preserve">13.94251537323</t>
@@ -1772,58 +1772,58 @@
     <t xml:space="preserve">14.6082563400269</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4370651245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9805574417114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0185995101929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2088117599487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1137065887451</t>
+    <t xml:space="preserve">14.437066078186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9805583953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0186004638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2088108062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1137056350708</t>
   </si>
   <si>
     <t xml:space="preserve">14.418044090271</t>
   </si>
   <si>
-    <t xml:space="preserve">14.189790725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7794466018677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1707696914673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5593137741089</t>
+    <t xml:space="preserve">14.1897897720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.779447555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.170768737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5593147277832</t>
   </si>
   <si>
     <t xml:space="preserve">14.3609809875488</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2848968505859</t>
+    <t xml:space="preserve">14.2848978042603</t>
   </si>
   <si>
     <t xml:space="preserve">14.665319442749</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1788902282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.483229637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2640380859375</t>
+    <t xml:space="preserve">15.1788921356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4832315444946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2640390396118</t>
   </si>
   <si>
     <t xml:space="preserve">15.2448387145996</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0912380218506</t>
+    <t xml:space="preserve">15.0912389755249</t>
   </si>
   <si>
     <t xml:space="preserve">14.9952383041382</t>
@@ -1832,37 +1832,37 @@
     <t xml:space="preserve">15.0720386505127</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5712385177612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8784418106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.665641784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5312423706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8976392745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8592414855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7248392105103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7440395355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6480398178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9552440643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9936399459839</t>
+    <t xml:space="preserve">15.5712404251099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8784408569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6656436920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5312404632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8976402282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8592405319214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7248401641846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7440404891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6480388641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9552392959595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9936418533325</t>
   </si>
   <si>
     <t xml:space="preserve">16.3776416778564</t>
@@ -1871,10 +1871,10 @@
     <t xml:space="preserve">15.9168405532837</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8016405105591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8400402069092</t>
+    <t xml:space="preserve">15.8016386032104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8400392532349</t>
   </si>
   <si>
     <t xml:space="preserve">16.2432403564453</t>
@@ -1883,40 +1883,40 @@
     <t xml:space="preserve">16.1856422424316</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6096391677856</t>
+    <t xml:space="preserve">15.6096410751343</t>
   </si>
   <si>
     <t xml:space="preserve">16.0320415496826</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7632398605347</t>
+    <t xml:space="preserve">15.763240814209</t>
   </si>
   <si>
     <t xml:space="preserve">15.6288394927979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7824401855469</t>
+    <t xml:space="preserve">15.7824411392212</t>
   </si>
   <si>
     <t xml:space="preserve">15.4368391036987</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3024396896362</t>
+    <t xml:space="preserve">15.3024377822876</t>
   </si>
   <si>
     <t xml:space="preserve">15.1680383682251</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3984403610229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9376382827759</t>
+    <t xml:space="preserve">15.3984413146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9376392364502</t>
   </si>
   <si>
     <t xml:space="preserve">15.1296396255493</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6880378723145</t>
+    <t xml:space="preserve">14.6880369186401</t>
   </si>
   <si>
     <t xml:space="preserve">14.2080364227295</t>
@@ -1925,40 +1925,40 @@
     <t xml:space="preserve">14.1120357513428</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4000358581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7840366363525</t>
+    <t xml:space="preserve">14.4000368118286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7840375900269</t>
   </si>
   <si>
     <t xml:space="preserve">14.976037979126</t>
   </si>
   <si>
-    <t xml:space="preserve">14.764838218689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5728368759155</t>
+    <t xml:space="preserve">14.7648372650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5728378295898</t>
   </si>
   <si>
     <t xml:space="preserve">14.6112375259399</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8032369613647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5152368545532</t>
+    <t xml:space="preserve">14.8032379150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5152359008789</t>
   </si>
   <si>
     <t xml:space="preserve">14.4576377868652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2272357940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8624353408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3056344985962</t>
+    <t xml:space="preserve">14.2272367477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.862434387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3056325912476</t>
   </si>
   <si>
     <t xml:space="preserve">13.1712331771851</t>
@@ -1967,52 +1967,52 @@
     <t xml:space="preserve">13.5360355377197</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2480335235596</t>
+    <t xml:space="preserve">13.2480344772339</t>
   </si>
   <si>
     <t xml:space="preserve">12.9600324630737</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5760316848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3264322280884</t>
+    <t xml:space="preserve">12.5760335922241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3264312744141</t>
   </si>
   <si>
     <t xml:space="preserve">12.0960311889648</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6160306930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.174427986145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2528257369995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0800266265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71522426605225</t>
+    <t xml:space="preserve">11.6160297393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1744289398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2528266906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0800256729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71522521972656</t>
   </si>
   <si>
     <t xml:space="preserve">9.02402305603027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53282356262207</t>
+    <t xml:space="preserve">9.5328254699707</t>
   </si>
   <si>
     <t xml:space="preserve">8.19842052459717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65922260284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21602344512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2912263870239</t>
+    <t xml:space="preserve">8.65922355651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21602439880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2912254333496</t>
   </si>
   <si>
     <t xml:space="preserve">10.8864278793335</t>
@@ -2024,7 +2024,7 @@
     <t xml:space="preserve">13.0560340881348</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7504301071167</t>
+    <t xml:space="preserve">11.7504291534424</t>
   </si>
   <si>
     <t xml:space="preserve">11.0976285934448</t>
@@ -2036,25 +2036,25 @@
     <t xml:space="preserve">10.7712278366089</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1952257156372</t>
+    <t xml:space="preserve">10.1952266693115</t>
   </si>
   <si>
     <t xml:space="preserve">10.4640264511108</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7520265579224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.867226600647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2512283325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0400276184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7136259078979</t>
+    <t xml:space="preserve">10.7520275115967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8672275543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2512292861938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0400285720825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7136278152466</t>
   </si>
   <si>
     <t xml:space="preserve">10.329626083374</t>
@@ -2063,10 +2063,10 @@
     <t xml:space="preserve">10.0032262802124</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3488254547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6368265151978</t>
+    <t xml:space="preserve">10.3488264083862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6368274688721</t>
   </si>
   <si>
     <t xml:space="preserve">10.5600271224976</t>
@@ -2075,7 +2075,7 @@
     <t xml:space="preserve">10.9056282043457</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8480291366577</t>
+    <t xml:space="preserve">10.8480281829834</t>
   </si>
   <si>
     <t xml:space="preserve">10.8288269042969</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">10.9440269470215</t>
   </si>
   <si>
-    <t xml:space="preserve">10.963228225708</t>
+    <t xml:space="preserve">10.9632272720337</t>
   </si>
   <si>
     <t xml:space="preserve">10.6752281188965</t>
@@ -2093,16 +2093,16 @@
     <t xml:space="preserve">11.1360282897949</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0784282684326</t>
+    <t xml:space="preserve">11.0784273147583</t>
   </si>
   <si>
     <t xml:space="preserve">11.6352291107178</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7120294570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1936283111572</t>
+    <t xml:space="preserve">11.7120304107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1936292648315</t>
   </si>
   <si>
     <t xml:space="preserve">11.5584287643433</t>
@@ -2111,28 +2111,28 @@
     <t xml:space="preserve">11.6544303894043</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9424295425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1536312103271</t>
+    <t xml:space="preserve">11.9424304962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1536302566528</t>
   </si>
   <si>
     <t xml:space="preserve">12.441632270813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3648309707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2496309280396</t>
+    <t xml:space="preserve">12.3648319244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2496318817139</t>
   </si>
   <si>
     <t xml:space="preserve">12.0000305175781</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3664293289185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1552286148071</t>
+    <t xml:space="preserve">11.3664302825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1552276611328</t>
   </si>
   <si>
     <t xml:space="preserve">11.328028678894</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">11.2320289611816</t>
   </si>
   <si>
-    <t xml:space="preserve">11.020827293396</t>
+    <t xml:space="preserve">11.0208282470703</t>
   </si>
   <si>
     <t xml:space="preserve">10.9248275756836</t>
@@ -2150,19 +2150,19 @@
     <t xml:space="preserve">10.809627532959</t>
   </si>
   <si>
-    <t xml:space="preserve">10.540825843811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5792264938354</t>
+    <t xml:space="preserve">10.5408267974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5792274475098</t>
   </si>
   <si>
     <t xml:space="preserve">10.7904272079468</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3472280502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4816293716431</t>
+    <t xml:space="preserve">11.3472290039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4816284179688</t>
   </si>
   <si>
     <t xml:space="preserve">11.4240283966064</t>
@@ -2174,31 +2174,31 @@
     <t xml:space="preserve">11.1168279647827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7328281402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5024271011353</t>
+    <t xml:space="preserve">10.7328271865845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5024261474609</t>
   </si>
   <si>
     <t xml:space="preserve">10.5984268188477</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7888288497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5776300430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8272304534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6736297607422</t>
+    <t xml:space="preserve">11.7888298034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5776309967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8272285461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6736288070679</t>
   </si>
   <si>
     <t xml:space="preserve">11.7696304321289</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6928310394287</t>
+    <t xml:space="preserve">11.6928300857544</t>
   </si>
   <si>
     <t xml:space="preserve">11.808030128479</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">11.8848304748535</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3840322494507</t>
+    <t xml:space="preserve">12.3840312957764</t>
   </si>
   <si>
     <t xml:space="preserve">12.288031578064</t>
@@ -2219,37 +2219,37 @@
     <t xml:space="preserve">12.1152305603027</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1344308853149</t>
+    <t xml:space="preserve">12.1344318389893</t>
   </si>
   <si>
     <t xml:space="preserve">11.9616298675537</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9040298461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3856287002563</t>
+    <t xml:space="preserve">11.9040307998657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3856296539307</t>
   </si>
   <si>
     <t xml:space="preserve">12.806432723999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8240356445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.555233001709</t>
+    <t xml:space="preserve">13.8240346908569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5552349090576</t>
   </si>
   <si>
     <t xml:space="preserve">14.0352354049683</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7664356231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4016342163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5936346054077</t>
+    <t xml:space="preserve">13.7664346694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4016351699829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.593635559082</t>
   </si>
   <si>
     <t xml:space="preserve">13.6320343017578</t>
@@ -2267,31 +2267,31 @@
     <t xml:space="preserve">13.9008350372314</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5744352340698</t>
+    <t xml:space="preserve">13.5744342803955</t>
   </si>
   <si>
     <t xml:space="preserve">13.286434173584</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6512355804443</t>
+    <t xml:space="preserve">13.65123462677</t>
   </si>
   <si>
     <t xml:space="preserve">13.344033241272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.172830581665</t>
+    <t xml:space="preserve">12.1728315353394</t>
   </si>
   <si>
     <t xml:space="preserve">12.2112321853638</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4800310134888</t>
+    <t xml:space="preserve">12.4800319671631</t>
   </si>
   <si>
     <t xml:space="preserve">12.5952320098877</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0176334381104</t>
+    <t xml:space="preserve">13.017632484436</t>
   </si>
   <si>
     <t xml:space="preserve">12.9792337417603</t>
@@ -2306,7 +2306,7 @@
     <t xml:space="preserve">13.6128349304199</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7280349731445</t>
+    <t xml:space="preserve">13.7280359268188</t>
   </si>
   <si>
     <t xml:space="preserve">13.7879419326782</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">13.5746269226074</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6134119033813</t>
+    <t xml:space="preserve">13.613410949707</t>
   </si>
   <si>
     <t xml:space="preserve">13.4776649475098</t>
@@ -2330,22 +2330,22 @@
     <t xml:space="preserve">14.0206499099731</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0594339370728</t>
+    <t xml:space="preserve">14.0594348907471</t>
   </si>
   <si>
     <t xml:space="preserve">13.9236879348755</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3503198623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3309259414673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3891048431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1563959121704</t>
+    <t xml:space="preserve">14.3503189086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3309268951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3891038894653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1563968658447</t>
   </si>
   <si>
     <t xml:space="preserve">13.8655118942261</t>
@@ -2354,19 +2354,19 @@
     <t xml:space="preserve">13.6328039169312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9430809020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7685499191284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.710373878479</t>
+    <t xml:space="preserve">13.9430818557739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7685489654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7103729248047</t>
   </si>
   <si>
     <t xml:space="preserve">13.9624729156494</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8849029541016</t>
+    <t xml:space="preserve">13.8849039077759</t>
   </si>
   <si>
     <t xml:space="preserve">14.0400419235229</t>
@@ -2375,16 +2375,16 @@
     <t xml:space="preserve">14.3115348815918</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5248508453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8933048248291</t>
+    <t xml:space="preserve">14.5248498916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8933038711548</t>
   </si>
   <si>
     <t xml:space="preserve">14.8157348632812</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1841888427734</t>
+    <t xml:space="preserve">15.1841897964478</t>
   </si>
   <si>
     <t xml:space="preserve">15.2229738235474</t>
@@ -2399,22 +2399,22 @@
     <t xml:space="preserve">16.3865127563477</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0180606842041</t>
+    <t xml:space="preserve">16.0180587768555</t>
   </si>
   <si>
     <t xml:space="preserve">16.1538066864014</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9986667633057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8047437667847</t>
+    <t xml:space="preserve">15.9986658096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8047428131104</t>
   </si>
   <si>
     <t xml:space="preserve">15.513858795166</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9404907226562</t>
+    <t xml:space="preserve">15.9404916763306</t>
   </si>
   <si>
     <t xml:space="preserve">15.5332517623901</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">15.6302137374878</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9210968017578</t>
+    <t xml:space="preserve">15.9210987091064</t>
   </si>
   <si>
     <t xml:space="preserve">16.0568428039551</t>
@@ -2432,7 +2432,7 @@
     <t xml:space="preserve">16.4640827178955</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8131446838379</t>
+    <t xml:space="preserve">16.8131427764893</t>
   </si>
   <si>
     <t xml:space="preserve">16.9876747131348</t>
@@ -2441,7 +2441,7 @@
     <t xml:space="preserve">16.8907146453857</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8519268035889</t>
+    <t xml:space="preserve">16.8519287109375</t>
   </si>
   <si>
     <t xml:space="preserve">16.9294967651367</t>
@@ -2468,19 +2468,19 @@
     <t xml:space="preserve">16.638614654541</t>
   </si>
   <si>
-    <t xml:space="preserve">17.123420715332</t>
+    <t xml:space="preserve">17.1234226226807</t>
   </si>
   <si>
     <t xml:space="preserve">16.8713207244873</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1622085571289</t>
+    <t xml:space="preserve">17.1622066497803</t>
   </si>
   <si>
     <t xml:space="preserve">17.1428146362305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0652446746826</t>
+    <t xml:space="preserve">17.0652465820312</t>
   </si>
   <si>
     <t xml:space="preserve">18.1900005340576</t>
@@ -2492,7 +2492,7 @@
     <t xml:space="preserve">18.5390625</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8771305084229</t>
+    <t xml:space="preserve">19.8771324157715</t>
   </si>
   <si>
     <t xml:space="preserve">20.1680164337158</t>
@@ -2501,10 +2501,10 @@
     <t xml:space="preserve">20.5558643341064</t>
   </si>
   <si>
-    <t xml:space="preserve">20.022575378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9921894073486</t>
+    <t xml:space="preserve">20.0225734710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9921913146973</t>
   </si>
   <si>
     <t xml:space="preserve">20.7497863769531</t>
@@ -2516,19 +2516,19 @@
     <t xml:space="preserve">20.2164974212646</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1195335388184</t>
+    <t xml:space="preserve">20.1195373535156</t>
   </si>
   <si>
     <t xml:space="preserve">20.2649784088135</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6528224945068</t>
+    <t xml:space="preserve">20.6528244018555</t>
   </si>
   <si>
     <t xml:space="preserve">20.798267364502</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8952293395996</t>
+    <t xml:space="preserve">20.895227432251</t>
   </si>
   <si>
     <t xml:space="preserve">21.2345943450928</t>
@@ -2558,10 +2558,10 @@
     <t xml:space="preserve">19.7801704406738</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0710563659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3923225402832</t>
+    <t xml:space="preserve">20.0710544586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3923244476318</t>
   </si>
   <si>
     <t xml:space="preserve">20.5073833465576</t>
@@ -2576,19 +2576,19 @@
     <t xml:space="preserve">21.3800373077393</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9618053436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5739612579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0587692260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0102863311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1072483062744</t>
+    <t xml:space="preserve">21.9618072509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5739593505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0587673187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0102882385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1072463989258</t>
   </si>
   <si>
     <t xml:space="preserve">21.8163642883301</t>
@@ -2597,10 +2597,10 @@
     <t xml:space="preserve">22.1557292938232</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2526912689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4769973754883</t>
+    <t xml:space="preserve">22.2526931762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4769992828369</t>
   </si>
   <si>
     <t xml:space="preserve">21.6224403381348</t>
@@ -2621,7 +2621,7 @@
     <t xml:space="preserve">22.9314231872559</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6890182495117</t>
+    <t xml:space="preserve">22.6890201568604</t>
   </si>
   <si>
     <t xml:space="preserve">22.3011722564697</t>
@@ -2648,7 +2648,7 @@
     <t xml:space="preserve">24.240406036377</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7555980682373</t>
+    <t xml:space="preserve">23.7555961608887</t>
   </si>
   <si>
     <t xml:space="preserve">23.7071151733398</t>
@@ -2681,28 +2681,28 @@
     <t xml:space="preserve">23.9980010986328</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9495220184326</t>
+    <t xml:space="preserve">23.949520111084</t>
   </si>
   <si>
     <t xml:space="preserve">23.3192672729492</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8525581359863</t>
+    <t xml:space="preserve">23.852560043335</t>
   </si>
   <si>
     <t xml:space="preserve">23.1253471374512</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8829441070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5435771942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8648452758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4950942993164</t>
+    <t xml:space="preserve">22.882942199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5435752868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8648433685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.495096206665</t>
   </si>
   <si>
     <t xml:space="preserve">22.4466152191162</t>
@@ -2711,13 +2711,13 @@
     <t xml:space="preserve">24.5312881469727</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1919250488281</t>
+    <t xml:space="preserve">24.1919231414795</t>
   </si>
   <si>
     <t xml:space="preserve">24.7736930847168</t>
   </si>
   <si>
-    <t xml:space="preserve">24.337366104126</t>
+    <t xml:space="preserve">24.3373680114746</t>
   </si>
   <si>
     <t xml:space="preserve">24.1434421539307</t>
@@ -2735,10 +2735,10 @@
     <t xml:space="preserve">26.1796360015869</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1311588287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2765998840332</t>
+    <t xml:space="preserve">26.1311569213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2765979766846</t>
   </si>
   <si>
     <t xml:space="preserve">25.9857139587402</t>
@@ -2759,34 +2759,34 @@
     <t xml:space="preserve">27.6825428009033</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2158317565918</t>
+    <t xml:space="preserve">28.2158298492432</t>
   </si>
   <si>
     <t xml:space="preserve">28.8460826873779</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3127918243408</t>
+    <t xml:space="preserve">28.3127937316895</t>
   </si>
   <si>
     <t xml:space="preserve">28.652156829834</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1188678741455</t>
+    <t xml:space="preserve">28.1188697814941</t>
   </si>
   <si>
     <t xml:space="preserve">27.9734268188477</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0703887939453</t>
+    <t xml:space="preserve">28.0703907012939</t>
   </si>
   <si>
     <t xml:space="preserve">27.87646484375</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5855808258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2946968078613</t>
+    <t xml:space="preserve">27.5855827331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2946949005127</t>
   </si>
   <si>
     <t xml:space="preserve">27.488618850708</t>
@@ -2801,13 +2801,13 @@
     <t xml:space="preserve">27.2648448944092</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5820045471191</t>
+    <t xml:space="preserve">26.5820026397705</t>
   </si>
   <si>
     <t xml:space="preserve">26.1430339813232</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7528400421143</t>
+    <t xml:space="preserve">25.7528381347656</t>
   </si>
   <si>
     <t xml:space="preserve">24.8749027252197</t>
@@ -2816,7 +2816,7 @@
     <t xml:space="preserve">25.0212230682373</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4359340667725</t>
+    <t xml:space="preserve">24.4359321594238</t>
   </si>
   <si>
     <t xml:space="preserve">25.0699996948242</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">25.4114189147949</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7283267974854</t>
+    <t xml:space="preserve">26.7283248901367</t>
   </si>
   <si>
     <t xml:space="preserve">27.1672954559326</t>
@@ -2837,10 +2837,10 @@
     <t xml:space="preserve">26.7771015167236</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2405834197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1918087005615</t>
+    <t xml:space="preserve">26.2405815124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1918106079102</t>
   </si>
   <si>
     <t xml:space="preserve">25.8016147613525</t>
@@ -2864,37 +2864,37 @@
     <t xml:space="preserve">26.2893581390381</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4844551086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9479370117188</t>
+    <t xml:space="preserve">26.4844532012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9479389190674</t>
   </si>
   <si>
     <t xml:space="preserve">25.1675472259521</t>
   </si>
   <si>
-    <t xml:space="preserve">25.996711730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8503875732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3626441955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7773532867432</t>
+    <t xml:space="preserve">25.9967098236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8503894805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3626461029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7773513793945</t>
   </si>
   <si>
     <t xml:space="preserve">23.2653503417969</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0702514648438</t>
+    <t xml:space="preserve">23.0702533721924</t>
   </si>
   <si>
     <t xml:space="preserve">23.9481887817383</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3141231536865</t>
+    <t xml:space="preserve">23.3141250610352</t>
   </si>
   <si>
     <t xml:space="preserve">23.21657371521</t>
@@ -2909,25 +2909,25 @@
     <t xml:space="preserve">22.7288303375244</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2410888671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0947647094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8508930206299</t>
+    <t xml:space="preserve">22.2410869598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0947666168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8508949279785</t>
   </si>
   <si>
     <t xml:space="preserve">22.9239292144775</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1190280914307</t>
+    <t xml:space="preserve">23.119026184082</t>
   </si>
   <si>
     <t xml:space="preserve">22.7776069641113</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3874111175537</t>
+    <t xml:space="preserve">22.3874130249023</t>
   </si>
   <si>
     <t xml:space="preserve">23.4604454040527</t>
@@ -2948,13 +2948,13 @@
     <t xml:space="preserve">20.7778587341309</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7535972595215</t>
+    <t xml:space="preserve">19.7535991668701</t>
   </si>
   <si>
     <t xml:space="preserve">20.4364395141602</t>
   </si>
   <si>
-    <t xml:space="preserve">20.192569732666</t>
+    <t xml:space="preserve">20.1925678253174</t>
   </si>
   <si>
     <t xml:space="preserve">19.1975727081299</t>
@@ -2966,10 +2966,10 @@
     <t xml:space="preserve">18.3586521148682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1100311279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1685600280762</t>
+    <t xml:space="preserve">17.1100330352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1685619354248</t>
   </si>
   <si>
     <t xml:space="preserve">18.2415962219238</t>
@@ -2978,13 +2978,13 @@
     <t xml:space="preserve">18.3781623840332</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7733612060547</t>
+    <t xml:space="preserve">17.7733592987061</t>
   </si>
   <si>
     <t xml:space="preserve">18.5342407226562</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0660095214844</t>
+    <t xml:space="preserve">18.0660076141357</t>
   </si>
   <si>
     <t xml:space="preserve">17.7148303985596</t>
@@ -3008,13 +3008,13 @@
     <t xml:space="preserve">19.0024738311768</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3146286010742</t>
+    <t xml:space="preserve">19.3146305084229</t>
   </si>
   <si>
     <t xml:space="preserve">19.4316883087158</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8511486053467</t>
+    <t xml:space="preserve">19.851146697998</t>
   </si>
   <si>
     <t xml:space="preserve">19.3536491394043</t>
@@ -3026,13 +3026,13 @@
     <t xml:space="preserve">18.8659057617188</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9879703521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8854160308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6317901611328</t>
+    <t xml:space="preserve">17.9879684448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8854179382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6317882537842</t>
   </si>
   <si>
     <t xml:space="preserve">18.9634552001953</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">19.6560497283936</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9974689483643</t>
+    <t xml:space="preserve">19.9974708557129</t>
   </si>
   <si>
     <t xml:space="preserve">19.3731594085693</t>
@@ -3050,10 +3050,10 @@
     <t xml:space="preserve">18.9829635620117</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1585502624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6072769165039</t>
+    <t xml:space="preserve">19.1585521697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6072750091553</t>
   </si>
   <si>
     <t xml:space="preserve">19.5097274780273</t>
@@ -3065,7 +3065,7 @@
     <t xml:space="preserve">17.9489479064941</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3196353912354</t>
+    <t xml:space="preserve">18.3196334838867</t>
   </si>
   <si>
     <t xml:space="preserve">20.0462436676025</t>
@@ -3098,13 +3098,13 @@
     <t xml:space="preserve">23.4116725921631</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6067714691162</t>
+    <t xml:space="preserve">23.6067695617676</t>
   </si>
   <si>
     <t xml:space="preserve">22.8263816833496</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4849605560303</t>
+    <t xml:space="preserve">22.4849586486816</t>
   </si>
   <si>
     <t xml:space="preserve">20.6803112030029</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">20.0950183868408</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4902172088623</t>
+    <t xml:space="preserve">19.4902153015137</t>
   </si>
   <si>
     <t xml:space="preserve">19.0219841003418</t>
@@ -3134,28 +3134,28 @@
     <t xml:space="preserve">18.8268871307373</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7928695678711</t>
+    <t xml:space="preserve">17.7928714752197</t>
   </si>
   <si>
     <t xml:space="preserve">19.0414943695068</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7293376922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4562015533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3001232147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7878665924072</t>
+    <t xml:space="preserve">18.7293395996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4562034606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3001251220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7878684997559</t>
   </si>
   <si>
     <t xml:space="preserve">18.9439449310303</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1780624389648</t>
+    <t xml:space="preserve">19.1780605316162</t>
   </si>
   <si>
     <t xml:space="preserve">18.7683582305908</t>
@@ -3164,34 +3164,34 @@
     <t xml:space="preserve">18.6708087921143</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5147304534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2025756835938</t>
+    <t xml:space="preserve">18.5147323608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2025737762451</t>
   </si>
   <si>
     <t xml:space="preserve">18.8073768615723</t>
   </si>
   <si>
-    <t xml:space="preserve">19.558500289917</t>
+    <t xml:space="preserve">19.5585021972656</t>
   </si>
   <si>
     <t xml:space="preserve">19.0805130004883</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2170810699463</t>
+    <t xml:space="preserve">19.2170829772949</t>
   </si>
   <si>
     <t xml:space="preserve">19.7048263549805</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3976726531982</t>
+    <t xml:space="preserve">18.3976745605469</t>
   </si>
   <si>
     <t xml:space="preserve">17.9294376373291</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1440467834473</t>
+    <t xml:space="preserve">18.1440448760986</t>
   </si>
   <si>
     <t xml:space="preserve">17.8514003753662</t>
@@ -3203,10 +3203,10 @@
     <t xml:space="preserve">18.4757118225098</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8904209136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5587558746338</t>
+    <t xml:space="preserve">17.8904190063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5587539672852</t>
   </si>
   <si>
     <t xml:space="preserve">16.8368949890137</t>
@@ -3221,7 +3221,7 @@
     <t xml:space="preserve">16.4076805114746</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2516021728516</t>
+    <t xml:space="preserve">16.2516040802002</t>
   </si>
   <si>
     <t xml:space="preserve">16.4271907806396</t>
@@ -3233,16 +3233,16 @@
     <t xml:space="preserve">15.7443494796753</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5492525100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9344425201416</t>
+    <t xml:space="preserve">15.5492515563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9344444274902</t>
   </si>
   <si>
     <t xml:space="preserve">16.3296413421631</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9734630584717</t>
+    <t xml:space="preserve">16.973461151123</t>
   </si>
   <si>
     <t xml:space="preserve">17.0905208587646</t>
@@ -3251,7 +3251,7 @@
     <t xml:space="preserve">17.3246383666992</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6563034057617</t>
+    <t xml:space="preserve">17.6563053131104</t>
   </si>
   <si>
     <t xml:space="preserve">17.4612045288086</t>
@@ -3260,16 +3260,16 @@
     <t xml:space="preserve">17.3831672668457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3441486358643</t>
+    <t xml:space="preserve">17.3441467285156</t>
   </si>
   <si>
     <t xml:space="preserve">18.1830654144287</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1195335388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0610046386719</t>
+    <t xml:space="preserve">19.1195316314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0610027313232</t>
   </si>
   <si>
     <t xml:space="preserve">19.8023719787598</t>
@@ -3281,7 +3281,7 @@
     <t xml:space="preserve">20.3876647949219</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9486980438232</t>
+    <t xml:space="preserve">19.9486961364746</t>
   </si>
   <si>
     <t xml:space="preserve">20.8266334533691</t>
@@ -3948,6 +3948,9 @@
   </si>
   <si>
     <t xml:space="preserve">36.0499992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.75</t>
   </si>
 </sst>
 </file>
@@ -60761,7 +60764,7 @@
     </row>
     <row r="2173">
       <c r="A2173" s="1" t="n">
-        <v>45488.6494328704</v>
+        <v>45488.2916666667</v>
       </c>
       <c r="B2173" t="n">
         <v>52777</v>
@@ -60782,6 +60785,32 @@
         <v>1311</v>
       </c>
       <c r="H2173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="1" t="n">
+        <v>45489.6493518519</v>
+      </c>
+      <c r="B2174" t="n">
+        <v>46117</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>35.7999992370605</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>36.0999984741211</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>36.75</v>
+      </c>
+      <c r="G2174" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H2174" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAN.MI.xlsx
+++ b/data/DAN.MI.xlsx
@@ -38,34 +38,34 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8921489715576</t>
+    <t xml:space="preserve">15.8921499252319</t>
   </si>
   <si>
     <t xml:space="preserve">DAN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0230236053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5182180404663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8170909881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4899005889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2094507217407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5646858215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3122844696045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346635818481</t>
+    <t xml:space="preserve">16.0230255126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5182161331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8170928955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4898996353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2094497680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5646867752075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3122825622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346645355225</t>
   </si>
   <si>
     <t xml:space="preserve">13.3587532043457</t>
@@ -77,25 +77,25 @@
     <t xml:space="preserve">13.1343936920166</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5267524719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1998319625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3867979049683</t>
+    <t xml:space="preserve">12.5267515182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1998329162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3867988586426</t>
   </si>
   <si>
     <t xml:space="preserve">16.2006454467773</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3595657348633</t>
+    <t xml:space="preserve">16.3595638275146</t>
   </si>
   <si>
     <t xml:space="preserve">16.6400146484375</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3969612121582</t>
+    <t xml:space="preserve">16.3969593048096</t>
   </si>
   <si>
     <t xml:space="preserve">16.6774063110352</t>
@@ -104,13 +104,13 @@
     <t xml:space="preserve">17.4439716339111</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9204654693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.770622253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4156532287598</t>
+    <t xml:space="preserve">16.9204616546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.770619392395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4156551361084</t>
   </si>
   <si>
     <t xml:space="preserve">15.602352142334</t>
@@ -122,34 +122,34 @@
     <t xml:space="preserve">15.2377653121948</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6490907669067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3966875076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2938566207886</t>
+    <t xml:space="preserve">15.6490936279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3966865539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2938556671143</t>
   </si>
   <si>
     <t xml:space="preserve">16.2193412780762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5465316772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0887355804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2476558685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3878803253174</t>
+    <t xml:space="preserve">16.5465335845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0887336730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2476539611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3878765106201</t>
   </si>
   <si>
     <t xml:space="preserve">17.2943992614746</t>
   </si>
   <si>
-    <t xml:space="preserve">17.032642364502</t>
+    <t xml:space="preserve">17.0326404571533</t>
   </si>
   <si>
     <t xml:space="preserve">16.6680603027344</t>
@@ -158,13 +158,13 @@
     <t xml:space="preserve">16.658712387085</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1541728973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9578552246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5094108581543</t>
+    <t xml:space="preserve">17.1541709899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9578590393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5094089508057</t>
   </si>
   <si>
     <t xml:space="preserve">17.6402854919434</t>
@@ -173,61 +173,61 @@
     <t xml:space="preserve">17.7057247161865</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7711639404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8550262451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5561485290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8552951812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2009124755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5935401916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7992076873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3411407470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5278339385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8737201690674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2663536071777</t>
+    <t xml:space="preserve">17.7711620330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8550281524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.55615234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.855297088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2009162902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.593542098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7992095947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.341136932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5278358459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.873722076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2663497924805</t>
   </si>
   <si>
     <t xml:space="preserve">17.6215877532959</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8924179077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8456783294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4533195495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9020366668701</t>
+    <t xml:space="preserve">16.8924217224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8456764221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4533214569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9020385742188</t>
   </si>
   <si>
     <t xml:space="preserve">17.9768257141113</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7431163787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2105331420898</t>
+    <t xml:space="preserve">17.7431182861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2105312347412</t>
   </si>
   <si>
     <t xml:space="preserve">18.4629364013672</t>
@@ -242,13 +242,13 @@
     <t xml:space="preserve">17.9394302368164</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6966419219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7620830535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7901268005371</t>
+    <t xml:space="preserve">18.6966457366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7620849609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7901306152344</t>
   </si>
   <si>
     <t xml:space="preserve">18.4442405700684</t>
@@ -257,10 +257,10 @@
     <t xml:space="preserve">18.6779479980469</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3788013458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2385787963867</t>
+    <t xml:space="preserve">18.3788032531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2385768890381</t>
   </si>
   <si>
     <t xml:space="preserve">17.8085536956787</t>
@@ -269,184 +269,184 @@
     <t xml:space="preserve">17.4813632965088</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8272533416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5000591278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4065780639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0980854034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1635208129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8830680847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6306648254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4623966217041</t>
+    <t xml:space="preserve">17.8272514343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5000610351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4065761566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0980815887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1635227203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8830718994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6306667327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4623928070068</t>
   </si>
   <si>
     <t xml:space="preserve">16.5652275085449</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0700359344482</t>
+    <t xml:space="preserve">17.0700378417969</t>
   </si>
   <si>
     <t xml:space="preserve">16.7708911895752</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7334976196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4810924530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6963748931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8363304138184</t>
+    <t xml:space="preserve">16.7334957122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4810905456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6963729858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.836332321167</t>
   </si>
   <si>
     <t xml:space="preserve">16.8176326751709</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5748443603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3224411010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3691844940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1165103912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.153902053833</t>
+    <t xml:space="preserve">17.5748481750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3224430084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3691825866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1165065765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1539001464844</t>
   </si>
   <si>
     <t xml:space="preserve">15.2471122741699</t>
   </si>
   <si>
-    <t xml:space="preserve">15.050799369812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3592939376831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6303949356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2660808563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2751598358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7329568862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.172327041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8077421188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9666652679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7051801681519</t>
+    <t xml:space="preserve">15.0508003234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3592948913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6303939819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2660827636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2751588821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7329578399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1723260879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8077430725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.96666431427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7051820755005</t>
   </si>
   <si>
     <t xml:space="preserve">15.3218994140625</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9105749130249</t>
+    <t xml:space="preserve">14.9105739593506</t>
   </si>
   <si>
     <t xml:space="preserve">14.2748899459839</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5366411209106</t>
+    <t xml:space="preserve">14.536642074585</t>
   </si>
   <si>
     <t xml:space="preserve">14.9386186599731</t>
   </si>
   <si>
-    <t xml:space="preserve">15.695837020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6117000579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7986621856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5462589263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6210441589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5930042266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6771373748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4530467987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9201936721802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6864862442017</t>
+    <t xml:space="preserve">15.6958332061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6116991043091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7986650466919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5462617874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6210479736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5930013656616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6771402359009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4530487060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9201927185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6864852905273</t>
   </si>
   <si>
     <t xml:space="preserve">16.4343509674072</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1352062225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3876113891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.490442276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3782653808594</t>
+    <t xml:space="preserve">16.1352043151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3876075744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4904403686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3782615661621</t>
   </si>
   <si>
     <t xml:space="preserve">16.2941303253174</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4720153808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1354732513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9298133850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9672031402588</t>
+    <t xml:space="preserve">17.472017288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1354751586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9298114776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9672069549561</t>
   </si>
   <si>
     <t xml:space="preserve">17.9487819671631</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4907112121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3598365783691</t>
+    <t xml:space="preserve">17.4907093048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3598346710205</t>
   </si>
   <si>
     <t xml:space="preserve">17.5281085968018</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">17.6683292388916</t>
   </si>
   <si>
-    <t xml:space="preserve">16.406307220459</t>
+    <t xml:space="preserve">16.4063034057617</t>
   </si>
   <si>
     <t xml:space="preserve">16.0884628295898</t>
@@ -464,85 +464,85 @@
     <t xml:space="preserve">16.0604190826416</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1258602142334</t>
+    <t xml:space="preserve">16.1258563995361</t>
   </si>
   <si>
     <t xml:space="preserve">16.2567310333252</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9388914108276</t>
+    <t xml:space="preserve">15.9388885498047</t>
   </si>
   <si>
     <t xml:space="preserve">15.9669351577759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8641042709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7893180847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9108457565308</t>
+    <t xml:space="preserve">15.8641004562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7893152236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9108467102051</t>
   </si>
   <si>
     <t xml:space="preserve">16.3408660888672</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0232944488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3689136505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8360595703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8454065322876</t>
+    <t xml:space="preserve">17.0232925415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3689117431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8360605239868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8454055786133</t>
   </si>
   <si>
     <t xml:space="preserve">16.0043315887451</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6584396362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4527788162231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5280208587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6032629013062</t>
+    <t xml:space="preserve">15.6584424972534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4527769088745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5280199050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6032609939575</t>
   </si>
   <si>
     <t xml:space="preserve">15.8477973937988</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9324436187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0923347473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.819580078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2646741867065</t>
+    <t xml:space="preserve">15.932445526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0923328399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8195810317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2646722793579</t>
   </si>
   <si>
     <t xml:space="preserve">15.6220731735229</t>
   </si>
   <si>
-    <t xml:space="preserve">15.716121673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7067203521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3493185043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0641174316406</t>
+    <t xml:space="preserve">15.7161254882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7067193984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3493213653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.064115524292</t>
   </si>
   <si>
     <t xml:space="preserve">16.5343780517578</t>
@@ -551,82 +551,82 @@
     <t xml:space="preserve">16.1299533843994</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6879110336304</t>
+    <t xml:space="preserve">15.6879072189331</t>
   </si>
   <si>
     <t xml:space="preserve">15.8007707595825</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5092086791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0829257965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2522220611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0359020233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7883186340332</t>
+    <t xml:space="preserve">15.5092105865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0829296112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2522201538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0359001159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7883205413818</t>
   </si>
   <si>
     <t xml:space="preserve">17.3996601104736</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4749011993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3526344299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4372787475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.239767074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1645259857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6942653656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3056049346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1175003051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3808498382568</t>
+    <t xml:space="preserve">17.4748992919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3526306152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4372806549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2397689819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1645278930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6942672729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.305606842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.117504119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3808479309082</t>
   </si>
   <si>
     <t xml:space="preserve">17.9639720916748</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1238594055176</t>
+    <t xml:space="preserve">18.1238613128662</t>
   </si>
   <si>
     <t xml:space="preserve">18.1614818572998</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1050491333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6599540710449</t>
+    <t xml:space="preserve">18.1050510406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6599559783936</t>
   </si>
   <si>
     <t xml:space="preserve">19.1396255493164</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1866493225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7979869842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8732299804688</t>
+    <t xml:space="preserve">19.186653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7979888916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8732318878174</t>
   </si>
   <si>
     <t xml:space="preserve">19.3559436798096</t>
@@ -635,7 +635,7 @@
     <t xml:space="preserve">19.1490306854248</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7039356231689</t>
+    <t xml:space="preserve">19.7039375305176</t>
   </si>
   <si>
     <t xml:space="preserve">19.572265625</t>
@@ -644,19 +644,19 @@
     <t xml:space="preserve">19.421781539917</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3183250427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0925941467285</t>
+    <t xml:space="preserve">19.3183269500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0925979614258</t>
   </si>
   <si>
     <t xml:space="preserve">19.2524871826172</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1772422790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.167839050293</t>
+    <t xml:space="preserve">19.1772441864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1678409576416</t>
   </si>
   <si>
     <t xml:space="preserve">18.9891414642334</t>
@@ -671,13 +671,13 @@
     <t xml:space="preserve">18.3401794433594</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6881771087646</t>
+    <t xml:space="preserve">18.6881732940674</t>
   </si>
   <si>
     <t xml:space="preserve">18.7634162902832</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6975784301758</t>
+    <t xml:space="preserve">18.6975803375244</t>
   </si>
   <si>
     <t xml:space="preserve">18.6035289764404</t>
@@ -689,7 +689,7 @@
     <t xml:space="preserve">18.5094738006592</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5564994812012</t>
+    <t xml:space="preserve">18.5565013885498</t>
   </si>
   <si>
     <t xml:space="preserve">18.7446041107178</t>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">18.8480625152588</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8574676513672</t>
+    <t xml:space="preserve">18.8574657440186</t>
   </si>
   <si>
     <t xml:space="preserve">18.9609241485596</t>
@@ -713,10 +713,10 @@
     <t xml:space="preserve">19.3277282714844</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3653469085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.609884262085</t>
+    <t xml:space="preserve">19.365348815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6098861694336</t>
   </si>
   <si>
     <t xml:space="preserve">19.6945323944092</t>
@@ -737,52 +737,52 @@
     <t xml:space="preserve">19.4594020843506</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5910778045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2712955474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4688091278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6286945343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.525239944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.164794921875</t>
+    <t xml:space="preserve">19.5910758972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2712993621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.468807220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.628698348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5252380371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1647930145264</t>
   </si>
   <si>
     <t xml:space="preserve">20.258846282959</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6350555419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8795928955078</t>
+    <t xml:space="preserve">20.6350536346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8795909881592</t>
   </si>
   <si>
     <t xml:space="preserve">21.1147212982178</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2275829315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2087707519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3999252319336</t>
+    <t xml:space="preserve">21.2275810241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2087726593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.399923324585</t>
   </si>
   <si>
     <t xml:space="preserve">20.8701858520508</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6444625854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5033779144287</t>
+    <t xml:space="preserve">20.6444606781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.503381729126</t>
   </si>
   <si>
     <t xml:space="preserve">20.8325634002686</t>
@@ -791,37 +791,37 @@
     <t xml:space="preserve">20.9078063964844</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8607788085938</t>
+    <t xml:space="preserve">20.8607807159424</t>
   </si>
   <si>
     <t xml:space="preserve">20.7573204040527</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7855396270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9172115325928</t>
+    <t xml:space="preserve">20.7855377197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9172096252441</t>
   </si>
   <si>
     <t xml:space="preserve">20.7385120391846</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0771007537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1241245269775</t>
+    <t xml:space="preserve">21.0770969390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1241264343262</t>
   </si>
   <si>
     <t xml:space="preserve">20.7102966308594</t>
   </si>
   <si>
-    <t xml:space="preserve">21.039478302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9141635894775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7636814117432</t>
+    <t xml:space="preserve">21.0394802093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9141654968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7636795043945</t>
   </si>
   <si>
     <t xml:space="preserve">21.6320095062256</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">21.3874702453613</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1899642944336</t>
+    <t xml:space="preserve">21.189962387085</t>
   </si>
   <si>
     <t xml:space="preserve">21.5379543304443</t>
@@ -845,16 +845,16 @@
     <t xml:space="preserve">21.3686618804932</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6131992340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4909324645996</t>
+    <t xml:space="preserve">21.6131973266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.490930557251</t>
   </si>
   <si>
     <t xml:space="preserve">20.8983993530273</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4345016479492</t>
+    <t xml:space="preserve">21.4344997406006</t>
   </si>
   <si>
     <t xml:space="preserve">21.2181777954102</t>
@@ -869,73 +869,73 @@
     <t xml:space="preserve">21.5097408294678</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6037902832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.54736328125</t>
+    <t xml:space="preserve">21.6037921905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5473594665527</t>
   </si>
   <si>
     <t xml:space="preserve">21.1993675231934</t>
   </si>
   <si>
-    <t xml:space="preserve">21.443904876709</t>
+    <t xml:space="preserve">21.4439029693604</t>
   </si>
   <si>
     <t xml:space="preserve">20.99245262146</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5692195892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6538639068604</t>
+    <t xml:space="preserve">20.5692176818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.653865814209</t>
   </si>
   <si>
     <t xml:space="preserve">20.6632709503174</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5786209106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8889942169189</t>
+    <t xml:space="preserve">20.5786228179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8889961242676</t>
   </si>
   <si>
     <t xml:space="preserve">20.5315971374512</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2964687347412</t>
+    <t xml:space="preserve">20.2964649200439</t>
   </si>
   <si>
     <t xml:space="preserve">20.4657611846924</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0425262451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.155387878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5221920013428</t>
+    <t xml:space="preserve">20.0425243377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1553897857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5221900939941</t>
   </si>
   <si>
     <t xml:space="preserve">20.550407409668</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8043479919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6914882659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2024154663086</t>
+    <t xml:space="preserve">20.804349899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6914863586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.20241355896</t>
   </si>
   <si>
     <t xml:space="preserve">20.0801467895508</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1365756988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9672832489014</t>
+    <t xml:space="preserve">20.1365776062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.96728515625</t>
   </si>
   <si>
     <t xml:space="preserve">20.1742000579834</t>
@@ -944,31 +944,31 @@
     <t xml:space="preserve">20.3246822357178</t>
   </si>
   <si>
-    <t xml:space="preserve">20.249439239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3623046875</t>
+    <t xml:space="preserve">20.2494411468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3623027801514</t>
   </si>
   <si>
     <t xml:space="preserve">19.920259475708</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9266166687012</t>
+    <t xml:space="preserve">20.9266185760498</t>
   </si>
   <si>
     <t xml:space="preserve">20.4939765930176</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2212257385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9766902923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6726741790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3811111450195</t>
+    <t xml:space="preserve">20.2212219238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9766883850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6726760864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3811149597168</t>
   </si>
   <si>
     <t xml:space="preserve">20.747917175293</t>
@@ -977,7 +977,7 @@
     <t xml:space="preserve">21.1053161621094</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5974349975586</t>
+    <t xml:space="preserve">20.59743309021</t>
   </si>
   <si>
     <t xml:space="preserve">20.8231582641602</t>
@@ -989,55 +989,55 @@
     <t xml:space="preserve">21.4627113342285</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9830493927002</t>
+    <t xml:space="preserve">20.9830474853516</t>
   </si>
   <si>
     <t xml:space="preserve">20.7291088104248</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5880279541016</t>
+    <t xml:space="preserve">20.5880298614502</t>
   </si>
   <si>
     <t xml:space="preserve">20.6256484985352</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1271705627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0895538330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0143127441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2306270599365</t>
+    <t xml:space="preserve">20.1271724700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0895500183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0143089294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2306308746338</t>
   </si>
   <si>
     <t xml:space="preserve">20.3434944152832</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7761306762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2400341033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7791805267334</t>
+    <t xml:space="preserve">20.7761344909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2400360107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7791786193848</t>
   </si>
   <si>
     <t xml:space="preserve">19.4970226287842</t>
   </si>
   <si>
-    <t xml:space="preserve">19.01735496521</t>
+    <t xml:space="preserve">19.0173568725586</t>
   </si>
   <si>
     <t xml:space="preserve">19.0737895965576</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8668746948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2336769104004</t>
+    <t xml:space="preserve">18.8668727874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2336750030518</t>
   </si>
   <si>
     <t xml:space="preserve">18.9138984680176</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">18.8950881958008</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6693668365479</t>
+    <t xml:space="preserve">18.6693630218506</t>
   </si>
   <si>
     <t xml:space="preserve">19.0455722808838</t>
@@ -1061,70 +1061,70 @@
     <t xml:space="preserve">19.2147750854492</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1864147186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7611064910889</t>
+    <t xml:space="preserve">19.1864185333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7611045837402</t>
   </si>
   <si>
     <t xml:space="preserve">18.5342712402344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1278553009033</t>
+    <t xml:space="preserve">18.1278591156006</t>
   </si>
   <si>
     <t xml:space="preserve">18.0711498260498</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8632164001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8915710449219</t>
+    <t xml:space="preserve">17.8632183074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8915748596191</t>
   </si>
   <si>
     <t xml:space="preserve">18.1656627655029</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1184043884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1940155029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4964618682861</t>
+    <t xml:space="preserve">18.118408203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.194019317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4964637756348</t>
   </si>
   <si>
     <t xml:space="preserve">18.6949443817139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8178100585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6382350921631</t>
+    <t xml:space="preserve">18.817813873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6382331848145</t>
   </si>
   <si>
     <t xml:space="preserve">18.3924980163574</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7232971191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5909805297852</t>
+    <t xml:space="preserve">18.7232990264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5909767150879</t>
   </si>
   <si>
     <t xml:space="preserve">18.4492073059082</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9028739929199</t>
+    <t xml:space="preserve">18.9028778076172</t>
   </si>
   <si>
     <t xml:space="preserve">19.0068416595459</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9312286376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9217777252197</t>
+    <t xml:space="preserve">18.9312305450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.921781539917</t>
   </si>
   <si>
     <t xml:space="preserve">18.8461666107178</t>
@@ -1142,79 +1142,79 @@
     <t xml:space="preserve">18.7138481140137</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7043972015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.893424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9406814575195</t>
+    <t xml:space="preserve">18.7043952941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8934268951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9406795501709</t>
   </si>
   <si>
     <t xml:space="preserve">18.8272647857666</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6193332672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7327480316162</t>
+    <t xml:space="preserve">18.6193370819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7327499389648</t>
   </si>
   <si>
     <t xml:space="preserve">19.1391620635986</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4227027893066</t>
+    <t xml:space="preserve">19.4227046966553</t>
   </si>
   <si>
     <t xml:space="preserve">19.7062473297119</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9897899627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7931652069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5492782592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.832820892334</t>
+    <t xml:space="preserve">19.9897918701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7931613922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5492763519287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8328227996826</t>
   </si>
   <si>
     <t xml:space="preserve">21.7855644226074</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6437911987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8800773620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7383079528809</t>
+    <t xml:space="preserve">21.6437931060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8800792694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7383060455322</t>
   </si>
   <si>
     <t xml:space="preserve">22.0218486785889</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0691070556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2657356262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6986484527588</t>
+    <t xml:space="preserve">22.0691089630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2657337188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6986465454102</t>
   </si>
   <si>
     <t xml:space="preserve">21.3129901885986</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8876781463623</t>
+    <t xml:space="preserve">20.8876762390137</t>
   </si>
   <si>
     <t xml:space="preserve">21.0294494628906</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9821949005127</t>
+    <t xml:space="preserve">20.9821929931641</t>
   </si>
   <si>
     <t xml:space="preserve">21.3602504730225</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">21.4547653198242</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4075050354004</t>
+    <t xml:space="preserve">21.4075088500977</t>
   </si>
   <si>
     <t xml:space="preserve">21.1239624023438</t>
@@ -1235,25 +1235,25 @@
     <t xml:space="preserve">21.9745941162109</t>
   </si>
   <si>
-    <t xml:space="preserve">22.494421005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1636219024658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3526496887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2581348419189</t>
+    <t xml:space="preserve">22.4944190979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1636257171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3526515960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2581367492676</t>
   </si>
   <si>
     <t xml:space="preserve">21.0767059326172</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5020217895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5568790435791</t>
+    <t xml:space="preserve">21.5020198822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5568809509277</t>
   </si>
   <si>
     <t xml:space="preserve">20.4623641967773</t>
@@ -1265,7 +1265,7 @@
     <t xml:space="preserve">20.8404197692871</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2184772491455</t>
+    <t xml:space="preserve">21.2184791564941</t>
   </si>
   <si>
     <t xml:space="preserve">21.5965366363525</t>
@@ -1274,37 +1274,37 @@
     <t xml:space="preserve">20.6513919830322</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7459087371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.367847442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2809314727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3754463195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5644779205322</t>
+    <t xml:space="preserve">20.745906829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3678493499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.280933380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3754482269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5644760131836</t>
   </si>
   <si>
     <t xml:space="preserve">20.0370483398438</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8480186462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6041316986084</t>
+    <t xml:space="preserve">19.8480205535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6041355133057</t>
   </si>
   <si>
     <t xml:space="preserve">20.5096206665039</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2260761260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4151039123535</t>
+    <t xml:space="preserve">20.2260780334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4151058197021</t>
   </si>
   <si>
     <t xml:space="preserve">20.2733345031738</t>
@@ -1313,34 +1313,34 @@
     <t xml:space="preserve">20.1315612792969</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1788196563721</t>
+    <t xml:space="preserve">20.1788215637207</t>
   </si>
   <si>
     <t xml:space="preserve">19.6589889526367</t>
   </si>
   <si>
-    <t xml:space="preserve">19.800760269165</t>
+    <t xml:space="preserve">19.8007640838623</t>
   </si>
   <si>
     <t xml:space="preserve">19.7535057067871</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8952732086182</t>
+    <t xml:space="preserve">19.8952751159668</t>
   </si>
   <si>
     <t xml:space="preserve">19.942533493042</t>
   </si>
   <si>
-    <t xml:space="preserve">19.517219543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4699630737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6117305755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0843029022217</t>
+    <t xml:space="preserve">19.5172176361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4699611663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6117343902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0843067169189</t>
   </si>
   <si>
     <t xml:space="preserve">21.6910514831543</t>
@@ -1349,25 +1349,25 @@
     <t xml:space="preserve">20.3205909729004</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9388275146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5003595352173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8973178863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9521751403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6497297286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9899816513062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5948734283447</t>
+    <t xml:space="preserve">17.9388313293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5003576278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8973197937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9521760940552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6497278213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9899806976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5948715209961</t>
   </si>
   <si>
     <t xml:space="preserve">15.8217058181763</t>
@@ -1376,10 +1376,10 @@
     <t xml:space="preserve">16.1997623443604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7271909713745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5192632675171</t>
+    <t xml:space="preserve">15.7271919250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5192613601685</t>
   </si>
   <si>
     <t xml:space="preserve">15.6515808105469</t>
@@ -1388,28 +1388,28 @@
     <t xml:space="preserve">16.0674438476562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9918336868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8595142364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7839031219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5759706497192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1979112625122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0457429885864</t>
+    <t xml:space="preserve">15.9918346405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8595132827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7839012145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5759696960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1979122161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0457439422607</t>
   </si>
   <si>
     <t xml:space="preserve">14.760425567627</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5892353057861</t>
+    <t xml:space="preserve">14.5892343521118</t>
   </si>
   <si>
     <t xml:space="preserve">14.6272773742676</t>
@@ -1418,22 +1418,22 @@
     <t xml:space="preserve">15.1028060913086</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1218271255493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8365106582642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3310613632202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6353988647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.464207649231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2468547821045</t>
+    <t xml:space="preserve">15.1218280792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8365116119385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3310623168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6354007720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4642095565796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2468538284302</t>
   </si>
   <si>
     <t xml:space="preserve">14.0946846008301</t>
@@ -1448,10 +1448,10 @@
     <t xml:space="preserve">14.5131511688232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3419589996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3229389190674</t>
+    <t xml:space="preserve">14.3419599533081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3229398727417</t>
   </si>
   <si>
     <t xml:space="preserve">14.3990240097046</t>
@@ -1463,22 +1463,22 @@
     <t xml:space="preserve">13.8093671798706</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7903461456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9615354537964</t>
+    <t xml:space="preserve">13.7903451919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.961537361145</t>
   </si>
   <si>
     <t xml:space="preserve">14.2278327941895</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3800029754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7033615112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9316158294678</t>
+    <t xml:space="preserve">14.3800020217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7033624649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9316167831421</t>
   </si>
   <si>
     <t xml:space="preserve">15.4071474075317</t>
@@ -1487,88 +1487,88 @@
     <t xml:space="preserve">15.3120403289795</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2169342041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.254976272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0837860107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2930173873901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3500814437866</t>
+    <t xml:space="preserve">15.2169332504272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2549772262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0837850570679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2930183410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3500823974609</t>
   </si>
   <si>
     <t xml:space="preserve">15.3881235122681</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7305059432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1679916381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0239448547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1000289916992</t>
+    <t xml:space="preserve">15.730507850647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.167989730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0239429473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1000308990479</t>
   </si>
   <si>
     <t xml:space="preserve">17.1190509796143</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7005825042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6244983673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4723300933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5674343109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1870136260986</t>
+    <t xml:space="preserve">16.7005844116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6245002746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4723320007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5674381256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.18701171875</t>
   </si>
   <si>
     <t xml:space="preserve">16.072883605957</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0158214569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.339183807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3582038879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4533081054688</t>
+    <t xml:space="preserve">16.0158233642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3391819000244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3582019805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4533100128174</t>
   </si>
   <si>
     <t xml:space="preserve">16.8337345123291</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7196044921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4913539886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6435222625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6625442504883</t>
+    <t xml:space="preserve">16.7196063995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4913501739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6435203552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6625423431396</t>
   </si>
   <si>
     <t xml:space="preserve">16.4342880249023</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8147106170654</t>
+    <t xml:space="preserve">16.8147125244141</t>
   </si>
   <si>
     <t xml:space="preserve">16.9288387298584</t>
@@ -1577,22 +1577,22 @@
     <t xml:space="preserve">16.6815662384033</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5293941497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0538654327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1489734649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1299495697021</t>
+    <t xml:space="preserve">16.5293960571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0538635253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1489715576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1299476623535</t>
   </si>
   <si>
     <t xml:space="preserve">16.320161819458</t>
   </si>
   <si>
-    <t xml:space="preserve">16.206033706665</t>
+    <t xml:space="preserve">16.2060356140137</t>
   </si>
   <si>
     <t xml:space="preserve">16.5484142303467</t>
@@ -1601,58 +1601,58 @@
     <t xml:space="preserve">16.6054782867432</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7386264801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9859027862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1570930480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6896839141846</t>
+    <t xml:space="preserve">16.7386283874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9859046936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1570949554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6896858215332</t>
   </si>
   <si>
     <t xml:space="preserve">18.5075950622559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4885730743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.469554901123</t>
+    <t xml:space="preserve">18.4885749816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4695529937744</t>
   </si>
   <si>
     <t xml:space="preserve">18.336404800415</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7467498779297</t>
+    <t xml:space="preserve">17.7467479705811</t>
   </si>
   <si>
     <t xml:space="preserve">17.3473033905029</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2141590118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1951351165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9478607177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8527545928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1761112213135</t>
+    <t xml:space="preserve">17.2141571044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1951332092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9478588104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8527526855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1761131286621</t>
   </si>
   <si>
     <t xml:space="preserve">17.0429668426514</t>
   </si>
   <si>
-    <t xml:space="preserve">17.27121925354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.366325378418</t>
+    <t xml:space="preserve">17.2712173461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3663272857666</t>
   </si>
   <si>
     <t xml:space="preserve">17.4424095153809</t>
@@ -1661,31 +1661,31 @@
     <t xml:space="preserve">16.9668807983398</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4152679443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6924629211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.711483001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6544198989868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3691034317017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8745536804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9886798858643</t>
+    <t xml:space="preserve">16.4152698516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6924619674683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7114839553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6544179916382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3691024780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8745527267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9886808395386</t>
   </si>
   <si>
     <t xml:space="preserve">15.2739973068237</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9506378173828</t>
+    <t xml:space="preserve">14.9506368637085</t>
   </si>
   <si>
     <t xml:space="preserve">15.1598691940308</t>
@@ -1694,52 +1694,52 @@
     <t xml:space="preserve">15.0267219543457</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6843414306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8555307388306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.551194190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.007700920105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7414054870605</t>
+    <t xml:space="preserve">14.6843404769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8555316925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5511932373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0076999664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7414035797119</t>
   </si>
   <si>
     <t xml:space="preserve">14.6462984085083</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8174896240234</t>
+    <t xml:space="preserve">14.8174886703491</t>
   </si>
   <si>
     <t xml:space="preserve">15.7685480117798</t>
   </si>
   <si>
-    <t xml:space="preserve">15.597357749939</t>
+    <t xml:space="preserve">15.5973558425903</t>
   </si>
   <si>
     <t xml:space="preserve">15.5783348083496</t>
   </si>
   <si>
-    <t xml:space="preserve">15.863655090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4261655807495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7875709533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.616379737854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5212707519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2359552383423</t>
+    <t xml:space="preserve">15.8636531829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4261665344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7875699996948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6163778305054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5212717056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.235954284668</t>
   </si>
   <si>
     <t xml:space="preserve">15.0647640228271</t>
@@ -1751,16 +1751,16 @@
     <t xml:space="preserve">14.9696578979492</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7984676361084</t>
+    <t xml:space="preserve">14.7984685897827</t>
   </si>
   <si>
     <t xml:space="preserve">14.4751091003418</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4560861587524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2658739089966</t>
+    <t xml:space="preserve">14.4560871124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2658758163452</t>
   </si>
   <si>
     <t xml:space="preserve">14.0756635665894</t>
@@ -1775,10 +1775,10 @@
     <t xml:space="preserve">14.437066078186</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9805583953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0186004638672</t>
+    <t xml:space="preserve">13.9805574417114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0185995101929</t>
   </si>
   <si>
     <t xml:space="preserve">14.2088108062744</t>
@@ -1787,10 +1787,10 @@
     <t xml:space="preserve">14.1137056350708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.418044090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1897897720337</t>
+    <t xml:space="preserve">14.4180450439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.189790725708</t>
   </si>
   <si>
     <t xml:space="preserve">14.779447555542</t>
@@ -1799,85 +1799,85 @@
     <t xml:space="preserve">14.170768737793</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5593147277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3609809875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2848978042603</t>
+    <t xml:space="preserve">15.5593156814575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3609828948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2848958969116</t>
   </si>
   <si>
     <t xml:space="preserve">14.665319442749</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1788921356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4832315444946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2640390396118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2448387145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0912389755249</t>
+    <t xml:space="preserve">15.1788902282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.483229637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2640380859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2448396682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0912380218506</t>
   </si>
   <si>
     <t xml:space="preserve">14.9952383041382</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0720386505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5712404251099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8784408569336</t>
+    <t xml:space="preserve">15.0720376968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5712394714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8784437179565</t>
   </si>
   <si>
     <t xml:space="preserve">16.6656436920166</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5312404632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8976402282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8592405319214</t>
+    <t xml:space="preserve">16.5312423706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8976392745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8592395782471</t>
   </si>
   <si>
     <t xml:space="preserve">15.7248401641846</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7440404891968</t>
+    <t xml:space="preserve">15.7440395355225</t>
   </si>
   <si>
     <t xml:space="preserve">15.6480388641357</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9552392959595</t>
+    <t xml:space="preserve">15.9552402496338</t>
   </si>
   <si>
     <t xml:space="preserve">15.9936418533325</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3776416778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9168405532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8016386032104</t>
+    <t xml:space="preserve">16.3776397705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9168386459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8016376495361</t>
   </si>
   <si>
     <t xml:space="preserve">15.8400392532349</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2432403564453</t>
+    <t xml:space="preserve">16.2432422637939</t>
   </si>
   <si>
     <t xml:space="preserve">16.1856422424316</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">15.6288394927979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7824411392212</t>
+    <t xml:space="preserve">15.7824420928955</t>
   </si>
   <si>
     <t xml:space="preserve">15.4368391036987</t>
@@ -1910,16 +1910,16 @@
     <t xml:space="preserve">15.3984413146973</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9376392364502</t>
+    <t xml:space="preserve">14.9376382827759</t>
   </si>
   <si>
     <t xml:space="preserve">15.1296396255493</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6880369186401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2080364227295</t>
+    <t xml:space="preserve">14.6880378723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2080354690552</t>
   </si>
   <si>
     <t xml:space="preserve">14.1120357513428</t>
@@ -1931,13 +1931,13 @@
     <t xml:space="preserve">14.7840375900269</t>
   </si>
   <si>
-    <t xml:space="preserve">14.976037979126</t>
+    <t xml:space="preserve">14.9760389328003</t>
   </si>
   <si>
     <t xml:space="preserve">14.7648372650146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5728378295898</t>
+    <t xml:space="preserve">14.5728368759155</t>
   </si>
   <si>
     <t xml:space="preserve">14.6112375259399</t>
@@ -1946,13 +1946,13 @@
     <t xml:space="preserve">14.8032379150391</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5152359008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4576377868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2272367477417</t>
+    <t xml:space="preserve">14.5152368545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4576368331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2272357940674</t>
   </si>
   <si>
     <t xml:space="preserve">13.862434387207</t>
@@ -1961,7 +1961,7 @@
     <t xml:space="preserve">13.3056325912476</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1712331771851</t>
+    <t xml:space="preserve">13.1712341308594</t>
   </si>
   <si>
     <t xml:space="preserve">13.5360355377197</t>
@@ -1973,7 +1973,7 @@
     <t xml:space="preserve">12.9600324630737</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5760335922241</t>
+    <t xml:space="preserve">12.5760316848755</t>
   </si>
   <si>
     <t xml:space="preserve">12.3264312744141</t>
@@ -2000,10 +2000,10 @@
     <t xml:space="preserve">9.02402305603027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5328254699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19842052459717</t>
+    <t xml:space="preserve">9.53282451629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19842147827148</t>
   </si>
   <si>
     <t xml:space="preserve">8.65922355651855</t>
@@ -2012,7 +2012,7 @@
     <t xml:space="preserve">9.21602439880371</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2912254333496</t>
+    <t xml:space="preserve">10.2912273406982</t>
   </si>
   <si>
     <t xml:space="preserve">10.8864278793335</t>
@@ -2024,16 +2024,16 @@
     <t xml:space="preserve">13.0560340881348</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7504291534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0976285934448</t>
+    <t xml:space="preserve">11.7504301071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0976295471191</t>
   </si>
   <si>
     <t xml:space="preserve">11.0592288970947</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7712278366089</t>
+    <t xml:space="preserve">10.7712268829346</t>
   </si>
   <si>
     <t xml:space="preserve">10.1952266693115</t>
@@ -2057,7 +2057,7 @@
     <t xml:space="preserve">10.7136278152466</t>
   </si>
   <si>
-    <t xml:space="preserve">10.329626083374</t>
+    <t xml:space="preserve">10.3296270370483</t>
   </si>
   <si>
     <t xml:space="preserve">10.0032262802124</t>
@@ -2066,10 +2066,10 @@
     <t xml:space="preserve">10.3488264083862</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6368274688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5600271224976</t>
+    <t xml:space="preserve">10.6368265151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5600261688232</t>
   </si>
   <si>
     <t xml:space="preserve">10.9056282043457</t>
@@ -2084,16 +2084,16 @@
     <t xml:space="preserve">10.9440269470215</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9632272720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6752281188965</t>
+    <t xml:space="preserve">10.963228225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6752271652222</t>
   </si>
   <si>
     <t xml:space="preserve">11.1360282897949</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0784273147583</t>
+    <t xml:space="preserve">11.0784282684326</t>
   </si>
   <si>
     <t xml:space="preserve">11.6352291107178</t>
@@ -2102,10 +2102,10 @@
     <t xml:space="preserve">11.7120304107666</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1936292648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5584287643433</t>
+    <t xml:space="preserve">11.1936283111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5584297180176</t>
   </si>
   <si>
     <t xml:space="preserve">11.6544303894043</t>
@@ -2114,25 +2114,25 @@
     <t xml:space="preserve">11.9424304962158</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1536302566528</t>
+    <t xml:space="preserve">12.1536312103271</t>
   </si>
   <si>
     <t xml:space="preserve">12.441632270813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3648319244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2496318817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0000305175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3664302825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1552276611328</t>
+    <t xml:space="preserve">12.3648309707642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2496309280396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0000314712524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3664293289185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1552286148071</t>
   </si>
   <si>
     <t xml:space="preserve">11.328028678894</t>
@@ -2147,13 +2147,13 @@
     <t xml:space="preserve">10.9248275756836</t>
   </si>
   <si>
-    <t xml:space="preserve">10.809627532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5408267974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5792274475098</t>
+    <t xml:space="preserve">10.8096284866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5408277511597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5792264938354</t>
   </si>
   <si>
     <t xml:space="preserve">10.7904272079468</t>
@@ -2177,16 +2177,16 @@
     <t xml:space="preserve">10.7328271865845</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5024261474609</t>
+    <t xml:space="preserve">10.5024271011353</t>
   </si>
   <si>
     <t xml:space="preserve">10.5984268188477</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7888298034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5776309967041</t>
+    <t xml:space="preserve">11.7888307571411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5776300430298</t>
   </si>
   <si>
     <t xml:space="preserve">11.8272285461426</t>
@@ -2201,16 +2201,16 @@
     <t xml:space="preserve">11.6928300857544</t>
   </si>
   <si>
-    <t xml:space="preserve">11.808030128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8848304748535</t>
+    <t xml:space="preserve">11.8080310821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8848295211792</t>
   </si>
   <si>
     <t xml:space="preserve">12.3840312957764</t>
   </si>
   <si>
-    <t xml:space="preserve">12.288031578064</t>
+    <t xml:space="preserve">12.2880325317383</t>
   </si>
   <si>
     <t xml:space="preserve">12.2688312530518</t>
@@ -2222,13 +2222,13 @@
     <t xml:space="preserve">12.1344318389893</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9616298675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9040307998657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3856296539307</t>
+    <t xml:space="preserve">11.961630821228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9040298461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3856287002563</t>
   </si>
   <si>
     <t xml:space="preserve">12.806432723999</t>
@@ -2243,7 +2243,7 @@
     <t xml:space="preserve">14.0352354049683</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7664346694946</t>
+    <t xml:space="preserve">13.7664356231689</t>
   </si>
   <si>
     <t xml:space="preserve">13.4016351699829</t>
@@ -2255,10 +2255,10 @@
     <t xml:space="preserve">13.6320343017578</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2672338485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.497633934021</t>
+    <t xml:space="preserve">13.2672328948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4976348876953</t>
   </si>
   <si>
     <t xml:space="preserve">14.3040361404419</t>
@@ -2276,13 +2276,13 @@
     <t xml:space="preserve">13.65123462677</t>
   </si>
   <si>
-    <t xml:space="preserve">13.344033241272</t>
+    <t xml:space="preserve">13.3440341949463</t>
   </si>
   <si>
     <t xml:space="preserve">12.1728315353394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2112321853638</t>
+    <t xml:space="preserve">12.2112312316895</t>
   </si>
   <si>
     <t xml:space="preserve">12.4800319671631</t>
@@ -2291,7 +2291,7 @@
     <t xml:space="preserve">12.5952320098877</t>
   </si>
   <si>
-    <t xml:space="preserve">13.017632484436</t>
+    <t xml:space="preserve">13.0176334381104</t>
   </si>
   <si>
     <t xml:space="preserve">12.9792337417603</t>
@@ -2300,13 +2300,13 @@
     <t xml:space="preserve">13.2096338272095</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4784345626831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6128349304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7280359268188</t>
+    <t xml:space="preserve">13.4784336090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6128358840942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7280349731445</t>
   </si>
   <si>
     <t xml:space="preserve">13.7879419326782</t>
@@ -60790,7 +60790,7 @@
     </row>
     <row r="2174">
       <c r="A2174" s="1" t="n">
-        <v>45489.6493518519</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B2174" t="n">
         <v>46117</v>
@@ -60811,6 +60811,32 @@
         <v>1312</v>
       </c>
       <c r="H2174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="1" t="n">
+        <v>45490.6494791667</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>34418</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>37.2000007629395</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>36.25</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>37</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>36.2000007629395</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H2175" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAN.MI.xlsx
+++ b/data/DAN.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">15.892147064209</t>
+    <t xml:space="preserve">15.8921451568604</t>
   </si>
   <si>
     <t xml:space="preserve">DAN.MI</t>
@@ -47,52 +47,52 @@
     <t xml:space="preserve">16.0230236053467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5182161331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8170919418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4899005889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2094507217407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5646867752075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3122835159302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346626281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3587532043457</t>
+    <t xml:space="preserve">15.5182151794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8170900344849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4898996353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2094497680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5646858215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3122825622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346635818481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.35875415802</t>
   </si>
   <si>
     <t xml:space="preserve">13.0409097671509</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1343936920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5267524719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1998310089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3867969512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2006435394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3595638275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6400146484375</t>
+    <t xml:space="preserve">13.1343946456909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5267515182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1998319625854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3867979049683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2006416320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3595657348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6400127410889</t>
   </si>
   <si>
     <t xml:space="preserve">16.3969573974609</t>
@@ -107,37 +107,37 @@
     <t xml:space="preserve">16.9204654693604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.770619392395</t>
+    <t xml:space="preserve">15.7706212997437</t>
   </si>
   <si>
     <t xml:space="preserve">16.4156551361084</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6023530960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2284202575684</t>
+    <t xml:space="preserve">15.602352142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2284183502197</t>
   </si>
   <si>
     <t xml:space="preserve">15.2377653121948</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6490907669067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3966884613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2938575744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2193393707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5465316772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0887355804443</t>
+    <t xml:space="preserve">15.6490898132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3966875076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2938566207886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2193412780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5465335845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0887336730957</t>
   </si>
   <si>
     <t xml:space="preserve">17.2476558685303</t>
@@ -146,52 +146,52 @@
     <t xml:space="preserve">17.3878784179688</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2943954467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.032642364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6680603027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.658712387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1541728973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.957857131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5094089508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6402854919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7057209014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7711639404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8550281524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5561504364014</t>
+    <t xml:space="preserve">17.294397354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0326461791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6680641174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6587104797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1541709899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9578552246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.509407043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.640287399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7057247161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7711658477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8550262451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5561485290527</t>
   </si>
   <si>
     <t xml:space="preserve">17.8552951812744</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2009143829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5935440063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7992057800293</t>
+    <t xml:space="preserve">17.2009124755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.593542098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7992095947266</t>
   </si>
   <si>
     <t xml:space="preserve">17.341136932373</t>
@@ -203,28 +203,28 @@
     <t xml:space="preserve">16.873722076416</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2663497924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6215858459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8924179077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8456783294678</t>
+    <t xml:space="preserve">17.2663516998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6215877532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8924198150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8456764221191</t>
   </si>
   <si>
     <t xml:space="preserve">17.4533176422119</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9020385742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9768257141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7431182861328</t>
+    <t xml:space="preserve">17.9020366668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.97682762146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7431163787842</t>
   </si>
   <si>
     <t xml:space="preserve">18.2105331420898</t>
@@ -239,49 +239,49 @@
     <t xml:space="preserve">18.1357440948486</t>
   </si>
   <si>
-    <t xml:space="preserve">17.939432144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6966438293457</t>
+    <t xml:space="preserve">17.9394302368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6966457366943</t>
   </si>
   <si>
     <t xml:space="preserve">18.7620830535889</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7901268005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4442405700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6779460906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3788013458252</t>
+    <t xml:space="preserve">18.7901287078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.444242477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6779479980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3788032531738</t>
   </si>
   <si>
     <t xml:space="preserve">18.2385768890381</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8085556030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4813632965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8272514343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5000591278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4065799713135</t>
+    <t xml:space="preserve">17.8085536956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4813652038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8272495269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.500057220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4065780639648</t>
   </si>
   <si>
     <t xml:space="preserve">17.0980834960938</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1635208129883</t>
+    <t xml:space="preserve">17.1635227203369</t>
   </si>
   <si>
     <t xml:space="preserve">16.8830680847168</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">16.6306686401367</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4623985290527</t>
+    <t xml:space="preserve">16.4623966217041</t>
   </si>
   <si>
     <t xml:space="preserve">16.5652256011963</t>
@@ -299,25 +299,25 @@
     <t xml:space="preserve">17.0700378417969</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7708911895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7334976196289</t>
+    <t xml:space="preserve">16.7708892822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7334995269775</t>
   </si>
   <si>
     <t xml:space="preserve">16.4810924530029</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6963748931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.836332321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8176345825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5748481750488</t>
+    <t xml:space="preserve">17.6963729858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8363285064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8176326751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5748462677002</t>
   </si>
   <si>
     <t xml:space="preserve">17.3224430084229</t>
@@ -338,22 +338,22 @@
     <t xml:space="preserve">15.0508003234863</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3592929840088</t>
+    <t xml:space="preserve">15.3592948913574</t>
   </si>
   <si>
     <t xml:space="preserve">15.6303949356079</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2660808563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2751579284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7329568862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.172327041626</t>
+    <t xml:space="preserve">16.2660789489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2751588821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7329578399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1723279953003</t>
   </si>
   <si>
     <t xml:space="preserve">14.8077430725098</t>
@@ -362,13 +362,13 @@
     <t xml:space="preserve">14.9666652679443</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7051820755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3218984603882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9105749130249</t>
+    <t xml:space="preserve">15.7051811218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3219013214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9105739593506</t>
   </si>
   <si>
     <t xml:space="preserve">14.2748889923096</t>
@@ -377,37 +377,37 @@
     <t xml:space="preserve">14.5366401672363</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9386196136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6958351135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6117010116577</t>
+    <t xml:space="preserve">14.9386186599731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6958332061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6116991043091</t>
   </si>
   <si>
     <t xml:space="preserve">15.7986650466919</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5462617874146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6210470199585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5930032730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6771354675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4530506134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9201936721802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6864852905273</t>
+    <t xml:space="preserve">15.5462608337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6210441589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5930023193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6771392822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4530467987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9201917648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6864862442017</t>
   </si>
   <si>
     <t xml:space="preserve">16.4343528747559</t>
@@ -419,31 +419,31 @@
     <t xml:space="preserve">16.3876094818115</t>
   </si>
   <si>
-    <t xml:space="preserve">16.490442276001</t>
+    <t xml:space="preserve">16.4904441833496</t>
   </si>
   <si>
     <t xml:space="preserve">16.3782615661621</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2941265106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4720134735107</t>
+    <t xml:space="preserve">16.2941246032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.472017288208</t>
   </si>
   <si>
     <t xml:space="preserve">17.1354751586914</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9298114776611</t>
+    <t xml:space="preserve">16.9298133850098</t>
   </si>
   <si>
     <t xml:space="preserve">16.9672031402588</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9487838745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4907131195068</t>
+    <t xml:space="preserve">17.9487819671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4907112121582</t>
   </si>
   <si>
     <t xml:space="preserve">17.3598365783691</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">17.5281047821045</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6683292388916</t>
+    <t xml:space="preserve">17.6683311462402</t>
   </si>
   <si>
     <t xml:space="preserve">16.406307220459</t>
@@ -464,46 +464,46 @@
     <t xml:space="preserve">16.0604190826416</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1258544921875</t>
+    <t xml:space="preserve">16.1258563995361</t>
   </si>
   <si>
     <t xml:space="preserve">16.2567310333252</t>
   </si>
   <si>
-    <t xml:space="preserve">15.938889503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9669370651245</t>
+    <t xml:space="preserve">15.9388875961304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9669351577759</t>
   </si>
   <si>
     <t xml:space="preserve">15.8641014099121</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7893171310425</t>
+    <t xml:space="preserve">15.7893161773682</t>
   </si>
   <si>
     <t xml:space="preserve">15.9108476638794</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3408679962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0232944488525</t>
+    <t xml:space="preserve">16.3408699035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0232906341553</t>
   </si>
   <si>
     <t xml:space="preserve">16.3689136505127</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8360576629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8454065322876</t>
+    <t xml:space="preserve">15.8360595703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8454074859619</t>
   </si>
   <si>
     <t xml:space="preserve">16.0043296813965</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6584386825562</t>
+    <t xml:space="preserve">15.6584405899048</t>
   </si>
   <si>
     <t xml:space="preserve">15.4527788162231</t>
@@ -512,58 +512,58 @@
     <t xml:space="preserve">15.5280199050903</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6032609939575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8477983474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9324417114258</t>
+    <t xml:space="preserve">15.6032619476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8477964401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9324436187744</t>
   </si>
   <si>
     <t xml:space="preserve">16.0923328399658</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8195829391479</t>
+    <t xml:space="preserve">15.8195819854736</t>
   </si>
   <si>
     <t xml:space="preserve">15.2646741867065</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6220712661743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7161245346069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7067203521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3493213653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0641193389893</t>
+    <t xml:space="preserve">15.6220731735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.716121673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7067193984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3493204116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0641174316406</t>
   </si>
   <si>
     <t xml:space="preserve">16.5343780517578</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1299533843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6879072189331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8007707595825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5092096328735</t>
+    <t xml:space="preserve">16.129955291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6879091262817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8007698059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5092077255249</t>
   </si>
   <si>
     <t xml:space="preserve">16.0829277038574</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2522201538086</t>
+    <t xml:space="preserve">16.2522220611572</t>
   </si>
   <si>
     <t xml:space="preserve">16.0358982086182</t>
@@ -572,7 +572,7 @@
     <t xml:space="preserve">16.7883205413818</t>
   </si>
   <si>
-    <t xml:space="preserve">17.399658203125</t>
+    <t xml:space="preserve">17.3996601104736</t>
   </si>
   <si>
     <t xml:space="preserve">17.4749011993408</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">17.4372806549072</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2397689819336</t>
+    <t xml:space="preserve">17.2397708892822</t>
   </si>
   <si>
     <t xml:space="preserve">17.1645278930664</t>
@@ -593,19 +593,19 @@
     <t xml:space="preserve">16.6942672729492</t>
   </si>
   <si>
-    <t xml:space="preserve">17.305606842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1175003051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3808498382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9639701843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1238613128662</t>
+    <t xml:space="preserve">17.3056030273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1175022125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3808460235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9639720916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1238594055176</t>
   </si>
   <si>
     <t xml:space="preserve">18.1614818572998</t>
@@ -617,10 +617,10 @@
     <t xml:space="preserve">18.6599578857422</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1396236419678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.186653137207</t>
+    <t xml:space="preserve">19.1396255493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1866512298584</t>
   </si>
   <si>
     <t xml:space="preserve">19.7979888916016</t>
@@ -635,40 +635,40 @@
     <t xml:space="preserve">19.1490306854248</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7039375305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5722637176514</t>
+    <t xml:space="preserve">19.7039394378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.572265625</t>
   </si>
   <si>
     <t xml:space="preserve">19.421781539917</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3183269500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0925979614258</t>
+    <t xml:space="preserve">19.3183250427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0925998687744</t>
   </si>
   <si>
     <t xml:space="preserve">19.2524852752686</t>
   </si>
   <si>
-    <t xml:space="preserve">19.17724609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.167839050293</t>
+    <t xml:space="preserve">19.1772441864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1678371429443</t>
   </si>
   <si>
     <t xml:space="preserve">18.9891414642334</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8104438781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6317405700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.340181350708</t>
+    <t xml:space="preserve">18.8104400634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.631742477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3401794433594</t>
   </si>
   <si>
     <t xml:space="preserve">18.6881771087646</t>
@@ -677,13 +677,13 @@
     <t xml:space="preserve">18.7634162902832</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6975784301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6035270690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7163887023926</t>
+    <t xml:space="preserve">18.6975765228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6035289764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7163906097412</t>
   </si>
   <si>
     <t xml:space="preserve">18.5094757080078</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">18.5565013885498</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7446060180664</t>
+    <t xml:space="preserve">18.7446041107178</t>
   </si>
   <si>
     <t xml:space="preserve">18.8480625152588</t>
@@ -707,10 +707,10 @@
     <t xml:space="preserve">19.2807025909424</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6569137573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.327730178833</t>
+    <t xml:space="preserve">19.656909942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3277282714844</t>
   </si>
   <si>
     <t xml:space="preserve">19.365348815918</t>
@@ -725,31 +725,31 @@
     <t xml:space="preserve">19.1960563659668</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4876174926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7509613037109</t>
+    <t xml:space="preserve">19.4876155853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7509632110596</t>
   </si>
   <si>
     <t xml:space="preserve">19.3371334075928</t>
   </si>
   <si>
-    <t xml:space="preserve">19.459400177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5910758972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.271297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4688053131104</t>
+    <t xml:space="preserve">19.4594020843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5910739898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2712993621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.468807220459</t>
   </si>
   <si>
     <t xml:space="preserve">19.6286964416504</t>
   </si>
   <si>
-    <t xml:space="preserve">19.525239944458</t>
+    <t xml:space="preserve">19.5252380371094</t>
   </si>
   <si>
     <t xml:space="preserve">20.164794921875</t>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">20.2588443756104</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6350536346436</t>
+    <t xml:space="preserve">20.6350555419922</t>
   </si>
   <si>
     <t xml:space="preserve">20.8795890808105</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">21.2275829315186</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2087726593018</t>
+    <t xml:space="preserve">21.2087707519531</t>
   </si>
   <si>
     <t xml:space="preserve">20.3999252319336</t>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">20.8701877593994</t>
   </si>
   <si>
-    <t xml:space="preserve">20.644458770752</t>
+    <t xml:space="preserve">20.6444568634033</t>
   </si>
   <si>
     <t xml:space="preserve">20.503381729126</t>
@@ -791,31 +791,31 @@
     <t xml:space="preserve">20.9078063964844</t>
   </si>
   <si>
-    <t xml:space="preserve">20.860782623291</t>
+    <t xml:space="preserve">20.8607807159424</t>
   </si>
   <si>
     <t xml:space="preserve">20.7573223114014</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7855377197266</t>
+    <t xml:space="preserve">20.7855396270752</t>
   </si>
   <si>
     <t xml:space="preserve">20.9172115325928</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7385120391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0771007537842</t>
+    <t xml:space="preserve">20.7385139465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0770969390869</t>
   </si>
   <si>
     <t xml:space="preserve">21.1241245269775</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7102947235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0394821166992</t>
+    <t xml:space="preserve">20.7102966308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0394802093506</t>
   </si>
   <si>
     <t xml:space="preserve">21.9141616821289</t>
@@ -827,13 +827,13 @@
     <t xml:space="preserve">21.632007598877</t>
   </si>
   <si>
-    <t xml:space="preserve">21.584981918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3968753814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3874740600586</t>
+    <t xml:space="preserve">21.5849800109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3968772888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.38747215271</t>
   </si>
   <si>
     <t xml:space="preserve">21.1899642944336</t>
@@ -842,16 +842,16 @@
     <t xml:space="preserve">21.5379543304443</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3686618804932</t>
+    <t xml:space="preserve">21.3686637878418</t>
   </si>
   <si>
     <t xml:space="preserve">21.6131973266602</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4909324645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8983993530273</t>
+    <t xml:space="preserve">21.490930557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8983974456787</t>
   </si>
   <si>
     <t xml:space="preserve">21.4344997406006</t>
@@ -869,10 +869,10 @@
     <t xml:space="preserve">21.5097408294678</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6037902832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.54736328125</t>
+    <t xml:space="preserve">21.6037921905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5473613739014</t>
   </si>
   <si>
     <t xml:space="preserve">21.199369430542</t>
@@ -881,16 +881,16 @@
     <t xml:space="preserve">21.4439029693604</t>
   </si>
   <si>
-    <t xml:space="preserve">20.99245262146</t>
+    <t xml:space="preserve">20.9924545288086</t>
   </si>
   <si>
     <t xml:space="preserve">20.5692176818848</t>
   </si>
   <si>
-    <t xml:space="preserve">20.653865814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6632709503174</t>
+    <t xml:space="preserve">20.6538639068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6632690429688</t>
   </si>
   <si>
     <t xml:space="preserve">20.5786209106445</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">20.8889942169189</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5315990447998</t>
+    <t xml:space="preserve">20.5315971374512</t>
   </si>
   <si>
     <t xml:space="preserve">20.2964668273926</t>
@@ -914,10 +914,10 @@
     <t xml:space="preserve">20.1553897857666</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5221920013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.550407409668</t>
+    <t xml:space="preserve">20.5221900939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5504093170166</t>
   </si>
   <si>
     <t xml:space="preserve">20.804349899292</t>
@@ -926,46 +926,46 @@
     <t xml:space="preserve">20.6914863586426</t>
   </si>
   <si>
-    <t xml:space="preserve">20.20241355896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0801448822021</t>
+    <t xml:space="preserve">20.2024154663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0801467895508</t>
   </si>
   <si>
     <t xml:space="preserve">20.1365756988525</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9672813415527</t>
+    <t xml:space="preserve">19.9672832489014</t>
   </si>
   <si>
     <t xml:space="preserve">20.1742000579834</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3246803283691</t>
+    <t xml:space="preserve">20.3246822357178</t>
   </si>
   <si>
     <t xml:space="preserve">20.2494411468506</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3623027801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9202575683594</t>
+    <t xml:space="preserve">20.3623065948486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.920259475708</t>
   </si>
   <si>
     <t xml:space="preserve">20.9266166687012</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4939785003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2212238311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9766864776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6726760864258</t>
+    <t xml:space="preserve">20.4939746856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2212219238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.976692199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6726741790771</t>
   </si>
   <si>
     <t xml:space="preserve">20.3811130523682</t>
@@ -980,22 +980,22 @@
     <t xml:space="preserve">20.5974349975586</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8231563568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.15234375</t>
+    <t xml:space="preserve">20.8231582641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1523399353027</t>
   </si>
   <si>
     <t xml:space="preserve">21.4627132415771</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9830493927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7291088104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5880279541016</t>
+    <t xml:space="preserve">20.9830474853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7291069030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5880298614502</t>
   </si>
   <si>
     <t xml:space="preserve">20.6256504058838</t>
@@ -1004,46 +1004,46 @@
     <t xml:space="preserve">20.1271724700928</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0895519256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0143127441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2306289672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3434925079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7761306762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2400379180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7791805267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4970207214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0173568725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0737915039062</t>
+    <t xml:space="preserve">20.0895538330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.014310836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2306308746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3434906005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7761325836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2400360107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.779182434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4970226287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.01735496521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.073787689209</t>
   </si>
   <si>
     <t xml:space="preserve">18.8668746948242</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2336750030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9138984680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7916278839111</t>
+    <t xml:space="preserve">19.2336769104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9139022827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7916297912598</t>
   </si>
   <si>
     <t xml:space="preserve">18.8950881958008</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">19.374755859375</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2147731781006</t>
+    <t xml:space="preserve">19.2147750854492</t>
   </si>
   <si>
     <t xml:space="preserve">19.1864185333252</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">18.7611026763916</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5342712402344</t>
+    <t xml:space="preserve">18.5342693328857</t>
   </si>
   <si>
     <t xml:space="preserve">18.1278553009033</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">18.1656608581543</t>
   </si>
   <si>
-    <t xml:space="preserve">18.118408203125</t>
+    <t xml:space="preserve">18.1184062957764</t>
   </si>
   <si>
     <t xml:space="preserve">18.1940174102783</t>
@@ -1100,46 +1100,46 @@
     <t xml:space="preserve">18.8178119659424</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6382331848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3924961090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7232971191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5909786224365</t>
+    <t xml:space="preserve">18.6382350921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3924980163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7232990264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5909805297852</t>
   </si>
   <si>
     <t xml:space="preserve">18.4492073059082</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9028759002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0068416595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9312286376953</t>
+    <t xml:space="preserve">18.9028739929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0068435668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9312305450439</t>
   </si>
   <si>
     <t xml:space="preserve">18.9217796325684</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8461685180664</t>
+    <t xml:space="preserve">18.8461666107178</t>
   </si>
   <si>
     <t xml:space="preserve">18.5815258026123</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6098823547363</t>
+    <t xml:space="preserve">18.6098804473877</t>
   </si>
   <si>
     <t xml:space="preserve">18.6760406494141</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7138481140137</t>
+    <t xml:space="preserve">18.713846206665</t>
   </si>
   <si>
     <t xml:space="preserve">18.7043952941895</t>
@@ -1148,16 +1148,16 @@
     <t xml:space="preserve">18.8934230804443</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9406814575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8272647857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6193313598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7327480316162</t>
+    <t xml:space="preserve">18.9406795501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8272666931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6193332672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7327499389648</t>
   </si>
   <si>
     <t xml:space="preserve">19.1391620635986</t>
@@ -1169,16 +1169,16 @@
     <t xml:space="preserve">19.7062473297119</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9897918701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7931632995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5492782592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.832820892334</t>
+    <t xml:space="preserve">19.9897899627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7931652069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5492763519287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8328227996826</t>
   </si>
   <si>
     <t xml:space="preserve">21.7855625152588</t>
@@ -1190,7 +1190,7 @@
     <t xml:space="preserve">21.8800792694092</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7383079528809</t>
+    <t xml:space="preserve">21.7383060455322</t>
   </si>
   <si>
     <t xml:space="preserve">22.0218486785889</t>
@@ -1199,7 +1199,7 @@
     <t xml:space="preserve">22.0691070556641</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2657337188721</t>
+    <t xml:space="preserve">21.2657356262207</t>
   </si>
   <si>
     <t xml:space="preserve">20.6986503601074</t>
@@ -1208,19 +1208,19 @@
     <t xml:space="preserve">21.3129901885986</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8876762390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.029447555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9821910858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3602504730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4547634124756</t>
+    <t xml:space="preserve">20.8876781463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0294494628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9821929931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3602485656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4547653198242</t>
   </si>
   <si>
     <t xml:space="preserve">21.4075050354004</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">21.1239643096924</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9349365234375</t>
+    <t xml:space="preserve">20.9349346160889</t>
   </si>
   <si>
     <t xml:space="preserve">21.9745941162109</t>
@@ -1247,58 +1247,58 @@
     <t xml:space="preserve">22.2581348419189</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0767078399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5020198822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5568771362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4623622894287</t>
+    <t xml:space="preserve">21.0767059326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5020217895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5568790435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.462366104126</t>
   </si>
   <si>
     <t xml:space="preserve">21.1712207794189</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8404197692871</t>
+    <t xml:space="preserve">20.8404216766357</t>
   </si>
   <si>
     <t xml:space="preserve">21.2184791564941</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5965366363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6513900756836</t>
+    <t xml:space="preserve">21.5965347290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6513919830322</t>
   </si>
   <si>
     <t xml:space="preserve">20.745906829834</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3678493499756</t>
+    <t xml:space="preserve">20.3678455352783</t>
   </si>
   <si>
     <t xml:space="preserve">19.280933380127</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3754482269287</t>
+    <t xml:space="preserve">19.3754463195801</t>
   </si>
   <si>
     <t xml:space="preserve">19.5644760131836</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0370483398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8480167388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.604133605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5096206665039</t>
+    <t xml:space="preserve">20.0370464324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8480186462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6041355133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5096225738525</t>
   </si>
   <si>
     <t xml:space="preserve">20.2260761260986</t>
@@ -1307,10 +1307,10 @@
     <t xml:space="preserve">20.4151058197021</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2733345031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1315631866455</t>
+    <t xml:space="preserve">20.2733325958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1315612792969</t>
   </si>
   <si>
     <t xml:space="preserve">20.1788177490234</t>
@@ -1319,22 +1319,22 @@
     <t xml:space="preserve">19.6589889526367</t>
   </si>
   <si>
-    <t xml:space="preserve">19.800760269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7535057067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8952789306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.942533493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5172214508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4699611663818</t>
+    <t xml:space="preserve">19.8007621765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7535037994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8952751159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9425315856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.517219543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4699630737305</t>
   </si>
   <si>
     <t xml:space="preserve">19.6117324829102</t>
@@ -1346,16 +1346,16 @@
     <t xml:space="preserve">21.6910495758057</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3205909729004</t>
+    <t xml:space="preserve">20.3205890655518</t>
   </si>
   <si>
     <t xml:space="preserve">17.9388294219971</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5003566741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8973207473755</t>
+    <t xml:space="preserve">15.500358581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8973197937012</t>
   </si>
   <si>
     <t xml:space="preserve">14.9521751403809</t>
@@ -1364,28 +1364,28 @@
     <t xml:space="preserve">14.6497287750244</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9899816513062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5948715209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8217077255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.199764251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7271938323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5192632675171</t>
+    <t xml:space="preserve">14.9899806976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5948724746704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8217058181763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1997623443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7271928787231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5192623138428</t>
   </si>
   <si>
     <t xml:space="preserve">15.6515808105469</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0674438476562</t>
+    <t xml:space="preserve">16.0674419403076</t>
   </si>
   <si>
     <t xml:space="preserve">15.9918336868286</t>
@@ -1394,7 +1394,7 @@
     <t xml:space="preserve">15.8595142364502</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7839031219482</t>
+    <t xml:space="preserve">15.7839012145996</t>
   </si>
   <si>
     <t xml:space="preserve">15.5759706497192</t>
@@ -1403,10 +1403,10 @@
     <t xml:space="preserve">15.1979122161865</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0457439422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.760425567627</t>
+    <t xml:space="preserve">15.0457429885864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7604265213013</t>
   </si>
   <si>
     <t xml:space="preserve">14.5892353057861</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">14.6272773742676</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1028060913086</t>
+    <t xml:space="preserve">15.1028070449829</t>
   </si>
   <si>
     <t xml:space="preserve">15.1218271255493</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">14.2468538284302</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0946846008301</t>
+    <t xml:space="preserve">14.0946855545044</t>
   </si>
   <si>
     <t xml:space="preserve">13.7713251113892</t>
@@ -1448,10 +1448,10 @@
     <t xml:space="preserve">14.5131511688232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3419589996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3229389190674</t>
+    <t xml:space="preserve">14.3419580459595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3229398727417</t>
   </si>
   <si>
     <t xml:space="preserve">14.3990240097046</t>
@@ -1463,16 +1463,16 @@
     <t xml:space="preserve">13.8093671798706</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7903461456299</t>
+    <t xml:space="preserve">13.7903451919556</t>
   </si>
   <si>
     <t xml:space="preserve">13.9615364074707</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2278327941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3800029754639</t>
+    <t xml:space="preserve">14.2278337478638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3800020217896</t>
   </si>
   <si>
     <t xml:space="preserve">14.7033624649048</t>
@@ -1484,16 +1484,16 @@
     <t xml:space="preserve">15.4071464538574</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3120393753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2169342041016</t>
+    <t xml:space="preserve">15.3120403289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2169332504272</t>
   </si>
   <si>
     <t xml:space="preserve">15.2549772262573</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0837860107422</t>
+    <t xml:space="preserve">15.0837850570679</t>
   </si>
   <si>
     <t xml:space="preserve">15.2930183410645</t>
@@ -1502,22 +1502,22 @@
     <t xml:space="preserve">15.3500814437866</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3881235122681</t>
+    <t xml:space="preserve">15.3881244659424</t>
   </si>
   <si>
     <t xml:space="preserve">15.7305059432983</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1679916381836</t>
+    <t xml:space="preserve">16.167989730835</t>
   </si>
   <si>
     <t xml:space="preserve">17.0239429473877</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1000289916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1190509796143</t>
+    <t xml:space="preserve">17.1000308990479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1190490722656</t>
   </si>
   <si>
     <t xml:space="preserve">16.7005844116211</t>
@@ -1529,10 +1529,10 @@
     <t xml:space="preserve">16.4723300933838</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5674343109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1870136260986</t>
+    <t xml:space="preserve">16.5674362182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1870155334473</t>
   </si>
   <si>
     <t xml:space="preserve">16.072883605957</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">16.339183807373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3582038879395</t>
+    <t xml:space="preserve">16.3582057952881</t>
   </si>
   <si>
     <t xml:space="preserve">16.4533100128174</t>
@@ -1556,13 +1556,13 @@
     <t xml:space="preserve">16.7196044921875</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4913539886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6435203552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6625442504883</t>
+    <t xml:space="preserve">16.4913520812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6435222625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6625423431396</t>
   </si>
   <si>
     <t xml:space="preserve">16.4342880249023</t>
@@ -1601,13 +1601,13 @@
     <t xml:space="preserve">16.6054782867432</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7386264801025</t>
+    <t xml:space="preserve">16.7386283874512</t>
   </si>
   <si>
     <t xml:space="preserve">16.9859027862549</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1570930480957</t>
+    <t xml:space="preserve">17.1570949554443</t>
   </si>
   <si>
     <t xml:space="preserve">17.6896839141846</t>
@@ -1616,13 +1616,13 @@
     <t xml:space="preserve">18.5075950622559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4885730743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.469554901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.336404800415</t>
+    <t xml:space="preserve">18.4885749816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4695529937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3364067077637</t>
   </si>
   <si>
     <t xml:space="preserve">17.7467498779297</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">17.3473033905029</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2141590118408</t>
+    <t xml:space="preserve">17.2141571044922</t>
   </si>
   <si>
     <t xml:space="preserve">17.1951351165771</t>
@@ -1646,7 +1646,7 @@
     <t xml:space="preserve">17.1761112213135</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0429668426514</t>
+    <t xml:space="preserve">17.0429649353027</t>
   </si>
   <si>
     <t xml:space="preserve">17.2712173461914</t>
@@ -1655,7 +1655,7 @@
     <t xml:space="preserve">17.3663272857666</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4424095153809</t>
+    <t xml:space="preserve">17.4424114227295</t>
   </si>
   <si>
     <t xml:space="preserve">16.9668807983398</t>
@@ -1664,13 +1664,13 @@
     <t xml:space="preserve">16.4152679443359</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6924610137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7114849090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6544179916382</t>
+    <t xml:space="preserve">15.6924619674683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.711483001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6544189453125</t>
   </si>
   <si>
     <t xml:space="preserve">15.3691024780273</t>
@@ -1679,7 +1679,7 @@
     <t xml:space="preserve">14.8745536804199</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9886798858643</t>
+    <t xml:space="preserve">14.9886808395386</t>
   </si>
   <si>
     <t xml:space="preserve">15.2739973068237</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">14.5511932373047</t>
   </si>
   <si>
-    <t xml:space="preserve">15.007700920105</t>
+    <t xml:space="preserve">15.0076999664307</t>
   </si>
   <si>
     <t xml:space="preserve">14.7414045333862</t>
@@ -1712,28 +1712,28 @@
     <t xml:space="preserve">14.6462984085083</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8174896240234</t>
+    <t xml:space="preserve">14.8174886703491</t>
   </si>
   <si>
     <t xml:space="preserve">15.7685480117798</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5973558425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5783367156982</t>
+    <t xml:space="preserve">15.5973567962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5783348083496</t>
   </si>
   <si>
     <t xml:space="preserve">15.8636531829834</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4261665344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7875709533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.616379737854</t>
+    <t xml:space="preserve">15.4261674880981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7875690460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6163787841797</t>
   </si>
   <si>
     <t xml:space="preserve">15.5212726593018</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">15.0647649765015</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7223825454712</t>
+    <t xml:space="preserve">14.7223834991455</t>
   </si>
   <si>
     <t xml:space="preserve">14.9696578979492</t>
@@ -1787,13 +1787,13 @@
     <t xml:space="preserve">14.1137056350708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.418044090271</t>
+    <t xml:space="preserve">14.4180431365967</t>
   </si>
   <si>
     <t xml:space="preserve">14.1897897720337</t>
   </si>
   <si>
-    <t xml:space="preserve">14.779447555542</t>
+    <t xml:space="preserve">14.7794466018677</t>
   </si>
   <si>
     <t xml:space="preserve">14.1707696914673</t>
@@ -1808,13 +1808,13 @@
     <t xml:space="preserve">14.2848968505859</t>
   </si>
   <si>
-    <t xml:space="preserve">14.665319442749</t>
+    <t xml:space="preserve">14.6653203964233</t>
   </si>
   <si>
     <t xml:space="preserve">15.1788911819458</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4832305908203</t>
+    <t xml:space="preserve">15.483229637146</t>
   </si>
   <si>
     <t xml:space="preserve">15.2640390396118</t>
@@ -60926,7 +60926,7 @@
     </row>
     <row r="2179">
       <c r="A2179" s="1" t="n">
-        <v>45496.6495486111</v>
+        <v>45496.2916666667</v>
       </c>
       <c r="B2179" t="n">
         <v>62572</v>
@@ -60947,6 +60947,32 @@
         <v>1294</v>
       </c>
       <c r="H2179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="1" t="n">
+        <v>45497.6493171296</v>
+      </c>
+      <c r="B2180" t="n">
+        <v>39794</v>
+      </c>
+      <c r="C2180" t="n">
+        <v>36.6500015258789</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>35.8499984741211</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>36.2000007629395</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>36.5499992370605</v>
+      </c>
+      <c r="G2180" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H2180" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAN.MI.xlsx
+++ b/data/DAN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="1315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1316">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8921451568604</t>
+    <t xml:space="preserve">15.8921499252319</t>
   </si>
   <si>
     <t xml:space="preserve">DAN.MI</t>
@@ -47,40 +47,40 @@
     <t xml:space="preserve">16.0230236053467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5182151794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8170900344849</t>
+    <t xml:space="preserve">15.518217086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8170919418335</t>
   </si>
   <si>
     <t xml:space="preserve">14.4898996353149</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2094497680664</t>
+    <t xml:space="preserve">14.2094507217407</t>
   </si>
   <si>
     <t xml:space="preserve">14.5646858215332</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3122825622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346635818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.35875415802</t>
+    <t xml:space="preserve">14.3122835159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346645355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3587522506714</t>
   </si>
   <si>
     <t xml:space="preserve">13.0409097671509</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1343946456909</t>
+    <t xml:space="preserve">13.1343927383423</t>
   </si>
   <si>
     <t xml:space="preserve">12.5267515182495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1998319625854</t>
+    <t xml:space="preserve">13.1998310089111</t>
   </si>
   <si>
     <t xml:space="preserve">13.3867979049683</t>
@@ -92,73 +92,73 @@
     <t xml:space="preserve">16.3595657348633</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6400127410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3969573974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6774082183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4439697265625</t>
+    <t xml:space="preserve">16.6400108337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3969593048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6774063110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4439716339111</t>
   </si>
   <si>
     <t xml:space="preserve">16.9204654693604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7706212997437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4156551361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.602352142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2284183502197</t>
+    <t xml:space="preserve">15.770622253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4156532287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6023530960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2284173965454</t>
   </si>
   <si>
     <t xml:space="preserve">15.2377653121948</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6490898132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3966875076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2938566207886</t>
+    <t xml:space="preserve">15.6490917205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3966865539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2938556671143</t>
   </si>
   <si>
     <t xml:space="preserve">16.2193412780762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5465335845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0887336730957</t>
+    <t xml:space="preserve">16.5465316772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.088737487793</t>
   </si>
   <si>
     <t xml:space="preserve">17.2476558685303</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3878784179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.294397354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0326461791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6680641174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6587104797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1541709899902</t>
+    <t xml:space="preserve">17.3878803253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2943954467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.032642364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6680583953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6587085723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1541728973389</t>
   </si>
   <si>
     <t xml:space="preserve">16.9578552246094</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">17.509407043457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.640287399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7057247161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7711658477783</t>
+    <t xml:space="preserve">17.6402854919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7057228088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7711601257324</t>
   </si>
   <si>
     <t xml:space="preserve">16.8550262451172</t>
@@ -185,19 +185,19 @@
     <t xml:space="preserve">17.8552951812744</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2009124755859</t>
+    <t xml:space="preserve">17.2009143829346</t>
   </si>
   <si>
     <t xml:space="preserve">17.593542098999</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7992095947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.341136932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.52783203125</t>
+    <t xml:space="preserve">17.7992057800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3411388397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5278358459473</t>
   </si>
   <si>
     <t xml:space="preserve">16.873722076416</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">17.2663516998291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6215877532959</t>
+    <t xml:space="preserve">17.6215896606445</t>
   </si>
   <si>
     <t xml:space="preserve">16.8924198150635</t>
@@ -218,10 +218,10 @@
     <t xml:space="preserve">17.4533176422119</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9020366668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.97682762146</t>
+    <t xml:space="preserve">17.9020385742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9768199920654</t>
   </si>
   <si>
     <t xml:space="preserve">17.7431163787842</t>
@@ -230,76 +230,76 @@
     <t xml:space="preserve">18.2105331420898</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4629364013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3694553375244</t>
+    <t xml:space="preserve">18.4629402160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3694534301758</t>
   </si>
   <si>
     <t xml:space="preserve">18.1357440948486</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9394302368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6966457366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7620830535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7901287078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.444242477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6779479980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3788032531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2385768890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8085536956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4813652038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8272495269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.500057220459</t>
+    <t xml:space="preserve">17.939432144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6966438293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7620849609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7901268005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4442405700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6779499053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3788070678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2385787963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8085517883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4813632965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8272514343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5000610351562</t>
   </si>
   <si>
     <t xml:space="preserve">17.4065780639648</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0980834960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1635227203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8830680847168</t>
+    <t xml:space="preserve">17.0980815887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1635189056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8830718994141</t>
   </si>
   <si>
     <t xml:space="preserve">16.6306686401367</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4623966217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5652256011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0700378417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7708892822266</t>
+    <t xml:space="preserve">16.4623947143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5652275085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0700416564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7708911895752</t>
   </si>
   <si>
     <t xml:space="preserve">16.7334995269775</t>
@@ -308,10 +308,10 @@
     <t xml:space="preserve">16.4810924530029</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6963729858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8363285064697</t>
+    <t xml:space="preserve">17.6963768005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8363265991211</t>
   </si>
   <si>
     <t xml:space="preserve">16.8176326751709</t>
@@ -320,28 +320,28 @@
     <t xml:space="preserve">17.5748462677002</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3224430084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3691825866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1165084838867</t>
+    <t xml:space="preserve">17.3224449157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3691844940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1165065765381</t>
   </si>
   <si>
     <t xml:space="preserve">16.153902053833</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2471132278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0508003234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3592948913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6303949356079</t>
+    <t xml:space="preserve">15.2471141815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.050799369812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3592939376831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6303930282593</t>
   </si>
   <si>
     <t xml:space="preserve">16.2660789489746</t>
@@ -350,55 +350,55 @@
     <t xml:space="preserve">15.2751588821411</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7329578399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1723279953003</t>
+    <t xml:space="preserve">14.7329559326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.172327041626</t>
   </si>
   <si>
     <t xml:space="preserve">14.8077430725098</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9666652679443</t>
+    <t xml:space="preserve">14.9666662216187</t>
   </si>
   <si>
     <t xml:space="preserve">15.7051811218262</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3219013214111</t>
+    <t xml:space="preserve">15.3219003677368</t>
   </si>
   <si>
     <t xml:space="preserve">14.9105739593506</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2748889923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5366401672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9386186599731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6958332061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6116991043091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7986650466919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5462608337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6210441589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5930023193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6771392822266</t>
+    <t xml:space="preserve">14.2748880386353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5366411209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9386196136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6958341598511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6117010116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7986679077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.546257019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6210479736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5930042266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6771373748779</t>
   </si>
   <si>
     <t xml:space="preserve">16.4530467987061</t>
@@ -407,40 +407,40 @@
     <t xml:space="preserve">15.9201917648315</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6864862442017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4343528747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1352062225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3876094818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4904441833496</t>
+    <t xml:space="preserve">15.6864881515503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4343509674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1352081298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3876113891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4904384613037</t>
   </si>
   <si>
     <t xml:space="preserve">16.3782615661621</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2941246032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.472017288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1354751586914</t>
+    <t xml:space="preserve">16.2941265106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4720153808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1354732513428</t>
   </si>
   <si>
     <t xml:space="preserve">16.9298133850098</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9672031402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9487819671631</t>
+    <t xml:space="preserve">16.9672050476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9487781524658</t>
   </si>
   <si>
     <t xml:space="preserve">17.4907112121582</t>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">17.3598365783691</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5281047821045</t>
+    <t xml:space="preserve">17.5281066894531</t>
   </si>
   <si>
     <t xml:space="preserve">17.6683311462402</t>
@@ -458,88 +458,88 @@
     <t xml:space="preserve">16.406307220459</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0884647369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0604190826416</t>
+    <t xml:space="preserve">16.0884628295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0604209899902</t>
   </si>
   <si>
     <t xml:space="preserve">16.1258563995361</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2567310333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9388875961304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9669351577759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8641014099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7893161773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9108476638794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3408699035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0232906341553</t>
+    <t xml:space="preserve">16.2567329406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.938889503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9669361114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8641033172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7893190383911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9108457565308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3408679962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0232944488525</t>
   </si>
   <si>
     <t xml:space="preserve">16.3689136505127</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8360595703125</t>
+    <t xml:space="preserve">15.8360614776611</t>
   </si>
   <si>
     <t xml:space="preserve">15.8454074859619</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0043296813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6584405899048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4527788162231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5280199050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6032619476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8477964401245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9324436187744</t>
+    <t xml:space="preserve">16.0043277740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6584386825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4527797698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5280208587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6032609939575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8477983474731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9324464797974</t>
   </si>
   <si>
     <t xml:space="preserve">16.0923328399658</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8195819854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2646741867065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6220731735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.716121673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7067193984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3493204116821</t>
+    <t xml:space="preserve">15.819580078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2646722793579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6220712661743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7161245346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7067203521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3493194580078</t>
   </si>
   <si>
     <t xml:space="preserve">16.0641174316406</t>
@@ -548,16 +548,16 @@
     <t xml:space="preserve">16.5343780517578</t>
   </si>
   <si>
-    <t xml:space="preserve">16.129955291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6879091262817</t>
+    <t xml:space="preserve">16.1299533843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6879100799561</t>
   </si>
   <si>
     <t xml:space="preserve">15.8007698059082</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5092077255249</t>
+    <t xml:space="preserve">15.5092105865479</t>
   </si>
   <si>
     <t xml:space="preserve">16.0829277038574</t>
@@ -566,13 +566,13 @@
     <t xml:space="preserve">16.2522220611572</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0358982086182</t>
+    <t xml:space="preserve">16.0359020233154</t>
   </si>
   <si>
     <t xml:space="preserve">16.7883205413818</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3996601104736</t>
+    <t xml:space="preserve">17.399658203125</t>
   </si>
   <si>
     <t xml:space="preserve">17.4749011993408</t>
@@ -581,34 +581,34 @@
     <t xml:space="preserve">17.352632522583</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4372806549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2397708892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1645278930664</t>
+    <t xml:space="preserve">17.43727684021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2397689819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1645259857178</t>
   </si>
   <si>
     <t xml:space="preserve">16.6942672729492</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3056030273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1175022125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3808460235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9639720916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1238594055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1614818572998</t>
+    <t xml:space="preserve">17.305606842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1175003051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3808498382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9639701843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1238613128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1614799499512</t>
   </si>
   <si>
     <t xml:space="preserve">18.1050510406494</t>
@@ -620,13 +620,13 @@
     <t xml:space="preserve">19.1396255493164</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1866512298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7979888916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8732299804688</t>
+    <t xml:space="preserve">19.1866493225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7979907989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8732318878174</t>
   </si>
   <si>
     <t xml:space="preserve">19.3559436798096</t>
@@ -635,52 +635,52 @@
     <t xml:space="preserve">19.1490306854248</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7039394378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.572265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.421781539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3183250427246</t>
+    <t xml:space="preserve">19.7039375305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5722618103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4217796325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.318323135376</t>
   </si>
   <si>
     <t xml:space="preserve">19.0925998687744</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2524852752686</t>
+    <t xml:space="preserve">19.2524871826172</t>
   </si>
   <si>
     <t xml:space="preserve">19.1772441864014</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1678371429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9891414642334</t>
+    <t xml:space="preserve">19.167839050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.989143371582</t>
   </si>
   <si>
     <t xml:space="preserve">18.8104400634766</t>
   </si>
   <si>
-    <t xml:space="preserve">18.631742477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3401794433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6881771087646</t>
+    <t xml:space="preserve">18.6317405700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.340181350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.688175201416</t>
   </si>
   <si>
     <t xml:space="preserve">18.7634162902832</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6975765228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6035289764404</t>
+    <t xml:space="preserve">18.6975784301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6035270690918</t>
   </si>
   <si>
     <t xml:space="preserve">18.7163906097412</t>
@@ -689,22 +689,22 @@
     <t xml:space="preserve">18.5094757080078</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5565013885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7446041107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8480625152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8574676513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9609241485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2807025909424</t>
+    <t xml:space="preserve">18.5564994812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7446060180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8480644226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8574657440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9609222412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2807006835938</t>
   </si>
   <si>
     <t xml:space="preserve">19.656909942627</t>
@@ -713,19 +713,19 @@
     <t xml:space="preserve">19.3277282714844</t>
   </si>
   <si>
-    <t xml:space="preserve">19.365348815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.609884262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6945343017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1960563659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4876155853271</t>
+    <t xml:space="preserve">19.3653507232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6098880767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6945323944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1960544586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4876174926758</t>
   </si>
   <si>
     <t xml:space="preserve">19.7509632110596</t>
@@ -740,13 +740,13 @@
     <t xml:space="preserve">19.5910739898682</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2712993621826</t>
+    <t xml:space="preserve">19.271297454834</t>
   </si>
   <si>
     <t xml:space="preserve">19.468807220459</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6286964416504</t>
+    <t xml:space="preserve">19.628698348999</t>
   </si>
   <si>
     <t xml:space="preserve">19.5252380371094</t>
@@ -755,10 +755,10 @@
     <t xml:space="preserve">20.164794921875</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2588443756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6350555419922</t>
+    <t xml:space="preserve">20.2588481903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6350574493408</t>
   </si>
   <si>
     <t xml:space="preserve">20.8795890808105</t>
@@ -767,31 +767,31 @@
     <t xml:space="preserve">21.1147212982178</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2275829315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2087707519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3999252319336</t>
+    <t xml:space="preserve">21.2275848388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2087745666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.399923324585</t>
   </si>
   <si>
     <t xml:space="preserve">20.8701877593994</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6444568634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.503381729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8325653076172</t>
+    <t xml:space="preserve">20.644458770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5033779144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8325672149658</t>
   </si>
   <si>
     <t xml:space="preserve">20.9078063964844</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8607807159424</t>
+    <t xml:space="preserve">20.8607788085938</t>
   </si>
   <si>
     <t xml:space="preserve">20.7573223114014</t>
@@ -803,13 +803,13 @@
     <t xml:space="preserve">20.9172115325928</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7385139465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0770969390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1241245269775</t>
+    <t xml:space="preserve">20.7385101318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0770988464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1241264343262</t>
   </si>
   <si>
     <t xml:space="preserve">20.7102966308594</t>
@@ -818,22 +818,22 @@
     <t xml:space="preserve">21.0394802093506</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9141616821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7636795043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.632007598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5849800109863</t>
+    <t xml:space="preserve">21.9141635894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7636775970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6320095062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5849838256836</t>
   </si>
   <si>
     <t xml:space="preserve">21.3968772888184</t>
   </si>
   <si>
-    <t xml:space="preserve">21.38747215271</t>
+    <t xml:space="preserve">21.3874702453613</t>
   </si>
   <si>
     <t xml:space="preserve">21.1899642944336</t>
@@ -842,28 +842,28 @@
     <t xml:space="preserve">21.5379543304443</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3686637878418</t>
+    <t xml:space="preserve">21.3686599731445</t>
   </si>
   <si>
     <t xml:space="preserve">21.6131973266602</t>
   </si>
   <si>
-    <t xml:space="preserve">21.490930557251</t>
+    <t xml:space="preserve">21.4909286499023</t>
   </si>
   <si>
     <t xml:space="preserve">20.8983974456787</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4344997406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2181777954102</t>
+    <t xml:space="preserve">21.4345016479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2181739807129</t>
   </si>
   <si>
     <t xml:space="preserve">21.3780670166016</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5191440582275</t>
+    <t xml:space="preserve">21.5191459655762</t>
   </si>
   <si>
     <t xml:space="preserve">21.5097408294678</t>
@@ -875,13 +875,13 @@
     <t xml:space="preserve">21.5473613739014</t>
   </si>
   <si>
-    <t xml:space="preserve">21.199369430542</t>
+    <t xml:space="preserve">21.1993656158447</t>
   </si>
   <si>
     <t xml:space="preserve">21.4439029693604</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9924545288086</t>
+    <t xml:space="preserve">20.99245262146</t>
   </si>
   <si>
     <t xml:space="preserve">20.5692176818848</t>
@@ -890,10 +890,10 @@
     <t xml:space="preserve">20.6538639068604</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6632690429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5786209106445</t>
+    <t xml:space="preserve">20.6632709503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5786228179932</t>
   </si>
   <si>
     <t xml:space="preserve">20.8889942169189</t>
@@ -905,13 +905,13 @@
     <t xml:space="preserve">20.2964668273926</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4657592773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0425262451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1553897857666</t>
+    <t xml:space="preserve">20.4657611846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0425243377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.155387878418</t>
   </si>
   <si>
     <t xml:space="preserve">20.5221900939941</t>
@@ -923,22 +923,22 @@
     <t xml:space="preserve">20.804349899292</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6914863586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2024154663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0801467895508</t>
+    <t xml:space="preserve">20.6914844512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.20241355896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0801448822021</t>
   </si>
   <si>
     <t xml:space="preserve">20.1365756988525</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9672832489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1742000579834</t>
+    <t xml:space="preserve">19.9672813415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.174201965332</t>
   </si>
   <si>
     <t xml:space="preserve">20.3246822357178</t>
@@ -947,22 +947,22 @@
     <t xml:space="preserve">20.2494411468506</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3623065948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.920259475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9266166687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4939746856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2212219238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.976692199707</t>
+    <t xml:space="preserve">20.3623046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9202575683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9266147613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4939785003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2212257385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9766883850098</t>
   </si>
   <si>
     <t xml:space="preserve">20.6726741790771</t>
@@ -971,10 +971,10 @@
     <t xml:space="preserve">20.3811130523682</t>
   </si>
   <si>
-    <t xml:space="preserve">20.747917175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1053161621094</t>
+    <t xml:space="preserve">20.7479190826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.105318069458</t>
   </si>
   <si>
     <t xml:space="preserve">20.5974349975586</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">20.8231582641602</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1523399353027</t>
+    <t xml:space="preserve">21.1523418426514</t>
   </si>
   <si>
     <t xml:space="preserve">21.4627132415771</t>
@@ -992,25 +992,25 @@
     <t xml:space="preserve">20.9830474853516</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7291069030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5880298614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6256504058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1271724700928</t>
+    <t xml:space="preserve">20.7291088104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5880279541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6256484985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1271705627441</t>
   </si>
   <si>
     <t xml:space="preserve">20.0895538330078</t>
   </si>
   <si>
-    <t xml:space="preserve">20.014310836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2306308746338</t>
+    <t xml:space="preserve">20.0143127441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2306289672852</t>
   </si>
   <si>
     <t xml:space="preserve">20.3434906005859</t>
@@ -1022,16 +1022,16 @@
     <t xml:space="preserve">20.2400360107422</t>
   </si>
   <si>
-    <t xml:space="preserve">19.779182434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4970226287842</t>
+    <t xml:space="preserve">19.7791767120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4970207214355</t>
   </si>
   <si>
     <t xml:space="preserve">19.01735496521</t>
   </si>
   <si>
-    <t xml:space="preserve">19.073787689209</t>
+    <t xml:space="preserve">19.0737915039062</t>
   </si>
   <si>
     <t xml:space="preserve">18.8668746948242</t>
@@ -1043,19 +1043,19 @@
     <t xml:space="preserve">18.9139022827148</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7916297912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8950881958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6693630218506</t>
+    <t xml:space="preserve">18.7916316986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8950901031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6693649291992</t>
   </si>
   <si>
     <t xml:space="preserve">19.0455722808838</t>
   </si>
   <si>
-    <t xml:space="preserve">19.374755859375</t>
+    <t xml:space="preserve">19.3747577667236</t>
   </si>
   <si>
     <t xml:space="preserve">19.2147750854492</t>
@@ -1064,58 +1064,58 @@
     <t xml:space="preserve">19.1864185333252</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7611026763916</t>
+    <t xml:space="preserve">18.7611045837402</t>
   </si>
   <si>
     <t xml:space="preserve">18.5342693328857</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1278553009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0711498260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8632183074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8915710449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1656608581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1184062957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1940174102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4964618682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6949443817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8178119659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6382350921631</t>
+    <t xml:space="preserve">18.127857208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0711479187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8632202148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8915729522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1656646728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.118408203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1940155029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4964656829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6949462890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.817813873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6382331848145</t>
   </si>
   <si>
     <t xml:space="preserve">18.3924980163574</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7232990264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5909805297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4492073059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9028739929199</t>
+    <t xml:space="preserve">18.723295211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5909786224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4492053985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9028759002686</t>
   </si>
   <si>
     <t xml:space="preserve">19.0068435668945</t>
@@ -1130,34 +1130,34 @@
     <t xml:space="preserve">18.8461666107178</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5815258026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6098804473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6760406494141</t>
+    <t xml:space="preserve">18.5815277099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.609884262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6760425567627</t>
   </si>
   <si>
     <t xml:space="preserve">18.713846206665</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7043952941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8934230804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9406795501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8272666931152</t>
+    <t xml:space="preserve">18.7043972015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.893424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9406833648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.827262878418</t>
   </si>
   <si>
     <t xml:space="preserve">18.6193332672119</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7327499389648</t>
+    <t xml:space="preserve">18.7327518463135</t>
   </si>
   <si>
     <t xml:space="preserve">19.1391620635986</t>
@@ -1166,19 +1166,19 @@
     <t xml:space="preserve">19.4227027893066</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7062473297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9897899627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7931652069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5492763519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8328227996826</t>
+    <t xml:space="preserve">19.7062492370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9897918701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7931632995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5492782592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.832820892334</t>
   </si>
   <si>
     <t xml:space="preserve">21.7855625152588</t>
@@ -1187,40 +1187,40 @@
     <t xml:space="preserve">21.6437911987305</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8800792694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7383060455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0218486785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0691070556641</t>
+    <t xml:space="preserve">21.8800811767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7383079528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0218505859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0691108703613</t>
   </si>
   <si>
     <t xml:space="preserve">21.2657356262207</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6986503601074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3129901885986</t>
+    <t xml:space="preserve">20.6986484527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3129940032959</t>
   </si>
   <si>
     <t xml:space="preserve">20.8876781463623</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0294494628906</t>
+    <t xml:space="preserve">21.029447555542</t>
   </si>
   <si>
     <t xml:space="preserve">20.9821929931641</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3602485656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4547653198242</t>
+    <t xml:space="preserve">21.3602523803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4547634124756</t>
   </si>
   <si>
     <t xml:space="preserve">21.4075050354004</t>
@@ -1235,7 +1235,7 @@
     <t xml:space="preserve">21.9745941162109</t>
   </si>
   <si>
-    <t xml:space="preserve">22.494421005249</t>
+    <t xml:space="preserve">22.4944229125977</t>
   </si>
   <si>
     <t xml:space="preserve">22.1636219024658</t>
@@ -1244,40 +1244,40 @@
     <t xml:space="preserve">22.3526496887207</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2581348419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0767059326172</t>
+    <t xml:space="preserve">22.2581367492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0767097473145</t>
   </si>
   <si>
     <t xml:space="preserve">21.5020217895508</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5568790435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.462366104126</t>
+    <t xml:space="preserve">20.5568809509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4623641967773</t>
   </si>
   <si>
     <t xml:space="preserve">21.1712207794189</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8404216766357</t>
+    <t xml:space="preserve">20.8404178619385</t>
   </si>
   <si>
     <t xml:space="preserve">21.2184791564941</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5965347290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6513919830322</t>
+    <t xml:space="preserve">21.5965366363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6513938903809</t>
   </si>
   <si>
     <t xml:space="preserve">20.745906829834</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3678455352783</t>
+    <t xml:space="preserve">20.3678493499756</t>
   </si>
   <si>
     <t xml:space="preserve">19.280933380127</t>
@@ -1286,19 +1286,19 @@
     <t xml:space="preserve">19.3754463195801</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5644760131836</t>
+    <t xml:space="preserve">19.5644779205322</t>
   </si>
   <si>
     <t xml:space="preserve">20.0370464324951</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8480186462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6041355133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5096225738525</t>
+    <t xml:space="preserve">19.8480205535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.604133605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5096206665039</t>
   </si>
   <si>
     <t xml:space="preserve">20.2260761260986</t>
@@ -1307,46 +1307,46 @@
     <t xml:space="preserve">20.4151058197021</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2733325958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1315612792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1788177490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6589889526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8007621765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7535037994385</t>
+    <t xml:space="preserve">20.2733364105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1315631866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1788196563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6589908599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8007640838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7535076141357</t>
   </si>
   <si>
     <t xml:space="preserve">19.8952751159668</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9425315856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.517219543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4699630737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6117324829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0843029022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6910495758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3205890655518</t>
+    <t xml:space="preserve">19.942533493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5172176361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4699649810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6117343902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0843067169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6910514831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.320592880249</t>
   </si>
   <si>
     <t xml:space="preserve">17.9388294219971</t>
@@ -1355,61 +1355,61 @@
     <t xml:space="preserve">15.500358581543</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8973197937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9521751403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6497287750244</t>
+    <t xml:space="preserve">15.8973178863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9521760940552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6497297286987</t>
   </si>
   <si>
     <t xml:space="preserve">14.9899806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5948724746704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8217058181763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1997623443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7271928787231</t>
+    <t xml:space="preserve">15.5948715209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8217077255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.199764251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7271909713745</t>
   </si>
   <si>
     <t xml:space="preserve">15.5192623138428</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6515808105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0674419403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9918336868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8595142364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7839012145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5759706497192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1979122161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0457429885864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7604265213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5892353057861</t>
+    <t xml:space="preserve">15.6515798568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0674457550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.99183177948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8595151901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7839021682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5759696960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1979112625122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0457439422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7604274749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5892362594604</t>
   </si>
   <si>
     <t xml:space="preserve">14.6272773742676</t>
@@ -1421,13 +1421,13 @@
     <t xml:space="preserve">15.1218271255493</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8365106582642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3310613632202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6354007720947</t>
+    <t xml:space="preserve">14.8365116119385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3310604095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6353988647461</t>
   </si>
   <si>
     <t xml:space="preserve">15.4642095565796</t>
@@ -1436,58 +1436,58 @@
     <t xml:space="preserve">14.2468538284302</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0946855545044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7713251113892</t>
+    <t xml:space="preserve">14.0946846008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7713241577148</t>
   </si>
   <si>
     <t xml:space="preserve">13.9044733047485</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5131511688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3419580459595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3229398727417</t>
+    <t xml:space="preserve">14.5131492614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3419589996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3229389190674</t>
   </si>
   <si>
     <t xml:space="preserve">14.3990240097046</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1327266693115</t>
+    <t xml:space="preserve">14.1327276229858</t>
   </si>
   <si>
     <t xml:space="preserve">13.8093671798706</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7903451919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9615364074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2278337478638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3800020217896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7033624649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9316158294678</t>
+    <t xml:space="preserve">13.7903461456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.961537361145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2278327941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3800029754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7033615112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9316167831421</t>
   </si>
   <si>
     <t xml:space="preserve">15.4071464538574</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3120403289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2169332504272</t>
+    <t xml:space="preserve">15.3120393753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2169342041016</t>
   </si>
   <si>
     <t xml:space="preserve">15.2549772262573</t>
@@ -1499,43 +1499,43 @@
     <t xml:space="preserve">15.2930183410645</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3500814437866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3881244659424</t>
+    <t xml:space="preserve">15.3500804901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3881254196167</t>
   </si>
   <si>
     <t xml:space="preserve">15.7305059432983</t>
   </si>
   <si>
-    <t xml:space="preserve">16.167989730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0239429473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1000308990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1190490722656</t>
+    <t xml:space="preserve">16.1679935455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0239448547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1000270843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1190509796143</t>
   </si>
   <si>
     <t xml:space="preserve">16.7005844116211</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6245002746582</t>
+    <t xml:space="preserve">16.6245021820068</t>
   </si>
   <si>
     <t xml:space="preserve">16.4723300933838</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5674362182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1870155334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.072883605957</t>
+    <t xml:space="preserve">16.5674381256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.18701171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0728874206543</t>
   </si>
   <si>
     <t xml:space="preserve">16.0158214569092</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">16.339183807373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3582057952881</t>
+    <t xml:space="preserve">16.3582038879395</t>
   </si>
   <si>
     <t xml:space="preserve">16.4533100128174</t>
@@ -1559,19 +1559,19 @@
     <t xml:space="preserve">16.4913520812988</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6435222625732</t>
+    <t xml:space="preserve">16.6435203552246</t>
   </si>
   <si>
     <t xml:space="preserve">16.6625423431396</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4342880249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8147106170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9288387298584</t>
+    <t xml:space="preserve">16.434289932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8147125244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9288368225098</t>
   </si>
   <si>
     <t xml:space="preserve">16.6815662384033</t>
@@ -1604,19 +1604,19 @@
     <t xml:space="preserve">16.7386283874512</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9859027862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1570949554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6896839141846</t>
+    <t xml:space="preserve">16.9859046936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1570930480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6896858215332</t>
   </si>
   <si>
     <t xml:space="preserve">18.5075950622559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4885749816895</t>
+    <t xml:space="preserve">18.4885768890381</t>
   </si>
   <si>
     <t xml:space="preserve">18.4695529937744</t>
@@ -1631,19 +1631,19 @@
     <t xml:space="preserve">17.3473033905029</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2141571044922</t>
+    <t xml:space="preserve">17.2141551971436</t>
   </si>
   <si>
     <t xml:space="preserve">17.1951351165771</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9478607177734</t>
+    <t xml:space="preserve">16.9478588104248</t>
   </si>
   <si>
     <t xml:space="preserve">16.8527526855469</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1761112213135</t>
+    <t xml:space="preserve">17.1761150360107</t>
   </si>
   <si>
     <t xml:space="preserve">17.0429649353027</t>
@@ -1652,10 +1652,10 @@
     <t xml:space="preserve">17.2712173461914</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3663272857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4424114227295</t>
+    <t xml:space="preserve">17.366325378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4424095153809</t>
   </si>
   <si>
     <t xml:space="preserve">16.9668807983398</t>
@@ -1664,37 +1664,37 @@
     <t xml:space="preserve">16.4152679443359</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6924619674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.711483001709</t>
+    <t xml:space="preserve">15.6924610137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7114839553833</t>
   </si>
   <si>
     <t xml:space="preserve">15.6544189453125</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3691024780273</t>
+    <t xml:space="preserve">15.369101524353</t>
   </si>
   <si>
     <t xml:space="preserve">14.8745536804199</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9886808395386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2739973068237</t>
+    <t xml:space="preserve">14.9886798858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2739963531494</t>
   </si>
   <si>
     <t xml:space="preserve">14.9506378173828</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1598691940308</t>
+    <t xml:space="preserve">15.1598701477051</t>
   </si>
   <si>
     <t xml:space="preserve">15.0267219543457</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6843404769897</t>
+    <t xml:space="preserve">14.6843414306641</t>
   </si>
   <si>
     <t xml:space="preserve">14.8555316925049</t>
@@ -1703,10 +1703,10 @@
     <t xml:space="preserve">14.5511932373047</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0076999664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7414045333862</t>
+    <t xml:space="preserve">15.007700920105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7414035797119</t>
   </si>
   <si>
     <t xml:space="preserve">14.6462984085083</t>
@@ -1724,19 +1724,19 @@
     <t xml:space="preserve">15.5783348083496</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8636531829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4261674880981</t>
+    <t xml:space="preserve">15.863655090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4261655807495</t>
   </si>
   <si>
     <t xml:space="preserve">15.7875690460205</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6163787841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5212726593018</t>
+    <t xml:space="preserve">15.616379737854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5212707519531</t>
   </si>
   <si>
     <t xml:space="preserve">15.2359552383423</t>
@@ -1745,64 +1745,64 @@
     <t xml:space="preserve">15.0647649765015</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7223834991455</t>
+    <t xml:space="preserve">14.7223825454712</t>
   </si>
   <si>
     <t xml:space="preserve">14.9696578979492</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7984685897827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4751081466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4560861587524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2658739089966</t>
+    <t xml:space="preserve">14.7984676361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4751091003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4560871124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2658748626709</t>
   </si>
   <si>
     <t xml:space="preserve">14.0756635665894</t>
   </si>
   <si>
-    <t xml:space="preserve">13.94251537323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6082563400269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4370670318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9805583953857</t>
+    <t xml:space="preserve">13.9425144195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6082553863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4370651245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9805574417114</t>
   </si>
   <si>
     <t xml:space="preserve">14.0186004638672</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2088117599487</t>
+    <t xml:space="preserve">14.208812713623</t>
   </si>
   <si>
     <t xml:space="preserve">14.1137056350708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4180431365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1897897720337</t>
+    <t xml:space="preserve">14.418044090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.189790725708</t>
   </si>
   <si>
     <t xml:space="preserve">14.7794466018677</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1707696914673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5593147277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3609819412231</t>
+    <t xml:space="preserve">14.170768737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5593156814575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3609809875488</t>
   </si>
   <si>
     <t xml:space="preserve">14.2848968505859</t>
@@ -1814,10 +1814,10 @@
     <t xml:space="preserve">15.1788911819458</t>
   </si>
   <si>
-    <t xml:space="preserve">15.483229637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2640390396118</t>
+    <t xml:space="preserve">15.4832305908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2640380859375</t>
   </si>
   <si>
     <t xml:space="preserve">15.2448387145996</t>
@@ -1829,40 +1829,40 @@
     <t xml:space="preserve">14.9952383041382</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0720386505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5712404251099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8784408569336</t>
+    <t xml:space="preserve">15.0720376968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5712394714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8784399032593</t>
   </si>
   <si>
     <t xml:space="preserve">16.6656436920166</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5312404632568</t>
+    <t xml:space="preserve">16.5312423706055</t>
   </si>
   <si>
     <t xml:space="preserve">15.8976402282715</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8592405319214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7248401641846</t>
+    <t xml:space="preserve">15.8592414855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7248392105103</t>
   </si>
   <si>
     <t xml:space="preserve">15.7440404891968</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6480388641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9552392959595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9936418533325</t>
+    <t xml:space="preserve">15.6480398178101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9552412033081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9936408996582</t>
   </si>
   <si>
     <t xml:space="preserve">16.3776416778564</t>
@@ -1871,7 +1871,7 @@
     <t xml:space="preserve">15.9168405532837</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8016386032104</t>
+    <t xml:space="preserve">15.8016414642334</t>
   </si>
   <si>
     <t xml:space="preserve">15.8400392532349</t>
@@ -1880,19 +1880,19 @@
     <t xml:space="preserve">16.2432403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1856422424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6096410751343</t>
+    <t xml:space="preserve">16.1856441497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.60964012146</t>
   </si>
   <si>
     <t xml:space="preserve">16.0320415496826</t>
   </si>
   <si>
-    <t xml:space="preserve">15.763240814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6288394927979</t>
+    <t xml:space="preserve">15.7632398605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6288423538208</t>
   </si>
   <si>
     <t xml:space="preserve">15.7824411392212</t>
@@ -1901,43 +1901,43 @@
     <t xml:space="preserve">15.4368391036987</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3024377822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1680383682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3984413146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9376392364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1296396255493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6880369186401</t>
+    <t xml:space="preserve">15.3024387359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1680393218994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3984403610229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9376382827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.129638671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6880378723145</t>
   </si>
   <si>
     <t xml:space="preserve">14.2080364227295</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1120357513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4000368118286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7840375900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.976037979126</t>
+    <t xml:space="preserve">14.1120347976685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4000358581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7840366363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9760389328003</t>
   </si>
   <si>
     <t xml:space="preserve">14.7648372650146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5728378295898</t>
+    <t xml:space="preserve">14.5728368759155</t>
   </si>
   <si>
     <t xml:space="preserve">14.6112375259399</t>
@@ -1946,22 +1946,22 @@
     <t xml:space="preserve">14.8032379150391</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5152359008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4576377868652</t>
+    <t xml:space="preserve">14.5152378082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4576368331909</t>
   </si>
   <si>
     <t xml:space="preserve">14.2272367477417</t>
   </si>
   <si>
-    <t xml:space="preserve">13.862434387207</t>
+    <t xml:space="preserve">13.8624353408813</t>
   </si>
   <si>
     <t xml:space="preserve">13.3056325912476</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1712331771851</t>
+    <t xml:space="preserve">13.1712341308594</t>
   </si>
   <si>
     <t xml:space="preserve">13.5360355377197</t>
@@ -1970,13 +1970,13 @@
     <t xml:space="preserve">13.2480344772339</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9600324630737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5760335922241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3264312744141</t>
+    <t xml:space="preserve">12.960033416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5760326385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3264322280884</t>
   </si>
   <si>
     <t xml:space="preserve">12.0960311889648</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">11.6160297393799</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1744289398193</t>
+    <t xml:space="preserve">11.1744298934937</t>
   </si>
   <si>
     <t xml:space="preserve">10.2528266906738</t>
@@ -1994,10 +1994,10 @@
     <t xml:space="preserve">10.0800256729126</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71522521972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02402305603027</t>
+    <t xml:space="preserve">9.71522426605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02402210235596</t>
   </si>
   <si>
     <t xml:space="preserve">9.5328254699707</t>
@@ -2009,13 +2009,13 @@
     <t xml:space="preserve">8.65922355651855</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21602439880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2912254333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8864278793335</t>
+    <t xml:space="preserve">9.21602344512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2912263870239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8864288330078</t>
   </si>
   <si>
     <t xml:space="preserve">12.0768308639526</t>
@@ -2024,10 +2024,10 @@
     <t xml:space="preserve">13.0560340881348</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7504291534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0976285934448</t>
+    <t xml:space="preserve">11.7504301071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0976276397705</t>
   </si>
   <si>
     <t xml:space="preserve">11.0592288970947</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">10.7712278366089</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1952266693115</t>
+    <t xml:space="preserve">10.1952257156372</t>
   </si>
   <si>
     <t xml:space="preserve">10.4640264511108</t>
@@ -2054,13 +2054,13 @@
     <t xml:space="preserve">11.0400285720825</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7136278152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.329626083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0032262802124</t>
+    <t xml:space="preserve">10.7136268615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3296270370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0032253265381</t>
   </si>
   <si>
     <t xml:space="preserve">10.3488264083862</t>
@@ -2072,40 +2072,40 @@
     <t xml:space="preserve">10.5600271224976</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9056282043457</t>
+    <t xml:space="preserve">10.9056262969971</t>
   </si>
   <si>
     <t xml:space="preserve">10.8480281829834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8288269042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9440269470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9632272720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6752281188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1360282897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0784273147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6352291107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7120304107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1936292648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5584287643433</t>
+    <t xml:space="preserve">10.8288278579712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9440279006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.963228225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6752271652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1360292434692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0784282684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6352300643921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.712028503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1936283111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5584297180176</t>
   </si>
   <si>
     <t xml:space="preserve">11.6544303894043</t>
@@ -2114,16 +2114,16 @@
     <t xml:space="preserve">11.9424304962158</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1536302566528</t>
+    <t xml:space="preserve">12.1536312103271</t>
   </si>
   <si>
     <t xml:space="preserve">12.441632270813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3648319244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2496318817139</t>
+    <t xml:space="preserve">12.3648309707642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2496309280396</t>
   </si>
   <si>
     <t xml:space="preserve">12.0000305175781</t>
@@ -2132,13 +2132,13 @@
     <t xml:space="preserve">11.3664302825928</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1552276611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.328028678894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2320289611816</t>
+    <t xml:space="preserve">11.1552286148071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3280296325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2320280075073</t>
   </si>
   <si>
     <t xml:space="preserve">11.0208282470703</t>
@@ -2147,7 +2147,7 @@
     <t xml:space="preserve">10.9248275756836</t>
   </si>
   <si>
-    <t xml:space="preserve">10.809627532959</t>
+    <t xml:space="preserve">10.8096265792847</t>
   </si>
   <si>
     <t xml:space="preserve">10.5408267974854</t>
@@ -2162,10 +2162,10 @@
     <t xml:space="preserve">11.3472290039062</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4816284179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4240283966064</t>
+    <t xml:space="preserve">11.4816293716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4240293502808</t>
   </si>
   <si>
     <t xml:space="preserve">11.2128286361694</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">11.1168279647827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7328271865845</t>
+    <t xml:space="preserve">10.7328281402588</t>
   </si>
   <si>
     <t xml:space="preserve">10.5024261474609</t>
@@ -2186,25 +2186,25 @@
     <t xml:space="preserve">11.7888298034668</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5776309967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8272285461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6736288070679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7696304321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6928300857544</t>
+    <t xml:space="preserve">11.5776290893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8272304534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6736297607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7696294784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6928291320801</t>
   </si>
   <si>
     <t xml:space="preserve">11.808030128479</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8848304748535</t>
+    <t xml:space="preserve">11.8848295211792</t>
   </si>
   <si>
     <t xml:space="preserve">12.3840312957764</t>
@@ -2222,34 +2222,34 @@
     <t xml:space="preserve">12.1344318389893</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9616298675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9040307998657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3856296539307</t>
+    <t xml:space="preserve">11.961630821228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9040298461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.385627746582</t>
   </si>
   <si>
     <t xml:space="preserve">12.806432723999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8240346908569</t>
+    <t xml:space="preserve">13.8240356445312</t>
   </si>
   <si>
     <t xml:space="preserve">13.5552349090576</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0352354049683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7664346694946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4016351699829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.593635559082</t>
+    <t xml:space="preserve">14.0352363586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7664356231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4016342163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5936346054077</t>
   </si>
   <si>
     <t xml:space="preserve">13.6320343017578</t>
@@ -2261,28 +2261,28 @@
     <t xml:space="preserve">13.497633934021</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3040361404419</t>
+    <t xml:space="preserve">14.3040351867676</t>
   </si>
   <si>
     <t xml:space="preserve">13.9008350372314</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5744342803955</t>
+    <t xml:space="preserve">13.5744352340698</t>
   </si>
   <si>
     <t xml:space="preserve">13.286434173584</t>
   </si>
   <si>
-    <t xml:space="preserve">13.65123462677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.344033241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1728315353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2112321853638</t>
+    <t xml:space="preserve">13.6512355804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3440341949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.172830581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2112312316895</t>
   </si>
   <si>
     <t xml:space="preserve">12.4800319671631</t>
@@ -2291,40 +2291,40 @@
     <t xml:space="preserve">12.5952320098877</t>
   </si>
   <si>
-    <t xml:space="preserve">13.017632484436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9792337417603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2096338272095</t>
+    <t xml:space="preserve">13.0176334381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9792327880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2096328735352</t>
   </si>
   <si>
     <t xml:space="preserve">13.4784345626831</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6128349304199</t>
+    <t xml:space="preserve">13.6128339767456</t>
   </si>
   <si>
     <t xml:space="preserve">13.7280359268188</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7879419326782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.807333946228</t>
+    <t xml:space="preserve">13.7879428863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8073348999023</t>
   </si>
   <si>
     <t xml:space="preserve">13.5746269226074</t>
   </si>
   <si>
-    <t xml:space="preserve">13.613410949707</t>
+    <t xml:space="preserve">13.6134119033813</t>
   </si>
   <si>
     <t xml:space="preserve">13.4776649475098</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6715888977051</t>
+    <t xml:space="preserve">13.6715879440308</t>
   </si>
   <si>
     <t xml:space="preserve">14.0206499099731</t>
@@ -2333,19 +2333,19 @@
     <t xml:space="preserve">14.0594348907471</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9236879348755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3503189086914</t>
+    <t xml:space="preserve">13.9236869812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3503198623657</t>
   </si>
   <si>
     <t xml:space="preserve">14.3309268951416</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3891038894653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1563968658447</t>
+    <t xml:space="preserve">14.3891048431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1563959121704</t>
   </si>
   <si>
     <t xml:space="preserve">13.8655118942261</t>
@@ -2354,13 +2354,13 @@
     <t xml:space="preserve">13.6328039169312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9430818557739</t>
+    <t xml:space="preserve">13.9430809020996</t>
   </si>
   <si>
     <t xml:space="preserve">13.7685489654541</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7103729248047</t>
+    <t xml:space="preserve">13.710373878479</t>
   </si>
   <si>
     <t xml:space="preserve">13.9624729156494</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">14.8157348632812</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1841897964478</t>
+    <t xml:space="preserve">15.1841888427734</t>
   </si>
   <si>
     <t xml:space="preserve">15.2229738235474</t>
@@ -2393,10 +2393,10 @@
     <t xml:space="preserve">16.6967906951904</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5416507720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3865127563477</t>
+    <t xml:space="preserve">16.5416526794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3865146636963</t>
   </si>
   <si>
     <t xml:space="preserve">16.0180587768555</t>
@@ -2405,10 +2405,10 @@
     <t xml:space="preserve">16.1538066864014</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9986658096313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8047428131104</t>
+    <t xml:space="preserve">15.9986667633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8047437667847</t>
   </si>
   <si>
     <t xml:space="preserve">15.513858795166</t>
@@ -2417,13 +2417,13 @@
     <t xml:space="preserve">15.9404916763306</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5332517623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6302137374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9210987091064</t>
+    <t xml:space="preserve">15.5332527160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6302127838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9210977554321</t>
   </si>
   <si>
     <t xml:space="preserve">16.0568428039551</t>
@@ -2432,40 +2432,40 @@
     <t xml:space="preserve">16.4640827178955</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8131427764893</t>
+    <t xml:space="preserve">16.8131446838379</t>
   </si>
   <si>
     <t xml:space="preserve">16.9876747131348</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8907146453857</t>
+    <t xml:space="preserve">16.8907127380371</t>
   </si>
   <si>
     <t xml:space="preserve">16.8519287109375</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9294967651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9101066589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3755226135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.356128692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4143047332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2009906768799</t>
+    <t xml:space="preserve">16.9294986724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9101085662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3755207061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3561305999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.414306640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2009887695312</t>
   </si>
   <si>
     <t xml:space="preserve">16.6580066680908</t>
   </si>
   <si>
-    <t xml:space="preserve">16.638614654541</t>
+    <t xml:space="preserve">16.6386127471924</t>
   </si>
   <si>
     <t xml:space="preserve">17.1234226226807</t>
@@ -2480,7 +2480,7 @@
     <t xml:space="preserve">17.1428146362305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0652465820312</t>
+    <t xml:space="preserve">17.0652446746826</t>
   </si>
   <si>
     <t xml:space="preserve">18.1900005340576</t>
@@ -2492,19 +2492,19 @@
     <t xml:space="preserve">18.5390625</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8771324157715</t>
+    <t xml:space="preserve">19.8771305084229</t>
   </si>
   <si>
     <t xml:space="preserve">20.1680164337158</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5558643341064</t>
+    <t xml:space="preserve">20.5558624267578</t>
   </si>
   <si>
     <t xml:space="preserve">20.0225734710693</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9921913146973</t>
+    <t xml:space="preserve">20.9921894073486</t>
   </si>
   <si>
     <t xml:space="preserve">20.7497863769531</t>
@@ -2516,28 +2516,28 @@
     <t xml:space="preserve">20.2164974212646</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1195373535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2649784088135</t>
+    <t xml:space="preserve">20.119535446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2649803161621</t>
   </si>
   <si>
     <t xml:space="preserve">20.6528244018555</t>
   </si>
   <si>
-    <t xml:space="preserve">20.798267364502</t>
+    <t xml:space="preserve">20.7982692718506</t>
   </si>
   <si>
     <t xml:space="preserve">20.895227432251</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2345943450928</t>
+    <t xml:space="preserve">21.2345962524414</t>
   </si>
   <si>
     <t xml:space="preserve">21.1376323699951</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6043453216553</t>
+    <t xml:space="preserve">20.6043434143066</t>
   </si>
   <si>
     <t xml:space="preserve">20.3134593963623</t>
@@ -2546,13 +2546,13 @@
     <t xml:space="preserve">21.1861133575439</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9740924835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.731689453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5862483978271</t>
+    <t xml:space="preserve">19.9740943908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7316913604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5862464904785</t>
   </si>
   <si>
     <t xml:space="preserve">19.7801704406738</t>
@@ -2561,22 +2561,22 @@
     <t xml:space="preserve">20.0710544586182</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3923244476318</t>
+    <t xml:space="preserve">19.3923225402832</t>
   </si>
   <si>
     <t xml:space="preserve">20.5073833465576</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7013053894043</t>
+    <t xml:space="preserve">20.7013072967529</t>
   </si>
   <si>
     <t xml:space="preserve">20.4589004516602</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3800373077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9618072509766</t>
+    <t xml:space="preserve">21.3800354003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9618053436279</t>
   </si>
   <si>
     <t xml:space="preserve">21.5739593505859</t>
@@ -2588,10 +2588,10 @@
     <t xml:space="preserve">22.0102882385254</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1072463989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8163642883301</t>
+    <t xml:space="preserve">22.1072483062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8163623809814</t>
   </si>
   <si>
     <t xml:space="preserve">22.1557292938232</t>
@@ -2618,10 +2618,10 @@
     <t xml:space="preserve">23.6101551055908</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9314231872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6890201568604</t>
+    <t xml:space="preserve">22.9314212799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6890182495117</t>
   </si>
   <si>
     <t xml:space="preserve">22.3011722564697</t>
@@ -2630,10 +2630,10 @@
     <t xml:space="preserve">21.9133262634277</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6709213256836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0891532897949</t>
+    <t xml:space="preserve">21.6709232330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0891513824463</t>
   </si>
   <si>
     <t xml:space="preserve">21.0406723022461</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">22.2042121887207</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8221759796143</t>
+    <t xml:space="preserve">24.8221740722656</t>
   </si>
   <si>
     <t xml:space="preserve">24.240406036377</t>
@@ -2651,7 +2651,7 @@
     <t xml:space="preserve">23.7555961608887</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7071151733398</t>
+    <t xml:space="preserve">23.7071170806885</t>
   </si>
   <si>
     <t xml:space="preserve">23.4647121429443</t>
@@ -2660,7 +2660,7 @@
     <t xml:space="preserve">23.5616722106934</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8040752410889</t>
+    <t xml:space="preserve">23.8040771484375</t>
   </si>
   <si>
     <t xml:space="preserve">23.5131931304932</t>
@@ -2669,13 +2669,13 @@
     <t xml:space="preserve">24.046480178833</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9010391235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3677501678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0949630737305</t>
+    <t xml:space="preserve">23.9010372161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.367748260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0949611663818</t>
   </si>
   <si>
     <t xml:space="preserve">23.9980010986328</t>
@@ -2687,16 +2687,16 @@
     <t xml:space="preserve">23.3192672729492</t>
   </si>
   <si>
-    <t xml:space="preserve">23.852560043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1253471374512</t>
+    <t xml:space="preserve">23.8525581359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1253452301025</t>
   </si>
   <si>
     <t xml:space="preserve">22.882942199707</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5435752868652</t>
+    <t xml:space="preserve">22.5435771942139</t>
   </si>
   <si>
     <t xml:space="preserve">21.8648433685303</t>
@@ -2708,37 +2708,37 @@
     <t xml:space="preserve">22.4466152191162</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5312881469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1919231414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7736930847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3373680114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1434421539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7917919158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0826740264893</t>
+    <t xml:space="preserve">24.5312900543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1919250488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7736949920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.337366104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1434440612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7917900085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0826759338379</t>
   </si>
   <si>
     <t xml:space="preserve">26.4705219268799</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1796360015869</t>
+    <t xml:space="preserve">26.1796379089355</t>
   </si>
   <si>
     <t xml:space="preserve">26.1311569213867</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2765979766846</t>
+    <t xml:space="preserve">26.2765998840332</t>
   </si>
   <si>
     <t xml:space="preserve">25.9857139587402</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">26.9068489074707</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8279857635498</t>
+    <t xml:space="preserve">27.8279838562012</t>
   </si>
   <si>
     <t xml:space="preserve">27.7310237884521</t>
@@ -2759,16 +2759,16 @@
     <t xml:space="preserve">27.6825428009033</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2158298492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8460826873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3127937316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.652156829834</t>
+    <t xml:space="preserve">28.2158317565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8460807800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3127918243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6521587371826</t>
   </si>
   <si>
     <t xml:space="preserve">28.1188697814941</t>
@@ -2777,25 +2777,25 @@
     <t xml:space="preserve">27.9734268188477</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0703907012939</t>
+    <t xml:space="preserve">28.0703887939453</t>
   </si>
   <si>
     <t xml:space="preserve">27.87646484375</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5855827331543</t>
+    <t xml:space="preserve">27.5855808258057</t>
   </si>
   <si>
     <t xml:space="preserve">27.2946949005127</t>
   </si>
   <si>
-    <t xml:space="preserve">27.488618850708</t>
+    <t xml:space="preserve">27.4886207580566</t>
   </si>
   <si>
     <t xml:space="preserve">27.3916568756104</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0522899627686</t>
+    <t xml:space="preserve">27.0522918701172</t>
   </si>
   <si>
     <t xml:space="preserve">27.2648448944092</t>
@@ -3957,6 +3957,9 @@
   </si>
   <si>
     <t xml:space="preserve">36.4500007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.75</t>
   </si>
 </sst>
 </file>
@@ -60952,7 +60955,7 @@
     </row>
     <row r="2180">
       <c r="A2180" s="1" t="n">
-        <v>45497.6493171296</v>
+        <v>45497.2916666667</v>
       </c>
       <c r="B2180" t="n">
         <v>39794</v>
@@ -60973,6 +60976,32 @@
         <v>1313</v>
       </c>
       <c r="H2180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" s="1" t="n">
+        <v>45498.6496412037</v>
+      </c>
+      <c r="B2181" t="n">
+        <v>162164</v>
+      </c>
+      <c r="C2181" t="n">
+        <v>36.2000007629395</v>
+      </c>
+      <c r="D2181" t="n">
+        <v>34.2999992370605</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>36.2000007629395</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="G2181" t="s">
+        <v>1315</v>
+      </c>
+      <c r="H2181" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAN.MI.xlsx
+++ b/data/DAN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="1319">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8921518325806</t>
+    <t xml:space="preserve">15.8921480178833</t>
   </si>
   <si>
     <t xml:space="preserve">DAN.MI</t>
@@ -47,85 +47,85 @@
     <t xml:space="preserve">16.023021697998</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5182151794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8170928955078</t>
+    <t xml:space="preserve">15.518217086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8170909881592</t>
   </si>
   <si>
     <t xml:space="preserve">14.4899005889893</t>
   </si>
   <si>
-    <t xml:space="preserve">14.209451675415</t>
+    <t xml:space="preserve">14.2094497680664</t>
   </si>
   <si>
     <t xml:space="preserve">14.5646858215332</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3122825622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346626281738</t>
+    <t xml:space="preserve">14.3122835159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346635818481</t>
   </si>
   <si>
     <t xml:space="preserve">13.3587532043457</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0409107208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1343927383423</t>
+    <t xml:space="preserve">13.0409088134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1343936920166</t>
   </si>
   <si>
     <t xml:space="preserve">12.5267515182495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1998300552368</t>
+    <t xml:space="preserve">13.1998319625854</t>
   </si>
   <si>
     <t xml:space="preserve">13.3867969512939</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2006435394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3595638275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6400146484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3969612121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6774063110352</t>
+    <t xml:space="preserve">16.2006454467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3595657348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6400127410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3969573974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6774082183838</t>
   </si>
   <si>
     <t xml:space="preserve">17.4439697265625</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9204635620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7706232070923</t>
+    <t xml:space="preserve">16.9204616546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7706203460693</t>
   </si>
   <si>
     <t xml:space="preserve">16.4156532287598</t>
   </si>
   <si>
-    <t xml:space="preserve">15.602349281311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2284202575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2377653121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490907669067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3966865539551</t>
+    <t xml:space="preserve">15.6023502349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2284183502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2377634048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.649094581604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3966856002808</t>
   </si>
   <si>
     <t xml:space="preserve">15.2938547134399</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">16.2193412780762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5465354919434</t>
+    <t xml:space="preserve">16.5465335845947</t>
   </si>
   <si>
     <t xml:space="preserve">17.0887336730957</t>
@@ -152,97 +152,97 @@
     <t xml:space="preserve">17.032642364502</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6680583953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6587085723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1541728973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9578609466553</t>
+    <t xml:space="preserve">16.6680603027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.658712387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1541748046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.957857131958</t>
   </si>
   <si>
     <t xml:space="preserve">17.5094089508057</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6402854919434</t>
+    <t xml:space="preserve">17.640287399292</t>
   </si>
   <si>
     <t xml:space="preserve">17.7057247161865</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7711601257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8550300598145</t>
+    <t xml:space="preserve">17.7711639404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8550243377686</t>
   </si>
   <si>
     <t xml:space="preserve">17.55615234375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8553009033203</t>
+    <t xml:space="preserve">17.8552951812744</t>
   </si>
   <si>
     <t xml:space="preserve">17.2009143829346</t>
   </si>
   <si>
-    <t xml:space="preserve">17.593542098999</t>
+    <t xml:space="preserve">17.5935440063477</t>
   </si>
   <si>
     <t xml:space="preserve">17.7992076873779</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3411388397217</t>
+    <t xml:space="preserve">17.341136932373</t>
   </si>
   <si>
     <t xml:space="preserve">16.5278358459473</t>
   </si>
   <si>
-    <t xml:space="preserve">16.873722076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2663516998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6215877532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8924179077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8456764221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4533176422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9020366668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9768218994141</t>
+    <t xml:space="preserve">16.8737239837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2663536071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6215896606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8924160003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8456783294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4533195495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9020385742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9768238067627</t>
   </si>
   <si>
     <t xml:space="preserve">17.7431163787842</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2105331420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4629383087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.369457244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1357440948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9394340515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6966457366943</t>
+    <t xml:space="preserve">18.2105312347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4629364013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3694553375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1357460021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.939432144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6966438293457</t>
   </si>
   <si>
     <t xml:space="preserve">18.7620830535889</t>
@@ -254,22 +254,22 @@
     <t xml:space="preserve">18.4442386627197</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6779518127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3788032531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2385749816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8085556030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4813652038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8272476196289</t>
+    <t xml:space="preserve">18.6779479980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3788013458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2385768890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8085536956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4813632965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8272514343262</t>
   </si>
   <si>
     <t xml:space="preserve">17.5000591278076</t>
@@ -284,7 +284,7 @@
     <t xml:space="preserve">17.1635227203369</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8830699920654</t>
+    <t xml:space="preserve">16.8830680847168</t>
   </si>
   <si>
     <t xml:space="preserve">16.6306686401367</t>
@@ -293,28 +293,28 @@
     <t xml:space="preserve">16.4623966217041</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5652256011963</t>
+    <t xml:space="preserve">16.5652294158936</t>
   </si>
   <si>
     <t xml:space="preserve">17.0700378417969</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7708892822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7334995269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4810943603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6963748931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8363285064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8176326751709</t>
+    <t xml:space="preserve">16.7708950042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7334976196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4810905456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6963729858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.836332321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8176307678223</t>
   </si>
   <si>
     <t xml:space="preserve">17.5748462677002</t>
@@ -323,16 +323,16 @@
     <t xml:space="preserve">17.3224430084229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3691844940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1165065765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.153902053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2471141815186</t>
+    <t xml:space="preserve">17.3691825866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1165084838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1539001464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2471132278442</t>
   </si>
   <si>
     <t xml:space="preserve">15.0508003234863</t>
@@ -341,19 +341,19 @@
     <t xml:space="preserve">15.3592939376831</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6303958892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2660808563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2751598358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7329587936401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.172327041626</t>
+    <t xml:space="preserve">15.6303949356079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2660827636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2751617431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7329568862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1723260879517</t>
   </si>
   <si>
     <t xml:space="preserve">14.8077430725098</t>
@@ -365,31 +365,31 @@
     <t xml:space="preserve">15.7051801681519</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3219013214111</t>
+    <t xml:space="preserve">15.3219022750854</t>
   </si>
   <si>
     <t xml:space="preserve">14.9105749130249</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2748899459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.536642074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9386205673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6958332061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6116981506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7986650466919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5462589263916</t>
+    <t xml:space="preserve">14.2748889923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5366430282593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9386186599731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6958351135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6117000579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7986640930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5462608337402</t>
   </si>
   <si>
     <t xml:space="preserve">15.6210470199585</t>
@@ -398,25 +398,25 @@
     <t xml:space="preserve">15.5930013656616</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6771364212036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4530506134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9201955795288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6864862442017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4343490600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1352081298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3876113891602</t>
+    <t xml:space="preserve">15.6771383285522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4530487060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9201946258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.686487197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4343509674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1352062225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3876094818115</t>
   </si>
   <si>
     <t xml:space="preserve">16.490442276001</t>
@@ -425,40 +425,40 @@
     <t xml:space="preserve">16.3782615661621</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2941284179688</t>
+    <t xml:space="preserve">16.2941265106201</t>
   </si>
   <si>
     <t xml:space="preserve">17.472017288208</t>
   </si>
   <si>
-    <t xml:space="preserve">17.13547706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9298133850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9672069549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9487819671631</t>
+    <t xml:space="preserve">17.1354751586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9298152923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9672050476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9487781524658</t>
   </si>
   <si>
     <t xml:space="preserve">17.4907112121582</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3598327636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5281066894531</t>
+    <t xml:space="preserve">17.3598365783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5281047821045</t>
   </si>
   <si>
     <t xml:space="preserve">17.6683292388916</t>
   </si>
   <si>
-    <t xml:space="preserve">16.406307220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0884628295898</t>
+    <t xml:space="preserve">16.4063053131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0884590148926</t>
   </si>
   <si>
     <t xml:space="preserve">16.0604190826416</t>
@@ -473,16 +473,16 @@
     <t xml:space="preserve">15.9388904571533</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9669332504272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8641014099121</t>
+    <t xml:space="preserve">15.9669351577759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8641023635864</t>
   </si>
   <si>
     <t xml:space="preserve">15.7893161773682</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9108448028564</t>
+    <t xml:space="preserve">15.9108467102051</t>
   </si>
   <si>
     <t xml:space="preserve">16.3408699035645</t>
@@ -494,37 +494,37 @@
     <t xml:space="preserve">16.3689136505127</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8360605239868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8454065322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0043258666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6584415435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4527778625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.528021812439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6032609939575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8477973937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9324445724487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0923347473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8195810317993</t>
+    <t xml:space="preserve">15.8360614776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8454074859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0043296813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6584377288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4527769088745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5280199050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6032629013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8477964401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9324426651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0923328399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8195819854736</t>
   </si>
   <si>
     <t xml:space="preserve">15.2646732330322</t>
@@ -533,19 +533,19 @@
     <t xml:space="preserve">15.6220731735229</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7161245346069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7067193984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3493223190308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0641136169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5343780517578</t>
+    <t xml:space="preserve">15.7161207199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7067184448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3493194580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0641174316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5343799591064</t>
   </si>
   <si>
     <t xml:space="preserve">16.1299533843994</t>
@@ -554,13 +554,13 @@
     <t xml:space="preserve">15.6879091262817</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8007698059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5092105865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0829296112061</t>
+    <t xml:space="preserve">15.8007717132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5092096328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0829315185547</t>
   </si>
   <si>
     <t xml:space="preserve">16.2522201538086</t>
@@ -569,10 +569,10 @@
     <t xml:space="preserve">16.0359001159668</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7883186340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.399658203125</t>
+    <t xml:space="preserve">16.7883224487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3996562957764</t>
   </si>
   <si>
     <t xml:space="preserve">17.4748992919922</t>
@@ -581,28 +581,28 @@
     <t xml:space="preserve">17.352632522583</t>
   </si>
   <si>
-    <t xml:space="preserve">17.43727684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2397689819336</t>
+    <t xml:space="preserve">17.4372825622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2397708892822</t>
   </si>
   <si>
     <t xml:space="preserve">17.1645278930664</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6942691802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.305606842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1175003051758</t>
+    <t xml:space="preserve">16.6942672729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3056049346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.117504119873</t>
   </si>
   <si>
     <t xml:space="preserve">17.3808479309082</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9639739990234</t>
+    <t xml:space="preserve">17.9639720916748</t>
   </si>
   <si>
     <t xml:space="preserve">18.1238632202148</t>
@@ -611,37 +611,37 @@
     <t xml:space="preserve">18.1614799499512</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1050510406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6599540710449</t>
+    <t xml:space="preserve">18.1050491333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6599578857422</t>
   </si>
   <si>
     <t xml:space="preserve">19.1396236419678</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1866493225098</t>
+    <t xml:space="preserve">19.1866512298584</t>
   </si>
   <si>
     <t xml:space="preserve">19.7979888916016</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8732299804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3559436798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1490287780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7039394378662</t>
+    <t xml:space="preserve">19.8732318878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3559455871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1490306854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7039375305176</t>
   </si>
   <si>
     <t xml:space="preserve">19.5722637176514</t>
   </si>
   <si>
-    <t xml:space="preserve">19.421781539917</t>
+    <t xml:space="preserve">19.4217796325684</t>
   </si>
   <si>
     <t xml:space="preserve">19.3183250427246</t>
@@ -653,58 +653,58 @@
     <t xml:space="preserve">19.2524871826172</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1772422790527</t>
+    <t xml:space="preserve">19.17724609375</t>
   </si>
   <si>
     <t xml:space="preserve">19.1678371429443</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9891395568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8104400634766</t>
+    <t xml:space="preserve">18.9891414642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8104419708252</t>
   </si>
   <si>
     <t xml:space="preserve">18.6317405700684</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3401794433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.688175201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7634143829346</t>
+    <t xml:space="preserve">18.340181350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6881732940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7634181976318</t>
   </si>
   <si>
     <t xml:space="preserve">18.6975784301758</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6035270690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7163887023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5094757080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5564975738525</t>
+    <t xml:space="preserve">18.6035289764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7163906097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5094738006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5564994812012</t>
   </si>
   <si>
     <t xml:space="preserve">18.7446060180664</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8480644226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8574657440186</t>
+    <t xml:space="preserve">18.8480625152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8574676513672</t>
   </si>
   <si>
     <t xml:space="preserve">18.9609222412109</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2807006835938</t>
+    <t xml:space="preserve">19.280704498291</t>
   </si>
   <si>
     <t xml:space="preserve">19.6569118499756</t>
@@ -719,10 +719,10 @@
     <t xml:space="preserve">19.6098861694336</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6945304870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1960544586182</t>
+    <t xml:space="preserve">19.6945323944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1960563659668</t>
   </si>
   <si>
     <t xml:space="preserve">19.4876155853271</t>
@@ -731,187 +731,187 @@
     <t xml:space="preserve">19.7509651184082</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3371353149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4594020843506</t>
+    <t xml:space="preserve">19.3371334075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4594039916992</t>
   </si>
   <si>
     <t xml:space="preserve">19.5910739898682</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2712955474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4688091278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6286964416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5252380371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1647930145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2588443756104</t>
+    <t xml:space="preserve">19.271297454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4688053131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.628698348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.525239944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.164794921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.258846282959</t>
   </si>
   <si>
     <t xml:space="preserve">20.6350536346436</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8795909881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1147212982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2275829315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2087726593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.399923324585</t>
+    <t xml:space="preserve">20.8795890808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1147232055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2275810241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2087707519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3999271392822</t>
   </si>
   <si>
     <t xml:space="preserve">20.8701858520508</t>
   </si>
   <si>
-    <t xml:space="preserve">20.644458770752</t>
+    <t xml:space="preserve">20.6444625854492</t>
   </si>
   <si>
     <t xml:space="preserve">20.5033798217773</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8325634002686</t>
+    <t xml:space="preserve">20.8325653076172</t>
   </si>
   <si>
     <t xml:space="preserve">20.9078044891357</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8607788085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7573223114014</t>
+    <t xml:space="preserve">20.8607807159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7573204040527</t>
   </si>
   <si>
     <t xml:space="preserve">20.7855396270752</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9172115325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7385101318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0770988464355</t>
+    <t xml:space="preserve">20.9172134399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7385120391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0771007537842</t>
   </si>
   <si>
     <t xml:space="preserve">21.1241264343262</t>
   </si>
   <si>
-    <t xml:space="preserve">20.710298538208</t>
+    <t xml:space="preserve">20.7103004455566</t>
   </si>
   <si>
     <t xml:space="preserve">21.0394802093506</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9141616821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7636775970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6320056915283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.584981918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3968753814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3874702453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.189962387085</t>
+    <t xml:space="preserve">21.9141635894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7636795043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.632007598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5849838256836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3968772888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3874740600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1899642944336</t>
   </si>
   <si>
     <t xml:space="preserve">21.537956237793</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3686599731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6131954193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.490930557251</t>
+    <t xml:space="preserve">21.3686618804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6131973266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4909286499023</t>
   </si>
   <si>
     <t xml:space="preserve">20.8983974456787</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4344997406006</t>
+    <t xml:space="preserve">21.434497833252</t>
   </si>
   <si>
     <t xml:space="preserve">21.2181777954102</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3780651092529</t>
+    <t xml:space="preserve">21.3780670166016</t>
   </si>
   <si>
     <t xml:space="preserve">21.5191440582275</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5097389221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6037883758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5473594665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1993656158447</t>
+    <t xml:space="preserve">21.5097427368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6037902832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5473613739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1993713378906</t>
   </si>
   <si>
     <t xml:space="preserve">21.4439029693604</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9924488067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5692176818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6538619995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6632690429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5786209106445</t>
+    <t xml:space="preserve">20.9924545288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5692195892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.653865814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6632709503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5786247253418</t>
   </si>
   <si>
     <t xml:space="preserve">20.8889961242676</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5315971374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2964649200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4657592773438</t>
+    <t xml:space="preserve">20.5315990447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2964668273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.465763092041</t>
   </si>
   <si>
     <t xml:space="preserve">20.0425243377686</t>
   </si>
   <si>
-    <t xml:space="preserve">20.155387878418</t>
+    <t xml:space="preserve">20.1553897857666</t>
   </si>
   <si>
     <t xml:space="preserve">20.5221920013428</t>
@@ -923,61 +923,61 @@
     <t xml:space="preserve">20.8043479919434</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6914863586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2024154663086</t>
+    <t xml:space="preserve">20.6914844512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2024116516113</t>
   </si>
   <si>
     <t xml:space="preserve">20.0801448822021</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1365756988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9672832489014</t>
+    <t xml:space="preserve">20.1365776062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9672794342041</t>
   </si>
   <si>
     <t xml:space="preserve">20.1741981506348</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3246841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.249439239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3623027801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9202556610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9266185760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4939727783203</t>
+    <t xml:space="preserve">20.3246803283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2494411468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3623046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9202575683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9266147613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4939765930176</t>
   </si>
   <si>
     <t xml:space="preserve">20.2212257385254</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9766864776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6726741790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3811111450195</t>
+    <t xml:space="preserve">19.9766902923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6726722717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3811130523682</t>
   </si>
   <si>
     <t xml:space="preserve">20.7479152679443</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1053142547607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5974311828613</t>
+    <t xml:space="preserve">21.1053123474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.59743309021</t>
   </si>
   <si>
     <t xml:space="preserve">20.8231582641602</t>
@@ -986,70 +986,70 @@
     <t xml:space="preserve">21.1523399353027</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4627132415771</t>
+    <t xml:space="preserve">21.4627151489258</t>
   </si>
   <si>
     <t xml:space="preserve">20.9830455780029</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7291088104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5880241394043</t>
+    <t xml:space="preserve">20.7291069030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5880298614502</t>
   </si>
   <si>
     <t xml:space="preserve">20.6256484985352</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1271705627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0895500183105</t>
+    <t xml:space="preserve">20.1271724700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0895519256592</t>
   </si>
   <si>
     <t xml:space="preserve">20.014310836792</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2306289672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3434886932373</t>
+    <t xml:space="preserve">20.2306308746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3434944152832</t>
   </si>
   <si>
     <t xml:space="preserve">20.7761325836182</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2400341033936</t>
+    <t xml:space="preserve">20.2400379180908</t>
   </si>
   <si>
     <t xml:space="preserve">19.7791786193848</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4970245361328</t>
+    <t xml:space="preserve">19.4970207214355</t>
   </si>
   <si>
     <t xml:space="preserve">19.01735496521</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0737857818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8668689727783</t>
+    <t xml:space="preserve">19.0737895965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8668727874756</t>
   </si>
   <si>
     <t xml:space="preserve">19.2336769104004</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9138984680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7916316986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8950901031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6693630218506</t>
+    <t xml:space="preserve">18.9138965606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7916278839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8950881958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.669361114502</t>
   </si>
   <si>
     <t xml:space="preserve">19.0455703735352</t>
@@ -1058,28 +1058,28 @@
     <t xml:space="preserve">19.3747539520264</t>
   </si>
   <si>
-    <t xml:space="preserve">19.214771270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1864185333252</t>
+    <t xml:space="preserve">19.2147750854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1864204406738</t>
   </si>
   <si>
     <t xml:space="preserve">18.7611045837402</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5342693328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.127857208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0711479187012</t>
+    <t xml:space="preserve">18.5342712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1278591156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0711498260498</t>
   </si>
   <si>
     <t xml:space="preserve">17.8632164001465</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8915710449219</t>
+    <t xml:space="preserve">17.8915729522705</t>
   </si>
   <si>
     <t xml:space="preserve">18.1656627655029</t>
@@ -1088,94 +1088,94 @@
     <t xml:space="preserve">18.118408203125</t>
   </si>
   <si>
-    <t xml:space="preserve">18.194019317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4964637756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6949443817139</t>
+    <t xml:space="preserve">18.1940174102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4964618682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6949462890625</t>
   </si>
   <si>
     <t xml:space="preserve">18.8178119659424</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6382331848145</t>
+    <t xml:space="preserve">18.6382350921631</t>
   </si>
   <si>
     <t xml:space="preserve">18.3924980163574</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7232971191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5909767150879</t>
+    <t xml:space="preserve">18.7232990264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5909786224365</t>
   </si>
   <si>
     <t xml:space="preserve">18.4492073059082</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9028739929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0068416595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9312305450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9217796325684</t>
+    <t xml:space="preserve">18.9028778076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0068435668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9312286376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9217777252197</t>
   </si>
   <si>
     <t xml:space="preserve">18.8461666107178</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5815277099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6098823547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6760425567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.713846206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7043972015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8934230804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9406833648682</t>
+    <t xml:space="preserve">18.5815258026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6098804473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6760406494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7138481140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7043933868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8934268951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9406814575195</t>
   </si>
   <si>
     <t xml:space="preserve">18.827262878418</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6193332672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7327499389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.13916015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4227046966553</t>
+    <t xml:space="preserve">18.6193351745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7327480316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1391620635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4227066040039</t>
   </si>
   <si>
     <t xml:space="preserve">19.7062492370605</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9897899627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7931632995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5492782592773</t>
+    <t xml:space="preserve">19.9897918701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7931613922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5492744445801</t>
   </si>
   <si>
     <t xml:space="preserve">21.8328227996826</t>
@@ -1187,31 +1187,31 @@
     <t xml:space="preserve">21.6437931060791</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8800773620605</t>
+    <t xml:space="preserve">21.8800792694092</t>
   </si>
   <si>
     <t xml:space="preserve">21.7383060455322</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0218486785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0691051483154</t>
+    <t xml:space="preserve">22.0218505859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0691089630127</t>
   </si>
   <si>
     <t xml:space="preserve">21.2657356262207</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6986465454102</t>
+    <t xml:space="preserve">20.6986484527588</t>
   </si>
   <si>
     <t xml:space="preserve">21.3129920959473</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8876800537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0294513702393</t>
+    <t xml:space="preserve">20.8876781463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.029447555542</t>
   </si>
   <si>
     <t xml:space="preserve">20.9821929931641</t>
@@ -1223,28 +1223,28 @@
     <t xml:space="preserve">21.4547634124756</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4075031280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.123966217041</t>
+    <t xml:space="preserve">21.4075088500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1239624023438</t>
   </si>
   <si>
     <t xml:space="preserve">20.9349346160889</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9745903015137</t>
+    <t xml:space="preserve">21.9745922088623</t>
   </si>
   <si>
     <t xml:space="preserve">22.494421005249</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1636238098145</t>
+    <t xml:space="preserve">22.1636219024658</t>
   </si>
   <si>
     <t xml:space="preserve">22.3526515960693</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2581367492676</t>
+    <t xml:space="preserve">22.2581348419189</t>
   </si>
   <si>
     <t xml:space="preserve">21.0767059326172</t>
@@ -1253,13 +1253,13 @@
     <t xml:space="preserve">21.5020198822021</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5568771362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4623622894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1712188720703</t>
+    <t xml:space="preserve">20.5568790435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4623641967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1712207794189</t>
   </si>
   <si>
     <t xml:space="preserve">20.8404197692871</t>
@@ -1268,31 +1268,28 @@
     <t xml:space="preserve">21.2184791564941</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5965366363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6513900756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7459049224854</t>
+    <t xml:space="preserve">21.5965347290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6513919830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.745906829834</t>
   </si>
   <si>
     <t xml:space="preserve">20.367847442627</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2336750030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2809314727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3754463195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5644779205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0370483398438</t>
+    <t xml:space="preserve">19.2809352874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3754501342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5644760131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0370502471924</t>
   </si>
   <si>
     <t xml:space="preserve">19.8480205535889</t>
@@ -1310,7 +1307,7 @@
     <t xml:space="preserve">20.4151058197021</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2733345031738</t>
+    <t xml:space="preserve">20.2733325958252</t>
   </si>
   <si>
     <t xml:space="preserve">20.1315612792969</t>
@@ -1322,13 +1319,13 @@
     <t xml:space="preserve">19.6589908599854</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8007640838623</t>
+    <t xml:space="preserve">19.8007621765137</t>
   </si>
   <si>
     <t xml:space="preserve">19.7535057067871</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8952770233154</t>
+    <t xml:space="preserve">19.8952751159668</t>
   </si>
   <si>
     <t xml:space="preserve">19.942533493042</t>
@@ -1340,28 +1337,28 @@
     <t xml:space="preserve">19.4699611663818</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6117324829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0843048095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6910495758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.320592880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9388275146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5003604888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8973188400269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9521751403809</t>
+    <t xml:space="preserve">19.6117362976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0843067169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6910514831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3205909729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9388313293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5003576278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8973197937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9521760940552</t>
   </si>
   <si>
     <t xml:space="preserve">14.6497287750244</t>
@@ -1370,31 +1367,31 @@
     <t xml:space="preserve">14.9899806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5948734283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8217067718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1997623443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7271919250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5192613601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6515808105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0674438476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.99183177948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8595151901245</t>
+    <t xml:space="preserve">15.5948715209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8217077255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.199764251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7271928787231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5192632675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6515798568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0674457550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9918346405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8595142364502</t>
   </si>
   <si>
     <t xml:space="preserve">15.7839021682739</t>
@@ -1406,7 +1403,7 @@
     <t xml:space="preserve">15.1979122161865</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0457429885864</t>
+    <t xml:space="preserve">15.0457439422607</t>
   </si>
   <si>
     <t xml:space="preserve">14.760425567627</t>
@@ -1418,64 +1415,64 @@
     <t xml:space="preserve">14.6272773742676</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1028060913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1218280792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8365116119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3310604095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6353988647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.464207649231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2468547821045</t>
+    <t xml:space="preserve">15.1028070449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1218271255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8365106582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3310623168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6354007720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4642105102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2468538284302</t>
   </si>
   <si>
     <t xml:space="preserve">14.0946846008301</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7713251113892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9044733047485</t>
+    <t xml:space="preserve">13.7713241577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9044723510742</t>
   </si>
   <si>
     <t xml:space="preserve">14.5131511688232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3419589996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3229398727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3990249633789</t>
+    <t xml:space="preserve">14.3419599533081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3229389190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3990240097046</t>
   </si>
   <si>
     <t xml:space="preserve">14.1327266693115</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8093671798706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7903470993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9615354537964</t>
+    <t xml:space="preserve">13.8093681335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7903461456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.961537361145</t>
   </si>
   <si>
     <t xml:space="preserve">14.2278327941895</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3800029754639</t>
+    <t xml:space="preserve">14.3800020217896</t>
   </si>
   <si>
     <t xml:space="preserve">14.7033624649048</t>
@@ -1484,22 +1481,22 @@
     <t xml:space="preserve">14.9316158294678</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4071455001831</t>
+    <t xml:space="preserve">15.4071464538574</t>
   </si>
   <si>
     <t xml:space="preserve">15.3120393753052</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2169342041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.254976272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0837850570679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2930192947388</t>
+    <t xml:space="preserve">15.2169332504272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2549781799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0837860107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2930183410645</t>
   </si>
   <si>
     <t xml:space="preserve">15.3500814437866</t>
@@ -1508,40 +1505,40 @@
     <t xml:space="preserve">15.3881244659424</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7305068969727</t>
+    <t xml:space="preserve">15.7305088043213</t>
   </si>
   <si>
     <t xml:space="preserve">16.1679916381836</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0239448547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1000289916992</t>
+    <t xml:space="preserve">17.0239429473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1000308990479</t>
   </si>
   <si>
     <t xml:space="preserve">17.1190490722656</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7005863189697</t>
+    <t xml:space="preserve">16.7005825042725</t>
   </si>
   <si>
     <t xml:space="preserve">16.6245002746582</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4723300933838</t>
+    <t xml:space="preserve">16.4723320007324</t>
   </si>
   <si>
     <t xml:space="preserve">16.5674381256104</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1870136260986</t>
+    <t xml:space="preserve">16.18701171875</t>
   </si>
   <si>
     <t xml:space="preserve">16.0728855133057</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0158233642578</t>
+    <t xml:space="preserve">16.0158214569092</t>
   </si>
   <si>
     <t xml:space="preserve">16.3391819000244</t>
@@ -1553,64 +1550,64 @@
     <t xml:space="preserve">16.4533081054688</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8337345123291</t>
+    <t xml:space="preserve">16.8337326049805</t>
   </si>
   <si>
     <t xml:space="preserve">16.7196044921875</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4913539886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6435203552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.662540435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.434289932251</t>
+    <t xml:space="preserve">16.4913501739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6435222625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6625423431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4342861175537</t>
   </si>
   <si>
     <t xml:space="preserve">16.8147106170654</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9288368225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6815643310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5293941497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0538635253906</t>
+    <t xml:space="preserve">16.9288387298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6815662384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5293922424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0538654327393</t>
   </si>
   <si>
     <t xml:space="preserve">16.1489715576172</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1299495697021</t>
+    <t xml:space="preserve">16.1299476623535</t>
   </si>
   <si>
     <t xml:space="preserve">16.320161819458</t>
   </si>
   <si>
-    <t xml:space="preserve">16.206033706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5484161376953</t>
+    <t xml:space="preserve">16.2060375213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5484142303467</t>
   </si>
   <si>
     <t xml:space="preserve">16.6054763793945</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7386283874512</t>
+    <t xml:space="preserve">16.7386302947998</t>
   </si>
   <si>
     <t xml:space="preserve">16.9859027862549</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1570930480957</t>
+    <t xml:space="preserve">17.1570949554443</t>
   </si>
   <si>
     <t xml:space="preserve">17.6896839141846</t>
@@ -1625,37 +1622,37 @@
     <t xml:space="preserve">18.4695529937744</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3364028930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7467498779297</t>
+    <t xml:space="preserve">18.3364067077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7467479705811</t>
   </si>
   <si>
     <t xml:space="preserve">17.3473033905029</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2141551971436</t>
+    <t xml:space="preserve">17.2141571044922</t>
   </si>
   <si>
     <t xml:space="preserve">17.1951351165771</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9478588104248</t>
+    <t xml:space="preserve">16.9478607177734</t>
   </si>
   <si>
     <t xml:space="preserve">16.8527526855469</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1761150360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0429649353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2712173461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.366325378418</t>
+    <t xml:space="preserve">17.1761131286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0429668426514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.27121925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3663272857666</t>
   </si>
   <si>
     <t xml:space="preserve">17.4424114227295</t>
@@ -1670,16 +1667,16 @@
     <t xml:space="preserve">15.6924619674683</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7114849090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6544208526611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3691034317017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8745517730713</t>
+    <t xml:space="preserve">15.711483001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6544179916382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.369101524353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8745527267456</t>
   </si>
   <si>
     <t xml:space="preserve">14.9886808395386</t>
@@ -1691,16 +1688,16 @@
     <t xml:space="preserve">14.9506368637085</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1598701477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0267210006714</t>
+    <t xml:space="preserve">15.1598691940308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0267219543457</t>
   </si>
   <si>
     <t xml:space="preserve">14.6843404769897</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8555307388306</t>
+    <t xml:space="preserve">14.8555316925049</t>
   </si>
   <si>
     <t xml:space="preserve">14.5511932373047</t>
@@ -1712,13 +1709,13 @@
     <t xml:space="preserve">14.7414045333862</t>
   </si>
   <si>
-    <t xml:space="preserve">14.646297454834</t>
+    <t xml:space="preserve">14.6462984085083</t>
   </si>
   <si>
     <t xml:space="preserve">14.8174886703491</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7685470581055</t>
+    <t xml:space="preserve">15.7685451507568</t>
   </si>
   <si>
     <t xml:space="preserve">15.5973567962646</t>
@@ -1727,34 +1724,37 @@
     <t xml:space="preserve">15.5783357620239</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8636531829834</t>
+    <t xml:space="preserve">15.863655090332</t>
   </si>
   <si>
     <t xml:space="preserve">15.4261665344238</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7875690460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6163778305054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5212726593018</t>
+    <t xml:space="preserve">15.1979131698608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7875709533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6163787841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5212717056274</t>
   </si>
   <si>
     <t xml:space="preserve">15.2359552383423</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0647640228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7223815917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9696588516235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7984676361084</t>
+    <t xml:space="preserve">15.0647649765015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7223834991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9696569442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7984685897827</t>
   </si>
   <si>
     <t xml:space="preserve">14.4751081466675</t>
@@ -1763,25 +1763,25 @@
     <t xml:space="preserve">14.4560871124268</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2658739089966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0756645202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9425163269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6082563400269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.437066078186</t>
+    <t xml:space="preserve">14.2658758163452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.075662612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9425144195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6082553863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4370651245117</t>
   </si>
   <si>
     <t xml:space="preserve">13.9805574417114</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0185995101929</t>
+    <t xml:space="preserve">14.0186004638672</t>
   </si>
   <si>
     <t xml:space="preserve">14.2088117599487</t>
@@ -1790,25 +1790,25 @@
     <t xml:space="preserve">14.1137056350708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4180431365967</t>
+    <t xml:space="preserve">14.418044090271</t>
   </si>
   <si>
     <t xml:space="preserve">14.189790725708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.779447555542</t>
+    <t xml:space="preserve">14.7794466018677</t>
   </si>
   <si>
     <t xml:space="preserve">14.170768737793</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5593147277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3609819412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2848968505859</t>
+    <t xml:space="preserve">15.5593156814575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3609828948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2848958969116</t>
   </si>
   <si>
     <t xml:space="preserve">14.6653203964233</t>
@@ -1820,97 +1820,97 @@
     <t xml:space="preserve">15.483229637146</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2640390396118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2448387145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0912389755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9952373504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0720386505127</t>
+    <t xml:space="preserve">15.2640380859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2448396682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0912380218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9952383041382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0720376968384</t>
   </si>
   <si>
     <t xml:space="preserve">15.5712394714355</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8784418106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.665641784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5312404632568</t>
+    <t xml:space="preserve">15.8784437179565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6656436920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5312423706055</t>
   </si>
   <si>
     <t xml:space="preserve">15.8976392745972</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8592414855957</t>
+    <t xml:space="preserve">15.8592395782471</t>
   </si>
   <si>
     <t xml:space="preserve">15.7248401641846</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7440404891968</t>
+    <t xml:space="preserve">15.7440395355225</t>
   </si>
   <si>
     <t xml:space="preserve">15.6480388641357</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9552431106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9936399459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3776416778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9168405532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8016405105591</t>
+    <t xml:space="preserve">15.9552402496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9936418533325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3776397705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9168386459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8016376495361</t>
   </si>
   <si>
     <t xml:space="preserve">15.8400392532349</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2432403564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.185640335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6096391677856</t>
+    <t xml:space="preserve">16.2432422637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1856422424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6096410751343</t>
   </si>
   <si>
     <t xml:space="preserve">16.0320415496826</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7632398605347</t>
+    <t xml:space="preserve">15.763240814209</t>
   </si>
   <si>
     <t xml:space="preserve">15.6288394927979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7824401855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.436840057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3024387359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1680374145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3984403610229</t>
+    <t xml:space="preserve">15.7824420928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4368391036987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3024377822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1680383682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3984413146973</t>
   </si>
   <si>
     <t xml:space="preserve">14.9376382827759</t>
@@ -1922,22 +1922,22 @@
     <t xml:space="preserve">14.6880378723145</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2080373764038</t>
+    <t xml:space="preserve">14.2080354690552</t>
   </si>
   <si>
     <t xml:space="preserve">14.1120357513428</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4000358581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7840366363525</t>
+    <t xml:space="preserve">14.4000368118286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7840375900269</t>
   </si>
   <si>
     <t xml:space="preserve">14.9760389328003</t>
   </si>
   <si>
-    <t xml:space="preserve">14.764838218689</t>
+    <t xml:space="preserve">14.7648372650146</t>
   </si>
   <si>
     <t xml:space="preserve">14.5728368759155</t>
@@ -1952,25 +1952,25 @@
     <t xml:space="preserve">14.5152368545532</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4576377868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2272367477417</t>
+    <t xml:space="preserve">14.4576368331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2272357940674</t>
   </si>
   <si>
     <t xml:space="preserve">13.862434387207</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3056344985962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1712322235107</t>
+    <t xml:space="preserve">13.3056325912476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1712341308594</t>
   </si>
   <si>
     <t xml:space="preserve">13.5360355377197</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2480335235596</t>
+    <t xml:space="preserve">13.2480344772339</t>
   </si>
   <si>
     <t xml:space="preserve">12.9600324630737</t>
@@ -1985,19 +1985,19 @@
     <t xml:space="preserve">12.0960311889648</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6160306930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.174427986145</t>
+    <t xml:space="preserve">11.6160297393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1744289398193</t>
   </si>
   <si>
     <t xml:space="preserve">10.2528266906738</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0800266265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71522426605225</t>
+    <t xml:space="preserve">10.0800256729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71522521972656</t>
   </si>
   <si>
     <t xml:space="preserve">9.02402305603027</t>
@@ -2006,22 +2006,22 @@
     <t xml:space="preserve">9.53282451629639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19842052459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65922260284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21602344512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2912263870239</t>
+    <t xml:space="preserve">8.19842147827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65922355651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21602439880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2912273406982</t>
   </si>
   <si>
     <t xml:space="preserve">10.8864278793335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.076831817627</t>
+    <t xml:space="preserve">12.0768308639526</t>
   </si>
   <si>
     <t xml:space="preserve">13.0560340881348</t>
@@ -2030,37 +2030,37 @@
     <t xml:space="preserve">11.7504301071167</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0976285934448</t>
+    <t xml:space="preserve">11.0976295471191</t>
   </si>
   <si>
     <t xml:space="preserve">11.0592288970947</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7712278366089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1952257156372</t>
+    <t xml:space="preserve">10.7712268829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1952266693115</t>
   </si>
   <si>
     <t xml:space="preserve">10.4640264511108</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7520265579224</t>
+    <t xml:space="preserve">10.7520275115967</t>
   </si>
   <si>
     <t xml:space="preserve">10.8672275543213</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2512283325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0400276184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7136268615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3296251296997</t>
+    <t xml:space="preserve">11.2512292861938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0400285720825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7136278152466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3296270370483</t>
   </si>
   <si>
     <t xml:space="preserve">10.0032262802124</t>
@@ -2072,13 +2072,13 @@
     <t xml:space="preserve">10.6368265151978</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5600271224976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9056272506714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8480291366577</t>
+    <t xml:space="preserve">10.5600261688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9056282043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8480281829834</t>
   </si>
   <si>
     <t xml:space="preserve">10.8288269042969</t>
@@ -2087,10 +2087,10 @@
     <t xml:space="preserve">10.9440269470215</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9632272720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6752281188965</t>
+    <t xml:space="preserve">10.963228225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6752271652222</t>
   </si>
   <si>
     <t xml:space="preserve">11.1360282897949</t>
@@ -2102,34 +2102,34 @@
     <t xml:space="preserve">11.6352291107178</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7120294570923</t>
+    <t xml:space="preserve">11.7120304107666</t>
   </si>
   <si>
     <t xml:space="preserve">11.1936283111572</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5584287643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.65442943573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9424295425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1536302566528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4416313171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3648319244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2496318817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0000305175781</t>
+    <t xml:space="preserve">11.5584297180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6544303894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9424304962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1536312103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.441632270813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3648309707642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2496309280396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0000314712524</t>
   </si>
   <si>
     <t xml:space="preserve">11.3664293289185</t>
@@ -2150,22 +2150,22 @@
     <t xml:space="preserve">10.9248275756836</t>
   </si>
   <si>
-    <t xml:space="preserve">10.809627532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5408267974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5792274475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7904262542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3472280502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4816293716431</t>
+    <t xml:space="preserve">10.8096284866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5408277511597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5792264938354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7904272079468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3472290039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4816284179688</t>
   </si>
   <si>
     <t xml:space="preserve">11.4240283966064</t>
@@ -2180,19 +2180,19 @@
     <t xml:space="preserve">10.7328271865845</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5024261474609</t>
+    <t xml:space="preserve">10.5024271011353</t>
   </si>
   <si>
     <t xml:space="preserve">10.5984268188477</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7888298034668</t>
+    <t xml:space="preserve">11.7888307571411</t>
   </si>
   <si>
     <t xml:space="preserve">11.5776300430298</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8272294998169</t>
+    <t xml:space="preserve">11.8272285461426</t>
   </si>
   <si>
     <t xml:space="preserve">11.6736288070679</t>
@@ -2201,34 +2201,34 @@
     <t xml:space="preserve">11.7696304321289</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6928310394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8080291748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8848304748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3840322494507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.288031578064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2688302993774</t>
+    <t xml:space="preserve">11.6928300857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8080310821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8848295211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3840312957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2880325317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2688312530518</t>
   </si>
   <si>
     <t xml:space="preserve">12.1152305603027</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1344308853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9616298675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9040307998657</t>
+    <t xml:space="preserve">12.1344318389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.961630821228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9040298461914</t>
   </si>
   <si>
     <t xml:space="preserve">11.3856287002563</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">13.8240346908569</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5552339553833</t>
+    <t xml:space="preserve">13.5552349090576</t>
   </si>
   <si>
     <t xml:space="preserve">14.0352354049683</t>
@@ -2249,28 +2249,28 @@
     <t xml:space="preserve">13.7664356231689</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4016342163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5936346054077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6320333480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2672338485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.497633934021</t>
+    <t xml:space="preserve">13.4016351699829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.593635559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6320343017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2672328948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4976348876953</t>
   </si>
   <si>
     <t xml:space="preserve">14.3040361404419</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9008359909058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5744352340698</t>
+    <t xml:space="preserve">13.9008350372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5744342803955</t>
   </si>
   <si>
     <t xml:space="preserve">13.286434173584</t>
@@ -2279,22 +2279,22 @@
     <t xml:space="preserve">13.65123462677</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3440322875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.172830581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2112321853638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4800310134888</t>
+    <t xml:space="preserve">13.3440341949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1728315353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2112312316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4800319671631</t>
   </si>
   <si>
     <t xml:space="preserve">12.5952320098877</t>
   </si>
   <si>
-    <t xml:space="preserve">13.017632484436</t>
+    <t xml:space="preserve">13.0176334381104</t>
   </si>
   <si>
     <t xml:space="preserve">12.9792337417603</t>
@@ -2309,7 +2309,7 @@
     <t xml:space="preserve">13.6128358840942</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7280359268188</t>
+    <t xml:space="preserve">13.7280349731445</t>
   </si>
   <si>
     <t xml:space="preserve">13.7879419326782</t>
@@ -2324,7 +2324,7 @@
     <t xml:space="preserve">13.613410949707</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4776639938354</t>
+    <t xml:space="preserve">13.4776649475098</t>
   </si>
   <si>
     <t xml:space="preserve">13.6715888977051</t>
@@ -2336,19 +2336,19 @@
     <t xml:space="preserve">14.0594348907471</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9236888885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3503198623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3309259414673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3891048431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1563959121704</t>
+    <t xml:space="preserve">13.9236879348755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3503189086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3309268951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3891038894653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1563968658447</t>
   </si>
   <si>
     <t xml:space="preserve">13.8655118942261</t>
@@ -2357,13 +2357,13 @@
     <t xml:space="preserve">13.6328039169312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9430809020996</t>
+    <t xml:space="preserve">13.9430818557739</t>
   </si>
   <si>
     <t xml:space="preserve">13.7685489654541</t>
   </si>
   <si>
-    <t xml:space="preserve">13.710373878479</t>
+    <t xml:space="preserve">13.7103729248047</t>
   </si>
   <si>
     <t xml:space="preserve">13.9624729156494</t>
@@ -2381,16 +2381,16 @@
     <t xml:space="preserve">14.5248498916626</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8933048248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8157358169556</t>
+    <t xml:space="preserve">14.8933038711548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8157348632812</t>
   </si>
   <si>
     <t xml:space="preserve">15.1841897964478</t>
   </si>
   <si>
-    <t xml:space="preserve">15.222972869873</t>
+    <t xml:space="preserve">15.2229738235474</t>
   </si>
   <si>
     <t xml:space="preserve">16.6967906951904</t>
@@ -2399,13 +2399,13 @@
     <t xml:space="preserve">16.5416507720947</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3865146636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0180606842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1538047790527</t>
+    <t xml:space="preserve">16.3865127563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0180587768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1538066864014</t>
   </si>
   <si>
     <t xml:space="preserve">15.9986658096313</t>
@@ -2426,7 +2426,7 @@
     <t xml:space="preserve">15.6302137374878</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9210968017578</t>
+    <t xml:space="preserve">15.9210987091064</t>
   </si>
   <si>
     <t xml:space="preserve">16.0568428039551</t>
@@ -2435,7 +2435,7 @@
     <t xml:space="preserve">16.4640827178955</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8131446838379</t>
+    <t xml:space="preserve">16.8131427764893</t>
   </si>
   <si>
     <t xml:space="preserve">16.9876747131348</t>
@@ -2468,13 +2468,13 @@
     <t xml:space="preserve">16.6580066680908</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6386127471924</t>
+    <t xml:space="preserve">16.638614654541</t>
   </si>
   <si>
     <t xml:space="preserve">17.1234226226807</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8713226318359</t>
+    <t xml:space="preserve">16.8713207244873</t>
   </si>
   <si>
     <t xml:space="preserve">17.1622066497803</t>
@@ -2483,19 +2483,19 @@
     <t xml:space="preserve">17.1428146362305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0652446746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.189998626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3063545227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5390605926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8771305084229</t>
+    <t xml:space="preserve">17.0652465820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1900005340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3063526153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8771324157715</t>
   </si>
   <si>
     <t xml:space="preserve">20.1680164337158</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">20.2164974212646</t>
   </si>
   <si>
-    <t xml:space="preserve">20.119535446167</t>
+    <t xml:space="preserve">20.1195373535156</t>
   </si>
   <si>
     <t xml:space="preserve">20.2649784088135</t>
@@ -2534,7 +2534,7 @@
     <t xml:space="preserve">20.895227432251</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2345924377441</t>
+    <t xml:space="preserve">21.2345943450928</t>
   </si>
   <si>
     <t xml:space="preserve">21.1376323699951</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">19.9740924835205</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7316913604736</t>
+    <t xml:space="preserve">19.731689453125</t>
   </si>
   <si>
     <t xml:space="preserve">19.5862483978271</t>
@@ -2561,7 +2561,7 @@
     <t xml:space="preserve">19.7801704406738</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0710563659668</t>
+    <t xml:space="preserve">20.0710544586182</t>
   </si>
   <si>
     <t xml:space="preserve">19.3923244476318</t>
@@ -2579,7 +2579,7 @@
     <t xml:space="preserve">21.3800373077393</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9618053436279</t>
+    <t xml:space="preserve">21.9618072509766</t>
   </si>
   <si>
     <t xml:space="preserve">21.5739593505859</t>
@@ -2591,7 +2591,7 @@
     <t xml:space="preserve">22.0102882385254</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1072483062744</t>
+    <t xml:space="preserve">22.1072463989258</t>
   </si>
   <si>
     <t xml:space="preserve">21.8163642883301</t>
@@ -2600,16 +2600,16 @@
     <t xml:space="preserve">22.1557292938232</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2526912689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4769973754883</t>
+    <t xml:space="preserve">22.2526931762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4769992828369</t>
   </si>
   <si>
     <t xml:space="preserve">21.6224403381348</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7194004058838</t>
+    <t xml:space="preserve">21.7194023132324</t>
   </si>
   <si>
     <t xml:space="preserve">22.5920562744141</t>
@@ -2621,7 +2621,7 @@
     <t xml:space="preserve">23.6101551055908</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9314212799072</t>
+    <t xml:space="preserve">22.9314231872559</t>
   </si>
   <si>
     <t xml:space="preserve">22.6890201568604</t>
@@ -2633,7 +2633,7 @@
     <t xml:space="preserve">21.9133262634277</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6709232330322</t>
+    <t xml:space="preserve">21.6709213256836</t>
   </si>
   <si>
     <t xml:space="preserve">21.0891532897949</t>
@@ -2654,10 +2654,10 @@
     <t xml:space="preserve">23.7555961608887</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7071170806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.464714050293</t>
+    <t xml:space="preserve">23.7071151733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4647121429443</t>
   </si>
   <si>
     <t xml:space="preserve">23.5616722106934</t>
@@ -2669,7 +2669,7 @@
     <t xml:space="preserve">23.5131931304932</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0464820861816</t>
+    <t xml:space="preserve">24.046480178833</t>
   </si>
   <si>
     <t xml:space="preserve">23.9010391235352</t>
@@ -2678,19 +2678,19 @@
     <t xml:space="preserve">23.3677501678467</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0949611663818</t>
+    <t xml:space="preserve">24.0949630737305</t>
   </si>
   <si>
     <t xml:space="preserve">23.9980010986328</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9495220184326</t>
+    <t xml:space="preserve">23.949520111084</t>
   </si>
   <si>
     <t xml:space="preserve">23.3192672729492</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8525581359863</t>
+    <t xml:space="preserve">23.852560043335</t>
   </si>
   <si>
     <t xml:space="preserve">23.1253471374512</t>
@@ -2702,10 +2702,10 @@
     <t xml:space="preserve">22.5435752868652</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8648452758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4950942993164</t>
+    <t xml:space="preserve">21.8648433685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.495096206665</t>
   </si>
   <si>
     <t xml:space="preserve">22.4466152191162</t>
@@ -2720,19 +2720,19 @@
     <t xml:space="preserve">24.7736930847168</t>
   </si>
   <si>
-    <t xml:space="preserve">24.337366104126</t>
+    <t xml:space="preserve">24.3373680114746</t>
   </si>
   <si>
     <t xml:space="preserve">24.1434421539307</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7917900085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0826759338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4705200195312</t>
+    <t xml:space="preserve">25.7917919158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0826740264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4705219268799</t>
   </si>
   <si>
     <t xml:space="preserve">26.1796360015869</t>
@@ -2750,10 +2750,10 @@
     <t xml:space="preserve">26.809886932373</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9068508148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8279838562012</t>
+    <t xml:space="preserve">26.9068489074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8279857635498</t>
   </si>
   <si>
     <t xml:space="preserve">27.7310237884521</t>
@@ -2762,13 +2762,13 @@
     <t xml:space="preserve">27.6825428009033</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2158317565918</t>
+    <t xml:space="preserve">28.2158298492432</t>
   </si>
   <si>
     <t xml:space="preserve">28.8460826873779</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3127918243408</t>
+    <t xml:space="preserve">28.3127937316895</t>
   </si>
   <si>
     <t xml:space="preserve">28.652156829834</t>
@@ -2777,10 +2777,10 @@
     <t xml:space="preserve">28.1188697814941</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9734287261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0703887939453</t>
+    <t xml:space="preserve">27.9734268188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0703907012939</t>
   </si>
   <si>
     <t xml:space="preserve">27.87646484375</t>
@@ -2792,7 +2792,7 @@
     <t xml:space="preserve">27.2946949005127</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4886169433594</t>
+    <t xml:space="preserve">27.488618850708</t>
   </si>
   <si>
     <t xml:space="preserve">27.3916568756104</t>
@@ -2804,13 +2804,13 @@
     <t xml:space="preserve">27.2648448944092</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5820045471191</t>
+    <t xml:space="preserve">26.5820026397705</t>
   </si>
   <si>
     <t xml:space="preserve">26.1430339813232</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7528400421143</t>
+    <t xml:space="preserve">25.7528381347656</t>
   </si>
   <si>
     <t xml:space="preserve">24.8749027252197</t>
@@ -2819,7 +2819,7 @@
     <t xml:space="preserve">25.0212230682373</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4359340667725</t>
+    <t xml:space="preserve">24.4359321594238</t>
   </si>
   <si>
     <t xml:space="preserve">25.0699996948242</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">25.4114189147949</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7283267974854</t>
+    <t xml:space="preserve">26.7283248901367</t>
   </si>
   <si>
     <t xml:space="preserve">27.1672954559326</t>
@@ -2840,10 +2840,10 @@
     <t xml:space="preserve">26.7771015167236</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2405834197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1918087005615</t>
+    <t xml:space="preserve">26.2405815124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1918106079102</t>
   </si>
   <si>
     <t xml:space="preserve">25.8016147613525</t>
@@ -2867,37 +2867,37 @@
     <t xml:space="preserve">26.2893581390381</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4844551086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9479370117188</t>
+    <t xml:space="preserve">26.4844532012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9479389190674</t>
   </si>
   <si>
     <t xml:space="preserve">25.1675472259521</t>
   </si>
   <si>
-    <t xml:space="preserve">25.996711730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8503875732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3626441955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7773532867432</t>
+    <t xml:space="preserve">25.9967098236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8503894805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3626461029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7773513793945</t>
   </si>
   <si>
     <t xml:space="preserve">23.2653503417969</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0702514648438</t>
+    <t xml:space="preserve">23.0702533721924</t>
   </si>
   <si>
     <t xml:space="preserve">23.9481887817383</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3141231536865</t>
+    <t xml:space="preserve">23.3141250610352</t>
   </si>
   <si>
     <t xml:space="preserve">23.21657371521</t>
@@ -2912,25 +2912,25 @@
     <t xml:space="preserve">22.7288303375244</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2410888671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0947647094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8508930206299</t>
+    <t xml:space="preserve">22.2410869598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0947666168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8508949279785</t>
   </si>
   <si>
     <t xml:space="preserve">22.9239292144775</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1190280914307</t>
+    <t xml:space="preserve">23.119026184082</t>
   </si>
   <si>
     <t xml:space="preserve">22.7776069641113</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3874111175537</t>
+    <t xml:space="preserve">22.3874130249023</t>
   </si>
   <si>
     <t xml:space="preserve">23.4604454040527</t>
@@ -2951,13 +2951,13 @@
     <t xml:space="preserve">20.7778587341309</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7535972595215</t>
+    <t xml:space="preserve">19.7535991668701</t>
   </si>
   <si>
     <t xml:space="preserve">20.4364395141602</t>
   </si>
   <si>
-    <t xml:space="preserve">20.192569732666</t>
+    <t xml:space="preserve">20.1925678253174</t>
   </si>
   <si>
     <t xml:space="preserve">19.1975727081299</t>
@@ -2969,10 +2969,10 @@
     <t xml:space="preserve">18.3586521148682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1100311279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1685600280762</t>
+    <t xml:space="preserve">17.1100330352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1685619354248</t>
   </si>
   <si>
     <t xml:space="preserve">18.2415962219238</t>
@@ -2981,13 +2981,13 @@
     <t xml:space="preserve">18.3781623840332</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7733612060547</t>
+    <t xml:space="preserve">17.7733592987061</t>
   </si>
   <si>
     <t xml:space="preserve">18.5342407226562</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0660095214844</t>
+    <t xml:space="preserve">18.0660076141357</t>
   </si>
   <si>
     <t xml:space="preserve">17.7148303985596</t>
@@ -3011,13 +3011,13 @@
     <t xml:space="preserve">19.0024738311768</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3146286010742</t>
+    <t xml:space="preserve">19.3146305084229</t>
   </si>
   <si>
     <t xml:space="preserve">19.4316883087158</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8511486053467</t>
+    <t xml:space="preserve">19.851146697998</t>
   </si>
   <si>
     <t xml:space="preserve">19.3536491394043</t>
@@ -3029,13 +3029,13 @@
     <t xml:space="preserve">18.8659057617188</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9879703521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8854160308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6317901611328</t>
+    <t xml:space="preserve">17.9879684448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8854179382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6317882537842</t>
   </si>
   <si>
     <t xml:space="preserve">18.9634552001953</t>
@@ -3044,7 +3044,7 @@
     <t xml:space="preserve">19.6560497283936</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9974689483643</t>
+    <t xml:space="preserve">19.9974708557129</t>
   </si>
   <si>
     <t xml:space="preserve">19.3731594085693</t>
@@ -3053,10 +3053,10 @@
     <t xml:space="preserve">18.9829635620117</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1585502624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6072769165039</t>
+    <t xml:space="preserve">19.1585521697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6072750091553</t>
   </si>
   <si>
     <t xml:space="preserve">19.5097274780273</t>
@@ -3068,7 +3068,7 @@
     <t xml:space="preserve">17.9489479064941</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3196353912354</t>
+    <t xml:space="preserve">18.3196334838867</t>
   </si>
   <si>
     <t xml:space="preserve">20.0462436676025</t>
@@ -3101,13 +3101,13 @@
     <t xml:space="preserve">23.4116725921631</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6067714691162</t>
+    <t xml:space="preserve">23.6067695617676</t>
   </si>
   <si>
     <t xml:space="preserve">22.8263816833496</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4849605560303</t>
+    <t xml:space="preserve">22.4849586486816</t>
   </si>
   <si>
     <t xml:space="preserve">20.6803112030029</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">20.0950183868408</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4902172088623</t>
+    <t xml:space="preserve">19.4902153015137</t>
   </si>
   <si>
     <t xml:space="preserve">19.0219841003418</t>
@@ -3137,28 +3137,28 @@
     <t xml:space="preserve">18.8268871307373</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7928695678711</t>
+    <t xml:space="preserve">17.7928714752197</t>
   </si>
   <si>
     <t xml:space="preserve">19.0414943695068</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7293376922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4562015533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3001232147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7878665924072</t>
+    <t xml:space="preserve">18.7293395996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4562034606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3001251220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7878684997559</t>
   </si>
   <si>
     <t xml:space="preserve">18.9439449310303</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1780624389648</t>
+    <t xml:space="preserve">19.1780605316162</t>
   </si>
   <si>
     <t xml:space="preserve">18.7683582305908</t>
@@ -3167,34 +3167,34 @@
     <t xml:space="preserve">18.6708087921143</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5147304534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2025756835938</t>
+    <t xml:space="preserve">18.5147323608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2025737762451</t>
   </si>
   <si>
     <t xml:space="preserve">18.8073768615723</t>
   </si>
   <si>
-    <t xml:space="preserve">19.558500289917</t>
+    <t xml:space="preserve">19.5585021972656</t>
   </si>
   <si>
     <t xml:space="preserve">19.0805130004883</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2170810699463</t>
+    <t xml:space="preserve">19.2170829772949</t>
   </si>
   <si>
     <t xml:space="preserve">19.7048263549805</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3976726531982</t>
+    <t xml:space="preserve">18.3976745605469</t>
   </si>
   <si>
     <t xml:space="preserve">17.9294376373291</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1440467834473</t>
+    <t xml:space="preserve">18.1440448760986</t>
   </si>
   <si>
     <t xml:space="preserve">17.8514003753662</t>
@@ -3206,10 +3206,10 @@
     <t xml:space="preserve">18.4757118225098</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8904209136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5587558746338</t>
+    <t xml:space="preserve">17.8904190063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5587539672852</t>
   </si>
   <si>
     <t xml:space="preserve">16.8368949890137</t>
@@ -3224,7 +3224,7 @@
     <t xml:space="preserve">16.4076805114746</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2516021728516</t>
+    <t xml:space="preserve">16.2516040802002</t>
   </si>
   <si>
     <t xml:space="preserve">16.4271907806396</t>
@@ -3236,16 +3236,16 @@
     <t xml:space="preserve">15.7443494796753</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5492525100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9344425201416</t>
+    <t xml:space="preserve">15.5492515563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9344444274902</t>
   </si>
   <si>
     <t xml:space="preserve">16.3296413421631</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9734630584717</t>
+    <t xml:space="preserve">16.973461151123</t>
   </si>
   <si>
     <t xml:space="preserve">17.0905208587646</t>
@@ -3254,7 +3254,7 @@
     <t xml:space="preserve">17.3246383666992</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6563034057617</t>
+    <t xml:space="preserve">17.6563053131104</t>
   </si>
   <si>
     <t xml:space="preserve">17.4612045288086</t>
@@ -3263,16 +3263,16 @@
     <t xml:space="preserve">17.3831672668457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3441486358643</t>
+    <t xml:space="preserve">17.3441467285156</t>
   </si>
   <si>
     <t xml:space="preserve">18.1830654144287</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1195335388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0610046386719</t>
+    <t xml:space="preserve">19.1195316314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0610027313232</t>
   </si>
   <si>
     <t xml:space="preserve">19.8023719787598</t>
@@ -3284,7 +3284,7 @@
     <t xml:space="preserve">20.3876647949219</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9486980438232</t>
+    <t xml:space="preserve">19.9486961364746</t>
   </si>
   <si>
     <t xml:space="preserve">20.8266334533691</t>
@@ -3966,6 +3966,9 @@
   </si>
   <si>
     <t xml:space="preserve">34.5999984741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7000007629395</t>
   </si>
 </sst>
 </file>
@@ -20263,7 +20266,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G614" t="s">
-        <v>422</v>
+        <v>341</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20341,7 +20344,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G617" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20367,7 +20370,7 @@
         <v>20.5</v>
       </c>
       <c r="G618" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20393,7 +20396,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G619" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20419,7 +20422,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G620" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20445,7 +20448,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G621" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20471,7 +20474,7 @@
         <v>21</v>
       </c>
       <c r="G622" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20549,7 +20552,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G625" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20601,7 +20604,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G627" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20653,7 +20656,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G629" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20679,7 +20682,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G630" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20731,7 +20734,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G632" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20757,7 +20760,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G633" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -20783,7 +20786,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G634" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20835,7 +20838,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G636" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -20861,7 +20864,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G637" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -20887,7 +20890,7 @@
         <v>21</v>
       </c>
       <c r="G638" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20913,7 +20916,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G639" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20965,7 +20968,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G641" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -20991,7 +20994,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G642" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21043,7 +21046,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G644" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21069,7 +21072,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G645" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21251,7 +21254,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G652" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21277,7 +21280,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G653" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21303,7 +21306,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G654" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21329,7 +21332,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G655" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21355,7 +21358,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G656" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21407,7 +21410,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G658" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21433,7 +21436,7 @@
         <v>21</v>
       </c>
       <c r="G659" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21485,7 +21488,7 @@
         <v>21</v>
       </c>
       <c r="G661" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21511,7 +21514,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G662" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21537,7 +21540,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G663" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21589,7 +21592,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G665" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21667,7 +21670,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G668" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21693,7 +21696,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G669" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -21719,7 +21722,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G670" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -21771,7 +21774,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G672" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -21797,7 +21800,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G673" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -21823,7 +21826,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G674" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -21849,7 +21852,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -21875,7 +21878,7 @@
         <v>20.75</v>
       </c>
       <c r="G676" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21901,7 +21904,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G677" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -21927,7 +21930,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G678" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21953,7 +21956,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G679" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -21979,7 +21982,7 @@
         <v>21.25</v>
       </c>
       <c r="G680" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22005,7 +22008,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G681" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22031,7 +22034,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G682" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22057,7 +22060,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G683" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22525,7 +22528,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G701" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -22681,7 +22684,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G707" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -22707,7 +22710,7 @@
         <v>21.5</v>
       </c>
       <c r="G708" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -22733,7 +22736,7 @@
         <v>21.5</v>
       </c>
       <c r="G709" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -22759,7 +22762,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G710" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -22785,7 +22788,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G711" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -22811,7 +22814,7 @@
         <v>21</v>
       </c>
       <c r="G712" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -22837,7 +22840,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G713" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -22863,7 +22866,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G714" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -22889,7 +22892,7 @@
         <v>21</v>
       </c>
       <c r="G715" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -22915,7 +22918,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G716" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -22941,7 +22944,7 @@
         <v>20.75</v>
       </c>
       <c r="G717" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -22967,7 +22970,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G718" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -22993,7 +22996,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G719" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23019,7 +23022,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G720" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23045,7 +23048,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G721" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23071,7 +23074,7 @@
         <v>15.5</v>
       </c>
       <c r="G722" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23097,7 +23100,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G723" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23123,7 +23126,7 @@
         <v>16.5</v>
       </c>
       <c r="G724" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23149,7 +23152,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G725" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23175,7 +23178,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G726" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23201,7 +23204,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G727" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23227,7 +23230,7 @@
         <v>16.4200000762939</v>
       </c>
       <c r="G728" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23253,7 +23256,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G729" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23279,7 +23282,7 @@
         <v>17</v>
       </c>
       <c r="G730" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23305,7 +23308,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G731" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23331,7 +23334,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G732" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23357,7 +23360,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G733" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -23383,7 +23386,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G734" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -23409,7 +23412,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G735" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -23435,7 +23438,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G736" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -23461,7 +23464,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G737" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -23487,7 +23490,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G738" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -23513,7 +23516,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G739" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -23539,7 +23542,7 @@
         <v>15.3800001144409</v>
       </c>
       <c r="G740" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -23565,7 +23568,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G741" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23591,7 +23594,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G742" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23617,7 +23620,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G743" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23643,7 +23646,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G744" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -23669,7 +23672,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G745" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -23695,7 +23698,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G746" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -23721,7 +23724,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G747" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -23747,7 +23750,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G748" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -23773,7 +23776,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G749" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -23799,7 +23802,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G750" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -23825,7 +23828,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G751" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -23851,7 +23854,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G752" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -23877,7 +23880,7 @@
         <v>14.6199998855591</v>
       </c>
       <c r="G753" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -23903,7 +23906,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G754" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -23929,7 +23932,7 @@
         <v>15.0799999237061</v>
       </c>
       <c r="G755" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -23955,7 +23958,7 @@
         <v>15.0600004196167</v>
       </c>
       <c r="G756" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -23981,7 +23984,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G757" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24007,7 +24010,7 @@
         <v>14.8599996566772</v>
       </c>
       <c r="G758" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24033,7 +24036,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G759" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24059,7 +24062,7 @@
         <v>14.5</v>
       </c>
       <c r="G760" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24085,7 +24088,7 @@
         <v>14.6800003051758</v>
       </c>
       <c r="G761" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24111,7 +24114,7 @@
         <v>14.960000038147</v>
       </c>
       <c r="G762" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24137,7 +24140,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G763" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24163,7 +24166,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G764" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24189,7 +24192,7 @@
         <v>15.460000038147</v>
       </c>
       <c r="G765" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24215,7 +24218,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G766" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24241,7 +24244,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G767" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24267,7 +24270,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G768" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24293,7 +24296,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G769" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24319,7 +24322,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G770" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24345,7 +24348,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G771" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24371,7 +24374,7 @@
         <v>16</v>
       </c>
       <c r="G772" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -24397,7 +24400,7 @@
         <v>16</v>
       </c>
       <c r="G773" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -24423,7 +24426,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G774" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -24449,7 +24452,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G775" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -24475,7 +24478,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G776" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -24501,7 +24504,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G777" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24527,7 +24530,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G778" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24553,7 +24556,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G779" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24579,7 +24582,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G780" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24605,7 +24608,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G781" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -24631,7 +24634,7 @@
         <v>17</v>
       </c>
       <c r="G782" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -24657,7 +24660,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G783" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -24683,7 +24686,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G784" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -24709,7 +24712,7 @@
         <v>18</v>
       </c>
       <c r="G785" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -24735,7 +24738,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G786" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -24761,7 +24764,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G787" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -24787,7 +24790,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G788" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -24813,7 +24816,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G789" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -24839,7 +24842,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G790" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -24865,7 +24868,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G791" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24891,7 +24894,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G792" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -24917,7 +24920,7 @@
         <v>17</v>
       </c>
       <c r="G793" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24943,7 +24946,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G794" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -24969,7 +24972,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G795" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -24995,7 +24998,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G796" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25021,7 +25024,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G797" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25047,7 +25050,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G798" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25073,7 +25076,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G799" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -25099,7 +25102,7 @@
         <v>17.5</v>
       </c>
       <c r="G800" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25125,7 +25128,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G801" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25151,7 +25154,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G802" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25177,7 +25180,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G803" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25203,7 +25206,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G804" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25229,7 +25232,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G805" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25255,7 +25258,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G806" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25281,7 +25284,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G807" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25307,7 +25310,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G808" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25333,7 +25336,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G809" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25359,7 +25362,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G810" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25385,7 +25388,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G811" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -25411,7 +25414,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G812" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -25437,7 +25440,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G813" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -25463,7 +25466,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G814" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -25489,7 +25492,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G815" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -25515,7 +25518,7 @@
         <v>17</v>
       </c>
       <c r="G816" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -25541,7 +25544,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G817" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -25567,7 +25570,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G818" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25593,7 +25596,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G819" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -25619,7 +25622,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G820" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -25645,7 +25648,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G821" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -25671,7 +25674,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G822" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -25697,7 +25700,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G823" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -25723,7 +25726,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G824" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -25749,7 +25752,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G825" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -25775,7 +25778,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G826" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -25801,7 +25804,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G827" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -25827,7 +25830,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G828" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -25853,7 +25856,7 @@
         <v>19.4599990844727</v>
       </c>
       <c r="G829" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -25879,7 +25882,7 @@
         <v>19.4400005340576</v>
       </c>
       <c r="G830" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -25905,7 +25908,7 @@
         <v>19.4200000762939</v>
       </c>
       <c r="G831" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -25931,7 +25934,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G832" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -25957,7 +25960,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G833" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -25983,7 +25986,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G834" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -26009,7 +26012,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G835" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -26035,7 +26038,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G836" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -26061,7 +26064,7 @@
         <v>18</v>
       </c>
       <c r="G837" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26087,7 +26090,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G838" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26113,7 +26116,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G839" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26139,7 +26142,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G840" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26165,7 +26168,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G841" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26191,7 +26194,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G842" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26217,7 +26220,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G843" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26243,7 +26246,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G844" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26269,7 +26272,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G845" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26295,7 +26298,7 @@
         <v>18.1599998474121</v>
       </c>
       <c r="G846" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26321,7 +26324,7 @@
         <v>18.2600002288818</v>
       </c>
       <c r="G847" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26347,7 +26350,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G848" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26373,7 +26376,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G849" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26399,7 +26402,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G850" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -26425,7 +26428,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G851" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -26451,7 +26454,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G852" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -26477,7 +26480,7 @@
         <v>17</v>
       </c>
       <c r="G853" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -26503,7 +26506,7 @@
         <v>16.5</v>
       </c>
       <c r="G854" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -26529,7 +26532,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G855" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -26555,7 +26558,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G856" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -26581,7 +26584,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G857" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -26607,7 +26610,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G858" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -26633,7 +26636,7 @@
         <v>15.6400003433228</v>
       </c>
       <c r="G859" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -26659,7 +26662,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G860" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -26685,7 +26688,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G861" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -26711,7 +26714,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G862" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -26737,7 +26740,7 @@
         <v>15.9399995803833</v>
       </c>
       <c r="G863" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -26763,7 +26766,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G864" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -26789,7 +26792,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G865" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -26815,7 +26818,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G866" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -26841,7 +26844,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G867" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -26867,7 +26870,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G868" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -26893,7 +26896,7 @@
         <v>15.3800001144409</v>
       </c>
       <c r="G869" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -26919,7 +26922,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G870" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -26945,7 +26948,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G871" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -26971,7 +26974,7 @@
         <v>15.5</v>
       </c>
       <c r="G872" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -26997,7 +27000,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G873" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27023,7 +27026,7 @@
         <v>15.5799999237061</v>
       </c>
       <c r="G874" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27049,7 +27052,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G875" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27075,7 +27078,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G876" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27101,7 +27104,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G877" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27127,7 +27130,7 @@
         <v>16.5</v>
       </c>
       <c r="G878" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27153,7 +27156,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G879" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27179,7 +27182,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G880" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27205,7 +27208,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G881" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27231,7 +27234,7 @@
         <v>16.3799991607666</v>
       </c>
       <c r="G882" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27257,7 +27260,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G883" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27283,7 +27286,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G884" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27309,7 +27312,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G885" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27335,7 +27338,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G886" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -27361,7 +27364,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G887" t="s">
-        <v>463</v>
+        <v>572</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27387,7 +27390,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G888" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -27439,7 +27442,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G890" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -27465,7 +27468,7 @@
         <v>16.5</v>
       </c>
       <c r="G891" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -27491,7 +27494,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G892" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -27595,7 +27598,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G896" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -27621,7 +27624,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G897" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -27647,7 +27650,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G898" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -27673,7 +27676,7 @@
         <v>15.9399995803833</v>
       </c>
       <c r="G899" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -27751,7 +27754,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G902" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -27803,7 +27806,7 @@
         <v>15.6400003433228</v>
       </c>
       <c r="G904" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -27829,7 +27832,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -27855,7 +27858,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G906" t="s">
-        <v>463</v>
+        <v>572</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -27881,7 +27884,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G907" t="s">
-        <v>463</v>
+        <v>572</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -27907,7 +27910,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G908" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -27959,7 +27962,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G910" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -27985,7 +27988,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G911" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -28037,7 +28040,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G913" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28063,7 +28066,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G914" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28115,7 +28118,7 @@
         <v>15.5</v>
       </c>
       <c r="G916" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28141,7 +28144,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G917" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28349,7 +28352,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G925" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -28401,7 +28404,7 @@
         <v>15.0799999237061</v>
       </c>
       <c r="G927" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -28453,7 +28456,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G929" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -28635,7 +28638,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G936" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -28661,7 +28664,7 @@
         <v>15.460000038147</v>
       </c>
       <c r="G937" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -28687,7 +28690,7 @@
         <v>15.460000038147</v>
       </c>
       <c r="G938" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -28713,7 +28716,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G939" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -28739,7 +28742,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G940" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -28765,7 +28768,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G941" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -28791,7 +28794,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G942" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -28817,7 +28820,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G943" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -28843,7 +28846,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G944" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -28895,7 +28898,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G946" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -28921,7 +28924,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G947" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -28947,7 +28950,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G948" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -28973,7 +28976,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G949" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -29077,7 +29080,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G953" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -29103,7 +29106,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G954" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -29207,7 +29210,7 @@
         <v>15.0799999237061</v>
       </c>
       <c r="G958" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -29337,7 +29340,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G963" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29415,7 +29418,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G966" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -29467,7 +29470,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G968" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -29493,7 +29496,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G969" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -29519,7 +29522,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G970" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -29545,7 +29548,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G971" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -29571,7 +29574,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G972" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -29597,7 +29600,7 @@
         <v>16</v>
       </c>
       <c r="G973" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -29701,7 +29704,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G977" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -29727,7 +29730,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G978" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -29805,7 +29808,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G981" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -29831,7 +29834,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G982" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -29857,7 +29860,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G983" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -29909,7 +29912,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G985" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -29935,7 +29938,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G986" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -29961,7 +29964,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G987" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -61013,7 +61016,7 @@
     </row>
     <row r="2182">
       <c r="A2182" s="1" t="n">
-        <v>45499.6495833333</v>
+        <v>45499.2916666667</v>
       </c>
       <c r="B2182" t="n">
         <v>24911</v>
@@ -61034,6 +61037,32 @@
         <v>1317</v>
       </c>
       <c r="H2182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" s="1" t="n">
+        <v>45502.6493287037</v>
+      </c>
+      <c r="B2183" t="n">
+        <v>33025</v>
+      </c>
+      <c r="C2183" t="n">
+        <v>35.1500015258789</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>34.7000007629395</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>35</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>34.7000007629395</v>
+      </c>
+      <c r="G2183" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H2183" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAN.MI.xlsx
+++ b/data/DAN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="1321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="1322">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8921461105347</t>
+    <t xml:space="preserve">15.8921489715576</t>
   </si>
   <si>
     <t xml:space="preserve">DAN.MI</t>
@@ -47,46 +47,46 @@
     <t xml:space="preserve">16.0230236053467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.518217086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8170919418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4899005889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.209451675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5646867752075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3122825622559</t>
+    <t xml:space="preserve">15.5182151794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8170900344849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4898996353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2094507217407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5646858215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3122835159302</t>
   </si>
   <si>
     <t xml:space="preserve">14.1346635818481</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3587522506714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0409107208252</t>
+    <t xml:space="preserve">13.35875415802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0409097671509</t>
   </si>
   <si>
     <t xml:space="preserve">13.1343927383423</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5267524719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1998319625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3867969512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2006435394287</t>
+    <t xml:space="preserve">12.5267515182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1998329162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3867979049683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2006416320801</t>
   </si>
   <si>
     <t xml:space="preserve">16.3595657348633</t>
@@ -95,19 +95,19 @@
     <t xml:space="preserve">16.6400127410889</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3969573974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6774101257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4439697265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9204654693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.770619392395</t>
+    <t xml:space="preserve">16.3969593048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6774082183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4439678192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9204635620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7706203460693</t>
   </si>
   <si>
     <t xml:space="preserve">16.4156551361084</t>
@@ -119,31 +119,31 @@
     <t xml:space="preserve">15.2284173965454</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2377653121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490926742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3966875076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2938547134399</t>
+    <t xml:space="preserve">15.2377662658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490888595581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3966884613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2938566207886</t>
   </si>
   <si>
     <t xml:space="preserve">16.2193393707275</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5465316772461</t>
+    <t xml:space="preserve">16.5465335845947</t>
   </si>
   <si>
     <t xml:space="preserve">17.0887355804443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2476558685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.387882232666</t>
+    <t xml:space="preserve">17.2476577758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3878803253174</t>
   </si>
   <si>
     <t xml:space="preserve">17.294397354126</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">16.6680603027344</t>
   </si>
   <si>
-    <t xml:space="preserve">16.658712387085</t>
+    <t xml:space="preserve">16.6587085723877</t>
   </si>
   <si>
     <t xml:space="preserve">17.1541728973389</t>
@@ -164,25 +164,25 @@
     <t xml:space="preserve">16.957857131958</t>
   </si>
   <si>
-    <t xml:space="preserve">17.509407043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6402835845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7057209014893</t>
+    <t xml:space="preserve">17.5094089508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.640287399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7057247161865</t>
   </si>
   <si>
     <t xml:space="preserve">17.7711620330811</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8550262451172</t>
+    <t xml:space="preserve">16.8550243377686</t>
   </si>
   <si>
     <t xml:space="preserve">17.5561504364014</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8552951812744</t>
+    <t xml:space="preserve">17.8552932739258</t>
   </si>
   <si>
     <t xml:space="preserve">17.2009143829346</t>
@@ -194,46 +194,46 @@
     <t xml:space="preserve">17.7992076873779</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3411407470703</t>
+    <t xml:space="preserve">17.3411350250244</t>
   </si>
   <si>
     <t xml:space="preserve">16.5278358459473</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8737239837646</t>
+    <t xml:space="preserve">16.873722076416</t>
   </si>
   <si>
     <t xml:space="preserve">17.2663516998291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6215858459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8924198150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8456764221191</t>
+    <t xml:space="preserve">17.6215877532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8924179077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8456783294678</t>
   </si>
   <si>
     <t xml:space="preserve">17.4533195495605</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9020404815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9768238067627</t>
+    <t xml:space="preserve">17.9020385742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9768257141113</t>
   </si>
   <si>
     <t xml:space="preserve">17.7431163787842</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2105312347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4629402160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3694534301758</t>
+    <t xml:space="preserve">18.2105331420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4629383087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3694553375244</t>
   </si>
   <si>
     <t xml:space="preserve">18.1357460021973</t>
@@ -242,52 +242,52 @@
     <t xml:space="preserve">17.9394302368164</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6966495513916</t>
+    <t xml:space="preserve">18.6966438293457</t>
   </si>
   <si>
     <t xml:space="preserve">18.7620830535889</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7901287078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4442405700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6779499053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3788032531738</t>
+    <t xml:space="preserve">18.7901306152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4442386627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6779460906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3788013458252</t>
   </si>
   <si>
     <t xml:space="preserve">18.2385787963867</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8085536956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4813652038574</t>
+    <t xml:space="preserve">17.8085517883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4813632965088</t>
   </si>
   <si>
     <t xml:space="preserve">17.8272514343262</t>
   </si>
   <si>
-    <t xml:space="preserve">17.500057220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4065742492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0980834960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1635208129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8830699920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6306648254395</t>
+    <t xml:space="preserve">17.5000591278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4065780639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0980854034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1635189056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8830718994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6306667327881</t>
   </si>
   <si>
     <t xml:space="preserve">16.4623985290527</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">16.5652294158936</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0700359344482</t>
+    <t xml:space="preserve">17.0700378417969</t>
   </si>
   <si>
     <t xml:space="preserve">16.7708911895752</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">16.7334976196289</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4810924530029</t>
+    <t xml:space="preserve">16.4810905456543</t>
   </si>
   <si>
     <t xml:space="preserve">17.6963748931885</t>
@@ -314,10 +314,10 @@
     <t xml:space="preserve">16.8363285064697</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8176326751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5748481750488</t>
+    <t xml:space="preserve">16.8176307678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5748462677002</t>
   </si>
   <si>
     <t xml:space="preserve">17.3224430084229</t>
@@ -332,13 +332,13 @@
     <t xml:space="preserve">16.153902053833</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2471141815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.050799369812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3592948913574</t>
+    <t xml:space="preserve">15.2471151351929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0508003234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3592939376831</t>
   </si>
   <si>
     <t xml:space="preserve">15.6303930282593</t>
@@ -347,73 +347,73 @@
     <t xml:space="preserve">16.2660789489746</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2751607894897</t>
+    <t xml:space="preserve">15.2751598358154</t>
   </si>
   <si>
     <t xml:space="preserve">14.7329568862915</t>
   </si>
   <si>
-    <t xml:space="preserve">15.172327041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8077430725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9666662216187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7051820755005</t>
+    <t xml:space="preserve">15.1723260879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8077421188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9666652679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7051811218262</t>
   </si>
   <si>
     <t xml:space="preserve">15.3219003677368</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9105739593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2748899459839</t>
+    <t xml:space="preserve">14.9105758666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2748889923096</t>
   </si>
   <si>
     <t xml:space="preserve">14.5366411209106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9386177062988</t>
+    <t xml:space="preserve">14.9386205673218</t>
   </si>
   <si>
     <t xml:space="preserve">15.6958341598511</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6117010116577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7986669540405</t>
+    <t xml:space="preserve">15.6117000579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7986650466919</t>
   </si>
   <si>
     <t xml:space="preserve">15.5462589263916</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6210460662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5930032730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.677134513855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4530448913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9201965332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6864881515503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4343528747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1352081298828</t>
+    <t xml:space="preserve">15.6210451126099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.592999458313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6771392822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4530487060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9201936721802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6864862442017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4343509674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1352043151855</t>
   </si>
   <si>
     <t xml:space="preserve">16.3876094818115</t>
@@ -422,28 +422,28 @@
     <t xml:space="preserve">16.490442276001</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3782634735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2941265106201</t>
+    <t xml:space="preserve">16.3782615661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2941284179688</t>
   </si>
   <si>
     <t xml:space="preserve">17.4720153808594</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1354751586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9298114776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9672069549561</t>
+    <t xml:space="preserve">17.13547706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9298152923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9672050476074</t>
   </si>
   <si>
     <t xml:space="preserve">17.9487800598145</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4907073974609</t>
+    <t xml:space="preserve">17.4907112121582</t>
   </si>
   <si>
     <t xml:space="preserve">17.3598346710205</t>
@@ -455,85 +455,85 @@
     <t xml:space="preserve">17.6683330535889</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4063034057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0884647369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0604190826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1258563995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2567329406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9388885498047</t>
+    <t xml:space="preserve">16.406307220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0884628295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0604209899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1258544921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2567310333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.938889503479</t>
   </si>
   <si>
     <t xml:space="preserve">15.9669351577759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8641023635864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7893161773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9108448028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3408641815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0232944488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3689136505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8360576629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8454074859619</t>
+    <t xml:space="preserve">15.8641014099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7893171310425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9108457565308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3408660888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0232925415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3689117431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8360595703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8454093933105</t>
   </si>
   <si>
     <t xml:space="preserve">16.0043296813965</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6584424972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4527788162231</t>
+    <t xml:space="preserve">15.6584396362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4527797698975</t>
   </si>
   <si>
     <t xml:space="preserve">15.5280199050903</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6032590866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8477993011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9324436187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0923328399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8195791244507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2646732330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6220741271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7161235809326</t>
+    <t xml:space="preserve">15.6032609939575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8477964401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.932445526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0923347473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8195810317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2646722793579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6220731735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.716121673584</t>
   </si>
   <si>
     <t xml:space="preserve">15.7067203521729</t>
@@ -548,16 +548,16 @@
     <t xml:space="preserve">16.5343780517578</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1299533843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6879091262817</t>
+    <t xml:space="preserve">16.129955291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6879072189331</t>
   </si>
   <si>
     <t xml:space="preserve">15.8007707595825</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5092077255249</t>
+    <t xml:space="preserve">15.5092096328735</t>
   </si>
   <si>
     <t xml:space="preserve">16.0829277038574</t>
@@ -569,7 +569,7 @@
     <t xml:space="preserve">16.0359001159668</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7883205413818</t>
+    <t xml:space="preserve">16.7883186340332</t>
   </si>
   <si>
     <t xml:space="preserve">17.399658203125</t>
@@ -578,25 +578,25 @@
     <t xml:space="preserve">17.4748992919922</t>
   </si>
   <si>
-    <t xml:space="preserve">17.352632522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4372787475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2397708892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1645259857178</t>
+    <t xml:space="preserve">17.3526344299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4372806549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2397727966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.164529800415</t>
   </si>
   <si>
     <t xml:space="preserve">16.6942672729492</t>
   </si>
   <si>
-    <t xml:space="preserve">17.305606842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1175022125244</t>
+    <t xml:space="preserve">17.3056049346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1175003051758</t>
   </si>
   <si>
     <t xml:space="preserve">17.3808460235596</t>
@@ -605,22 +605,22 @@
     <t xml:space="preserve">17.9639720916748</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1238613128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1614799499512</t>
+    <t xml:space="preserve">18.1238594055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1614818572998</t>
   </si>
   <si>
     <t xml:space="preserve">18.1050491333008</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6599597930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.139627456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1866512298584</t>
+    <t xml:space="preserve">18.6599559783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1396236419678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1866493225098</t>
   </si>
   <si>
     <t xml:space="preserve">19.7979888916016</t>
@@ -629,40 +629,40 @@
     <t xml:space="preserve">19.8732299804688</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3559455871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1490306854248</t>
+    <t xml:space="preserve">19.3559417724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1490325927734</t>
   </si>
   <si>
     <t xml:space="preserve">19.7039394378662</t>
   </si>
   <si>
-    <t xml:space="preserve">19.572265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4217777252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.318323135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0925960540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2524871826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1772422790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.167839050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9891395568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8104438781738</t>
+    <t xml:space="preserve">19.5722675323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4217796325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3183250427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0925979614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2524890899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1772441864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1678371429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9891414642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8104400634766</t>
   </si>
   <si>
     <t xml:space="preserve">18.6317405700684</t>
@@ -671,25 +671,25 @@
     <t xml:space="preserve">18.3401794433594</t>
   </si>
   <si>
-    <t xml:space="preserve">18.688175201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7634162902832</t>
+    <t xml:space="preserve">18.6881771087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7634143829346</t>
   </si>
   <si>
     <t xml:space="preserve">18.6975784301758</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6035270690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7163887023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5094718933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5565013885498</t>
+    <t xml:space="preserve">18.6035289764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7163906097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5094757080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5564994812012</t>
   </si>
   <si>
     <t xml:space="preserve">18.7446041107178</t>
@@ -698,10 +698,10 @@
     <t xml:space="preserve">18.8480644226074</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8574638366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9609222412109</t>
+    <t xml:space="preserve">18.8574676513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9609241485596</t>
   </si>
   <si>
     <t xml:space="preserve">19.2807025909424</t>
@@ -710,34 +710,34 @@
     <t xml:space="preserve">19.6569118499756</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3277282714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3653507232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6098861694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6945323944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1960563659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4876174926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7509651184082</t>
+    <t xml:space="preserve">19.327730178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.365348815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.609884262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6945343017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1960544586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4876155853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7509613037109</t>
   </si>
   <si>
     <t xml:space="preserve">19.3371334075928</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4594039916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5910778045654</t>
+    <t xml:space="preserve">19.4594020843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5910739898682</t>
   </si>
   <si>
     <t xml:space="preserve">19.271297454834</t>
@@ -749,10 +749,10 @@
     <t xml:space="preserve">19.6286964416504</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5252361297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1647930145264</t>
+    <t xml:space="preserve">19.525239944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.164794921875</t>
   </si>
   <si>
     <t xml:space="preserve">20.258846282959</t>
@@ -761,19 +761,19 @@
     <t xml:space="preserve">20.6350536346436</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8795909881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1147232055664</t>
+    <t xml:space="preserve">20.8795890808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1147212982178</t>
   </si>
   <si>
     <t xml:space="preserve">21.2275848388672</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2087726593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3999252319336</t>
+    <t xml:space="preserve">21.2087707519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3999271392822</t>
   </si>
   <si>
     <t xml:space="preserve">20.8701858520508</t>
@@ -782,13 +782,13 @@
     <t xml:space="preserve">20.644458770752</t>
   </si>
   <si>
-    <t xml:space="preserve">20.503381729126</t>
+    <t xml:space="preserve">20.5033798217773</t>
   </si>
   <si>
     <t xml:space="preserve">20.8325634002686</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9078063964844</t>
+    <t xml:space="preserve">20.907808303833</t>
   </si>
   <si>
     <t xml:space="preserve">20.8607788085938</t>
@@ -803,28 +803,28 @@
     <t xml:space="preserve">20.9172115325928</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7385101318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0770969390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1241245269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7102966308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0394821166992</t>
+    <t xml:space="preserve">20.7385120391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0770988464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1241264343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7102947235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0394802093506</t>
   </si>
   <si>
     <t xml:space="preserve">21.9141635894775</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7636833190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.632007598877</t>
+    <t xml:space="preserve">21.7636795043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6320095062256</t>
   </si>
   <si>
     <t xml:space="preserve">21.5849838256836</t>
@@ -836,10 +836,10 @@
     <t xml:space="preserve">21.38747215271</t>
   </si>
   <si>
-    <t xml:space="preserve">21.189962387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.537956237793</t>
+    <t xml:space="preserve">21.1899642944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5379543304443</t>
   </si>
   <si>
     <t xml:space="preserve">21.3686618804932</t>
@@ -848,19 +848,19 @@
     <t xml:space="preserve">21.6131992340088</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4909324645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8983993530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.434497833252</t>
+    <t xml:space="preserve">21.490930557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8983974456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4344997406006</t>
   </si>
   <si>
     <t xml:space="preserve">21.2181777954102</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3780651092529</t>
+    <t xml:space="preserve">21.3780670166016</t>
   </si>
   <si>
     <t xml:space="preserve">21.5191440582275</t>
@@ -875,13 +875,13 @@
     <t xml:space="preserve">21.5473613739014</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1993675231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.443904876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9924545288086</t>
+    <t xml:space="preserve">21.199369430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4439029693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.99245262146</t>
   </si>
   <si>
     <t xml:space="preserve">20.5692176818848</t>
@@ -890,22 +890,22 @@
     <t xml:space="preserve">20.6538639068604</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6632709503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5786228179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8889942169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5315971374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2964649200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4657611846924</t>
+    <t xml:space="preserve">20.6632690429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5786247253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8889923095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5315990447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2964668273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4657592773438</t>
   </si>
   <si>
     <t xml:space="preserve">20.0425243377686</t>
@@ -914,10 +914,10 @@
     <t xml:space="preserve">20.1553897857666</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5221900939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.550407409668</t>
+    <t xml:space="preserve">20.5221920013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5504093170166</t>
   </si>
   <si>
     <t xml:space="preserve">20.8043518066406</t>
@@ -926,85 +926,85 @@
     <t xml:space="preserve">20.6914863586426</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2024116516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0801448822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1365795135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9672832489014</t>
+    <t xml:space="preserve">20.20241355896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0801467895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1365756988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.96728515625</t>
   </si>
   <si>
     <t xml:space="preserve">20.1741981506348</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3246841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2494411468506</t>
+    <t xml:space="preserve">20.3246803283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.249439239502</t>
   </si>
   <si>
     <t xml:space="preserve">20.3623027801514</t>
   </si>
   <si>
-    <t xml:space="preserve">19.920259475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9266185760498</t>
+    <t xml:space="preserve">19.9202575683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9266166687012</t>
   </si>
   <si>
     <t xml:space="preserve">20.4939785003662</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2212238311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9766883850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6726760864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3811130523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.747917175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1053161621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.59743309021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8231601715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1523418426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4627132415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9830455780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7291088104248</t>
+    <t xml:space="preserve">20.2212257385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9766902923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6726741790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3811149597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7479152679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.105318069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5974349975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8231582641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1523399353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4627151489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9830474853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7291069030762</t>
   </si>
   <si>
     <t xml:space="preserve">20.5880298614502</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6256484985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1271743774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0895500183105</t>
+    <t xml:space="preserve">20.6256504058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1271705627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0895519256592</t>
   </si>
   <si>
     <t xml:space="preserve">20.014310836792</t>
@@ -1013,40 +1013,40 @@
     <t xml:space="preserve">20.2306308746338</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3434925079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7761344909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2400379180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7791805267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4970226287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0173568725586</t>
+    <t xml:space="preserve">20.3434944152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7761325836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2400341033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7791786193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4970207214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.01735496521</t>
   </si>
   <si>
     <t xml:space="preserve">19.073787689209</t>
   </si>
   <si>
-    <t xml:space="preserve">18.866870880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.233678817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9138984680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7916316986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.895092010498</t>
+    <t xml:space="preserve">18.8668746948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2336769104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9139003753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7916297912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8950901031494</t>
   </si>
   <si>
     <t xml:space="preserve">18.6693649291992</t>
@@ -1064,43 +1064,43 @@
     <t xml:space="preserve">19.1864185333252</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7611045837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5342712402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1278591156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0711517333984</t>
+    <t xml:space="preserve">18.7611026763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5342693328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.127857208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0711498260498</t>
   </si>
   <si>
     <t xml:space="preserve">17.8632183074951</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8915748596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1656627655029</t>
+    <t xml:space="preserve">17.8915710449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1656608581543</t>
   </si>
   <si>
     <t xml:space="preserve">18.1184062957764</t>
   </si>
   <si>
-    <t xml:space="preserve">18.194019317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4964637756348</t>
+    <t xml:space="preserve">18.1940174102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4964618682861</t>
   </si>
   <si>
     <t xml:space="preserve">18.6949443817139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8178119659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6382369995117</t>
+    <t xml:space="preserve">18.817813873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6382350921631</t>
   </si>
   <si>
     <t xml:space="preserve">18.3924980163574</t>
@@ -1109,13 +1109,13 @@
     <t xml:space="preserve">18.7232971191406</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5909767150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4492092132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9028778076172</t>
+    <t xml:space="preserve">18.5909786224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4492073059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9028739929199</t>
   </si>
   <si>
     <t xml:space="preserve">19.0068416595459</t>
@@ -1124,58 +1124,58 @@
     <t xml:space="preserve">18.9312305450439</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9217796325684</t>
+    <t xml:space="preserve">18.921781539917</t>
   </si>
   <si>
     <t xml:space="preserve">18.8461685180664</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5815277099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6098823547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6760444641113</t>
+    <t xml:space="preserve">18.5815258026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6098804473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6760406494141</t>
   </si>
   <si>
     <t xml:space="preserve">18.713846206665</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7043972015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8934268951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9406833648682</t>
+    <t xml:space="preserve">18.7043952941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8934230804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9406814575195</t>
   </si>
   <si>
     <t xml:space="preserve">18.8272647857666</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6193351745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7327480316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1391620635986</t>
+    <t xml:space="preserve">18.6193313598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7327499389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.13916015625</t>
   </si>
   <si>
     <t xml:space="preserve">19.4227046966553</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7062492370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9897899627686</t>
+    <t xml:space="preserve">19.7062473297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9897880554199</t>
   </si>
   <si>
     <t xml:space="preserve">20.7931632995605</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5492763519287</t>
+    <t xml:space="preserve">21.5492782592773</t>
   </si>
   <si>
     <t xml:space="preserve">21.832820892334</t>
@@ -1184,16 +1184,16 @@
     <t xml:space="preserve">21.7855644226074</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6437931060791</t>
+    <t xml:space="preserve">21.6437911987305</t>
   </si>
   <si>
     <t xml:space="preserve">21.8800773620605</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7383060455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0218467712402</t>
+    <t xml:space="preserve">21.7383079528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0218505859375</t>
   </si>
   <si>
     <t xml:space="preserve">22.0691070556641</t>
@@ -1202,37 +1202,37 @@
     <t xml:space="preserve">21.2657356262207</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6986465454102</t>
+    <t xml:space="preserve">20.6986484527588</t>
   </si>
   <si>
     <t xml:space="preserve">21.3129920959473</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8876762390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0294513702393</t>
+    <t xml:space="preserve">20.8876781463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0294494628906</t>
   </si>
   <si>
     <t xml:space="preserve">20.9821929931641</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3602504730225</t>
+    <t xml:space="preserve">21.3602485656738</t>
   </si>
   <si>
     <t xml:space="preserve">21.4547653198242</t>
   </si>
   <si>
-    <t xml:space="preserve">21.407506942749</t>
+    <t xml:space="preserve">21.4075050354004</t>
   </si>
   <si>
     <t xml:space="preserve">21.1239643096924</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9349365234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9745922088623</t>
+    <t xml:space="preserve">20.9349346160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9745903015137</t>
   </si>
   <si>
     <t xml:space="preserve">22.494421005249</t>
@@ -1244,19 +1244,19 @@
     <t xml:space="preserve">22.3526496887207</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2581386566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0767059326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5020217895508</t>
+    <t xml:space="preserve">22.2581348419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0767078399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5020198822021</t>
   </si>
   <si>
     <t xml:space="preserve">20.5568771362305</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4623641967773</t>
+    <t xml:space="preserve">20.4623622894287</t>
   </si>
   <si>
     <t xml:space="preserve">21.1712207794189</t>
@@ -1268,49 +1268,49 @@
     <t xml:space="preserve">21.2184791564941</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5965385437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6513919830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7459049224854</t>
+    <t xml:space="preserve">21.5965366363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6513938903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.745906829834</t>
   </si>
   <si>
     <t xml:space="preserve">20.367847442627</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2336769104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2809352874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3754482269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5644760131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0370483398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8480205535889</t>
+    <t xml:space="preserve">19.2336750030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2809314727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3754463195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5644779205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0370502471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8480167388916</t>
   </si>
   <si>
     <t xml:space="preserve">20.6041355133057</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5096206665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2260761260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4151039123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2733345031738</t>
+    <t xml:space="preserve">20.5096225738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.22607421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4151058197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2733325958252</t>
   </si>
   <si>
     <t xml:space="preserve">20.1315612792969</t>
@@ -1319,16 +1319,16 @@
     <t xml:space="preserve">20.1788196563721</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6589908599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8007659912109</t>
+    <t xml:space="preserve">19.6589889526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8007621765137</t>
   </si>
   <si>
     <t xml:space="preserve">19.7535037994385</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8952751159668</t>
+    <t xml:space="preserve">19.8952770233154</t>
   </si>
   <si>
     <t xml:space="preserve">19.942533493042</t>
@@ -1340,25 +1340,25 @@
     <t xml:space="preserve">19.4699630737305</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6117343902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0843029022217</t>
+    <t xml:space="preserve">19.6117324829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0843048095703</t>
   </si>
   <si>
     <t xml:space="preserve">21.6910514831543</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3205890655518</t>
+    <t xml:space="preserve">20.3205909729004</t>
   </si>
   <si>
     <t xml:space="preserve">17.9388294219971</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5003576278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8973159790039</t>
+    <t xml:space="preserve">15.500358581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8973178863525</t>
   </si>
   <si>
     <t xml:space="preserve">14.9521751403809</t>
@@ -1373,31 +1373,31 @@
     <t xml:space="preserve">15.5948734283447</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8217077255249</t>
+    <t xml:space="preserve">15.8217058181763</t>
   </si>
   <si>
     <t xml:space="preserve">16.1997623443604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7271919250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5192623138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6515808105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0674457550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9918327331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8595132827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7839012145996</t>
+    <t xml:space="preserve">15.7271909713745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5192613601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6515817642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0674438476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9918355941772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8595142364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7839021682739</t>
   </si>
   <si>
     <t xml:space="preserve">15.5759706497192</t>
@@ -1412,28 +1412,28 @@
     <t xml:space="preserve">14.760425567627</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5892353057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6272773742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1028060913086</t>
+    <t xml:space="preserve">14.5892362594604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6272783279419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1028070449829</t>
   </si>
   <si>
     <t xml:space="preserve">15.1218280792236</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8365116119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3310623168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6353998184204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.464207649231</t>
+    <t xml:space="preserve">14.8365106582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3310613632202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6353988647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4642086029053</t>
   </si>
   <si>
     <t xml:space="preserve">14.2468538284302</t>
@@ -1442,13 +1442,13 @@
     <t xml:space="preserve">14.0946846008301</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7713241577148</t>
+    <t xml:space="preserve">13.7713251113892</t>
   </si>
   <si>
     <t xml:space="preserve">13.9044733047485</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5131511688232</t>
+    <t xml:space="preserve">14.5131521224976</t>
   </si>
   <si>
     <t xml:space="preserve">14.3419599533081</t>
@@ -1457,19 +1457,19 @@
     <t xml:space="preserve">14.3229398727417</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3990249633789</t>
+    <t xml:space="preserve">14.3990230560303</t>
   </si>
   <si>
     <t xml:space="preserve">14.1327266693115</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8093681335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7903451919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.961537361145</t>
+    <t xml:space="preserve">13.8093671798706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7903461456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9615364074707</t>
   </si>
   <si>
     <t xml:space="preserve">14.2278327941895</t>
@@ -1478,22 +1478,22 @@
     <t xml:space="preserve">14.3800020217896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7033624649048</t>
+    <t xml:space="preserve">14.7033615112305</t>
   </si>
   <si>
     <t xml:space="preserve">14.9316158294678</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4071474075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3120393753052</t>
+    <t xml:space="preserve">15.4071455001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3120403289795</t>
   </si>
   <si>
     <t xml:space="preserve">15.2169332504272</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2549772262573</t>
+    <t xml:space="preserve">15.254976272583</t>
   </si>
   <si>
     <t xml:space="preserve">15.0837850570679</t>
@@ -1505,34 +1505,34 @@
     <t xml:space="preserve">15.3500814437866</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3881244659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7305068969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.167989730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0239448547363</t>
+    <t xml:space="preserve">15.3881235122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.730507850647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1679916381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0239410400391</t>
   </si>
   <si>
     <t xml:space="preserve">17.1000289916992</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1190509796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7005863189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6245002746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4723300933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5674381256104</t>
+    <t xml:space="preserve">17.1190490722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7005844116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6244983673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4723281860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5674362182617</t>
   </si>
   <si>
     <t xml:space="preserve">16.1870136260986</t>
@@ -1541,10 +1541,10 @@
     <t xml:space="preserve">16.0728855133057</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0158252716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3391819000244</t>
+    <t xml:space="preserve">16.0158233642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.339183807373</t>
   </si>
   <si>
     <t xml:space="preserve">16.3582038879395</t>
@@ -1556,25 +1556,25 @@
     <t xml:space="preserve">16.8337345123291</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7196063995361</t>
+    <t xml:space="preserve">16.7196044921875</t>
   </si>
   <si>
     <t xml:space="preserve">16.4913539886475</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6435203552246</t>
+    <t xml:space="preserve">16.6435222625732</t>
   </si>
   <si>
     <t xml:space="preserve">16.6625423431396</t>
   </si>
   <si>
-    <t xml:space="preserve">16.434289932251</t>
+    <t xml:space="preserve">16.4342880249023</t>
   </si>
   <si>
     <t xml:space="preserve">16.8147125244141</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9288368225098</t>
+    <t xml:space="preserve">16.9288387298584</t>
   </si>
   <si>
     <t xml:space="preserve">16.6815643310547</t>
@@ -1592,22 +1592,22 @@
     <t xml:space="preserve">16.1299495697021</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3201599121094</t>
+    <t xml:space="preserve">16.320161819458</t>
   </si>
   <si>
     <t xml:space="preserve">16.206033706665</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5484161376953</t>
+    <t xml:space="preserve">16.5484142303467</t>
   </si>
   <si>
     <t xml:space="preserve">16.6054782867432</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7386264801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9859027862549</t>
+    <t xml:space="preserve">16.7386283874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9859008789062</t>
   </si>
   <si>
     <t xml:space="preserve">17.1570930480957</t>
@@ -1625,22 +1625,22 @@
     <t xml:space="preserve">18.469554901123</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3364067077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7467498779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3473033905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2141551971436</t>
+    <t xml:space="preserve">18.336404800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7467479705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3473052978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2141590118408</t>
   </si>
   <si>
     <t xml:space="preserve">17.1951351165771</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9478569030762</t>
+    <t xml:space="preserve">16.9478588104248</t>
   </si>
   <si>
     <t xml:space="preserve">16.8527545928955</t>
@@ -1655,25 +1655,25 @@
     <t xml:space="preserve">17.27121925354</t>
   </si>
   <si>
-    <t xml:space="preserve">17.366325378418</t>
+    <t xml:space="preserve">17.3663272857666</t>
   </si>
   <si>
     <t xml:space="preserve">17.4424114227295</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9668827056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4152679443359</t>
+    <t xml:space="preserve">16.9668807983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4152660369873</t>
   </si>
   <si>
     <t xml:space="preserve">15.6924629211426</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7114839553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6544198989868</t>
+    <t xml:space="preserve">15.7114849090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6544208526611</t>
   </si>
   <si>
     <t xml:space="preserve">15.3691034317017</t>
@@ -1682,25 +1682,25 @@
     <t xml:space="preserve">14.8745527267456</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9886808395386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2739973068237</t>
+    <t xml:space="preserve">14.9886798858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2739963531494</t>
   </si>
   <si>
     <t xml:space="preserve">14.9506378173828</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1598691940308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0267210006714</t>
+    <t xml:space="preserve">15.1598701477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0267219543457</t>
   </si>
   <si>
     <t xml:space="preserve">14.6843404769897</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8555316925049</t>
+    <t xml:space="preserve">14.8555307388306</t>
   </si>
   <si>
     <t xml:space="preserve">14.5511932373047</t>
@@ -1709,13 +1709,13 @@
     <t xml:space="preserve">15.007700920105</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7414035797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.646297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8174886703491</t>
+    <t xml:space="preserve">14.7414045333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6462984085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8174896240234</t>
   </si>
   <si>
     <t xml:space="preserve">15.7685480117798</t>
@@ -1727,13 +1727,13 @@
     <t xml:space="preserve">15.5783357620239</t>
   </si>
   <si>
-    <t xml:space="preserve">15.863655090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4261665344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7875699996948</t>
+    <t xml:space="preserve">15.8636512756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4261655807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7875680923462</t>
   </si>
   <si>
     <t xml:space="preserve">15.6163778305054</t>
@@ -1748,13 +1748,13 @@
     <t xml:space="preserve">15.0647640228271</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7223825454712</t>
+    <t xml:space="preserve">14.7223815917969</t>
   </si>
   <si>
     <t xml:space="preserve">14.9696588516235</t>
   </si>
   <si>
-    <t xml:space="preserve">14.798469543457</t>
+    <t xml:space="preserve">14.7984685897827</t>
   </si>
   <si>
     <t xml:space="preserve">14.4751081466675</t>
@@ -1766,43 +1766,43 @@
     <t xml:space="preserve">14.2658748626709</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0756635665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.94251537323</t>
+    <t xml:space="preserve">14.0756645202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9425144195557</t>
   </si>
   <si>
     <t xml:space="preserve">14.6082563400269</t>
   </si>
   <si>
-    <t xml:space="preserve">14.437066078186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9805583953857</t>
+    <t xml:space="preserve">14.4370651245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9805574417114</t>
   </si>
   <si>
     <t xml:space="preserve">14.0185995101929</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2088108062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1137065887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4180450439453</t>
+    <t xml:space="preserve">14.2088117599487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1137056350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4180431365967</t>
   </si>
   <si>
     <t xml:space="preserve">14.189790725708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.779447555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1707677841187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5593156814575</t>
+    <t xml:space="preserve">14.7794466018677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1707696914673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5593147277832</t>
   </si>
   <si>
     <t xml:space="preserve">14.3609819412231</t>
@@ -1811,16 +1811,16 @@
     <t xml:space="preserve">14.2848968505859</t>
   </si>
   <si>
-    <t xml:space="preserve">14.665319442749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1788902282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4832305908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2640380859375</t>
+    <t xml:space="preserve">14.6653203964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1788911819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.483229637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2640390396118</t>
   </si>
   <si>
     <t xml:space="preserve">15.2448396682739</t>
@@ -1829,25 +1829,25 @@
     <t xml:space="preserve">15.0912389755249</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9952383041382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0720367431641</t>
+    <t xml:space="preserve">14.9952373504639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0720386505127</t>
   </si>
   <si>
     <t xml:space="preserve">15.5712385177612</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8784437179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.665641784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5312423706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8976392745972</t>
+    <t xml:space="preserve">15.8784418106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6656436920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5312404632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8976411819458</t>
   </si>
   <si>
     <t xml:space="preserve">15.8592414855957</t>
@@ -1856,34 +1856,34 @@
     <t xml:space="preserve">15.7248401641846</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7440414428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6480388641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9552421569824</t>
+    <t xml:space="preserve">15.7440404891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6480398178101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9552412033081</t>
   </si>
   <si>
     <t xml:space="preserve">15.9936399459839</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3776397705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9168386459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8016395568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8400392532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2432403564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1856422424316</t>
+    <t xml:space="preserve">16.3776435852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9168405532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8016405105591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8400411605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2432422637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.185640335083</t>
   </si>
   <si>
     <t xml:space="preserve">15.6096391677856</t>
@@ -1892,16 +1892,16 @@
     <t xml:space="preserve">16.0320415496826</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7632389068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6288404464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7824420928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4368391036987</t>
+    <t xml:space="preserve">15.7632398605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6288394927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7824401855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.436840057373</t>
   </si>
   <si>
     <t xml:space="preserve">15.3024387359619</t>
@@ -1913,22 +1913,22 @@
     <t xml:space="preserve">15.3984403610229</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9376382827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1296396255493</t>
+    <t xml:space="preserve">14.9376392364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.129638671875</t>
   </si>
   <si>
     <t xml:space="preserve">14.6880378723145</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2080364227295</t>
+    <t xml:space="preserve">14.2080373764038</t>
   </si>
   <si>
     <t xml:space="preserve">14.1120357513428</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4000358581543</t>
+    <t xml:space="preserve">14.4000368118286</t>
   </si>
   <si>
     <t xml:space="preserve">14.7840375900269</t>
@@ -1937,13 +1937,13 @@
     <t xml:space="preserve">14.9760389328003</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7648372650146</t>
+    <t xml:space="preserve">14.764838218689</t>
   </si>
   <si>
     <t xml:space="preserve">14.5728368759155</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6112365722656</t>
+    <t xml:space="preserve">14.6112375259399</t>
   </si>
   <si>
     <t xml:space="preserve">14.8032379150391</t>
@@ -1955,13 +1955,13 @@
     <t xml:space="preserve">14.4576377868652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2272357940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8624353408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3056335449219</t>
+    <t xml:space="preserve">14.2272367477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.862434387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3056344985962</t>
   </si>
   <si>
     <t xml:space="preserve">13.1712331771851</t>
@@ -1973,22 +1973,22 @@
     <t xml:space="preserve">13.2480344772339</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9600324630737</t>
+    <t xml:space="preserve">12.960033416748</t>
   </si>
   <si>
     <t xml:space="preserve">12.5760316848755</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3264322280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0960311889648</t>
+    <t xml:space="preserve">12.3264312744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0960321426392</t>
   </si>
   <si>
     <t xml:space="preserve">11.6160306930542</t>
   </si>
   <si>
-    <t xml:space="preserve">11.174427986145</t>
+    <t xml:space="preserve">11.1744289398193</t>
   </si>
   <si>
     <t xml:space="preserve">10.2528266906738</t>
@@ -2003,7 +2003,7 @@
     <t xml:space="preserve">9.02402305603027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53282451629639</t>
+    <t xml:space="preserve">9.5328254699707</t>
   </si>
   <si>
     <t xml:space="preserve">8.19842147827148</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">9.21602344512939</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2912273406982</t>
+    <t xml:space="preserve">10.2912254333496</t>
   </si>
   <si>
     <t xml:space="preserve">10.8864278793335</t>
@@ -2030,7 +2030,7 @@
     <t xml:space="preserve">11.7504301071167</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0976295471191</t>
+    <t xml:space="preserve">11.0976285934448</t>
   </si>
   <si>
     <t xml:space="preserve">11.0592288970947</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve">10.4640264511108</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7520265579224</t>
+    <t xml:space="preserve">10.7520275115967</t>
   </si>
   <si>
     <t xml:space="preserve">10.8672275543213</t>
@@ -2057,13 +2057,13 @@
     <t xml:space="preserve">11.0400285720825</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7136268615723</t>
+    <t xml:space="preserve">10.7136278152466</t>
   </si>
   <si>
     <t xml:space="preserve">10.329626083374</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0032262802124</t>
+    <t xml:space="preserve">10.0032253265381</t>
   </si>
   <si>
     <t xml:space="preserve">10.3488264083862</t>
@@ -2075,7 +2075,7 @@
     <t xml:space="preserve">10.5600271224976</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9056282043457</t>
+    <t xml:space="preserve">10.9056272506714</t>
   </si>
   <si>
     <t xml:space="preserve">10.8480281829834</t>
@@ -2084,85 +2084,85 @@
     <t xml:space="preserve">10.8288269042969</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9440279006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9632272720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6752271652222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1360273361206</t>
+    <t xml:space="preserve">10.9440269470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.963228225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6752281188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1360282897949</t>
   </si>
   <si>
     <t xml:space="preserve">11.0784282684326</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6352291107178</t>
+    <t xml:space="preserve">11.6352300643921</t>
   </si>
   <si>
     <t xml:space="preserve">11.7120294570923</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1936292648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5584287643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6544303894043</t>
+    <t xml:space="preserve">11.1936283111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5584297180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.65442943573</t>
   </si>
   <si>
     <t xml:space="preserve">11.9424304962158</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1536312103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.441632270813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3648309707642</t>
+    <t xml:space="preserve">12.1536302566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4416313171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3648319244385</t>
   </si>
   <si>
     <t xml:space="preserve">12.2496318817139</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0000314712524</t>
+    <t xml:space="preserve">12.0000295639038</t>
   </si>
   <si>
     <t xml:space="preserve">11.3664293289185</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1552286148071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.328028678894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2320289611816</t>
+    <t xml:space="preserve">11.1552276611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3280296325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2320280075073</t>
   </si>
   <si>
     <t xml:space="preserve">11.0208282470703</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9248266220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8096284866333</t>
+    <t xml:space="preserve">10.9248275756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.809627532959</t>
   </si>
   <si>
     <t xml:space="preserve">10.5408267974854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5792264938354</t>
+    <t xml:space="preserve">10.5792274475098</t>
   </si>
   <si>
     <t xml:space="preserve">10.7904272079468</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3472280502319</t>
+    <t xml:space="preserve">11.3472290039062</t>
   </si>
   <si>
     <t xml:space="preserve">11.4816293716431</t>
@@ -2177,16 +2177,16 @@
     <t xml:space="preserve">11.1168279647827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7328281402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5024271011353</t>
+    <t xml:space="preserve">10.7328271865845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5024261474609</t>
   </si>
   <si>
     <t xml:space="preserve">10.5984268188477</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7888307571411</t>
+    <t xml:space="preserve">11.7888298034668</t>
   </si>
   <si>
     <t xml:space="preserve">11.5776300430298</t>
@@ -2198,40 +2198,40 @@
     <t xml:space="preserve">11.6736288070679</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7696294784546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6928310394287</t>
+    <t xml:space="preserve">11.7696304321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6928300857544</t>
   </si>
   <si>
     <t xml:space="preserve">11.808030128479</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8848295211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3840312957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2880325317383</t>
+    <t xml:space="preserve">11.8848314285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3840322494507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2880306243896</t>
   </si>
   <si>
     <t xml:space="preserve">12.2688302993774</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1152315139771</t>
+    <t xml:space="preserve">12.1152305603027</t>
   </si>
   <si>
     <t xml:space="preserve">12.1344308853149</t>
   </si>
   <si>
-    <t xml:space="preserve">11.961630821228</t>
+    <t xml:space="preserve">11.9616298675537</t>
   </si>
   <si>
     <t xml:space="preserve">11.9040307998657</t>
   </si>
   <si>
-    <t xml:space="preserve">11.385627746582</t>
+    <t xml:space="preserve">11.3856287002563</t>
   </si>
   <si>
     <t xml:space="preserve">12.806432723999</t>
@@ -2240,34 +2240,34 @@
     <t xml:space="preserve">13.8240346908569</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5552339553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0352363586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7664346694946</t>
+    <t xml:space="preserve">13.5552349090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0352354049683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7664356231689</t>
   </si>
   <si>
     <t xml:space="preserve">13.4016342163086</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5936346054077</t>
+    <t xml:space="preserve">13.593635559082</t>
   </si>
   <si>
     <t xml:space="preserve">13.6320343017578</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2672328948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4976348876953</t>
+    <t xml:space="preserve">13.2672338485718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.497633934021</t>
   </si>
   <si>
     <t xml:space="preserve">14.3040361404419</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9008350372314</t>
+    <t xml:space="preserve">13.9008359909058</t>
   </si>
   <si>
     <t xml:space="preserve">13.5744352340698</t>
@@ -2285,10 +2285,10 @@
     <t xml:space="preserve">12.1728315353394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2112312316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4800310134888</t>
+    <t xml:space="preserve">12.2112321853638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4800319671631</t>
   </si>
   <si>
     <t xml:space="preserve">12.5952320098877</t>
@@ -2297,7 +2297,7 @@
     <t xml:space="preserve">13.0176334381104</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9792327880859</t>
+    <t xml:space="preserve">12.9792337417603</t>
   </si>
   <si>
     <t xml:space="preserve">13.2096338272095</t>
@@ -2309,7 +2309,7 @@
     <t xml:space="preserve">13.6128358840942</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7280349731445</t>
+    <t xml:space="preserve">13.7280359268188</t>
   </si>
   <si>
     <t xml:space="preserve">13.7879419326782</t>
@@ -3975,6 +3975,9 @@
   </si>
   <si>
     <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9000015258789</t>
   </si>
 </sst>
 </file>
@@ -61100,7 +61103,7 @@
     </row>
     <row r="2185">
       <c r="A2185" s="1" t="n">
-        <v>45504.6505439815</v>
+        <v>45504.2916666667</v>
       </c>
       <c r="B2185" t="n">
         <v>34856</v>
@@ -61121,6 +61124,32 @@
         <v>1320</v>
       </c>
       <c r="H2185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" s="1" t="n">
+        <v>45505.6494328704</v>
+      </c>
+      <c r="B2186" t="n">
+        <v>36762</v>
+      </c>
+      <c r="C2186" t="n">
+        <v>36.0499992370605</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>35</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>36.0499992370605</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>34.9000015258789</v>
+      </c>
+      <c r="G2186" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H2186" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAN.MI.xlsx
+++ b/data/DAN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="1321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="1322">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8921489715576</t>
+    <t xml:space="preserve">15.8921480178833</t>
   </si>
   <si>
     <t xml:space="preserve">DAN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0230274200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5182161331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8170928955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4899005889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.209451675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5646886825562</t>
+    <t xml:space="preserve">16.0230255126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.518217086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8170919418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4898986816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2094507217407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5646867752075</t>
   </si>
   <si>
     <t xml:space="preserve">14.3122825622559</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">14.1346626281738</t>
   </si>
   <si>
-    <t xml:space="preserve">13.35875415802</t>
+    <t xml:space="preserve">13.3587532043457</t>
   </si>
   <si>
     <t xml:space="preserve">13.0409097671509</t>
@@ -77,19 +77,19 @@
     <t xml:space="preserve">13.1343936920166</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5267524719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1998329162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3867988586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2006435394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3595657348633</t>
+    <t xml:space="preserve">12.5267515182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1998319625854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3867979049683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2006454467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3595638275146</t>
   </si>
   <si>
     <t xml:space="preserve">16.6400127410889</t>
@@ -98,43 +98,43 @@
     <t xml:space="preserve">16.3969593048096</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6774063110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4439678192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9204635620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7706203460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4156551361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6023502349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2284202575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2377662658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490936279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3966875076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2938556671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2193393707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5465335845947</t>
+    <t xml:space="preserve">16.6774082183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4439697265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9204654693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7706212997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4156532287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6023511886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2284173965454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2377653121948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490926742554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3966865539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2938566207886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2193374633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5465316772461</t>
   </si>
   <si>
     <t xml:space="preserve">17.0887355804443</t>
@@ -143,52 +143,52 @@
     <t xml:space="preserve">17.2476539611816</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3878765106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.294397354126</t>
+    <t xml:space="preserve">17.3878803253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2943992614746</t>
   </si>
   <si>
     <t xml:space="preserve">17.0326442718506</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6680564880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6587104797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1541748046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9578590393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5094108581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.640287399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7057266235352</t>
+    <t xml:space="preserve">16.6680583953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.658712387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1541728973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.957857131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5094089508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6402854919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7057228088379</t>
   </si>
   <si>
     <t xml:space="preserve">17.7711620330811</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8550281524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5561504364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.855297088623</t>
+    <t xml:space="preserve">16.8550262451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.55615234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8552951812744</t>
   </si>
   <si>
     <t xml:space="preserve">17.2009143829346</t>
   </si>
   <si>
-    <t xml:space="preserve">17.593542098999</t>
+    <t xml:space="preserve">17.5935401916504</t>
   </si>
   <si>
     <t xml:space="preserve">17.7992057800293</t>
@@ -197,58 +197,58 @@
     <t xml:space="preserve">17.341136932373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5278339385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.873722076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2663497924805</t>
+    <t xml:space="preserve">16.52783203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8737201690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2663516998291</t>
   </si>
   <si>
     <t xml:space="preserve">17.6215877532959</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8924179077148</t>
+    <t xml:space="preserve">16.8924217224121</t>
   </si>
   <si>
     <t xml:space="preserve">16.8456764221191</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4533195495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9020385742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9768238067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7431144714355</t>
+    <t xml:space="preserve">17.4533176422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9020366668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.97682762146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7431182861328</t>
   </si>
   <si>
     <t xml:space="preserve">18.2105331420898</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4629383087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3694534301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1357440948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9394302368164</t>
+    <t xml:space="preserve">18.4629402160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3694553375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1357460021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.939432144165</t>
   </si>
   <si>
     <t xml:space="preserve">18.6966438293457</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7620849609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.790132522583</t>
+    <t xml:space="preserve">18.7620830535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7901306152344</t>
   </si>
   <si>
     <t xml:space="preserve">18.4442405700684</t>
@@ -257,10 +257,10 @@
     <t xml:space="preserve">18.6779479980469</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3788013458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2385768890381</t>
+    <t xml:space="preserve">18.3788032531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2385787963867</t>
   </si>
   <si>
     <t xml:space="preserve">17.8085536956787</t>
@@ -281,10 +281,10 @@
     <t xml:space="preserve">17.0980815887451</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1635246276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8830718994141</t>
+    <t xml:space="preserve">17.1635208129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8830680847168</t>
   </si>
   <si>
     <t xml:space="preserve">16.6306667327881</t>
@@ -293,19 +293,19 @@
     <t xml:space="preserve">16.4623985290527</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5652256011963</t>
+    <t xml:space="preserve">16.5652275085449</t>
   </si>
   <si>
     <t xml:space="preserve">17.0700359344482</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7708892822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7334976196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4810905456543</t>
+    <t xml:space="preserve">16.7708930969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7334957122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4810924530029</t>
   </si>
   <si>
     <t xml:space="preserve">17.6963748931885</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">16.8363304138184</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8176307678223</t>
+    <t xml:space="preserve">16.8176326751709</t>
   </si>
   <si>
     <t xml:space="preserve">17.5748462677002</t>
@@ -323,16 +323,16 @@
     <t xml:space="preserve">17.3224430084229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3691825866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1165065765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.153902053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2471122741699</t>
+    <t xml:space="preserve">17.3691806793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1165084838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1539039611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2471141815186</t>
   </si>
   <si>
     <t xml:space="preserve">15.0508003234863</t>
@@ -341,34 +341,34 @@
     <t xml:space="preserve">15.3592948913574</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6303949356079</t>
+    <t xml:space="preserve">15.6303930282593</t>
   </si>
   <si>
     <t xml:space="preserve">16.2660808563232</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2751579284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7329578399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.172327041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8077421188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9666652679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7051820755005</t>
+    <t xml:space="preserve">15.2751588821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7329568862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1723289489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8077430725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.96666431427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7051830291748</t>
   </si>
   <si>
     <t xml:space="preserve">15.3218984603882</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9105739593506</t>
+    <t xml:space="preserve">14.9105749130249</t>
   </si>
   <si>
     <t xml:space="preserve">14.2748889923096</t>
@@ -380,70 +380,70 @@
     <t xml:space="preserve">14.9386196136475</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6958351135254</t>
+    <t xml:space="preserve">15.6958332061768</t>
   </si>
   <si>
     <t xml:space="preserve">15.6116991043091</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7986650466919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5462608337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6210451126099</t>
+    <t xml:space="preserve">15.7986669540405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5462589263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6210479736328</t>
   </si>
   <si>
     <t xml:space="preserve">15.5930032730103</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6771373748779</t>
+    <t xml:space="preserve">15.6771383285522</t>
   </si>
   <si>
     <t xml:space="preserve">16.4530467987061</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9201908111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6864862442017</t>
+    <t xml:space="preserve">15.9201936721802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6864852905273</t>
   </si>
   <si>
     <t xml:space="preserve">16.4343509674072</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1352062225342</t>
+    <t xml:space="preserve">16.1352043151855</t>
   </si>
   <si>
     <t xml:space="preserve">16.3876094818115</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4904384613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3782596588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2941265106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.472017288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.13547706604</t>
+    <t xml:space="preserve">16.490442276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3782634735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2941246032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4720153808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1354751586914</t>
   </si>
   <si>
     <t xml:space="preserve">16.9298114776611</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9672069549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9487781524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4907131195068</t>
+    <t xml:space="preserve">16.9672050476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9487800598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4907112121582</t>
   </si>
   <si>
     <t xml:space="preserve">17.3598346710205</t>
@@ -452,37 +452,37 @@
     <t xml:space="preserve">17.5281066894531</t>
   </si>
   <si>
-    <t xml:space="preserve">17.668327331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.406307220459</t>
+    <t xml:space="preserve">17.6683311462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4063053131104</t>
   </si>
   <si>
     <t xml:space="preserve">16.0884628295898</t>
   </si>
   <si>
-    <t xml:space="preserve">16.060417175293</t>
+    <t xml:space="preserve">16.0604190826416</t>
   </si>
   <si>
     <t xml:space="preserve">16.1258583068848</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2567329406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9388885498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9669332504272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8641042709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7893161773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9108438491821</t>
+    <t xml:space="preserve">16.2567310333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.938889503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9669351577759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8641014099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7893152236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9108457565308</t>
   </si>
   <si>
     <t xml:space="preserve">16.3408660888672</t>
@@ -494,31 +494,31 @@
     <t xml:space="preserve">16.3689136505127</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8360595703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8454084396362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0043315887451</t>
+    <t xml:space="preserve">15.8360605239868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8454093933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0043277740479</t>
   </si>
   <si>
     <t xml:space="preserve">15.6584405899048</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4527769088745</t>
+    <t xml:space="preserve">15.4527797698975</t>
   </si>
   <si>
     <t xml:space="preserve">15.5280199050903</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6032609939575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8477983474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9324445724487</t>
+    <t xml:space="preserve">15.6032600402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8477973937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9324436187744</t>
   </si>
   <si>
     <t xml:space="preserve">16.0923328399658</t>
@@ -530,19 +530,19 @@
     <t xml:space="preserve">15.2646722793579</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6220722198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.716121673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7067193984985</t>
+    <t xml:space="preserve">15.6220731735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7161226272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7067213058472</t>
   </si>
   <si>
     <t xml:space="preserve">15.3493213653564</t>
   </si>
   <si>
-    <t xml:space="preserve">16.064115524292</t>
+    <t xml:space="preserve">16.0641174316406</t>
   </si>
   <si>
     <t xml:space="preserve">16.5343780517578</t>
@@ -554,22 +554,22 @@
     <t xml:space="preserve">15.6879091262817</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8007707595825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5092115402222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0829296112061</t>
+    <t xml:space="preserve">15.8007736206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5092086791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0829277038574</t>
   </si>
   <si>
     <t xml:space="preserve">16.2522220611572</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0359001159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7883205413818</t>
+    <t xml:space="preserve">16.0358982086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7883186340332</t>
   </si>
   <si>
     <t xml:space="preserve">17.399658203125</t>
@@ -578,25 +578,25 @@
     <t xml:space="preserve">17.4748992919922</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3526306152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4372825622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2397708892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.164529800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6942672729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.305606842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1175060272217</t>
+    <t xml:space="preserve">17.3526344299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4372787475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2397689819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1645278930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6942653656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3056049346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1175022125244</t>
   </si>
   <si>
     <t xml:space="preserve">17.3808479309082</t>
@@ -608,34 +608,34 @@
     <t xml:space="preserve">18.1238632202148</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1614818572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1050491333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6599559783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1396236419678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1866493225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7979907989502</t>
+    <t xml:space="preserve">18.1614837646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1050510406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6599597930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1396255493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1866512298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7979869842529</t>
   </si>
   <si>
     <t xml:space="preserve">19.8732299804688</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3559455871582</t>
+    <t xml:space="preserve">19.3559436798096</t>
   </si>
   <si>
     <t xml:space="preserve">19.1490306854248</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7039356231689</t>
+    <t xml:space="preserve">19.7039394378662</t>
   </si>
   <si>
     <t xml:space="preserve">19.5722637176514</t>
@@ -647,40 +647,40 @@
     <t xml:space="preserve">19.3183250427246</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0925979614258</t>
+    <t xml:space="preserve">19.0925998687744</t>
   </si>
   <si>
     <t xml:space="preserve">19.2524871826172</t>
   </si>
   <si>
-    <t xml:space="preserve">19.17724609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1678409576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9891414642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8104400634766</t>
+    <t xml:space="preserve">19.1772422790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.167839050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.989143371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8104419708252</t>
   </si>
   <si>
     <t xml:space="preserve">18.631742477417</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3401794433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6881732940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7634143829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6975803375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6035289764404</t>
+    <t xml:space="preserve">18.340181350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.688175201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7634162902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6975784301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6035270690918</t>
   </si>
   <si>
     <t xml:space="preserve">18.7163887023926</t>
@@ -692,16 +692,16 @@
     <t xml:space="preserve">18.5565013885498</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7446041107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8480625152588</t>
+    <t xml:space="preserve">18.7446060180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8480644226074</t>
   </si>
   <si>
     <t xml:space="preserve">18.8574676513672</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9609222412109</t>
+    <t xml:space="preserve">18.9609241485596</t>
   </si>
   <si>
     <t xml:space="preserve">19.2807025909424</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">19.365348815918</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6098880767822</t>
+    <t xml:space="preserve">19.6098861694336</t>
   </si>
   <si>
     <t xml:space="preserve">19.6945323944092</t>
@@ -725,7 +725,7 @@
     <t xml:space="preserve">19.1960563659668</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4876155853271</t>
+    <t xml:space="preserve">19.4876136779785</t>
   </si>
   <si>
     <t xml:space="preserve">19.7509632110596</t>
@@ -734,25 +734,25 @@
     <t xml:space="preserve">19.3371315002441</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4594039916992</t>
+    <t xml:space="preserve">19.4594020843506</t>
   </si>
   <si>
     <t xml:space="preserve">19.5910758972168</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2712993621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4688091278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.628698348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5252380371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1647968292236</t>
+    <t xml:space="preserve">19.271297454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.468807220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6286964416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5252418518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.164794921875</t>
   </si>
   <si>
     <t xml:space="preserve">20.258846282959</t>
@@ -767,7 +767,7 @@
     <t xml:space="preserve">21.1147232055664</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2275829315186</t>
+    <t xml:space="preserve">21.2275848388672</t>
   </si>
   <si>
     <t xml:space="preserve">21.2087726593018</t>
@@ -779,28 +779,28 @@
     <t xml:space="preserve">20.8701839447021</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6444625854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.503381729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8325653076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9078063964844</t>
+    <t xml:space="preserve">20.6444606781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5033798217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8325614929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9078044891357</t>
   </si>
   <si>
     <t xml:space="preserve">20.8607807159424</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7573204040527</t>
+    <t xml:space="preserve">20.7573223114014</t>
   </si>
   <si>
     <t xml:space="preserve">20.7855396270752</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9172096252441</t>
+    <t xml:space="preserve">20.9172115325928</t>
   </si>
   <si>
     <t xml:space="preserve">20.7385120391846</t>
@@ -809,31 +809,31 @@
     <t xml:space="preserve">21.0770988464355</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1241264343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7102966308594</t>
+    <t xml:space="preserve">21.1241226196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7102947235107</t>
   </si>
   <si>
     <t xml:space="preserve">21.0394802093506</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9141616821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7636795043945</t>
+    <t xml:space="preserve">21.9141635894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7636814117432</t>
   </si>
   <si>
     <t xml:space="preserve">21.632007598877</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5849800109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3968772888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3874702453613</t>
+    <t xml:space="preserve">21.584981918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3968753814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.38747215271</t>
   </si>
   <si>
     <t xml:space="preserve">21.189962387085</t>
@@ -842,22 +842,22 @@
     <t xml:space="preserve">21.5379543304443</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3686618804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6131954193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4909267425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8983974456787</t>
+    <t xml:space="preserve">21.3686599731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6131992340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4909324645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8983993530273</t>
   </si>
   <si>
     <t xml:space="preserve">21.434497833252</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2181797027588</t>
+    <t xml:space="preserve">21.2181739807129</t>
   </si>
   <si>
     <t xml:space="preserve">21.3780670166016</t>
@@ -869,46 +869,46 @@
     <t xml:space="preserve">21.5097389221191</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6037921905518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5473613739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.199369430542</t>
+    <t xml:space="preserve">21.6037902832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5473594665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1993675231934</t>
   </si>
   <si>
     <t xml:space="preserve">21.4439029693604</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9924507141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5692195892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6538639068604</t>
+    <t xml:space="preserve">20.9924545288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5692176818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6538619995117</t>
   </si>
   <si>
     <t xml:space="preserve">20.6632709503174</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5786190032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8889961242676</t>
+    <t xml:space="preserve">20.5786209106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8889923095703</t>
   </si>
   <si>
     <t xml:space="preserve">20.5315971374512</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2964630126953</t>
+    <t xml:space="preserve">20.2964649200439</t>
   </si>
   <si>
     <t xml:space="preserve">20.465763092041</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0425224304199</t>
+    <t xml:space="preserve">20.0425243377686</t>
   </si>
   <si>
     <t xml:space="preserve">20.155387878418</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">20.804349899292</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6914882659912</t>
+    <t xml:space="preserve">20.6914825439453</t>
   </si>
   <si>
     <t xml:space="preserve">20.2024154663086</t>
@@ -932,10 +932,10 @@
     <t xml:space="preserve">20.0801467895508</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1365776062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9672832489014</t>
+    <t xml:space="preserve">20.1365756988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.96728515625</t>
   </si>
   <si>
     <t xml:space="preserve">20.1742000579834</t>
@@ -947,19 +947,19 @@
     <t xml:space="preserve">20.249439239502</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3623065948486</t>
+    <t xml:space="preserve">20.3623008728027</t>
   </si>
   <si>
     <t xml:space="preserve">19.9202575683594</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9266185760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4939765930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2212219238281</t>
+    <t xml:space="preserve">20.9266147613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4939785003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2212238311768</t>
   </si>
   <si>
     <t xml:space="preserve">19.9766883850098</t>
@@ -968,34 +968,34 @@
     <t xml:space="preserve">20.6726741790771</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3811149597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.747917175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1053161621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5974311828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8231582641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1523380279541</t>
+    <t xml:space="preserve">20.3811130523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7479152679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1053142547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.59743309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8231601715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1523399353027</t>
   </si>
   <si>
     <t xml:space="preserve">21.4627132415771</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9830493927002</t>
+    <t xml:space="preserve">20.9830455780029</t>
   </si>
   <si>
     <t xml:space="preserve">20.7291069030762</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5880279541016</t>
+    <t xml:space="preserve">20.5880298614502</t>
   </si>
   <si>
     <t xml:space="preserve">20.6256484985352</t>
@@ -1013,31 +1013,31 @@
     <t xml:space="preserve">20.2306308746338</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3434944152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7761306762695</t>
+    <t xml:space="preserve">20.3434925079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7761325836182</t>
   </si>
   <si>
     <t xml:space="preserve">20.2400360107422</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7791786193848</t>
+    <t xml:space="preserve">19.7791805267334</t>
   </si>
   <si>
     <t xml:space="preserve">19.4970226287842</t>
   </si>
   <si>
-    <t xml:space="preserve">19.01735496521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0737915039062</t>
+    <t xml:space="preserve">19.0173568725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.073787689209</t>
   </si>
   <si>
     <t xml:space="preserve">18.866870880127</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2336769104004</t>
+    <t xml:space="preserve">19.233678817749</t>
   </si>
   <si>
     <t xml:space="preserve">18.9139003753662</t>
@@ -1052,31 +1052,31 @@
     <t xml:space="preserve">18.6693649291992</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0455722808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.374755859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2147750854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1864204406738</t>
+    <t xml:space="preserve">19.0455703735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3747577667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2147731781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1864166259766</t>
   </si>
   <si>
     <t xml:space="preserve">18.7611045837402</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5342712402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.127857208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0711498260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8632202148438</t>
+    <t xml:space="preserve">18.5342693328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1278591156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0711479187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8632183074951</t>
   </si>
   <si>
     <t xml:space="preserve">17.8915729522705</t>
@@ -1085,25 +1085,25 @@
     <t xml:space="preserve">18.1656627655029</t>
   </si>
   <si>
-    <t xml:space="preserve">18.118408203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.194019317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4964637756348</t>
+    <t xml:space="preserve">18.1184062957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1940155029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4964618682861</t>
   </si>
   <si>
     <t xml:space="preserve">18.6949443817139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8178119659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6382331848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3924980163574</t>
+    <t xml:space="preserve">18.8178100585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6382350921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3924961090088</t>
   </si>
   <si>
     <t xml:space="preserve">18.7232971191406</t>
@@ -1115,13 +1115,13 @@
     <t xml:space="preserve">18.4492073059082</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9028778076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0068435668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9312343597412</t>
+    <t xml:space="preserve">18.9028759002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0068416595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9312286376953</t>
   </si>
   <si>
     <t xml:space="preserve">18.9217796325684</t>
@@ -1130,64 +1130,64 @@
     <t xml:space="preserve">18.8461685180664</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5815277099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6098804473877</t>
+    <t xml:space="preserve">18.5815258026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.609884262085</t>
   </si>
   <si>
     <t xml:space="preserve">18.6760406494141</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7138481140137</t>
+    <t xml:space="preserve">18.713846206665</t>
   </si>
   <si>
     <t xml:space="preserve">18.7043972015381</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8934230804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9406814575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8272647857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6193351745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7327480316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1391658782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4227046966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7062473297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9897918701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7931632995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5492763519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8328227996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7855644226074</t>
+    <t xml:space="preserve">18.8934268951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9406833648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.827262878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6193332672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7327499389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1391620635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4227027893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7062492370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9897899627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7931613922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5492782592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.832820892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7855625152588</t>
   </si>
   <si>
     <t xml:space="preserve">21.6437931060791</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8800773620605</t>
+    <t xml:space="preserve">21.8800792694092</t>
   </si>
   <si>
     <t xml:space="preserve">21.7383060455322</t>
@@ -1196,7 +1196,7 @@
     <t xml:space="preserve">22.0218486785889</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0691070556641</t>
+    <t xml:space="preserve">22.0691089630127</t>
   </si>
   <si>
     <t xml:space="preserve">21.2657356262207</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">20.6986484527588</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3129920959473</t>
+    <t xml:space="preserve">21.3129901885986</t>
   </si>
   <si>
     <t xml:space="preserve">20.8876781463623</t>
@@ -1214,10 +1214,10 @@
     <t xml:space="preserve">21.029447555542</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9821891784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3602485656738</t>
+    <t xml:space="preserve">20.9821929931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3602504730225</t>
   </si>
   <si>
     <t xml:space="preserve">21.4547653198242</t>
@@ -1226,19 +1226,19 @@
     <t xml:space="preserve">21.407506942749</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1239643096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9349365234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9745922088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.494421005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1636238098145</t>
+    <t xml:space="preserve">21.1239624023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9349327087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9745941162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4944190979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1636219024658</t>
   </si>
   <si>
     <t xml:space="preserve">22.3526496887207</t>
@@ -1256,37 +1256,37 @@
     <t xml:space="preserve">20.5568771362305</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4623641967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1712207794189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8404216766357</t>
+    <t xml:space="preserve">20.4623622894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1712188720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8404178619385</t>
   </si>
   <si>
     <t xml:space="preserve">21.2184791564941</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5965347290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6513900756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7459049224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3678493499756</t>
+    <t xml:space="preserve">21.5965385437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6513919830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.745906829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.367847442627</t>
   </si>
   <si>
     <t xml:space="preserve">19.280933380127</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3754482269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5644779205322</t>
+    <t xml:space="preserve">19.3754463195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5644760131836</t>
   </si>
   <si>
     <t xml:space="preserve">20.0370483398438</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">19.8480205535889</t>
   </si>
   <si>
-    <t xml:space="preserve">20.604133605957</t>
+    <t xml:space="preserve">20.6041355133057</t>
   </si>
   <si>
     <t xml:space="preserve">20.5096206665039</t>
@@ -1304,16 +1304,16 @@
     <t xml:space="preserve">20.2260780334473</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4151039123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2733325958252</t>
+    <t xml:space="preserve">20.4151058197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2733345031738</t>
   </si>
   <si>
     <t xml:space="preserve">20.1315612792969</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1788196563721</t>
+    <t xml:space="preserve">20.1788177490234</t>
   </si>
   <si>
     <t xml:space="preserve">19.6589908599854</t>
@@ -1331,34 +1331,34 @@
     <t xml:space="preserve">19.942533493042</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5172214508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4699649810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6117362976074</t>
+    <t xml:space="preserve">19.5172176361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4699611663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6117343902588</t>
   </si>
   <si>
     <t xml:space="preserve">20.0843048095703</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6910495758057</t>
+    <t xml:space="preserve">21.6910514831543</t>
   </si>
   <si>
     <t xml:space="preserve">20.3205909729004</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9388313293457</t>
+    <t xml:space="preserve">17.9388294219971</t>
   </si>
   <si>
     <t xml:space="preserve">15.5003576278687</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8973197937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9521751403809</t>
+    <t xml:space="preserve">15.8973188400269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9521760940552</t>
   </si>
   <si>
     <t xml:space="preserve">14.6497297286987</t>
@@ -1367,55 +1367,55 @@
     <t xml:space="preserve">14.9899806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5948724746704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8217077255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1997661590576</t>
+    <t xml:space="preserve">15.5948734283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8217067718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1997623443604</t>
   </si>
   <si>
     <t xml:space="preserve">15.7271919250488</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5192604064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6515808105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0674438476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9918327331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8595123291016</t>
+    <t xml:space="preserve">15.5192632675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6515827178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0674457550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9918336868286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8595142364502</t>
   </si>
   <si>
     <t xml:space="preserve">15.7839021682739</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5759687423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1979122161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0457429885864</t>
+    <t xml:space="preserve">15.5759706497192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1979131698608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0457439422607</t>
   </si>
   <si>
     <t xml:space="preserve">14.760425567627</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5892353057861</t>
+    <t xml:space="preserve">14.5892362594604</t>
   </si>
   <si>
     <t xml:space="preserve">14.6272773742676</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1028060913086</t>
+    <t xml:space="preserve">15.1028051376343</t>
   </si>
   <si>
     <t xml:space="preserve">15.1218271255493</t>
@@ -1424,19 +1424,19 @@
     <t xml:space="preserve">14.8365106582642</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3310623168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6353998184204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4642105102539</t>
+    <t xml:space="preserve">15.3310613632202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6354007720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4642095565796</t>
   </si>
   <si>
     <t xml:space="preserve">14.2468538284302</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0946855545044</t>
+    <t xml:space="preserve">14.0946846008301</t>
   </si>
   <si>
     <t xml:space="preserve">13.7713241577148</t>
@@ -1451,19 +1451,19 @@
     <t xml:space="preserve">14.3419589996338</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3229398727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3990249633789</t>
+    <t xml:space="preserve">14.3229389190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3990240097046</t>
   </si>
   <si>
     <t xml:space="preserve">14.1327266693115</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8093671798706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7903451919556</t>
+    <t xml:space="preserve">13.8093681335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7903461456299</t>
   </si>
   <si>
     <t xml:space="preserve">13.961537361145</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">14.2278337478638</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3800020217896</t>
+    <t xml:space="preserve">14.3800029754639</t>
   </si>
   <si>
     <t xml:space="preserve">14.7033624649048</t>
@@ -1484,25 +1484,25 @@
     <t xml:space="preserve">15.4071455001831</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3120403289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2169332504272</t>
+    <t xml:space="preserve">15.3120393753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2169342041016</t>
   </si>
   <si>
     <t xml:space="preserve">15.2549772262573</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0837841033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2930183410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3500823974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3881244659424</t>
+    <t xml:space="preserve">15.0837850570679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2930192947388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3500814437866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3881235122681</t>
   </si>
   <si>
     <t xml:space="preserve">15.7305068969727</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">17.1000289916992</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1190509796143</t>
+    <t xml:space="preserve">17.1190490722656</t>
   </si>
   <si>
     <t xml:space="preserve">16.7005844116211</t>
@@ -1529,7 +1529,7 @@
     <t xml:space="preserve">16.4723320007324</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5674381256104</t>
+    <t xml:space="preserve">16.5674362182617</t>
   </si>
   <si>
     <t xml:space="preserve">16.1870136260986</t>
@@ -1544,10 +1544,10 @@
     <t xml:space="preserve">16.339183807373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3582038879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4533061981201</t>
+    <t xml:space="preserve">16.3582019805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4533100128174</t>
   </si>
   <si>
     <t xml:space="preserve">16.8337345123291</t>
@@ -1559,43 +1559,43 @@
     <t xml:space="preserve">16.4913520812988</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6435222625732</t>
+    <t xml:space="preserve">16.6435203552246</t>
   </si>
   <si>
     <t xml:space="preserve">16.6625423431396</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4342880249023</t>
+    <t xml:space="preserve">16.434289932251</t>
   </si>
   <si>
     <t xml:space="preserve">16.8147106170654</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9288387298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6815662384033</t>
+    <t xml:space="preserve">16.9288368225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6815643310547</t>
   </si>
   <si>
     <t xml:space="preserve">16.5293922424316</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0538654327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1489696502686</t>
+    <t xml:space="preserve">16.0538635253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1489715576172</t>
   </si>
   <si>
     <t xml:space="preserve">16.1299495697021</t>
   </si>
   <si>
-    <t xml:space="preserve">16.320161819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2060375213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5484142303467</t>
+    <t xml:space="preserve">16.3201599121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2060356140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5484161376953</t>
   </si>
   <si>
     <t xml:space="preserve">16.6054782867432</t>
@@ -1613,25 +1613,25 @@
     <t xml:space="preserve">17.6896839141846</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5075969696045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4885730743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4695529937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3364067077637</t>
+    <t xml:space="preserve">18.5075950622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4885711669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.469554901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.336404800415</t>
   </si>
   <si>
     <t xml:space="preserve">17.7467479705811</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3473033905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2141571044922</t>
+    <t xml:space="preserve">17.3473052978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2141590118408</t>
   </si>
   <si>
     <t xml:space="preserve">17.1951351165771</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">16.9478607177734</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8527545928955</t>
+    <t xml:space="preserve">16.8527526855469</t>
   </si>
   <si>
     <t xml:space="preserve">17.1761131286621</t>
@@ -1649,13 +1649,13 @@
     <t xml:space="preserve">17.0429668426514</t>
   </si>
   <si>
-    <t xml:space="preserve">17.27121925354</t>
+    <t xml:space="preserve">17.2712173461914</t>
   </si>
   <si>
     <t xml:space="preserve">17.3663272857666</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4424114227295</t>
+    <t xml:space="preserve">17.4424076080322</t>
   </si>
   <si>
     <t xml:space="preserve">16.9668788909912</t>
@@ -1664,16 +1664,16 @@
     <t xml:space="preserve">16.4152679443359</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6924619674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.711483001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6544198989868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.369101524353</t>
+    <t xml:space="preserve">15.6924610137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7114839553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6544189453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3691024780273</t>
   </si>
   <si>
     <t xml:space="preserve">14.8745536804199</t>
@@ -1685,28 +1685,28 @@
     <t xml:space="preserve">15.2739973068237</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9506378173828</t>
+    <t xml:space="preserve">14.9506368637085</t>
   </si>
   <si>
     <t xml:space="preserve">15.1598691940308</t>
   </si>
   <si>
-    <t xml:space="preserve">15.02672290802</t>
+    <t xml:space="preserve">15.0267219543457</t>
   </si>
   <si>
     <t xml:space="preserve">14.6843404769897</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8555316925049</t>
+    <t xml:space="preserve">14.8555326461792</t>
   </si>
   <si>
     <t xml:space="preserve">14.5511932373047</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0076999664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7414035797119</t>
+    <t xml:space="preserve">15.007700920105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7414045333862</t>
   </si>
   <si>
     <t xml:space="preserve">14.6462984085083</t>
@@ -1721,19 +1721,19 @@
     <t xml:space="preserve">15.5973567962646</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5783348083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8636531829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4261674880981</t>
+    <t xml:space="preserve">15.5783367156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8636522293091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4261665344238</t>
   </si>
   <si>
     <t xml:space="preserve">15.7875690460205</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6163787841797</t>
+    <t xml:space="preserve">15.616379737854</t>
   </si>
   <si>
     <t xml:space="preserve">15.5212726593018</t>
@@ -1745,16 +1745,16 @@
     <t xml:space="preserve">15.0647649765015</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7223834991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9696569442749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.798469543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4751081466675</t>
+    <t xml:space="preserve">14.7223825454712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9696578979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7984676361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4751071929932</t>
   </si>
   <si>
     <t xml:space="preserve">14.4560861587524</t>
@@ -1769,19 +1769,19 @@
     <t xml:space="preserve">13.94251537323</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6082553863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.437066078186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9805574417114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0186004638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2088108062744</t>
+    <t xml:space="preserve">14.6082563400269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4370670318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9805583953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0185995101929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2088117599487</t>
   </si>
   <si>
     <t xml:space="preserve">14.1137056350708</t>
@@ -1796,40 +1796,40 @@
     <t xml:space="preserve">14.7794466018677</t>
   </si>
   <si>
-    <t xml:space="preserve">14.170768737793</t>
+    <t xml:space="preserve">14.1707696914673</t>
   </si>
   <si>
     <t xml:space="preserve">15.5593147277832</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3609828948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2848958969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6653203964233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1788911819458</t>
+    <t xml:space="preserve">14.3609819412231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2848968505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.665319442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1788902282715</t>
   </si>
   <si>
     <t xml:space="preserve">15.483229637146</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2640380859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2448387145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0912389755249</t>
+    <t xml:space="preserve">15.2640390396118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2448396682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0912380218506</t>
   </si>
   <si>
     <t xml:space="preserve">14.9952383041382</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0720376968384</t>
+    <t xml:space="preserve">15.0720386505127</t>
   </si>
   <si>
     <t xml:space="preserve">15.5712404251099</t>
@@ -1844,43 +1844,43 @@
     <t xml:space="preserve">16.5312404632568</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8976402282715</t>
+    <t xml:space="preserve">15.8976392745972</t>
   </si>
   <si>
     <t xml:space="preserve">15.8592395782471</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7248392105103</t>
+    <t xml:space="preserve">15.7248401641846</t>
   </si>
   <si>
     <t xml:space="preserve">15.7440395355225</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6480398178101</t>
+    <t xml:space="preserve">15.6480388641357</t>
   </si>
   <si>
     <t xml:space="preserve">15.9552412033081</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9936408996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3776397705078</t>
+    <t xml:space="preserve">15.9936418533325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3776416778564</t>
   </si>
   <si>
     <t xml:space="preserve">15.9168405532837</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8016395568848</t>
+    <t xml:space="preserve">15.8016386032104</t>
   </si>
   <si>
     <t xml:space="preserve">15.8400392532349</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2432403564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1856441497803</t>
+    <t xml:space="preserve">16.2432422637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1856422424316</t>
   </si>
   <si>
     <t xml:space="preserve">15.6096410751343</t>
@@ -1904,19 +1904,19 @@
     <t xml:space="preserve">15.3024377822876</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1680393218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3984403610229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9376392364502</t>
+    <t xml:space="preserve">15.1680383682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3984413146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9376382827759</t>
   </si>
   <si>
     <t xml:space="preserve">15.1296396255493</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6880378723145</t>
+    <t xml:space="preserve">14.6880369186401</t>
   </si>
   <si>
     <t xml:space="preserve">14.2080364227295</t>
@@ -1925,16 +1925,16 @@
     <t xml:space="preserve">14.1120357513428</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4000358581543</t>
+    <t xml:space="preserve">14.4000377655029</t>
   </si>
   <si>
     <t xml:space="preserve">14.7840375900269</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9760389328003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7648372650146</t>
+    <t xml:space="preserve">14.976037979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.764838218689</t>
   </si>
   <si>
     <t xml:space="preserve">14.5728378295898</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">14.5152368545532</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4576377868652</t>
+    <t xml:space="preserve">14.4576368331909</t>
   </si>
   <si>
     <t xml:space="preserve">14.2272367477417</t>
@@ -1964,19 +1964,19 @@
     <t xml:space="preserve">13.1712341308594</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5360345840454</t>
+    <t xml:space="preserve">13.5360355377197</t>
   </si>
   <si>
     <t xml:space="preserve">13.2480344772339</t>
   </si>
   <si>
-    <t xml:space="preserve">12.960033416748</t>
+    <t xml:space="preserve">12.9600324630737</t>
   </si>
   <si>
     <t xml:space="preserve">12.5760326385498</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3264322280884</t>
+    <t xml:space="preserve">12.3264312744141</t>
   </si>
   <si>
     <t xml:space="preserve">12.0960311889648</t>
@@ -1991,16 +1991,16 @@
     <t xml:space="preserve">10.2528266906738</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0800266265869</t>
+    <t xml:space="preserve">10.0800256729126</t>
   </si>
   <si>
     <t xml:space="preserve">9.71522521972656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02402210235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5328254699707</t>
+    <t xml:space="preserve">9.02402305603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53282451629639</t>
   </si>
   <si>
     <t xml:space="preserve">8.19842052459717</t>
@@ -2012,31 +2012,31 @@
     <t xml:space="preserve">9.21602439880371</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2912254333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8864288330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0768308639526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0560331344604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7504291534424</t>
+    <t xml:space="preserve">10.2912263870239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8864278793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.076831817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0560340881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7504301071167</t>
   </si>
   <si>
     <t xml:space="preserve">11.0976285934448</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0592279434204</t>
+    <t xml:space="preserve">11.0592288970947</t>
   </si>
   <si>
     <t xml:space="preserve">10.7712268829346</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1952266693115</t>
+    <t xml:space="preserve">10.1952257156372</t>
   </si>
   <si>
     <t xml:space="preserve">10.4640264511108</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">10.8672275543213</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2512283325195</t>
+    <t xml:space="preserve">11.2512292861938</t>
   </si>
   <si>
     <t xml:space="preserve">11.0400285720825</t>
@@ -2057,7 +2057,7 @@
     <t xml:space="preserve">10.7136278152466</t>
   </si>
   <si>
-    <t xml:space="preserve">10.329626083374</t>
+    <t xml:space="preserve">10.3296270370483</t>
   </si>
   <si>
     <t xml:space="preserve">10.0032262802124</t>
@@ -2066,19 +2066,19 @@
     <t xml:space="preserve">10.3488264083862</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6368274688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5600280761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9056272506714</t>
+    <t xml:space="preserve">10.6368265151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5600271224976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9056282043457</t>
   </si>
   <si>
     <t xml:space="preserve">10.8480281829834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8288278579712</t>
+    <t xml:space="preserve">10.8288269042969</t>
   </si>
   <si>
     <t xml:space="preserve">10.9440269470215</t>
@@ -2090,31 +2090,31 @@
     <t xml:space="preserve">10.6752281188965</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1360282897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0784273147583</t>
+    <t xml:space="preserve">11.1360292434692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0784282684326</t>
   </si>
   <si>
     <t xml:space="preserve">11.6352291107178</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7120294570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1936292648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5584287643433</t>
+    <t xml:space="preserve">11.7120304107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1936283111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5584297180176</t>
   </si>
   <si>
     <t xml:space="preserve">11.6544303894043</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9424304962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1536312103271</t>
+    <t xml:space="preserve">11.9424295425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1536302566528</t>
   </si>
   <si>
     <t xml:space="preserve">12.441632270813</t>
@@ -2123,37 +2123,37 @@
     <t xml:space="preserve">12.3648319244385</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2496318817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0000314712524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3664302825928</t>
+    <t xml:space="preserve">12.2496309280396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0000305175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3664293289185</t>
   </si>
   <si>
     <t xml:space="preserve">11.1552286148071</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3280296325684</t>
+    <t xml:space="preserve">11.328028678894</t>
   </si>
   <si>
     <t xml:space="preserve">11.2320289611816</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0208282470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9248275756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.809627532959</t>
+    <t xml:space="preserve">11.0208292007446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9248285293579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8096284866333</t>
   </si>
   <si>
     <t xml:space="preserve">10.5408267974854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5792264938354</t>
+    <t xml:space="preserve">10.5792274475098</t>
   </si>
   <si>
     <t xml:space="preserve">10.7904272079468</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">11.3472290039062</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4816293716431</t>
+    <t xml:space="preserve">11.4816284179688</t>
   </si>
   <si>
     <t xml:space="preserve">11.4240283966064</t>
@@ -2189,28 +2189,28 @@
     <t xml:space="preserve">11.5776300430298</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8272294998169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6736297607422</t>
+    <t xml:space="preserve">11.8272285461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6736288070679</t>
   </si>
   <si>
     <t xml:space="preserve">11.7696304321289</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6928291320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8080310821533</t>
+    <t xml:space="preserve">11.6928300857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.808030128479</t>
   </si>
   <si>
     <t xml:space="preserve">11.8848304748535</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3840303421021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2880325317383</t>
+    <t xml:space="preserve">12.3840312957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.288031578064</t>
   </si>
   <si>
     <t xml:space="preserve">12.2688312530518</t>
@@ -2228,22 +2228,22 @@
     <t xml:space="preserve">11.9040298461914</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3856287002563</t>
+    <t xml:space="preserve">11.3856296539307</t>
   </si>
   <si>
     <t xml:space="preserve">12.806432723999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8240346908569</t>
+    <t xml:space="preserve">13.8240356445312</t>
   </si>
   <si>
     <t xml:space="preserve">13.5552349090576</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0352363586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7664346694946</t>
+    <t xml:space="preserve">14.0352354049683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7664356231689</t>
   </si>
   <si>
     <t xml:space="preserve">13.4016351699829</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">13.2672338485718</t>
   </si>
   <si>
-    <t xml:space="preserve">13.497633934021</t>
+    <t xml:space="preserve">13.4976348876953</t>
   </si>
   <si>
     <t xml:space="preserve">14.3040361404419</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">13.9008350372314</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5744352340698</t>
+    <t xml:space="preserve">13.5744342803955</t>
   </si>
   <si>
     <t xml:space="preserve">13.286434173584</t>
@@ -2285,16 +2285,16 @@
     <t xml:space="preserve">12.2112321853638</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4800329208374</t>
+    <t xml:space="preserve">12.4800319671631</t>
   </si>
   <si>
     <t xml:space="preserve">12.5952320098877</t>
   </si>
   <si>
-    <t xml:space="preserve">13.017632484436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9792327880859</t>
+    <t xml:space="preserve">13.0176334381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9792337417603</t>
   </si>
   <si>
     <t xml:space="preserve">13.2096338272095</t>
@@ -2303,7 +2303,7 @@
     <t xml:space="preserve">13.4784345626831</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6128349304199</t>
+    <t xml:space="preserve">13.6128358840942</t>
   </si>
   <si>
     <t xml:space="preserve">13.7280359268188</t>
@@ -2312,13 +2312,13 @@
     <t xml:space="preserve">13.7879419326782</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8073348999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5746259689331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6134119033813</t>
+    <t xml:space="preserve">13.807333946228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5746269226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.613410949707</t>
   </si>
   <si>
     <t xml:space="preserve">13.4776649475098</t>
@@ -2327,16 +2327,16 @@
     <t xml:space="preserve">13.6715888977051</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0206508636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0594339370728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9236869812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3503198623657</t>
+    <t xml:space="preserve">14.0206499099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0594348907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9236879348755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3503189086914</t>
   </si>
   <si>
     <t xml:space="preserve">14.3309268951416</t>
@@ -2348,7 +2348,7 @@
     <t xml:space="preserve">14.1563968658447</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8655128479004</t>
+    <t xml:space="preserve">13.8655118942261</t>
   </si>
   <si>
     <t xml:space="preserve">13.6328039169312</t>
@@ -2378,19 +2378,19 @@
     <t xml:space="preserve">14.5248498916626</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8933048248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8157358169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1841888427734</t>
+    <t xml:space="preserve">14.8933038711548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8157348632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1841897964478</t>
   </si>
   <si>
     <t xml:space="preserve">15.2229738235474</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6967887878418</t>
+    <t xml:space="preserve">16.6967906951904</t>
   </si>
   <si>
     <t xml:space="preserve">16.5416507720947</t>
@@ -2399,16 +2399,16 @@
     <t xml:space="preserve">16.3865127563477</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0180606842041</t>
+    <t xml:space="preserve">16.0180587768555</t>
   </si>
   <si>
     <t xml:space="preserve">16.1538066864014</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9986667633057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8047437667847</t>
+    <t xml:space="preserve">15.9986658096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8047428131104</t>
   </si>
   <si>
     <t xml:space="preserve">15.513858795166</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">15.6302137374878</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9210977554321</t>
+    <t xml:space="preserve">15.9210987091064</t>
   </si>
   <si>
     <t xml:space="preserve">16.0568428039551</t>
@@ -2432,19 +2432,19 @@
     <t xml:space="preserve">16.4640827178955</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8131446838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9876766204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8907127380371</t>
+    <t xml:space="preserve">16.8131427764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9876747131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8907146453857</t>
   </si>
   <si>
     <t xml:space="preserve">16.8519287109375</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9294986724854</t>
+    <t xml:space="preserve">16.9294967651367</t>
   </si>
   <si>
     <t xml:space="preserve">16.9101066589355</t>
@@ -2456,7 +2456,7 @@
     <t xml:space="preserve">17.356128692627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.414306640625</t>
+    <t xml:space="preserve">17.4143047332764</t>
   </si>
   <si>
     <t xml:space="preserve">17.2009906768799</t>
@@ -2468,7 +2468,7 @@
     <t xml:space="preserve">16.638614654541</t>
   </si>
   <si>
-    <t xml:space="preserve">17.123420715332</t>
+    <t xml:space="preserve">17.1234226226807</t>
   </si>
   <si>
     <t xml:space="preserve">16.8713207244873</t>
@@ -2480,28 +2480,28 @@
     <t xml:space="preserve">17.1428146362305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0652446746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1900024414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3063507080078</t>
+    <t xml:space="preserve">17.0652465820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1900005340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3063526153564</t>
   </si>
   <si>
     <t xml:space="preserve">18.5390625</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8771305084229</t>
+    <t xml:space="preserve">19.8771324157715</t>
   </si>
   <si>
     <t xml:space="preserve">20.1680164337158</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5558624267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.022575378418</t>
+    <t xml:space="preserve">20.5558643341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0225734710693</t>
   </si>
   <si>
     <t xml:space="preserve">20.9921913146973</t>
@@ -2510,13 +2510,13 @@
     <t xml:space="preserve">20.7497863769531</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3619384765625</t>
+    <t xml:space="preserve">20.3619403839111</t>
   </si>
   <si>
     <t xml:space="preserve">20.2164974212646</t>
   </si>
   <si>
-    <t xml:space="preserve">20.119535446167</t>
+    <t xml:space="preserve">20.1195373535156</t>
   </si>
   <si>
     <t xml:space="preserve">20.2649784088135</t>
@@ -2528,7 +2528,7 @@
     <t xml:space="preserve">20.798267364502</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8952293395996</t>
+    <t xml:space="preserve">20.895227432251</t>
   </si>
   <si>
     <t xml:space="preserve">21.2345943450928</t>
@@ -2537,16 +2537,16 @@
     <t xml:space="preserve">21.1376323699951</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6043434143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3134574890137</t>
+    <t xml:space="preserve">20.6043453216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3134593963623</t>
   </si>
   <si>
     <t xml:space="preserve">21.1861133575439</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9740943908691</t>
+    <t xml:space="preserve">19.9740924835205</t>
   </si>
   <si>
     <t xml:space="preserve">19.731689453125</t>
@@ -2561,7 +2561,7 @@
     <t xml:space="preserve">20.0710544586182</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3923225402832</t>
+    <t xml:space="preserve">19.3923244476318</t>
   </si>
   <si>
     <t xml:space="preserve">20.5073833465576</t>
@@ -2570,7 +2570,7 @@
     <t xml:space="preserve">20.7013053894043</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4589023590088</t>
+    <t xml:space="preserve">20.4589004516602</t>
   </si>
   <si>
     <t xml:space="preserve">21.3800373077393</t>
@@ -2609,10 +2609,10 @@
     <t xml:space="preserve">21.7194023132324</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5920543670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0768623352051</t>
+    <t xml:space="preserve">22.5920562744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0768642425537</t>
   </si>
   <si>
     <t xml:space="preserve">23.6101551055908</t>
@@ -2633,31 +2633,31 @@
     <t xml:space="preserve">21.6709213256836</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0891513824463</t>
+    <t xml:space="preserve">21.0891532897949</t>
   </si>
   <si>
     <t xml:space="preserve">21.0406723022461</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2042102813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8221740722656</t>
+    <t xml:space="preserve">22.2042121887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8221759796143</t>
   </si>
   <si>
     <t xml:space="preserve">24.240406036377</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7555980682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7071170806885</t>
+    <t xml:space="preserve">23.7555961608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7071151733398</t>
   </si>
   <si>
     <t xml:space="preserve">23.4647121429443</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5616703033447</t>
+    <t xml:space="preserve">23.5616722106934</t>
   </si>
   <si>
     <t xml:space="preserve">23.8040752410889</t>
@@ -2669,7 +2669,7 @@
     <t xml:space="preserve">24.046480178833</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9010372161865</t>
+    <t xml:space="preserve">23.9010391235352</t>
   </si>
   <si>
     <t xml:space="preserve">23.3677501678467</t>
@@ -2687,7 +2687,7 @@
     <t xml:space="preserve">23.3192672729492</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8525581359863</t>
+    <t xml:space="preserve">23.852560043335</t>
   </si>
   <si>
     <t xml:space="preserve">23.1253471374512</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">22.882942199707</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5435771942139</t>
+    <t xml:space="preserve">22.5435752868652</t>
   </si>
   <si>
     <t xml:space="preserve">21.8648433685303</t>
@@ -2708,22 +2708,22 @@
     <t xml:space="preserve">22.4466152191162</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5312900543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1919250488281</t>
+    <t xml:space="preserve">24.5312881469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1919231414795</t>
   </si>
   <si>
     <t xml:space="preserve">24.7736930847168</t>
   </si>
   <si>
-    <t xml:space="preserve">24.337366104126</t>
+    <t xml:space="preserve">24.3373680114746</t>
   </si>
   <si>
     <t xml:space="preserve">24.1434421539307</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7917900085449</t>
+    <t xml:space="preserve">25.7917919158936</t>
   </si>
   <si>
     <t xml:space="preserve">26.0826740264893</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">26.1311569213867</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2765998840332</t>
+    <t xml:space="preserve">26.2765979766846</t>
   </si>
   <si>
     <t xml:space="preserve">25.9857139587402</t>
@@ -2753,43 +2753,43 @@
     <t xml:space="preserve">27.8279857635498</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7310256958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6825408935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2158317565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8460807800293</t>
+    <t xml:space="preserve">27.7310237884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6825428009033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2158298492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8460826873779</t>
   </si>
   <si>
     <t xml:space="preserve">28.3127937316895</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6521587371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1188678741455</t>
+    <t xml:space="preserve">28.652156829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1188697814941</t>
   </si>
   <si>
     <t xml:space="preserve">27.9734268188477</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0703887939453</t>
+    <t xml:space="preserve">28.0703907012939</t>
   </si>
   <si>
     <t xml:space="preserve">27.87646484375</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5855808258057</t>
+    <t xml:space="preserve">27.5855827331543</t>
   </si>
   <si>
     <t xml:space="preserve">27.2946949005127</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4886207580566</t>
+    <t xml:space="preserve">27.488618850708</t>
   </si>
   <si>
     <t xml:space="preserve">27.3916568756104</t>
@@ -3975,6 +3975,9 @@
   </si>
   <si>
     <t xml:space="preserve">34.9000015258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
   </si>
 </sst>
 </file>
@@ -61152,7 +61155,7 @@
     </row>
     <row r="2187">
       <c r="A2187" s="1" t="n">
-        <v>45506.6493865741</v>
+        <v>45506.2916666667</v>
       </c>
       <c r="B2187" t="n">
         <v>45802</v>
@@ -61173,6 +61176,32 @@
         <v>1280</v>
       </c>
       <c r="H2187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" s="1" t="n">
+        <v>45509.5997800926</v>
+      </c>
+      <c r="B2188" t="n">
+        <v>61089</v>
+      </c>
+      <c r="C2188" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="D2188" t="n">
+        <v>31.7000007629395</v>
+      </c>
+      <c r="E2188" t="n">
+        <v>32.5999984741211</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2188" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H2188" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAN.MI.xlsx
+++ b/data/DAN.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8921480178833</t>
+    <t xml:space="preserve">15.8921489715576</t>
   </si>
   <si>
     <t xml:space="preserve">DAN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0230255126953</t>
+    <t xml:space="preserve">16.023021697998</t>
   </si>
   <si>
     <t xml:space="preserve">15.518217086792</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">14.8170919418335</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4898986816406</t>
+    <t xml:space="preserve">14.4899005889893</t>
   </si>
   <si>
     <t xml:space="preserve">14.2094507217407</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">14.3122825622559</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1346626281738</t>
+    <t xml:space="preserve">14.1346635818481</t>
   </si>
   <si>
     <t xml:space="preserve">13.3587532043457</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">13.1343936920166</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5267515182495</t>
+    <t xml:space="preserve">12.5267534255981</t>
   </si>
   <si>
     <t xml:space="preserve">13.1998319625854</t>
@@ -86,19 +86,19 @@
     <t xml:space="preserve">13.3867979049683</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2006454467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3595638275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6400127410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3969593048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6774082183838</t>
+    <t xml:space="preserve">16.2006416320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.359561920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6400108337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3969573974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6774063110352</t>
   </si>
   <si>
     <t xml:space="preserve">17.4439697265625</t>
@@ -107,43 +107,43 @@
     <t xml:space="preserve">16.9204654693604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7706212997437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4156532287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6023511886597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2284173965454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2377653121948</t>
+    <t xml:space="preserve">15.770622253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4156551361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.602349281311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2284183502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2377662658691</t>
   </si>
   <si>
     <t xml:space="preserve">15.6490926742554</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3966865539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2938566207886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2193374633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5465316772461</t>
+    <t xml:space="preserve">15.3966884613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2938556671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2193393707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5465335845947</t>
   </si>
   <si>
     <t xml:space="preserve">17.0887355804443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2476539611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3878803253174</t>
+    <t xml:space="preserve">17.2476558685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3878784179688</t>
   </si>
   <si>
     <t xml:space="preserve">17.2943992614746</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">16.6680583953857</t>
   </si>
   <si>
-    <t xml:space="preserve">16.658712387085</t>
+    <t xml:space="preserve">16.6587104797363</t>
   </si>
   <si>
     <t xml:space="preserve">17.1541728973389</t>
@@ -164,43 +164,43 @@
     <t xml:space="preserve">16.957857131958</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5094089508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6402854919434</t>
+    <t xml:space="preserve">17.509407043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6402835845947</t>
   </si>
   <si>
     <t xml:space="preserve">17.7057228088379</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7711620330811</t>
+    <t xml:space="preserve">17.7711601257324</t>
   </si>
   <si>
     <t xml:space="preserve">16.8550262451172</t>
   </si>
   <si>
-    <t xml:space="preserve">17.55615234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8552951812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2009143829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5935401916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7992057800293</t>
+    <t xml:space="preserve">17.5561485290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8552932739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2009162902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.593542098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7992095947266</t>
   </si>
   <si>
     <t xml:space="preserve">17.341136932373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.52783203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8737201690674</t>
+    <t xml:space="preserve">16.5278358459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.873722076416</t>
   </si>
   <si>
     <t xml:space="preserve">17.2663516998291</t>
@@ -209,40 +209,40 @@
     <t xml:space="preserve">17.6215877532959</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8924217224121</t>
+    <t xml:space="preserve">16.8924198150635</t>
   </si>
   <si>
     <t xml:space="preserve">16.8456764221191</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4533176422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9020366668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.97682762146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7431182861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2105331420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4629402160645</t>
+    <t xml:space="preserve">17.4533157348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9020385742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9768238067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7431163787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2105312347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4629364013672</t>
   </si>
   <si>
     <t xml:space="preserve">18.3694553375244</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1357460021973</t>
+    <t xml:space="preserve">18.1357440948486</t>
   </si>
   <si>
     <t xml:space="preserve">17.939432144165</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6966438293457</t>
+    <t xml:space="preserve">18.6966457366943</t>
   </si>
   <si>
     <t xml:space="preserve">18.7620830535889</t>
@@ -251,10 +251,10 @@
     <t xml:space="preserve">18.7901306152344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4442405700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6779479980469</t>
+    <t xml:space="preserve">18.4442386627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6779460906982</t>
   </si>
   <si>
     <t xml:space="preserve">18.3788032531738</t>
@@ -263,7 +263,7 @@
     <t xml:space="preserve">18.2385787963867</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8085536956787</t>
+    <t xml:space="preserve">17.8085556030273</t>
   </si>
   <si>
     <t xml:space="preserve">17.4813652038574</t>
@@ -272,22 +272,22 @@
     <t xml:space="preserve">17.8272514343262</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5000591278076</t>
+    <t xml:space="preserve">17.5000629425049</t>
   </si>
   <si>
     <t xml:space="preserve">17.4065780639648</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0980815887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1635208129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8830680847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6306667327881</t>
+    <t xml:space="preserve">17.0980834960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1635227203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8830718994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6306686401367</t>
   </si>
   <si>
     <t xml:space="preserve">16.4623985290527</t>
@@ -296,25 +296,25 @@
     <t xml:space="preserve">16.5652275085449</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0700359344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7708930969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7334957122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4810924530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6963748931885</t>
+    <t xml:space="preserve">17.0700378417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7708911895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7334976196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4810905456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6963729858398</t>
   </si>
   <si>
     <t xml:space="preserve">16.8363304138184</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8176326751709</t>
+    <t xml:space="preserve">16.8176307678223</t>
   </si>
   <si>
     <t xml:space="preserve">17.5748462677002</t>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">17.3224430084229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3691806793213</t>
+    <t xml:space="preserve">17.3691844940186</t>
   </si>
   <si>
     <t xml:space="preserve">16.1165084838867</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">16.1539039611816</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2471141815186</t>
+    <t xml:space="preserve">15.2471132278442</t>
   </si>
   <si>
     <t xml:space="preserve">15.0508003234863</t>
@@ -341,10 +341,10 @@
     <t xml:space="preserve">15.3592948913574</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6303930282593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2660808563232</t>
+    <t xml:space="preserve">15.6303939819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2660789489746</t>
   </si>
   <si>
     <t xml:space="preserve">15.2751588821411</t>
@@ -353,19 +353,19 @@
     <t xml:space="preserve">14.7329568862915</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1723289489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8077430725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.96666431427</t>
+    <t xml:space="preserve">15.172327041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8077411651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9666652679443</t>
   </si>
   <si>
     <t xml:space="preserve">15.7051830291748</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3218984603882</t>
+    <t xml:space="preserve">15.3218994140625</t>
   </si>
   <si>
     <t xml:space="preserve">14.9105749130249</t>
@@ -377,28 +377,28 @@
     <t xml:space="preserve">14.5366411209106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9386196136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6958332061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6116991043091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7986669540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5462589263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6210479736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5930032730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6771383285522</t>
+    <t xml:space="preserve">14.9386205673218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.695837020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6117000579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7986660003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5462598800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6210441589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5930013656616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6771392822266</t>
   </si>
   <si>
     <t xml:space="preserve">16.4530467987061</t>
@@ -413,25 +413,25 @@
     <t xml:space="preserve">16.4343509674072</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1352043151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3876094818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.490442276001</t>
+    <t xml:space="preserve">16.1352062225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3876075744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4904384613037</t>
   </si>
   <si>
     <t xml:space="preserve">16.3782634735107</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2941246032715</t>
+    <t xml:space="preserve">16.2941284179688</t>
   </si>
   <si>
     <t xml:space="preserve">17.4720153808594</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1354751586914</t>
+    <t xml:space="preserve">17.1354732513428</t>
   </si>
   <si>
     <t xml:space="preserve">16.9298114776611</t>
@@ -440,10 +440,10 @@
     <t xml:space="preserve">16.9672050476074</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9487800598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4907112121582</t>
+    <t xml:space="preserve">17.9487819671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4907093048096</t>
   </si>
   <si>
     <t xml:space="preserve">17.3598346710205</t>
@@ -455,19 +455,19 @@
     <t xml:space="preserve">17.6683311462402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4063053131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0884628295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0604190826416</t>
+    <t xml:space="preserve">16.406307220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0884647369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0604209899902</t>
   </si>
   <si>
     <t xml:space="preserve">16.1258583068848</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2567310333252</t>
+    <t xml:space="preserve">16.2567329406738</t>
   </si>
   <si>
     <t xml:space="preserve">15.938889503479</t>
@@ -476,13 +476,13 @@
     <t xml:space="preserve">15.9669351577759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8641014099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7893152236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9108457565308</t>
+    <t xml:space="preserve">15.8640995025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7893161773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9108476638794</t>
   </si>
   <si>
     <t xml:space="preserve">16.3408660888672</t>
@@ -497,34 +497,34 @@
     <t xml:space="preserve">15.8360605239868</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8454093933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0043277740479</t>
+    <t xml:space="preserve">15.8454074859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0043334960938</t>
   </si>
   <si>
     <t xml:space="preserve">15.6584405899048</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4527797698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5280199050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6032600402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8477973937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9324436187744</t>
+    <t xml:space="preserve">15.4527778625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.528018951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6032609939575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8477964401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.932445526123</t>
   </si>
   <si>
     <t xml:space="preserve">16.0923328399658</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8195810317993</t>
+    <t xml:space="preserve">15.8195819854736</t>
   </si>
   <si>
     <t xml:space="preserve">15.2646722793579</t>
@@ -533,13 +533,13 @@
     <t xml:space="preserve">15.6220731735229</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7161226272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7067213058472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3493213653564</t>
+    <t xml:space="preserve">15.716121673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7067193984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3493204116821</t>
   </si>
   <si>
     <t xml:space="preserve">16.0641174316406</t>
@@ -554,31 +554,31 @@
     <t xml:space="preserve">15.6879091262817</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8007736206055</t>
+    <t xml:space="preserve">15.8007717132568</t>
   </si>
   <si>
     <t xml:space="preserve">15.5092086791992</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0829277038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2522220611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0358982086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7883186340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.399658203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4748992919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3526344299316</t>
+    <t xml:space="preserve">16.0829296112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2522239685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0359001159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7883205413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3996601104736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4749031066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3526306152344</t>
   </si>
   <si>
     <t xml:space="preserve">17.4372787475586</t>
@@ -587,43 +587,43 @@
     <t xml:space="preserve">17.2397689819336</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1645278930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6942653656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3056049346924</t>
+    <t xml:space="preserve">17.164529800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6942691802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.305606842041</t>
   </si>
   <si>
     <t xml:space="preserve">17.1175022125244</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3808479309082</t>
+    <t xml:space="preserve">17.3808460235596</t>
   </si>
   <si>
     <t xml:space="preserve">17.9639720916748</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1238632202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1614837646484</t>
+    <t xml:space="preserve">18.1238613128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1614818572998</t>
   </si>
   <si>
     <t xml:space="preserve">18.1050510406494</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6599597930908</t>
+    <t xml:space="preserve">18.6599578857422</t>
   </si>
   <si>
     <t xml:space="preserve">19.1396255493164</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1866512298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7979869842529</t>
+    <t xml:space="preserve">19.1866493225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7979888916016</t>
   </si>
   <si>
     <t xml:space="preserve">19.8732299804688</t>
@@ -653,10 +653,10 @@
     <t xml:space="preserve">19.2524871826172</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1772422790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.167839050293</t>
+    <t xml:space="preserve">19.1772441864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1678371429443</t>
   </si>
   <si>
     <t xml:space="preserve">18.989143371582</t>
@@ -665,10 +665,10 @@
     <t xml:space="preserve">18.8104419708252</t>
   </si>
   <si>
-    <t xml:space="preserve">18.631742477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.340181350708</t>
+    <t xml:space="preserve">18.6317443847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3401794433594</t>
   </si>
   <si>
     <t xml:space="preserve">18.688175201416</t>
@@ -683,19 +683,19 @@
     <t xml:space="preserve">18.6035270690918</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7163887023926</t>
+    <t xml:space="preserve">18.7163867950439</t>
   </si>
   <si>
     <t xml:space="preserve">18.5094738006592</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5565013885498</t>
+    <t xml:space="preserve">18.5564994812012</t>
   </si>
   <si>
     <t xml:space="preserve">18.7446060180664</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8480644226074</t>
+    <t xml:space="preserve">18.8480625152588</t>
   </si>
   <si>
     <t xml:space="preserve">18.8574676513672</t>
@@ -704,13 +704,13 @@
     <t xml:space="preserve">18.9609241485596</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2807025909424</t>
+    <t xml:space="preserve">19.2807006835938</t>
   </si>
   <si>
     <t xml:space="preserve">19.6569118499756</t>
   </si>
   <si>
-    <t xml:space="preserve">19.327730178833</t>
+    <t xml:space="preserve">19.3277263641357</t>
   </si>
   <si>
     <t xml:space="preserve">19.365348815918</t>
@@ -719,19 +719,19 @@
     <t xml:space="preserve">19.6098861694336</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6945323944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1960563659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4876136779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7509632110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3371315002441</t>
+    <t xml:space="preserve">19.6945343017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1960544586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4876155853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7509651184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3371334075928</t>
   </si>
   <si>
     <t xml:space="preserve">19.4594020843506</t>
@@ -740,7 +740,7 @@
     <t xml:space="preserve">19.5910758972168</t>
   </si>
   <si>
-    <t xml:space="preserve">19.271297454834</t>
+    <t xml:space="preserve">19.2712993621826</t>
   </si>
   <si>
     <t xml:space="preserve">19.468807220459</t>
@@ -749,34 +749,34 @@
     <t xml:space="preserve">19.6286964416504</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5252418518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.164794921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.258846282959</t>
+    <t xml:space="preserve">19.525239944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1647930145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2588443756104</t>
   </si>
   <si>
     <t xml:space="preserve">20.6350536346436</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8795928955078</t>
+    <t xml:space="preserve">20.8795909881592</t>
   </si>
   <si>
     <t xml:space="preserve">21.1147232055664</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2275848388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2087726593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.399923324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8701839447021</t>
+    <t xml:space="preserve">21.2275829315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2087707519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3999252319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8701858520508</t>
   </si>
   <si>
     <t xml:space="preserve">20.6444606781006</t>
@@ -785,37 +785,37 @@
     <t xml:space="preserve">20.5033798217773</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8325614929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9078044891357</t>
+    <t xml:space="preserve">20.8325653076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9078063964844</t>
   </si>
   <si>
     <t xml:space="preserve">20.8607807159424</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7573223114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7855396270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9172115325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7385120391846</t>
+    <t xml:space="preserve">20.7573204040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7855377197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9172096252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7385101318359</t>
   </si>
   <si>
     <t xml:space="preserve">21.0770988464355</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1241226196289</t>
+    <t xml:space="preserve">21.1241245269775</t>
   </si>
   <si>
     <t xml:space="preserve">20.7102947235107</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0394802093506</t>
+    <t xml:space="preserve">21.0394821166992</t>
   </si>
   <si>
     <t xml:space="preserve">21.9141635894775</t>
@@ -824,13 +824,13 @@
     <t xml:space="preserve">21.7636814117432</t>
   </si>
   <si>
-    <t xml:space="preserve">21.632007598877</t>
+    <t xml:space="preserve">21.6320095062256</t>
   </si>
   <si>
     <t xml:space="preserve">21.584981918335</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3968753814697</t>
+    <t xml:space="preserve">21.3968772888184</t>
   </si>
   <si>
     <t xml:space="preserve">21.38747215271</t>
@@ -842,43 +842,43 @@
     <t xml:space="preserve">21.5379543304443</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3686599731445</t>
+    <t xml:space="preserve">21.3686618804932</t>
   </si>
   <si>
     <t xml:space="preserve">21.6131992340088</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4909324645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8983993530273</t>
+    <t xml:space="preserve">21.4909286499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8983974456787</t>
   </si>
   <si>
     <t xml:space="preserve">21.434497833252</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2181739807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3780670166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5191440582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5097389221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6037902832031</t>
+    <t xml:space="preserve">21.2181758880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3780651092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5191459655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5097408294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6037921905518</t>
   </si>
   <si>
     <t xml:space="preserve">21.5473594665527</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1993675231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4439029693604</t>
+    <t xml:space="preserve">21.199369430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.443904876709</t>
   </si>
   <si>
     <t xml:space="preserve">20.9924545288086</t>
@@ -887,31 +887,31 @@
     <t xml:space="preserve">20.5692176818848</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6538619995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6632709503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5786209106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8889923095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5315971374512</t>
+    <t xml:space="preserve">20.653865814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6632690429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5786190032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8889942169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5315990447998</t>
   </si>
   <si>
     <t xml:space="preserve">20.2964649200439</t>
   </si>
   <si>
-    <t xml:space="preserve">20.465763092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0425243377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.155387878418</t>
+    <t xml:space="preserve">20.4657611846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0425262451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1553897857666</t>
   </si>
   <si>
     <t xml:space="preserve">20.5221920013428</t>
@@ -923,94 +923,94 @@
     <t xml:space="preserve">20.804349899292</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6914825439453</t>
+    <t xml:space="preserve">20.6914863586426</t>
   </si>
   <si>
     <t xml:space="preserve">20.2024154663086</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0801467895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1365756988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.96728515625</t>
+    <t xml:space="preserve">20.0801486968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1365776062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9672832489014</t>
   </si>
   <si>
     <t xml:space="preserve">20.1742000579834</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3246822357178</t>
+    <t xml:space="preserve">20.3246803283691</t>
   </si>
   <si>
     <t xml:space="preserve">20.249439239502</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3623008728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9202575683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9266147613525</t>
+    <t xml:space="preserve">20.3623046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9202613830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9266185760498</t>
   </si>
   <si>
     <t xml:space="preserve">20.4939785003662</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2212238311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9766883850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6726741790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3811130523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7479152679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1053142547607</t>
+    <t xml:space="preserve">20.2212257385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9766902923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6726760864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3811168670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.747917175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1053161621094</t>
   </si>
   <si>
     <t xml:space="preserve">20.59743309021</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8231601715088</t>
+    <t xml:space="preserve">20.8231582641602</t>
   </si>
   <si>
     <t xml:space="preserve">21.1523399353027</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4627132415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9830455780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7291069030762</t>
+    <t xml:space="preserve">21.4627113342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9830493927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7291088104248</t>
   </si>
   <si>
     <t xml:space="preserve">20.5880298614502</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6256484985352</t>
+    <t xml:space="preserve">20.6256504058838</t>
   </si>
   <si>
     <t xml:space="preserve">20.1271724700928</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0895538330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.014310836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2306308746338</t>
+    <t xml:space="preserve">20.0895519256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0143127441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2306327819824</t>
   </si>
   <si>
     <t xml:space="preserve">20.3434925079346</t>
@@ -1019,16 +1019,16 @@
     <t xml:space="preserve">20.7761325836182</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2400360107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7791805267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4970226287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0173568725586</t>
+    <t xml:space="preserve">20.2400341033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7791767120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4970188140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.01735496521</t>
   </si>
   <si>
     <t xml:space="preserve">19.073787689209</t>
@@ -1037,31 +1037,31 @@
     <t xml:space="preserve">18.866870880127</t>
   </si>
   <si>
-    <t xml:space="preserve">19.233678817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9139003753662</t>
+    <t xml:space="preserve">19.2336750030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9138984680176</t>
   </si>
   <si>
     <t xml:space="preserve">18.7916297912598</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8950901031494</t>
+    <t xml:space="preserve">18.8950881958008</t>
   </si>
   <si>
     <t xml:space="preserve">18.6693649291992</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0455703735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3747577667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2147731781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1864166259766</t>
+    <t xml:space="preserve">19.0455722808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.374755859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.214771270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1864185333252</t>
   </si>
   <si>
     <t xml:space="preserve">18.7611045837402</t>
@@ -1076,10 +1076,10 @@
     <t xml:space="preserve">18.0711479187012</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8632183074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8915729522705</t>
+    <t xml:space="preserve">17.8632164001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8915691375732</t>
   </si>
   <si>
     <t xml:space="preserve">18.1656627655029</t>
@@ -1088,52 +1088,52 @@
     <t xml:space="preserve">18.1184062957764</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1940155029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4964618682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6949443817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8178100585938</t>
+    <t xml:space="preserve">18.1940174102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4964637756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6949462890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8178119659424</t>
   </si>
   <si>
     <t xml:space="preserve">18.6382350921631</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3924961090088</t>
+    <t xml:space="preserve">18.3924980163574</t>
   </si>
   <si>
     <t xml:space="preserve">18.7232971191406</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5909786224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4492073059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9028759002686</t>
+    <t xml:space="preserve">18.5909767150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4492092132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9028739929199</t>
   </si>
   <si>
     <t xml:space="preserve">19.0068416595459</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9312286376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9217796325684</t>
+    <t xml:space="preserve">18.9312305450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9217777252197</t>
   </si>
   <si>
     <t xml:space="preserve">18.8461685180664</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5815258026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.609884262085</t>
+    <t xml:space="preserve">18.5815277099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6098823547363</t>
   </si>
   <si>
     <t xml:space="preserve">18.6760406494141</t>
@@ -1145,7 +1145,7 @@
     <t xml:space="preserve">18.7043972015381</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8934268951416</t>
+    <t xml:space="preserve">18.8934230804443</t>
   </si>
   <si>
     <t xml:space="preserve">18.9406833648682</t>
@@ -1154,37 +1154,37 @@
     <t xml:space="preserve">18.827262878418</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6193332672119</t>
+    <t xml:space="preserve">18.6193294525146</t>
   </si>
   <si>
     <t xml:space="preserve">18.7327499389648</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1391620635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4227027893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7062492370605</t>
+    <t xml:space="preserve">19.13916015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4227046966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7062473297119</t>
   </si>
   <si>
     <t xml:space="preserve">19.9897899627686</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7931613922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5492782592773</t>
+    <t xml:space="preserve">20.7931632995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5492763519287</t>
   </si>
   <si>
     <t xml:space="preserve">21.832820892334</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7855625152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6437931060791</t>
+    <t xml:space="preserve">21.7855644226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6437911987305</t>
   </si>
   <si>
     <t xml:space="preserve">21.8800792694092</t>
@@ -1193,10 +1193,10 @@
     <t xml:space="preserve">21.7383060455322</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0218486785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0691089630127</t>
+    <t xml:space="preserve">22.0218505859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0691070556641</t>
   </si>
   <si>
     <t xml:space="preserve">21.2657356262207</t>
@@ -1211,13 +1211,13 @@
     <t xml:space="preserve">20.8876781463623</t>
   </si>
   <si>
-    <t xml:space="preserve">21.029447555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9821929931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3602504730225</t>
+    <t xml:space="preserve">21.0294494628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9821910858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3602485656738</t>
   </si>
   <si>
     <t xml:space="preserve">21.4547653198242</t>
@@ -1226,97 +1226,97 @@
     <t xml:space="preserve">21.407506942749</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1239624023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9349327087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9745941162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4944190979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1636219024658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3526496887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2581348419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0767059326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5020217895508</t>
+    <t xml:space="preserve">21.123966217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9349346160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9745922088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.494421005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1636238098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3526515960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2581329345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0767078399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5020198822021</t>
   </si>
   <si>
     <t xml:space="preserve">20.5568771362305</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4623622894287</t>
+    <t xml:space="preserve">20.4623584747314</t>
   </si>
   <si>
     <t xml:space="preserve">21.1712188720703</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8404178619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2184791564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5965385437012</t>
+    <t xml:space="preserve">20.8404216766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2184772491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5965366363525</t>
   </si>
   <si>
     <t xml:space="preserve">20.6513919830322</t>
   </si>
   <si>
-    <t xml:space="preserve">20.745906829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.367847442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.280933380127</t>
+    <t xml:space="preserve">20.7459049224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3678493499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2809314727783</t>
   </si>
   <si>
     <t xml:space="preserve">19.3754463195801</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5644760131836</t>
+    <t xml:space="preserve">19.5644779205322</t>
   </si>
   <si>
     <t xml:space="preserve">20.0370483398438</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8480205535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6041355133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5096206665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2260780334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4151058197021</t>
+    <t xml:space="preserve">19.8480186462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.604133605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5096225738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2260761260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4151039123535</t>
   </si>
   <si>
     <t xml:space="preserve">20.2733345031738</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1315612792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1788177490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6589908599854</t>
+    <t xml:space="preserve">20.1315593719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1788196563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6589889526367</t>
   </si>
   <si>
     <t xml:space="preserve">19.8007621765137</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">19.8952751159668</t>
   </si>
   <si>
-    <t xml:space="preserve">19.942533493042</t>
+    <t xml:space="preserve">19.9425354003906</t>
   </si>
   <si>
     <t xml:space="preserve">19.5172176361084</t>
@@ -1346,79 +1346,79 @@
     <t xml:space="preserve">21.6910514831543</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3205909729004</t>
+    <t xml:space="preserve">20.320592880249</t>
   </si>
   <si>
     <t xml:space="preserve">17.9388294219971</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5003576278687</t>
+    <t xml:space="preserve">15.500358581543</t>
   </si>
   <si>
     <t xml:space="preserve">15.8973188400269</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9521760940552</t>
+    <t xml:space="preserve">14.9521751403809</t>
   </si>
   <si>
     <t xml:space="preserve">14.6497297286987</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9899806976318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5948734283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8217067718506</t>
+    <t xml:space="preserve">14.9899816513062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5948715209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8217086791992</t>
   </si>
   <si>
     <t xml:space="preserve">16.1997623443604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7271919250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5192632675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6515827178955</t>
+    <t xml:space="preserve">15.7271909713745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5192604064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6515798568726</t>
   </si>
   <si>
     <t xml:space="preserve">16.0674457550049</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9918336868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8595142364502</t>
+    <t xml:space="preserve">15.99183177948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8595132827759</t>
   </si>
   <si>
     <t xml:space="preserve">15.7839021682739</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5759706497192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1979131698608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0457439422607</t>
+    <t xml:space="preserve">15.5759687423706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1979122161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0457429885864</t>
   </si>
   <si>
     <t xml:space="preserve">14.760425567627</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5892362594604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6272773742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1028051376343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1218271255493</t>
+    <t xml:space="preserve">14.5892353057861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6272783279419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1028060913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1218280792236</t>
   </si>
   <si>
     <t xml:space="preserve">14.8365106582642</t>
@@ -1427,10 +1427,10 @@
     <t xml:space="preserve">15.3310613632202</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6354007720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4642095565796</t>
+    <t xml:space="preserve">15.6353988647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4642086029053</t>
   </si>
   <si>
     <t xml:space="preserve">14.2468538284302</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">14.0946846008301</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7713241577148</t>
+    <t xml:space="preserve">13.7713251113892</t>
   </si>
   <si>
     <t xml:space="preserve">13.9044733047485</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">14.3419589996338</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3229389190674</t>
+    <t xml:space="preserve">14.3229398727417</t>
   </si>
   <si>
     <t xml:space="preserve">14.3990240097046</t>
@@ -1460,19 +1460,19 @@
     <t xml:space="preserve">14.1327266693115</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8093681335449</t>
+    <t xml:space="preserve">13.8093671798706</t>
   </si>
   <si>
     <t xml:space="preserve">13.7903461456299</t>
   </si>
   <si>
-    <t xml:space="preserve">13.961537361145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2278337478638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3800029754639</t>
+    <t xml:space="preserve">13.9615354537964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2278327941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3800020217896</t>
   </si>
   <si>
     <t xml:space="preserve">14.7033624649048</t>
@@ -1484,28 +1484,28 @@
     <t xml:space="preserve">15.4071455001831</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3120393753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2169342041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2549772262573</t>
+    <t xml:space="preserve">15.3120403289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2169332504272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.254976272583</t>
   </si>
   <si>
     <t xml:space="preserve">15.0837850570679</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2930192947388</t>
+    <t xml:space="preserve">15.2930183410645</t>
   </si>
   <si>
     <t xml:space="preserve">15.3500814437866</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3881235122681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7305068969727</t>
+    <t xml:space="preserve">15.3881244659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.730507850647</t>
   </si>
   <si>
     <t xml:space="preserve">16.1679916381836</t>
@@ -1526,10 +1526,10 @@
     <t xml:space="preserve">16.6245002746582</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4723320007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5674362182617</t>
+    <t xml:space="preserve">16.4723300933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5674381256104</t>
   </si>
   <si>
     <t xml:space="preserve">16.1870136260986</t>
@@ -1538,13 +1538,13 @@
     <t xml:space="preserve">16.0728855133057</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0158214569092</t>
+    <t xml:space="preserve">16.0158252716064</t>
   </si>
   <si>
     <t xml:space="preserve">16.339183807373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3582019805908</t>
+    <t xml:space="preserve">16.3582038879395</t>
   </si>
   <si>
     <t xml:space="preserve">16.4533100128174</t>
@@ -1556,28 +1556,28 @@
     <t xml:space="preserve">16.7196044921875</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4913520812988</t>
+    <t xml:space="preserve">16.4913539886475</t>
   </si>
   <si>
     <t xml:space="preserve">16.6435203552246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6625423431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.434289932251</t>
+    <t xml:space="preserve">16.662540435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4342880249023</t>
   </si>
   <si>
     <t xml:space="preserve">16.8147106170654</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9288368225098</t>
+    <t xml:space="preserve">16.9288387298584</t>
   </si>
   <si>
     <t xml:space="preserve">16.6815643310547</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5293922424316</t>
+    <t xml:space="preserve">16.5293941497803</t>
   </si>
   <si>
     <t xml:space="preserve">16.0538635253906</t>
@@ -1589,13 +1589,13 @@
     <t xml:space="preserve">16.1299495697021</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3201599121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2060356140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5484161376953</t>
+    <t xml:space="preserve">16.320161819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.206033706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5484142303467</t>
   </si>
   <si>
     <t xml:space="preserve">16.6054782867432</t>
@@ -1607,43 +1607,43 @@
     <t xml:space="preserve">16.9859027862549</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1570949554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6896839141846</t>
+    <t xml:space="preserve">17.1570930480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6896858215332</t>
   </si>
   <si>
     <t xml:space="preserve">18.5075950622559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4885711669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.469554901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.336404800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7467479705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3473052978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2141590118408</t>
+    <t xml:space="preserve">18.4885749816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4695529937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3364028930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7467498779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3473033905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2141571044922</t>
   </si>
   <si>
     <t xml:space="preserve">17.1951351165771</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9478607177734</t>
+    <t xml:space="preserve">16.9478588104248</t>
   </si>
   <si>
     <t xml:space="preserve">16.8527526855469</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1761131286621</t>
+    <t xml:space="preserve">17.1761150360107</t>
   </si>
   <si>
     <t xml:space="preserve">17.0429668426514</t>
@@ -1652,13 +1652,13 @@
     <t xml:space="preserve">17.2712173461914</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3663272857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4424076080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9668788909912</t>
+    <t xml:space="preserve">17.366325378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4424114227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9668807983398</t>
   </si>
   <si>
     <t xml:space="preserve">16.4152679443359</t>
@@ -1667,37 +1667,37 @@
     <t xml:space="preserve">15.6924610137939</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7114839553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6544189453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3691024780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8745536804199</t>
+    <t xml:space="preserve">15.7114849090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6544208526611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3691034317017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8745517730713</t>
   </si>
   <si>
     <t xml:space="preserve">14.9886808395386</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2739973068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9506368637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1598691940308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0267219543457</t>
+    <t xml:space="preserve">15.2739963531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9506378173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1598701477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0267210006714</t>
   </si>
   <si>
     <t xml:space="preserve">14.6843404769897</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8555326461792</t>
+    <t xml:space="preserve">14.8555307388306</t>
   </si>
   <si>
     <t xml:space="preserve">14.5511932373047</t>
@@ -1709,61 +1709,61 @@
     <t xml:space="preserve">14.7414045333862</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6462984085083</t>
+    <t xml:space="preserve">14.646297454834</t>
   </si>
   <si>
     <t xml:space="preserve">14.8174886703491</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7685470581055</t>
+    <t xml:space="preserve">15.7685480117798</t>
   </si>
   <si>
     <t xml:space="preserve">15.5973567962646</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5783367156982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8636522293091</t>
+    <t xml:space="preserve">15.5783357620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8636531829834</t>
   </si>
   <si>
     <t xml:space="preserve">15.4261665344238</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7875690460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.616379737854</t>
+    <t xml:space="preserve">15.7875680923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6163778305054</t>
   </si>
   <si>
     <t xml:space="preserve">15.5212726593018</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2359552383423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0647649765015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7223825454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9696578979492</t>
+    <t xml:space="preserve">15.235954284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0647640228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7223815917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9696588516235</t>
   </si>
   <si>
     <t xml:space="preserve">14.7984676361084</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4751071929932</t>
+    <t xml:space="preserve">14.4751081466675</t>
   </si>
   <si>
     <t xml:space="preserve">14.4560861587524</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2658748626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0756635665894</t>
+    <t xml:space="preserve">14.2658739089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0756645202637</t>
   </si>
   <si>
     <t xml:space="preserve">13.94251537323</t>
@@ -1772,10 +1772,10 @@
     <t xml:space="preserve">14.6082563400269</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4370670318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9805583953857</t>
+    <t xml:space="preserve">14.4370651245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9805574417114</t>
   </si>
   <si>
     <t xml:space="preserve">14.0185995101929</t>
@@ -1787,19 +1787,19 @@
     <t xml:space="preserve">14.1137056350708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.418044090271</t>
+    <t xml:space="preserve">14.4180431365967</t>
   </si>
   <si>
     <t xml:space="preserve">14.189790725708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7794466018677</t>
+    <t xml:space="preserve">14.779447555542</t>
   </si>
   <si>
     <t xml:space="preserve">14.1707696914673</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5593147277832</t>
+    <t xml:space="preserve">15.5593137741089</t>
   </si>
   <si>
     <t xml:space="preserve">14.3609819412231</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">14.2848968505859</t>
   </si>
   <si>
-    <t xml:space="preserve">14.665319442749</t>
+    <t xml:space="preserve">14.6653203964233</t>
   </si>
   <si>
     <t xml:space="preserve">15.1788902282715</t>
@@ -1820,25 +1820,25 @@
     <t xml:space="preserve">15.2640390396118</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2448396682739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0912380218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9952383041382</t>
+    <t xml:space="preserve">15.2448387145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0912389755249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9952373504639</t>
   </si>
   <si>
     <t xml:space="preserve">15.0720386505127</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5712404251099</t>
+    <t xml:space="preserve">15.5712394714355</t>
   </si>
   <si>
     <t xml:space="preserve">15.8784418106079</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6656436920166</t>
+    <t xml:space="preserve">16.665641784668</t>
   </si>
   <si>
     <t xml:space="preserve">16.5312404632568</t>
@@ -1847,22 +1847,22 @@
     <t xml:space="preserve">15.8976392745972</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8592395782471</t>
+    <t xml:space="preserve">15.8592414855957</t>
   </si>
   <si>
     <t xml:space="preserve">15.7248401641846</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7440395355225</t>
+    <t xml:space="preserve">15.7440404891968</t>
   </si>
   <si>
     <t xml:space="preserve">15.6480388641357</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9552412033081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9936418533325</t>
+    <t xml:space="preserve">15.9552431106567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9936399459839</t>
   </si>
   <si>
     <t xml:space="preserve">16.3776416778564</t>
@@ -1871,43 +1871,43 @@
     <t xml:space="preserve">15.9168405532837</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8016386032104</t>
+    <t xml:space="preserve">15.8016405105591</t>
   </si>
   <si>
     <t xml:space="preserve">15.8400392532349</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2432422637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1856422424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6096410751343</t>
+    <t xml:space="preserve">16.2432403564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.185640335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6096391677856</t>
   </si>
   <si>
     <t xml:space="preserve">16.0320415496826</t>
   </si>
   <si>
-    <t xml:space="preserve">15.763240814209</t>
+    <t xml:space="preserve">15.7632398605347</t>
   </si>
   <si>
     <t xml:space="preserve">15.6288394927979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7824411392212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4368391036987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3024377822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1680383682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3984413146973</t>
+    <t xml:space="preserve">15.7824401855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.436840057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3024387359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1680374145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3984403610229</t>
   </si>
   <si>
     <t xml:space="preserve">14.9376382827759</t>
@@ -1916,28 +1916,28 @@
     <t xml:space="preserve">15.1296396255493</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6880369186401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2080364227295</t>
+    <t xml:space="preserve">14.6880378723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2080373764038</t>
   </si>
   <si>
     <t xml:space="preserve">14.1120357513428</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4000377655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7840375900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.976037979126</t>
+    <t xml:space="preserve">14.4000358581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7840366363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9760389328003</t>
   </si>
   <si>
     <t xml:space="preserve">14.764838218689</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5728378295898</t>
+    <t xml:space="preserve">14.5728368759155</t>
   </si>
   <si>
     <t xml:space="preserve">14.6112375259399</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">14.5152368545532</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4576368331909</t>
+    <t xml:space="preserve">14.4576377868652</t>
   </si>
   <si>
     <t xml:space="preserve">14.2272367477417</t>
@@ -1958,22 +1958,22 @@
     <t xml:space="preserve">13.862434387207</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3056325912476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1712341308594</t>
+    <t xml:space="preserve">13.3056344985962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1712322235107</t>
   </si>
   <si>
     <t xml:space="preserve">13.5360355377197</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2480344772339</t>
+    <t xml:space="preserve">13.2480335235596</t>
   </si>
   <si>
     <t xml:space="preserve">12.9600324630737</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5760326385498</t>
+    <t xml:space="preserve">12.5760316848755</t>
   </si>
   <si>
     <t xml:space="preserve">12.3264312744141</t>
@@ -1982,19 +1982,19 @@
     <t xml:space="preserve">12.0960311889648</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6160297393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1744289398193</t>
+    <t xml:space="preserve">11.6160306930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.174427986145</t>
   </si>
   <si>
     <t xml:space="preserve">10.2528266906738</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0800256729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71522521972656</t>
+    <t xml:space="preserve">10.0800266265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71522426605225</t>
   </si>
   <si>
     <t xml:space="preserve">9.02402305603027</t>
@@ -2006,10 +2006,10 @@
     <t xml:space="preserve">8.19842052459717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65922355651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21602439880371</t>
+    <t xml:space="preserve">8.65922260284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21602344512939</t>
   </si>
   <si>
     <t xml:space="preserve">10.2912263870239</t>
@@ -2033,7 +2033,7 @@
     <t xml:space="preserve">11.0592288970947</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7712268829346</t>
+    <t xml:space="preserve">10.7712278366089</t>
   </si>
   <si>
     <t xml:space="preserve">10.1952257156372</t>
@@ -2042,22 +2042,22 @@
     <t xml:space="preserve">10.4640264511108</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7520275115967</t>
+    <t xml:space="preserve">10.7520265579224</t>
   </si>
   <si>
     <t xml:space="preserve">10.8672275543213</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2512292861938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0400285720825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7136278152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3296270370483</t>
+    <t xml:space="preserve">11.2512283325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0400276184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7136268615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3296251296997</t>
   </si>
   <si>
     <t xml:space="preserve">10.0032262802124</t>
@@ -2072,10 +2072,10 @@
     <t xml:space="preserve">10.5600271224976</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9056282043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8480281829834</t>
+    <t xml:space="preserve">10.9056272506714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8480291366577</t>
   </si>
   <si>
     <t xml:space="preserve">10.8288269042969</t>
@@ -2084,13 +2084,13 @@
     <t xml:space="preserve">10.9440269470215</t>
   </si>
   <si>
-    <t xml:space="preserve">10.963228225708</t>
+    <t xml:space="preserve">10.9632272720337</t>
   </si>
   <si>
     <t xml:space="preserve">10.6752281188965</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1360292434692</t>
+    <t xml:space="preserve">11.1360282897949</t>
   </si>
   <si>
     <t xml:space="preserve">11.0784282684326</t>
@@ -2099,16 +2099,16 @@
     <t xml:space="preserve">11.6352291107178</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7120304107666</t>
+    <t xml:space="preserve">11.7120294570923</t>
   </si>
   <si>
     <t xml:space="preserve">11.1936283111572</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5584297180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6544303894043</t>
+    <t xml:space="preserve">11.5584287643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.65442943573</t>
   </si>
   <si>
     <t xml:space="preserve">11.9424295425415</t>
@@ -2117,13 +2117,13 @@
     <t xml:space="preserve">12.1536302566528</t>
   </si>
   <si>
-    <t xml:space="preserve">12.441632270813</t>
+    <t xml:space="preserve">12.4416313171387</t>
   </si>
   <si>
     <t xml:space="preserve">12.3648319244385</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2496309280396</t>
+    <t xml:space="preserve">12.2496318817139</t>
   </si>
   <si>
     <t xml:space="preserve">12.0000305175781</t>
@@ -2141,13 +2141,13 @@
     <t xml:space="preserve">11.2320289611816</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0208292007446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9248285293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8096284866333</t>
+    <t xml:space="preserve">11.0208282470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9248275756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.809627532959</t>
   </si>
   <si>
     <t xml:space="preserve">10.5408267974854</t>
@@ -2156,13 +2156,13 @@
     <t xml:space="preserve">10.5792274475098</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7904272079468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3472290039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4816284179688</t>
+    <t xml:space="preserve">10.7904262542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3472280502319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4816293716431</t>
   </si>
   <si>
     <t xml:space="preserve">11.4240283966064</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">11.5776300430298</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8272285461426</t>
+    <t xml:space="preserve">11.8272294998169</t>
   </si>
   <si>
     <t xml:space="preserve">11.6736288070679</t>
@@ -2198,46 +2198,46 @@
     <t xml:space="preserve">11.7696304321289</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6928300857544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.808030128479</t>
+    <t xml:space="preserve">11.6928310394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8080291748047</t>
   </si>
   <si>
     <t xml:space="preserve">11.8848304748535</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3840312957764</t>
+    <t xml:space="preserve">12.3840322494507</t>
   </si>
   <si>
     <t xml:space="preserve">12.288031578064</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2688312530518</t>
+    <t xml:space="preserve">12.2688302993774</t>
   </si>
   <si>
     <t xml:space="preserve">12.1152305603027</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1344318389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.961630821228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9040298461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3856296539307</t>
+    <t xml:space="preserve">12.1344308853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9616298675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9040307998657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3856287002563</t>
   </si>
   <si>
     <t xml:space="preserve">12.806432723999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8240356445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5552349090576</t>
+    <t xml:space="preserve">13.8240346908569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5552339553833</t>
   </si>
   <si>
     <t xml:space="preserve">14.0352354049683</t>
@@ -2246,28 +2246,28 @@
     <t xml:space="preserve">13.7664356231689</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4016351699829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.593635559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6320343017578</t>
+    <t xml:space="preserve">13.4016342163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5936346054077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6320333480835</t>
   </si>
   <si>
     <t xml:space="preserve">13.2672338485718</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4976348876953</t>
+    <t xml:space="preserve">13.497633934021</t>
   </si>
   <si>
     <t xml:space="preserve">14.3040361404419</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9008350372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5744342803955</t>
+    <t xml:space="preserve">13.9008359909058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5744352340698</t>
   </si>
   <si>
     <t xml:space="preserve">13.286434173584</t>
@@ -2276,7 +2276,7 @@
     <t xml:space="preserve">13.65123462677</t>
   </si>
   <si>
-    <t xml:space="preserve">13.344033241272</t>
+    <t xml:space="preserve">13.3440322875977</t>
   </si>
   <si>
     <t xml:space="preserve">12.172830581665</t>
@@ -2285,13 +2285,13 @@
     <t xml:space="preserve">12.2112321853638</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4800319671631</t>
+    <t xml:space="preserve">12.4800310134888</t>
   </si>
   <si>
     <t xml:space="preserve">12.5952320098877</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0176334381104</t>
+    <t xml:space="preserve">13.017632484436</t>
   </si>
   <si>
     <t xml:space="preserve">12.9792337417603</t>
@@ -2300,7 +2300,7 @@
     <t xml:space="preserve">13.2096338272095</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4784345626831</t>
+    <t xml:space="preserve">13.4784336090088</t>
   </si>
   <si>
     <t xml:space="preserve">13.6128358840942</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">13.613410949707</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4776649475098</t>
+    <t xml:space="preserve">13.4776639938354</t>
   </si>
   <si>
     <t xml:space="preserve">13.6715888977051</t>
@@ -2333,19 +2333,19 @@
     <t xml:space="preserve">14.0594348907471</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9236879348755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3503189086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3309268951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3891038894653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1563968658447</t>
+    <t xml:space="preserve">13.9236888885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3503198623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3309259414673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3891048431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1563959121704</t>
   </si>
   <si>
     <t xml:space="preserve">13.8655118942261</t>
@@ -2354,13 +2354,13 @@
     <t xml:space="preserve">13.6328039169312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9430818557739</t>
+    <t xml:space="preserve">13.9430809020996</t>
   </si>
   <si>
     <t xml:space="preserve">13.7685489654541</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7103729248047</t>
+    <t xml:space="preserve">13.710373878479</t>
   </si>
   <si>
     <t xml:space="preserve">13.9624729156494</t>
@@ -2378,16 +2378,16 @@
     <t xml:space="preserve">14.5248498916626</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8933038711548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8157348632812</t>
+    <t xml:space="preserve">14.8933048248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8157358169556</t>
   </si>
   <si>
     <t xml:space="preserve">15.1841897964478</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2229738235474</t>
+    <t xml:space="preserve">15.222972869873</t>
   </si>
   <si>
     <t xml:space="preserve">16.6967906951904</t>
@@ -2396,13 +2396,13 @@
     <t xml:space="preserve">16.5416507720947</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3865127563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0180587768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1538066864014</t>
+    <t xml:space="preserve">16.3865146636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0180606842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1538047790527</t>
   </si>
   <si>
     <t xml:space="preserve">15.9986658096313</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">15.6302137374878</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9210987091064</t>
+    <t xml:space="preserve">15.9210968017578</t>
   </si>
   <si>
     <t xml:space="preserve">16.0568428039551</t>
@@ -2432,7 +2432,7 @@
     <t xml:space="preserve">16.4640827178955</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8131427764893</t>
+    <t xml:space="preserve">16.8131446838379</t>
   </si>
   <si>
     <t xml:space="preserve">16.9876747131348</t>
@@ -2465,13 +2465,13 @@
     <t xml:space="preserve">16.6580066680908</t>
   </si>
   <si>
-    <t xml:space="preserve">16.638614654541</t>
+    <t xml:space="preserve">16.6386127471924</t>
   </si>
   <si>
     <t xml:space="preserve">17.1234226226807</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8713207244873</t>
+    <t xml:space="preserve">16.8713226318359</t>
   </si>
   <si>
     <t xml:space="preserve">17.1622066497803</t>
@@ -2480,19 +2480,19 @@
     <t xml:space="preserve">17.1428146362305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0652465820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1900005340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3063526153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8771324157715</t>
+    <t xml:space="preserve">17.0652446746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.189998626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3063545227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5390605926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8771305084229</t>
   </si>
   <si>
     <t xml:space="preserve">20.1680164337158</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">20.2164974212646</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1195373535156</t>
+    <t xml:space="preserve">20.119535446167</t>
   </si>
   <si>
     <t xml:space="preserve">20.2649784088135</t>
@@ -2531,7 +2531,7 @@
     <t xml:space="preserve">20.895227432251</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2345943450928</t>
+    <t xml:space="preserve">21.2345924377441</t>
   </si>
   <si>
     <t xml:space="preserve">21.1376323699951</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">19.9740924835205</t>
   </si>
   <si>
-    <t xml:space="preserve">19.731689453125</t>
+    <t xml:space="preserve">19.7316913604736</t>
   </si>
   <si>
     <t xml:space="preserve">19.5862483978271</t>
@@ -2558,7 +2558,7 @@
     <t xml:space="preserve">19.7801704406738</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0710544586182</t>
+    <t xml:space="preserve">20.0710563659668</t>
   </si>
   <si>
     <t xml:space="preserve">19.3923244476318</t>
@@ -2576,7 +2576,7 @@
     <t xml:space="preserve">21.3800373077393</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9618072509766</t>
+    <t xml:space="preserve">21.9618053436279</t>
   </si>
   <si>
     <t xml:space="preserve">21.5739593505859</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">22.0102882385254</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1072463989258</t>
+    <t xml:space="preserve">22.1072483062744</t>
   </si>
   <si>
     <t xml:space="preserve">21.8163642883301</t>
@@ -2597,16 +2597,16 @@
     <t xml:space="preserve">22.1557292938232</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2526931762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4769992828369</t>
+    <t xml:space="preserve">22.2526912689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4769973754883</t>
   </si>
   <si>
     <t xml:space="preserve">21.6224403381348</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7194023132324</t>
+    <t xml:space="preserve">21.7194004058838</t>
   </si>
   <si>
     <t xml:space="preserve">22.5920562744141</t>
@@ -2618,7 +2618,7 @@
     <t xml:space="preserve">23.6101551055908</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9314231872559</t>
+    <t xml:space="preserve">22.9314212799072</t>
   </si>
   <si>
     <t xml:space="preserve">22.6890201568604</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">21.9133262634277</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6709213256836</t>
+    <t xml:space="preserve">21.6709232330322</t>
   </si>
   <si>
     <t xml:space="preserve">21.0891532897949</t>
@@ -2651,10 +2651,10 @@
     <t xml:space="preserve">23.7555961608887</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7071151733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4647121429443</t>
+    <t xml:space="preserve">23.7071170806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.464714050293</t>
   </si>
   <si>
     <t xml:space="preserve">23.5616722106934</t>
@@ -2666,7 +2666,7 @@
     <t xml:space="preserve">23.5131931304932</t>
   </si>
   <si>
-    <t xml:space="preserve">24.046480178833</t>
+    <t xml:space="preserve">24.0464820861816</t>
   </si>
   <si>
     <t xml:space="preserve">23.9010391235352</t>
@@ -2675,19 +2675,19 @@
     <t xml:space="preserve">23.3677501678467</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0949630737305</t>
+    <t xml:space="preserve">24.0949611663818</t>
   </si>
   <si>
     <t xml:space="preserve">23.9980010986328</t>
   </si>
   <si>
-    <t xml:space="preserve">23.949520111084</t>
+    <t xml:space="preserve">23.9495220184326</t>
   </si>
   <si>
     <t xml:space="preserve">23.3192672729492</t>
   </si>
   <si>
-    <t xml:space="preserve">23.852560043335</t>
+    <t xml:space="preserve">23.8525581359863</t>
   </si>
   <si>
     <t xml:space="preserve">23.1253471374512</t>
@@ -2699,10 +2699,10 @@
     <t xml:space="preserve">22.5435752868652</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8648433685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.495096206665</t>
+    <t xml:space="preserve">21.8648452758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4950942993164</t>
   </si>
   <si>
     <t xml:space="preserve">22.4466152191162</t>
@@ -2717,19 +2717,19 @@
     <t xml:space="preserve">24.7736930847168</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3373680114746</t>
+    <t xml:space="preserve">24.337366104126</t>
   </si>
   <si>
     <t xml:space="preserve">24.1434421539307</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7917919158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0826740264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4705219268799</t>
+    <t xml:space="preserve">25.7917900085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0826759338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4705200195312</t>
   </si>
   <si>
     <t xml:space="preserve">26.1796360015869</t>
@@ -2747,10 +2747,10 @@
     <t xml:space="preserve">26.809886932373</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9068489074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8279857635498</t>
+    <t xml:space="preserve">26.9068508148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8279838562012</t>
   </si>
   <si>
     <t xml:space="preserve">27.7310237884521</t>
@@ -2759,13 +2759,13 @@
     <t xml:space="preserve">27.6825428009033</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2158298492432</t>
+    <t xml:space="preserve">28.2158317565918</t>
   </si>
   <si>
     <t xml:space="preserve">28.8460826873779</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3127937316895</t>
+    <t xml:space="preserve">28.3127918243408</t>
   </si>
   <si>
     <t xml:space="preserve">28.652156829834</t>
@@ -2774,10 +2774,10 @@
     <t xml:space="preserve">28.1188697814941</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9734268188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0703907012939</t>
+    <t xml:space="preserve">27.9734287261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0703887939453</t>
   </si>
   <si>
     <t xml:space="preserve">27.87646484375</t>
@@ -2789,7 +2789,7 @@
     <t xml:space="preserve">27.2946949005127</t>
   </si>
   <si>
-    <t xml:space="preserve">27.488618850708</t>
+    <t xml:space="preserve">27.4886169433594</t>
   </si>
   <si>
     <t xml:space="preserve">27.3916568756104</t>
@@ -2801,13 +2801,13 @@
     <t xml:space="preserve">27.2648448944092</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5820026397705</t>
+    <t xml:space="preserve">26.5820045471191</t>
   </si>
   <si>
     <t xml:space="preserve">26.1430339813232</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7528381347656</t>
+    <t xml:space="preserve">25.7528400421143</t>
   </si>
   <si>
     <t xml:space="preserve">24.8749027252197</t>
@@ -2816,7 +2816,7 @@
     <t xml:space="preserve">25.0212230682373</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4359321594238</t>
+    <t xml:space="preserve">24.4359340667725</t>
   </si>
   <si>
     <t xml:space="preserve">25.0699996948242</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">25.4114189147949</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7283248901367</t>
+    <t xml:space="preserve">26.7283267974854</t>
   </si>
   <si>
     <t xml:space="preserve">27.1672954559326</t>
@@ -2837,10 +2837,10 @@
     <t xml:space="preserve">26.7771015167236</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2405815124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1918106079102</t>
+    <t xml:space="preserve">26.2405834197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1918087005615</t>
   </si>
   <si>
     <t xml:space="preserve">25.8016147613525</t>
@@ -2864,37 +2864,37 @@
     <t xml:space="preserve">26.2893581390381</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4844532012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9479389190674</t>
+    <t xml:space="preserve">26.4844551086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9479370117188</t>
   </si>
   <si>
     <t xml:space="preserve">25.1675472259521</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9967098236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8503894805908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3626461029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7773513793945</t>
+    <t xml:space="preserve">25.996711730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8503875732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3626441955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7773532867432</t>
   </si>
   <si>
     <t xml:space="preserve">23.2653503417969</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0702533721924</t>
+    <t xml:space="preserve">23.0702514648438</t>
   </si>
   <si>
     <t xml:space="preserve">23.9481887817383</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3141250610352</t>
+    <t xml:space="preserve">23.3141231536865</t>
   </si>
   <si>
     <t xml:space="preserve">23.21657371521</t>
@@ -2909,25 +2909,25 @@
     <t xml:space="preserve">22.7288303375244</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2410869598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0947666168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8508949279785</t>
+    <t xml:space="preserve">22.2410888671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0947647094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8508930206299</t>
   </si>
   <si>
     <t xml:space="preserve">22.9239292144775</t>
   </si>
   <si>
-    <t xml:space="preserve">23.119026184082</t>
+    <t xml:space="preserve">23.1190280914307</t>
   </si>
   <si>
     <t xml:space="preserve">22.7776069641113</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3874130249023</t>
+    <t xml:space="preserve">22.3874111175537</t>
   </si>
   <si>
     <t xml:space="preserve">23.4604454040527</t>
@@ -2948,13 +2948,13 @@
     <t xml:space="preserve">20.7778587341309</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7535991668701</t>
+    <t xml:space="preserve">19.7535972595215</t>
   </si>
   <si>
     <t xml:space="preserve">20.4364395141602</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1925678253174</t>
+    <t xml:space="preserve">20.192569732666</t>
   </si>
   <si>
     <t xml:space="preserve">19.1975727081299</t>
@@ -2966,10 +2966,10 @@
     <t xml:space="preserve">18.3586521148682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1100330352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1685619354248</t>
+    <t xml:space="preserve">17.1100311279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1685600280762</t>
   </si>
   <si>
     <t xml:space="preserve">18.2415962219238</t>
@@ -2978,13 +2978,13 @@
     <t xml:space="preserve">18.3781623840332</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7733592987061</t>
+    <t xml:space="preserve">17.7733612060547</t>
   </si>
   <si>
     <t xml:space="preserve">18.5342407226562</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0660076141357</t>
+    <t xml:space="preserve">18.0660095214844</t>
   </si>
   <si>
     <t xml:space="preserve">17.7148303985596</t>
@@ -3008,13 +3008,13 @@
     <t xml:space="preserve">19.0024738311768</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3146305084229</t>
+    <t xml:space="preserve">19.3146286010742</t>
   </si>
   <si>
     <t xml:space="preserve">19.4316883087158</t>
   </si>
   <si>
-    <t xml:space="preserve">19.851146697998</t>
+    <t xml:space="preserve">19.8511486053467</t>
   </si>
   <si>
     <t xml:space="preserve">19.3536491394043</t>
@@ -3026,13 +3026,13 @@
     <t xml:space="preserve">18.8659057617188</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9879684448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8854179382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6317882537842</t>
+    <t xml:space="preserve">17.9879703521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8854160308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6317901611328</t>
   </si>
   <si>
     <t xml:space="preserve">18.9634552001953</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">19.6560497283936</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9974708557129</t>
+    <t xml:space="preserve">19.9974689483643</t>
   </si>
   <si>
     <t xml:space="preserve">19.3731594085693</t>
@@ -3050,10 +3050,10 @@
     <t xml:space="preserve">18.9829635620117</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1585521697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6072750091553</t>
+    <t xml:space="preserve">19.1585502624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6072769165039</t>
   </si>
   <si>
     <t xml:space="preserve">19.5097274780273</t>
@@ -3065,7 +3065,7 @@
     <t xml:space="preserve">17.9489479064941</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3196334838867</t>
+    <t xml:space="preserve">18.3196353912354</t>
   </si>
   <si>
     <t xml:space="preserve">20.0462436676025</t>
@@ -3098,13 +3098,13 @@
     <t xml:space="preserve">23.4116725921631</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6067695617676</t>
+    <t xml:space="preserve">23.6067714691162</t>
   </si>
   <si>
     <t xml:space="preserve">22.8263816833496</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4849586486816</t>
+    <t xml:space="preserve">22.4849605560303</t>
   </si>
   <si>
     <t xml:space="preserve">20.6803112030029</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">20.0950183868408</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4902153015137</t>
+    <t xml:space="preserve">19.4902172088623</t>
   </si>
   <si>
     <t xml:space="preserve">19.0219841003418</t>
@@ -3134,28 +3134,28 @@
     <t xml:space="preserve">18.8268871307373</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7928714752197</t>
+    <t xml:space="preserve">17.7928695678711</t>
   </si>
   <si>
     <t xml:space="preserve">19.0414943695068</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7293395996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4562034606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3001251220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7878684997559</t>
+    <t xml:space="preserve">18.7293376922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4562015533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3001232147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7878665924072</t>
   </si>
   <si>
     <t xml:space="preserve">18.9439449310303</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1780605316162</t>
+    <t xml:space="preserve">19.1780624389648</t>
   </si>
   <si>
     <t xml:space="preserve">18.7683582305908</t>
@@ -3164,34 +3164,34 @@
     <t xml:space="preserve">18.6708087921143</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5147323608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2025737762451</t>
+    <t xml:space="preserve">18.5147304534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2025756835938</t>
   </si>
   <si>
     <t xml:space="preserve">18.8073768615723</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5585021972656</t>
+    <t xml:space="preserve">19.558500289917</t>
   </si>
   <si>
     <t xml:space="preserve">19.0805130004883</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2170829772949</t>
+    <t xml:space="preserve">19.2170810699463</t>
   </si>
   <si>
     <t xml:space="preserve">19.7048263549805</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3976745605469</t>
+    <t xml:space="preserve">18.3976726531982</t>
   </si>
   <si>
     <t xml:space="preserve">17.9294376373291</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1440448760986</t>
+    <t xml:space="preserve">18.1440467834473</t>
   </si>
   <si>
     <t xml:space="preserve">17.8514003753662</t>
@@ -3203,10 +3203,10 @@
     <t xml:space="preserve">18.4757118225098</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8904190063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5587539672852</t>
+    <t xml:space="preserve">17.8904209136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5587558746338</t>
   </si>
   <si>
     <t xml:space="preserve">16.8368949890137</t>
@@ -3221,7 +3221,7 @@
     <t xml:space="preserve">16.4076805114746</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2516040802002</t>
+    <t xml:space="preserve">16.2516021728516</t>
   </si>
   <si>
     <t xml:space="preserve">16.4271907806396</t>
@@ -3233,16 +3233,16 @@
     <t xml:space="preserve">15.7443494796753</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5492515563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9344444274902</t>
+    <t xml:space="preserve">15.5492525100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9344425201416</t>
   </si>
   <si>
     <t xml:space="preserve">16.3296413421631</t>
   </si>
   <si>
-    <t xml:space="preserve">16.973461151123</t>
+    <t xml:space="preserve">16.9734630584717</t>
   </si>
   <si>
     <t xml:space="preserve">17.0905208587646</t>
@@ -3251,7 +3251,7 @@
     <t xml:space="preserve">17.3246383666992</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6563053131104</t>
+    <t xml:space="preserve">17.6563034057617</t>
   </si>
   <si>
     <t xml:space="preserve">17.4612045288086</t>
@@ -3260,16 +3260,16 @@
     <t xml:space="preserve">17.3831672668457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3441467285156</t>
+    <t xml:space="preserve">17.3441486358643</t>
   </si>
   <si>
     <t xml:space="preserve">18.1830654144287</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1195316314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0610027313232</t>
+    <t xml:space="preserve">19.1195335388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0610046386719</t>
   </si>
   <si>
     <t xml:space="preserve">19.8023719787598</t>
@@ -3281,7 +3281,7 @@
     <t xml:space="preserve">20.3876647949219</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9486961364746</t>
+    <t xml:space="preserve">19.9486980438232</t>
   </si>
   <si>
     <t xml:space="preserve">20.8266334533691</t>
@@ -3977,7 +3977,7 @@
     <t xml:space="preserve">34.9000015258789</t>
   </si>
   <si>
-    <t xml:space="preserve">33</t>
+    <t xml:space="preserve">33.0499992370605</t>
   </si>
 </sst>
 </file>
@@ -61181,13 +61181,13 @@
     </row>
     <row r="2188">
       <c r="A2188" s="1" t="n">
-        <v>45509.5997800926</v>
+        <v>45509.6493402778</v>
       </c>
       <c r="B2188" t="n">
-        <v>61089</v>
+        <v>75735</v>
       </c>
       <c r="C2188" t="n">
-        <v>33.25</v>
+        <v>33.4000015258789</v>
       </c>
       <c r="D2188" t="n">
         <v>31.7000007629395</v>
@@ -61196,7 +61196,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="F2188" t="n">
-        <v>33</v>
+        <v>33.0499992370605</v>
       </c>
       <c r="G2188" t="s">
         <v>1321</v>

--- a/data/DAN.MI.xlsx
+++ b/data/DAN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="1322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="1323">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,31 +38,31 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8921489715576</t>
+    <t xml:space="preserve">15.8921527862549</t>
   </si>
   <si>
     <t xml:space="preserve">DAN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">16.023021697998</t>
+    <t xml:space="preserve">16.0230236053467</t>
   </si>
   <si>
     <t xml:space="preserve">15.518217086792</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8170919418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4899005889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2094507217407</t>
+    <t xml:space="preserve">14.8170928955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4899015426636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2094497680664</t>
   </si>
   <si>
     <t xml:space="preserve">14.5646867752075</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3122825622559</t>
+    <t xml:space="preserve">14.3122835159302</t>
   </si>
   <si>
     <t xml:space="preserve">14.1346635818481</t>
@@ -71,16 +71,16 @@
     <t xml:space="preserve">13.3587532043457</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0409097671509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1343936920166</t>
+    <t xml:space="preserve">13.0409107208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1343946456909</t>
   </si>
   <si>
     <t xml:space="preserve">12.5267534255981</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1998319625854</t>
+    <t xml:space="preserve">13.1998310089111</t>
   </si>
   <si>
     <t xml:space="preserve">13.3867979049683</t>
@@ -89,76 +89,76 @@
     <t xml:space="preserve">16.2006416320801</t>
   </si>
   <si>
-    <t xml:space="preserve">16.359561920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6400108337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3969573974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6774063110352</t>
+    <t xml:space="preserve">16.3595600128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6400146484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3969593048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6774082183838</t>
   </si>
   <si>
     <t xml:space="preserve">17.4439697265625</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9204654693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.770622253418</t>
+    <t xml:space="preserve">16.920467376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7706212997437</t>
   </si>
   <si>
     <t xml:space="preserve">16.4156551361084</t>
   </si>
   <si>
-    <t xml:space="preserve">15.602349281311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2284183502197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2377662658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490926742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3966884613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2938556671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2193393707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5465335845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0887355804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2476558685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3878784179688</t>
+    <t xml:space="preserve">15.6023511886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2284202575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2377653121948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490907669067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3966856002808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2938575744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2193412780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5465316772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.088737487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2476577758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3878803253174</t>
   </si>
   <si>
     <t xml:space="preserve">17.2943992614746</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0326442718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6680583953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6587104797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1541728973389</t>
+    <t xml:space="preserve">17.0326404571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6680603027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6587085723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1541709899902</t>
   </si>
   <si>
     <t xml:space="preserve">16.957857131958</t>
@@ -167,28 +167,28 @@
     <t xml:space="preserve">17.509407043457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6402835845947</t>
+    <t xml:space="preserve">17.6402893066406</t>
   </si>
   <si>
     <t xml:space="preserve">17.7057228088379</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7711601257324</t>
+    <t xml:space="preserve">17.7711620330811</t>
   </si>
   <si>
     <t xml:space="preserve">16.8550262451172</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5561485290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8552932739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2009162902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.593542098999</t>
+    <t xml:space="preserve">17.5561504364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8552951812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2009143829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5935440063477</t>
   </si>
   <si>
     <t xml:space="preserve">17.7992095947266</t>
@@ -197,25 +197,25 @@
     <t xml:space="preserve">17.341136932373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5278358459473</t>
+    <t xml:space="preserve">16.5278339385986</t>
   </si>
   <si>
     <t xml:space="preserve">16.873722076416</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2663516998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6215877532959</t>
+    <t xml:space="preserve">17.2663536071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6215858459473</t>
   </si>
   <si>
     <t xml:space="preserve">16.8924198150635</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8456764221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4533157348633</t>
+    <t xml:space="preserve">16.8456783294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4533195495605</t>
   </si>
   <si>
     <t xml:space="preserve">17.9020385742188</t>
@@ -224,100 +224,100 @@
     <t xml:space="preserve">17.9768238067627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7431163787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2105312347412</t>
+    <t xml:space="preserve">17.7431144714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2105331420898</t>
   </si>
   <si>
     <t xml:space="preserve">18.4629364013672</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3694553375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1357440948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.939432144165</t>
+    <t xml:space="preserve">18.3694515228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1357460021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9394340515137</t>
   </si>
   <si>
     <t xml:space="preserve">18.6966457366943</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7620830535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7901306152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4442386627197</t>
+    <t xml:space="preserve">18.7620868682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7901287078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.444242477417</t>
   </si>
   <si>
     <t xml:space="preserve">18.6779460906982</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3788032531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2385787963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8085556030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4813652038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8272514343262</t>
+    <t xml:space="preserve">18.3788013458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2385768890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8085536956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4813632965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8272495269775</t>
   </si>
   <si>
     <t xml:space="preserve">17.5000629425049</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4065780639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0980834960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1635227203369</t>
+    <t xml:space="preserve">17.4065761566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0980854034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1635189056396</t>
   </si>
   <si>
     <t xml:space="preserve">16.8830718994141</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6306686401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4623985290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5652275085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0700378417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7708911895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7334976196289</t>
+    <t xml:space="preserve">16.6306667327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4623966217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5652256011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0700359344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7708892822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7334957122803</t>
   </si>
   <si>
     <t xml:space="preserve">16.4810905456543</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6963729858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8363304138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8176307678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5748462677002</t>
+    <t xml:space="preserve">17.6963748931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.836332321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8176288604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5748443603516</t>
   </si>
   <si>
     <t xml:space="preserve">17.3224430084229</t>
@@ -329,28 +329,28 @@
     <t xml:space="preserve">16.1165084838867</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1539039611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2471132278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0508003234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3592948913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6303939819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2660789489746</t>
+    <t xml:space="preserve">16.1539001464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2471141815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0508012771606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3592958450317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6303958892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2660827636719</t>
   </si>
   <si>
     <t xml:space="preserve">15.2751588821411</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7329568862915</t>
+    <t xml:space="preserve">14.7329578399658</t>
   </si>
   <si>
     <t xml:space="preserve">15.172327041626</t>
@@ -359,13 +359,13 @@
     <t xml:space="preserve">14.8077411651611</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9666652679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7051830291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3218994140625</t>
+    <t xml:space="preserve">14.96666431427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7051801681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3219013214111</t>
   </si>
   <si>
     <t xml:space="preserve">14.9105749130249</t>
@@ -374,52 +374,52 @@
     <t xml:space="preserve">14.2748889923096</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5366411209106</t>
+    <t xml:space="preserve">14.536642074585</t>
   </si>
   <si>
     <t xml:space="preserve">14.9386205673218</t>
   </si>
   <si>
-    <t xml:space="preserve">15.695837020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6117000579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7986660003662</t>
+    <t xml:space="preserve">15.6958341598511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6116981506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7986669540405</t>
   </si>
   <si>
     <t xml:space="preserve">15.5462598800659</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6210441589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5930013656616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6771392822266</t>
+    <t xml:space="preserve">15.6210470199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5930042266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6771402359009</t>
   </si>
   <si>
     <t xml:space="preserve">16.4530467987061</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9201936721802</t>
+    <t xml:space="preserve">15.9201917648315</t>
   </si>
   <si>
     <t xml:space="preserve">15.6864852905273</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4343509674072</t>
+    <t xml:space="preserve">16.4343528747559</t>
   </si>
   <si>
     <t xml:space="preserve">16.1352062225342</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3876075744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4904384613037</t>
+    <t xml:space="preserve">16.3876094818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4904403686523</t>
   </si>
   <si>
     <t xml:space="preserve">16.3782634735107</t>
@@ -431,13 +431,13 @@
     <t xml:space="preserve">17.4720153808594</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1354732513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9298114776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9672050476074</t>
+    <t xml:space="preserve">17.13547706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9298133850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9672069549561</t>
   </si>
   <si>
     <t xml:space="preserve">17.9487819671631</t>
@@ -449,43 +449,43 @@
     <t xml:space="preserve">17.3598346710205</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5281066894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6683311462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.406307220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0884647369385</t>
+    <t xml:space="preserve">17.5281047821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6683292388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4063034057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0884609222412</t>
   </si>
   <si>
     <t xml:space="preserve">16.0604209899902</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1258583068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2567329406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.938889503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9669351577759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8640995025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7893161773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9108476638794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3408660888672</t>
+    <t xml:space="preserve">16.1258563995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2567310333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9388885498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9669342041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8641033172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7893142700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9108448028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3408699035645</t>
   </si>
   <si>
     <t xml:space="preserve">17.0232944488525</t>
@@ -494,115 +494,115 @@
     <t xml:space="preserve">16.3689136505127</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8360605239868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8454074859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0043334960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6584405899048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4527778625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.528018951416</t>
+    <t xml:space="preserve">15.8360595703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8454084396362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0043296813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6584396362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4527769088745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5280179977417</t>
   </si>
   <si>
     <t xml:space="preserve">15.6032609939575</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8477964401245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.932445526123</t>
+    <t xml:space="preserve">15.8477983474731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9324445724487</t>
   </si>
   <si>
     <t xml:space="preserve">16.0923328399658</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8195819854736</t>
+    <t xml:space="preserve">15.8195829391479</t>
   </si>
   <si>
     <t xml:space="preserve">15.2646722793579</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6220731735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.716121673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7067193984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3493204116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0641174316406</t>
+    <t xml:space="preserve">15.6220722198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7161235809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7067184448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3493213653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.064115524292</t>
   </si>
   <si>
     <t xml:space="preserve">16.5343780517578</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1299533843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6879091262817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8007717132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5092086791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0829296112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2522239685059</t>
+    <t xml:space="preserve">16.129955291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6879100799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8007688522339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5092077255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0829277038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2522201538086</t>
   </si>
   <si>
     <t xml:space="preserve">16.0359001159668</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7883205413818</t>
+    <t xml:space="preserve">16.7883186340332</t>
   </si>
   <si>
     <t xml:space="preserve">17.3996601104736</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4749031066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3526306152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4372787475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2397689819336</t>
+    <t xml:space="preserve">17.4749011993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3526344299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4372806549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2397708892822</t>
   </si>
   <si>
     <t xml:space="preserve">17.164529800415</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6942691802979</t>
+    <t xml:space="preserve">16.6942653656006</t>
   </si>
   <si>
     <t xml:space="preserve">17.305606842041</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1175022125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3808460235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9639720916748</t>
+    <t xml:space="preserve">17.117504119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3808479309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9639701843262</t>
   </si>
   <si>
     <t xml:space="preserve">18.1238613128662</t>
@@ -614,19 +614,19 @@
     <t xml:space="preserve">18.1050510406494</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6599578857422</t>
+    <t xml:space="preserve">18.6599559783936</t>
   </si>
   <si>
     <t xml:space="preserve">19.1396255493164</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1866493225098</t>
+    <t xml:space="preserve">19.1866512298584</t>
   </si>
   <si>
     <t xml:space="preserve">19.7979888916016</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8732299804688</t>
+    <t xml:space="preserve">19.8732318878174</t>
   </si>
   <si>
     <t xml:space="preserve">19.3559436798096</t>
@@ -635,7 +635,7 @@
     <t xml:space="preserve">19.1490306854248</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7039394378662</t>
+    <t xml:space="preserve">19.7039375305176</t>
   </si>
   <si>
     <t xml:space="preserve">19.5722637176514</t>
@@ -644,28 +644,28 @@
     <t xml:space="preserve">19.421781539917</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3183250427246</t>
+    <t xml:space="preserve">19.3183269500732</t>
   </si>
   <si>
     <t xml:space="preserve">19.0925998687744</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2524871826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1772441864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1678371429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.989143371582</t>
+    <t xml:space="preserve">19.2524852752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.17724609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.167839050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9891414642334</t>
   </si>
   <si>
     <t xml:space="preserve">18.8104419708252</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6317443847656</t>
+    <t xml:space="preserve">18.631742477417</t>
   </si>
   <si>
     <t xml:space="preserve">18.3401794433594</t>
@@ -680,64 +680,64 @@
     <t xml:space="preserve">18.6975784301758</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6035270690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7163867950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5094738006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5564994812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7446060180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8480625152588</t>
+    <t xml:space="preserve">18.6035289764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7163887023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5094757080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5565013885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7446041107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8480606079102</t>
   </si>
   <si>
     <t xml:space="preserve">18.8574676513672</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9609241485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2807006835938</t>
+    <t xml:space="preserve">18.9609279632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.280704498291</t>
   </si>
   <si>
     <t xml:space="preserve">19.6569118499756</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3277263641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.365348815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6098861694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6945343017578</t>
+    <t xml:space="preserve">19.327730178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3653526306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.609884262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6945304870605</t>
   </si>
   <si>
     <t xml:space="preserve">19.1960544586182</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4876155853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7509651184082</t>
+    <t xml:space="preserve">19.4876174926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7509632110596</t>
   </si>
   <si>
     <t xml:space="preserve">19.3371334075928</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4594020843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5910758972168</t>
+    <t xml:space="preserve">19.4594039916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5910778045654</t>
   </si>
   <si>
     <t xml:space="preserve">19.2712993621826</t>
@@ -746,22 +746,22 @@
     <t xml:space="preserve">19.468807220459</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6286964416504</t>
+    <t xml:space="preserve">19.628698348999</t>
   </si>
   <si>
     <t xml:space="preserve">19.525239944458</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1647930145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2588443756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6350536346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8795909881592</t>
+    <t xml:space="preserve">20.164794921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2588481903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6350555419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8795928955078</t>
   </si>
   <si>
     <t xml:space="preserve">21.1147232055664</t>
@@ -770,31 +770,31 @@
     <t xml:space="preserve">21.2275829315186</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2087707519531</t>
+    <t xml:space="preserve">21.2087726593018</t>
   </si>
   <si>
     <t xml:space="preserve">20.3999252319336</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8701858520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6444606781006</t>
+    <t xml:space="preserve">20.8701820373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.644458770752</t>
   </si>
   <si>
     <t xml:space="preserve">20.5033798217773</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8325653076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9078063964844</t>
+    <t xml:space="preserve">20.8325634002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9078044891357</t>
   </si>
   <si>
     <t xml:space="preserve">20.8607807159424</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7573204040527</t>
+    <t xml:space="preserve">20.75732421875</t>
   </si>
   <si>
     <t xml:space="preserve">20.7855377197266</t>
@@ -812,10 +812,10 @@
     <t xml:space="preserve">21.1241245269775</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7102947235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0394821166992</t>
+    <t xml:space="preserve">20.7102966308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0394802093506</t>
   </si>
   <si>
     <t xml:space="preserve">21.9141635894775</t>
@@ -824,16 +824,16 @@
     <t xml:space="preserve">21.7636814117432</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6320095062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.584981918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3968772888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.38747215271</t>
+    <t xml:space="preserve">21.6320056915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5849800109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.396879196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3874740600586</t>
   </si>
   <si>
     <t xml:space="preserve">21.189962387085</t>
@@ -845,19 +845,19 @@
     <t xml:space="preserve">21.3686618804932</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6131992340088</t>
+    <t xml:space="preserve">21.6131973266602</t>
   </si>
   <si>
     <t xml:space="preserve">21.4909286499023</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8983974456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.434497833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2181758880615</t>
+    <t xml:space="preserve">20.8983993530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4345016479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2181777954102</t>
   </si>
   <si>
     <t xml:space="preserve">21.3780651092529</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">21.5097408294678</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6037921905518</t>
+    <t xml:space="preserve">21.6037940979004</t>
   </si>
   <si>
     <t xml:space="preserve">21.5473594665527</t>
@@ -878,46 +878,46 @@
     <t xml:space="preserve">21.199369430542</t>
   </si>
   <si>
-    <t xml:space="preserve">21.443904876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9924545288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5692176818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.653865814209</t>
+    <t xml:space="preserve">21.4439029693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.99245262146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5692195892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6538639068604</t>
   </si>
   <si>
     <t xml:space="preserve">20.6632690429688</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5786190032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8889942169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5315990447998</t>
+    <t xml:space="preserve">20.5786228179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8889961242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5315971374512</t>
   </si>
   <si>
     <t xml:space="preserve">20.2964649200439</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4657611846924</t>
+    <t xml:space="preserve">20.4657592773438</t>
   </si>
   <si>
     <t xml:space="preserve">20.0425262451172</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1553897857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5221920013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.550407409668</t>
+    <t xml:space="preserve">20.155387878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5221900939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5504055023193</t>
   </si>
   <si>
     <t xml:space="preserve">20.804349899292</t>
@@ -926,13 +926,13 @@
     <t xml:space="preserve">20.6914863586426</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2024154663086</t>
+    <t xml:space="preserve">20.20241355896</t>
   </si>
   <si>
     <t xml:space="preserve">20.0801486968994</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1365776062012</t>
+    <t xml:space="preserve">20.1365795135498</t>
   </si>
   <si>
     <t xml:space="preserve">19.9672832489014</t>
@@ -944,13 +944,13 @@
     <t xml:space="preserve">20.3246803283691</t>
   </si>
   <si>
-    <t xml:space="preserve">20.249439239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3623046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9202613830566</t>
+    <t xml:space="preserve">20.2494411468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3623008728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9202556610107</t>
   </si>
   <si>
     <t xml:space="preserve">20.9266185760498</t>
@@ -962,13 +962,13 @@
     <t xml:space="preserve">20.2212257385254</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9766902923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6726760864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3811168670654</t>
+    <t xml:space="preserve">19.9766883850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6726779937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3811149597168</t>
   </si>
   <si>
     <t xml:space="preserve">20.747917175293</t>
@@ -986,46 +986,46 @@
     <t xml:space="preserve">21.1523399353027</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4627113342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9830493927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7291088104248</t>
+    <t xml:space="preserve">21.4627132415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9830474853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7291049957275</t>
   </si>
   <si>
     <t xml:space="preserve">20.5880298614502</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6256504058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1271724700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0895519256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0143127441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2306327819824</t>
+    <t xml:space="preserve">20.6256523132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1271743774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0895538330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0143089294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2306289672852</t>
   </si>
   <si>
     <t xml:space="preserve">20.3434925079346</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7761325836182</t>
+    <t xml:space="preserve">20.7761306762695</t>
   </si>
   <si>
     <t xml:space="preserve">20.2400341033936</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7791767120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4970188140869</t>
+    <t xml:space="preserve">19.7791786193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4970226287842</t>
   </si>
   <si>
     <t xml:space="preserve">19.01735496521</t>
@@ -1034,13 +1034,13 @@
     <t xml:space="preserve">19.073787689209</t>
   </si>
   <si>
-    <t xml:space="preserve">18.866870880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2336750030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9138984680176</t>
+    <t xml:space="preserve">18.8668727874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.233678817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9139003753662</t>
   </si>
   <si>
     <t xml:space="preserve">18.7916297912598</t>
@@ -1049,55 +1049,55 @@
     <t xml:space="preserve">18.8950881958008</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6693649291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0455722808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.374755859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.214771270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1864185333252</t>
+    <t xml:space="preserve">18.6693668365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0455741882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3747539520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2147750854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1864204406738</t>
   </si>
   <si>
     <t xml:space="preserve">18.7611045837402</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5342693328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1278591156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0711479187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8632164001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8915691375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1656627655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1184062957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1940174102783</t>
+    <t xml:space="preserve">18.5342712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.127857208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0711498260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8632183074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8915710449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1656646728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.118408203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.194019317627</t>
   </si>
   <si>
     <t xml:space="preserve">18.4964637756348</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6949462890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8178119659424</t>
+    <t xml:space="preserve">18.6949443817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8178100585938</t>
   </si>
   <si>
     <t xml:space="preserve">18.6382350921631</t>
@@ -1109,16 +1109,16 @@
     <t xml:space="preserve">18.7232971191406</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5909767150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4492092132568</t>
+    <t xml:space="preserve">18.5909805297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4492073059082</t>
   </si>
   <si>
     <t xml:space="preserve">18.9028739929199</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0068416595459</t>
+    <t xml:space="preserve">19.0068397521973</t>
   </si>
   <si>
     <t xml:space="preserve">18.9312305450439</t>
@@ -1136,7 +1136,7 @@
     <t xml:space="preserve">18.6098823547363</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6760406494141</t>
+    <t xml:space="preserve">18.6760444641113</t>
   </si>
   <si>
     <t xml:space="preserve">18.713846206665</t>
@@ -1145,55 +1145,55 @@
     <t xml:space="preserve">18.7043972015381</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8934230804443</t>
+    <t xml:space="preserve">18.893424987793</t>
   </si>
   <si>
     <t xml:space="preserve">18.9406833648682</t>
   </si>
   <si>
-    <t xml:space="preserve">18.827262878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6193294525146</t>
+    <t xml:space="preserve">18.8272666931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6193332672119</t>
   </si>
   <si>
     <t xml:space="preserve">18.7327499389648</t>
   </si>
   <si>
-    <t xml:space="preserve">19.13916015625</t>
+    <t xml:space="preserve">19.1391620635986</t>
   </si>
   <si>
     <t xml:space="preserve">19.4227046966553</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7062473297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9897899627686</t>
+    <t xml:space="preserve">19.7062511444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9897880554199</t>
   </si>
   <si>
     <t xml:space="preserve">20.7931632995605</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5492763519287</t>
+    <t xml:space="preserve">21.5492782592773</t>
   </si>
   <si>
     <t xml:space="preserve">21.832820892334</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7855644226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6437911987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8800792694092</t>
+    <t xml:space="preserve">21.7855625152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6437950134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8800773620605</t>
   </si>
   <si>
     <t xml:space="preserve">21.7383060455322</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0218505859375</t>
+    <t xml:space="preserve">22.0218486785889</t>
   </si>
   <si>
     <t xml:space="preserve">22.0691070556641</t>
@@ -1205,34 +1205,34 @@
     <t xml:space="preserve">20.6986484527588</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3129901885986</t>
+    <t xml:space="preserve">21.3129920959473</t>
   </si>
   <si>
     <t xml:space="preserve">20.8876781463623</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0294494628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9821910858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3602485656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4547653198242</t>
+    <t xml:space="preserve">21.0294513702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9821929931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3602504730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4547672271729</t>
   </si>
   <si>
     <t xml:space="preserve">21.407506942749</t>
   </si>
   <si>
-    <t xml:space="preserve">21.123966217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9349346160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9745922088623</t>
+    <t xml:space="preserve">21.1239624023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9349327087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9745941162109</t>
   </si>
   <si>
     <t xml:space="preserve">22.494421005249</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">22.1636238098145</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3526515960693</t>
+    <t xml:space="preserve">22.3526496887207</t>
   </si>
   <si>
     <t xml:space="preserve">22.2581329345703</t>
@@ -1250,13 +1250,13 @@
     <t xml:space="preserve">21.0767078399658</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5020198822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5568771362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4623584747314</t>
+    <t xml:space="preserve">21.5020236968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5568790435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4623622894287</t>
   </si>
   <si>
     <t xml:space="preserve">21.1712188720703</t>
@@ -1265,7 +1265,7 @@
     <t xml:space="preserve">20.8404216766357</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2184772491455</t>
+    <t xml:space="preserve">21.2184810638428</t>
   </si>
   <si>
     <t xml:space="preserve">21.5965366363525</t>
@@ -1274,67 +1274,67 @@
     <t xml:space="preserve">20.6513919830322</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7459049224854</t>
+    <t xml:space="preserve">20.745906829834</t>
   </si>
   <si>
     <t xml:space="preserve">20.3678493499756</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2809314727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3754463195801</t>
+    <t xml:space="preserve">19.280933380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3754482269287</t>
   </si>
   <si>
     <t xml:space="preserve">19.5644779205322</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0370483398438</t>
+    <t xml:space="preserve">20.0370464324951</t>
   </si>
   <si>
     <t xml:space="preserve">19.8480186462402</t>
   </si>
   <si>
-    <t xml:space="preserve">20.604133605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5096225738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2260761260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4151039123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2733345031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1315593719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1788196563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6589889526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8007621765137</t>
+    <t xml:space="preserve">20.6041355133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5096206665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.22607421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4151058197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2733364105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1315631866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1788177490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.658992767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8007640838623</t>
   </si>
   <si>
     <t xml:space="preserve">19.7535057067871</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8952751159668</t>
+    <t xml:space="preserve">19.8952770233154</t>
   </si>
   <si>
     <t xml:space="preserve">19.9425354003906</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5172176361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4699611663818</t>
+    <t xml:space="preserve">19.517219543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4699649810791</t>
   </si>
   <si>
     <t xml:space="preserve">19.6117343902588</t>
@@ -1343,61 +1343,61 @@
     <t xml:space="preserve">20.0843048095703</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6910514831543</t>
+    <t xml:space="preserve">21.6910533905029</t>
   </si>
   <si>
     <t xml:space="preserve">20.320592880249</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9388294219971</t>
+    <t xml:space="preserve">17.9388275146484</t>
   </si>
   <si>
     <t xml:space="preserve">15.500358581543</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8973188400269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9521751403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6497297286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9899816513062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5948715209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8217086791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1997623443604</t>
+    <t xml:space="preserve">15.8973169326782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9521741867065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6497278213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9899806976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5948724746704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8217058181763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.199764251709</t>
   </si>
   <si>
     <t xml:space="preserve">15.7271909713745</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5192604064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6515798568726</t>
+    <t xml:space="preserve">15.5192623138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6515817642212</t>
   </si>
   <si>
     <t xml:space="preserve">16.0674457550049</t>
   </si>
   <si>
-    <t xml:space="preserve">15.99183177948</t>
+    <t xml:space="preserve">15.9918336868286</t>
   </si>
   <si>
     <t xml:space="preserve">15.8595132827759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7839021682739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5759687423706</t>
+    <t xml:space="preserve">15.7839040756226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5759696960449</t>
   </si>
   <si>
     <t xml:space="preserve">15.1979122161865</t>
@@ -1409,13 +1409,13 @@
     <t xml:space="preserve">14.760425567627</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5892353057861</t>
+    <t xml:space="preserve">14.5892362594604</t>
   </si>
   <si>
     <t xml:space="preserve">14.6272783279419</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1028060913086</t>
+    <t xml:space="preserve">15.1028070449829</t>
   </si>
   <si>
     <t xml:space="preserve">15.1218280792236</t>
@@ -1424,10 +1424,10 @@
     <t xml:space="preserve">14.8365106582642</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3310613632202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6353988647461</t>
+    <t xml:space="preserve">15.3310623168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6353998184204</t>
   </si>
   <si>
     <t xml:space="preserve">15.4642086029053</t>
@@ -1445,28 +1445,28 @@
     <t xml:space="preserve">13.9044733047485</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5131511688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3419589996338</t>
+    <t xml:space="preserve">14.5131521224976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3419599533081</t>
   </si>
   <si>
     <t xml:space="preserve">14.3229398727417</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3990240097046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1327266693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8093671798706</t>
+    <t xml:space="preserve">14.3990230560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1327276229858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8093681335449</t>
   </si>
   <si>
     <t xml:space="preserve">13.7903461456299</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9615354537964</t>
+    <t xml:space="preserve">13.9615364074707</t>
   </si>
   <si>
     <t xml:space="preserve">14.2278327941895</t>
@@ -1475,10 +1475,10 @@
     <t xml:space="preserve">14.3800020217896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7033624649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9316158294678</t>
+    <t xml:space="preserve">14.7033615112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9316167831421</t>
   </si>
   <si>
     <t xml:space="preserve">15.4071455001831</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">15.2169332504272</t>
   </si>
   <si>
-    <t xml:space="preserve">15.254976272583</t>
+    <t xml:space="preserve">15.2549753189087</t>
   </si>
   <si>
     <t xml:space="preserve">15.0837850570679</t>
@@ -1502,10 +1502,10 @@
     <t xml:space="preserve">15.3500814437866</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3881244659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.730507850647</t>
+    <t xml:space="preserve">15.3881235122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7305068969727</t>
   </si>
   <si>
     <t xml:space="preserve">16.1679916381836</t>
@@ -1517,28 +1517,28 @@
     <t xml:space="preserve">17.1000289916992</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1190490722656</t>
+    <t xml:space="preserve">17.1190509796143</t>
   </si>
   <si>
     <t xml:space="preserve">16.7005844116211</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6245002746582</t>
+    <t xml:space="preserve">16.6244983673096</t>
   </si>
   <si>
     <t xml:space="preserve">16.4723300933838</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5674381256104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1870136260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0728855133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0158252716064</t>
+    <t xml:space="preserve">16.5674362182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.18701171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0728874206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0158233642578</t>
   </si>
   <si>
     <t xml:space="preserve">16.339183807373</t>
@@ -1547,52 +1547,52 @@
     <t xml:space="preserve">16.3582038879395</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4533100128174</t>
+    <t xml:space="preserve">16.4533081054688</t>
   </si>
   <si>
     <t xml:space="preserve">16.8337345123291</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7196044921875</t>
+    <t xml:space="preserve">16.7196063995361</t>
   </si>
   <si>
     <t xml:space="preserve">16.4913539886475</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6435203552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.662540435791</t>
+    <t xml:space="preserve">16.6435222625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6625423431396</t>
   </si>
   <si>
     <t xml:space="preserve">16.4342880249023</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8147106170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9288387298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6815643310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5293941497803</t>
+    <t xml:space="preserve">16.8147144317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9288368225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6815662384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5293922424316</t>
   </si>
   <si>
     <t xml:space="preserve">16.0538635253906</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1489715576172</t>
+    <t xml:space="preserve">16.1489696502686</t>
   </si>
   <si>
     <t xml:space="preserve">16.1299495697021</t>
   </si>
   <si>
-    <t xml:space="preserve">16.320161819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.206033706665</t>
+    <t xml:space="preserve">16.3201599121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2060356140137</t>
   </si>
   <si>
     <t xml:space="preserve">16.5484142303467</t>
@@ -1601,10 +1601,10 @@
     <t xml:space="preserve">16.6054782867432</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7386283874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9859027862549</t>
+    <t xml:space="preserve">16.7386264801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9859008789062</t>
   </si>
   <si>
     <t xml:space="preserve">17.1570930480957</t>
@@ -1616,16 +1616,16 @@
     <t xml:space="preserve">18.5075950622559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4885749816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4695529937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3364028930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7467498779297</t>
+    <t xml:space="preserve">18.4885768890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.469554901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3364067077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7467460632324</t>
   </si>
   <si>
     <t xml:space="preserve">17.3473033905029</t>
@@ -1640,19 +1640,19 @@
     <t xml:space="preserve">16.9478588104248</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8527526855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1761150360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0429668426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2712173461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.366325378418</t>
+    <t xml:space="preserve">16.8527545928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1761131286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0429649353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.27121925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3663272857666</t>
   </si>
   <si>
     <t xml:space="preserve">17.4424114227295</t>
@@ -1664,10 +1664,10 @@
     <t xml:space="preserve">16.4152679443359</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6924610137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7114849090576</t>
+    <t xml:space="preserve">15.6924629211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7114858627319</t>
   </si>
   <si>
     <t xml:space="preserve">15.6544208526611</t>
@@ -1676,22 +1676,22 @@
     <t xml:space="preserve">15.3691034317017</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8745517730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9886808395386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2739963531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9506378173828</t>
+    <t xml:space="preserve">14.8745527267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9886798858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2739953994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9506368637085</t>
   </si>
   <si>
     <t xml:space="preserve">15.1598701477051</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0267210006714</t>
+    <t xml:space="preserve">15.02672290802</t>
   </si>
   <si>
     <t xml:space="preserve">14.6843404769897</t>
@@ -1709,25 +1709,25 @@
     <t xml:space="preserve">14.7414045333862</t>
   </si>
   <si>
-    <t xml:space="preserve">14.646297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8174886703491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7685480117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5973567962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5783357620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8636531829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4261665344238</t>
+    <t xml:space="preserve">14.6462984085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8174896240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7685470581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5973558425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5783348083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8636522293091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4261646270752</t>
   </si>
   <si>
     <t xml:space="preserve">15.7875680923462</t>
@@ -1739,19 +1739,19 @@
     <t xml:space="preserve">15.5212726593018</t>
   </si>
   <si>
-    <t xml:space="preserve">15.235954284668</t>
+    <t xml:space="preserve">15.2359552383423</t>
   </si>
   <si>
     <t xml:space="preserve">15.0647640228271</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7223815917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9696588516235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7984676361084</t>
+    <t xml:space="preserve">14.7223825454712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9696578979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7984685897827</t>
   </si>
   <si>
     <t xml:space="preserve">14.4751081466675</t>
@@ -1760,13 +1760,13 @@
     <t xml:space="preserve">14.4560861587524</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2658739089966</t>
+    <t xml:space="preserve">14.2658748626709</t>
   </si>
   <si>
     <t xml:space="preserve">14.0756645202637</t>
   </si>
   <si>
-    <t xml:space="preserve">13.94251537323</t>
+    <t xml:space="preserve">13.9425144195557</t>
   </si>
   <si>
     <t xml:space="preserve">14.6082563400269</t>
@@ -1784,88 +1784,88 @@
     <t xml:space="preserve">14.2088117599487</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1137056350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4180431365967</t>
+    <t xml:space="preserve">14.1137065887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.418044090271</t>
   </si>
   <si>
     <t xml:space="preserve">14.189790725708</t>
   </si>
   <si>
-    <t xml:space="preserve">14.779447555542</t>
+    <t xml:space="preserve">14.7794456481934</t>
   </si>
   <si>
     <t xml:space="preserve">14.1707696914673</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5593137741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3609819412231</t>
+    <t xml:space="preserve">15.5593147277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3609809875488</t>
   </si>
   <si>
     <t xml:space="preserve">14.2848968505859</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6653203964233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1788902282715</t>
+    <t xml:space="preserve">14.665319442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1788911819458</t>
   </si>
   <si>
     <t xml:space="preserve">15.483229637146</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2640390396118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2448387145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0912389755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9952373504639</t>
+    <t xml:space="preserve">15.2640380859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2448396682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0912380218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9952383041382</t>
   </si>
   <si>
     <t xml:space="preserve">15.0720386505127</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5712394714355</t>
+    <t xml:space="preserve">15.5712385177612</t>
   </si>
   <si>
     <t xml:space="preserve">15.8784418106079</t>
   </si>
   <si>
-    <t xml:space="preserve">16.665641784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5312404632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8976392745972</t>
+    <t xml:space="preserve">16.6656436920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5312423706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8976411819458</t>
   </si>
   <si>
     <t xml:space="preserve">15.8592414855957</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7248401641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7440404891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6480388641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9552431106567</t>
+    <t xml:space="preserve">15.7248392105103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7440395355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6480407714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9552421569824</t>
   </si>
   <si>
     <t xml:space="preserve">15.9936399459839</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3776416778564</t>
+    <t xml:space="preserve">16.3776435852051</t>
   </si>
   <si>
     <t xml:space="preserve">15.9168405532837</t>
@@ -1874,13 +1874,13 @@
     <t xml:space="preserve">15.8016405105591</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8400392532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2432403564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.185640335083</t>
+    <t xml:space="preserve">15.8400421142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2432422637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1856422424316</t>
   </si>
   <si>
     <t xml:space="preserve">15.6096391677856</t>
@@ -1898,40 +1898,40 @@
     <t xml:space="preserve">15.7824401855469</t>
   </si>
   <si>
-    <t xml:space="preserve">15.436840057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3024387359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1680374145508</t>
+    <t xml:space="preserve">15.4368391036987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3024396896362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1680393218994</t>
   </si>
   <si>
     <t xml:space="preserve">15.3984403610229</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9376382827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1296396255493</t>
+    <t xml:space="preserve">14.9376392364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.129638671875</t>
   </si>
   <si>
     <t xml:space="preserve">14.6880378723145</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2080373764038</t>
+    <t xml:space="preserve">14.2080364227295</t>
   </si>
   <si>
     <t xml:space="preserve">14.1120357513428</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4000358581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7840366363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9760389328003</t>
+    <t xml:space="preserve">14.4000368118286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7840375900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.976037979126</t>
   </si>
   <si>
     <t xml:space="preserve">14.764838218689</t>
@@ -1943,7 +1943,7 @@
     <t xml:space="preserve">14.6112375259399</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8032379150391</t>
+    <t xml:space="preserve">14.8032369613647</t>
   </si>
   <si>
     <t xml:space="preserve">14.5152368545532</t>
@@ -1952,46 +1952,46 @@
     <t xml:space="preserve">14.4576377868652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2272367477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.862434387207</t>
+    <t xml:space="preserve">14.2272357940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8624353408813</t>
   </si>
   <si>
     <t xml:space="preserve">13.3056344985962</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1712322235107</t>
+    <t xml:space="preserve">13.1712341308594</t>
   </si>
   <si>
     <t xml:space="preserve">13.5360355377197</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2480335235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9600324630737</t>
+    <t xml:space="preserve">13.2480344772339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.960033416748</t>
   </si>
   <si>
     <t xml:space="preserve">12.5760316848755</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3264312744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0960311889648</t>
+    <t xml:space="preserve">12.3264322280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0960321426392</t>
   </si>
   <si>
     <t xml:space="preserve">11.6160306930542</t>
   </si>
   <si>
-    <t xml:space="preserve">11.174427986145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2528266906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0800266265869</t>
+    <t xml:space="preserve">11.1744289398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2528257369995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0800256729126</t>
   </si>
   <si>
     <t xml:space="preserve">9.71522426605225</t>
@@ -2003,7 +2003,7 @@
     <t xml:space="preserve">9.53282451629639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19842052459717</t>
+    <t xml:space="preserve">8.19842147827148</t>
   </si>
   <si>
     <t xml:space="preserve">8.65922260284424</t>
@@ -2012,13 +2012,13 @@
     <t xml:space="preserve">9.21602344512939</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2912263870239</t>
+    <t xml:space="preserve">10.2912254333496</t>
   </si>
   <si>
     <t xml:space="preserve">10.8864278793335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.076831817627</t>
+    <t xml:space="preserve">12.0768299102783</t>
   </si>
   <si>
     <t xml:space="preserve">13.0560340881348</t>
@@ -2036,34 +2036,34 @@
     <t xml:space="preserve">10.7712278366089</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1952257156372</t>
+    <t xml:space="preserve">10.1952266693115</t>
   </si>
   <si>
     <t xml:space="preserve">10.4640264511108</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7520265579224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8672275543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2512283325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0400276184082</t>
+    <t xml:space="preserve">10.7520275115967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.867226600647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2512292861938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0400285720825</t>
   </si>
   <si>
     <t xml:space="preserve">10.7136268615723</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3296251296997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0032262802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3488264083862</t>
+    <t xml:space="preserve">10.3296270370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0032253265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3488254547119</t>
   </si>
   <si>
     <t xml:space="preserve">10.6368265151978</t>
@@ -2072,10 +2072,10 @@
     <t xml:space="preserve">10.5600271224976</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9056272506714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8480291366577</t>
+    <t xml:space="preserve">10.9056282043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8480281829834</t>
   </si>
   <si>
     <t xml:space="preserve">10.8288269042969</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">10.9440269470215</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9632272720337</t>
+    <t xml:space="preserve">10.9632291793823</t>
   </si>
   <si>
     <t xml:space="preserve">10.6752281188965</t>
@@ -2096,7 +2096,7 @@
     <t xml:space="preserve">11.0784282684326</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6352291107178</t>
+    <t xml:space="preserve">11.6352300643921</t>
   </si>
   <si>
     <t xml:space="preserve">11.7120294570923</t>
@@ -2105,25 +2105,25 @@
     <t xml:space="preserve">11.1936283111572</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5584287643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.65442943573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9424295425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1536302566528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4416313171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3648319244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2496318817139</t>
+    <t xml:space="preserve">11.5584297180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6544303894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9424304962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1536312103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.441632270813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3648309707642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2496309280396</t>
   </si>
   <si>
     <t xml:space="preserve">12.0000305175781</t>
@@ -2132,16 +2132,16 @@
     <t xml:space="preserve">11.3664293289185</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1552286148071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.328028678894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2320289611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0208282470703</t>
+    <t xml:space="preserve">11.1552276611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3280296325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2320280075073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.020827293396</t>
   </si>
   <si>
     <t xml:space="preserve">10.9248275756836</t>
@@ -2150,16 +2150,16 @@
     <t xml:space="preserve">10.809627532959</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5408267974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5792274475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7904262542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3472280502319</t>
+    <t xml:space="preserve">10.540825843811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5792264938354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7904281616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3472290039062</t>
   </si>
   <si>
     <t xml:space="preserve">11.4816293716431</t>
@@ -2174,46 +2174,46 @@
     <t xml:space="preserve">11.1168279647827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7328271865845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5024261474609</t>
+    <t xml:space="preserve">10.7328281402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5024271011353</t>
   </si>
   <si>
     <t xml:space="preserve">10.5984268188477</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7888298034668</t>
+    <t xml:space="preserve">11.7888288497925</t>
   </si>
   <si>
     <t xml:space="preserve">11.5776300430298</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8272294998169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6736288070679</t>
+    <t xml:space="preserve">11.8272304534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6736297607422</t>
   </si>
   <si>
     <t xml:space="preserve">11.7696304321289</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6928310394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8080291748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8848304748535</t>
+    <t xml:space="preserve">11.6928300857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8080310821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8848314285278</t>
   </si>
   <si>
     <t xml:space="preserve">12.3840322494507</t>
   </si>
   <si>
-    <t xml:space="preserve">12.288031578064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2688302993774</t>
+    <t xml:space="preserve">12.2880306243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2688312530518</t>
   </si>
   <si>
     <t xml:space="preserve">12.1152305603027</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">11.9616298675537</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9040307998657</t>
+    <t xml:space="preserve">11.9040298461914</t>
   </si>
   <si>
     <t xml:space="preserve">11.3856287002563</t>
@@ -2234,7 +2234,7 @@
     <t xml:space="preserve">12.806432723999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8240346908569</t>
+    <t xml:space="preserve">13.8240356445312</t>
   </si>
   <si>
     <t xml:space="preserve">13.5552339553833</t>
@@ -2249,10 +2249,10 @@
     <t xml:space="preserve">13.4016342163086</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5936346054077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6320333480835</t>
+    <t xml:space="preserve">13.593635559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6320352554321</t>
   </si>
   <si>
     <t xml:space="preserve">13.2672338485718</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">14.3040361404419</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9008359909058</t>
+    <t xml:space="preserve">13.9008350372314</t>
   </si>
   <si>
     <t xml:space="preserve">13.5744352340698</t>
@@ -2273,25 +2273,25 @@
     <t xml:space="preserve">13.286434173584</t>
   </si>
   <si>
-    <t xml:space="preserve">13.65123462677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3440322875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.172830581665</t>
+    <t xml:space="preserve">13.6512355804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3440341949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1728315353394</t>
   </si>
   <si>
     <t xml:space="preserve">12.2112321853638</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4800310134888</t>
+    <t xml:space="preserve">12.4800319671631</t>
   </si>
   <si>
     <t xml:space="preserve">12.5952320098877</t>
   </si>
   <si>
-    <t xml:space="preserve">13.017632484436</t>
+    <t xml:space="preserve">13.0176343917847</t>
   </si>
   <si>
     <t xml:space="preserve">12.9792337417603</t>
@@ -2300,13 +2300,13 @@
     <t xml:space="preserve">13.2096338272095</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4784336090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6128358840942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7280359268188</t>
+    <t xml:space="preserve">13.4784345626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6128349304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7280349731445</t>
   </si>
   <si>
     <t xml:space="preserve">13.7879419326782</t>
@@ -2318,10 +2318,10 @@
     <t xml:space="preserve">13.5746269226074</t>
   </si>
   <si>
-    <t xml:space="preserve">13.613410949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4776639938354</t>
+    <t xml:space="preserve">13.6134119033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4776649475098</t>
   </si>
   <si>
     <t xml:space="preserve">13.6715888977051</t>
@@ -2330,10 +2330,10 @@
     <t xml:space="preserve">14.0206499099731</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0594348907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9236888885498</t>
+    <t xml:space="preserve">14.0594339370728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9236879348755</t>
   </si>
   <si>
     <t xml:space="preserve">14.3503198623657</t>
@@ -2357,7 +2357,7 @@
     <t xml:space="preserve">13.9430809020996</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7685489654541</t>
+    <t xml:space="preserve">13.7685499191284</t>
   </si>
   <si>
     <t xml:space="preserve">13.710373878479</t>
@@ -2366,7 +2366,7 @@
     <t xml:space="preserve">13.9624729156494</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8849039077759</t>
+    <t xml:space="preserve">13.8849029541016</t>
   </si>
   <si>
     <t xml:space="preserve">14.0400419235229</t>
@@ -2375,19 +2375,19 @@
     <t xml:space="preserve">14.3115348815918</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5248498916626</t>
+    <t xml:space="preserve">14.5248508453369</t>
   </si>
   <si>
     <t xml:space="preserve">14.8933048248291</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8157358169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1841897964478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.222972869873</t>
+    <t xml:space="preserve">14.8157348632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1841888427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2229738235474</t>
   </si>
   <si>
     <t xml:space="preserve">16.6967906951904</t>
@@ -2396,25 +2396,25 @@
     <t xml:space="preserve">16.5416507720947</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3865146636963</t>
+    <t xml:space="preserve">16.3865127563477</t>
   </si>
   <si>
     <t xml:space="preserve">16.0180606842041</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1538047790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9986658096313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8047428131104</t>
+    <t xml:space="preserve">16.1538066864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9986667633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8047437667847</t>
   </si>
   <si>
     <t xml:space="preserve">15.513858795166</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9404916763306</t>
+    <t xml:space="preserve">15.9404907226562</t>
   </si>
   <si>
     <t xml:space="preserve">15.5332517623901</t>
@@ -2441,7 +2441,7 @@
     <t xml:space="preserve">16.8907146453857</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8519287109375</t>
+    <t xml:space="preserve">16.8519268035889</t>
   </si>
   <si>
     <t xml:space="preserve">16.9294967651367</t>
@@ -2465,16 +2465,16 @@
     <t xml:space="preserve">16.6580066680908</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6386127471924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1234226226807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8713226318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1622066497803</t>
+    <t xml:space="preserve">16.638614654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.123420715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8713207244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1622085571289</t>
   </si>
   <si>
     <t xml:space="preserve">17.1428146362305</t>
@@ -2483,13 +2483,13 @@
     <t xml:space="preserve">17.0652446746826</t>
   </si>
   <si>
-    <t xml:space="preserve">18.189998626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3063545227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5390605926514</t>
+    <t xml:space="preserve">18.1900005340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3063526153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5390625</t>
   </si>
   <si>
     <t xml:space="preserve">19.8771305084229</t>
@@ -2501,10 +2501,10 @@
     <t xml:space="preserve">20.5558643341064</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0225734710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9921913146973</t>
+    <t xml:space="preserve">20.022575378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9921894073486</t>
   </si>
   <si>
     <t xml:space="preserve">20.7497863769531</t>
@@ -2516,22 +2516,22 @@
     <t xml:space="preserve">20.2164974212646</t>
   </si>
   <si>
-    <t xml:space="preserve">20.119535446167</t>
+    <t xml:space="preserve">20.1195335388184</t>
   </si>
   <si>
     <t xml:space="preserve">20.2649784088135</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6528244018555</t>
+    <t xml:space="preserve">20.6528224945068</t>
   </si>
   <si>
     <t xml:space="preserve">20.798267364502</t>
   </si>
   <si>
-    <t xml:space="preserve">20.895227432251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2345924377441</t>
+    <t xml:space="preserve">20.8952293395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2345943450928</t>
   </si>
   <si>
     <t xml:space="preserve">21.1376323699951</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">19.9740924835205</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7316913604736</t>
+    <t xml:space="preserve">19.731689453125</t>
   </si>
   <si>
     <t xml:space="preserve">19.5862483978271</t>
@@ -2561,7 +2561,7 @@
     <t xml:space="preserve">20.0710563659668</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3923244476318</t>
+    <t xml:space="preserve">19.3923225402832</t>
   </si>
   <si>
     <t xml:space="preserve">20.5073833465576</t>
@@ -2579,13 +2579,13 @@
     <t xml:space="preserve">21.9618053436279</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5739593505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0587673187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0102882385254</t>
+    <t xml:space="preserve">21.5739612579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0587692260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0102863311768</t>
   </si>
   <si>
     <t xml:space="preserve">22.1072483062744</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">21.6224403381348</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7194004058838</t>
+    <t xml:space="preserve">21.7194023132324</t>
   </si>
   <si>
     <t xml:space="preserve">22.5920562744141</t>
@@ -2618,10 +2618,10 @@
     <t xml:space="preserve">23.6101551055908</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9314212799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6890201568604</t>
+    <t xml:space="preserve">22.9314231872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6890182495117</t>
   </si>
   <si>
     <t xml:space="preserve">22.3011722564697</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">21.9133262634277</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6709232330322</t>
+    <t xml:space="preserve">21.6709213256836</t>
   </si>
   <si>
     <t xml:space="preserve">21.0891532897949</t>
@@ -2648,13 +2648,13 @@
     <t xml:space="preserve">24.240406036377</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7555961608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7071170806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.464714050293</t>
+    <t xml:space="preserve">23.7555980682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7071151733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4647121429443</t>
   </si>
   <si>
     <t xml:space="preserve">23.5616722106934</t>
@@ -2666,7 +2666,7 @@
     <t xml:space="preserve">23.5131931304932</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0464820861816</t>
+    <t xml:space="preserve">24.046480178833</t>
   </si>
   <si>
     <t xml:space="preserve">23.9010391235352</t>
@@ -2675,7 +2675,7 @@
     <t xml:space="preserve">23.3677501678467</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0949611663818</t>
+    <t xml:space="preserve">24.0949630737305</t>
   </si>
   <si>
     <t xml:space="preserve">23.9980010986328</t>
@@ -2693,10 +2693,10 @@
     <t xml:space="preserve">23.1253471374512</t>
   </si>
   <si>
-    <t xml:space="preserve">22.882942199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5435752868652</t>
+    <t xml:space="preserve">22.8829441070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5435771942139</t>
   </si>
   <si>
     <t xml:space="preserve">21.8648452758789</t>
@@ -2711,7 +2711,7 @@
     <t xml:space="preserve">24.5312881469727</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1919231414795</t>
+    <t xml:space="preserve">24.1919250488281</t>
   </si>
   <si>
     <t xml:space="preserve">24.7736930847168</t>
@@ -2723,22 +2723,22 @@
     <t xml:space="preserve">24.1434421539307</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7917900085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0826759338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4705200195312</t>
+    <t xml:space="preserve">25.7917919158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0826740264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4705219268799</t>
   </si>
   <si>
     <t xml:space="preserve">26.1796360015869</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1311569213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2765979766846</t>
+    <t xml:space="preserve">26.1311588287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2765998840332</t>
   </si>
   <si>
     <t xml:space="preserve">25.9857139587402</t>
@@ -2747,10 +2747,10 @@
     <t xml:space="preserve">26.809886932373</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9068508148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8279838562012</t>
+    <t xml:space="preserve">26.9068489074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8279857635498</t>
   </si>
   <si>
     <t xml:space="preserve">27.7310237884521</t>
@@ -2771,10 +2771,10 @@
     <t xml:space="preserve">28.652156829834</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1188697814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9734287261963</t>
+    <t xml:space="preserve">28.1188678741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9734268188477</t>
   </si>
   <si>
     <t xml:space="preserve">28.0703887939453</t>
@@ -2783,13 +2783,13 @@
     <t xml:space="preserve">27.87646484375</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5855827331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2946949005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4886169433594</t>
+    <t xml:space="preserve">27.5855808258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2946968078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.488618850708</t>
   </si>
   <si>
     <t xml:space="preserve">27.3916568756104</t>
@@ -3978,6 +3978,9 @@
   </si>
   <si>
     <t xml:space="preserve">33.0499992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1500015258789</t>
   </si>
 </sst>
 </file>
@@ -61181,7 +61184,7 @@
     </row>
     <row r="2188">
       <c r="A2188" s="1" t="n">
-        <v>45509.6493402778</v>
+        <v>45509.2916666667</v>
       </c>
       <c r="B2188" t="n">
         <v>75735</v>
@@ -61202,6 +61205,58 @@
         <v>1321</v>
       </c>
       <c r="H2188" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" s="1" t="n">
+        <v>45510.2916666667</v>
+      </c>
+      <c r="B2189" t="n">
+        <v>26610</v>
+      </c>
+      <c r="C2189" t="n">
+        <v>34.0499992370605</v>
+      </c>
+      <c r="D2189" t="n">
+        <v>32.5999984741211</v>
+      </c>
+      <c r="E2189" t="n">
+        <v>33.3499984741211</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>33.1500015258789</v>
+      </c>
+      <c r="G2189" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H2189" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" s="1" t="n">
+        <v>45511.6495717593</v>
+      </c>
+      <c r="B2190" t="n">
+        <v>26080</v>
+      </c>
+      <c r="C2190" t="n">
+        <v>34.0499992370605</v>
+      </c>
+      <c r="D2190" t="n">
+        <v>33.3499984741211</v>
+      </c>
+      <c r="E2190" t="n">
+        <v>33.3499984741211</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>33.75</v>
+      </c>
+      <c r="G2190" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H2190" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAN.MI.xlsx
+++ b/data/DAN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="1324">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8921527862549</t>
+    <t xml:space="preserve">15.8921480178833</t>
   </si>
   <si>
     <t xml:space="preserve">DAN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0230236053467</t>
+    <t xml:space="preserve">16.023021697998</t>
   </si>
   <si>
     <t xml:space="preserve">15.518217086792</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8170928955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4899015426636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2094497680664</t>
+    <t xml:space="preserve">14.8170919418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4898996353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2094507217407</t>
   </si>
   <si>
     <t xml:space="preserve">14.5646867752075</t>
@@ -68,19 +68,19 @@
     <t xml:space="preserve">14.1346635818481</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3587532043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0409107208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1343946456909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5267534255981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1998310089111</t>
+    <t xml:space="preserve">13.35875415802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0409097671509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1343927383423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5267515182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1998319625854</t>
   </si>
   <si>
     <t xml:space="preserve">13.3867979049683</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">16.2006416320801</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3595600128174</t>
+    <t xml:space="preserve">16.3595676422119</t>
   </si>
   <si>
     <t xml:space="preserve">16.6400146484375</t>
@@ -98,46 +98,46 @@
     <t xml:space="preserve">16.3969593048096</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6774082183838</t>
+    <t xml:space="preserve">16.6774063110352</t>
   </si>
   <si>
     <t xml:space="preserve">17.4439697265625</t>
   </si>
   <si>
-    <t xml:space="preserve">16.920467376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7706212997437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4156551361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6023511886597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2284202575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2377653121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490907669067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3966856002808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2938575744629</t>
+    <t xml:space="preserve">16.9204635620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.770622253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4156532287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.602352142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2284183502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2377672195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490917205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3966865539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2938556671143</t>
   </si>
   <si>
     <t xml:space="preserve">16.2193412780762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5465316772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.088737487793</t>
+    <t xml:space="preserve">16.5465297698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0887317657471</t>
   </si>
   <si>
     <t xml:space="preserve">17.2476577758789</t>
@@ -146,34 +146,34 @@
     <t xml:space="preserve">17.3878803253174</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2943992614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0326404571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6680603027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6587085723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1541709899902</t>
+    <t xml:space="preserve">17.2943954467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.032642364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.668062210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6587104797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1541748046875</t>
   </si>
   <si>
     <t xml:space="preserve">16.957857131958</t>
   </si>
   <si>
-    <t xml:space="preserve">17.509407043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6402893066406</t>
+    <t xml:space="preserve">17.5094108581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6402854919434</t>
   </si>
   <si>
     <t xml:space="preserve">17.7057228088379</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7711620330811</t>
+    <t xml:space="preserve">17.7711639404297</t>
   </si>
   <si>
     <t xml:space="preserve">16.8550262451172</t>
@@ -185,34 +185,34 @@
     <t xml:space="preserve">17.8552951812744</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2009143829346</t>
+    <t xml:space="preserve">17.2009124755859</t>
   </si>
   <si>
     <t xml:space="preserve">17.5935440063477</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7992095947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.341136932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5278339385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.873722076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2663536071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6215858459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8924198150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8456783294678</t>
+    <t xml:space="preserve">17.7992057800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3411388397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5278358459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8737201690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2663497924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6215877532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8924179077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8456802368164</t>
   </si>
   <si>
     <t xml:space="preserve">17.4533195495605</t>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">17.9768238067627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7431144714355</t>
+    <t xml:space="preserve">17.7431125640869</t>
   </si>
   <si>
     <t xml:space="preserve">18.2105331420898</t>
@@ -233,61 +233,61 @@
     <t xml:space="preserve">18.4629364013672</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3694515228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1357460021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9394340515137</t>
+    <t xml:space="preserve">18.3694534301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1357440948486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.939432144165</t>
   </si>
   <si>
     <t xml:space="preserve">18.6966457366943</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7620868682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7901287078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.444242477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6779460906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3788013458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2385768890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8085536956787</t>
+    <t xml:space="preserve">18.7620849609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7901268005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4442405700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6779499053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3788032531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2385787963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8085517883301</t>
   </si>
   <si>
     <t xml:space="preserve">17.4813632965088</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8272495269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5000629425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4065761566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0980854034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1635189056396</t>
+    <t xml:space="preserve">17.8272514343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.500057220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4065780639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0980815887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1635208129883</t>
   </si>
   <si>
     <t xml:space="preserve">16.8830718994141</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6306667327881</t>
+    <t xml:space="preserve">16.6306686401367</t>
   </si>
   <si>
     <t xml:space="preserve">16.4623966217041</t>
@@ -296,76 +296,76 @@
     <t xml:space="preserve">16.5652256011963</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0700359344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7708892822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7334957122803</t>
+    <t xml:space="preserve">17.0700397491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7708911895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7334976196289</t>
   </si>
   <si>
     <t xml:space="preserve">16.4810905456543</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6963748931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.836332321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8176288604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5748443603516</t>
+    <t xml:space="preserve">17.6963729858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8363285064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8176326751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5748481750488</t>
   </si>
   <si>
     <t xml:space="preserve">17.3224430084229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3691844940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1165084838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1539001464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2471141815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0508012771606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3592958450317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6303958892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2660827636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2751588821411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7329578399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.172327041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8077411651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.96666431427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7051801681519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3219013214111</t>
+    <t xml:space="preserve">17.3691825866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1165065765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1539039611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2471132278442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0507984161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3592929840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.630392074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2660846710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2751569747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7329559326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1723260879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8077440261841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9666652679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7051830291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3219003677368</t>
   </si>
   <si>
     <t xml:space="preserve">14.9105749130249</t>
@@ -374,58 +374,58 @@
     <t xml:space="preserve">14.2748889923096</t>
   </si>
   <si>
-    <t xml:space="preserve">14.536642074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9386205673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6958341598511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6116981506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7986669540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5462598800659</t>
+    <t xml:space="preserve">14.5366411209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9386186599731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.695837020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.611701965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7986640930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5462579727173</t>
   </si>
   <si>
     <t xml:space="preserve">15.6210470199585</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5930042266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6771402359009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4530467987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9201917648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6864852905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4343528747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1352062225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3876094818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4904403686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3782634735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2941284179688</t>
+    <t xml:space="preserve">15.5930023193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6771373748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4530487060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9201946258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6864833831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4343490600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1352081298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3876075744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.490442276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3782577514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2941246032715</t>
   </si>
   <si>
     <t xml:space="preserve">17.4720153808594</t>
@@ -440,10 +440,10 @@
     <t xml:space="preserve">16.9672069549561</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9487819671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4907093048096</t>
+    <t xml:space="preserve">17.9487838745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4907112121582</t>
   </si>
   <si>
     <t xml:space="preserve">17.3598346710205</t>
@@ -452,79 +452,79 @@
     <t xml:space="preserve">17.5281047821045</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6683292388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4063034057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0884609222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0604209899902</t>
+    <t xml:space="preserve">17.6683330535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.406307220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0884628295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0604190826416</t>
   </si>
   <si>
     <t xml:space="preserve">16.1258563995361</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2567310333252</t>
+    <t xml:space="preserve">16.2567329406738</t>
   </si>
   <si>
     <t xml:space="preserve">15.9388885498047</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9669342041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8641033172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7893142700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9108448028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3408699035645</t>
+    <t xml:space="preserve">15.9669389724731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8641023635864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7893190383911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9108467102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3408679962158</t>
   </si>
   <si>
     <t xml:space="preserve">17.0232944488525</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3689136505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8360595703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8454084396362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0043296813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6584396362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4527769088745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5280179977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6032609939575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8477983474731</t>
+    <t xml:space="preserve">16.3689155578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8360605239868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8454055786133</t>
+  </si>
+  <s